--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\games\hello-kitty-island-adventure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF3A0F6-8AB8-4D17-8B05-B92F51069CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE3CA8B-9169-4AD5-81FE-68B831BC121F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="1485" windowWidth="21600" windowHeight="13830" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="1080" yWindow="450" windowWidth="21600" windowHeight="13830" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5406,8 +5406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BP10" sqref="BP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7414,10 +7414,13 @@
       <c r="BL9">
         <v>1</v>
       </c>
-      <c r="BM9" t="s">
+      <c r="BM9" s="2" t="s">
         <v>1124</v>
       </c>
       <c r="BO9">
+        <v>1</v>
+      </c>
+      <c r="BP9">
         <v>1</v>
       </c>
       <c r="BQ9" s="2" t="s">
@@ -7623,13 +7626,16 @@
       <c r="BL10">
         <v>1</v>
       </c>
-      <c r="BM10" t="s">
+      <c r="BM10" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="BN10" t="s">
         <v>1112</v>
       </c>
       <c r="BO10">
+        <v>1</v>
+      </c>
+      <c r="BP10">
         <v>1</v>
       </c>
       <c r="BQ10" s="2" t="s">
@@ -7826,10 +7832,13 @@
       <c r="BL11">
         <v>1</v>
       </c>
-      <c r="BM11" t="s">
+      <c r="BM11" s="2" t="s">
         <v>1126</v>
       </c>
       <c r="BO11">
+        <v>1</v>
+      </c>
+      <c r="BP11">
         <v>1</v>
       </c>
       <c r="BQ11" s="2" t="s">
@@ -8014,13 +8023,16 @@
       <c r="BK12">
         <v>1</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="BM12" s="2" t="s">
         <v>1127</v>
       </c>
       <c r="BN12" t="s">
         <v>1112</v>
       </c>
       <c r="BO12">
+        <v>1</v>
+      </c>
+      <c r="BP12">
         <v>1</v>
       </c>
       <c r="BQ12" s="2" t="s">
@@ -8629,7 +8641,7 @@
       <c r="BT15">
         <v>1</v>
       </c>
-      <c r="BU15" t="s">
+      <c r="BU15" s="2" t="s">
         <v>1040</v>
       </c>
       <c r="BV15" t="s">
@@ -8637,6 +8649,9 @@
       </c>
       <c r="BW15">
         <v>3</v>
+      </c>
+      <c r="BX15">
+        <v>1</v>
       </c>
       <c r="BY15" t="s">
         <v>708</v>
@@ -10194,13 +10209,16 @@
       <c r="BK25">
         <v>1</v>
       </c>
-      <c r="BM25" t="s">
+      <c r="BM25" s="2" t="s">
         <v>1140</v>
       </c>
       <c r="BN25" t="s">
         <v>1112</v>
       </c>
       <c r="BO25">
+        <v>1</v>
+      </c>
+      <c r="BP25">
         <v>1</v>
       </c>
       <c r="BQ25" s="2" t="s">
@@ -10716,7 +10734,7 @@
       <c r="BW31">
         <v>3</v>
       </c>
-      <c r="BX31">
+      <c r="BX31" s="3">
         <v>1</v>
       </c>
     </row>
@@ -11003,7 +11021,7 @@
       <c r="BT35">
         <v>1</v>
       </c>
-      <c r="BU35" t="s">
+      <c r="BU35" s="2" t="s">
         <v>1061</v>
       </c>
       <c r="BV35" t="s">
@@ -11011,6 +11029,9 @@
       </c>
       <c r="BW35">
         <v>3</v>
+      </c>
+      <c r="BX35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:76" x14ac:dyDescent="0.25">

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE3CA8B-9169-4AD5-81FE-68B831BC121F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768624A8-0433-4187-B646-4DFFC0D8180E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="450" windowWidth="21600" windowHeight="13830" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5406,8 +5406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BP10" sqref="BP10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5795,6 +5795,9 @@
       <c r="W2">
         <v>1</v>
       </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
       <c r="Y2" t="s">
         <v>414</v>
       </c>
@@ -6028,6 +6031,9 @@
       <c r="AA3">
         <v>1</v>
       </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
       <c r="AC3" t="s">
         <v>460</v>
       </c>
@@ -6249,6 +6255,9 @@
       <c r="AA4">
         <v>1</v>
       </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
       <c r="AC4" t="s">
         <v>461</v>
       </c>
@@ -7118,6 +7127,9 @@
       <c r="W8">
         <v>1</v>
       </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
       <c r="Y8" t="s">
         <v>351</v>
       </c>
@@ -7542,6 +7554,9 @@
       <c r="W10">
         <v>1</v>
       </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
       <c r="Y10" t="s">
         <v>367</v>
       </c>
@@ -7748,6 +7763,9 @@
       <c r="W11">
         <v>1</v>
       </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
       <c r="Y11" s="2" t="s">
         <v>282</v>
       </c>
@@ -7755,6 +7773,9 @@
         <v>172</v>
       </c>
       <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
         <v>1</v>
       </c>
       <c r="AC11" t="s">
@@ -8139,6 +8160,9 @@
       <c r="W13">
         <v>1</v>
       </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
       <c r="Y13" t="s">
         <v>372</v>
       </c>
@@ -8348,6 +8372,9 @@
       <c r="AA14">
         <v>1</v>
       </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
       <c r="AC14" t="s">
         <v>467</v>
       </c>
@@ -8924,6 +8951,9 @@
       <c r="AA17">
         <v>1</v>
       </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
       <c r="AC17" t="s">
         <v>469</v>
       </c>
@@ -9637,6 +9667,9 @@
       <c r="AA21">
         <v>1</v>
       </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
       <c r="AC21" t="s">
         <v>471</v>
       </c>
@@ -9804,6 +9837,9 @@
       <c r="AA22">
         <v>1</v>
       </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
       <c r="AC22" t="s">
         <v>471</v>
       </c>
@@ -9950,6 +9986,9 @@
       <c r="AA23">
         <v>1</v>
       </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
       <c r="AC23" t="s">
         <v>472</v>
       </c>
@@ -10069,6 +10108,9 @@
       <c r="W24">
         <v>1</v>
       </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
       <c r="Y24" t="s">
         <v>309</v>
       </c>
@@ -10182,6 +10224,9 @@
       <c r="W25">
         <v>1</v>
       </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
       <c r="Y25" t="s">
         <v>359</v>
       </c>
@@ -10292,6 +10337,9 @@
       <c r="W26">
         <v>1</v>
       </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
       <c r="Y26" t="s">
         <v>361</v>
       </c>
@@ -10461,6 +10509,9 @@
       <c r="W28">
         <v>1</v>
       </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
       <c r="Y28" s="2" t="s">
         <v>313</v>
       </c>
@@ -10468,6 +10519,9 @@
         <v>164</v>
       </c>
       <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
         <v>1</v>
       </c>
       <c r="BI28" t="s">
@@ -10538,6 +10592,9 @@
       <c r="W29">
         <v>1</v>
       </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
       <c r="Y29" t="s">
         <v>374</v>
       </c>
@@ -10621,6 +10678,9 @@
       <c r="AA30">
         <v>1</v>
       </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
       <c r="BI30" t="s">
         <v>1472</v>
       </c>
@@ -10698,6 +10758,9 @@
       <c r="AA31">
         <v>1</v>
       </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
       <c r="BI31" t="s">
         <v>1473</v>
       </c>
@@ -10775,6 +10838,9 @@
       <c r="AA32">
         <v>1</v>
       </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
       <c r="BI32" s="2" t="s">
         <v>1474</v>
       </c>
@@ -10852,6 +10918,9 @@
       <c r="AA33">
         <v>1</v>
       </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
       <c r="BI33" s="2" t="s">
         <v>1475</v>
       </c>
@@ -11257,6 +11326,9 @@
       <c r="W39">
         <v>1</v>
       </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
       <c r="BI39" t="s">
         <v>1481</v>
       </c>
@@ -11316,6 +11388,9 @@
       <c r="W40">
         <v>1</v>
       </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
       <c r="BI40" t="s">
         <v>1482</v>
       </c>
@@ -11546,6 +11621,9 @@
       <c r="W44">
         <v>1</v>
       </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
       <c r="BI44" t="s">
         <v>1486</v>
       </c>
@@ -11658,6 +11736,9 @@
       <c r="W46">
         <v>1</v>
       </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
       <c r="BI46" t="s">
         <v>1488</v>
       </c>
@@ -12178,7 +12259,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 CH2:CH3 A2:CF8 CI2:XFD13 CH5:CH6 CG7:CH8 CG9 CH9:CH10 BY9:CF13 A9:BT24 BU9:BX994 BY14:XFD1000 BQ25:BT999 A25:BP1000">
+  <conditionalFormatting sqref="A1:XFD1 CH2:CH3 CI2:XFD13 CH5:CH6 CG7:CH8 CG9 CH9:CH10 BY9:CF13 BU9:BX994 BY14:XFD1000 BQ25:BT999 Y24:BT24 Y25:BP26 A24:X26 A27:BP1000 A9:BT23 A2:CF8">
     <cfRule type="containsText" dxfId="27" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768624A8-0433-4187-B646-4DFFC0D8180E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38386BCE-F7AE-4244-879D-29FC8DAF2E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="1275" yWindow="510" windowWidth="21600" windowHeight="13830" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5406,8 +5406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BN11" sqref="BN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7005,10 +7005,13 @@
       <c r="BK7">
         <v>1</v>
       </c>
-      <c r="BM7" t="s">
+      <c r="BM7" s="2" t="s">
         <v>1122</v>
       </c>
       <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
         <v>1</v>
       </c>
       <c r="BQ7" t="s">
@@ -12259,7 +12262,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 CH2:CH3 CI2:XFD13 CH5:CH6 CG7:CH8 CG9 CH9:CH10 BY9:CF13 BU9:BX994 BY14:XFD1000 BQ25:BT999 Y24:BT24 Y25:BP26 A24:X26 A27:BP1000 A9:BT23 A2:CF8">
+  <conditionalFormatting sqref="A1:XFD1 CH2:CH3 A2:CF8 CI2:XFD13 CH5:CH6 CG7:CH8 CG9 CH9:CH10 BY9:CF13 A9:BT23 BU9:BX994 BY14:XFD1000 Y24:BT24 A24:X26 Y25:BP26 BQ25:BT999 A27:BP1000">
     <cfRule type="containsText" dxfId="27" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60476E27-3879-4F36-B365-93BC624DE99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAE04BF-FB9C-49CB-9F6A-8CC5FF67645A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
@@ -4870,7 +4870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4881,16 +4881,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="33">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5055,106 +5148,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -5197,10 +5190,10 @@
     <tableColumn id="3" xr3:uid="{67BA542E-A92B-464D-9C55-15FD3BA24444}" name="Location"/>
     <tableColumn id="4" xr3:uid="{8144ACCD-B001-4F9D-B87C-6C497C658DFE}" name="Item/Decor Requirements"/>
     <tableColumn id="5" xr3:uid="{57F66957-D073-4581-9F70-8D34A88575FD}" name="Daily Gift"/>
-    <tableColumn id="6" xr3:uid="{537E9DCC-239F-4D35-BCE6-8CB9BFB45223}" name="Description with Line Breaks" dataDxfId="33">
+    <tableColumn id="6" xr3:uid="{537E9DCC-239F-4D35-BCE6-8CB9BFB45223}" name="Description with Line Breaks" dataDxfId="32">
       <calculatedColumnFormula xml:space="preserve"> "Schedule: " &amp; Table1[[#This Row],[Visiting Schedule]] &amp; CHAR(10) &amp; "Location: " &amp; Table1[[#This Row],[Location]] &amp; CHAR(10) &amp; "Item/Decor Requirements: " &amp; Table1[[#This Row],[Item/Decor Requirements]] &amp; CHAR(10) &amp; "Daily Gift: " &amp; Table1[[#This Row],[Daily Gift]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E50BEB41-434D-4EDF-814B-0A977903EEA3}" name="Description without Line Breaks" dataDxfId="32">
+    <tableColumn id="7" xr3:uid="{E50BEB41-434D-4EDF-814B-0A977903EEA3}" name="Description without Line Breaks" dataDxfId="31">
       <calculatedColumnFormula xml:space="preserve"> "Schedule: " &amp; Table1[[#This Row],[Visiting Schedule]] &amp; " /// Location: " &amp; Table1[[#This Row],[Location]] &amp; " /// Item Requirements: " &amp; Table1[[#This Row],[Item/Decor Requirements]] &amp; " /// Daily Gift: " &amp; Table1[[#This Row],[Daily Gift]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5219,13 +5212,13 @@
     <tableColumn id="8" xr3:uid="{7C1C2515-B9D8-45FE-9359-EA852AF05641}" name="Column1"/>
     <tableColumn id="1" xr3:uid="{380CE29E-A949-4954-B10D-CBB92EBE432A}" name="Region"/>
     <tableColumn id="2" xr3:uid="{F8A98686-C2B1-4D72-8EE6-3DFA85AFF688}" name="Fish"/>
-    <tableColumn id="6" xr3:uid="{18B2DD51-2A8F-46E2-B608-19A620E07545}" name="Name" dataDxfId="31">
+    <tableColumn id="6" xr3:uid="{18B2DD51-2A8F-46E2-B608-19A620E07545}" name="Name" dataDxfId="30">
       <calculatedColumnFormula>Tbl_Fishing[[#This Row],[Region]] &amp; " - " &amp; Tbl_Fishing[[#This Row],[Fish]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{6EE718AE-717B-450F-AB60-68A1FC341603}" name="Location"/>
     <tableColumn id="4" xr3:uid="{F9636F26-A4D9-495A-B262-03386101172F}" name="Time"/>
     <tableColumn id="5" xr3:uid="{72995A89-7D21-4A08-BD4C-048FF0E81A79}" name="Rarity"/>
-    <tableColumn id="7" xr3:uid="{3AD6DEA4-0FD9-49BB-A6C1-7138C775149E}" name="Description" dataDxfId="30">
+    <tableColumn id="7" xr3:uid="{3AD6DEA4-0FD9-49BB-A6C1-7138C775149E}" name="Description" dataDxfId="29">
       <calculatedColumnFormula>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5244,13 +5237,13 @@
     <tableColumn id="6" xr3:uid="{04674BA7-561C-43B4-AA53-702B0A90F402}" name="Region Order"/>
     <tableColumn id="1" xr3:uid="{91CAD11C-382E-4DF9-A2FD-BE370A57103A}" name="Region"/>
     <tableColumn id="2" xr3:uid="{24D43D77-F696-4AC9-9938-3DFE01D62DB9}" name="Critter"/>
-    <tableColumn id="7" xr3:uid="{F9762BCC-B476-49DF-A0F9-ACAB1857886B}" name="Name" dataDxfId="29">
+    <tableColumn id="7" xr3:uid="{F9762BCC-B476-49DF-A0F9-ACAB1857886B}" name="Name" dataDxfId="28">
       <calculatedColumnFormula>Table3[[#This Row],[Region]] &amp; " - " &amp; Table3[[#This Row],[Critter]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{1D57E4B8-C021-4B34-9B8B-8DAA071BC910}" name="Location"/>
     <tableColumn id="4" xr3:uid="{527DF911-157E-429B-B380-A788D97C284C}" name="Time"/>
     <tableColumn id="5" xr3:uid="{C5047F6F-39E5-4CEC-B7D7-BF773933D03C}" name="Rarity"/>
-    <tableColumn id="8" xr3:uid="{2B8887D0-9C0D-46DC-9D18-9F7354F8A351}" name="Description" dataDxfId="28">
+    <tableColumn id="8" xr3:uid="{2B8887D0-9C0D-46DC-9D18-9F7354F8A351}" name="Description" dataDxfId="27">
       <calculatedColumnFormula>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5271,7 +5264,7 @@
     <tableColumn id="8" xr3:uid="{B87D96DA-876B-4321-974C-D3CA18927D46}" name="3-Heart Gifts"/>
     <tableColumn id="9" xr3:uid="{A8FFB3A6-3D98-46C6-9DA5-7615BB78E8C5}" name="2-Heart Gifts"/>
     <tableColumn id="10" xr3:uid="{2EF34846-880B-4FE1-BEBA-4EA7E502EABA}" name="1-Heart Gifts"/>
-    <tableColumn id="12" xr3:uid="{6D0FA26C-9E5B-468D-AD99-073C14547B04}" name="Description" dataDxfId="27">
+    <tableColumn id="12" xr3:uid="{6D0FA26C-9E5B-468D-AD99-073C14547B04}" name="Description" dataDxfId="26">
       <calculatedColumnFormula xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5598,8 +5591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="BX18" sqref="BX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6101,16 +6094,16 @@
       <c r="BS2">
         <v>1</v>
       </c>
-      <c r="BU2" s="2" t="s">
+      <c r="BU2" s="6" t="s">
         <v>1296</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BV2" s="6" t="s">
         <v>909</v>
       </c>
       <c r="BW2">
         <v>3</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" s="3">
         <v>1</v>
       </c>
       <c r="BY2" t="s">
@@ -6328,16 +6321,16 @@
       <c r="BS3">
         <v>1</v>
       </c>
-      <c r="BU3" s="2" t="s">
+      <c r="BU3" s="6" t="s">
         <v>1300</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BV3" s="6" t="s">
         <v>913</v>
       </c>
       <c r="BW3">
         <v>3</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" s="3">
         <v>2</v>
       </c>
       <c r="BY3" t="s">
@@ -6552,16 +6545,16 @@
       <c r="BS4">
         <v>1</v>
       </c>
-      <c r="BU4" s="2" t="s">
+      <c r="BU4" s="6" t="s">
         <v>1304</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BV4" s="6" t="s">
         <v>908</v>
       </c>
       <c r="BW4">
         <v>3</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" s="3">
         <v>1</v>
       </c>
       <c r="BY4" t="s">
@@ -6770,16 +6763,16 @@
       <c r="BS5">
         <v>1</v>
       </c>
-      <c r="BU5" s="2" t="s">
+      <c r="BU5" s="6" t="s">
         <v>1308</v>
       </c>
-      <c r="BV5" t="s">
+      <c r="BV5" s="6" t="s">
         <v>910</v>
       </c>
       <c r="BW5">
         <v>3</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" s="3">
         <v>1</v>
       </c>
       <c r="BY5" t="s">
@@ -7000,16 +6993,16 @@
       <c r="BS6">
         <v>1</v>
       </c>
-      <c r="BU6" s="2" t="s">
+      <c r="BU6" s="6" t="s">
         <v>1312</v>
       </c>
-      <c r="BV6" t="s">
+      <c r="BV6" s="6" t="s">
         <v>911</v>
       </c>
       <c r="BW6">
         <v>3</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" s="3">
         <v>1</v>
       </c>
       <c r="BY6" t="s">
@@ -7221,16 +7214,16 @@
       <c r="BS7">
         <v>1</v>
       </c>
-      <c r="BU7" s="2" t="s">
+      <c r="BU7" s="6" t="s">
         <v>1315</v>
       </c>
-      <c r="BV7" t="s">
+      <c r="BV7" s="6" t="s">
         <v>912</v>
       </c>
       <c r="BW7">
         <v>3</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" s="3">
         <v>1</v>
       </c>
       <c r="BY7" t="s">
@@ -7439,16 +7432,16 @@
       <c r="BS8">
         <v>1</v>
       </c>
-      <c r="BU8" s="2" t="s">
+      <c r="BU8" s="6" t="s">
         <v>1318</v>
       </c>
-      <c r="BV8" t="s">
+      <c r="BV8" s="6" t="s">
         <v>815</v>
       </c>
       <c r="BW8">
         <v>3</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" s="3">
         <v>1</v>
       </c>
       <c r="BY8" t="s">
@@ -7480,13 +7473,16 @@
       </c>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
@@ -7642,16 +7638,16 @@
       <c r="BS9">
         <v>1</v>
       </c>
-      <c r="BU9" s="2" t="s">
+      <c r="BU9" s="6" t="s">
         <v>1324</v>
       </c>
-      <c r="BV9" t="s">
+      <c r="BV9" s="6" t="s">
         <v>920</v>
       </c>
       <c r="BW9">
         <v>3</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" s="3">
         <v>1</v>
       </c>
       <c r="BY9" t="s">
@@ -7854,16 +7850,16 @@
       <c r="BS10">
         <v>1</v>
       </c>
-      <c r="BU10" s="2" t="s">
+      <c r="BU10" s="6" t="s">
         <v>1328</v>
       </c>
-      <c r="BV10" t="s">
+      <c r="BV10" s="6" t="s">
         <v>917</v>
       </c>
       <c r="BW10">
         <v>3</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" s="3">
         <v>1</v>
       </c>
       <c r="BY10" t="s">
@@ -8060,16 +8056,16 @@
       <c r="BS11">
         <v>1</v>
       </c>
-      <c r="BU11" s="2" t="s">
+      <c r="BU11" s="6" t="s">
         <v>1332</v>
       </c>
-      <c r="BV11" t="s">
+      <c r="BV11" s="6" t="s">
         <v>914</v>
       </c>
       <c r="BW11">
         <v>3</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" s="3">
         <v>1</v>
       </c>
       <c r="BY11" t="s">
@@ -8251,16 +8247,16 @@
       <c r="BS12">
         <v>1</v>
       </c>
-      <c r="BU12" s="2" t="s">
+      <c r="BU12" s="6" t="s">
         <v>1336</v>
       </c>
-      <c r="BV12" t="s">
+      <c r="BV12" s="6" t="s">
         <v>916</v>
       </c>
       <c r="BW12">
         <v>3</v>
       </c>
-      <c r="BX12">
+      <c r="BX12" s="3">
         <v>1</v>
       </c>
       <c r="BY12" t="s">
@@ -8445,16 +8441,16 @@
       <c r="BS13">
         <v>1</v>
       </c>
-      <c r="BU13" s="2" t="s">
+      <c r="BU13" s="6" t="s">
         <v>1339</v>
       </c>
-      <c r="BV13" t="s">
+      <c r="BV13" s="6" t="s">
         <v>918</v>
       </c>
       <c r="BW13">
         <v>3</v>
       </c>
-      <c r="BX13">
+      <c r="BX13" s="3">
         <v>1</v>
       </c>
       <c r="BY13" t="s">
@@ -8642,16 +8638,16 @@
       <c r="BS14">
         <v>1</v>
       </c>
-      <c r="BU14" s="2" t="s">
+      <c r="BU14" s="6" t="s">
         <v>1342</v>
       </c>
-      <c r="BV14" t="s">
+      <c r="BV14" s="6" t="s">
         <v>915</v>
       </c>
       <c r="BW14">
         <v>3</v>
       </c>
-      <c r="BX14">
+      <c r="BX14" s="3">
         <v>2</v>
       </c>
       <c r="BY14" t="s">
@@ -8839,16 +8835,16 @@
       <c r="BS15">
         <v>1</v>
       </c>
-      <c r="BU15" s="2" t="s">
+      <c r="BU15" s="6" t="s">
         <v>1344</v>
       </c>
-      <c r="BV15" t="s">
+      <c r="BV15" s="6" t="s">
         <v>919</v>
       </c>
       <c r="BW15">
         <v>3</v>
       </c>
-      <c r="BX15">
+      <c r="BX15" s="3">
         <v>1</v>
       </c>
       <c r="BY15" t="s">
@@ -9030,14 +9026,14 @@
       <c r="BU16" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="BV16" t="s">
+      <c r="BV16" s="2" t="s">
         <v>923</v>
       </c>
       <c r="BW16">
         <v>3</v>
       </c>
       <c r="BX16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BY16" t="s">
         <v>647</v>
@@ -9212,7 +9208,7 @@
       <c r="BU17" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="BV17" t="s">
+      <c r="BV17" s="2" t="s">
         <v>922</v>
       </c>
       <c r="BW17">
@@ -9397,14 +9393,14 @@
       <c r="BU18" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="BV18" t="s">
+      <c r="BV18" s="2" t="s">
         <v>845</v>
       </c>
       <c r="BW18">
         <v>3</v>
       </c>
       <c r="BX18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BY18" t="s">
         <v>656</v>
@@ -9567,13 +9563,16 @@
       <c r="BS19">
         <v>1</v>
       </c>
-      <c r="BU19" t="s">
+      <c r="BU19" s="2" t="s">
         <v>1357</v>
       </c>
-      <c r="BV19" t="s">
+      <c r="BV19" s="2" t="s">
         <v>924</v>
       </c>
       <c r="BW19">
+        <v>3</v>
+      </c>
+      <c r="BX19">
         <v>3</v>
       </c>
       <c r="BY19" t="s">
@@ -9743,14 +9742,14 @@
       <c r="BU20" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="BV20" t="s">
+      <c r="BV20" s="2" t="s">
         <v>925</v>
       </c>
       <c r="BW20">
         <v>3</v>
       </c>
       <c r="BX20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BY20" t="s">
         <v>662</v>
@@ -9892,7 +9891,7 @@
       <c r="BK21">
         <v>1</v>
       </c>
-      <c r="BM21" t="s">
+      <c r="BM21" s="2" t="s">
         <v>1362</v>
       </c>
       <c r="BN21" t="s">
@@ -9901,6 +9900,9 @@
       <c r="BO21">
         <v>1</v>
       </c>
+      <c r="BP21">
+        <v>1</v>
+      </c>
       <c r="BQ21" t="s">
         <v>1500</v>
       </c>
@@ -9910,13 +9912,16 @@
       <c r="BS21">
         <v>1</v>
       </c>
-      <c r="BU21" t="s">
+      <c r="BU21" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="BV21" t="s">
+      <c r="BV21" s="2" t="s">
         <v>921</v>
       </c>
       <c r="BW21">
+        <v>3</v>
+      </c>
+      <c r="BX21">
         <v>3</v>
       </c>
       <c r="BY21" t="s">
@@ -10077,16 +10082,16 @@
       <c r="BS22">
         <v>1</v>
       </c>
-      <c r="BU22" s="2" t="s">
+      <c r="BU22" s="6" t="s">
         <v>1385</v>
       </c>
-      <c r="BV22" s="2" t="s">
+      <c r="BV22" s="6" t="s">
         <v>927</v>
       </c>
       <c r="BW22">
         <v>3</v>
       </c>
-      <c r="BX22">
+      <c r="BX22" s="3">
         <v>1</v>
       </c>
       <c r="BY22" t="s">
@@ -10191,7 +10196,7 @@
       <c r="BK23">
         <v>1</v>
       </c>
-      <c r="BM23" t="s">
+      <c r="BM23" s="2" t="s">
         <v>1369</v>
       </c>
       <c r="BN23" t="s">
@@ -10200,6 +10205,9 @@
       <c r="BO23">
         <v>1</v>
       </c>
+      <c r="BP23">
+        <v>1</v>
+      </c>
       <c r="BQ23" t="s">
         <v>1503</v>
       </c>
@@ -10209,16 +10217,16 @@
       <c r="BS23">
         <v>1</v>
       </c>
-      <c r="BU23" s="2" t="s">
+      <c r="BU23" s="6" t="s">
         <v>1386</v>
       </c>
-      <c r="BV23" s="2" t="s">
+      <c r="BV23" s="6" t="s">
         <v>930</v>
       </c>
       <c r="BW23">
         <v>3</v>
       </c>
-      <c r="BX23">
+      <c r="BX23" s="3">
         <v>1</v>
       </c>
       <c r="BY23" t="s">
@@ -10332,16 +10340,16 @@
       <c r="BS24">
         <v>1</v>
       </c>
-      <c r="BU24" s="2" t="s">
+      <c r="BU24" s="6" t="s">
         <v>1388</v>
       </c>
-      <c r="BV24" s="2" t="s">
+      <c r="BV24" s="6" t="s">
         <v>934</v>
       </c>
       <c r="BW24">
         <v>3</v>
       </c>
-      <c r="BX24">
+      <c r="BX24" s="3">
         <v>1</v>
       </c>
     </row>
@@ -10448,16 +10456,16 @@
       <c r="BS25">
         <v>1</v>
       </c>
-      <c r="BU25" s="2" t="s">
+      <c r="BU25" s="6" t="s">
         <v>1390</v>
       </c>
-      <c r="BV25" s="2" t="s">
+      <c r="BV25" s="6" t="s">
         <v>932</v>
       </c>
       <c r="BW25">
         <v>3</v>
       </c>
-      <c r="BX25">
+      <c r="BX25" s="3">
         <v>1</v>
       </c>
     </row>
@@ -10546,16 +10554,16 @@
       <c r="BS26">
         <v>1</v>
       </c>
-      <c r="BU26" s="2" t="s">
+      <c r="BU26" s="6" t="s">
         <v>1392</v>
       </c>
-      <c r="BV26" s="2" t="s">
+      <c r="BV26" s="6" t="s">
         <v>928</v>
       </c>
       <c r="BW26">
         <v>3</v>
       </c>
-      <c r="BX26">
+      <c r="BX26" s="3">
         <v>1</v>
       </c>
     </row>
@@ -10638,16 +10646,16 @@
       <c r="BT27">
         <v>1</v>
       </c>
-      <c r="BU27" s="2" t="s">
+      <c r="BU27" s="6" t="s">
         <v>1394</v>
       </c>
-      <c r="BV27" s="2" t="s">
+      <c r="BV27" s="6" t="s">
         <v>933</v>
       </c>
       <c r="BW27">
         <v>3</v>
       </c>
-      <c r="BX27">
+      <c r="BX27" s="3">
         <v>1</v>
       </c>
     </row>
@@ -10727,16 +10735,16 @@
       <c r="BT28">
         <v>1</v>
       </c>
-      <c r="BU28" s="2" t="s">
+      <c r="BU28" s="6" t="s">
         <v>1397</v>
       </c>
-      <c r="BV28" s="2" t="s">
+      <c r="BV28" s="6" t="s">
         <v>929</v>
       </c>
       <c r="BW28">
         <v>3</v>
       </c>
-      <c r="BX28">
+      <c r="BX28" s="3">
         <v>1</v>
       </c>
     </row>
@@ -10810,16 +10818,16 @@
       <c r="BT29">
         <v>1</v>
       </c>
-      <c r="BU29" s="2" t="s">
+      <c r="BU29" s="6" t="s">
         <v>1400</v>
       </c>
-      <c r="BV29" s="2" t="s">
+      <c r="BV29" s="6" t="s">
         <v>926</v>
       </c>
       <c r="BW29">
         <v>3</v>
       </c>
-      <c r="BX29">
+      <c r="BX29" s="3">
         <v>1</v>
       </c>
     </row>
@@ -10893,16 +10901,16 @@
       <c r="BT30">
         <v>1</v>
       </c>
-      <c r="BU30" s="2" t="s">
+      <c r="BU30" s="6" t="s">
         <v>1403</v>
       </c>
-      <c r="BV30" s="2" t="s">
+      <c r="BV30" s="6" t="s">
         <v>931</v>
       </c>
       <c r="BW30">
         <v>3</v>
       </c>
-      <c r="BX30">
+      <c r="BX30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -10979,10 +10987,10 @@
       <c r="BT31">
         <v>1</v>
       </c>
-      <c r="BU31" s="2" t="s">
+      <c r="BU31" s="6" t="s">
         <v>1406</v>
       </c>
-      <c r="BV31" s="2" t="s">
+      <c r="BV31" s="6" t="s">
         <v>935</v>
       </c>
       <c r="BW31">
@@ -11062,10 +11070,10 @@
       <c r="BT32">
         <v>1</v>
       </c>
-      <c r="BU32" t="s">
+      <c r="BU32" s="6" t="s">
         <v>1411</v>
       </c>
-      <c r="BV32" t="s">
+      <c r="BV32" s="6" t="s">
         <v>936</v>
       </c>
       <c r="BW32">
@@ -11142,16 +11150,16 @@
       <c r="BT33">
         <v>1</v>
       </c>
-      <c r="BU33" s="2" t="s">
+      <c r="BU33" s="6" t="s">
         <v>1412</v>
       </c>
-      <c r="BV33" s="2" t="s">
+      <c r="BV33" s="6" t="s">
         <v>938</v>
       </c>
       <c r="BW33">
         <v>3</v>
       </c>
-      <c r="BX33">
+      <c r="BX33" s="3">
         <v>1</v>
       </c>
     </row>
@@ -11216,16 +11224,16 @@
       <c r="BT34">
         <v>1</v>
       </c>
-      <c r="BU34" s="2" t="s">
+      <c r="BU34" s="6" t="s">
         <v>1415</v>
       </c>
-      <c r="BV34" s="2" t="s">
+      <c r="BV34" s="6" t="s">
         <v>937</v>
       </c>
       <c r="BW34">
         <v>3</v>
       </c>
-      <c r="BX34">
+      <c r="BX34" s="3">
         <v>1</v>
       </c>
     </row>
@@ -11290,16 +11298,16 @@
       <c r="BT35">
         <v>1</v>
       </c>
-      <c r="BU35" s="2" t="s">
+      <c r="BU35" s="6" t="s">
         <v>1418</v>
       </c>
-      <c r="BV35" t="s">
+      <c r="BV35" s="6" t="s">
         <v>939</v>
       </c>
       <c r="BW35">
         <v>3</v>
       </c>
-      <c r="BX35">
+      <c r="BX35" s="3">
         <v>1</v>
       </c>
     </row>
@@ -11361,16 +11369,16 @@
       <c r="BT36">
         <v>1</v>
       </c>
-      <c r="BU36" s="2" t="s">
+      <c r="BU36" s="6" t="s">
         <v>1421</v>
       </c>
-      <c r="BV36" s="2" t="s">
+      <c r="BV36" s="6" t="s">
         <v>940</v>
       </c>
       <c r="BW36">
         <v>3</v>
       </c>
-      <c r="BX36">
+      <c r="BX36" s="3">
         <v>1</v>
       </c>
     </row>
@@ -11423,16 +11431,16 @@
       <c r="BT37">
         <v>1</v>
       </c>
-      <c r="BU37" s="2" t="s">
+      <c r="BU37" s="6" t="s">
         <v>1424</v>
       </c>
-      <c r="BV37" s="2" t="s">
+      <c r="BV37" s="6" t="s">
         <v>941</v>
       </c>
       <c r="BW37">
         <v>3</v>
       </c>
-      <c r="BX37">
+      <c r="BX37" s="3">
         <v>1</v>
       </c>
     </row>
@@ -11488,10 +11496,10 @@
       <c r="BT38">
         <v>1</v>
       </c>
-      <c r="BU38" t="s">
+      <c r="BU38" s="6" t="s">
         <v>1444</v>
       </c>
-      <c r="BV38" t="s">
+      <c r="BV38" s="6" t="s">
         <v>942</v>
       </c>
       <c r="BW38">
@@ -11553,10 +11561,10 @@
       <c r="BT39">
         <v>1</v>
       </c>
-      <c r="BU39" t="s">
+      <c r="BU39" s="6" t="s">
         <v>1445</v>
       </c>
-      <c r="BV39" t="s">
+      <c r="BV39" s="6" t="s">
         <v>946</v>
       </c>
       <c r="BW39">
@@ -11615,10 +11623,10 @@
       <c r="BT40">
         <v>1</v>
       </c>
-      <c r="BU40" t="s">
+      <c r="BU40" s="6" t="s">
         <v>1446</v>
       </c>
-      <c r="BV40" t="s">
+      <c r="BV40" s="6" t="s">
         <v>944</v>
       </c>
       <c r="BW40">
@@ -11674,10 +11682,10 @@
       <c r="BT41">
         <v>1</v>
       </c>
-      <c r="BU41" t="s">
+      <c r="BU41" s="6" t="s">
         <v>1447</v>
       </c>
-      <c r="BV41" t="s">
+      <c r="BV41" s="6" t="s">
         <v>947</v>
       </c>
       <c r="BW41">
@@ -11733,10 +11741,10 @@
       <c r="BT42">
         <v>1</v>
       </c>
-      <c r="BU42" s="2" t="s">
+      <c r="BU42" s="6" t="s">
         <v>1449</v>
       </c>
-      <c r="BV42" t="s">
+      <c r="BV42" s="6" t="s">
         <v>943</v>
       </c>
       <c r="BW42">
@@ -11798,10 +11806,10 @@
       <c r="BT43">
         <v>1</v>
       </c>
-      <c r="BU43" t="s">
+      <c r="BU43" s="6" t="s">
         <v>1451</v>
       </c>
-      <c r="BV43" t="s">
+      <c r="BV43" s="6" t="s">
         <v>945</v>
       </c>
       <c r="BW43">
@@ -11863,10 +11871,10 @@
       <c r="BT44">
         <v>1</v>
       </c>
-      <c r="BU44" t="s">
+      <c r="BU44" s="6" t="s">
         <v>1466</v>
       </c>
-      <c r="BV44" t="s">
+      <c r="BV44" s="6" t="s">
         <v>953</v>
       </c>
       <c r="BW44">
@@ -12570,44 +12578,44 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AO2:AR15">
     <sortCondition ref="AO2:AO15"/>
   </sortState>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="containsText" dxfId="25" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+      <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+      <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
+      <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="8" stopIfTrue="1" operator="containsText" text="SnowCicle">
+      <formula>NOT(ISERROR(SEARCH("SnowCicle",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="9" stopIfTrue="1" operator="containsText" text="Bubble">
+      <formula>NOT(ISERROR(SEARCH("Bubble",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="12" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+      <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="containsText" dxfId="10" priority="16" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="19" priority="16" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="containsText" dxfId="9" priority="15" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="18" priority="15" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",V1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576">
-    <cfRule type="containsText" dxfId="8" priority="14" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="17" priority="14" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",Z1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1:AD1048576">
-    <cfRule type="containsText" dxfId="7" priority="13" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="16" priority="13" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",AD1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="containsText" dxfId="6" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
-      <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
-      <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
-      <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="8" stopIfTrue="1" operator="containsText" text="SnowCicle">
-      <formula>NOT(ISERROR(SEARCH("SnowCicle",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="9" stopIfTrue="1" operator="containsText" text="Bubble">
-      <formula>NOT(ISERROR(SEARCH("Bubble",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="12" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17130,28 +17138,28 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:F3 A4:E4 A5:F21">
-    <cfRule type="containsText" dxfId="26" priority="9" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+    <cfRule type="containsText" dxfId="15" priority="9" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="10" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="14" priority="10" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="11" stopIfTrue="1" operator="containsText" text="Starfruit">
+    <cfRule type="containsText" dxfId="13" priority="11" stopIfTrue="1" operator="containsText" text="Starfruit">
       <formula>NOT(ISERROR(SEARCH("Starfruit",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="12" stopIfTrue="1" operator="containsText" text="SnowCicle">
+    <cfRule type="containsText" dxfId="12" priority="12" stopIfTrue="1" operator="containsText" text="SnowCicle">
       <formula>NOT(ISERROR(SEARCH("SnowCicle",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="13" stopIfTrue="1" operator="containsText" text="Bubble">
+    <cfRule type="containsText" dxfId="11" priority="13" stopIfTrue="1" operator="containsText" text="Bubble">
       <formula>NOT(ISERROR(SEARCH("Bubble",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="14" stopIfTrue="1" operator="containsText" text="Sakura">
+    <cfRule type="containsText" dxfId="10" priority="14" stopIfTrue="1" operator="containsText" text="Sakura">
       <formula>NOT(ISERROR(SEARCH("Sakura",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="15" stopIfTrue="1" operator="containsText" text="Egg">
+    <cfRule type="containsText" dxfId="9" priority="15" stopIfTrue="1" operator="containsText" text="Egg">
       <formula>NOT(ISERROR(SEARCH("Egg",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="16" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+    <cfRule type="containsText" dxfId="8" priority="16" stopIfTrue="1" operator="containsText" text="Moon Cheese">
       <formula>NOT(ISERROR(SEARCH("Moon Cheese",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17981,28 +17989,28 @@
     <sortCondition ref="B2:B55"/>
   </sortState>
   <conditionalFormatting sqref="B2:E55">
-    <cfRule type="containsText" dxfId="18" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
+    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
       <formula>NOT(ISERROR(SEARCH("Starfruit",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" stopIfTrue="1" operator="containsText" text="SnowCicle">
+    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="SnowCicle">
       <formula>NOT(ISERROR(SEARCH("SnowCicle",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" stopIfTrue="1" operator="containsText" text="Bubble">
+    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="Bubble">
       <formula>NOT(ISERROR(SEARCH("Bubble",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" stopIfTrue="1" operator="containsText" text="Sakura">
+    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="Sakura">
       <formula>NOT(ISERROR(SEARCH("Sakura",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="7" stopIfTrue="1" operator="containsText" text="Egg">
+    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Egg">
       <formula>NOT(ISERROR(SEARCH("Egg",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="8" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+    <cfRule type="containsText" dxfId="0" priority="8" stopIfTrue="1" operator="containsText" text="Moon Cheese">
       <formula>NOT(ISERROR(SEARCH("Moon Cheese",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAE04BF-FB9C-49CB-9F6A-8CC5FF67645A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4FB1B7-007A-4EE3-97A4-7B081FAAF9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
@@ -5592,7 +5592,7 @@
   <dimension ref="A1:CJ62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
-      <selection activeCell="BX18" sqref="BX18"/>
+      <selection activeCell="BW11" sqref="BW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6330,7 +6330,7 @@
       <c r="BW3">
         <v>3</v>
       </c>
-      <c r="BX3" s="3">
+      <c r="BX3" s="6">
         <v>2</v>
       </c>
       <c r="BY3" t="s">
@@ -6554,8 +6554,8 @@
       <c r="BW4">
         <v>3</v>
       </c>
-      <c r="BX4" s="3">
-        <v>1</v>
+      <c r="BX4" s="6">
+        <v>2</v>
       </c>
       <c r="BY4" t="s">
         <v>609</v>
@@ -7223,7 +7223,7 @@
       <c r="BW7">
         <v>3</v>
       </c>
-      <c r="BX7" s="3">
+      <c r="BX7" s="6">
         <v>1</v>
       </c>
       <c r="BY7" t="s">
@@ -8620,13 +8620,16 @@
       <c r="BK14">
         <v>1</v>
       </c>
-      <c r="BM14" t="s">
+      <c r="BM14" s="2" t="s">
         <v>1378</v>
       </c>
       <c r="BN14" t="s">
         <v>1046</v>
       </c>
       <c r="BO14">
+        <v>1</v>
+      </c>
+      <c r="BP14">
         <v>1</v>
       </c>
       <c r="BQ14" t="s">
@@ -10091,8 +10094,8 @@
       <c r="BW22">
         <v>3</v>
       </c>
-      <c r="BX22" s="3">
-        <v>1</v>
+      <c r="BX22" s="6">
+        <v>2</v>
       </c>
       <c r="BY22" t="s">
         <v>661</v>
@@ -10226,8 +10229,8 @@
       <c r="BW23">
         <v>3</v>
       </c>
-      <c r="BX23" s="3">
-        <v>1</v>
+      <c r="BX23" s="6">
+        <v>2</v>
       </c>
       <c r="BY23" t="s">
         <v>669</v>
@@ -10744,7 +10747,7 @@
       <c r="BW28">
         <v>3</v>
       </c>
-      <c r="BX28" s="3">
+      <c r="BX28" s="6">
         <v>1</v>
       </c>
     </row>
@@ -10827,7 +10830,7 @@
       <c r="BW29">
         <v>3</v>
       </c>
-      <c r="BX29" s="3">
+      <c r="BX29" s="6">
         <v>1</v>
       </c>
     </row>
@@ -11159,8 +11162,8 @@
       <c r="BW33">
         <v>3</v>
       </c>
-      <c r="BX33" s="3">
-        <v>1</v>
+      <c r="BX33" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:76" x14ac:dyDescent="0.25">
@@ -11431,17 +11434,17 @@
       <c r="BT37">
         <v>1</v>
       </c>
-      <c r="BU37" s="6" t="s">
+      <c r="BU37" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="BV37" s="6" t="s">
+      <c r="BV37" s="2" t="s">
         <v>941</v>
       </c>
       <c r="BW37">
         <v>3</v>
       </c>
-      <c r="BX37" s="3">
-        <v>1</v>
+      <c r="BX37">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:76" x14ac:dyDescent="0.25">

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4FB1B7-007A-4EE3-97A4-7B081FAAF9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1FC5A7-2AD4-49E7-9543-B6347B65C3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="13830" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4870,7 +4870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4881,7 +4881,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5592,7 +5591,7 @@
   <dimension ref="A1:CJ62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
-      <selection activeCell="BW11" sqref="BW11"/>
+      <selection activeCell="BQ2" sqref="BQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6085,19 +6084,22 @@
       <c r="BO2">
         <v>1</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>1177</v>
       </c>
       <c r="BS2">
         <v>1</v>
       </c>
-      <c r="BU2" s="6" t="s">
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="s">
         <v>1296</v>
       </c>
-      <c r="BV2" s="6" t="s">
+      <c r="BV2" t="s">
         <v>909</v>
       </c>
       <c r="BW2">
@@ -6321,16 +6323,16 @@
       <c r="BS3">
         <v>1</v>
       </c>
-      <c r="BU3" s="6" t="s">
+      <c r="BU3" t="s">
         <v>1300</v>
       </c>
-      <c r="BV3" s="6" t="s">
+      <c r="BV3" t="s">
         <v>913</v>
       </c>
       <c r="BW3">
         <v>3</v>
       </c>
-      <c r="BX3" s="6">
+      <c r="BX3">
         <v>2</v>
       </c>
       <c r="BY3" t="s">
@@ -6545,16 +6547,16 @@
       <c r="BS4">
         <v>1</v>
       </c>
-      <c r="BU4" s="6" t="s">
+      <c r="BU4" t="s">
         <v>1304</v>
       </c>
-      <c r="BV4" s="6" t="s">
+      <c r="BV4" t="s">
         <v>908</v>
       </c>
       <c r="BW4">
         <v>3</v>
       </c>
-      <c r="BX4" s="6">
+      <c r="BX4">
         <v>2</v>
       </c>
       <c r="BY4" t="s">
@@ -6763,10 +6765,10 @@
       <c r="BS5">
         <v>1</v>
       </c>
-      <c r="BU5" s="6" t="s">
+      <c r="BU5" t="s">
         <v>1308</v>
       </c>
-      <c r="BV5" s="6" t="s">
+      <c r="BV5" t="s">
         <v>910</v>
       </c>
       <c r="BW5">
@@ -6993,10 +6995,10 @@
       <c r="BS6">
         <v>1</v>
       </c>
-      <c r="BU6" s="6" t="s">
+      <c r="BU6" t="s">
         <v>1312</v>
       </c>
-      <c r="BV6" s="6" t="s">
+      <c r="BV6" t="s">
         <v>911</v>
       </c>
       <c r="BW6">
@@ -7214,16 +7216,16 @@
       <c r="BS7">
         <v>1</v>
       </c>
-      <c r="BU7" s="6" t="s">
+      <c r="BU7" t="s">
         <v>1315</v>
       </c>
-      <c r="BV7" s="6" t="s">
+      <c r="BV7" t="s">
         <v>912</v>
       </c>
       <c r="BW7">
         <v>3</v>
       </c>
-      <c r="BX7" s="6">
+      <c r="BX7">
         <v>1</v>
       </c>
       <c r="BY7" t="s">
@@ -7432,10 +7434,10 @@
       <c r="BS8">
         <v>1</v>
       </c>
-      <c r="BU8" s="6" t="s">
+      <c r="BU8" t="s">
         <v>1318</v>
       </c>
-      <c r="BV8" s="6" t="s">
+      <c r="BV8" t="s">
         <v>815</v>
       </c>
       <c r="BW8">
@@ -7638,10 +7640,10 @@
       <c r="BS9">
         <v>1</v>
       </c>
-      <c r="BU9" s="6" t="s">
+      <c r="BU9" t="s">
         <v>1324</v>
       </c>
-      <c r="BV9" s="6" t="s">
+      <c r="BV9" t="s">
         <v>920</v>
       </c>
       <c r="BW9">
@@ -7850,10 +7852,10 @@
       <c r="BS10">
         <v>1</v>
       </c>
-      <c r="BU10" s="6" t="s">
+      <c r="BU10" t="s">
         <v>1328</v>
       </c>
-      <c r="BV10" s="6" t="s">
+      <c r="BV10" t="s">
         <v>917</v>
       </c>
       <c r="BW10">
@@ -8056,10 +8058,10 @@
       <c r="BS11">
         <v>1</v>
       </c>
-      <c r="BU11" s="6" t="s">
+      <c r="BU11" t="s">
         <v>1332</v>
       </c>
-      <c r="BV11" s="6" t="s">
+      <c r="BV11" t="s">
         <v>914</v>
       </c>
       <c r="BW11">
@@ -8247,10 +8249,10 @@
       <c r="BS12">
         <v>1</v>
       </c>
-      <c r="BU12" s="6" t="s">
+      <c r="BU12" t="s">
         <v>1336</v>
       </c>
-      <c r="BV12" s="6" t="s">
+      <c r="BV12" t="s">
         <v>916</v>
       </c>
       <c r="BW12">
@@ -8441,10 +8443,10 @@
       <c r="BS13">
         <v>1</v>
       </c>
-      <c r="BU13" s="6" t="s">
+      <c r="BU13" t="s">
         <v>1339</v>
       </c>
-      <c r="BV13" s="6" t="s">
+      <c r="BV13" t="s">
         <v>918</v>
       </c>
       <c r="BW13">
@@ -8641,10 +8643,10 @@
       <c r="BS14">
         <v>1</v>
       </c>
-      <c r="BU14" s="6" t="s">
+      <c r="BU14" t="s">
         <v>1342</v>
       </c>
-      <c r="BV14" s="6" t="s">
+      <c r="BV14" t="s">
         <v>915</v>
       </c>
       <c r="BW14">
@@ -8838,10 +8840,10 @@
       <c r="BS15">
         <v>1</v>
       </c>
-      <c r="BU15" s="6" t="s">
+      <c r="BU15" t="s">
         <v>1344</v>
       </c>
-      <c r="BV15" s="6" t="s">
+      <c r="BV15" t="s">
         <v>919</v>
       </c>
       <c r="BW15">
@@ -10085,16 +10087,16 @@
       <c r="BS22">
         <v>1</v>
       </c>
-      <c r="BU22" s="6" t="s">
+      <c r="BU22" t="s">
         <v>1385</v>
       </c>
-      <c r="BV22" s="6" t="s">
+      <c r="BV22" t="s">
         <v>927</v>
       </c>
       <c r="BW22">
         <v>3</v>
       </c>
-      <c r="BX22" s="6">
+      <c r="BX22">
         <v>2</v>
       </c>
       <c r="BY22" t="s">
@@ -10220,16 +10222,16 @@
       <c r="BS23">
         <v>1</v>
       </c>
-      <c r="BU23" s="6" t="s">
+      <c r="BU23" t="s">
         <v>1386</v>
       </c>
-      <c r="BV23" s="6" t="s">
+      <c r="BV23" t="s">
         <v>930</v>
       </c>
       <c r="BW23">
         <v>3</v>
       </c>
-      <c r="BX23" s="6">
+      <c r="BX23">
         <v>2</v>
       </c>
       <c r="BY23" t="s">
@@ -10343,10 +10345,10 @@
       <c r="BS24">
         <v>1</v>
       </c>
-      <c r="BU24" s="6" t="s">
+      <c r="BU24" t="s">
         <v>1388</v>
       </c>
-      <c r="BV24" s="6" t="s">
+      <c r="BV24" t="s">
         <v>934</v>
       </c>
       <c r="BW24">
@@ -10459,10 +10461,10 @@
       <c r="BS25">
         <v>1</v>
       </c>
-      <c r="BU25" s="6" t="s">
+      <c r="BU25" t="s">
         <v>1390</v>
       </c>
-      <c r="BV25" s="6" t="s">
+      <c r="BV25" t="s">
         <v>932</v>
       </c>
       <c r="BW25">
@@ -10557,10 +10559,10 @@
       <c r="BS26">
         <v>1</v>
       </c>
-      <c r="BU26" s="6" t="s">
+      <c r="BU26" t="s">
         <v>1392</v>
       </c>
-      <c r="BV26" s="6" t="s">
+      <c r="BV26" t="s">
         <v>928</v>
       </c>
       <c r="BW26">
@@ -10649,10 +10651,10 @@
       <c r="BT27">
         <v>1</v>
       </c>
-      <c r="BU27" s="6" t="s">
+      <c r="BU27" t="s">
         <v>1394</v>
       </c>
-      <c r="BV27" s="6" t="s">
+      <c r="BV27" t="s">
         <v>933</v>
       </c>
       <c r="BW27">
@@ -10738,16 +10740,16 @@
       <c r="BT28">
         <v>1</v>
       </c>
-      <c r="BU28" s="6" t="s">
+      <c r="BU28" t="s">
         <v>1397</v>
       </c>
-      <c r="BV28" s="6" t="s">
+      <c r="BV28" t="s">
         <v>929</v>
       </c>
       <c r="BW28">
         <v>3</v>
       </c>
-      <c r="BX28" s="6">
+      <c r="BX28">
         <v>1</v>
       </c>
     </row>
@@ -10821,16 +10823,16 @@
       <c r="BT29">
         <v>1</v>
       </c>
-      <c r="BU29" s="6" t="s">
+      <c r="BU29" t="s">
         <v>1400</v>
       </c>
-      <c r="BV29" s="6" t="s">
+      <c r="BV29" t="s">
         <v>926</v>
       </c>
       <c r="BW29">
         <v>3</v>
       </c>
-      <c r="BX29" s="6">
+      <c r="BX29">
         <v>1</v>
       </c>
     </row>
@@ -10904,10 +10906,10 @@
       <c r="BT30">
         <v>1</v>
       </c>
-      <c r="BU30" s="6" t="s">
+      <c r="BU30" t="s">
         <v>1403</v>
       </c>
-      <c r="BV30" s="6" t="s">
+      <c r="BV30" t="s">
         <v>931</v>
       </c>
       <c r="BW30">
@@ -10990,10 +10992,10 @@
       <c r="BT31">
         <v>1</v>
       </c>
-      <c r="BU31" s="6" t="s">
+      <c r="BU31" t="s">
         <v>1406</v>
       </c>
-      <c r="BV31" s="6" t="s">
+      <c r="BV31" t="s">
         <v>935</v>
       </c>
       <c r="BW31">
@@ -11073,10 +11075,10 @@
       <c r="BT32">
         <v>1</v>
       </c>
-      <c r="BU32" s="6" t="s">
+      <c r="BU32" t="s">
         <v>1411</v>
       </c>
-      <c r="BV32" s="6" t="s">
+      <c r="BV32" t="s">
         <v>936</v>
       </c>
       <c r="BW32">
@@ -11153,16 +11155,16 @@
       <c r="BT33">
         <v>1</v>
       </c>
-      <c r="BU33" s="6" t="s">
+      <c r="BU33" t="s">
         <v>1412</v>
       </c>
-      <c r="BV33" s="6" t="s">
+      <c r="BV33" t="s">
         <v>938</v>
       </c>
       <c r="BW33">
         <v>3</v>
       </c>
-      <c r="BX33" s="6">
+      <c r="BX33">
         <v>2</v>
       </c>
     </row>
@@ -11227,10 +11229,10 @@
       <c r="BT34">
         <v>1</v>
       </c>
-      <c r="BU34" s="6" t="s">
+      <c r="BU34" t="s">
         <v>1415</v>
       </c>
-      <c r="BV34" s="6" t="s">
+      <c r="BV34" t="s">
         <v>937</v>
       </c>
       <c r="BW34">
@@ -11301,10 +11303,10 @@
       <c r="BT35">
         <v>1</v>
       </c>
-      <c r="BU35" s="6" t="s">
+      <c r="BU35" t="s">
         <v>1418</v>
       </c>
-      <c r="BV35" s="6" t="s">
+      <c r="BV35" t="s">
         <v>939</v>
       </c>
       <c r="BW35">
@@ -11372,10 +11374,10 @@
       <c r="BT36">
         <v>1</v>
       </c>
-      <c r="BU36" s="6" t="s">
+      <c r="BU36" t="s">
         <v>1421</v>
       </c>
-      <c r="BV36" s="6" t="s">
+      <c r="BV36" t="s">
         <v>940</v>
       </c>
       <c r="BW36">
@@ -11499,10 +11501,10 @@
       <c r="BT38">
         <v>1</v>
       </c>
-      <c r="BU38" s="6" t="s">
+      <c r="BU38" t="s">
         <v>1444</v>
       </c>
-      <c r="BV38" s="6" t="s">
+      <c r="BV38" t="s">
         <v>942</v>
       </c>
       <c r="BW38">
@@ -11564,10 +11566,10 @@
       <c r="BT39">
         <v>1</v>
       </c>
-      <c r="BU39" s="6" t="s">
+      <c r="BU39" t="s">
         <v>1445</v>
       </c>
-      <c r="BV39" s="6" t="s">
+      <c r="BV39" t="s">
         <v>946</v>
       </c>
       <c r="BW39">
@@ -11626,10 +11628,10 @@
       <c r="BT40">
         <v>1</v>
       </c>
-      <c r="BU40" s="6" t="s">
+      <c r="BU40" t="s">
         <v>1446</v>
       </c>
-      <c r="BV40" s="6" t="s">
+      <c r="BV40" t="s">
         <v>944</v>
       </c>
       <c r="BW40">
@@ -11685,10 +11687,10 @@
       <c r="BT41">
         <v>1</v>
       </c>
-      <c r="BU41" s="6" t="s">
+      <c r="BU41" t="s">
         <v>1447</v>
       </c>
-      <c r="BV41" s="6" t="s">
+      <c r="BV41" t="s">
         <v>947</v>
       </c>
       <c r="BW41">
@@ -11744,10 +11746,10 @@
       <c r="BT42">
         <v>1</v>
       </c>
-      <c r="BU42" s="6" t="s">
+      <c r="BU42" t="s">
         <v>1449</v>
       </c>
-      <c r="BV42" s="6" t="s">
+      <c r="BV42" t="s">
         <v>943</v>
       </c>
       <c r="BW42">
@@ -11809,10 +11811,10 @@
       <c r="BT43">
         <v>1</v>
       </c>
-      <c r="BU43" s="6" t="s">
+      <c r="BU43" t="s">
         <v>1451</v>
       </c>
-      <c r="BV43" s="6" t="s">
+      <c r="BV43" t="s">
         <v>945</v>
       </c>
       <c r="BW43">
@@ -11874,10 +11876,10 @@
       <c r="BT44">
         <v>1</v>
       </c>
-      <c r="BU44" s="6" t="s">
+      <c r="BU44" t="s">
         <v>1466</v>
       </c>
-      <c r="BV44" s="6" t="s">
+      <c r="BV44" t="s">
         <v>953</v>
       </c>
       <c r="BW44">

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1FC5A7-2AD4-49E7-9543-B6347B65C3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED28D8-D399-4AA0-8B1D-2FE3B17C3EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="13830" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
@@ -4870,7 +4870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4881,6 +4881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5590,8 +5591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
-      <selection activeCell="BQ2" sqref="BQ2"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="BV16" sqref="BV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7649,7 +7650,7 @@
       <c r="BW9">
         <v>3</v>
       </c>
-      <c r="BX9" s="3">
+      <c r="BX9" s="6">
         <v>1</v>
       </c>
       <c r="BY9" t="s">
@@ -7861,8 +7862,8 @@
       <c r="BW10">
         <v>3</v>
       </c>
-      <c r="BX10" s="3">
-        <v>1</v>
+      <c r="BX10" s="6">
+        <v>2</v>
       </c>
       <c r="BY10" t="s">
         <v>627</v>
@@ -8258,7 +8259,7 @@
       <c r="BW12">
         <v>3</v>
       </c>
-      <c r="BX12" s="3">
+      <c r="BX12" s="6">
         <v>1</v>
       </c>
       <c r="BY12" t="s">
@@ -8849,8 +8850,8 @@
       <c r="BW15">
         <v>3</v>
       </c>
-      <c r="BX15" s="3">
-        <v>1</v>
+      <c r="BX15" s="6">
+        <v>2</v>
       </c>
       <c r="BY15" t="s">
         <v>645</v>

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED28D8-D399-4AA0-8B1D-2FE3B17C3EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7880D7DE-1BAD-425D-A6F0-7FD0701CDE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="13830" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Fishing" sheetId="5" r:id="rId4"/>
     <sheet name="Critters" sheetId="6" r:id="rId5"/>
     <sheet name="Characters" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="1587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="1533">
   <si>
     <t>General Achievements</t>
   </si>
@@ -2924,168 +2923,6 @@
     <t>Southeast of Town</t>
   </si>
   <si>
-    <t>Seaside Resort - Victor Island Chase</t>
-  </si>
-  <si>
-    <t>Seaside Resort - Resort Roundabout</t>
-  </si>
-  <si>
-    <t>Seaside Resort - Grassy Hill Hustle</t>
-  </si>
-  <si>
-    <t>Seaside Resort - Sandbar Dart</t>
-  </si>
-  <si>
-    <t>Seaside Resort - Seashore Sprint</t>
-  </si>
-  <si>
-    <t>Seaside Resort - Small Island Shuffle</t>
-  </si>
-  <si>
-    <t>Seaside Resort - Moon Island Marathon</t>
-  </si>
-  <si>
-    <t>Spooky Swamp - Lily Pad Leap</t>
-  </si>
-  <si>
-    <t>Spooky Swamp - Swamp Plaza Scamper</t>
-  </si>
-  <si>
-    <t>Spooky Swamp - Preserve Path</t>
-  </si>
-  <si>
-    <t>Spooky Swamp - Hedge Maze Havoc</t>
-  </si>
-  <si>
-    <t>Spooky Swamp - Spooky Swamp Hop</t>
-  </si>
-  <si>
-    <t>Spooky Swamp - Waterfall Falls</t>
-  </si>
-  <si>
-    <t>Spooky Swamp - Ghost Tour Gallop</t>
-  </si>
-  <si>
-    <t>Rainbow Reef - Underpass Paddle</t>
-  </si>
-  <si>
-    <t>Rainbow Reef - Comedy Club Circuit</t>
-  </si>
-  <si>
-    <t>Rainbow Reef - Coastal Trench Traverse</t>
-  </si>
-  <si>
-    <t>Rainbow Reef - Kelp Maze Crawl</t>
-  </si>
-  <si>
-    <t>Rainbow Reef - Reef Arch Ridge</t>
-  </si>
-  <si>
-    <t>Rainbow Reef - Sunken Ship Swim</t>
-  </si>
-  <si>
-    <t>Gemstone Mountain - Oasis Race</t>
-  </si>
-  <si>
-    <t>Gemstone Mountain - Cactus Garden Chase</t>
-  </si>
-  <si>
-    <t>Gemstone Mountain - Gemstone Bridge Bolt</t>
-  </si>
-  <si>
-    <t>Gemstone Mountain - Mountainside Rise</t>
-  </si>
-  <si>
-    <t>Gemstone Mountain - Corral Stampede</t>
-  </si>
-  <si>
-    <t>Gemstone Mountain - Small Hill Scramble</t>
-  </si>
-  <si>
-    <t>Gemstone Mountain - Down Mountain Descent</t>
-  </si>
-  <si>
-    <t>Gemstone Mountain - Island Cliff Shimmy</t>
-  </si>
-  <si>
-    <t>Gemstone Mountain - Donut Pond Splashdown</t>
-  </si>
-  <si>
-    <t>Gemstone Mountain - Tidepool Traverse</t>
-  </si>
-  <si>
-    <t>Mount Hothead - Caldera Plunge</t>
-  </si>
-  <si>
-    <t>Mount Hothead - Hothead Hot Foot</t>
-  </si>
-  <si>
-    <t>Mount Hothead - Hot Spring Hustle</t>
-  </si>
-  <si>
-    <t>Mount Hothead - Lava Rock Drop</t>
-  </si>
-  <si>
-    <t>Mount Hothead - Mountainside Slide</t>
-  </si>
-  <si>
-    <t>Mount Hothead - Ruins Reach</t>
-  </si>
-  <si>
-    <t>Merry Meadows - Beanstalk Blastoff</t>
-  </si>
-  <si>
-    <t>Merry Meadows - Meadows Marathon</t>
-  </si>
-  <si>
-    <t>Merry Meadows - Garden Go Around</t>
-  </si>
-  <si>
-    <t>Merry Meadows - Ridge Rumble</t>
-  </si>
-  <si>
-    <t>Merry Meadows - Cascade Caper</t>
-  </si>
-  <si>
-    <t>Merry Meadows - Lumber Leaping</t>
-  </si>
-  <si>
-    <t>Cloud Island - Moonlight Slide</t>
-  </si>
-  <si>
-    <t>Cloud Island - Water Wings Fly</t>
-  </si>
-  <si>
-    <t>Cloud Island - Small Cloud Bop</t>
-  </si>
-  <si>
-    <t>Cloud Island - Cloud Cabin Cruise</t>
-  </si>
-  <si>
-    <t>Cloud Island - Jet Stream Glide</t>
-  </si>
-  <si>
-    <t>Cloud Island - Circle Time Soar</t>
-  </si>
-  <si>
-    <t>City Town - Road Running</t>
-  </si>
-  <si>
-    <t>City Town - City Swimming</t>
-  </si>
-  <si>
-    <t>City Town - Ascent Conditioning</t>
-  </si>
-  <si>
-    <t>City Town - Around and About</t>
-  </si>
-  <si>
-    <t>City Town - Sky Scraping</t>
-  </si>
-  <si>
-    <t>City Town - Shoreline Shot</t>
-  </si>
-  <si>
     <t>Visitors</t>
   </si>
   <si>
@@ -3452,66 +3289,6 @@
     <t>any stars or cloud. Molten or Sakura frappe. Sweeet dreams stories or dreamy gift. Any shake. Snowcicle. 3 Cheese pizza. Starfruit. Strawberry almond galette. Pink Clouds Ice Cream. Almond Pound Cake</t>
   </si>
   <si>
-    <t xml:space="preserve">Liked Gifts: Fruits, Bakery, Fancy /// 3-Heart Gifts: Red Bow Apple Pie /// 2-Heart Gifts: Candied Banana Coffee, Strawberry Shortcake, Beignets with Pineapple Dip, Mama's Apple Pie, Fruity Cheesecake, Strawberry Cheesecake /// 1-Heart Gifts: Any Baked Goods, Any Themed Gift, Banana Shake, Strawberry Shake, Apple Ice Cream, Strawberry Ice Cream, Fruity Cloud, Designer Island Doll, Strawberry Soda, Apple Soda, Spinip Alfredo Pizza, Fruit Pizza, Strawberry, Pineapple, Apple, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liked Gifts: Sweet, Pink, Dreamy /// 3-Heart Gifts: Pink Clouds Ice Cream /// 2-Heart Gifts: Pink Latte, Almond Pound Cake, Strawberry Almond Galette,  /// 1-Heart Gifts: Strawberry, Swampmallow, Strawberry Shortcake, Sugarkelp, Cinnamon Roll, Beignets with Pineapple Dip, Macaron, Candy Cloud, Sweet Pudding, Sweet Latte, Sweet Soda, Sakura Soda, Boulder Bits Ice Cream, Pink Cloud, Sakura Cheesecake, Strawberry Cheesecake, Strawberry Shake, Toasted Marshmallow Cloud, Sakura Frappe, </t>
-  </si>
-  <si>
-    <t>Liked Gifts: Device, Book, Chocolate /// 3-Heart Gifts: Interactive History of Chocolate Book (Crafting Table - Blank Book, Mechanism, Spark, Chocolate Coin) /// 2-Heart Gifts: Ancient Inventions Book /// 1-Heart Gifts: Chocolate deserts, themed holograms, books, music boxes</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Cloth, Tropical, Fancy /// 3-Heart Gifts: Designer Island Doll /// 2-Heart Gifts: Tropical Material, Tropical Gift, Beignets with Pineapple Dip /// 1-Heart Gifts: Critters or fish (seaside resort), themed gifts, mermaid figure, Future of Everything book, Pineapple, spinip alfredo, or joke pizza</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Joke, Tropical, Pizza /// 3-Heart Gifts: Critter or fish (seaside resort), anything with coconut, any pizza, joke soda, tropical food, tropical hologram /// 2-Heart Gifts: Pineapple pizza /// 1-Heart Gifts: Ultimate Joke Pizza</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Sports, Veggie, Healthy /// 3-Heart Gifts: Pochacco's Energy Pop /// 2-Heart Gifts: Everything Pizza /// 1-Heart Gifts: Food with veggies, tofu</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Critters, Swampy, Wood /// 3-Heart Gifts: Critter Totem /// 2-Heart Gifts: Critters (spooky swamp), Swampy Souvenir Doll /// 1-Heart Gifts: Critters or fish (spooky swamp), swampy items, lotus blossom</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Spooky, Fall, Soda /// 3-Heart Gifts: Pumpkin spice soda /// 2-Heart Gifts: Jack-O-Lantern, Spicy Pumpkin Latte /// 1-Heart Gifts: pumpkin items, spooky cake, any soda</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Cozy Beverage, Chocolate, Spice /// 3-Heart Gifts: Chocolate chai /// 2-Heart Gifts: spicy pumpkin latte, chai, mocha, hot cocoa, molten frappe /// 1-Heart Gifts: anything chocolate, cinnamon bread, cinnamon roll, cappuccino, any coffee/latte</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Music, Rocky, Relax /// 3-Heart Gifts: Mountain Soundtrack /// 2-Heart Gifts: rocky music box, stacked stones /// 1-Heart Gifts: Rocky things, any music box, any critter/fish (gemstone mountain), hot cocoa, mama's pudding, calming crystal</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Dairy, Dessert, Relax /// 3-Heart Gifts: Mama's Pudding /// 2-Heart Gifts: Pudding, Cheese Ice Cream /// 1-Heart Gifts: any dessert, calming or stacked crystals, mountain soundtrack, coral milk, cappuccino, confusing or candied banana coffee. Alfredo, dessert, or spinip alfredo pizza. Cream soda</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Fire, Music, Metal /// 3-Heart Gifts: Volcano Guitar /// 2-Heart Gifts: Volcano soundtrack, sounds of steel soundtrack /// 1-Heart Gifts: any soundtrack or music box. Microphone. Espresso. Pineapple Lava or Surprising soda</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Fish, Fabric, Aquatic /// 3-Heart Gifts: Mermaid Figure /// 2-Heart Gifts: Aquatic Material, any fish in rainbow reef /// 1-Heart Gifts: Any fish, any themed material, anything "aquatic, designer island doll, aquatic souvenir doll</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Digital, Fancy, Stars /// 3-Heart Gifts: Future of Everything book /// 2-Heart Gifts: Computer /// 1-Heart Gifts: any color power crystal decoration. Any themed star or gift. Designer island doll. Glitchy book. Beignets. Spinip Alfredo Pizza. Candied Banana Coffee</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Volcano, Book, Resilience /// 3-Heart Gifts: Greatest Challenge book /// 2-Heart Gifts: Meditations on Resilience book /// 1-Heart Gifts: Anything volcanic. Any themed book. Any critters/fish in Mount Hothead. Volcanic music box</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Fire, Flower, Rare /// 3-Heart Gifts: Rare candle /// 2-Heart Gifts: Flower candle /// 1-Heart Gifts: any flower, rare fish, rare critters. Toasted almond coffee. Surprising or Pineapple Lava soda. Espresso</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Cloud, Wood, Creative /// 3-Heart Gifts: Colorful Lamb Plush /// 2-Heart Gifts: Any lamb plush. Any cloud tree /// 1-Heart Gifts: Any clouds. Any themed dolls. Basic plush, art supplies, sakura. Quattro Formaggio pizza. Pink Clouds ice cream</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Imagination, Mochi, Rainbow /// 3-Heart Gifts: unknown /// 2-Heart Gifts: Dango, Any mochi /// 1-Heart Gifts: Any boba, any onigiri, colorful rainbow plush, rainbow beam, colorpillar critter</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Creative, Dreamy, Cheese /// 3-Heart Gifts: Quattro Formaggio pizza /// 2-Heart Gifts: Cheese cloud, art supplies, 3 cheese pizza /// 1-Heart Gifts: any cheesecake or cloud. Cheese ice cream. Moon cheese. Sweet dreams stories. Dreamy gift. Strawberry almond galette. Pink Clouds Ice Cream. Almond Pound Cake</t>
-  </si>
-  <si>
-    <t>Liked Gifts: Stars, Dreamy, Frozen /// 3-Heart Gifts: Starry Skies Shake /// 2-Heart Gifts: Art supplies, dreamy star /// 1-Heart Gifts: any stars or cloud. Molten or Sakura frappe. Sweeet dreams stories or dreamy gift. Any shake. Snowcicle. 3 Cheese pizza. Starfruit. Strawberry almond galette. Pink Clouds Ice Cream. Almond Pound Cake</t>
-  </si>
-  <si>
     <t>Ingredients - Shaved Ice AND …</t>
   </si>
   <si>
@@ -4803,6 +4580,66 @@
   </si>
   <si>
     <t>Sweet Cloud #2 (Sugarkelp)</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Fruits, Bakery, Fancy /// 3-Heart Gifts: Red Bow Apple Pie /// 2-Heart Gifts: Candied Banana Coffee, Strawberry Shortcake, Beignets with Pineapple Dip, Mama's Apple Pie, Fruity Cheesecake, Strawberry Cheesecake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liked Gifts: Sweet, Pink, Dreamy /// 3-Heart Gifts: Pink Clouds Ice Cream /// 2-Heart Gifts: Pink Latte, Almond Pound Cake, Strawberry Almond Galette, </t>
+  </si>
+  <si>
+    <t>Liked Gifts: Device, Book, Chocolate /// 3-Heart Gifts: Interactive History of Chocolate Book (Crafting Table - Blank Book, Mechanism, Spark, Chocolate Coin) /// 2-Heart Gifts: Ancient Inventions Book</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Cloth, Tropical, Fancy /// 3-Heart Gifts: Designer Island Doll /// 2-Heart Gifts: Tropical Material, Tropical Gift, Beignets with Pineapple Dip</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Joke, Tropical, Pizza /// 3-Heart Gifts: Critter or fish (seaside resort), anything with coconut, any pizza, joke soda, tropical food, tropical hologram /// 2-Heart Gifts: Pineapple pizza</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Sports, Veggie, Healthy /// 3-Heart Gifts: Pochacco's Energy Pop /// 2-Heart Gifts: Everything Pizza</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Critters, Swampy, Wood /// 3-Heart Gifts: Critter Totem /// 2-Heart Gifts: Critters (spooky swamp), Swampy Souvenir Doll</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Spooky, Fall, Soda /// 3-Heart Gifts: Pumpkin spice soda /// 2-Heart Gifts: Jack-O-Lantern, Spicy Pumpkin Latte</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Cozy Beverage, Chocolate, Spice /// 3-Heart Gifts: Chocolate chai /// 2-Heart Gifts: spicy pumpkin latte, chai, mocha, hot cocoa, molten frappe</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Music, Rocky, Relax /// 3-Heart Gifts: Mountain Soundtrack /// 2-Heart Gifts: rocky music box, stacked stones</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Dairy, Dessert, Relax /// 3-Heart Gifts: Mama's Pudding /// 2-Heart Gifts: Pudding, Cheese Ice Cream</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Fire, Music, Metal /// 3-Heart Gifts: Volcano Guitar /// 2-Heart Gifts: Volcano soundtrack, sounds of steel soundtrack</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Fish, Fabric, Aquatic /// 3-Heart Gifts: Mermaid Figure /// 2-Heart Gifts: Aquatic Material, any fish in rainbow reef</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Digital, Fancy, Stars /// 3-Heart Gifts: Future of Everything book /// 2-Heart Gifts: Computer</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Volcano, Book, Resilience /// 3-Heart Gifts: Greatest Challenge book /// 2-Heart Gifts: Meditations on Resilience book</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Fire, Flower, Rare /// 3-Heart Gifts: Rare candle /// 2-Heart Gifts: Flower candle</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Cloud, Wood, Creative /// 3-Heart Gifts: Colorful Lamb Plush /// 2-Heart Gifts: Any lamb plush. Any cloud tree</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Imagination, Mochi, Rainbow /// 3-Heart Gifts: unknown /// 2-Heart Gifts: Dango, Any mochi</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Creative, Dreamy, Cheese /// 3-Heart Gifts: Quattro Formaggio pizza /// 2-Heart Gifts: Cheese cloud, art supplies, 3 cheese pizza</t>
+  </si>
+  <si>
+    <t>Liked Gifts: Stars, Dreamy, Frozen /// 3-Heart Gifts: Starry Skies Shake /// 2-Heart Gifts: Art supplies, dreamy star</t>
   </si>
 </sst>
 </file>
@@ -4870,7 +4707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4881,91 +4718,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="25">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -5165,9 +4924,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5190,10 +4946,10 @@
     <tableColumn id="3" xr3:uid="{67BA542E-A92B-464D-9C55-15FD3BA24444}" name="Location"/>
     <tableColumn id="4" xr3:uid="{8144ACCD-B001-4F9D-B87C-6C497C658DFE}" name="Item/Decor Requirements"/>
     <tableColumn id="5" xr3:uid="{57F66957-D073-4581-9F70-8D34A88575FD}" name="Daily Gift"/>
-    <tableColumn id="6" xr3:uid="{537E9DCC-239F-4D35-BCE6-8CB9BFB45223}" name="Description with Line Breaks" dataDxfId="32">
+    <tableColumn id="6" xr3:uid="{537E9DCC-239F-4D35-BCE6-8CB9BFB45223}" name="Description with Line Breaks" dataDxfId="24">
       <calculatedColumnFormula xml:space="preserve"> "Schedule: " &amp; Table1[[#This Row],[Visiting Schedule]] &amp; CHAR(10) &amp; "Location: " &amp; Table1[[#This Row],[Location]] &amp; CHAR(10) &amp; "Item/Decor Requirements: " &amp; Table1[[#This Row],[Item/Decor Requirements]] &amp; CHAR(10) &amp; "Daily Gift: " &amp; Table1[[#This Row],[Daily Gift]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E50BEB41-434D-4EDF-814B-0A977903EEA3}" name="Description without Line Breaks" dataDxfId="31">
+    <tableColumn id="7" xr3:uid="{E50BEB41-434D-4EDF-814B-0A977903EEA3}" name="Description without Line Breaks" dataDxfId="23">
       <calculatedColumnFormula xml:space="preserve"> "Schedule: " &amp; Table1[[#This Row],[Visiting Schedule]] &amp; " /// Location: " &amp; Table1[[#This Row],[Location]] &amp; " /// Item Requirements: " &amp; Table1[[#This Row],[Item/Decor Requirements]] &amp; " /// Daily Gift: " &amp; Table1[[#This Row],[Daily Gift]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5212,13 +4968,13 @@
     <tableColumn id="8" xr3:uid="{7C1C2515-B9D8-45FE-9359-EA852AF05641}" name="Column1"/>
     <tableColumn id="1" xr3:uid="{380CE29E-A949-4954-B10D-CBB92EBE432A}" name="Region"/>
     <tableColumn id="2" xr3:uid="{F8A98686-C2B1-4D72-8EE6-3DFA85AFF688}" name="Fish"/>
-    <tableColumn id="6" xr3:uid="{18B2DD51-2A8F-46E2-B608-19A620E07545}" name="Name" dataDxfId="30">
+    <tableColumn id="6" xr3:uid="{18B2DD51-2A8F-46E2-B608-19A620E07545}" name="Name" dataDxfId="22">
       <calculatedColumnFormula>Tbl_Fishing[[#This Row],[Region]] &amp; " - " &amp; Tbl_Fishing[[#This Row],[Fish]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{6EE718AE-717B-450F-AB60-68A1FC341603}" name="Location"/>
     <tableColumn id="4" xr3:uid="{F9636F26-A4D9-495A-B262-03386101172F}" name="Time"/>
     <tableColumn id="5" xr3:uid="{72995A89-7D21-4A08-BD4C-048FF0E81A79}" name="Rarity"/>
-    <tableColumn id="7" xr3:uid="{3AD6DEA4-0FD9-49BB-A6C1-7138C775149E}" name="Description" dataDxfId="29">
+    <tableColumn id="7" xr3:uid="{3AD6DEA4-0FD9-49BB-A6C1-7138C775149E}" name="Description" dataDxfId="21">
       <calculatedColumnFormula>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5237,13 +4993,13 @@
     <tableColumn id="6" xr3:uid="{04674BA7-561C-43B4-AA53-702B0A90F402}" name="Region Order"/>
     <tableColumn id="1" xr3:uid="{91CAD11C-382E-4DF9-A2FD-BE370A57103A}" name="Region"/>
     <tableColumn id="2" xr3:uid="{24D43D77-F696-4AC9-9938-3DFE01D62DB9}" name="Critter"/>
-    <tableColumn id="7" xr3:uid="{F9762BCC-B476-49DF-A0F9-ACAB1857886B}" name="Name" dataDxfId="28">
+    <tableColumn id="7" xr3:uid="{F9762BCC-B476-49DF-A0F9-ACAB1857886B}" name="Name" dataDxfId="20">
       <calculatedColumnFormula>Table3[[#This Row],[Region]] &amp; " - " &amp; Table3[[#This Row],[Critter]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{1D57E4B8-C021-4B34-9B8B-8DAA071BC910}" name="Location"/>
     <tableColumn id="4" xr3:uid="{527DF911-157E-429B-B380-A788D97C284C}" name="Time"/>
     <tableColumn id="5" xr3:uid="{C5047F6F-39E5-4CEC-B7D7-BF773933D03C}" name="Rarity"/>
-    <tableColumn id="8" xr3:uid="{2B8887D0-9C0D-46DC-9D18-9F7354F8A351}" name="Description" dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{2B8887D0-9C0D-46DC-9D18-9F7354F8A351}" name="Description" dataDxfId="19">
       <calculatedColumnFormula>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5264,8 +5020,8 @@
     <tableColumn id="8" xr3:uid="{B87D96DA-876B-4321-974C-D3CA18927D46}" name="3-Heart Gifts"/>
     <tableColumn id="9" xr3:uid="{A8FFB3A6-3D98-46C6-9DA5-7615BB78E8C5}" name="2-Heart Gifts"/>
     <tableColumn id="10" xr3:uid="{2EF34846-880B-4FE1-BEBA-4EA7E502EABA}" name="1-Heart Gifts"/>
-    <tableColumn id="12" xr3:uid="{6D0FA26C-9E5B-468D-AD99-073C14547B04}" name="Description" dataDxfId="26">
-      <calculatedColumnFormula xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{6D0FA26C-9E5B-468D-AD99-073C14547B04}" name="Description" dataDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5591,8 +5347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="BV16" sqref="BV16"/>
+    <sheetView topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="CD2" sqref="CD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5706,7 +5462,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1158</v>
+        <v>1084</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>184</v>
@@ -5718,7 +5474,7 @@
         <v>3</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>1157</v>
+        <v>1083</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>255</v>
@@ -5805,7 +5561,7 @@
         <v>557</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>1156</v>
+        <v>1082</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>2</v>
@@ -5850,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>1040</v>
+        <v>986</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>200</v>
@@ -5874,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>1014</v>
+        <v>960</v>
       </c>
       <c r="BZ1" s="1" t="s">
         <v>1</v>
@@ -5886,7 +5642,7 @@
         <v>3</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>1050</v>
+        <v>996</v>
       </c>
       <c r="CD1" s="1" t="s">
         <v>200</v>
@@ -5898,7 +5654,7 @@
         <v>3</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>1273</v>
+        <v>1199</v>
       </c>
       <c r="CH1" s="1" t="s">
         <v>200</v>
@@ -6068,37 +5824,37 @@
         <v>1</v>
       </c>
       <c r="BI2" t="s">
-        <v>1309</v>
+        <v>1235</v>
       </c>
       <c r="BJ2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="s">
         <v>1222</v>
-      </c>
-      <c r="BK2">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>1294</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>1292</v>
-      </c>
-      <c r="BO2">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>1347</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="BS2">
-        <v>1</v>
-      </c>
-      <c r="BT2">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>1296</v>
       </c>
       <c r="BV2" t="s">
         <v>909</v>
@@ -6113,7 +5869,7 @@
         <v>602</v>
       </c>
       <c r="BZ2" t="s">
-        <v>1017</v>
+        <v>963</v>
       </c>
       <c r="CA2">
         <v>1</v>
@@ -6122,16 +5878,16 @@
         <v>204</v>
       </c>
       <c r="CD2" t="s">
-        <v>1136</v>
+        <v>1513</v>
       </c>
       <c r="CE2">
         <v>1</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>1284</v>
+        <v>1210</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>1287</v>
+        <v>1213</v>
       </c>
       <c r="CI2">
         <v>1</v>
@@ -6298,34 +6054,34 @@
         <v>1</v>
       </c>
       <c r="BI3" t="s">
-        <v>1313</v>
+        <v>1239</v>
       </c>
       <c r="BJ3" t="s">
-        <v>1223</v>
+        <v>1149</v>
       </c>
       <c r="BK3">
         <v>1</v>
       </c>
       <c r="BM3" t="s">
-        <v>1298</v>
+        <v>1224</v>
       </c>
       <c r="BN3" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO3">
         <v>1</v>
       </c>
       <c r="BQ3" t="s">
-        <v>1370</v>
+        <v>1296</v>
       </c>
       <c r="BR3" t="s">
-        <v>1184</v>
+        <v>1110</v>
       </c>
       <c r="BS3">
         <v>1</v>
       </c>
       <c r="BU3" t="s">
-        <v>1300</v>
+        <v>1226</v>
       </c>
       <c r="BV3" t="s">
         <v>913</v>
@@ -6340,7 +6096,7 @@
         <v>607</v>
       </c>
       <c r="BZ3" t="s">
-        <v>1018</v>
+        <v>964</v>
       </c>
       <c r="CA3">
         <v>1</v>
@@ -6349,16 +6105,16 @@
         <v>211</v>
       </c>
       <c r="CD3" t="s">
-        <v>1137</v>
+        <v>1514</v>
       </c>
       <c r="CE3">
         <v>1</v>
       </c>
       <c r="CG3" s="2" t="s">
-        <v>1285</v>
+        <v>1211</v>
       </c>
       <c r="CH3" s="2" t="s">
-        <v>1288</v>
+        <v>1214</v>
       </c>
       <c r="CI3">
         <v>1</v>
@@ -6522,34 +6278,34 @@
         <v>1</v>
       </c>
       <c r="BI4" t="s">
-        <v>1316</v>
+        <v>1242</v>
       </c>
       <c r="BJ4" t="s">
-        <v>1224</v>
+        <v>1150</v>
       </c>
       <c r="BK4">
         <v>1</v>
       </c>
       <c r="BM4" t="s">
-        <v>1302</v>
+        <v>1228</v>
       </c>
       <c r="BN4" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO4">
         <v>1</v>
       </c>
       <c r="BQ4" t="s">
-        <v>1399</v>
+        <v>1325</v>
       </c>
       <c r="BR4" t="s">
-        <v>1190</v>
+        <v>1116</v>
       </c>
       <c r="BS4">
         <v>1</v>
       </c>
       <c r="BU4" t="s">
-        <v>1304</v>
+        <v>1230</v>
       </c>
       <c r="BV4" t="s">
         <v>908</v>
@@ -6564,7 +6320,7 @@
         <v>609</v>
       </c>
       <c r="BZ4" t="s">
-        <v>1019</v>
+        <v>965</v>
       </c>
       <c r="CA4">
         <v>1</v>
@@ -6573,16 +6329,16 @@
         <v>202</v>
       </c>
       <c r="CD4" t="s">
-        <v>1138</v>
+        <v>1515</v>
       </c>
       <c r="CE4">
         <v>1</v>
       </c>
       <c r="CG4" t="s">
-        <v>1274</v>
+        <v>1200</v>
       </c>
       <c r="CH4" t="s">
-        <v>1278</v>
+        <v>1204</v>
       </c>
       <c r="CI4">
         <v>1</v>
@@ -6626,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1511</v>
+        <v>1437</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>181</v>
@@ -6638,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>1529</v>
+        <v>1455</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>179</v>
@@ -6695,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="AO5" t="s">
-        <v>1578</v>
+        <v>1504</v>
       </c>
       <c r="AP5" t="s">
         <v>158</v>
@@ -6740,34 +6496,34 @@
         <v>1</v>
       </c>
       <c r="BI5" t="s">
-        <v>1333</v>
+        <v>1259</v>
       </c>
       <c r="BJ5" t="s">
-        <v>1228</v>
+        <v>1154</v>
       </c>
       <c r="BK5">
         <v>1</v>
       </c>
       <c r="BM5" t="s">
-        <v>1306</v>
+        <v>1232</v>
       </c>
       <c r="BN5" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO5">
         <v>1</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1414</v>
+        <v>1340</v>
       </c>
       <c r="BR5" t="s">
-        <v>1195</v>
+        <v>1121</v>
       </c>
       <c r="BS5">
         <v>1</v>
       </c>
       <c r="BU5" t="s">
-        <v>1308</v>
+        <v>1234</v>
       </c>
       <c r="BV5" t="s">
         <v>910</v>
@@ -6782,7 +6538,7 @@
         <v>612</v>
       </c>
       <c r="BZ5" t="s">
-        <v>1020</v>
+        <v>966</v>
       </c>
       <c r="CA5">
         <v>1</v>
@@ -6791,16 +6547,16 @@
         <v>213</v>
       </c>
       <c r="CD5" t="s">
-        <v>1139</v>
+        <v>1516</v>
       </c>
       <c r="CE5">
         <v>1</v>
       </c>
       <c r="CG5" s="2" t="s">
-        <v>1286</v>
+        <v>1212</v>
       </c>
       <c r="CH5" s="2" t="s">
-        <v>1289</v>
+        <v>1215</v>
       </c>
       <c r="CI5">
         <v>1</v>
@@ -6835,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1513</v>
+        <v>1439</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>174</v>
@@ -6847,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1522</v>
+        <v>1448</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>175</v>
@@ -6859,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>1530</v>
+        <v>1456</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>178</v>
@@ -6919,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="AO6" t="s">
-        <v>1579</v>
+        <v>1505</v>
       </c>
       <c r="AP6" t="s">
         <v>159</v>
@@ -6967,19 +6723,19 @@
         <v>1</v>
       </c>
       <c r="BI6" t="s">
-        <v>1345</v>
+        <v>1271</v>
       </c>
       <c r="BJ6" t="s">
-        <v>1231</v>
+        <v>1157</v>
       </c>
       <c r="BK6">
         <v>1</v>
       </c>
       <c r="BM6" s="2" t="s">
-        <v>1310</v>
+        <v>1236</v>
       </c>
       <c r="BN6" t="s">
-        <v>1044</v>
+        <v>990</v>
       </c>
       <c r="BO6">
         <v>1</v>
@@ -6988,16 +6744,16 @@
         <v>1</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1448</v>
+        <v>1374</v>
       </c>
       <c r="BR6" t="s">
-        <v>1203</v>
+        <v>1129</v>
       </c>
       <c r="BS6">
         <v>1</v>
       </c>
       <c r="BU6" t="s">
-        <v>1312</v>
+        <v>1238</v>
       </c>
       <c r="BV6" t="s">
         <v>911</v>
@@ -7012,25 +6768,25 @@
         <v>615</v>
       </c>
       <c r="BZ6" t="s">
-        <v>1021</v>
+        <v>967</v>
       </c>
       <c r="CA6">
         <v>1</v>
       </c>
       <c r="CC6" t="s">
-        <v>1049</v>
+        <v>995</v>
       </c>
       <c r="CD6" t="s">
-        <v>1140</v>
+        <v>1517</v>
       </c>
       <c r="CE6">
         <v>1</v>
       </c>
       <c r="CG6" t="s">
-        <v>1275</v>
+        <v>1201</v>
       </c>
       <c r="CH6" t="s">
-        <v>1276</v>
+        <v>1202</v>
       </c>
       <c r="CI6">
         <v>1</v>
@@ -7062,7 +6818,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>1515</v>
+        <v>1441</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>175</v>
@@ -7074,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>1512</v>
+        <v>1438</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>369</v>
@@ -7086,7 +6842,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1531</v>
+        <v>1457</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>180</v>
@@ -7143,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="AO7" t="s">
-        <v>1580</v>
+        <v>1506</v>
       </c>
       <c r="AP7" t="s">
         <v>402</v>
@@ -7188,19 +6944,19 @@
         <v>1</v>
       </c>
       <c r="BI7" t="s">
-        <v>1346</v>
+        <v>1272</v>
       </c>
       <c r="BJ7" t="s">
-        <v>1232</v>
+        <v>1158</v>
       </c>
       <c r="BK7">
         <v>1</v>
       </c>
       <c r="BM7" s="2" t="s">
-        <v>1319</v>
+        <v>1245</v>
       </c>
       <c r="BN7" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO7">
         <v>1</v>
@@ -7209,16 +6965,16 @@
         <v>1</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1450</v>
+        <v>1376</v>
       </c>
       <c r="BR7" t="s">
-        <v>1204</v>
+        <v>1130</v>
       </c>
       <c r="BS7">
         <v>1</v>
       </c>
       <c r="BU7" t="s">
-        <v>1315</v>
+        <v>1241</v>
       </c>
       <c r="BV7" t="s">
         <v>912</v>
@@ -7233,7 +6989,7 @@
         <v>618</v>
       </c>
       <c r="BZ7" t="s">
-        <v>1022</v>
+        <v>968</v>
       </c>
       <c r="CA7">
         <v>1</v>
@@ -7242,16 +6998,16 @@
         <v>209</v>
       </c>
       <c r="CD7" t="s">
-        <v>1141</v>
+        <v>1518</v>
       </c>
       <c r="CE7">
         <v>1</v>
       </c>
       <c r="CG7" t="s">
-        <v>1280</v>
+        <v>1206</v>
       </c>
       <c r="CH7" t="s">
-        <v>1281</v>
+        <v>1207</v>
       </c>
       <c r="CI7">
         <v>1</v>
@@ -7283,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>1514</v>
+        <v>1440</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>176</v>
@@ -7295,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>1525</v>
+        <v>1451</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>370</v>
@@ -7328,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>1559</v>
+        <v>1485</v>
       </c>
       <c r="Z8" t="s">
         <v>304</v>
@@ -7337,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="AC8" t="s">
-        <v>1564</v>
+        <v>1490</v>
       </c>
       <c r="AD8" t="s">
         <v>418</v>
@@ -7364,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AO8" t="s">
-        <v>1581</v>
+        <v>1507</v>
       </c>
       <c r="AP8" t="s">
         <v>164</v>
@@ -7409,34 +7165,34 @@
         <v>1</v>
       </c>
       <c r="BI8" t="s">
-        <v>1349</v>
+        <v>1275</v>
       </c>
       <c r="BJ8" t="s">
-        <v>1233</v>
+        <v>1159</v>
       </c>
       <c r="BK8">
         <v>1</v>
       </c>
       <c r="BM8" t="s">
-        <v>1320</v>
+        <v>1246</v>
       </c>
       <c r="BN8" t="s">
-        <v>1044</v>
+        <v>990</v>
       </c>
       <c r="BO8">
         <v>1</v>
       </c>
       <c r="BQ8" t="s">
-        <v>1452</v>
+        <v>1378</v>
       </c>
       <c r="BR8" t="s">
-        <v>1205</v>
+        <v>1131</v>
       </c>
       <c r="BS8">
         <v>1</v>
       </c>
       <c r="BU8" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="BV8" t="s">
         <v>815</v>
@@ -7451,7 +7207,7 @@
         <v>621</v>
       </c>
       <c r="BZ8" t="s">
-        <v>1023</v>
+        <v>969</v>
       </c>
       <c r="CA8">
         <v>1</v>
@@ -7460,16 +7216,16 @@
         <v>205</v>
       </c>
       <c r="CD8" t="s">
-        <v>1142</v>
+        <v>1519</v>
       </c>
       <c r="CE8">
         <v>1</v>
       </c>
       <c r="CG8" t="s">
-        <v>1277</v>
+        <v>1203</v>
       </c>
       <c r="CH8" t="s">
-        <v>1282</v>
+        <v>1208</v>
       </c>
       <c r="CI8">
         <v>1</v>
@@ -7519,7 +7275,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>1532</v>
+        <v>1458</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>158</v>
@@ -7540,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>1560</v>
+        <v>1486</v>
       </c>
       <c r="Z9" t="s">
         <v>305</v>
@@ -7549,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="AC9" t="s">
-        <v>1565</v>
+        <v>1491</v>
       </c>
       <c r="AD9" t="s">
         <v>419</v>
@@ -7576,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="AO9" t="s">
-        <v>1582</v>
+        <v>1508</v>
       </c>
       <c r="AP9" t="s">
         <v>162</v>
@@ -7612,19 +7368,19 @@
         <v>1</v>
       </c>
       <c r="BI9" t="s">
-        <v>1352</v>
+        <v>1278</v>
       </c>
       <c r="BJ9" t="s">
-        <v>1234</v>
+        <v>1160</v>
       </c>
       <c r="BK9">
         <v>1</v>
       </c>
       <c r="BM9" s="2" t="s">
-        <v>1322</v>
+        <v>1248</v>
       </c>
       <c r="BN9" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO9">
         <v>1</v>
@@ -7633,16 +7389,16 @@
         <v>1</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1453</v>
+        <v>1379</v>
       </c>
       <c r="BR9" t="s">
-        <v>1206</v>
+        <v>1132</v>
       </c>
       <c r="BS9">
         <v>1</v>
       </c>
       <c r="BU9" t="s">
-        <v>1324</v>
+        <v>1250</v>
       </c>
       <c r="BV9" t="s">
         <v>920</v>
@@ -7650,14 +7406,14 @@
       <c r="BW9">
         <v>3</v>
       </c>
-      <c r="BX9" s="6">
+      <c r="BX9">
         <v>1</v>
       </c>
       <c r="BY9" t="s">
         <v>624</v>
       </c>
       <c r="BZ9" t="s">
-        <v>1024</v>
+        <v>970</v>
       </c>
       <c r="CA9">
         <v>1</v>
@@ -7666,16 +7422,16 @@
         <v>206</v>
       </c>
       <c r="CD9" t="s">
-        <v>1143</v>
+        <v>1520</v>
       </c>
       <c r="CE9">
         <v>1</v>
       </c>
       <c r="CG9" t="s">
-        <v>1279</v>
+        <v>1205</v>
       </c>
       <c r="CH9" t="s">
-        <v>1283</v>
+        <v>1209</v>
       </c>
       <c r="CI9">
         <v>1</v>
@@ -7728,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>1533</v>
+        <v>1459</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>159</v>
@@ -7740,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>1542</v>
+        <v>1468</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>176</v>
@@ -7761,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="AC10" t="s">
-        <v>1566</v>
+        <v>1492</v>
       </c>
       <c r="AD10" t="s">
         <v>420</v>
@@ -7788,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="AO10" t="s">
-        <v>1583</v>
+        <v>1509</v>
       </c>
       <c r="AP10" t="s">
         <v>175</v>
@@ -7824,19 +7580,19 @@
         <v>1</v>
       </c>
       <c r="BI10" t="s">
-        <v>1355</v>
+        <v>1281</v>
       </c>
       <c r="BJ10" t="s">
-        <v>1235</v>
+        <v>1161</v>
       </c>
       <c r="BK10">
         <v>1</v>
       </c>
       <c r="BM10" s="2" t="s">
-        <v>1326</v>
+        <v>1252</v>
       </c>
       <c r="BN10" t="s">
-        <v>1044</v>
+        <v>990</v>
       </c>
       <c r="BO10">
         <v>1</v>
@@ -7845,16 +7601,16 @@
         <v>1</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1454</v>
+        <v>1380</v>
       </c>
       <c r="BR10" t="s">
-        <v>1207</v>
+        <v>1133</v>
       </c>
       <c r="BS10">
         <v>1</v>
       </c>
       <c r="BU10" t="s">
-        <v>1328</v>
+        <v>1254</v>
       </c>
       <c r="BV10" t="s">
         <v>917</v>
@@ -7862,14 +7618,14 @@
       <c r="BW10">
         <v>3</v>
       </c>
-      <c r="BX10" s="6">
+      <c r="BX10">
         <v>2</v>
       </c>
       <c r="BY10" t="s">
         <v>627</v>
       </c>
       <c r="BZ10" t="s">
-        <v>1025</v>
+        <v>971</v>
       </c>
       <c r="CA10">
         <v>1</v>
@@ -7878,7 +7634,7 @@
         <v>216</v>
       </c>
       <c r="CD10" t="s">
-        <v>1144</v>
+        <v>1521</v>
       </c>
       <c r="CE10">
         <v>1</v>
@@ -7931,7 +7687,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>1534</v>
+        <v>1460</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>164</v>
@@ -7943,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>1524</v>
+        <v>1450</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>175</v>
@@ -7967,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>1567</v>
+        <v>1493</v>
       </c>
       <c r="AD11" t="s">
         <v>421</v>
@@ -7994,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="s">
-        <v>1584</v>
+        <v>1510</v>
       </c>
       <c r="AP11" t="s">
         <v>176</v>
@@ -8030,19 +7786,19 @@
         <v>1</v>
       </c>
       <c r="BI11" t="s">
-        <v>1358</v>
+        <v>1284</v>
       </c>
       <c r="BJ11" t="s">
-        <v>1236</v>
+        <v>1162</v>
       </c>
       <c r="BK11">
         <v>1</v>
       </c>
       <c r="BM11" s="2" t="s">
-        <v>1330</v>
+        <v>1256</v>
       </c>
       <c r="BN11" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO11">
         <v>1</v>
@@ -8051,16 +7807,16 @@
         <v>1</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1455</v>
+        <v>1381</v>
       </c>
       <c r="BR11" t="s">
-        <v>1211</v>
+        <v>1137</v>
       </c>
       <c r="BS11">
         <v>1</v>
       </c>
       <c r="BU11" t="s">
-        <v>1332</v>
+        <v>1258</v>
       </c>
       <c r="BV11" t="s">
         <v>914</v>
@@ -8075,7 +7831,7 @@
         <v>631</v>
       </c>
       <c r="BZ11" t="s">
-        <v>1026</v>
+        <v>972</v>
       </c>
       <c r="CA11">
         <v>1</v>
@@ -8084,7 +7840,7 @@
         <v>207</v>
       </c>
       <c r="CD11" t="s">
-        <v>1145</v>
+        <v>1522</v>
       </c>
       <c r="CE11">
         <v>1</v>
@@ -8131,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>1535</v>
+        <v>1461</v>
       </c>
       <c r="R12" t="s">
         <v>402</v>
@@ -8158,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>1568</v>
+        <v>1494</v>
       </c>
       <c r="AD12" t="s">
         <v>422</v>
@@ -8185,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="AO12" t="s">
-        <v>1585</v>
+        <v>1511</v>
       </c>
       <c r="AP12" t="s">
         <v>180</v>
@@ -8221,19 +7977,19 @@
         <v>1</v>
       </c>
       <c r="BI12" t="s">
-        <v>1365</v>
+        <v>1291</v>
       </c>
       <c r="BJ12" t="s">
-        <v>1238</v>
+        <v>1164</v>
       </c>
       <c r="BK12">
         <v>1</v>
       </c>
       <c r="BM12" s="2" t="s">
-        <v>1334</v>
+        <v>1260</v>
       </c>
       <c r="BN12" t="s">
-        <v>1044</v>
+        <v>990</v>
       </c>
       <c r="BO12">
         <v>1</v>
@@ -8242,16 +7998,16 @@
         <v>1</v>
       </c>
       <c r="BQ12" t="s">
-        <v>1456</v>
+        <v>1382</v>
       </c>
       <c r="BR12" t="s">
-        <v>1212</v>
+        <v>1138</v>
       </c>
       <c r="BS12">
         <v>1</v>
       </c>
       <c r="BU12" t="s">
-        <v>1336</v>
+        <v>1262</v>
       </c>
       <c r="BV12" t="s">
         <v>916</v>
@@ -8259,14 +8015,14 @@
       <c r="BW12">
         <v>3</v>
       </c>
-      <c r="BX12" s="6">
+      <c r="BX12">
         <v>1</v>
       </c>
       <c r="BY12" t="s">
         <v>634</v>
       </c>
       <c r="BZ12" t="s">
-        <v>1027</v>
+        <v>973</v>
       </c>
       <c r="CA12">
         <v>1</v>
@@ -8275,7 +8031,7 @@
         <v>210</v>
       </c>
       <c r="CD12" t="s">
-        <v>1146</v>
+        <v>1523</v>
       </c>
       <c r="CE12">
         <v>1</v>
@@ -8382,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="AO13" t="s">
-        <v>1586</v>
+        <v>1512</v>
       </c>
       <c r="AP13" t="s">
         <v>178</v>
@@ -8418,34 +8174,34 @@
         <v>1</v>
       </c>
       <c r="BI13" t="s">
-        <v>1371</v>
+        <v>1297</v>
       </c>
       <c r="BJ13" t="s">
-        <v>1240</v>
+        <v>1166</v>
       </c>
       <c r="BK13">
         <v>1</v>
       </c>
       <c r="BM13" t="s">
-        <v>1377</v>
+        <v>1303</v>
       </c>
       <c r="BN13" t="s">
-        <v>1045</v>
+        <v>991</v>
       </c>
       <c r="BO13">
         <v>1</v>
       </c>
       <c r="BQ13" t="s">
-        <v>1469</v>
+        <v>1395</v>
       </c>
       <c r="BR13" t="s">
-        <v>1208</v>
+        <v>1134</v>
       </c>
       <c r="BS13">
         <v>1</v>
       </c>
       <c r="BU13" t="s">
-        <v>1339</v>
+        <v>1265</v>
       </c>
       <c r="BV13" t="s">
         <v>918</v>
@@ -8460,7 +8216,7 @@
         <v>638</v>
       </c>
       <c r="BZ13" t="s">
-        <v>1028</v>
+        <v>974</v>
       </c>
       <c r="CA13">
         <v>1</v>
@@ -8469,7 +8225,7 @@
         <v>212</v>
       </c>
       <c r="CD13" t="s">
-        <v>1147</v>
+        <v>1524</v>
       </c>
       <c r="CE13">
         <v>1</v>
@@ -8615,19 +8371,19 @@
         <v>1</v>
       </c>
       <c r="BI14" t="s">
-        <v>1373</v>
+        <v>1299</v>
       </c>
       <c r="BJ14" t="s">
-        <v>1241</v>
+        <v>1167</v>
       </c>
       <c r="BK14">
         <v>1</v>
       </c>
       <c r="BM14" s="2" t="s">
-        <v>1378</v>
+        <v>1304</v>
       </c>
       <c r="BN14" t="s">
-        <v>1046</v>
+        <v>992</v>
       </c>
       <c r="BO14">
         <v>1</v>
@@ -8636,16 +8392,16 @@
         <v>1</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1471</v>
+        <v>1397</v>
       </c>
       <c r="BR14" t="s">
-        <v>1209</v>
+        <v>1135</v>
       </c>
       <c r="BS14">
         <v>1</v>
       </c>
       <c r="BU14" t="s">
-        <v>1342</v>
+        <v>1268</v>
       </c>
       <c r="BV14" t="s">
         <v>915</v>
@@ -8660,7 +8416,7 @@
         <v>641</v>
       </c>
       <c r="BZ14" t="s">
-        <v>1029</v>
+        <v>975</v>
       </c>
       <c r="CA14">
         <v>1</v>
@@ -8669,7 +8425,7 @@
         <v>203</v>
       </c>
       <c r="CD14" t="s">
-        <v>1148</v>
+        <v>1525</v>
       </c>
       <c r="CE14">
         <v>1</v>
@@ -8719,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>1523</v>
+        <v>1449</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>175</v>
@@ -8731,7 +8487,7 @@
         <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>1543</v>
+        <v>1469</v>
       </c>
       <c r="V15" t="s">
         <v>218</v>
@@ -8815,34 +8571,34 @@
         <v>1</v>
       </c>
       <c r="BI15" t="s">
-        <v>1375</v>
+        <v>1301</v>
       </c>
       <c r="BJ15" t="s">
-        <v>1242</v>
+        <v>1168</v>
       </c>
       <c r="BK15">
         <v>1</v>
       </c>
       <c r="BM15" t="s">
-        <v>1379</v>
+        <v>1305</v>
       </c>
       <c r="BN15" t="s">
-        <v>1046</v>
+        <v>992</v>
       </c>
       <c r="BO15">
         <v>1</v>
       </c>
       <c r="BQ15" t="s">
-        <v>1473</v>
+        <v>1399</v>
       </c>
       <c r="BR15" t="s">
-        <v>1210</v>
+        <v>1136</v>
       </c>
       <c r="BS15">
         <v>1</v>
       </c>
       <c r="BU15" t="s">
-        <v>1344</v>
+        <v>1270</v>
       </c>
       <c r="BV15" t="s">
         <v>919</v>
@@ -8850,14 +8606,14 @@
       <c r="BW15">
         <v>3</v>
       </c>
-      <c r="BX15" s="6">
+      <c r="BX15">
         <v>2</v>
       </c>
       <c r="BY15" t="s">
         <v>645</v>
       </c>
       <c r="BZ15" t="s">
-        <v>1030</v>
+        <v>976</v>
       </c>
       <c r="CA15">
         <v>1</v>
@@ -8866,7 +8622,7 @@
         <v>214</v>
       </c>
       <c r="CD15" t="s">
-        <v>1149</v>
+        <v>1526</v>
       </c>
       <c r="CE15">
         <v>1</v>
@@ -8895,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>1516</v>
+        <v>1442</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>173</v>
@@ -8919,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>1536</v>
+        <v>1462</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>176</v>
@@ -8931,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>1544</v>
+        <v>1470</v>
       </c>
       <c r="V16" t="s">
         <v>219</v>
@@ -8949,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>1569</v>
+        <v>1495</v>
       </c>
       <c r="AD16" t="s">
         <v>424</v>
@@ -9003,34 +8759,34 @@
         <v>1</v>
       </c>
       <c r="BI16" t="s">
-        <v>1376</v>
+        <v>1302</v>
       </c>
       <c r="BJ16" t="s">
-        <v>1243</v>
+        <v>1169</v>
       </c>
       <c r="BK16">
         <v>1</v>
       </c>
       <c r="BM16" t="s">
-        <v>1380</v>
+        <v>1306</v>
       </c>
       <c r="BN16" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO16">
         <v>1</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1491</v>
+        <v>1417</v>
       </c>
       <c r="BR16" t="s">
-        <v>1213</v>
+        <v>1139</v>
       </c>
       <c r="BS16">
         <v>1</v>
       </c>
       <c r="BU16" s="2" t="s">
-        <v>1348</v>
+        <v>1274</v>
       </c>
       <c r="BV16" s="2" t="s">
         <v>923</v>
@@ -9045,7 +8801,7 @@
         <v>647</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1031</v>
+        <v>977</v>
       </c>
       <c r="CA16">
         <v>1</v>
@@ -9054,7 +8810,7 @@
         <v>215</v>
       </c>
       <c r="CD16" t="s">
-        <v>1150</v>
+        <v>1527</v>
       </c>
       <c r="CE16">
         <v>1</v>
@@ -9080,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>1517</v>
+        <v>1443</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>177</v>
@@ -9110,7 +8866,7 @@
         <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>1545</v>
+        <v>1471</v>
       </c>
       <c r="V17" t="s">
         <v>220</v>
@@ -9131,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>1570</v>
+        <v>1496</v>
       </c>
       <c r="AD17" t="s">
         <v>425</v>
@@ -9185,34 +8941,34 @@
         <v>1</v>
       </c>
       <c r="BI17" t="s">
-        <v>1395</v>
+        <v>1321</v>
       </c>
       <c r="BJ17" t="s">
-        <v>1244</v>
+        <v>1170</v>
       </c>
       <c r="BK17">
         <v>1</v>
       </c>
       <c r="BM17" t="s">
-        <v>1381</v>
+        <v>1307</v>
       </c>
       <c r="BN17" t="s">
-        <v>1047</v>
+        <v>993</v>
       </c>
       <c r="BO17">
         <v>1</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1507</v>
+        <v>1433</v>
       </c>
       <c r="BR17" t="s">
-        <v>1041</v>
+        <v>987</v>
       </c>
       <c r="BS17">
         <v>1</v>
       </c>
       <c r="BU17" s="2" t="s">
-        <v>1351</v>
+        <v>1277</v>
       </c>
       <c r="BV17" s="2" t="s">
         <v>922</v>
@@ -9227,16 +8983,16 @@
         <v>652</v>
       </c>
       <c r="BZ17" t="s">
-        <v>1032</v>
+        <v>978</v>
       </c>
       <c r="CA17">
         <v>1</v>
       </c>
       <c r="CC17" t="s">
-        <v>1063</v>
+        <v>1009</v>
       </c>
       <c r="CD17" t="s">
-        <v>1151</v>
+        <v>1528</v>
       </c>
       <c r="CE17">
         <v>1</v>
@@ -9265,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>1518</v>
+        <v>1444</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>179</v>
@@ -9298,7 +9054,7 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>1546</v>
+        <v>1472</v>
       </c>
       <c r="V18" t="s">
         <v>221</v>
@@ -9316,7 +9072,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>1571</v>
+        <v>1497</v>
       </c>
       <c r="AD18" t="s">
         <v>426</v>
@@ -9370,34 +9126,34 @@
         <v>1</v>
       </c>
       <c r="BI18" t="s">
-        <v>1398</v>
+        <v>1324</v>
       </c>
       <c r="BJ18" t="s">
-        <v>1245</v>
+        <v>1171</v>
       </c>
       <c r="BK18">
         <v>1</v>
       </c>
       <c r="BM18" t="s">
-        <v>1382</v>
+        <v>1308</v>
       </c>
       <c r="BN18" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO18">
         <v>1</v>
       </c>
       <c r="BQ18" t="s">
-        <v>1494</v>
+        <v>1420</v>
       </c>
       <c r="BR18" t="s">
-        <v>1213</v>
+        <v>1139</v>
       </c>
       <c r="BS18">
         <v>1</v>
       </c>
       <c r="BU18" s="2" t="s">
-        <v>1354</v>
+        <v>1280</v>
       </c>
       <c r="BV18" s="2" t="s">
         <v>845</v>
@@ -9412,16 +9168,16 @@
         <v>656</v>
       </c>
       <c r="BZ18" t="s">
-        <v>1033</v>
+        <v>979</v>
       </c>
       <c r="CA18">
         <v>1</v>
       </c>
       <c r="CC18" t="s">
-        <v>1064</v>
+        <v>1010</v>
       </c>
       <c r="CD18" t="s">
-        <v>1152</v>
+        <v>1529</v>
       </c>
       <c r="CE18">
         <v>1</v>
@@ -9447,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>1519</v>
+        <v>1445</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>178</v>
@@ -9480,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>1547</v>
+        <v>1473</v>
       </c>
       <c r="V19" t="s">
         <v>222</v>
@@ -9498,7 +9254,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>1572</v>
+        <v>1498</v>
       </c>
       <c r="AD19" t="s">
         <v>427</v>
@@ -9543,34 +9299,34 @@
         <v>1</v>
       </c>
       <c r="BI19" t="s">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="BJ19" t="s">
-        <v>1246</v>
+        <v>1172</v>
       </c>
       <c r="BK19">
         <v>1</v>
       </c>
       <c r="BM19" t="s">
-        <v>1383</v>
+        <v>1309</v>
       </c>
       <c r="BN19" t="s">
-        <v>1046</v>
+        <v>992</v>
       </c>
       <c r="BO19">
         <v>1</v>
       </c>
       <c r="BQ19" t="s">
-        <v>1506</v>
+        <v>1432</v>
       </c>
       <c r="BR19" t="s">
-        <v>1041</v>
+        <v>987</v>
       </c>
       <c r="BS19">
         <v>1</v>
       </c>
       <c r="BU19" s="2" t="s">
-        <v>1357</v>
+        <v>1283</v>
       </c>
       <c r="BV19" s="2" t="s">
         <v>924</v>
@@ -9585,16 +9341,16 @@
         <v>659</v>
       </c>
       <c r="BZ19" t="s">
-        <v>1034</v>
+        <v>980</v>
       </c>
       <c r="CA19">
         <v>1</v>
       </c>
       <c r="CC19" t="s">
-        <v>1065</v>
+        <v>1011</v>
       </c>
       <c r="CD19" t="s">
-        <v>1153</v>
+        <v>1530</v>
       </c>
       <c r="CE19">
         <v>1</v>
@@ -9620,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>1520</v>
+        <v>1446</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>180</v>
@@ -9656,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="U20" t="s">
-        <v>1548</v>
+        <v>1474</v>
       </c>
       <c r="V20" t="s">
         <v>233</v>
@@ -9674,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>1573</v>
+        <v>1499</v>
       </c>
       <c r="AD20" t="s">
         <v>428</v>
@@ -9719,34 +9475,34 @@
         <v>1</v>
       </c>
       <c r="BI20" t="s">
-        <v>1404</v>
+        <v>1330</v>
       </c>
       <c r="BJ20" t="s">
-        <v>1247</v>
+        <v>1173</v>
       </c>
       <c r="BK20">
         <v>1</v>
       </c>
       <c r="BM20" t="s">
-        <v>1384</v>
+        <v>1310</v>
       </c>
       <c r="BN20" t="s">
-        <v>1046</v>
+        <v>992</v>
       </c>
       <c r="BO20">
         <v>1</v>
       </c>
       <c r="BQ20" t="s">
-        <v>1497</v>
+        <v>1423</v>
       </c>
       <c r="BR20" t="s">
-        <v>1214</v>
+        <v>1140</v>
       </c>
       <c r="BS20">
         <v>1</v>
       </c>
       <c r="BU20" s="2" t="s">
-        <v>1360</v>
+        <v>1286</v>
       </c>
       <c r="BV20" s="2" t="s">
         <v>925</v>
@@ -9761,16 +9517,16 @@
         <v>662</v>
       </c>
       <c r="BZ20" t="s">
-        <v>1035</v>
+        <v>981</v>
       </c>
       <c r="CA20">
         <v>1</v>
       </c>
       <c r="CC20" t="s">
-        <v>1066</v>
+        <v>1012</v>
       </c>
       <c r="CD20" t="s">
-        <v>1154</v>
+        <v>1531</v>
       </c>
       <c r="CE20">
         <v>1</v>
@@ -9793,7 +9549,7 @@
         <v>135</v>
       </c>
       <c r="F21" t="s">
-        <v>1291</v>
+        <v>1217</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -9802,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1521</v>
+        <v>1447</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>165</v>
@@ -9832,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>1549</v>
+        <v>1475</v>
       </c>
       <c r="V21" t="s">
         <v>234</v>
@@ -9853,7 +9609,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>1574</v>
+        <v>1500</v>
       </c>
       <c r="AD21" t="s">
         <v>429</v>
@@ -9889,19 +9645,19 @@
         <v>1</v>
       </c>
       <c r="BI21" t="s">
-        <v>1413</v>
+        <v>1339</v>
       </c>
       <c r="BJ21" t="s">
-        <v>1249</v>
+        <v>1175</v>
       </c>
       <c r="BK21">
         <v>1</v>
       </c>
       <c r="BM21" s="2" t="s">
-        <v>1362</v>
+        <v>1288</v>
       </c>
       <c r="BN21" t="s">
-        <v>1045</v>
+        <v>991</v>
       </c>
       <c r="BO21">
         <v>1</v>
@@ -9910,16 +9666,16 @@
         <v>1</v>
       </c>
       <c r="BQ21" t="s">
-        <v>1500</v>
+        <v>1426</v>
       </c>
       <c r="BR21" t="s">
-        <v>1215</v>
+        <v>1141</v>
       </c>
       <c r="BS21">
         <v>1</v>
       </c>
       <c r="BU21" s="2" t="s">
-        <v>1364</v>
+        <v>1290</v>
       </c>
       <c r="BV21" s="2" t="s">
         <v>921</v>
@@ -9934,16 +9690,16 @@
         <v>665</v>
       </c>
       <c r="BZ21" t="s">
-        <v>1036</v>
+        <v>982</v>
       </c>
       <c r="CA21">
         <v>1</v>
       </c>
       <c r="CC21" t="s">
-        <v>1067</v>
+        <v>1013</v>
       </c>
       <c r="CD21" t="s">
-        <v>1155</v>
+        <v>1532</v>
       </c>
       <c r="CE21">
         <v>1</v>
@@ -9954,7 +9710,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1159</v>
+        <v>1085</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9981,7 +9737,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>1526</v>
+        <v>1452</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>179</v>
@@ -9993,7 +9749,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>1537</v>
+        <v>1463</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>173</v>
@@ -10005,7 +9761,7 @@
         <v>1</v>
       </c>
       <c r="U22" t="s">
-        <v>1550</v>
+        <v>1476</v>
       </c>
       <c r="V22" t="s">
         <v>235</v>
@@ -10026,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>1575</v>
+        <v>1501</v>
       </c>
       <c r="AD22" t="s">
         <v>430</v>
@@ -10062,34 +9818,34 @@
         <v>1</v>
       </c>
       <c r="BI22" t="s">
-        <v>1416</v>
+        <v>1342</v>
       </c>
       <c r="BJ22" t="s">
-        <v>1250</v>
+        <v>1176</v>
       </c>
       <c r="BK22">
         <v>1</v>
       </c>
       <c r="BM22" t="s">
-        <v>1366</v>
+        <v>1292</v>
       </c>
       <c r="BN22" t="s">
-        <v>1046</v>
+        <v>992</v>
       </c>
       <c r="BO22">
         <v>1</v>
       </c>
       <c r="BQ22" t="s">
-        <v>1508</v>
+        <v>1434</v>
       </c>
       <c r="BR22" t="s">
-        <v>1042</v>
+        <v>988</v>
       </c>
       <c r="BS22">
         <v>1</v>
       </c>
       <c r="BU22" t="s">
-        <v>1385</v>
+        <v>1311</v>
       </c>
       <c r="BV22" t="s">
         <v>927</v>
@@ -10104,7 +9860,7 @@
         <v>661</v>
       </c>
       <c r="BZ22" t="s">
-        <v>1037</v>
+        <v>983</v>
       </c>
       <c r="CA22">
         <v>1</v>
@@ -10130,7 +9886,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>1527</v>
+        <v>1453</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>178</v>
@@ -10142,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>1538</v>
+        <v>1464</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>177</v>
@@ -10154,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>1551</v>
+        <v>1477</v>
       </c>
       <c r="V23" t="s">
         <v>236</v>
@@ -10175,7 +9931,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>1576</v>
+        <v>1502</v>
       </c>
       <c r="AD23" t="s">
         <v>177</v>
@@ -10194,19 +9950,19 @@
         <v>1</v>
       </c>
       <c r="BI23" t="s">
-        <v>1419</v>
+        <v>1345</v>
       </c>
       <c r="BJ23" t="s">
-        <v>1251</v>
+        <v>1177</v>
       </c>
       <c r="BK23">
         <v>1</v>
       </c>
       <c r="BM23" s="2" t="s">
-        <v>1369</v>
+        <v>1295</v>
       </c>
       <c r="BN23" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO23">
         <v>1</v>
@@ -10215,16 +9971,16 @@
         <v>1</v>
       </c>
       <c r="BQ23" t="s">
-        <v>1503</v>
+        <v>1429</v>
       </c>
       <c r="BR23" t="s">
-        <v>1216</v>
+        <v>1142</v>
       </c>
       <c r="BS23">
         <v>1</v>
       </c>
       <c r="BU23" t="s">
-        <v>1386</v>
+        <v>1312</v>
       </c>
       <c r="BV23" t="s">
         <v>930</v>
@@ -10239,7 +9995,7 @@
         <v>669</v>
       </c>
       <c r="BZ23" t="s">
-        <v>1038</v>
+        <v>984</v>
       </c>
       <c r="CA23">
         <v>1</v>
@@ -10268,7 +10024,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1528</v>
+        <v>1454</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>180</v>
@@ -10280,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>1539</v>
+        <v>1465</v>
       </c>
       <c r="R24" t="s">
         <v>387</v>
@@ -10310,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>1577</v>
+        <v>1503</v>
       </c>
       <c r="AD24" t="s">
         <v>173</v>
@@ -10320,34 +10076,34 @@
       </c>
       <c r="AF24" s="2"/>
       <c r="BI24" t="s">
-        <v>1427</v>
+        <v>1353</v>
       </c>
       <c r="BJ24" t="s">
-        <v>1254</v>
+        <v>1180</v>
       </c>
       <c r="BK24">
         <v>1</v>
       </c>
       <c r="BM24" t="s">
-        <v>1372</v>
+        <v>1298</v>
       </c>
       <c r="BN24" t="s">
-        <v>1047</v>
+        <v>993</v>
       </c>
       <c r="BO24">
         <v>1</v>
       </c>
       <c r="BQ24" t="s">
-        <v>1509</v>
+        <v>1435</v>
       </c>
       <c r="BR24" t="s">
-        <v>1043</v>
+        <v>989</v>
       </c>
       <c r="BS24">
         <v>1</v>
       </c>
       <c r="BU24" t="s">
-        <v>1388</v>
+        <v>1314</v>
       </c>
       <c r="BV24" t="s">
         <v>934</v>
@@ -10394,7 +10150,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>1540</v>
+        <v>1466</v>
       </c>
       <c r="R25" t="s">
         <v>388</v>
@@ -10433,19 +10189,19 @@
         <v>1</v>
       </c>
       <c r="BI25" t="s">
-        <v>1429</v>
+        <v>1355</v>
       </c>
       <c r="BJ25" t="s">
-        <v>1255</v>
+        <v>1181</v>
       </c>
       <c r="BK25">
         <v>1</v>
       </c>
       <c r="BM25" s="2" t="s">
-        <v>1374</v>
+        <v>1300</v>
       </c>
       <c r="BN25" t="s">
-        <v>1044</v>
+        <v>990</v>
       </c>
       <c r="BO25">
         <v>1</v>
@@ -10454,16 +10210,16 @@
         <v>1</v>
       </c>
       <c r="BQ25" t="s">
-        <v>1505</v>
+        <v>1431</v>
       </c>
       <c r="BR25" t="s">
-        <v>1217</v>
+        <v>1143</v>
       </c>
       <c r="BS25">
         <v>1</v>
       </c>
       <c r="BU25" t="s">
-        <v>1390</v>
+        <v>1316</v>
       </c>
       <c r="BV25" t="s">
         <v>932</v>
@@ -10504,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>1541</v>
+        <v>1467</v>
       </c>
       <c r="R26" t="s">
         <v>390</v>
@@ -10534,34 +10290,34 @@
         <v>1</v>
       </c>
       <c r="BI26" t="s">
-        <v>1437</v>
+        <v>1363</v>
       </c>
       <c r="BJ26" t="s">
-        <v>1260</v>
+        <v>1186</v>
       </c>
       <c r="BK26">
         <v>1</v>
       </c>
       <c r="BM26" t="s">
-        <v>1457</v>
+        <v>1383</v>
       </c>
       <c r="BN26" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO26">
         <v>1</v>
       </c>
       <c r="BQ26" t="s">
-        <v>1510</v>
+        <v>1436</v>
       </c>
       <c r="BR26" t="s">
-        <v>1039</v>
+        <v>985</v>
       </c>
       <c r="BS26">
         <v>1</v>
       </c>
       <c r="BU26" t="s">
-        <v>1392</v>
+        <v>1318</v>
       </c>
       <c r="BV26" t="s">
         <v>928</v>
@@ -10623,28 +10379,28 @@
         <v>1</v>
       </c>
       <c r="BI27" t="s">
-        <v>1438</v>
+        <v>1364</v>
       </c>
       <c r="BJ27" t="s">
-        <v>1261</v>
+        <v>1187</v>
       </c>
       <c r="BK27">
         <v>1</v>
       </c>
       <c r="BM27" t="s">
-        <v>1458</v>
+        <v>1384</v>
       </c>
       <c r="BN27" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO27">
         <v>1</v>
       </c>
       <c r="BQ27" s="2" t="s">
-        <v>1295</v>
+        <v>1221</v>
       </c>
       <c r="BR27" s="2" t="s">
-        <v>1165</v>
+        <v>1091</v>
       </c>
       <c r="BS27">
         <v>1</v>
@@ -10653,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="BU27" t="s">
-        <v>1394</v>
+        <v>1320</v>
       </c>
       <c r="BV27" t="s">
         <v>933</v>
@@ -10712,28 +10468,28 @@
         <v>1</v>
       </c>
       <c r="BI28" t="s">
-        <v>1439</v>
+        <v>1365</v>
       </c>
       <c r="BJ28" t="s">
-        <v>1262</v>
+        <v>1188</v>
       </c>
       <c r="BK28">
         <v>1</v>
       </c>
       <c r="BM28" t="s">
-        <v>1459</v>
+        <v>1385</v>
       </c>
       <c r="BN28" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO28">
         <v>1</v>
       </c>
       <c r="BQ28" s="2" t="s">
-        <v>1299</v>
+        <v>1225</v>
       </c>
       <c r="BR28" s="2" t="s">
-        <v>1166</v>
+        <v>1092</v>
       </c>
       <c r="BS28">
         <v>1</v>
@@ -10742,7 +10498,7 @@
         <v>1</v>
       </c>
       <c r="BU28" t="s">
-        <v>1397</v>
+        <v>1323</v>
       </c>
       <c r="BV28" t="s">
         <v>929</v>
@@ -10795,28 +10551,28 @@
         <v>1</v>
       </c>
       <c r="BI29" t="s">
-        <v>1440</v>
+        <v>1366</v>
       </c>
       <c r="BJ29" t="s">
-        <v>1263</v>
+        <v>1189</v>
       </c>
       <c r="BK29">
         <v>1</v>
       </c>
       <c r="BM29" t="s">
-        <v>1460</v>
+        <v>1386</v>
       </c>
       <c r="BN29" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO29">
         <v>1</v>
       </c>
       <c r="BQ29" s="2" t="s">
-        <v>1303</v>
+        <v>1229</v>
       </c>
       <c r="BR29" s="2" t="s">
-        <v>1167</v>
+        <v>1093</v>
       </c>
       <c r="BS29">
         <v>1</v>
@@ -10825,7 +10581,7 @@
         <v>1</v>
       </c>
       <c r="BU29" t="s">
-        <v>1400</v>
+        <v>1326</v>
       </c>
       <c r="BV29" t="s">
         <v>926</v>
@@ -10851,7 +10607,7 @@
         <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>1290</v>
+        <v>1216</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -10866,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>1561</v>
+        <v>1487</v>
       </c>
       <c r="Z30" s="2" t="s">
         <v>178</v>
@@ -10878,28 +10634,28 @@
         <v>1</v>
       </c>
       <c r="BI30" t="s">
-        <v>1441</v>
+        <v>1367</v>
       </c>
       <c r="BJ30" t="s">
-        <v>1264</v>
+        <v>1190</v>
       </c>
       <c r="BK30">
         <v>1</v>
       </c>
       <c r="BM30" t="s">
-        <v>1461</v>
+        <v>1387</v>
       </c>
       <c r="BN30" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO30">
         <v>1</v>
       </c>
       <c r="BQ30" s="2" t="s">
-        <v>1307</v>
+        <v>1233</v>
       </c>
       <c r="BR30" s="2" t="s">
-        <v>1168</v>
+        <v>1094</v>
       </c>
       <c r="BS30">
         <v>1</v>
@@ -10908,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="BU30" t="s">
-        <v>1403</v>
+        <v>1329</v>
       </c>
       <c r="BV30" t="s">
         <v>931</v>
@@ -10949,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>1562</v>
+        <v>1488</v>
       </c>
       <c r="Z31" s="2" t="s">
         <v>254</v>
@@ -10961,19 +10717,19 @@
         <v>1</v>
       </c>
       <c r="BI31" t="s">
-        <v>1442</v>
+        <v>1368</v>
       </c>
       <c r="BJ31" t="s">
-        <v>1265</v>
+        <v>1191</v>
       </c>
       <c r="BK31">
         <v>1</v>
       </c>
       <c r="BM31" s="2" t="s">
-        <v>1432</v>
+        <v>1358</v>
       </c>
       <c r="BN31" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO31">
         <v>1</v>
@@ -10982,10 +10738,10 @@
         <v>1</v>
       </c>
       <c r="BQ31" s="2" t="s">
-        <v>1311</v>
+        <v>1237</v>
       </c>
       <c r="BR31" s="2" t="s">
-        <v>1169</v>
+        <v>1095</v>
       </c>
       <c r="BS31">
         <v>1</v>
@@ -10994,7 +10750,7 @@
         <v>1</v>
       </c>
       <c r="BU31" t="s">
-        <v>1406</v>
+        <v>1332</v>
       </c>
       <c r="BV31" t="s">
         <v>935</v>
@@ -11035,7 +10791,7 @@
         <v>1</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>1563</v>
+        <v>1489</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>179</v>
@@ -11047,28 +10803,28 @@
         <v>1</v>
       </c>
       <c r="BI32" t="s">
-        <v>1443</v>
+        <v>1369</v>
       </c>
       <c r="BJ32" t="s">
-        <v>1266</v>
+        <v>1192</v>
       </c>
       <c r="BK32">
         <v>1</v>
       </c>
       <c r="BM32" t="s">
-        <v>1433</v>
+        <v>1359</v>
       </c>
       <c r="BN32" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO32">
         <v>1</v>
       </c>
       <c r="BQ32" s="2" t="s">
-        <v>1314</v>
+        <v>1240</v>
       </c>
       <c r="BR32" s="2" t="s">
-        <v>1170</v>
+        <v>1096</v>
       </c>
       <c r="BS32">
         <v>1</v>
@@ -11077,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="BU32" t="s">
-        <v>1411</v>
+        <v>1337</v>
       </c>
       <c r="BV32" t="s">
         <v>936</v>
@@ -11127,28 +10883,28 @@
         <v>1</v>
       </c>
       <c r="BI33" t="s">
-        <v>1462</v>
+        <v>1388</v>
       </c>
       <c r="BJ33" t="s">
-        <v>1256</v>
+        <v>1182</v>
       </c>
       <c r="BK33">
         <v>1</v>
       </c>
       <c r="BM33" t="s">
-        <v>1434</v>
+        <v>1360</v>
       </c>
       <c r="BN33" t="s">
-        <v>1046</v>
+        <v>992</v>
       </c>
       <c r="BO33">
         <v>1</v>
       </c>
       <c r="BQ33" s="2" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="BR33" s="2" t="s">
-        <v>1171</v>
+        <v>1097</v>
       </c>
       <c r="BS33">
         <v>1</v>
@@ -11157,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="BU33" t="s">
-        <v>1412</v>
+        <v>1338</v>
       </c>
       <c r="BV33" t="s">
         <v>938</v>
@@ -11183,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="U34" t="s">
-        <v>1552</v>
+        <v>1478</v>
       </c>
       <c r="V34" t="s">
         <v>241</v>
@@ -11201,28 +10957,28 @@
         <v>1</v>
       </c>
       <c r="BI34" t="s">
-        <v>1463</v>
+        <v>1389</v>
       </c>
       <c r="BJ34" t="s">
-        <v>1257</v>
+        <v>1183</v>
       </c>
       <c r="BK34">
         <v>1</v>
       </c>
       <c r="BM34" t="s">
-        <v>1435</v>
+        <v>1361</v>
       </c>
       <c r="BN34" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO34">
         <v>1</v>
       </c>
       <c r="BQ34" s="2" t="s">
-        <v>1323</v>
+        <v>1249</v>
       </c>
       <c r="BR34" s="2" t="s">
-        <v>1172</v>
+        <v>1098</v>
       </c>
       <c r="BS34">
         <v>1</v>
@@ -11231,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="BU34" t="s">
-        <v>1415</v>
+        <v>1341</v>
       </c>
       <c r="BV34" t="s">
         <v>937</v>
@@ -11257,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="U35" t="s">
-        <v>1553</v>
+        <v>1479</v>
       </c>
       <c r="V35" t="s">
         <v>242</v>
@@ -11275,28 +11031,28 @@
         <v>1</v>
       </c>
       <c r="BI35" t="s">
-        <v>1464</v>
+        <v>1390</v>
       </c>
       <c r="BJ35" t="s">
-        <v>1258</v>
+        <v>1184</v>
       </c>
       <c r="BK35">
         <v>1</v>
       </c>
       <c r="BM35" t="s">
-        <v>1436</v>
+        <v>1362</v>
       </c>
       <c r="BN35" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="BO35">
         <v>1</v>
       </c>
       <c r="BQ35" s="2" t="s">
-        <v>1327</v>
+        <v>1253</v>
       </c>
       <c r="BR35" s="2" t="s">
-        <v>1173</v>
+        <v>1099</v>
       </c>
       <c r="BS35">
         <v>1</v>
@@ -11305,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="BU35" t="s">
-        <v>1418</v>
+        <v>1344</v>
       </c>
       <c r="BV35" t="s">
         <v>939</v>
@@ -11346,28 +11102,28 @@
         <v>1</v>
       </c>
       <c r="BI36" t="s">
-        <v>1465</v>
+        <v>1391</v>
       </c>
       <c r="BJ36" t="s">
-        <v>1259</v>
+        <v>1185</v>
       </c>
       <c r="BK36">
         <v>1</v>
       </c>
       <c r="BM36" t="s">
-        <v>1475</v>
+        <v>1401</v>
       </c>
       <c r="BN36" t="s">
-        <v>1048</v>
+        <v>994</v>
       </c>
       <c r="BO36">
         <v>1</v>
       </c>
       <c r="BQ36" s="2" t="s">
-        <v>1331</v>
+        <v>1257</v>
       </c>
       <c r="BR36" s="2" t="s">
-        <v>1174</v>
+        <v>1100</v>
       </c>
       <c r="BS36">
         <v>1</v>
@@ -11376,7 +11132,7 @@
         <v>1</v>
       </c>
       <c r="BU36" t="s">
-        <v>1421</v>
+        <v>1347</v>
       </c>
       <c r="BV36" t="s">
         <v>940</v>
@@ -11408,28 +11164,28 @@
         <v>1</v>
       </c>
       <c r="BI37" t="s">
-        <v>1490</v>
+        <v>1416</v>
       </c>
       <c r="BJ37" t="s">
-        <v>1267</v>
+        <v>1193</v>
       </c>
       <c r="BK37">
         <v>1</v>
       </c>
       <c r="BM37" t="s">
-        <v>1476</v>
+        <v>1402</v>
       </c>
       <c r="BN37" t="s">
-        <v>1048</v>
+        <v>994</v>
       </c>
       <c r="BO37">
         <v>1</v>
       </c>
       <c r="BQ37" s="2" t="s">
-        <v>1335</v>
+        <v>1261</v>
       </c>
       <c r="BR37" s="2" t="s">
-        <v>1173</v>
+        <v>1099</v>
       </c>
       <c r="BS37">
         <v>1</v>
@@ -11438,7 +11194,7 @@
         <v>1</v>
       </c>
       <c r="BU37" s="2" t="s">
-        <v>1424</v>
+        <v>1350</v>
       </c>
       <c r="BV37" s="2" t="s">
         <v>941</v>
@@ -11473,28 +11229,28 @@
         <v>1</v>
       </c>
       <c r="BI38" t="s">
-        <v>1493</v>
+        <v>1419</v>
       </c>
       <c r="BJ38" t="s">
-        <v>1268</v>
+        <v>1194</v>
       </c>
       <c r="BK38">
         <v>1</v>
       </c>
       <c r="BM38" t="s">
-        <v>1477</v>
+        <v>1403</v>
       </c>
       <c r="BN38" t="s">
-        <v>1048</v>
+        <v>994</v>
       </c>
       <c r="BO38">
         <v>1</v>
       </c>
       <c r="BQ38" s="2" t="s">
-        <v>1338</v>
+        <v>1264</v>
       </c>
       <c r="BR38" s="2" t="s">
-        <v>1175</v>
+        <v>1101</v>
       </c>
       <c r="BS38">
         <v>1</v>
@@ -11503,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="BU38" t="s">
-        <v>1444</v>
+        <v>1370</v>
       </c>
       <c r="BV38" t="s">
         <v>942</v>
@@ -11538,28 +11294,28 @@
         <v>1</v>
       </c>
       <c r="BI39" t="s">
-        <v>1496</v>
+        <v>1422</v>
       </c>
       <c r="BJ39" t="s">
-        <v>1269</v>
+        <v>1195</v>
       </c>
       <c r="BK39">
         <v>1</v>
       </c>
       <c r="BM39" t="s">
-        <v>1478</v>
+        <v>1404</v>
       </c>
       <c r="BN39" t="s">
-        <v>1048</v>
+        <v>994</v>
       </c>
       <c r="BO39">
         <v>1</v>
       </c>
       <c r="BQ39" s="2" t="s">
-        <v>1341</v>
+        <v>1267</v>
       </c>
       <c r="BR39" s="2" t="s">
-        <v>1176</v>
+        <v>1102</v>
       </c>
       <c r="BS39">
         <v>1</v>
@@ -11568,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="BU39" t="s">
-        <v>1445</v>
+        <v>1371</v>
       </c>
       <c r="BV39" t="s">
         <v>946</v>
@@ -11600,28 +11356,28 @@
         <v>1</v>
       </c>
       <c r="BI40" t="s">
-        <v>1499</v>
+        <v>1425</v>
       </c>
       <c r="BJ40" t="s">
-        <v>1270</v>
+        <v>1196</v>
       </c>
       <c r="BK40">
         <v>1</v>
       </c>
       <c r="BM40" t="s">
-        <v>1479</v>
+        <v>1405</v>
       </c>
       <c r="BN40" t="s">
-        <v>1048</v>
+        <v>994</v>
       </c>
       <c r="BO40">
         <v>1</v>
       </c>
       <c r="BQ40" s="2" t="s">
-        <v>1343</v>
+        <v>1269</v>
       </c>
       <c r="BR40" s="2" t="s">
-        <v>1171</v>
+        <v>1097</v>
       </c>
       <c r="BS40">
         <v>1</v>
@@ -11630,7 +11386,7 @@
         <v>1</v>
       </c>
       <c r="BU40" t="s">
-        <v>1446</v>
+        <v>1372</v>
       </c>
       <c r="BV40" t="s">
         <v>944</v>
@@ -11650,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="U41" t="s">
-        <v>1554</v>
+        <v>1480</v>
       </c>
       <c r="V41" t="s">
         <v>225</v>
@@ -11659,28 +11415,28 @@
         <v>1</v>
       </c>
       <c r="BI41" t="s">
-        <v>1502</v>
+        <v>1428</v>
       </c>
       <c r="BJ41" t="s">
-        <v>1271</v>
+        <v>1197</v>
       </c>
       <c r="BK41">
         <v>1</v>
       </c>
       <c r="BM41" t="s">
-        <v>1480</v>
+        <v>1406</v>
       </c>
       <c r="BN41" t="s">
-        <v>1048</v>
+        <v>994</v>
       </c>
       <c r="BO41">
         <v>1</v>
       </c>
       <c r="BQ41" s="2" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="BR41" s="2" t="s">
-        <v>1178</v>
+        <v>1104</v>
       </c>
       <c r="BS41">
         <v>1</v>
@@ -11689,7 +11445,7 @@
         <v>1</v>
       </c>
       <c r="BU41" t="s">
-        <v>1447</v>
+        <v>1373</v>
       </c>
       <c r="BV41" t="s">
         <v>947</v>
@@ -11709,7 +11465,7 @@
         <v>1</v>
       </c>
       <c r="U42" t="s">
-        <v>1555</v>
+        <v>1481</v>
       </c>
       <c r="V42" t="s">
         <v>226</v>
@@ -11718,28 +11474,28 @@
         <v>1</v>
       </c>
       <c r="BI42" t="s">
-        <v>1504</v>
+        <v>1430</v>
       </c>
       <c r="BJ42" t="s">
-        <v>1272</v>
+        <v>1198</v>
       </c>
       <c r="BK42">
         <v>1</v>
       </c>
       <c r="BM42" t="s">
-        <v>1481</v>
+        <v>1407</v>
       </c>
       <c r="BN42" t="s">
-        <v>1048</v>
+        <v>994</v>
       </c>
       <c r="BO42">
         <v>1</v>
       </c>
       <c r="BQ42" s="2" t="s">
-        <v>1353</v>
+        <v>1279</v>
       </c>
       <c r="BR42" s="2" t="s">
-        <v>1179</v>
+        <v>1105</v>
       </c>
       <c r="BS42">
         <v>1</v>
@@ -11748,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="BU42" t="s">
-        <v>1449</v>
+        <v>1375</v>
       </c>
       <c r="BV42" t="s">
         <v>943</v>
@@ -11771,7 +11527,7 @@
         <v>1</v>
       </c>
       <c r="U43" t="s">
-        <v>1556</v>
+        <v>1482</v>
       </c>
       <c r="V43" t="s">
         <v>227</v>
@@ -11780,10 +11536,10 @@
         <v>1</v>
       </c>
       <c r="BI43" s="2" t="s">
-        <v>1293</v>
+        <v>1219</v>
       </c>
       <c r="BJ43" s="2" t="s">
-        <v>1218</v>
+        <v>1144</v>
       </c>
       <c r="BK43">
         <v>1</v>
@@ -11792,19 +11548,19 @@
         <v>1</v>
       </c>
       <c r="BM43" t="s">
-        <v>1482</v>
+        <v>1408</v>
       </c>
       <c r="BN43" t="s">
-        <v>1048</v>
+        <v>994</v>
       </c>
       <c r="BO43">
         <v>1</v>
       </c>
       <c r="BQ43" s="2" t="s">
-        <v>1356</v>
+        <v>1282</v>
       </c>
       <c r="BR43" s="2" t="s">
-        <v>1180</v>
+        <v>1106</v>
       </c>
       <c r="BS43">
         <v>1</v>
@@ -11813,7 +11569,7 @@
         <v>1</v>
       </c>
       <c r="BU43" t="s">
-        <v>1451</v>
+        <v>1377</v>
       </c>
       <c r="BV43" t="s">
         <v>945</v>
@@ -11845,10 +11601,10 @@
         <v>1</v>
       </c>
       <c r="BI44" s="2" t="s">
-        <v>1297</v>
+        <v>1223</v>
       </c>
       <c r="BJ44" s="2" t="s">
-        <v>1219</v>
+        <v>1145</v>
       </c>
       <c r="BK44">
         <v>1</v>
@@ -11857,19 +11613,19 @@
         <v>1</v>
       </c>
       <c r="BM44" t="s">
-        <v>1483</v>
+        <v>1409</v>
       </c>
       <c r="BN44" t="s">
-        <v>1048</v>
+        <v>994</v>
       </c>
       <c r="BO44">
         <v>1</v>
       </c>
       <c r="BQ44" s="2" t="s">
-        <v>1359</v>
+        <v>1285</v>
       </c>
       <c r="BR44" s="2" t="s">
-        <v>1181</v>
+        <v>1107</v>
       </c>
       <c r="BS44">
         <v>1</v>
@@ -11878,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="BU44" t="s">
-        <v>1466</v>
+        <v>1392</v>
       </c>
       <c r="BV44" t="s">
         <v>953</v>
@@ -11907,10 +11663,10 @@
         <v>1</v>
       </c>
       <c r="BI45" s="2" t="s">
-        <v>1301</v>
+        <v>1227</v>
       </c>
       <c r="BJ45" s="2" t="s">
-        <v>1220</v>
+        <v>1146</v>
       </c>
       <c r="BK45">
         <v>1</v>
@@ -11919,19 +11675,19 @@
         <v>1</v>
       </c>
       <c r="BM45" t="s">
-        <v>1484</v>
+        <v>1410</v>
       </c>
       <c r="BN45" t="s">
-        <v>1048</v>
+        <v>994</v>
       </c>
       <c r="BO45">
         <v>1</v>
       </c>
       <c r="BQ45" s="2" t="s">
-        <v>1363</v>
+        <v>1289</v>
       </c>
       <c r="BR45" s="2" t="s">
-        <v>1182</v>
+        <v>1108</v>
       </c>
       <c r="BS45">
         <v>1</v>
@@ -11940,7 +11696,7 @@
         <v>1</v>
       </c>
       <c r="BU45" t="s">
-        <v>1467</v>
+        <v>1393</v>
       </c>
       <c r="BV45" t="s">
         <v>951</v>
@@ -11972,10 +11728,10 @@
         <v>1</v>
       </c>
       <c r="BI46" s="2" t="s">
-        <v>1305</v>
+        <v>1231</v>
       </c>
       <c r="BJ46" s="2" t="s">
-        <v>1221</v>
+        <v>1147</v>
       </c>
       <c r="BK46">
         <v>1</v>
@@ -11984,19 +11740,19 @@
         <v>1</v>
       </c>
       <c r="BM46" t="s">
-        <v>1485</v>
+        <v>1411</v>
       </c>
       <c r="BN46" t="s">
-        <v>1048</v>
+        <v>994</v>
       </c>
       <c r="BO46">
         <v>1</v>
       </c>
       <c r="BQ46" s="2" t="s">
-        <v>1367</v>
+        <v>1293</v>
       </c>
       <c r="BR46" s="2" t="s">
-        <v>1183</v>
+        <v>1109</v>
       </c>
       <c r="BS46">
         <v>1</v>
@@ -12005,7 +11761,7 @@
         <v>1</v>
       </c>
       <c r="BU46" t="s">
-        <v>1468</v>
+        <v>1394</v>
       </c>
       <c r="BV46" t="s">
         <v>952</v>
@@ -12025,7 +11781,7 @@
         <v>1</v>
       </c>
       <c r="U47" t="s">
-        <v>1557</v>
+        <v>1483</v>
       </c>
       <c r="V47" t="s">
         <v>228</v>
@@ -12034,10 +11790,10 @@
         <v>1</v>
       </c>
       <c r="BI47" s="2" t="s">
-        <v>1321</v>
+        <v>1247</v>
       </c>
       <c r="BJ47" s="2" t="s">
-        <v>1225</v>
+        <v>1151</v>
       </c>
       <c r="BK47">
         <v>1</v>
@@ -12046,19 +11802,19 @@
         <v>1</v>
       </c>
       <c r="BM47" t="s">
-        <v>1486</v>
+        <v>1412</v>
       </c>
       <c r="BN47" t="s">
-        <v>1048</v>
+        <v>994</v>
       </c>
       <c r="BO47">
         <v>1</v>
       </c>
       <c r="BQ47" s="2" t="s">
-        <v>1387</v>
+        <v>1313</v>
       </c>
       <c r="BR47" s="2" t="s">
-        <v>1185</v>
+        <v>1111</v>
       </c>
       <c r="BS47">
         <v>1</v>
@@ -12067,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="BU47" t="s">
-        <v>1470</v>
+        <v>1396</v>
       </c>
       <c r="BV47" t="s">
         <v>948</v>
@@ -12087,7 +11843,7 @@
         <v>1</v>
       </c>
       <c r="U48" t="s">
-        <v>1558</v>
+        <v>1484</v>
       </c>
       <c r="V48" t="s">
         <v>229</v>
@@ -12096,10 +11852,10 @@
         <v>1</v>
       </c>
       <c r="BI48" s="2" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="BJ48" s="2" t="s">
-        <v>1226</v>
+        <v>1152</v>
       </c>
       <c r="BK48">
         <v>1</v>
@@ -12108,19 +11864,19 @@
         <v>1</v>
       </c>
       <c r="BM48" t="s">
-        <v>1487</v>
+        <v>1413</v>
       </c>
       <c r="BN48" t="s">
-        <v>1048</v>
+        <v>994</v>
       </c>
       <c r="BO48">
         <v>1</v>
       </c>
       <c r="BQ48" s="2" t="s">
-        <v>1389</v>
+        <v>1315</v>
       </c>
       <c r="BR48" s="2" t="s">
-        <v>1186</v>
+        <v>1112</v>
       </c>
       <c r="BS48">
         <v>1</v>
@@ -12129,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="BU48" t="s">
-        <v>1472</v>
+        <v>1398</v>
       </c>
       <c r="BV48" t="s">
         <v>950</v>
@@ -12158,10 +11914,10 @@
         <v>1</v>
       </c>
       <c r="BI49" s="2" t="s">
-        <v>1329</v>
+        <v>1255</v>
       </c>
       <c r="BJ49" s="2" t="s">
-        <v>1227</v>
+        <v>1153</v>
       </c>
       <c r="BK49">
         <v>1</v>
@@ -12170,10 +11926,10 @@
         <v>1</v>
       </c>
       <c r="BQ49" s="2" t="s">
-        <v>1391</v>
+        <v>1317</v>
       </c>
       <c r="BR49" s="2" t="s">
-        <v>1187</v>
+        <v>1113</v>
       </c>
       <c r="BS49">
         <v>1</v>
@@ -12182,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="BU49" t="s">
-        <v>1474</v>
+        <v>1400</v>
       </c>
       <c r="BV49" t="s">
         <v>949</v>
@@ -12211,10 +11967,10 @@
         <v>1</v>
       </c>
       <c r="BI50" s="2" t="s">
-        <v>1337</v>
+        <v>1263</v>
       </c>
       <c r="BJ50" s="2" t="s">
-        <v>1229</v>
+        <v>1155</v>
       </c>
       <c r="BK50">
         <v>1</v>
@@ -12223,10 +11979,10 @@
         <v>1</v>
       </c>
       <c r="BQ50" s="2" t="s">
-        <v>1393</v>
+        <v>1319</v>
       </c>
       <c r="BR50" s="2" t="s">
-        <v>1188</v>
+        <v>1114</v>
       </c>
       <c r="BS50">
         <v>1</v>
@@ -12235,7 +11991,7 @@
         <v>1</v>
       </c>
       <c r="BU50" t="s">
-        <v>1488</v>
+        <v>1414</v>
       </c>
       <c r="BV50" t="s">
         <v>957</v>
@@ -12264,10 +12020,10 @@
         <v>1</v>
       </c>
       <c r="BI51" s="2" t="s">
-        <v>1340</v>
+        <v>1266</v>
       </c>
       <c r="BJ51" s="2" t="s">
-        <v>1230</v>
+        <v>1156</v>
       </c>
       <c r="BK51">
         <v>1</v>
@@ -12276,10 +12032,10 @@
         <v>1</v>
       </c>
       <c r="BQ51" s="2" t="s">
-        <v>1396</v>
+        <v>1322</v>
       </c>
       <c r="BR51" s="2" t="s">
-        <v>1189</v>
+        <v>1115</v>
       </c>
       <c r="BS51">
         <v>1</v>
@@ -12288,7 +12044,7 @@
         <v>1</v>
       </c>
       <c r="BU51" t="s">
-        <v>1489</v>
+        <v>1415</v>
       </c>
       <c r="BV51" t="s">
         <v>956</v>
@@ -12311,10 +12067,10 @@
         <v>1</v>
       </c>
       <c r="BI52" s="2" t="s">
-        <v>1361</v>
+        <v>1287</v>
       </c>
       <c r="BJ52" s="2" t="s">
-        <v>1237</v>
+        <v>1163</v>
       </c>
       <c r="BK52">
         <v>1</v>
@@ -12323,10 +12079,10 @@
         <v>1</v>
       </c>
       <c r="BQ52" s="2" t="s">
-        <v>1402</v>
+        <v>1328</v>
       </c>
       <c r="BR52" s="2" t="s">
-        <v>1191</v>
+        <v>1117</v>
       </c>
       <c r="BS52">
         <v>1</v>
@@ -12335,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="BU52" t="s">
-        <v>1492</v>
+        <v>1418</v>
       </c>
       <c r="BV52" t="s">
         <v>955</v>
@@ -12355,10 +12111,10 @@
         <v>1</v>
       </c>
       <c r="BI53" s="2" t="s">
-        <v>1368</v>
+        <v>1294</v>
       </c>
       <c r="BJ53" s="2" t="s">
-        <v>1239</v>
+        <v>1165</v>
       </c>
       <c r="BK53">
         <v>1</v>
@@ -12367,10 +12123,10 @@
         <v>1</v>
       </c>
       <c r="BQ53" s="2" t="s">
-        <v>1405</v>
+        <v>1331</v>
       </c>
       <c r="BR53" s="2" t="s">
-        <v>1192</v>
+        <v>1118</v>
       </c>
       <c r="BS53">
         <v>1</v>
@@ -12379,7 +12135,7 @@
         <v>1</v>
       </c>
       <c r="BU53" t="s">
-        <v>1495</v>
+        <v>1421</v>
       </c>
       <c r="BV53" t="s">
         <v>954</v>
@@ -12390,10 +12146,10 @@
     </row>
     <row r="54" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BI54" s="2" t="s">
-        <v>1407</v>
+        <v>1333</v>
       </c>
       <c r="BJ54" s="2" t="s">
-        <v>1218</v>
+        <v>1144</v>
       </c>
       <c r="BK54">
         <v>1</v>
@@ -12402,10 +12158,10 @@
         <v>1</v>
       </c>
       <c r="BQ54" s="2" t="s">
-        <v>1408</v>
+        <v>1334</v>
       </c>
       <c r="BR54" s="2" t="s">
-        <v>1193</v>
+        <v>1119</v>
       </c>
       <c r="BS54">
         <v>1</v>
@@ -12414,7 +12170,7 @@
         <v>1</v>
       </c>
       <c r="BU54" t="s">
-        <v>1498</v>
+        <v>1424</v>
       </c>
       <c r="BV54" t="s">
         <v>959</v>
@@ -12425,10 +12181,10 @@
     </row>
     <row r="55" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BI55" s="2" t="s">
-        <v>1409</v>
+        <v>1335</v>
       </c>
       <c r="BJ55" s="2" t="s">
-        <v>1248</v>
+        <v>1174</v>
       </c>
       <c r="BK55">
         <v>1</v>
@@ -12437,10 +12193,10 @@
         <v>1</v>
       </c>
       <c r="BQ55" s="2" t="s">
-        <v>1410</v>
+        <v>1336</v>
       </c>
       <c r="BR55" s="2" t="s">
-        <v>1194</v>
+        <v>1120</v>
       </c>
       <c r="BS55">
         <v>1</v>
@@ -12449,7 +12205,7 @@
         <v>1</v>
       </c>
       <c r="BU55" t="s">
-        <v>1501</v>
+        <v>1427</v>
       </c>
       <c r="BV55" t="s">
         <v>958</v>
@@ -12460,10 +12216,10 @@
     </row>
     <row r="56" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BI56" s="2" t="s">
-        <v>1422</v>
+        <v>1348</v>
       </c>
       <c r="BJ56" s="2" t="s">
-        <v>1252</v>
+        <v>1178</v>
       </c>
       <c r="BK56">
         <v>1</v>
@@ -12472,10 +12228,10 @@
         <v>1</v>
       </c>
       <c r="BQ56" s="2" t="s">
-        <v>1417</v>
+        <v>1343</v>
       </c>
       <c r="BR56" s="2" t="s">
-        <v>1196</v>
+        <v>1122</v>
       </c>
       <c r="BS56">
         <v>1</v>
@@ -12486,10 +12242,10 @@
     </row>
     <row r="57" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BI57" s="2" t="s">
-        <v>1425</v>
+        <v>1351</v>
       </c>
       <c r="BJ57" s="2" t="s">
-        <v>1253</v>
+        <v>1179</v>
       </c>
       <c r="BK57">
         <v>1</v>
@@ -12498,10 +12254,10 @@
         <v>1</v>
       </c>
       <c r="BQ57" s="2" t="s">
-        <v>1420</v>
+        <v>1346</v>
       </c>
       <c r="BR57" s="2" t="s">
-        <v>1197</v>
+        <v>1123</v>
       </c>
       <c r="BS57">
         <v>1</v>
@@ -12512,10 +12268,10 @@
     </row>
     <row r="58" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BQ58" s="2" t="s">
-        <v>1423</v>
+        <v>1349</v>
       </c>
       <c r="BR58" s="2" t="s">
-        <v>1198</v>
+        <v>1124</v>
       </c>
       <c r="BS58">
         <v>1</v>
@@ -12526,10 +12282,10 @@
     </row>
     <row r="59" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BQ59" s="2" t="s">
-        <v>1426</v>
+        <v>1352</v>
       </c>
       <c r="BR59" s="2" t="s">
-        <v>1199</v>
+        <v>1125</v>
       </c>
       <c r="BS59">
         <v>1</v>
@@ -12540,10 +12296,10 @@
     </row>
     <row r="60" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BQ60" s="2" t="s">
-        <v>1428</v>
+        <v>1354</v>
       </c>
       <c r="BR60" s="2" t="s">
-        <v>1200</v>
+        <v>1126</v>
       </c>
       <c r="BS60">
         <v>1</v>
@@ -12554,10 +12310,10 @@
     </row>
     <row r="61" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BQ61" s="2" t="s">
-        <v>1430</v>
+        <v>1356</v>
       </c>
       <c r="BR61" s="2" t="s">
-        <v>1201</v>
+        <v>1127</v>
       </c>
       <c r="BS61">
         <v>1</v>
@@ -12568,10 +12324,10 @@
     </row>
     <row r="62" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BQ62" s="2" t="s">
-        <v>1431</v>
+        <v>1357</v>
       </c>
       <c r="BR62" s="2" t="s">
-        <v>1202</v>
+        <v>1128</v>
       </c>
       <c r="BS62">
         <v>1</v>
@@ -12585,42 +12341,42 @@
     <sortCondition ref="AO2:AO15"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="containsText" dxfId="25" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+    <cfRule type="containsText" dxfId="18" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="17" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
+    <cfRule type="containsText" dxfId="16" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
       <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" stopIfTrue="1" operator="containsText" text="SnowCicle">
+    <cfRule type="containsText" dxfId="15" priority="8" stopIfTrue="1" operator="containsText" text="SnowCicle">
       <formula>NOT(ISERROR(SEARCH("SnowCicle",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="9" stopIfTrue="1" operator="containsText" text="Bubble">
+    <cfRule type="containsText" dxfId="14" priority="9" stopIfTrue="1" operator="containsText" text="Bubble">
       <formula>NOT(ISERROR(SEARCH("Bubble",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="12" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+    <cfRule type="containsText" dxfId="13" priority="12" stopIfTrue="1" operator="containsText" text="Moon Cheese">
       <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="containsText" dxfId="19" priority="16" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="12" priority="16" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="containsText" dxfId="18" priority="15" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="11" priority="15" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",V1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576">
-    <cfRule type="containsText" dxfId="17" priority="14" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="10" priority="14" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",Z1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1:AD1048576">
-    <cfRule type="containsText" dxfId="16" priority="13" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="9" priority="13" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",AD1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12754,10 +12510,10 @@
         <v>601</v>
       </c>
       <c r="F1" t="s">
-        <v>1016</v>
+        <v>962</v>
       </c>
       <c r="G1" t="s">
-        <v>1015</v>
+        <v>961</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -13420,7 +13176,7 @@
         <v>674</v>
       </c>
       <c r="G1" t="s">
-        <v>1164</v>
+        <v>1090</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -13447,7 +13203,7 @@
         <v>678</v>
       </c>
       <c r="G2" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H2" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13475,7 +13231,7 @@
         <v>681</v>
       </c>
       <c r="G3" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H3" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13503,7 +13259,7 @@
         <v>678</v>
       </c>
       <c r="G4" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H4" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13531,7 +13287,7 @@
         <v>678</v>
       </c>
       <c r="G5" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H5" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13559,7 +13315,7 @@
         <v>688</v>
       </c>
       <c r="G6" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H6" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13587,7 +13343,7 @@
         <v>690</v>
       </c>
       <c r="G7" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H7" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13615,7 +13371,7 @@
         <v>693</v>
       </c>
       <c r="G8" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H8" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13643,7 +13399,7 @@
         <v>678</v>
       </c>
       <c r="G9" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H9" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13671,7 +13427,7 @@
         <v>681</v>
       </c>
       <c r="G10" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H10" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13699,7 +13455,7 @@
         <v>678</v>
       </c>
       <c r="G11" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H11" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13727,7 +13483,7 @@
         <v>678</v>
       </c>
       <c r="G12" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H12" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13755,7 +13511,7 @@
         <v>681</v>
       </c>
       <c r="G13" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H13" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13783,7 +13539,7 @@
         <v>678</v>
       </c>
       <c r="G14" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H14" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13811,7 +13567,7 @@
         <v>678</v>
       </c>
       <c r="G15" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H15" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13839,7 +13595,7 @@
         <v>681</v>
       </c>
       <c r="G16" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H16" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13867,7 +13623,7 @@
         <v>690</v>
       </c>
       <c r="G17" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H17" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13895,7 +13651,7 @@
         <v>681</v>
       </c>
       <c r="G18" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H18" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13923,7 +13679,7 @@
         <v>678</v>
       </c>
       <c r="G19" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H19" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13951,7 +13707,7 @@
         <v>678</v>
       </c>
       <c r="G20" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H20" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -13979,7 +13735,7 @@
         <v>681</v>
       </c>
       <c r="G21" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H21" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14007,7 +13763,7 @@
         <v>678</v>
       </c>
       <c r="G22" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H22" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14035,7 +13791,7 @@
         <v>678</v>
       </c>
       <c r="G23" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H23" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14063,7 +13819,7 @@
         <v>727</v>
       </c>
       <c r="G24" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H24" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14091,7 +13847,7 @@
         <v>690</v>
       </c>
       <c r="G25" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H25" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14119,7 +13875,7 @@
         <v>732</v>
       </c>
       <c r="G26" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H26" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14147,7 +13903,7 @@
         <v>693</v>
       </c>
       <c r="G27" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H27" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14175,7 +13931,7 @@
         <v>678</v>
       </c>
       <c r="G28" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H28" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14203,7 +13959,7 @@
         <v>690</v>
       </c>
       <c r="G29" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H29" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14231,7 +13987,7 @@
         <v>681</v>
       </c>
       <c r="G30" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H30" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14259,7 +14015,7 @@
         <v>742</v>
       </c>
       <c r="G31" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H31" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14287,7 +14043,7 @@
         <v>678</v>
       </c>
       <c r="G32" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H32" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14315,7 +14071,7 @@
         <v>693</v>
       </c>
       <c r="G33" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H33" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14343,7 +14099,7 @@
         <v>678</v>
       </c>
       <c r="G34" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H34" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14371,7 +14127,7 @@
         <v>678</v>
       </c>
       <c r="G35" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H35" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14399,7 +14155,7 @@
         <v>752</v>
       </c>
       <c r="G36" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H36" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14427,7 +14183,7 @@
         <v>690</v>
       </c>
       <c r="G37" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H37" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14455,7 +14211,7 @@
         <v>690</v>
       </c>
       <c r="G38" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H38" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14483,7 +14239,7 @@
         <v>759</v>
       </c>
       <c r="G39" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H39" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14511,7 +14267,7 @@
         <v>762</v>
       </c>
       <c r="G40" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H40" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14539,7 +14295,7 @@
         <v>764</v>
       </c>
       <c r="G41" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H41" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14567,7 +14323,7 @@
         <v>764</v>
       </c>
       <c r="G42" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H42" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14595,7 +14351,7 @@
         <v>769</v>
       </c>
       <c r="G43" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H43" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14623,7 +14379,7 @@
         <v>772</v>
       </c>
       <c r="G44" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H44" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14651,7 +14407,7 @@
         <v>693</v>
       </c>
       <c r="G45" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H45" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14679,7 +14435,7 @@
         <v>742</v>
       </c>
       <c r="G46" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H46" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14707,7 +14463,7 @@
         <v>678</v>
       </c>
       <c r="G47" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H47" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14735,7 +14491,7 @@
         <v>693</v>
       </c>
       <c r="G48" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H48" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14763,7 +14519,7 @@
         <v>681</v>
       </c>
       <c r="G49" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H49" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14791,7 +14547,7 @@
         <v>787</v>
       </c>
       <c r="G50" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H50" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14819,7 +14575,7 @@
         <v>678</v>
       </c>
       <c r="G51" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H51" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14847,7 +14603,7 @@
         <v>678</v>
       </c>
       <c r="G52" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H52" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14875,7 +14631,7 @@
         <v>678</v>
       </c>
       <c r="G53" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H53" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14903,7 +14659,7 @@
         <v>678</v>
       </c>
       <c r="G54" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H54" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14931,7 +14687,7 @@
         <v>678</v>
       </c>
       <c r="G55" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H55" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14959,7 +14715,7 @@
         <v>690</v>
       </c>
       <c r="G56" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H56" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -14987,7 +14743,7 @@
         <v>681</v>
       </c>
       <c r="G57" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H57" t="str">
         <f>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</f>
@@ -15022,7 +14778,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1160</v>
+        <v>1086</v>
       </c>
       <c r="B1" t="s">
         <v>803</v>
@@ -15040,7 +14796,7 @@
         <v>674</v>
       </c>
       <c r="G1" t="s">
-        <v>1164</v>
+        <v>1090</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -15067,7 +14823,7 @@
         <v>678</v>
       </c>
       <c r="G2" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H2" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15095,7 +14851,7 @@
         <v>812</v>
       </c>
       <c r="G3" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H3" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15123,7 +14879,7 @@
         <v>690</v>
       </c>
       <c r="G4" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H4" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15151,7 +14907,7 @@
         <v>769</v>
       </c>
       <c r="G5" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H5" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15179,7 +14935,7 @@
         <v>812</v>
       </c>
       <c r="G6" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H6" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15207,7 +14963,7 @@
         <v>681</v>
       </c>
       <c r="G7" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H7" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15235,7 +14991,7 @@
         <v>764</v>
       </c>
       <c r="G8" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H8" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15263,7 +15019,7 @@
         <v>681</v>
       </c>
       <c r="G9" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H9" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15291,7 +15047,7 @@
         <v>678</v>
       </c>
       <c r="G10" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H10" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15319,7 +15075,7 @@
         <v>769</v>
       </c>
       <c r="G11" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H11" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15347,7 +15103,7 @@
         <v>678</v>
       </c>
       <c r="G12" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H12" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15375,7 +15131,7 @@
         <v>681</v>
       </c>
       <c r="G13" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H13" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15403,7 +15159,7 @@
         <v>678</v>
       </c>
       <c r="G14" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H14" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15431,7 +15187,7 @@
         <v>764</v>
       </c>
       <c r="G15" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H15" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15459,7 +15215,7 @@
         <v>678</v>
       </c>
       <c r="G16" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H16" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15487,7 +15243,7 @@
         <v>678</v>
       </c>
       <c r="G17" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H17" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15515,7 +15271,7 @@
         <v>769</v>
       </c>
       <c r="G18" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H18" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15543,7 +15299,7 @@
         <v>681</v>
       </c>
       <c r="G19" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H19" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15571,7 +15327,7 @@
         <v>727</v>
       </c>
       <c r="G20" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H20" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15599,7 +15355,7 @@
         <v>678</v>
       </c>
       <c r="G21" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H21" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15627,7 +15383,7 @@
         <v>787</v>
       </c>
       <c r="G22" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H22" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15655,7 +15411,7 @@
         <v>693</v>
       </c>
       <c r="G23" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H23" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15683,7 +15439,7 @@
         <v>693</v>
       </c>
       <c r="G24" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H24" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15711,7 +15467,7 @@
         <v>678</v>
       </c>
       <c r="G25" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H25" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15739,7 +15495,7 @@
         <v>690</v>
       </c>
       <c r="G26" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H26" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15767,7 +15523,7 @@
         <v>678</v>
       </c>
       <c r="G27" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H27" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15795,7 +15551,7 @@
         <v>693</v>
       </c>
       <c r="G28" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H28" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15823,7 +15579,7 @@
         <v>762</v>
       </c>
       <c r="G29" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H29" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15851,7 +15607,7 @@
         <v>678</v>
       </c>
       <c r="G30" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H30" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15879,7 +15635,7 @@
         <v>693</v>
       </c>
       <c r="G31" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H31" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15907,7 +15663,7 @@
         <v>812</v>
       </c>
       <c r="G32" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H32" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15935,7 +15691,7 @@
         <v>681</v>
       </c>
       <c r="G33" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H33" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15963,7 +15719,7 @@
         <v>681</v>
       </c>
       <c r="G34" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H34" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -15991,7 +15747,7 @@
         <v>678</v>
       </c>
       <c r="G35" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H35" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16019,7 +15775,7 @@
         <v>678</v>
       </c>
       <c r="G36" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H36" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16047,7 +15803,7 @@
         <v>678</v>
       </c>
       <c r="G37" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H37" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16075,7 +15831,7 @@
         <v>759</v>
       </c>
       <c r="G38" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H38" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16103,7 +15859,7 @@
         <v>678</v>
       </c>
       <c r="G39" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H39" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16131,7 +15887,7 @@
         <v>678</v>
       </c>
       <c r="G40" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H40" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16159,7 +15915,7 @@
         <v>812</v>
       </c>
       <c r="G41" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H41" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16187,7 +15943,7 @@
         <v>769</v>
       </c>
       <c r="G42" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H42" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16215,7 +15971,7 @@
         <v>678</v>
       </c>
       <c r="G43" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H43" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16243,7 +15999,7 @@
         <v>693</v>
       </c>
       <c r="G44" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H44" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16271,7 +16027,7 @@
         <v>688</v>
       </c>
       <c r="G45" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H45" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16299,7 +16055,7 @@
         <v>678</v>
       </c>
       <c r="G46" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H46" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16327,7 +16083,7 @@
         <v>678</v>
       </c>
       <c r="G47" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H47" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16355,7 +16111,7 @@
         <v>892</v>
       </c>
       <c r="G48" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H48" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16383,7 +16139,7 @@
         <v>681</v>
       </c>
       <c r="G49" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H49" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16411,7 +16167,7 @@
         <v>678</v>
       </c>
       <c r="G50" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H50" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16439,7 +16195,7 @@
         <v>896</v>
       </c>
       <c r="G51" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H51" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16467,7 +16223,7 @@
         <v>678</v>
       </c>
       <c r="G52" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H52" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16495,7 +16251,7 @@
         <v>678</v>
       </c>
       <c r="G53" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H53" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16551,7 +16307,7 @@
         <v>681</v>
       </c>
       <c r="G55" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="H55" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16579,7 +16335,7 @@
         <v>693</v>
       </c>
       <c r="G56" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="H56" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16607,7 +16363,7 @@
         <v>678</v>
       </c>
       <c r="G57" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="H57" t="str">
         <f>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</f>
@@ -16626,8 +16382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB14B9A7-32BD-458D-A5F7-E49A0C0475BC}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16640,22 +16396,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1052</v>
+        <v>998</v>
       </c>
       <c r="B1" t="s">
-        <v>1050</v>
+        <v>996</v>
       </c>
       <c r="C1" t="s">
-        <v>1056</v>
+        <v>1002</v>
       </c>
       <c r="D1" t="s">
-        <v>1053</v>
+        <v>999</v>
       </c>
       <c r="E1" t="s">
-        <v>1054</v>
+        <v>1000</v>
       </c>
       <c r="F1" t="s">
-        <v>1055</v>
+        <v>1001</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -16669,20 +16425,20 @@
         <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>1057</v>
+        <v>1003</v>
       </c>
       <c r="D2" t="s">
         <v>611</v>
       </c>
       <c r="E2" t="s">
-        <v>1058</v>
+        <v>1004</v>
       </c>
       <c r="F2" t="s">
-        <v>1059</v>
+        <v>1005</v>
       </c>
       <c r="G2" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v xml:space="preserve">Liked Gifts: Fruits, Bakery, Fancy /// 3-Heart Gifts: Red Bow Apple Pie /// 2-Heart Gifts: Candied Banana Coffee, Strawberry Shortcake, Beignets with Pineapple Dip, Mama's Apple Pie, Fruity Cheesecake, Strawberry Cheesecake /// 1-Heart Gifts: Any Baked Goods, Any Themed Gift, Banana Shake, Strawberry Shake, Apple Ice Cream, Strawberry Ice Cream, Fruity Cloud, Designer Island Doll, Strawberry Soda, Apple Soda, Spinip Alfredo Pizza, Fruit Pizza, Strawberry, Pineapple, Apple, </v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Fruits, Bakery, Fancy /// 3-Heart Gifts: Red Bow Apple Pie /// 2-Heart Gifts: Candied Banana Coffee, Strawberry Shortcake, Beignets with Pineapple Dip, Mama's Apple Pie, Fruity Cheesecake, Strawberry Cheesecake</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -16693,20 +16449,20 @@
         <v>211</v>
       </c>
       <c r="C3" t="s">
-        <v>1060</v>
+        <v>1006</v>
       </c>
       <c r="D3" t="s">
         <v>667</v>
       </c>
       <c r="E3" t="s">
-        <v>1061</v>
+        <v>1007</v>
       </c>
       <c r="F3" t="s">
-        <v>1062</v>
+        <v>1008</v>
       </c>
       <c r="G3" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v xml:space="preserve">Liked Gifts: Sweet, Pink, Dreamy /// 3-Heart Gifts: Pink Clouds Ice Cream /// 2-Heart Gifts: Pink Latte, Almond Pound Cake, Strawberry Almond Galette,  /// 1-Heart Gifts: Strawberry, Swampmallow, Strawberry Shortcake, Sugarkelp, Cinnamon Roll, Beignets with Pineapple Dip, Macaron, Candy Cloud, Sweet Pudding, Sweet Latte, Sweet Soda, Sakura Soda, Boulder Bits Ice Cream, Pink Cloud, Sakura Cheesecake, Strawberry Cheesecake, Strawberry Shake, Toasted Marshmallow Cloud, Sakura Frappe, </v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v xml:space="preserve">Liked Gifts: Sweet, Pink, Dreamy /// 3-Heart Gifts: Pink Clouds Ice Cream /// 2-Heart Gifts: Pink Latte, Almond Pound Cake, Strawberry Almond Galette, </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -16717,20 +16473,20 @@
         <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>1068</v>
+        <v>1014</v>
       </c>
       <c r="D4" t="s">
-        <v>1069</v>
+        <v>1015</v>
       </c>
       <c r="E4" t="s">
-        <v>1070</v>
+        <v>1016</v>
       </c>
       <c r="F4" t="s">
-        <v>1071</v>
+        <v>1017</v>
       </c>
       <c r="G4" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Device, Book, Chocolate /// 3-Heart Gifts: Interactive History of Chocolate Book (Crafting Table - Blank Book, Mechanism, Spark, Chocolate Coin) /// 2-Heart Gifts: Ancient Inventions Book /// 1-Heart Gifts: Chocolate deserts, themed holograms, books, music boxes</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Device, Book, Chocolate /// 3-Heart Gifts: Interactive History of Chocolate Book (Crafting Table - Blank Book, Mechanism, Spark, Chocolate Coin) /// 2-Heart Gifts: Ancient Inventions Book</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -16741,20 +16497,20 @@
         <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>1072</v>
+        <v>1018</v>
       </c>
       <c r="D5" t="s">
-        <v>1073</v>
+        <v>1019</v>
       </c>
       <c r="E5" t="s">
-        <v>1074</v>
+        <v>1020</v>
       </c>
       <c r="F5" t="s">
-        <v>1075</v>
+        <v>1021</v>
       </c>
       <c r="G5" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Cloth, Tropical, Fancy /// 3-Heart Gifts: Designer Island Doll /// 2-Heart Gifts: Tropical Material, Tropical Gift, Beignets with Pineapple Dip /// 1-Heart Gifts: Critters or fish (seaside resort), themed gifts, mermaid figure, Future of Everything book, Pineapple, spinip alfredo, or joke pizza</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Cloth, Tropical, Fancy /// 3-Heart Gifts: Designer Island Doll /// 2-Heart Gifts: Tropical Material, Tropical Gift, Beignets with Pineapple Dip</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -16762,23 +16518,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1049</v>
+        <v>995</v>
       </c>
       <c r="C6" t="s">
         <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>1076</v>
+        <v>1022</v>
       </c>
       <c r="E6" t="s">
-        <v>1077</v>
+        <v>1023</v>
       </c>
       <c r="F6" t="s">
-        <v>1078</v>
+        <v>1024</v>
       </c>
       <c r="G6" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Joke, Tropical, Pizza /// 3-Heart Gifts: Critter or fish (seaside resort), anything with coconut, any pizza, joke soda, tropical food, tropical hologram /// 2-Heart Gifts: Pineapple pizza /// 1-Heart Gifts: Ultimate Joke Pizza</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Joke, Tropical, Pizza /// 3-Heart Gifts: Critter or fish (seaside resort), anything with coconut, any pizza, joke soda, tropical food, tropical hologram /// 2-Heart Gifts: Pineapple pizza</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -16789,20 +16545,20 @@
         <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>1079</v>
+        <v>1025</v>
       </c>
       <c r="D7" t="s">
-        <v>1080</v>
+        <v>1026</v>
       </c>
       <c r="E7" t="s">
-        <v>1081</v>
+        <v>1027</v>
       </c>
       <c r="F7" t="s">
-        <v>1082</v>
+        <v>1028</v>
       </c>
       <c r="G7" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Sports, Veggie, Healthy /// 3-Heart Gifts: Pochacco's Energy Pop /// 2-Heart Gifts: Everything Pizza /// 1-Heart Gifts: Food with veggies, tofu</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Sports, Veggie, Healthy /// 3-Heart Gifts: Pochacco's Energy Pop /// 2-Heart Gifts: Everything Pizza</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -16813,20 +16569,20 @@
         <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>1083</v>
+        <v>1029</v>
       </c>
       <c r="D8" t="s">
-        <v>1084</v>
+        <v>1030</v>
       </c>
       <c r="E8" t="s">
-        <v>1085</v>
+        <v>1031</v>
       </c>
       <c r="F8" t="s">
-        <v>1086</v>
+        <v>1032</v>
       </c>
       <c r="G8" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Critters, Swampy, Wood /// 3-Heart Gifts: Critter Totem /// 2-Heart Gifts: Critters (spooky swamp), Swampy Souvenir Doll /// 1-Heart Gifts: Critters or fish (spooky swamp), swampy items, lotus blossom</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Critters, Swampy, Wood /// 3-Heart Gifts: Critter Totem /// 2-Heart Gifts: Critters (spooky swamp), Swampy Souvenir Doll</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -16837,20 +16593,20 @@
         <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>1051</v>
+        <v>997</v>
       </c>
       <c r="D9" t="s">
-        <v>1087</v>
+        <v>1033</v>
       </c>
       <c r="E9" t="s">
-        <v>1088</v>
+        <v>1034</v>
       </c>
       <c r="F9" t="s">
-        <v>1089</v>
+        <v>1035</v>
       </c>
       <c r="G9" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Spooky, Fall, Soda /// 3-Heart Gifts: Pumpkin spice soda /// 2-Heart Gifts: Jack-O-Lantern, Spicy Pumpkin Latte /// 1-Heart Gifts: pumpkin items, spooky cake, any soda</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Spooky, Fall, Soda /// 3-Heart Gifts: Pumpkin spice soda /// 2-Heart Gifts: Jack-O-Lantern, Spicy Pumpkin Latte</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -16861,20 +16617,20 @@
         <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>1090</v>
+        <v>1036</v>
       </c>
       <c r="D10" t="s">
-        <v>1091</v>
+        <v>1037</v>
       </c>
       <c r="E10" t="s">
-        <v>1093</v>
+        <v>1039</v>
       </c>
       <c r="F10" t="s">
-        <v>1092</v>
+        <v>1038</v>
       </c>
       <c r="G10" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Cozy Beverage, Chocolate, Spice /// 3-Heart Gifts: Chocolate chai /// 2-Heart Gifts: spicy pumpkin latte, chai, mocha, hot cocoa, molten frappe /// 1-Heart Gifts: anything chocolate, cinnamon bread, cinnamon roll, cappuccino, any coffee/latte</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Cozy Beverage, Chocolate, Spice /// 3-Heart Gifts: Chocolate chai /// 2-Heart Gifts: spicy pumpkin latte, chai, mocha, hot cocoa, molten frappe</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -16888,17 +16644,17 @@
         <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>1094</v>
+        <v>1040</v>
       </c>
       <c r="E11" t="s">
-        <v>1095</v>
+        <v>1041</v>
       </c>
       <c r="F11" t="s">
-        <v>1096</v>
+        <v>1042</v>
       </c>
       <c r="G11" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Music, Rocky, Relax /// 3-Heart Gifts: Mountain Soundtrack /// 2-Heart Gifts: rocky music box, stacked stones /// 1-Heart Gifts: Rocky things, any music box, any critter/fish (gemstone mountain), hot cocoa, mama's pudding, calming crystal</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Music, Rocky, Relax /// 3-Heart Gifts: Mountain Soundtrack /// 2-Heart Gifts: rocky music box, stacked stones</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -16909,20 +16665,20 @@
         <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>1097</v>
+        <v>1043</v>
       </c>
       <c r="D12" t="s">
         <v>637</v>
       </c>
       <c r="E12" t="s">
-        <v>1098</v>
+        <v>1044</v>
       </c>
       <c r="F12" t="s">
-        <v>1099</v>
+        <v>1045</v>
       </c>
       <c r="G12" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Dairy, Dessert, Relax /// 3-Heart Gifts: Mama's Pudding /// 2-Heart Gifts: Pudding, Cheese Ice Cream /// 1-Heart Gifts: any dessert, calming or stacked crystals, mountain soundtrack, coral milk, cappuccino, confusing or candied banana coffee. Alfredo, dessert, or spinip alfredo pizza. Cream soda</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Dairy, Dessert, Relax /// 3-Heart Gifts: Mama's Pudding /// 2-Heart Gifts: Pudding, Cheese Ice Cream</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -16933,20 +16689,20 @@
         <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>1100</v>
+        <v>1046</v>
       </c>
       <c r="D13" t="s">
-        <v>1101</v>
+        <v>1047</v>
       </c>
       <c r="E13" t="s">
-        <v>1102</v>
+        <v>1048</v>
       </c>
       <c r="F13" t="s">
-        <v>1103</v>
+        <v>1049</v>
       </c>
       <c r="G13" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Fire, Music, Metal /// 3-Heart Gifts: Volcano Guitar /// 2-Heart Gifts: Volcano soundtrack, sounds of steel soundtrack /// 1-Heart Gifts: any soundtrack or music box. Microphone. Espresso. Pineapple Lava or Surprising soda</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Fire, Music, Metal /// 3-Heart Gifts: Volcano Guitar /// 2-Heart Gifts: Volcano soundtrack, sounds of steel soundtrack</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -16957,20 +16713,20 @@
         <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>1104</v>
+        <v>1050</v>
       </c>
       <c r="D14" t="s">
-        <v>1105</v>
+        <v>1051</v>
       </c>
       <c r="E14" t="s">
-        <v>1106</v>
+        <v>1052</v>
       </c>
       <c r="F14" t="s">
-        <v>1107</v>
+        <v>1053</v>
       </c>
       <c r="G14" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Fish, Fabric, Aquatic /// 3-Heart Gifts: Mermaid Figure /// 2-Heart Gifts: Aquatic Material, any fish in rainbow reef /// 1-Heart Gifts: Any fish, any themed material, anything "aquatic, designer island doll, aquatic souvenir doll</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Fish, Fabric, Aquatic /// 3-Heart Gifts: Mermaid Figure /// 2-Heart Gifts: Aquatic Material, any fish in rainbow reef</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -16981,20 +16737,20 @@
         <v>214</v>
       </c>
       <c r="C15" t="s">
-        <v>1108</v>
+        <v>1054</v>
       </c>
       <c r="D15" t="s">
-        <v>1109</v>
+        <v>1055</v>
       </c>
       <c r="E15" t="s">
-        <v>1110</v>
+        <v>1056</v>
       </c>
       <c r="F15" t="s">
-        <v>1111</v>
+        <v>1057</v>
       </c>
       <c r="G15" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Digital, Fancy, Stars /// 3-Heart Gifts: Future of Everything book /// 2-Heart Gifts: Computer /// 1-Heart Gifts: any color power crystal decoration. Any themed star or gift. Designer island doll. Glitchy book. Beignets. Spinip Alfredo Pizza. Candied Banana Coffee</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Digital, Fancy, Stars /// 3-Heart Gifts: Future of Everything book /// 2-Heart Gifts: Computer</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17005,20 +16761,20 @@
         <v>215</v>
       </c>
       <c r="C16" t="s">
-        <v>1112</v>
+        <v>1058</v>
       </c>
       <c r="D16" t="s">
-        <v>1113</v>
+        <v>1059</v>
       </c>
       <c r="E16" t="s">
-        <v>1114</v>
+        <v>1060</v>
       </c>
       <c r="F16" t="s">
-        <v>1115</v>
+        <v>1061</v>
       </c>
       <c r="G16" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Volcano, Book, Resilience /// 3-Heart Gifts: Greatest Challenge book /// 2-Heart Gifts: Meditations on Resilience book /// 1-Heart Gifts: Anything volcanic. Any themed book. Any critters/fish in Mount Hothead. Volcanic music box</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Volcano, Book, Resilience /// 3-Heart Gifts: Greatest Challenge book /// 2-Heart Gifts: Meditations on Resilience book</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17026,23 +16782,23 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D17" t="s">
         <v>1063</v>
       </c>
-      <c r="C17" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1117</v>
-      </c>
       <c r="E17" t="s">
-        <v>1118</v>
+        <v>1064</v>
       </c>
       <c r="F17" t="s">
-        <v>1119</v>
+        <v>1065</v>
       </c>
       <c r="G17" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Fire, Flower, Rare /// 3-Heart Gifts: Rare candle /// 2-Heart Gifts: Flower candle /// 1-Heart Gifts: any flower, rare fish, rare critters. Toasted almond coffee. Surprising or Pineapple Lava soda. Espresso</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Fire, Flower, Rare /// 3-Heart Gifts: Rare candle /// 2-Heart Gifts: Flower candle</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -17050,23 +16806,23 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1064</v>
+        <v>1010</v>
       </c>
       <c r="C18" t="s">
-        <v>1120</v>
+        <v>1066</v>
       </c>
       <c r="D18" t="s">
-        <v>1121</v>
+        <v>1067</v>
       </c>
       <c r="E18" t="s">
-        <v>1122</v>
+        <v>1068</v>
       </c>
       <c r="F18" t="s">
-        <v>1123</v>
+        <v>1069</v>
       </c>
       <c r="G18" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Cloud, Wood, Creative /// 3-Heart Gifts: Colorful Lamb Plush /// 2-Heart Gifts: Any lamb plush. Any cloud tree /// 1-Heart Gifts: Any clouds. Any themed dolls. Basic plush, art supplies, sakura. Quattro Formaggio pizza. Pink Clouds ice cream</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Cloud, Wood, Creative /// 3-Heart Gifts: Colorful Lamb Plush /// 2-Heart Gifts: Any lamb plush. Any cloud tree</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -17074,23 +16830,23 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1065</v>
+        <v>1011</v>
       </c>
       <c r="C19" t="s">
-        <v>1124</v>
+        <v>1070</v>
       </c>
       <c r="D19" t="s">
-        <v>1125</v>
+        <v>1071</v>
       </c>
       <c r="E19" t="s">
-        <v>1126</v>
+        <v>1072</v>
       </c>
       <c r="F19" t="s">
-        <v>1127</v>
+        <v>1073</v>
       </c>
       <c r="G19" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Imagination, Mochi, Rainbow /// 3-Heart Gifts: unknown /// 2-Heart Gifts: Dango, Any mochi /// 1-Heart Gifts: Any boba, any onigiri, colorful rainbow plush, rainbow beam, colorpillar critter</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Imagination, Mochi, Rainbow /// 3-Heart Gifts: unknown /// 2-Heart Gifts: Dango, Any mochi</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -17098,23 +16854,23 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1066</v>
+        <v>1012</v>
       </c>
       <c r="C20" t="s">
-        <v>1128</v>
+        <v>1074</v>
       </c>
       <c r="D20" t="s">
-        <v>1129</v>
+        <v>1075</v>
       </c>
       <c r="E20" t="s">
-        <v>1130</v>
+        <v>1076</v>
       </c>
       <c r="F20" t="s">
-        <v>1131</v>
+        <v>1077</v>
       </c>
       <c r="G20" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Creative, Dreamy, Cheese /// 3-Heart Gifts: Quattro Formaggio pizza /// 2-Heart Gifts: Cheese cloud, art supplies, 3 cheese pizza /// 1-Heart Gifts: any cheesecake or cloud. Cheese ice cream. Moon cheese. Sweet dreams stories. Dreamy gift. Strawberry almond galette. Pink Clouds Ice Cream. Almond Pound Cake</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Creative, Dreamy, Cheese /// 3-Heart Gifts: Quattro Formaggio pizza /// 2-Heart Gifts: Cheese cloud, art supplies, 3 cheese pizza</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -17122,50 +16878,50 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1067</v>
+        <v>1013</v>
       </c>
       <c r="C21" t="s">
-        <v>1132</v>
+        <v>1078</v>
       </c>
       <c r="D21" t="s">
-        <v>1133</v>
+        <v>1079</v>
       </c>
       <c r="E21" t="s">
-        <v>1134</v>
+        <v>1080</v>
       </c>
       <c r="F21" t="s">
-        <v>1135</v>
+        <v>1081</v>
       </c>
       <c r="G21" t="str">
-        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]] &amp; " /// 1-Heart Gifts: " &amp; Table5[[#This Row],[1-Heart Gifts]]</f>
-        <v>Liked Gifts: Stars, Dreamy, Frozen /// 3-Heart Gifts: Starry Skies Shake /// 2-Heart Gifts: Art supplies, dreamy star /// 1-Heart Gifts: any stars or cloud. Molten or Sakura frappe. Sweeet dreams stories or dreamy gift. Any shake. Snowcicle. 3 Cheese pizza. Starfruit. Strawberry almond galette. Pink Clouds Ice Cream. Almond Pound Cake</v>
+        <f xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</f>
+        <v>Liked Gifts: Stars, Dreamy, Frozen /// 3-Heart Gifts: Starry Skies Shake /// 2-Heart Gifts: Art supplies, dreamy star</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:F3 A4:E4 A5:F21">
-    <cfRule type="containsText" dxfId="15" priority="9" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+    <cfRule type="containsText" dxfId="8" priority="9" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="7" priority="10" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" stopIfTrue="1" operator="containsText" text="Starfruit">
+    <cfRule type="containsText" dxfId="6" priority="11" stopIfTrue="1" operator="containsText" text="Starfruit">
       <formula>NOT(ISERROR(SEARCH("Starfruit",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" stopIfTrue="1" operator="containsText" text="SnowCicle">
+    <cfRule type="containsText" dxfId="5" priority="12" stopIfTrue="1" operator="containsText" text="SnowCicle">
       <formula>NOT(ISERROR(SEARCH("SnowCicle",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="13" stopIfTrue="1" operator="containsText" text="Bubble">
+    <cfRule type="containsText" dxfId="4" priority="13" stopIfTrue="1" operator="containsText" text="Bubble">
       <formula>NOT(ISERROR(SEARCH("Bubble",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" stopIfTrue="1" operator="containsText" text="Sakura">
+    <cfRule type="containsText" dxfId="3" priority="14" stopIfTrue="1" operator="containsText" text="Sakura">
       <formula>NOT(ISERROR(SEARCH("Sakura",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" stopIfTrue="1" operator="containsText" text="Egg">
+    <cfRule type="containsText" dxfId="2" priority="15" stopIfTrue="1" operator="containsText" text="Egg">
       <formula>NOT(ISERROR(SEARCH("Egg",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="16" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+    <cfRule type="containsText" dxfId="1" priority="16" stopIfTrue="1" operator="containsText" text="Moon Cheese">
       <formula>NOT(ISERROR(SEARCH("Moon Cheese",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17174,852 +16930,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B40732-D549-49B1-9363-C12BD5FDF3C7}">
-  <dimension ref="A2:E55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>962</v>
-      </c>
-      <c r="C2" t="s">
-        <v>909</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>966</v>
-      </c>
-      <c r="C3" t="s">
-        <v>913</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>961</v>
-      </c>
-      <c r="C4" t="s">
-        <v>908</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>963</v>
-      </c>
-      <c r="C5" t="s">
-        <v>910</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>964</v>
-      </c>
-      <c r="C6" t="s">
-        <v>911</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>965</v>
-      </c>
-      <c r="C7" t="s">
-        <v>912</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>960</v>
-      </c>
-      <c r="C8" t="s">
-        <v>815</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>973</v>
-      </c>
-      <c r="C9" t="s">
-        <v>920</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>970</v>
-      </c>
-      <c r="C10" t="s">
-        <v>917</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>967</v>
-      </c>
-      <c r="C11" t="s">
-        <v>914</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>969</v>
-      </c>
-      <c r="C12" t="s">
-        <v>916</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>971</v>
-      </c>
-      <c r="C13" t="s">
-        <v>918</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>968</v>
-      </c>
-      <c r="C14" t="s">
-        <v>915</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>972</v>
-      </c>
-      <c r="C15" t="s">
-        <v>919</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>976</v>
-      </c>
-      <c r="C16" t="s">
-        <v>923</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>975</v>
-      </c>
-      <c r="C17" t="s">
-        <v>922</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>977</v>
-      </c>
-      <c r="C18" t="s">
-        <v>845</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>978</v>
-      </c>
-      <c r="C19" t="s">
-        <v>924</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>979</v>
-      </c>
-      <c r="C20" t="s">
-        <v>925</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>974</v>
-      </c>
-      <c r="C21" t="s">
-        <v>921</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>981</v>
-      </c>
-      <c r="C22" t="s">
-        <v>927</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>984</v>
-      </c>
-      <c r="C23" t="s">
-        <v>930</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>988</v>
-      </c>
-      <c r="C24" t="s">
-        <v>934</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>986</v>
-      </c>
-      <c r="C25" t="s">
-        <v>932</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>982</v>
-      </c>
-      <c r="C26" t="s">
-        <v>928</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>987</v>
-      </c>
-      <c r="C27" t="s">
-        <v>933</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>983</v>
-      </c>
-      <c r="C28" t="s">
-        <v>929</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>980</v>
-      </c>
-      <c r="C29" t="s">
-        <v>926</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>985</v>
-      </c>
-      <c r="C30" t="s">
-        <v>931</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>989</v>
-      </c>
-      <c r="C31" t="s">
-        <v>935</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>990</v>
-      </c>
-      <c r="C32" t="s">
-        <v>936</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>992</v>
-      </c>
-      <c r="C33" t="s">
-        <v>938</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>991</v>
-      </c>
-      <c r="C34" t="s">
-        <v>937</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>993</v>
-      </c>
-      <c r="C35" t="s">
-        <v>939</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>994</v>
-      </c>
-      <c r="C36" t="s">
-        <v>940</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>995</v>
-      </c>
-      <c r="C37" t="s">
-        <v>941</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>996</v>
-      </c>
-      <c r="C38" t="s">
-        <v>942</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C39" t="s">
-        <v>946</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>998</v>
-      </c>
-      <c r="C40" t="s">
-        <v>944</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C41" t="s">
-        <v>947</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>997</v>
-      </c>
-      <c r="C42" t="s">
-        <v>943</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
-        <v>999</v>
-      </c>
-      <c r="C43" t="s">
-        <v>945</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C44" t="s">
-        <v>953</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C45" t="s">
-        <v>951</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C46" t="s">
-        <v>952</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C47" t="s">
-        <v>948</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C48" t="s">
-        <v>950</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C49" t="s">
-        <v>949</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C50" t="s">
-        <v>957</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C51" t="s">
-        <v>956</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C52" t="s">
-        <v>955</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C53" t="s">
-        <v>954</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C54" t="s">
-        <v>959</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C55" t="s">
-        <v>958</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E55">
-    <sortCondition ref="A2:A55"/>
-    <sortCondition ref="B2:B55"/>
-  </sortState>
-  <conditionalFormatting sqref="B2:E55">
-    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
-      <formula>NOT(ISERROR(SEARCH("Tea Leaves",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
-      <formula>NOT(ISERROR(SEARCH("Tapioca",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
-      <formula>NOT(ISERROR(SEARCH("Starfruit",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="SnowCicle">
-      <formula>NOT(ISERROR(SEARCH("SnowCicle",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="Bubble">
-      <formula>NOT(ISERROR(SEARCH("Bubble",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="Sakura">
-      <formula>NOT(ISERROR(SEARCH("Sakura",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Egg">
-      <formula>NOT(ISERROR(SEARCH("Egg",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7880D7DE-1BAD-425D-A6F0-7FD0701CDE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF432354-5FC1-4FD1-8F48-CBF398714B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4724,9 +4724,6 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4805,6 +4802,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -5020,7 +5020,7 @@
     <tableColumn id="8" xr3:uid="{B87D96DA-876B-4321-974C-D3CA18927D46}" name="3-Heart Gifts"/>
     <tableColumn id="9" xr3:uid="{A8FFB3A6-3D98-46C6-9DA5-7615BB78E8C5}" name="2-Heart Gifts"/>
     <tableColumn id="10" xr3:uid="{2EF34846-880B-4FE1-BEBA-4EA7E502EABA}" name="1-Heart Gifts"/>
-    <tableColumn id="12" xr3:uid="{6D0FA26C-9E5B-468D-AD99-073C14547B04}" name="Description" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{6D0FA26C-9E5B-468D-AD99-073C14547B04}" name="Description" dataDxfId="8">
       <calculatedColumnFormula xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5347,8 +5347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CJ62"/>
   <sheetViews>
-    <sheetView topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="CD2" sqref="CD2"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="CB10" sqref="CB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12478,8 +12478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E60DA8-4CCF-4656-AD01-A1646335A0A7}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13144,8 +13144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4FD85B-59D8-4D29-B4AF-8683988B5507}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14762,8 +14762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0F9F24-98FF-4930-82DA-5BF13106EE36}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16382,8 +16382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB14B9A7-32BD-458D-A5F7-E49A0C0475BC}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16899,32 +16899,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:F3 A4:E4 A5:F21">
-    <cfRule type="containsText" dxfId="8" priority="9" stopIfTrue="1" operator="containsText" text="Tea Leaves">
-      <formula>NOT(ISERROR(SEARCH("Tea Leaves",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" stopIfTrue="1" operator="containsText" text="Tapioca">
-      <formula>NOT(ISERROR(SEARCH("Tapioca",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="11" stopIfTrue="1" operator="containsText" text="Starfruit">
-      <formula>NOT(ISERROR(SEARCH("Starfruit",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="12" stopIfTrue="1" operator="containsText" text="SnowCicle">
-      <formula>NOT(ISERROR(SEARCH("SnowCicle",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="13" stopIfTrue="1" operator="containsText" text="Bubble">
-      <formula>NOT(ISERROR(SEARCH("Bubble",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="14" stopIfTrue="1" operator="containsText" text="Sakura">
-      <formula>NOT(ISERROR(SEARCH("Sakura",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="15" stopIfTrue="1" operator="containsText" text="Egg">
-      <formula>NOT(ISERROR(SEARCH("Egg",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="16" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",A2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF432354-5FC1-4FD1-8F48-CBF398714B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BABA97-284A-490A-8C37-ED79E63D70F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="2535" yWindow="1950" windowWidth="21600" windowHeight="12525" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="1534">
   <si>
     <t>General Achievements</t>
   </si>
@@ -3775,9 +3775,6 @@
     <t>01 Seaside Resort - Sunslime</t>
   </si>
   <si>
-    <t>01 Seaside Resort - Victor Island Chase</t>
-  </si>
-  <si>
     <t>02 Spooky Swamp - Bottomless Bouldering</t>
   </si>
   <si>
@@ -4640,6 +4637,12 @@
   </si>
   <si>
     <t>Liked Gifts: Stars, Dreamy, Frozen /// 3-Heart Gifts: Starry Skies Shake /// 2-Heart Gifts: Art supplies, dreamy star</t>
+  </si>
+  <si>
+    <t>01 Seaside Resort - Visitor Island Chase</t>
+  </si>
+  <si>
+    <t>Double-check the #</t>
   </si>
 </sst>
 </file>
@@ -4669,7 +4672,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4694,6 +4697,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4707,7 +4716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4718,94 +4727,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -4924,6 +4851,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4946,10 +4876,10 @@
     <tableColumn id="3" xr3:uid="{67BA542E-A92B-464D-9C55-15FD3BA24444}" name="Location"/>
     <tableColumn id="4" xr3:uid="{8144ACCD-B001-4F9D-B87C-6C497C658DFE}" name="Item/Decor Requirements"/>
     <tableColumn id="5" xr3:uid="{57F66957-D073-4581-9F70-8D34A88575FD}" name="Daily Gift"/>
-    <tableColumn id="6" xr3:uid="{537E9DCC-239F-4D35-BCE6-8CB9BFB45223}" name="Description with Line Breaks" dataDxfId="24">
+    <tableColumn id="6" xr3:uid="{537E9DCC-239F-4D35-BCE6-8CB9BFB45223}" name="Description with Line Breaks" dataDxfId="16">
       <calculatedColumnFormula xml:space="preserve"> "Schedule: " &amp; Table1[[#This Row],[Visiting Schedule]] &amp; CHAR(10) &amp; "Location: " &amp; Table1[[#This Row],[Location]] &amp; CHAR(10) &amp; "Item/Decor Requirements: " &amp; Table1[[#This Row],[Item/Decor Requirements]] &amp; CHAR(10) &amp; "Daily Gift: " &amp; Table1[[#This Row],[Daily Gift]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E50BEB41-434D-4EDF-814B-0A977903EEA3}" name="Description without Line Breaks" dataDxfId="23">
+    <tableColumn id="7" xr3:uid="{E50BEB41-434D-4EDF-814B-0A977903EEA3}" name="Description without Line Breaks" dataDxfId="15">
       <calculatedColumnFormula xml:space="preserve"> "Schedule: " &amp; Table1[[#This Row],[Visiting Schedule]] &amp; " /// Location: " &amp; Table1[[#This Row],[Location]] &amp; " /// Item Requirements: " &amp; Table1[[#This Row],[Item/Decor Requirements]] &amp; " /// Daily Gift: " &amp; Table1[[#This Row],[Daily Gift]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4968,13 +4898,13 @@
     <tableColumn id="8" xr3:uid="{7C1C2515-B9D8-45FE-9359-EA852AF05641}" name="Column1"/>
     <tableColumn id="1" xr3:uid="{380CE29E-A949-4954-B10D-CBB92EBE432A}" name="Region"/>
     <tableColumn id="2" xr3:uid="{F8A98686-C2B1-4D72-8EE6-3DFA85AFF688}" name="Fish"/>
-    <tableColumn id="6" xr3:uid="{18B2DD51-2A8F-46E2-B608-19A620E07545}" name="Name" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{18B2DD51-2A8F-46E2-B608-19A620E07545}" name="Name" dataDxfId="14">
       <calculatedColumnFormula>Tbl_Fishing[[#This Row],[Region]] &amp; " - " &amp; Tbl_Fishing[[#This Row],[Fish]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{6EE718AE-717B-450F-AB60-68A1FC341603}" name="Location"/>
     <tableColumn id="4" xr3:uid="{F9636F26-A4D9-495A-B262-03386101172F}" name="Time"/>
     <tableColumn id="5" xr3:uid="{72995A89-7D21-4A08-BD4C-048FF0E81A79}" name="Rarity"/>
-    <tableColumn id="7" xr3:uid="{3AD6DEA4-0FD9-49BB-A6C1-7138C775149E}" name="Description" dataDxfId="21">
+    <tableColumn id="7" xr3:uid="{3AD6DEA4-0FD9-49BB-A6C1-7138C775149E}" name="Description" dataDxfId="13">
       <calculatedColumnFormula>"RARITY: " &amp; Tbl_Fishing[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Tbl_Fishing[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Tbl_Fishing[[#This Row],[Location]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4993,13 +4923,13 @@
     <tableColumn id="6" xr3:uid="{04674BA7-561C-43B4-AA53-702B0A90F402}" name="Region Order"/>
     <tableColumn id="1" xr3:uid="{91CAD11C-382E-4DF9-A2FD-BE370A57103A}" name="Region"/>
     <tableColumn id="2" xr3:uid="{24D43D77-F696-4AC9-9938-3DFE01D62DB9}" name="Critter"/>
-    <tableColumn id="7" xr3:uid="{F9762BCC-B476-49DF-A0F9-ACAB1857886B}" name="Name" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{F9762BCC-B476-49DF-A0F9-ACAB1857886B}" name="Name" dataDxfId="12">
       <calculatedColumnFormula>Table3[[#This Row],[Region]] &amp; " - " &amp; Table3[[#This Row],[Critter]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{1D57E4B8-C021-4B34-9B8B-8DAA071BC910}" name="Location"/>
     <tableColumn id="4" xr3:uid="{527DF911-157E-429B-B380-A788D97C284C}" name="Time"/>
     <tableColumn id="5" xr3:uid="{C5047F6F-39E5-4CEC-B7D7-BF773933D03C}" name="Rarity"/>
-    <tableColumn id="8" xr3:uid="{2B8887D0-9C0D-46DC-9D18-9F7354F8A351}" name="Description" dataDxfId="19">
+    <tableColumn id="8" xr3:uid="{2B8887D0-9C0D-46DC-9D18-9F7354F8A351}" name="Description" dataDxfId="11">
       <calculatedColumnFormula>"RARITY: " &amp; Table3[[#This Row],[Rarity]] &amp; " /// TIME: " &amp; Table3[[#This Row],[Time]] &amp; " /// LOCATION: " &amp; Table3[[#This Row],[Location]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5020,7 +4950,7 @@
     <tableColumn id="8" xr3:uid="{B87D96DA-876B-4321-974C-D3CA18927D46}" name="3-Heart Gifts"/>
     <tableColumn id="9" xr3:uid="{A8FFB3A6-3D98-46C6-9DA5-7615BB78E8C5}" name="2-Heart Gifts"/>
     <tableColumn id="10" xr3:uid="{2EF34846-880B-4FE1-BEBA-4EA7E502EABA}" name="1-Heart Gifts"/>
-    <tableColumn id="12" xr3:uid="{6D0FA26C-9E5B-468D-AD99-073C14547B04}" name="Description" dataDxfId="8">
+    <tableColumn id="12" xr3:uid="{6D0FA26C-9E5B-468D-AD99-073C14547B04}" name="Description" dataDxfId="10">
       <calculatedColumnFormula xml:space="preserve"> "Liked Gifts: " &amp; Table5[[#This Row],[Liked Gifts]] &amp; " /// 3-Heart Gifts: " &amp; Table5[[#This Row],[3-Heart Gifts]] &amp; " /// 2-Heart Gifts: " &amp; Table5[[#This Row],[2-Heart Gifts]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5347,8 +5277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="CB10" sqref="CB10"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="BV3" sqref="BV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5842,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="BR2" s="2" t="s">
         <v>1103</v>
@@ -5853,16 +5783,16 @@
       <c r="BT2">
         <v>1</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BU2" s="6" t="s">
         <v>1222</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BV2" s="6" t="s">
         <v>909</v>
       </c>
       <c r="BW2">
         <v>3</v>
       </c>
-      <c r="BX2" s="3">
+      <c r="BX2" s="4">
         <v>1</v>
       </c>
       <c r="BY2" t="s">
@@ -5878,7 +5808,7 @@
         <v>204</v>
       </c>
       <c r="CD2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="CE2">
         <v>1</v>
@@ -6071,19 +6001,22 @@
       <c r="BO3">
         <v>1</v>
       </c>
-      <c r="BQ3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="BR3" t="s">
+      <c r="BQ3" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="BR3" s="2" t="s">
         <v>1110</v>
       </c>
       <c r="BS3">
         <v>1</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="6" t="s">
         <v>1226</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BV3" s="6" t="s">
         <v>913</v>
       </c>
       <c r="BW3">
@@ -6105,7 +6038,7 @@
         <v>211</v>
       </c>
       <c r="CD3" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="CE3">
         <v>1</v>
@@ -6296,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="BQ4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="BR4" t="s">
         <v>1116</v>
@@ -6304,10 +6237,10 @@
       <c r="BS4">
         <v>1</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BU4" s="6" t="s">
         <v>1230</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BV4" s="6" t="s">
         <v>908</v>
       </c>
       <c r="BW4">
@@ -6329,7 +6262,7 @@
         <v>202</v>
       </c>
       <c r="CD4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="CE4">
         <v>1</v>
@@ -6360,7 +6293,7 @@
       <c r="E5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="G5">
@@ -6382,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>181</v>
@@ -6394,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>179</v>
@@ -6451,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AO5" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="AP5" t="s">
         <v>158</v>
@@ -6496,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="BI5" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="BJ5" t="s">
         <v>1154</v>
@@ -6514,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="BR5" t="s">
         <v>1121</v>
@@ -6522,16 +6455,16 @@
       <c r="BS5">
         <v>1</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="BU5" s="6" t="s">
         <v>1234</v>
       </c>
-      <c r="BV5" t="s">
+      <c r="BV5" s="6" t="s">
         <v>910</v>
       </c>
       <c r="BW5">
         <v>3</v>
       </c>
-      <c r="BX5" s="3">
+      <c r="BX5" s="4">
         <v>1</v>
       </c>
       <c r="BY5" t="s">
@@ -6547,7 +6480,7 @@
         <v>213</v>
       </c>
       <c r="CD5" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="CE5">
         <v>1</v>
@@ -6591,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>174</v>
@@ -6603,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>175</v>
@@ -6615,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>178</v>
@@ -6675,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="AO6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AP6" t="s">
         <v>159</v>
@@ -6723,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="BI6" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="BJ6" t="s">
         <v>1157</v>
@@ -6734,7 +6667,7 @@
       <c r="BM6" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="BN6" s="2" t="s">
         <v>990</v>
       </c>
       <c r="BO6">
@@ -6744,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="BR6" t="s">
         <v>1129</v>
@@ -6752,17 +6685,17 @@
       <c r="BS6">
         <v>1</v>
       </c>
-      <c r="BU6" t="s">
+      <c r="BU6" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="BV6" t="s">
+      <c r="BV6" s="2" t="s">
         <v>911</v>
       </c>
       <c r="BW6">
         <v>3</v>
       </c>
-      <c r="BX6" s="3">
-        <v>1</v>
+      <c r="BX6">
+        <v>3</v>
       </c>
       <c r="BY6" t="s">
         <v>615</v>
@@ -6777,7 +6710,7 @@
         <v>995</v>
       </c>
       <c r="CD6" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="CE6">
         <v>1</v>
@@ -6808,7 +6741,7 @@
       <c r="E7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G7">
@@ -6818,7 +6751,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>175</v>
@@ -6830,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>369</v>
@@ -6842,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>180</v>
@@ -6899,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="AO7" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AP7" t="s">
         <v>402</v>
@@ -6944,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="BI7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="BJ7" t="s">
         <v>1158</v>
@@ -6953,9 +6886,9 @@
         <v>1</v>
       </c>
       <c r="BM7" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="BN7" t="s">
+        <v>1244</v>
+      </c>
+      <c r="BN7" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="BO7">
@@ -6965,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="BR7" t="s">
         <v>1130</v>
@@ -6973,17 +6906,17 @@
       <c r="BS7">
         <v>1</v>
       </c>
-      <c r="BU7" t="s">
+      <c r="BU7" s="6" t="s">
         <v>1241</v>
       </c>
-      <c r="BV7" t="s">
+      <c r="BV7" s="6" t="s">
         <v>912</v>
       </c>
       <c r="BW7">
         <v>3</v>
       </c>
       <c r="BX7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY7" t="s">
         <v>618</v>
@@ -6998,7 +6931,7 @@
         <v>209</v>
       </c>
       <c r="CD7" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="CE7">
         <v>1</v>
@@ -7039,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>176</v>
@@ -7051,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>370</v>
@@ -7084,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="Z8" t="s">
         <v>304</v>
@@ -7093,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="AC8" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AD8" t="s">
         <v>418</v>
@@ -7120,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="AO8" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="AP8" t="s">
         <v>164</v>
@@ -7165,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="BI8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="BJ8" t="s">
         <v>1159</v>
@@ -7173,17 +7106,20 @@
       <c r="BK8">
         <v>1</v>
       </c>
-      <c r="BM8" t="s">
-        <v>1246</v>
-      </c>
-      <c r="BN8" t="s">
+      <c r="BM8" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="BN8" s="2" t="s">
         <v>990</v>
       </c>
       <c r="BO8">
         <v>1</v>
       </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
       <c r="BQ8" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="BR8" t="s">
         <v>1131</v>
@@ -7191,17 +7127,17 @@
       <c r="BS8">
         <v>1</v>
       </c>
-      <c r="BU8" t="s">
-        <v>1244</v>
-      </c>
-      <c r="BV8" t="s">
+      <c r="BU8" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="BV8" s="6" t="s">
         <v>815</v>
       </c>
       <c r="BW8">
         <v>3</v>
       </c>
-      <c r="BX8" s="3">
-        <v>1</v>
+      <c r="BX8">
+        <v>2</v>
       </c>
       <c r="BY8" t="s">
         <v>621</v>
@@ -7216,7 +7152,7 @@
         <v>205</v>
       </c>
       <c r="CD8" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="CE8">
         <v>1</v>
@@ -7275,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>158</v>
@@ -7296,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="Z9" t="s">
         <v>305</v>
@@ -7305,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="AC9" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AD9" t="s">
         <v>419</v>
@@ -7332,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="AO9" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AP9" t="s">
         <v>162</v>
@@ -7368,7 +7304,7 @@
         <v>1</v>
       </c>
       <c r="BI9" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="BJ9" t="s">
         <v>1160</v>
@@ -7377,9 +7313,9 @@
         <v>1</v>
       </c>
       <c r="BM9" s="2" t="s">
-        <v>1248</v>
-      </c>
-      <c r="BN9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="BN9" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="BO9">
@@ -7389,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="BR9" t="s">
         <v>1132</v>
@@ -7397,17 +7333,17 @@
       <c r="BS9">
         <v>1</v>
       </c>
-      <c r="BU9" t="s">
-        <v>1250</v>
-      </c>
-      <c r="BV9" t="s">
+      <c r="BU9" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="BV9" s="6" t="s">
         <v>920</v>
       </c>
       <c r="BW9">
         <v>3</v>
       </c>
       <c r="BX9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY9" t="s">
         <v>624</v>
@@ -7422,7 +7358,7 @@
         <v>206</v>
       </c>
       <c r="CD9" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="CE9">
         <v>1</v>
@@ -7453,7 +7389,7 @@
       <c r="E10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G10">
@@ -7484,7 +7420,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>159</v>
@@ -7496,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>176</v>
@@ -7517,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="AC10" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AD10" t="s">
         <v>420</v>
@@ -7544,7 +7480,7 @@
         <v>1</v>
       </c>
       <c r="AO10" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AP10" t="s">
         <v>175</v>
@@ -7580,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="BI10" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="BJ10" t="s">
         <v>1161</v>
@@ -7589,9 +7525,9 @@
         <v>1</v>
       </c>
       <c r="BM10" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="BN10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="BN10" s="2" t="s">
         <v>990</v>
       </c>
       <c r="BO10">
@@ -7601,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="BR10" t="s">
         <v>1133</v>
@@ -7609,17 +7545,17 @@
       <c r="BS10">
         <v>1</v>
       </c>
-      <c r="BU10" t="s">
-        <v>1254</v>
-      </c>
-      <c r="BV10" t="s">
+      <c r="BU10" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="BV10" s="2" t="s">
         <v>917</v>
       </c>
       <c r="BW10">
         <v>3</v>
       </c>
       <c r="BX10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY10" t="s">
         <v>627</v>
@@ -7634,7 +7570,7 @@
         <v>216</v>
       </c>
       <c r="CD10" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="CE10">
         <v>1</v>
@@ -7653,7 +7589,7 @@
       <c r="E11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G11">
@@ -7687,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>164</v>
@@ -7699,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>175</v>
@@ -7723,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="AD11" t="s">
         <v>421</v>
@@ -7750,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AP11" t="s">
         <v>176</v>
@@ -7786,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="BI11" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="BJ11" t="s">
         <v>1162</v>
@@ -7795,9 +7731,9 @@
         <v>1</v>
       </c>
       <c r="BM11" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="BN11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="BN11" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="BO11">
@@ -7807,7 +7743,7 @@
         <v>1</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="BR11" t="s">
         <v>1137</v>
@@ -7815,16 +7751,16 @@
       <c r="BS11">
         <v>1</v>
       </c>
-      <c r="BU11" t="s">
-        <v>1258</v>
-      </c>
-      <c r="BV11" t="s">
+      <c r="BU11" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="BV11" s="6" t="s">
         <v>914</v>
       </c>
       <c r="BW11">
         <v>3</v>
       </c>
-      <c r="BX11" s="3">
+      <c r="BX11" s="4">
         <v>1</v>
       </c>
       <c r="BY11" t="s">
@@ -7840,7 +7776,7 @@
         <v>207</v>
       </c>
       <c r="CD11" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="CE11">
         <v>1</v>
@@ -7856,13 +7792,16 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -7887,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="R12" t="s">
         <v>402</v>
@@ -7914,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AD12" t="s">
         <v>422</v>
@@ -7941,7 +7880,7 @@
         <v>1</v>
       </c>
       <c r="AO12" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AP12" t="s">
         <v>180</v>
@@ -7977,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="BI12" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="BJ12" t="s">
         <v>1164</v>
@@ -7986,9 +7925,9 @@
         <v>1</v>
       </c>
       <c r="BM12" s="2" t="s">
-        <v>1260</v>
-      </c>
-      <c r="BN12" t="s">
+        <v>1259</v>
+      </c>
+      <c r="BN12" s="2" t="s">
         <v>990</v>
       </c>
       <c r="BO12">
@@ -7998,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="BQ12" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="BR12" t="s">
         <v>1138</v>
@@ -8006,10 +7945,10 @@
       <c r="BS12">
         <v>1</v>
       </c>
-      <c r="BU12" t="s">
-        <v>1262</v>
-      </c>
-      <c r="BV12" t="s">
+      <c r="BU12" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="BV12" s="6" t="s">
         <v>916</v>
       </c>
       <c r="BW12">
@@ -8031,7 +7970,7 @@
         <v>210</v>
       </c>
       <c r="CD12" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="CE12">
         <v>1</v>
@@ -8047,13 +7986,16 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
@@ -8138,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AO13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AP13" t="s">
         <v>178</v>
@@ -8174,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="BI13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="BJ13" t="s">
         <v>1166</v>
@@ -8182,17 +8124,20 @@
       <c r="BK13">
         <v>1</v>
       </c>
-      <c r="BM13" t="s">
-        <v>1303</v>
-      </c>
-      <c r="BN13" t="s">
+      <c r="BM13" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="BN13" s="2" t="s">
         <v>991</v>
       </c>
       <c r="BO13">
         <v>1</v>
       </c>
+      <c r="BP13">
+        <v>1</v>
+      </c>
       <c r="BQ13" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="BR13" t="s">
         <v>1134</v>
@@ -8200,16 +8145,16 @@
       <c r="BS13">
         <v>1</v>
       </c>
-      <c r="BU13" t="s">
-        <v>1265</v>
-      </c>
-      <c r="BV13" t="s">
+      <c r="BU13" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="BV13" s="6" t="s">
         <v>918</v>
       </c>
       <c r="BW13">
         <v>3</v>
       </c>
-      <c r="BX13" s="3">
+      <c r="BX13" s="4">
         <v>1</v>
       </c>
       <c r="BY13" t="s">
@@ -8225,7 +8170,7 @@
         <v>212</v>
       </c>
       <c r="CD13" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="CE13">
         <v>1</v>
@@ -8244,7 +8189,7 @@
       <c r="E14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G14">
@@ -8371,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="BI14" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="BJ14" t="s">
         <v>1167</v>
@@ -8380,9 +8325,9 @@
         <v>1</v>
       </c>
       <c r="BM14" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="BN14" t="s">
+        <v>1303</v>
+      </c>
+      <c r="BN14" s="2" t="s">
         <v>992</v>
       </c>
       <c r="BO14">
@@ -8392,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="BR14" t="s">
         <v>1135</v>
@@ -8400,17 +8345,17 @@
       <c r="BS14">
         <v>1</v>
       </c>
-      <c r="BU14" t="s">
-        <v>1268</v>
-      </c>
-      <c r="BV14" t="s">
+      <c r="BU14" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="BV14" s="2" t="s">
         <v>915</v>
       </c>
       <c r="BW14">
         <v>3</v>
       </c>
-      <c r="BX14" s="3">
-        <v>2</v>
+      <c r="BX14">
+        <v>3</v>
       </c>
       <c r="BY14" t="s">
         <v>641</v>
@@ -8425,7 +8370,7 @@
         <v>203</v>
       </c>
       <c r="CD14" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="CE14">
         <v>1</v>
@@ -8444,7 +8389,7 @@
       <c r="E15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G15">
@@ -8475,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>175</v>
@@ -8487,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="V15" t="s">
         <v>218</v>
@@ -8571,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="BI15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="BJ15" t="s">
         <v>1168</v>
@@ -8579,17 +8524,20 @@
       <c r="BK15">
         <v>1</v>
       </c>
-      <c r="BM15" t="s">
-        <v>1305</v>
-      </c>
-      <c r="BN15" t="s">
+      <c r="BM15" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="BN15" s="2" t="s">
         <v>992</v>
       </c>
       <c r="BO15">
         <v>1</v>
       </c>
+      <c r="BP15">
+        <v>1</v>
+      </c>
       <c r="BQ15" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="BR15" t="s">
         <v>1136</v>
@@ -8597,10 +8545,10 @@
       <c r="BS15">
         <v>1</v>
       </c>
-      <c r="BU15" t="s">
-        <v>1270</v>
-      </c>
-      <c r="BV15" t="s">
+      <c r="BU15" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="BV15" s="6" t="s">
         <v>919</v>
       </c>
       <c r="BW15">
@@ -8622,7 +8570,7 @@
         <v>214</v>
       </c>
       <c r="CD15" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="CE15">
         <v>1</v>
@@ -8651,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>173</v>
@@ -8675,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>176</v>
@@ -8687,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="V16" t="s">
         <v>219</v>
@@ -8705,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AD16" t="s">
         <v>424</v>
@@ -8759,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="BI16" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="BJ16" t="s">
         <v>1169</v>
@@ -8767,17 +8715,20 @@
       <c r="BK16">
         <v>1</v>
       </c>
-      <c r="BM16" t="s">
-        <v>1306</v>
-      </c>
-      <c r="BN16" t="s">
+      <c r="BM16" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="BN16" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="BO16">
         <v>1</v>
       </c>
+      <c r="BP16">
+        <v>1</v>
+      </c>
       <c r="BQ16" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="BR16" t="s">
         <v>1139</v>
@@ -8786,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="BU16" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="BV16" s="2" t="s">
         <v>923</v>
@@ -8810,7 +8761,7 @@
         <v>215</v>
       </c>
       <c r="CD16" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="CE16">
         <v>1</v>
@@ -8836,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>177</v>
@@ -8866,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="V17" t="s">
         <v>220</v>
@@ -8887,7 +8838,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AD17" t="s">
         <v>425</v>
@@ -8941,7 +8892,7 @@
         <v>1</v>
       </c>
       <c r="BI17" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="BJ17" t="s">
         <v>1170</v>
@@ -8950,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="BM17" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="BN17" t="s">
         <v>993</v>
@@ -8959,7 +8910,7 @@
         <v>1</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="BR17" t="s">
         <v>987</v>
@@ -8968,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="BU17" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="BV17" s="2" t="s">
         <v>922</v>
@@ -8992,7 +8943,7 @@
         <v>1009</v>
       </c>
       <c r="CD17" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="CE17">
         <v>1</v>
@@ -9021,7 +8972,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>179</v>
@@ -9054,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="V18" t="s">
         <v>221</v>
@@ -9072,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="AD18" t="s">
         <v>426</v>
@@ -9126,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="BI18" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="BJ18" t="s">
         <v>1171</v>
@@ -9134,17 +9085,20 @@
       <c r="BK18">
         <v>1</v>
       </c>
-      <c r="BM18" t="s">
-        <v>1308</v>
-      </c>
-      <c r="BN18" t="s">
+      <c r="BM18" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="BN18" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="BO18">
         <v>1</v>
       </c>
+      <c r="BP18">
+        <v>1</v>
+      </c>
       <c r="BQ18" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="BR18" t="s">
         <v>1139</v>
@@ -9153,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="BU18" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="BV18" s="2" t="s">
         <v>845</v>
@@ -9177,7 +9131,7 @@
         <v>1010</v>
       </c>
       <c r="CD18" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="CE18">
         <v>1</v>
@@ -9203,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>178</v>
@@ -9236,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="V19" t="s">
         <v>222</v>
@@ -9254,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AD19" t="s">
         <v>427</v>
@@ -9299,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="BI19" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="BJ19" t="s">
         <v>1172</v>
@@ -9307,17 +9261,20 @@
       <c r="BK19">
         <v>1</v>
       </c>
-      <c r="BM19" t="s">
-        <v>1309</v>
-      </c>
-      <c r="BN19" t="s">
+      <c r="BM19" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="BN19" s="2" t="s">
         <v>992</v>
       </c>
       <c r="BO19">
         <v>1</v>
       </c>
+      <c r="BP19">
+        <v>1</v>
+      </c>
       <c r="BQ19" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="BR19" t="s">
         <v>987</v>
@@ -9326,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="BU19" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="BV19" s="2" t="s">
         <v>924</v>
@@ -9350,7 +9307,7 @@
         <v>1011</v>
       </c>
       <c r="CD19" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="CE19">
         <v>1</v>
@@ -9376,7 +9333,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>180</v>
@@ -9412,7 +9369,7 @@
         <v>1</v>
       </c>
       <c r="U20" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="V20" t="s">
         <v>233</v>
@@ -9430,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AD20" t="s">
         <v>428</v>
@@ -9475,7 +9432,7 @@
         <v>1</v>
       </c>
       <c r="BI20" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="BJ20" t="s">
         <v>1173</v>
@@ -9483,17 +9440,20 @@
       <c r="BK20">
         <v>1</v>
       </c>
-      <c r="BM20" t="s">
-        <v>1310</v>
-      </c>
-      <c r="BN20" t="s">
+      <c r="BM20" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="BN20" s="2" t="s">
         <v>992</v>
       </c>
       <c r="BO20">
         <v>1</v>
       </c>
+      <c r="BP20">
+        <v>1</v>
+      </c>
       <c r="BQ20" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="BR20" t="s">
         <v>1140</v>
@@ -9502,7 +9462,7 @@
         <v>1</v>
       </c>
       <c r="BU20" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="BV20" s="2" t="s">
         <v>925</v>
@@ -9526,7 +9486,7 @@
         <v>1012</v>
       </c>
       <c r="CD20" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="CE20">
         <v>1</v>
@@ -9548,7 +9508,7 @@
       <c r="E21" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>1217</v>
       </c>
       <c r="G21">
@@ -9558,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>165</v>
@@ -9588,7 +9548,7 @@
         <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="V21" t="s">
         <v>234</v>
@@ -9609,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="AD21" t="s">
         <v>429</v>
@@ -9645,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="BI21" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="BJ21" t="s">
         <v>1175</v>
@@ -9654,9 +9614,9 @@
         <v>1</v>
       </c>
       <c r="BM21" s="2" t="s">
-        <v>1288</v>
-      </c>
-      <c r="BN21" t="s">
+        <v>1287</v>
+      </c>
+      <c r="BN21" s="2" t="s">
         <v>991</v>
       </c>
       <c r="BO21">
@@ -9666,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="BQ21" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="BR21" t="s">
         <v>1141</v>
@@ -9675,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="BU21" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="BV21" s="2" t="s">
         <v>921</v>
@@ -9699,7 +9659,7 @@
         <v>1013</v>
       </c>
       <c r="CD21" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="CE21">
         <v>1</v>
@@ -9737,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>179</v>
@@ -9749,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>173</v>
@@ -9761,7 +9721,7 @@
         <v>1</v>
       </c>
       <c r="U22" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="V22" t="s">
         <v>235</v>
@@ -9782,7 +9742,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="AD22" t="s">
         <v>430</v>
@@ -9818,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="BI22" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="BJ22" t="s">
         <v>1176</v>
@@ -9827,7 +9787,7 @@
         <v>1</v>
       </c>
       <c r="BM22" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="BN22" t="s">
         <v>992</v>
@@ -9836,7 +9796,7 @@
         <v>1</v>
       </c>
       <c r="BQ22" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="BR22" t="s">
         <v>988</v>
@@ -9844,10 +9804,10 @@
       <c r="BS22">
         <v>1</v>
       </c>
-      <c r="BU22" t="s">
-        <v>1311</v>
-      </c>
-      <c r="BV22" t="s">
+      <c r="BU22" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="BV22" s="6" t="s">
         <v>927</v>
       </c>
       <c r="BW22">
@@ -9886,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>178</v>
@@ -9898,7 +9858,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>177</v>
@@ -9910,7 +9870,7 @@
         <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="V23" t="s">
         <v>236</v>
@@ -9930,16 +9890,18 @@
       <c r="AB23">
         <v>1</v>
       </c>
-      <c r="AC23" t="s">
-        <v>1502</v>
-      </c>
-      <c r="AD23" t="s">
+      <c r="AC23" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AD23" s="2" t="s">
         <v>177</v>
       </c>
       <c r="AE23">
         <v>1</v>
       </c>
-      <c r="AF23" s="2"/>
+      <c r="AF23">
+        <v>1</v>
+      </c>
       <c r="AS23" t="s">
         <v>553</v>
       </c>
@@ -9950,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="BI23" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="BJ23" t="s">
         <v>1177</v>
@@ -9959,9 +9921,9 @@
         <v>1</v>
       </c>
       <c r="BM23" s="2" t="s">
-        <v>1295</v>
-      </c>
-      <c r="BN23" t="s">
+        <v>1294</v>
+      </c>
+      <c r="BN23" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="BO23">
@@ -9971,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="BQ23" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="BR23" t="s">
         <v>1142</v>
@@ -9979,10 +9941,10 @@
       <c r="BS23">
         <v>1</v>
       </c>
-      <c r="BU23" t="s">
-        <v>1312</v>
-      </c>
-      <c r="BV23" t="s">
+      <c r="BU23" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="BV23" s="6" t="s">
         <v>930</v>
       </c>
       <c r="BW23">
@@ -10024,7 +9986,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>180</v>
@@ -10036,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="R24" t="s">
         <v>387</v>
@@ -10065,18 +10027,20 @@
       <c r="AA24">
         <v>1</v>
       </c>
-      <c r="AC24" t="s">
-        <v>1503</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="AC24" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AD24" s="2" t="s">
         <v>173</v>
       </c>
       <c r="AE24">
         <v>1</v>
       </c>
-      <c r="AF24" s="2"/>
+      <c r="AF24">
+        <v>1</v>
+      </c>
       <c r="BI24" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="BJ24" t="s">
         <v>1180</v>
@@ -10085,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="BM24" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="BN24" t="s">
         <v>993</v>
@@ -10094,7 +10058,7 @@
         <v>1</v>
       </c>
       <c r="BQ24" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="BR24" t="s">
         <v>989</v>
@@ -10102,16 +10066,16 @@
       <c r="BS24">
         <v>1</v>
       </c>
-      <c r="BU24" t="s">
-        <v>1314</v>
-      </c>
-      <c r="BV24" t="s">
+      <c r="BU24" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="BV24" s="6" t="s">
         <v>934</v>
       </c>
       <c r="BW24">
         <v>3</v>
       </c>
-      <c r="BX24" s="3">
+      <c r="BX24" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10128,7 +10092,7 @@
       <c r="E25" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G25">
@@ -10150,7 +10114,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R25" t="s">
         <v>388</v>
@@ -10189,7 +10153,7 @@
         <v>1</v>
       </c>
       <c r="BI25" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="BJ25" t="s">
         <v>1181</v>
@@ -10198,9 +10162,9 @@
         <v>1</v>
       </c>
       <c r="BM25" s="2" t="s">
-        <v>1300</v>
-      </c>
-      <c r="BN25" t="s">
+        <v>1299</v>
+      </c>
+      <c r="BN25" s="2" t="s">
         <v>990</v>
       </c>
       <c r="BO25">
@@ -10210,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="BQ25" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="BR25" t="s">
         <v>1143</v>
@@ -10218,16 +10182,16 @@
       <c r="BS25">
         <v>1</v>
       </c>
-      <c r="BU25" t="s">
-        <v>1316</v>
-      </c>
-      <c r="BV25" t="s">
+      <c r="BU25" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="BV25" s="6" t="s">
         <v>932</v>
       </c>
       <c r="BW25">
         <v>3</v>
       </c>
-      <c r="BX25" s="3">
+      <c r="BX25" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10260,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="R26" t="s">
         <v>390</v>
@@ -10290,7 +10254,7 @@
         <v>1</v>
       </c>
       <c r="BI26" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="BJ26" t="s">
         <v>1186</v>
@@ -10299,7 +10263,7 @@
         <v>1</v>
       </c>
       <c r="BM26" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="BN26" t="s">
         <v>1218</v>
@@ -10308,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="BQ26" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="BR26" t="s">
         <v>985</v>
@@ -10316,16 +10280,16 @@
       <c r="BS26">
         <v>1</v>
       </c>
-      <c r="BU26" t="s">
-        <v>1318</v>
-      </c>
-      <c r="BV26" t="s">
+      <c r="BU26" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="BV26" s="6" t="s">
         <v>928</v>
       </c>
       <c r="BW26">
         <v>3</v>
       </c>
-      <c r="BX26" s="3">
+      <c r="BX26" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10379,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="BI27" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="BJ27" t="s">
         <v>1187</v>
@@ -10388,7 +10352,7 @@
         <v>1</v>
       </c>
       <c r="BM27" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="BN27" t="s">
         <v>1218</v>
@@ -10408,16 +10372,16 @@
       <c r="BT27">
         <v>1</v>
       </c>
-      <c r="BU27" t="s">
-        <v>1320</v>
-      </c>
-      <c r="BV27" t="s">
+      <c r="BU27" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="BV27" s="6" t="s">
         <v>933</v>
       </c>
       <c r="BW27">
         <v>3</v>
       </c>
-      <c r="BX27" s="3">
+      <c r="BX27" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10468,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="BI28" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="BJ28" t="s">
         <v>1188</v>
@@ -10477,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="BM28" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="BN28" t="s">
         <v>1218</v>
@@ -10497,17 +10461,17 @@
       <c r="BT28">
         <v>1</v>
       </c>
-      <c r="BU28" t="s">
-        <v>1323</v>
-      </c>
-      <c r="BV28" t="s">
+      <c r="BU28" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="BV28" s="6" t="s">
         <v>929</v>
       </c>
       <c r="BW28">
         <v>3</v>
       </c>
       <c r="BX28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.25">
@@ -10551,7 +10515,7 @@
         <v>1</v>
       </c>
       <c r="BI29" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="BJ29" t="s">
         <v>1189</v>
@@ -10560,7 +10524,7 @@
         <v>1</v>
       </c>
       <c r="BM29" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="BN29" t="s">
         <v>1218</v>
@@ -10580,17 +10544,17 @@
       <c r="BT29">
         <v>1</v>
       </c>
-      <c r="BU29" t="s">
-        <v>1326</v>
-      </c>
-      <c r="BV29" t="s">
+      <c r="BU29" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="BV29" s="6" t="s">
         <v>926</v>
       </c>
       <c r="BW29">
         <v>3</v>
       </c>
       <c r="BX29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.25">
@@ -10622,7 +10586,7 @@
         <v>1</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="Z30" s="2" t="s">
         <v>178</v>
@@ -10634,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="BI30" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="BJ30" t="s">
         <v>1190</v>
@@ -10643,7 +10607,7 @@
         <v>1</v>
       </c>
       <c r="BM30" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="BN30" t="s">
         <v>1218</v>
@@ -10663,17 +10627,17 @@
       <c r="BT30">
         <v>1</v>
       </c>
-      <c r="BU30" t="s">
-        <v>1329</v>
-      </c>
-      <c r="BV30" t="s">
+      <c r="BU30" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="BV30" s="6" t="s">
         <v>931</v>
       </c>
       <c r="BW30">
         <v>3</v>
       </c>
-      <c r="BX30" s="3">
-        <v>1</v>
+      <c r="BX30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.25">
@@ -10705,7 +10669,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="Z31" s="2" t="s">
         <v>254</v>
@@ -10717,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="BI31" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="BJ31" t="s">
         <v>1191</v>
@@ -10726,9 +10690,9 @@
         <v>1</v>
       </c>
       <c r="BM31" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="BN31" t="s">
+        <v>1357</v>
+      </c>
+      <c r="BN31" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="BO31">
@@ -10749,16 +10713,16 @@
       <c r="BT31">
         <v>1</v>
       </c>
-      <c r="BU31" t="s">
-        <v>1332</v>
-      </c>
-      <c r="BV31" t="s">
+      <c r="BU31" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="BV31" s="6" t="s">
         <v>935</v>
       </c>
       <c r="BW31">
         <v>3</v>
       </c>
-      <c r="BX31" s="3">
+      <c r="BX31" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10791,7 +10755,7 @@
         <v>1</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>179</v>
@@ -10803,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="BI32" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="BJ32" t="s">
         <v>1192</v>
@@ -10812,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="BM32" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="BN32" t="s">
         <v>1218</v>
@@ -10833,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="BU32" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="BV32" t="s">
         <v>936</v>
@@ -10883,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="BI33" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="BJ33" t="s">
         <v>1182</v>
@@ -10892,7 +10856,7 @@
         <v>1</v>
       </c>
       <c r="BM33" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="BN33" t="s">
         <v>992</v>
@@ -10912,10 +10876,10 @@
       <c r="BT33">
         <v>1</v>
       </c>
-      <c r="BU33" t="s">
-        <v>1338</v>
-      </c>
-      <c r="BV33" t="s">
+      <c r="BU33" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="BV33" s="6" t="s">
         <v>938</v>
       </c>
       <c r="BW33">
@@ -10939,7 +10903,7 @@
         <v>1</v>
       </c>
       <c r="U34" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="V34" t="s">
         <v>241</v>
@@ -10957,7 +10921,7 @@
         <v>1</v>
       </c>
       <c r="BI34" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="BJ34" t="s">
         <v>1183</v>
@@ -10966,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="BM34" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="BN34" t="s">
         <v>1218</v>
@@ -10975,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="BQ34" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="BR34" s="2" t="s">
         <v>1098</v>
@@ -10986,16 +10950,16 @@
       <c r="BT34">
         <v>1</v>
       </c>
-      <c r="BU34" t="s">
-        <v>1341</v>
-      </c>
-      <c r="BV34" t="s">
+      <c r="BU34" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="BV34" s="6" t="s">
         <v>937</v>
       </c>
       <c r="BW34">
         <v>3</v>
       </c>
-      <c r="BX34" s="3">
+      <c r="BX34" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11013,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="U35" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="V35" t="s">
         <v>242</v>
@@ -11031,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="BI35" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="BJ35" t="s">
         <v>1184</v>
@@ -11040,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="BM35" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="BN35" t="s">
         <v>1218</v>
@@ -11049,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="BQ35" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="BR35" s="2" t="s">
         <v>1099</v>
@@ -11060,16 +11024,16 @@
       <c r="BT35">
         <v>1</v>
       </c>
-      <c r="BU35" t="s">
-        <v>1344</v>
-      </c>
-      <c r="BV35" t="s">
+      <c r="BU35" s="6" t="s">
+        <v>1343</v>
+      </c>
+      <c r="BV35" s="6" t="s">
         <v>939</v>
       </c>
       <c r="BW35">
         <v>3</v>
       </c>
-      <c r="BX35" s="3">
+      <c r="BX35" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11102,7 +11066,7 @@
         <v>1</v>
       </c>
       <c r="BI36" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="BJ36" t="s">
         <v>1185</v>
@@ -11111,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="BM36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="BN36" t="s">
         <v>994</v>
@@ -11120,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="BQ36" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="BR36" s="2" t="s">
         <v>1100</v>
@@ -11131,16 +11095,16 @@
       <c r="BT36">
         <v>1</v>
       </c>
-      <c r="BU36" t="s">
-        <v>1347</v>
-      </c>
-      <c r="BV36" t="s">
+      <c r="BU36" s="6" t="s">
+        <v>1346</v>
+      </c>
+      <c r="BV36" s="6" t="s">
         <v>940</v>
       </c>
       <c r="BW36">
         <v>3</v>
       </c>
-      <c r="BX36" s="3">
+      <c r="BX36" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11164,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="BI37" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="BJ37" t="s">
         <v>1193</v>
@@ -11173,7 +11137,7 @@
         <v>1</v>
       </c>
       <c r="BM37" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="BN37" t="s">
         <v>994</v>
@@ -11182,7 +11146,7 @@
         <v>1</v>
       </c>
       <c r="BQ37" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="BR37" s="2" t="s">
         <v>1099</v>
@@ -11194,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="BU37" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="BV37" s="2" t="s">
         <v>941</v>
@@ -11229,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="BI38" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="BJ38" t="s">
         <v>1194</v>
@@ -11238,7 +11202,7 @@
         <v>1</v>
       </c>
       <c r="BM38" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="BN38" t="s">
         <v>994</v>
@@ -11247,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="BQ38" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="BR38" s="2" t="s">
         <v>1101</v>
@@ -11259,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="BU38" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="BV38" t="s">
         <v>942</v>
@@ -11294,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="BI39" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="BJ39" t="s">
         <v>1195</v>
@@ -11303,7 +11267,7 @@
         <v>1</v>
       </c>
       <c r="BM39" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="BN39" t="s">
         <v>994</v>
@@ -11312,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="BQ39" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="BR39" s="2" t="s">
         <v>1102</v>
@@ -11324,7 +11288,7 @@
         <v>1</v>
       </c>
       <c r="BU39" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="BV39" t="s">
         <v>946</v>
@@ -11356,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="BI40" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="BJ40" t="s">
         <v>1196</v>
@@ -11365,7 +11329,7 @@
         <v>1</v>
       </c>
       <c r="BM40" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="BN40" t="s">
         <v>994</v>
@@ -11374,7 +11338,7 @@
         <v>1</v>
       </c>
       <c r="BQ40" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="BR40" s="2" t="s">
         <v>1097</v>
@@ -11386,7 +11350,7 @@
         <v>1</v>
       </c>
       <c r="BU40" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="BV40" t="s">
         <v>944</v>
@@ -11396,17 +11360,20 @@
       </c>
     </row>
     <row r="41" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
       <c r="U41" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="V41" t="s">
         <v>225</v>
@@ -11415,7 +11382,7 @@
         <v>1</v>
       </c>
       <c r="BI41" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="BJ41" t="s">
         <v>1197</v>
@@ -11424,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="BM41" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="BN41" t="s">
         <v>994</v>
@@ -11433,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="BQ41" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="BR41" s="2" t="s">
         <v>1104</v>
@@ -11445,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="BU41" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="BV41" t="s">
         <v>947</v>
@@ -11465,7 +11432,7 @@
         <v>1</v>
       </c>
       <c r="U42" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="V42" t="s">
         <v>226</v>
@@ -11474,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="BI42" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="BJ42" t="s">
         <v>1198</v>
@@ -11483,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="BM42" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="BN42" t="s">
         <v>994</v>
@@ -11492,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="BQ42" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="BR42" s="2" t="s">
         <v>1105</v>
@@ -11503,16 +11470,16 @@
       <c r="BT42">
         <v>1</v>
       </c>
-      <c r="BU42" t="s">
-        <v>1375</v>
-      </c>
-      <c r="BV42" t="s">
+      <c r="BU42" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="BV42" s="6" t="s">
         <v>943</v>
       </c>
       <c r="BW42">
         <v>3</v>
       </c>
-      <c r="BX42" s="3">
+      <c r="BX42" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11527,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="U43" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="V43" t="s">
         <v>227</v>
@@ -11548,7 +11515,7 @@
         <v>1</v>
       </c>
       <c r="BM43" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="BN43" t="s">
         <v>994</v>
@@ -11557,7 +11524,7 @@
         <v>1</v>
       </c>
       <c r="BQ43" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="BR43" s="2" t="s">
         <v>1106</v>
@@ -11569,7 +11536,7 @@
         <v>1</v>
       </c>
       <c r="BU43" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="BV43" t="s">
         <v>945</v>
@@ -11613,7 +11580,7 @@
         <v>1</v>
       </c>
       <c r="BM44" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="BN44" t="s">
         <v>994</v>
@@ -11622,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="BQ44" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="BR44" s="2" t="s">
         <v>1107</v>
@@ -11634,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="BU44" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="BV44" t="s">
         <v>953</v>
@@ -11675,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="BM45" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="BN45" t="s">
         <v>994</v>
@@ -11684,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="BQ45" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="BR45" s="2" t="s">
         <v>1108</v>
@@ -11696,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="BU45" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="BV45" t="s">
         <v>951</v>
@@ -11740,7 +11707,7 @@
         <v>1</v>
       </c>
       <c r="BM46" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="BN46" t="s">
         <v>994</v>
@@ -11749,7 +11716,7 @@
         <v>1</v>
       </c>
       <c r="BQ46" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="BR46" s="2" t="s">
         <v>1109</v>
@@ -11761,7 +11728,7 @@
         <v>1</v>
       </c>
       <c r="BU46" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="BV46" t="s">
         <v>952</v>
@@ -11781,7 +11748,7 @@
         <v>1</v>
       </c>
       <c r="U47" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="V47" t="s">
         <v>228</v>
@@ -11790,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="BI47" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="BJ47" s="2" t="s">
         <v>1151</v>
@@ -11802,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="BM47" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="BN47" t="s">
         <v>994</v>
@@ -11811,7 +11778,7 @@
         <v>1</v>
       </c>
       <c r="BQ47" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="BR47" s="2" t="s">
         <v>1111</v>
@@ -11823,7 +11790,7 @@
         <v>1</v>
       </c>
       <c r="BU47" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="BV47" t="s">
         <v>948</v>
@@ -11843,7 +11810,7 @@
         <v>1</v>
       </c>
       <c r="U48" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="V48" t="s">
         <v>229</v>
@@ -11852,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="BI48" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="BJ48" s="2" t="s">
         <v>1152</v>
@@ -11864,7 +11831,7 @@
         <v>1</v>
       </c>
       <c r="BM48" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="BN48" t="s">
         <v>994</v>
@@ -11873,7 +11840,7 @@
         <v>1</v>
       </c>
       <c r="BQ48" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="BR48" s="2" t="s">
         <v>1112</v>
@@ -11885,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="BU48" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="BV48" t="s">
         <v>950</v>
@@ -11914,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="BI49" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="BJ49" s="2" t="s">
         <v>1153</v>
@@ -11926,7 +11893,7 @@
         <v>1</v>
       </c>
       <c r="BQ49" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="BR49" s="2" t="s">
         <v>1113</v>
@@ -11938,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="BU49" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="BV49" t="s">
         <v>949</v>
@@ -11967,7 +11934,7 @@
         <v>1</v>
       </c>
       <c r="BI50" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="BJ50" s="2" t="s">
         <v>1155</v>
@@ -11979,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="BQ50" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="BR50" s="2" t="s">
         <v>1114</v>
@@ -11991,7 +11958,7 @@
         <v>1</v>
       </c>
       <c r="BU50" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="BV50" t="s">
         <v>957</v>
@@ -12020,7 +11987,7 @@
         <v>1</v>
       </c>
       <c r="BI51" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="BJ51" s="2" t="s">
         <v>1156</v>
@@ -12032,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="BQ51" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="BR51" s="2" t="s">
         <v>1115</v>
@@ -12044,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="BU51" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="BV51" t="s">
         <v>956</v>
@@ -12067,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="BI52" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="BJ52" s="2" t="s">
         <v>1163</v>
@@ -12079,7 +12046,7 @@
         <v>1</v>
       </c>
       <c r="BQ52" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="BR52" s="2" t="s">
         <v>1117</v>
@@ -12091,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="BU52" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="BV52" t="s">
         <v>955</v>
@@ -12111,7 +12078,7 @@
         <v>1</v>
       </c>
       <c r="BI53" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="BJ53" s="2" t="s">
         <v>1165</v>
@@ -12123,7 +12090,7 @@
         <v>1</v>
       </c>
       <c r="BQ53" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="BR53" s="2" t="s">
         <v>1118</v>
@@ -12135,7 +12102,7 @@
         <v>1</v>
       </c>
       <c r="BU53" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="BV53" t="s">
         <v>954</v>
@@ -12146,7 +12113,7 @@
     </row>
     <row r="54" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BI54" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="BJ54" s="2" t="s">
         <v>1144</v>
@@ -12158,7 +12125,7 @@
         <v>1</v>
       </c>
       <c r="BQ54" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="BR54" s="2" t="s">
         <v>1119</v>
@@ -12170,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="BU54" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="BV54" t="s">
         <v>959</v>
@@ -12181,7 +12148,7 @@
     </row>
     <row r="55" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BI55" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="BJ55" s="2" t="s">
         <v>1174</v>
@@ -12193,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="BQ55" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="BR55" s="2" t="s">
         <v>1120</v>
@@ -12205,7 +12172,7 @@
         <v>1</v>
       </c>
       <c r="BU55" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="BV55" t="s">
         <v>958</v>
@@ -12216,7 +12183,7 @@
     </row>
     <row r="56" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BI56" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="BJ56" s="2" t="s">
         <v>1178</v>
@@ -12228,7 +12195,7 @@
         <v>1</v>
       </c>
       <c r="BQ56" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="BR56" s="2" t="s">
         <v>1122</v>
@@ -12242,7 +12209,7 @@
     </row>
     <row r="57" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BI57" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="BJ57" s="2" t="s">
         <v>1179</v>
@@ -12254,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="BQ57" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="BR57" s="2" t="s">
         <v>1123</v>
@@ -12268,7 +12235,7 @@
     </row>
     <row r="58" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BQ58" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="BR58" s="2" t="s">
         <v>1124</v>
@@ -12282,7 +12249,7 @@
     </row>
     <row r="59" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BQ59" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="BR59" s="2" t="s">
         <v>1125</v>
@@ -12296,7 +12263,7 @@
     </row>
     <row r="60" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BQ60" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="BR60" s="2" t="s">
         <v>1126</v>
@@ -12310,7 +12277,7 @@
     </row>
     <row r="61" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BQ61" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="BR61" s="2" t="s">
         <v>1127</v>
@@ -12324,7 +12291,7 @@
     </row>
     <row r="62" spans="1:75" x14ac:dyDescent="0.25">
       <c r="BQ62" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="BR62" s="2" t="s">
         <v>1128</v>
@@ -12341,42 +12308,42 @@
     <sortCondition ref="AO2:AO15"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="containsText" dxfId="18" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+    <cfRule type="containsText" dxfId="9" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="8" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
+    <cfRule type="containsText" dxfId="7" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
       <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="8" stopIfTrue="1" operator="containsText" text="SnowCicle">
+    <cfRule type="containsText" dxfId="6" priority="8" stopIfTrue="1" operator="containsText" text="SnowCicle">
       <formula>NOT(ISERROR(SEARCH("SnowCicle",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" stopIfTrue="1" operator="containsText" text="Bubble">
+    <cfRule type="containsText" dxfId="5" priority="9" stopIfTrue="1" operator="containsText" text="Bubble">
       <formula>NOT(ISERROR(SEARCH("Bubble",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+    <cfRule type="containsText" dxfId="4" priority="12" stopIfTrue="1" operator="containsText" text="Moon Cheese">
       <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="containsText" dxfId="12" priority="16" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="3" priority="16" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="containsText" dxfId="11" priority="15" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="2" priority="15" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",V1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576">
-    <cfRule type="containsText" dxfId="10" priority="14" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="1" priority="14" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",Z1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1:AD1048576">
-    <cfRule type="containsText" dxfId="9" priority="13" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="0" priority="13" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",AD1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12386,10 +12353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86D7E6B-F615-4EC2-9ABB-4F66E247620A}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A23"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12467,6 +12434,11 @@
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>1533</v>
       </c>
     </row>
   </sheetData>

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BABA97-284A-490A-8C37-ED79E63D70F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1C42E0-9925-4345-A26A-632402CDD2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1950" windowWidth="21600" windowHeight="12525" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12525" activeTab="5" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4716,7 +4716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4728,6 +4728,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5277,8 +5278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="BV3" sqref="BV3"/>
+    <sheetView topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="BX13" sqref="BX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5744,13 +5745,16 @@
       <c r="BC2">
         <v>1</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>178</v>
       </c>
       <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
         <v>1</v>
       </c>
       <c r="BI2" t="s">
@@ -5974,13 +5978,16 @@
       <c r="BC3">
         <v>1</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BE3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BF3" s="2" t="s">
         <v>254</v>
       </c>
       <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
         <v>1</v>
       </c>
       <c r="BI3" t="s">
@@ -6419,13 +6426,16 @@
       <c r="BC5">
         <v>1</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BE5" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BF5" s="2" t="s">
         <v>175</v>
       </c>
       <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
         <v>1</v>
       </c>
       <c r="BI5" t="s">
@@ -6676,13 +6686,16 @@
       <c r="BP6" s="3">
         <v>1</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BQ6" s="2" t="s">
         <v>1373</v>
       </c>
       <c r="BR6" t="s">
         <v>1129</v>
       </c>
       <c r="BS6">
+        <v>1</v>
+      </c>
+      <c r="BT6">
         <v>1</v>
       </c>
       <c r="BU6" s="2" t="s">
@@ -6867,13 +6880,16 @@
       <c r="BC7">
         <v>1</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BE7" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BF7" s="2" t="s">
         <v>159</v>
       </c>
       <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
         <v>1</v>
       </c>
       <c r="BI7" t="s">
@@ -6897,13 +6913,16 @@
       <c r="BP7">
         <v>1</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BQ7" s="2" t="s">
         <v>1375</v>
       </c>
       <c r="BR7" t="s">
         <v>1130</v>
       </c>
       <c r="BS7">
+        <v>1</v>
+      </c>
+      <c r="BT7">
         <v>1</v>
       </c>
       <c r="BU7" s="6" t="s">
@@ -7088,13 +7107,16 @@
       <c r="BC8">
         <v>1</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BE8" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BF8" s="2" t="s">
         <v>164</v>
       </c>
       <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
         <v>1</v>
       </c>
       <c r="BI8" t="s">
@@ -7536,13 +7558,16 @@
       <c r="BP10">
         <v>1</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BQ10" s="2" t="s">
         <v>1379</v>
       </c>
       <c r="BR10" t="s">
         <v>1133</v>
       </c>
       <c r="BS10">
+        <v>1</v>
+      </c>
+      <c r="BT10">
         <v>1</v>
       </c>
       <c r="BU10" s="2" t="s">
@@ -8154,7 +8179,7 @@
       <c r="BW13">
         <v>3</v>
       </c>
-      <c r="BX13" s="4">
+      <c r="BX13" s="7">
         <v>1</v>
       </c>
       <c r="BY13" t="s">
@@ -10514,13 +10539,16 @@
       <c r="AA29">
         <v>1</v>
       </c>
-      <c r="BI29" t="s">
+      <c r="BI29" s="2" t="s">
         <v>1365</v>
       </c>
       <c r="BJ29" t="s">
         <v>1189</v>
       </c>
       <c r="BK29">
+        <v>1</v>
+      </c>
+      <c r="BL29">
         <v>1</v>
       </c>
       <c r="BM29" t="s">
@@ -10766,7 +10794,7 @@
       <c r="AB32">
         <v>1</v>
       </c>
-      <c r="BI32" t="s">
+      <c r="BI32" s="2" t="s">
         <v>1368</v>
       </c>
       <c r="BJ32" t="s">
@@ -10775,13 +10803,19 @@
       <c r="BK32">
         <v>1</v>
       </c>
-      <c r="BM32" t="s">
+      <c r="BL32">
+        <v>1</v>
+      </c>
+      <c r="BM32" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="BN32" t="s">
+      <c r="BN32" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="BO32">
+        <v>1</v>
+      </c>
+      <c r="BP32">
         <v>1</v>
       </c>
       <c r="BQ32" s="2" t="s">
@@ -11349,14 +11383,17 @@
       <c r="BT40">
         <v>1</v>
       </c>
-      <c r="BU40" t="s">
+      <c r="BU40" s="6" t="s">
         <v>1371</v>
       </c>
-      <c r="BV40" t="s">
+      <c r="BV40" s="6" t="s">
         <v>944</v>
       </c>
       <c r="BW40">
         <v>3</v>
+      </c>
+      <c r="BX40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:76" x14ac:dyDescent="0.25">
@@ -11479,8 +11516,8 @@
       <c r="BW42">
         <v>3</v>
       </c>
-      <c r="BX42" s="4">
-        <v>1</v>
+      <c r="BX42">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:76" x14ac:dyDescent="0.25">
@@ -12450,8 +12487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E60DA8-4CCF-4656-AD01-A1646335A0A7}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16354,8 +16391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB14B9A7-32BD-458D-A5F7-E49A0C0475BC}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690FA3F8-49B2-4AEC-AE82-E4E47EBB779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8370E1BC-B8CF-4DC6-8AE6-02316190977D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
@@ -1083,9 +1083,6 @@
     <t>Apple + Magma Bloom</t>
   </si>
   <si>
-    <t>Flour+ Strawberry + Almond</t>
-  </si>
-  <si>
     <t>❤️Red Bow Apple Pie (rare)</t>
   </si>
   <si>
@@ -3259,6 +3256,9 @@
   </si>
   <si>
     <t>Find all gudetama in Mount Hothead (24)</t>
+  </si>
+  <si>
+    <t>Strawberry + Almond</t>
   </si>
 </sst>
 </file>
@@ -3339,7 +3339,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -3347,6 +3347,206 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3437,6 +3637,30 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3772,8 +3996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="Q7" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3883,7 +4107,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>184</v>
@@ -3895,7 +4119,7 @@
         <v>3</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>239</v>
@@ -3907,10 +4131,10 @@
         <v>3</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>2</v>
@@ -3919,10 +4143,10 @@
         <v>3</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>2</v>
@@ -3931,10 +4155,10 @@
         <v>3</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>2</v>
@@ -3943,10 +4167,10 @@
         <v>3</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>2</v>
@@ -3955,10 +4179,10 @@
         <v>3</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>2</v>
@@ -3967,10 +4191,10 @@
         <v>3</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>2</v>
@@ -3979,10 +4203,10 @@
         <v>3</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>2</v>
@@ -3994,7 +4218,7 @@
         <v>198</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>2</v>
@@ -4003,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>200</v>
@@ -4015,7 +4239,7 @@
         <v>3</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BN1" s="1" t="s">
         <v>1</v>
@@ -4027,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>200</v>
@@ -4039,7 +4263,7 @@
         <v>3</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BV1" s="1" t="s">
         <v>1</v>
@@ -4051,7 +4275,7 @@
         <v>3</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="BZ1" s="1" t="s">
         <v>200</v>
@@ -4146,11 +4370,11 @@
         <v>1</v>
       </c>
       <c r="AC2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="AE2">
         <v>1</v>
       </c>
@@ -4158,16 +4382,16 @@
         <v>1</v>
       </c>
       <c r="AG2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AH2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AI2">
         <v>1</v>
       </c>
       <c r="AK2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AL2" t="s">
         <v>160</v>
@@ -4176,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="AO2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AP2" t="s">
         <v>163</v>
@@ -4185,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="AS2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AT2" t="s">
         <v>158</v>
@@ -4194,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AX2" t="s">
         <v>158</v>
@@ -4203,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="BA2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="BB2" t="s">
         <v>169</v>
@@ -4224,31 +4448,31 @@
         <v>1</v>
       </c>
       <c r="BI2" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="BK2">
         <v>3</v>
       </c>
-      <c r="BL2" s="4">
-        <v>1</v>
+      <c r="BL2">
+        <v>2</v>
       </c>
       <c r="BM2" t="s">
-        <v>784</v>
+        <v>922</v>
       </c>
       <c r="BN2" t="s">
-        <v>782</v>
+        <v>650</v>
       </c>
       <c r="BO2">
         <v>1</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="BS2">
         <v>1</v>
@@ -4257,19 +4481,19 @@
         <v>1</v>
       </c>
       <c r="BU2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="BV2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="BW2">
         <v>1</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="CA2">
         <v>1</v>
@@ -4319,7 +4543,7 @@
         <v>276</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -4339,13 +4563,16 @@
       <c r="T3">
         <v>1</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="2" t="s">
         <v>346</v>
       </c>
       <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3" s="2" t="s">
@@ -4361,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>163</v>
@@ -4373,34 +4600,34 @@
         <v>1</v>
       </c>
       <c r="AG3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AH3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AI3">
         <v>1</v>
       </c>
       <c r="AK3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AL3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AM3">
         <v>1</v>
       </c>
       <c r="AO3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AP3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AQ3">
         <v>1</v>
       </c>
       <c r="AS3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AT3" t="s">
         <v>159</v>
@@ -4409,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="AW3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AX3" t="s">
         <v>159</v>
@@ -4418,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="BA3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BB3" t="s">
         <v>158</v>
@@ -4439,10 +4666,10 @@
         <v>1</v>
       </c>
       <c r="BI3" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="BJ3" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="BK3">
         <v>3</v>
@@ -4451,19 +4678,19 @@
         <v>2</v>
       </c>
       <c r="BM3" t="s">
-        <v>788</v>
+        <v>923</v>
       </c>
       <c r="BN3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="BO3">
         <v>1</v>
       </c>
       <c r="BQ3" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="BS3">
         <v>1</v>
@@ -4472,19 +4699,19 @@
         <v>1</v>
       </c>
       <c r="BU3" t="s">
-        <v>803</v>
+        <v>863</v>
       </c>
       <c r="BV3" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="BW3">
         <v>1</v>
       </c>
       <c r="BY3" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="CA3">
         <v>1</v>
@@ -4542,22 +4769,28 @@
       <c r="P4">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="2" t="s">
         <v>168</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
-      <c r="U4" t="s">
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="2" t="s">
         <v>185</v>
       </c>
       <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4" s="2" t="s">
@@ -4573,34 +4806,34 @@
         <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AD4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AE4">
         <v>1</v>
       </c>
       <c r="AG4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AH4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AI4">
         <v>1</v>
       </c>
       <c r="AK4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AL4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AM4">
         <v>1</v>
       </c>
       <c r="AO4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AP4" t="s">
         <v>177</v>
@@ -4609,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="AS4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AT4" t="s">
         <v>167</v>
@@ -4618,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="AW4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AX4" t="s">
         <v>232</v>
@@ -4627,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="BA4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="BB4" t="s">
         <v>159</v>
@@ -4648,10 +4881,10 @@
         <v>1</v>
       </c>
       <c r="BI4" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="BJ4" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="BK4">
         <v>3</v>
@@ -4660,37 +4893,37 @@
         <v>2</v>
       </c>
       <c r="BM4" t="s">
-        <v>792</v>
+        <v>924</v>
       </c>
       <c r="BN4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="BO4">
         <v>1</v>
       </c>
       <c r="BQ4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="BR4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="BS4">
         <v>1</v>
       </c>
       <c r="BU4" t="s">
-        <v>806</v>
+        <v>917</v>
       </c>
       <c r="BV4" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="BW4">
         <v>1</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="CA4">
         <v>1</v>
@@ -4737,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>181</v>
@@ -4749,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>179</v>
@@ -4760,13 +4993,16 @@
       <c r="T5">
         <v>1</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="2" t="s">
         <v>163</v>
       </c>
       <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5" t="s">
@@ -4778,35 +5014,38 @@
       <c r="AA5">
         <v>1</v>
       </c>
-      <c r="AC5" t="s">
-        <v>392</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>401</v>
+      <c r="AC5" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="AE5">
         <v>1</v>
       </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
       <c r="AG5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AH5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AI5">
         <v>1</v>
       </c>
       <c r="AK5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AL5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AM5">
         <v>1</v>
       </c>
       <c r="AO5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AP5" t="s">
         <v>158</v>
@@ -4815,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AT5" t="s">
         <v>172</v>
@@ -4824,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="AW5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AX5" t="s">
         <v>167</v>
@@ -4833,10 +5072,10 @@
         <v>1</v>
       </c>
       <c r="BA5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BB5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="BC5">
         <v>1</v>
@@ -4854,49 +5093,52 @@
         <v>1</v>
       </c>
       <c r="BI5" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="BJ5" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="BK5">
         <v>3</v>
       </c>
-      <c r="BL5" s="4">
-        <v>1</v>
+      <c r="BL5">
+        <v>2</v>
       </c>
       <c r="BM5" t="s">
-        <v>796</v>
+        <v>948</v>
       </c>
       <c r="BN5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="BO5">
         <v>1</v>
       </c>
       <c r="BQ5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="BR5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="BS5">
         <v>1</v>
       </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
       <c r="BU5" t="s">
-        <v>822</v>
+        <v>925</v>
       </c>
       <c r="BV5" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="BW5">
         <v>1</v>
       </c>
       <c r="BY5" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="BZ5" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="CA5">
         <v>1</v>
@@ -4931,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>174</v>
@@ -4943,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>175</v>
@@ -4955,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>178</v>
@@ -4985,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AD6" s="2" t="s">
         <v>179</v>
@@ -4997,25 +5239,25 @@
         <v>1</v>
       </c>
       <c r="AG6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AH6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AI6">
         <v>1</v>
       </c>
       <c r="AK6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AL6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AM6">
         <v>1</v>
       </c>
       <c r="AO6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AP6" t="s">
         <v>159</v>
@@ -5024,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="AS6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AT6" t="s">
         <v>176</v>
@@ -5033,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="AW6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AX6" t="s">
         <v>172</v>
@@ -5042,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="BA6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BB6" t="s">
         <v>176</v>
@@ -5063,10 +5305,10 @@
         <v>1</v>
       </c>
       <c r="BI6" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="BJ6" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="BK6">
         <v>3</v>
@@ -5074,23 +5316,20 @@
       <c r="BL6">
         <v>3</v>
       </c>
-      <c r="BM6" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="BN6" s="2" t="s">
-        <v>649</v>
+      <c r="BM6" t="s">
+        <v>947</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>781</v>
       </c>
       <c r="BO6">
         <v>1</v>
       </c>
-      <c r="BP6" s="3">
-        <v>1</v>
-      </c>
       <c r="BQ6" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="BR6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="BS6">
         <v>1</v>
@@ -5099,19 +5338,19 @@
         <v>1</v>
       </c>
       <c r="BU6" t="s">
-        <v>834</v>
+        <v>926</v>
       </c>
       <c r="BV6" t="s">
-        <v>723</v>
+        <v>752</v>
       </c>
       <c r="BW6">
         <v>1</v>
       </c>
       <c r="BY6" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="BZ6" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="CA6">
         <v>1</v>
@@ -5146,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>175</v>
@@ -5158,10 +5397,10 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -5170,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>180</v>
@@ -5181,13 +5420,16 @@
       <c r="T7">
         <v>1</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="2" t="s">
         <v>201</v>
       </c>
       <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
         <v>1</v>
       </c>
       <c r="Y7" t="s">
@@ -5200,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AD7" t="s">
         <v>167</v>
@@ -5209,43 +5451,43 @@
         <v>1</v>
       </c>
       <c r="AG7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AH7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AI7">
         <v>1</v>
       </c>
       <c r="AK7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AL7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AM7">
         <v>1</v>
       </c>
       <c r="AO7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AP7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AQ7">
         <v>1</v>
       </c>
       <c r="AS7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AT7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AU7">
         <v>1</v>
       </c>
       <c r="AW7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AX7" t="s">
         <v>176</v>
@@ -5254,10 +5496,10 @@
         <v>1</v>
       </c>
       <c r="BA7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="BB7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BC7">
         <v>1</v>
@@ -5275,10 +5517,10 @@
         <v>1</v>
       </c>
       <c r="BI7" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="BJ7" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BK7">
         <v>3</v>
@@ -5286,23 +5528,20 @@
       <c r="BL7">
         <v>2</v>
       </c>
-      <c r="BM7" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="BN7" s="2" t="s">
-        <v>782</v>
+      <c r="BM7" t="s">
+        <v>946</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>781</v>
       </c>
       <c r="BO7">
         <v>1</v>
       </c>
-      <c r="BP7">
-        <v>1</v>
-      </c>
       <c r="BQ7" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="BR7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="BS7">
         <v>1</v>
@@ -5311,21 +5550,24 @@
         <v>1</v>
       </c>
       <c r="BU7" t="s">
-        <v>835</v>
+        <v>927</v>
       </c>
       <c r="BV7" t="s">
-        <v>724</v>
+        <v>753</v>
       </c>
       <c r="BW7">
         <v>1</v>
       </c>
-      <c r="BY7" t="s">
+      <c r="BY7" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="BZ7" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="BZ7" t="s">
-        <v>771</v>
-      </c>
       <c r="CA7">
+        <v>1</v>
+      </c>
+      <c r="CB7">
         <v>1</v>
       </c>
     </row>
@@ -5355,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>176</v>
@@ -5367,10 +5609,10 @@
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -5382,7 +5624,7 @@
         <v>333</v>
       </c>
       <c r="R8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -5400,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Z8" t="s">
         <v>288</v>
@@ -5408,35 +5650,38 @@
       <c r="AA8">
         <v>1</v>
       </c>
-      <c r="AC8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>402</v>
+      <c r="AC8" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="AE8">
         <v>1</v>
       </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
       <c r="AG8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AH8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AI8">
         <v>1</v>
       </c>
       <c r="AK8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AL8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AM8">
         <v>1</v>
       </c>
       <c r="AO8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AP8" t="s">
         <v>164</v>
@@ -5445,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="AS8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AT8" t="s">
         <v>232</v>
@@ -5454,16 +5699,16 @@
         <v>1</v>
       </c>
       <c r="AW8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AX8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AY8">
         <v>1</v>
       </c>
       <c r="BA8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="BB8" t="s">
         <v>232</v>
@@ -5484,10 +5729,10 @@
         <v>1</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="BJ8" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BK8">
         <v>3</v>
@@ -5495,41 +5740,38 @@
       <c r="BL8">
         <v>2</v>
       </c>
-      <c r="BM8" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="BN8" s="2" t="s">
-        <v>649</v>
+      <c r="BM8" t="s">
+        <v>945</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>781</v>
       </c>
       <c r="BO8">
         <v>1</v>
       </c>
-      <c r="BP8">
-        <v>1</v>
-      </c>
       <c r="BQ8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="BR8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="BS8">
         <v>1</v>
       </c>
       <c r="BU8" t="s">
-        <v>838</v>
+        <v>929</v>
       </c>
       <c r="BV8" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="BW8">
         <v>1</v>
       </c>
       <c r="BY8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="BZ8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="CA8">
         <v>1</v>
@@ -5579,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>158</v>
@@ -5600,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Z9" t="s">
         <v>289</v>
@@ -5608,35 +5850,38 @@
       <c r="AA9">
         <v>1</v>
       </c>
-      <c r="AC9" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>403</v>
+      <c r="AC9" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="AE9">
         <v>1</v>
       </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
       <c r="AG9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AH9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AI9">
         <v>1</v>
       </c>
       <c r="AK9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AL9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AM9">
         <v>1</v>
       </c>
       <c r="AO9" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AP9" t="s">
         <v>162</v>
@@ -5645,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AT9" t="s">
         <v>160</v>
@@ -5654,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="AW9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AX9" t="s">
         <v>168</v>
@@ -5663,19 +5908,19 @@
         <v>1</v>
       </c>
       <c r="BA9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="BB9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BC9">
         <v>1</v>
       </c>
       <c r="BI9" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="BJ9" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BK9">
         <v>3</v>
@@ -5683,41 +5928,38 @@
       <c r="BL9">
         <v>2</v>
       </c>
-      <c r="BM9" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="BN9" s="2" t="s">
-        <v>782</v>
+      <c r="BM9" t="s">
+        <v>949</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>781</v>
       </c>
       <c r="BO9">
         <v>1</v>
       </c>
-      <c r="BP9">
-        <v>1</v>
-      </c>
       <c r="BQ9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="BR9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="BS9">
         <v>1</v>
       </c>
       <c r="BU9" t="s">
-        <v>841</v>
+        <v>930</v>
       </c>
       <c r="BV9" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="BW9">
         <v>1</v>
       </c>
       <c r="BY9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="BZ9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="CA9">
         <v>1</v>
@@ -5752,7 +5994,7 @@
         <v>278</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5770,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>159</v>
@@ -5782,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>176</v>
@@ -5802,35 +6044,38 @@
       <c r="AA10">
         <v>1</v>
       </c>
-      <c r="AC10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>404</v>
+      <c r="AC10" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="AE10">
         <v>1</v>
       </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
       <c r="AG10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AH10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AI10">
         <v>1</v>
       </c>
       <c r="AK10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AL10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AM10">
         <v>1</v>
       </c>
       <c r="AO10" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AP10" t="s">
         <v>175</v>
@@ -5839,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AT10" t="s">
         <v>168</v>
@@ -5848,16 +6093,16 @@
         <v>1</v>
       </c>
       <c r="AW10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AX10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AY10">
         <v>1</v>
       </c>
       <c r="BA10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="BB10" t="s">
         <v>174</v>
@@ -5866,10 +6111,10 @@
         <v>1</v>
       </c>
       <c r="BI10" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="BJ10" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="BK10">
         <v>3</v>
@@ -5877,23 +6122,20 @@
       <c r="BL10">
         <v>3</v>
       </c>
-      <c r="BM10" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="BN10" s="2" t="s">
-        <v>649</v>
+      <c r="BM10" t="s">
+        <v>970</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>652</v>
       </c>
       <c r="BO10">
         <v>1</v>
       </c>
-      <c r="BP10">
-        <v>1</v>
-      </c>
       <c r="BQ10" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="BR10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="BS10">
         <v>1</v>
@@ -5902,10 +6144,10 @@
         <v>1</v>
       </c>
       <c r="BU10" t="s">
-        <v>844</v>
+        <v>950</v>
       </c>
       <c r="BV10" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="BW10">
         <v>1</v>
@@ -5940,7 +6182,7 @@
         <v>255</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5952,7 +6194,7 @@
         <v>327</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -5961,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>164</v>
@@ -5973,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>175</v>
@@ -5997,34 +6239,34 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AD11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AE11">
         <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AH11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AI11">
         <v>1</v>
       </c>
       <c r="AK11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AL11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AM11">
         <v>1</v>
       </c>
       <c r="AO11" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AP11" t="s">
         <v>176</v>
@@ -6033,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="AS11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AT11" t="s">
         <v>169</v>
@@ -6042,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="AW11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AX11" t="s">
         <v>174</v>
@@ -6051,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="BA11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="BB11" t="s">
         <v>165</v>
@@ -6060,43 +6302,40 @@
         <v>1</v>
       </c>
       <c r="BI11" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="BJ11" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="BK11">
         <v>3</v>
       </c>
-      <c r="BL11" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM11" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="BN11" s="2" t="s">
-        <v>782</v>
+      <c r="BL11">
+        <v>2</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>972</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>652</v>
       </c>
       <c r="BO11">
         <v>1</v>
       </c>
-      <c r="BP11">
-        <v>1</v>
-      </c>
       <c r="BQ11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="BR11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="BS11">
         <v>1</v>
       </c>
       <c r="BU11" t="s">
-        <v>847</v>
+        <v>951</v>
       </c>
       <c r="BV11" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="BW11">
         <v>1</v>
@@ -6128,7 +6367,7 @@
         <v>279</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -6146,21 +6385,24 @@
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="2" t="s">
         <v>186</v>
       </c>
       <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
         <v>1</v>
       </c>
       <c r="Y12" t="s">
@@ -6172,35 +6414,38 @@
       <c r="AA12">
         <v>1</v>
       </c>
-      <c r="AC12" t="s">
-        <v>1051</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>406</v>
+      <c r="AC12" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="AE12">
         <v>1</v>
       </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
       <c r="AG12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AH12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AI12">
         <v>1</v>
       </c>
       <c r="AK12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AL12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AM12">
         <v>1</v>
       </c>
       <c r="AO12" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AP12" t="s">
         <v>180</v>
@@ -6209,16 +6454,16 @@
         <v>1</v>
       </c>
       <c r="AS12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AT12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AU12">
         <v>1</v>
       </c>
       <c r="AW12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AX12" t="s">
         <v>165</v>
@@ -6227,7 +6472,7 @@
         <v>1</v>
       </c>
       <c r="BA12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="BB12" t="s">
         <v>177</v>
@@ -6236,56 +6481,59 @@
         <v>1</v>
       </c>
       <c r="BI12" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="BJ12" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="BK12">
         <v>3</v>
       </c>
       <c r="BL12">
-        <v>1</v>
-      </c>
-      <c r="BM12" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="BN12" s="2" t="s">
-        <v>649</v>
+        <v>2</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>966</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>652</v>
       </c>
       <c r="BO12">
         <v>1</v>
       </c>
-      <c r="BP12">
-        <v>1</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>945</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>705</v>
+      <c r="BQ12" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="BR12" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="BS12">
         <v>1</v>
       </c>
+      <c r="BT12">
+        <v>1</v>
+      </c>
       <c r="BU12" t="s">
-        <v>854</v>
+        <v>952</v>
       </c>
       <c r="BV12" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="BW12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>360</v>
+      <c r="B13" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -6300,20 +6548,23 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>162</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>258</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -6355,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AD13" t="s">
         <v>222</v>
@@ -6364,25 +6615,25 @@
         <v>1</v>
       </c>
       <c r="AG13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AH13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AI13">
         <v>1</v>
       </c>
       <c r="AK13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AL13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AM13">
         <v>1</v>
       </c>
       <c r="AO13" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AP13" t="s">
         <v>178</v>
@@ -6391,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AT13" t="s">
         <v>174</v>
@@ -6400,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="AW13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AX13" t="s">
         <v>177</v>
@@ -6409,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="BA13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="BB13" t="s">
         <v>161</v>
@@ -6418,43 +6669,40 @@
         <v>1</v>
       </c>
       <c r="BI13" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="BJ13" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="BK13">
         <v>3</v>
       </c>
       <c r="BL13">
-        <v>1</v>
-      </c>
-      <c r="BM13" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="BN13" s="2" t="s">
-        <v>650</v>
+        <v>2</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>968</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>652</v>
       </c>
       <c r="BO13">
         <v>1</v>
       </c>
-      <c r="BP13">
-        <v>1</v>
-      </c>
       <c r="BQ13" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="BR13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="BS13">
         <v>1</v>
       </c>
       <c r="BU13" t="s">
-        <v>860</v>
+        <v>953</v>
       </c>
       <c r="BV13" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="BW13">
         <v>1</v>
@@ -6510,18 +6758,21 @@
         <v>324</v>
       </c>
       <c r="R14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="2" t="s">
         <v>168</v>
       </c>
       <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
         <v>1</v>
       </c>
       <c r="Y14" s="2" t="s">
@@ -6536,44 +6787,47 @@
       <c r="AB14">
         <v>1</v>
       </c>
-      <c r="AC14" t="s">
-        <v>396</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>407</v>
+      <c r="AC14" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="AE14">
         <v>1</v>
       </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
       <c r="AG14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AH14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AI14">
         <v>1</v>
       </c>
       <c r="AK14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AL14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM14">
         <v>1</v>
       </c>
       <c r="AO14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AP14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AQ14">
         <v>1</v>
       </c>
       <c r="AS14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AT14" t="s">
         <v>165</v>
@@ -6582,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="AW14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AX14" t="s">
         <v>161</v>
@@ -6591,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="BA14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="BB14" t="s">
         <v>162</v>
@@ -6600,10 +6854,10 @@
         <v>1</v>
       </c>
       <c r="BI14" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BJ14" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="BK14">
         <v>3</v>
@@ -6611,32 +6865,29 @@
       <c r="BL14">
         <v>3</v>
       </c>
-      <c r="BM14" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="BN14" s="2" t="s">
-        <v>651</v>
+      <c r="BM14" t="s">
+        <v>969</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>652</v>
       </c>
       <c r="BO14">
         <v>1</v>
       </c>
-      <c r="BP14">
-        <v>1</v>
-      </c>
       <c r="BQ14" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="BR14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="BS14">
         <v>1</v>
       </c>
       <c r="BU14" t="s">
-        <v>862</v>
+        <v>978</v>
       </c>
       <c r="BV14" t="s">
-        <v>733</v>
+        <v>758</v>
       </c>
       <c r="BW14">
         <v>1</v>
@@ -6668,7 +6919,7 @@
         <v>281</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -6680,13 +6931,13 @@
         <v>329</v>
       </c>
       <c r="N15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>175</v>
@@ -6698,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="V15" t="s">
         <v>202</v>
@@ -6716,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD15" s="2" t="s">
         <v>161</v>
@@ -6728,25 +6979,25 @@
         <v>1</v>
       </c>
       <c r="AG15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AH15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AI15">
         <v>1</v>
       </c>
       <c r="AK15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AL15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM15">
         <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AP15" t="s">
         <v>165</v>
@@ -6755,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AT15" t="s">
         <v>177</v>
@@ -6764,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="AW15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AX15" t="s">
         <v>162</v>
@@ -6773,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="BA15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="BB15" t="s">
         <v>175</v>
@@ -6782,10 +7033,10 @@
         <v>1</v>
       </c>
       <c r="BI15" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="BJ15" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="BK15">
         <v>3</v>
@@ -6793,32 +7044,29 @@
       <c r="BL15">
         <v>2</v>
       </c>
-      <c r="BM15" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="BN15" s="2" t="s">
-        <v>651</v>
+      <c r="BM15" t="s">
+        <v>975</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>652</v>
       </c>
       <c r="BO15">
         <v>1</v>
       </c>
-      <c r="BP15">
-        <v>1</v>
-      </c>
       <c r="BQ15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="BR15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="BS15">
         <v>1</v>
       </c>
       <c r="BU15" t="s">
-        <v>864</v>
+        <v>981</v>
       </c>
       <c r="BV15" t="s">
-        <v>734</v>
+        <v>759</v>
       </c>
       <c r="BW15">
         <v>1</v>
@@ -6837,17 +7085,20 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>128</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
       <c r="I16" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>173</v>
@@ -6871,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>176</v>
@@ -6883,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="V16" t="s">
         <v>203</v>
@@ -6900,35 +7151,38 @@
       <c r="AA16">
         <v>1</v>
       </c>
-      <c r="AC16" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>408</v>
+      <c r="AC16" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="AE16">
         <v>1</v>
       </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
       <c r="AG16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AH16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AI16">
         <v>1</v>
       </c>
       <c r="AK16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AL16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AM16">
         <v>1</v>
       </c>
       <c r="AS16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AT16" t="s">
         <v>161</v>
@@ -6937,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="AW16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AX16" t="s">
         <v>175</v>
@@ -6946,19 +7200,19 @@
         <v>1</v>
       </c>
       <c r="BA16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="BB16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BC16">
         <v>1</v>
       </c>
       <c r="BI16" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BJ16" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BK16">
         <v>3</v>
@@ -6966,32 +7220,29 @@
       <c r="BL16">
         <v>3</v>
       </c>
-      <c r="BM16" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="BN16" s="2" t="s">
-        <v>782</v>
+      <c r="BM16" t="s">
+        <v>973</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>652</v>
       </c>
       <c r="BO16">
         <v>1</v>
       </c>
-      <c r="BP16">
-        <v>1</v>
-      </c>
       <c r="BQ16" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="BR16" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="BS16">
         <v>1</v>
       </c>
       <c r="BU16" t="s">
-        <v>865</v>
+        <v>984</v>
       </c>
       <c r="BV16" t="s">
-        <v>735</v>
+        <v>760</v>
       </c>
       <c r="BW16">
         <v>1</v>
@@ -7007,17 +7258,20 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>126</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
       <c r="I17" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>177</v>
@@ -7041,13 +7295,13 @@
         <v>191</v>
       </c>
       <c r="R17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="V17" t="s">
         <v>204</v>
@@ -7067,35 +7321,38 @@
       <c r="AB17">
         <v>1</v>
       </c>
-      <c r="AC17" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>409</v>
+      <c r="AC17" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="AE17">
         <v>1</v>
       </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
       <c r="AG17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AH17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AI17">
         <v>1</v>
       </c>
       <c r="AK17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AL17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AM17">
         <v>1</v>
       </c>
       <c r="AS17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AT17" t="s">
         <v>162</v>
@@ -7104,16 +7361,16 @@
         <v>1</v>
       </c>
       <c r="AW17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AX17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AY17">
         <v>1</v>
       </c>
       <c r="BA17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="BB17" t="s">
         <v>164</v>
@@ -7122,10 +7379,10 @@
         <v>1</v>
       </c>
       <c r="BI17" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="BJ17" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BK17">
         <v>3</v>
@@ -7134,7 +7391,7 @@
         <v>3</v>
       </c>
       <c r="BM17" t="s">
-        <v>870</v>
+        <v>967</v>
       </c>
       <c r="BN17" t="s">
         <v>652</v>
@@ -7143,19 +7400,19 @@
         <v>1</v>
       </c>
       <c r="BQ17" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="BR17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="BS17">
         <v>1</v>
       </c>
       <c r="BU17" t="s">
-        <v>884</v>
+        <v>986</v>
       </c>
       <c r="BV17" t="s">
-        <v>736</v>
+        <v>761</v>
       </c>
       <c r="BW17">
         <v>1</v>
@@ -7184,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>179</v>
@@ -7217,7 +7474,7 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="V18" t="s">
         <v>205</v>
@@ -7234,35 +7491,38 @@
       <c r="AA18">
         <v>1</v>
       </c>
-      <c r="AC18" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>410</v>
+      <c r="AC18" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="AE18">
         <v>1</v>
       </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
       <c r="AG18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AH18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AI18">
         <v>1</v>
       </c>
       <c r="AK18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AL18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AM18">
         <v>1</v>
       </c>
       <c r="AS18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AT18" t="s">
         <v>175</v>
@@ -7271,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="AW18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AX18" t="s">
         <v>164</v>
@@ -7280,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="BA18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="BB18" t="s">
         <v>179</v>
@@ -7289,10 +7549,10 @@
         <v>1</v>
       </c>
       <c r="BI18" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="BJ18" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="BK18">
         <v>3</v>
@@ -7300,45 +7560,45 @@
       <c r="BL18">
         <v>3</v>
       </c>
-      <c r="BM18" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="BN18" s="2" t="s">
-        <v>782</v>
+      <c r="BM18" t="s">
+        <v>971</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>652</v>
       </c>
       <c r="BO18">
         <v>1</v>
       </c>
-      <c r="BP18">
-        <v>1</v>
-      </c>
       <c r="BQ18" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="BR18" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="BS18">
         <v>1</v>
       </c>
       <c r="BU18" t="s">
-        <v>887</v>
+        <v>989</v>
       </c>
       <c r="BV18" t="s">
-        <v>737</v>
+        <v>762</v>
       </c>
       <c r="BW18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
@@ -7351,7 +7611,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>178</v>
@@ -7366,7 +7626,7 @@
         <v>330</v>
       </c>
       <c r="N19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -7383,13 +7643,16 @@
       <c r="T19">
         <v>1</v>
       </c>
-      <c r="U19" t="s">
-        <v>1030</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="U19" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="V19" s="2" t="s">
         <v>206</v>
       </c>
       <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
         <v>1</v>
       </c>
       <c r="Y19" t="s">
@@ -7401,44 +7664,47 @@
       <c r="AA19">
         <v>1</v>
       </c>
-      <c r="AC19" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>411</v>
+      <c r="AC19" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="AE19">
         <v>1</v>
       </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
       <c r="AG19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AH19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI19">
         <v>1</v>
       </c>
       <c r="AK19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AL19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM19">
         <v>1</v>
       </c>
       <c r="AS19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AT19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AU19">
         <v>1</v>
       </c>
       <c r="AW19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AX19" t="s">
         <v>179</v>
@@ -7447,10 +7713,10 @@
         <v>1</v>
       </c>
       <c r="BI19" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BJ19" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BK19">
         <v>3</v>
@@ -7458,45 +7724,45 @@
       <c r="BL19">
         <v>3</v>
       </c>
-      <c r="BM19" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="BN19" s="2" t="s">
-        <v>651</v>
+      <c r="BM19" t="s">
+        <v>965</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>652</v>
       </c>
       <c r="BO19">
         <v>1</v>
       </c>
-      <c r="BP19">
-        <v>1</v>
-      </c>
       <c r="BQ19" t="s">
+        <v>990</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>707</v>
+      </c>
+      <c r="BS19">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="s">
         <v>991</v>
       </c>
-      <c r="BR19" t="s">
-        <v>708</v>
-      </c>
-      <c r="BS19">
-        <v>1</v>
-      </c>
-      <c r="BU19" t="s">
-        <v>890</v>
-      </c>
       <c r="BV19" t="s">
-        <v>738</v>
+        <v>763</v>
       </c>
       <c r="BW19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
@@ -7509,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>180</v>
@@ -7524,7 +7790,7 @@
         <v>282</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -7545,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="U20" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="V20" t="s">
         <v>217</v>
@@ -7562,35 +7828,38 @@
       <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AC20" t="s">
-        <v>1056</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>412</v>
+      <c r="AC20" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="AE20">
         <v>1</v>
       </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
       <c r="AG20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AH20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AI20">
         <v>1</v>
       </c>
       <c r="AK20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AL20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AM20">
         <v>1</v>
       </c>
       <c r="AS20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AT20" t="s">
         <v>164</v>
@@ -7599,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="AW20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AX20" t="s">
         <v>173</v>
@@ -7608,10 +7877,10 @@
         <v>1</v>
       </c>
       <c r="BI20" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="BJ20" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="BK20">
         <v>3</v>
@@ -7619,34 +7888,34 @@
       <c r="BL20">
         <v>3</v>
       </c>
-      <c r="BM20" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="BN20" s="2" t="s">
-        <v>651</v>
+      <c r="BM20" t="s">
+        <v>974</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>652</v>
       </c>
       <c r="BO20">
         <v>1</v>
       </c>
-      <c r="BP20">
-        <v>1</v>
-      </c>
       <c r="BQ20" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="BR20" t="s">
+        <v>708</v>
+      </c>
+      <c r="BS20">
+        <v>1</v>
+      </c>
+      <c r="BU20" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="BV20" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="BS20">
-        <v>1</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>893</v>
-      </c>
-      <c r="BV20" t="s">
-        <v>739</v>
-      </c>
       <c r="BW20">
+        <v>1</v>
+      </c>
+      <c r="BX20">
         <v>1</v>
       </c>
     </row>
@@ -7667,7 +7936,7 @@
         <v>135</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -7676,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>165</v>
@@ -7691,7 +7960,7 @@
         <v>332</v>
       </c>
       <c r="N21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -7700,13 +7969,13 @@
         <v>192</v>
       </c>
       <c r="R21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="V21" t="s">
         <v>218</v>
@@ -7726,35 +7995,38 @@
       <c r="AB21">
         <v>1</v>
       </c>
-      <c r="AC21" t="s">
-        <v>1057</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>413</v>
+      <c r="AC21" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="AE21">
         <v>1</v>
       </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
       <c r="AG21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AH21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AI21">
         <v>1</v>
       </c>
       <c r="AK21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AL21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AM21">
         <v>1</v>
       </c>
       <c r="AS21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AT21" t="s">
         <v>179</v>
@@ -7763,10 +8035,10 @@
         <v>1</v>
       </c>
       <c r="BI21" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="BJ21" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BK21">
         <v>3</v>
@@ -7774,23 +8046,20 @@
       <c r="BL21">
         <v>3</v>
       </c>
-      <c r="BM21" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="BN21" s="2" t="s">
-        <v>650</v>
+      <c r="BM21" t="s">
+        <v>964</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>652</v>
       </c>
       <c r="BO21">
         <v>1</v>
       </c>
-      <c r="BP21">
-        <v>1</v>
-      </c>
       <c r="BQ21" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="BR21" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="BS21">
         <v>1</v>
@@ -7798,13 +8067,16 @@
       <c r="BT21">
         <v>1</v>
       </c>
-      <c r="BU21" t="s">
-        <v>902</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>741</v>
+      <c r="BU21" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="BV21" s="2" t="s">
+        <v>710</v>
       </c>
       <c r="BW21">
+        <v>1</v>
+      </c>
+      <c r="BX21">
         <v>1</v>
       </c>
     </row>
@@ -7813,7 +8085,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -7821,8 +8093,8 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
-        <v>369</v>
+      <c r="E22" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="F22" t="s">
         <v>136</v>
@@ -7830,6 +8102,9 @@
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
       <c r="I22" t="s">
         <v>338</v>
       </c>
@@ -7840,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>179</v>
@@ -7852,7 +8127,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>173</v>
@@ -7864,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="U22" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="V22" t="s">
         <v>219</v>
@@ -7884,35 +8159,38 @@
       <c r="AB22">
         <v>1</v>
       </c>
-      <c r="AC22" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>414</v>
+      <c r="AC22" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="AE22">
         <v>1</v>
       </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
       <c r="AG22" t="s">
+        <v>504</v>
+      </c>
+      <c r="AH22" t="s">
         <v>505</v>
       </c>
-      <c r="AH22" t="s">
-        <v>506</v>
-      </c>
       <c r="AI22">
         <v>1</v>
       </c>
       <c r="AK22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AL22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AM22">
         <v>1</v>
       </c>
       <c r="AS22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AT22" t="s">
         <v>173</v>
@@ -7921,10 +8199,10 @@
         <v>1</v>
       </c>
       <c r="BI22" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="BJ22" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="BK22">
         <v>3</v>
@@ -7933,19 +8211,19 @@
         <v>2</v>
       </c>
       <c r="BM22" t="s">
-        <v>855</v>
+        <v>963</v>
       </c>
       <c r="BN22" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="BO22">
         <v>1</v>
       </c>
       <c r="BQ22" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="BR22" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="BS22">
         <v>1</v>
@@ -7953,13 +8231,16 @@
       <c r="BT22">
         <v>1</v>
       </c>
-      <c r="BU22" t="s">
-        <v>905</v>
-      </c>
-      <c r="BV22" t="s">
-        <v>742</v>
+      <c r="BU22" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="BV22" s="2" t="s">
+        <v>711</v>
       </c>
       <c r="BW22">
+        <v>1</v>
+      </c>
+      <c r="BX22">
         <v>1</v>
       </c>
     </row>
@@ -7983,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>178</v>
@@ -7995,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>177</v>
@@ -8007,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="V23" t="s">
         <v>220</v>
@@ -8028,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AD23" s="2" t="s">
         <v>177</v>
@@ -8040,19 +8321,19 @@
         <v>1</v>
       </c>
       <c r="AS23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AT23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AU23">
         <v>1</v>
       </c>
       <c r="BI23" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BJ23" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="BK23">
         <v>3</v>
@@ -8061,10 +8342,10 @@
         <v>2</v>
       </c>
       <c r="BM23" s="2" t="s">
-        <v>858</v>
+        <v>783</v>
       </c>
       <c r="BN23" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="BO23">
         <v>1</v>
@@ -8073,10 +8354,10 @@
         <v>1</v>
       </c>
       <c r="BQ23" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="BR23" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="BS23">
         <v>1</v>
@@ -8084,13 +8365,16 @@
       <c r="BT23">
         <v>1</v>
       </c>
-      <c r="BU23" t="s">
-        <v>908</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>743</v>
+      <c r="BU23" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="BV23" s="2" t="s">
+        <v>712</v>
       </c>
       <c r="BW23">
+        <v>1</v>
+      </c>
+      <c r="BX23">
         <v>1</v>
       </c>
     </row>
@@ -8111,13 +8395,13 @@
         <v>139</v>
       </c>
       <c r="F24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>180</v>
@@ -8129,10 +8413,10 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="R24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -8149,17 +8433,20 @@
       <c r="X24">
         <v>1</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y24" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Z24" s="2" t="s">
         <v>162</v>
       </c>
       <c r="AA24">
         <v>1</v>
       </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
       <c r="AC24" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AD24" s="2" t="s">
         <v>173</v>
@@ -8171,31 +8458,34 @@
         <v>1</v>
       </c>
       <c r="BI24" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="BJ24" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BK24">
         <v>3</v>
       </c>
-      <c r="BL24" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>861</v>
-      </c>
-      <c r="BN24" t="s">
-        <v>652</v>
+      <c r="BL24">
+        <v>2</v>
+      </c>
+      <c r="BM24" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="BN24" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="BO24">
         <v>1</v>
       </c>
+      <c r="BP24">
+        <v>1</v>
+      </c>
       <c r="BQ24" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="BR24" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BS24">
         <v>1</v>
@@ -8203,13 +8493,16 @@
       <c r="BT24">
         <v>1</v>
       </c>
-      <c r="BU24" t="s">
-        <v>916</v>
-      </c>
-      <c r="BV24" t="s">
-        <v>746</v>
+      <c r="BU24" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="BV24" s="2" t="s">
+        <v>714</v>
       </c>
       <c r="BW24">
+        <v>1</v>
+      </c>
+      <c r="BX24">
         <v>1</v>
       </c>
     </row>
@@ -8248,10 +8541,10 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="R25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -8277,20 +8570,23 @@
       <c r="AA25">
         <v>1</v>
       </c>
-      <c r="AC25" t="s">
-        <v>398</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>415</v>
+      <c r="AC25" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AE25">
         <v>1</v>
       </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
       <c r="BI25" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="BJ25" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BK25">
         <v>3</v>
@@ -8299,10 +8595,10 @@
         <v>1</v>
       </c>
       <c r="BM25" s="2" t="s">
-        <v>863</v>
+        <v>791</v>
       </c>
       <c r="BN25" s="2" t="s">
-        <v>649</v>
+        <v>781</v>
       </c>
       <c r="BO25">
         <v>1</v>
@@ -8311,10 +8607,10 @@
         <v>1</v>
       </c>
       <c r="BQ25" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="BR25" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="BS25">
         <v>1</v>
@@ -8322,24 +8618,30 @@
       <c r="BT25">
         <v>1</v>
       </c>
-      <c r="BU25" t="s">
-        <v>918</v>
-      </c>
-      <c r="BV25" t="s">
-        <v>747</v>
+      <c r="BU25" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="BV25" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="BW25">
+        <v>1</v>
+      </c>
+      <c r="BX25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
@@ -8355,16 +8657,16 @@
         <v>334</v>
       </c>
       <c r="N26" t="s">
+        <v>372</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1023</v>
+      </c>
+      <c r="R26" t="s">
         <v>373</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>1024</v>
-      </c>
-      <c r="R26" t="s">
-        <v>374</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -8391,10 +8693,10 @@
         <v>1</v>
       </c>
       <c r="BI26" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="BJ26" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="BK26">
         <v>3</v>
@@ -8402,20 +8704,23 @@
       <c r="BL26" s="4">
         <v>1</v>
       </c>
-      <c r="BM26" t="s">
-        <v>946</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>782</v>
+      <c r="BM26" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="BN26" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="BO26">
         <v>1</v>
       </c>
+      <c r="BP26">
+        <v>1</v>
+      </c>
       <c r="BQ26" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="BR26" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="BS26">
         <v>1</v>
@@ -8423,13 +8728,16 @@
       <c r="BT26">
         <v>1</v>
       </c>
-      <c r="BU26" t="s">
-        <v>926</v>
-      </c>
-      <c r="BV26" t="s">
-        <v>752</v>
+      <c r="BU26" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="BV26" s="2" t="s">
+        <v>716</v>
       </c>
       <c r="BW26">
+        <v>1</v>
+      </c>
+      <c r="BX26">
         <v>1</v>
       </c>
     </row>
@@ -8483,10 +8791,10 @@
         <v>1</v>
       </c>
       <c r="BI27" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="BJ27" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="BK27">
         <v>3</v>
@@ -8494,20 +8802,23 @@
       <c r="BL27" s="4">
         <v>1</v>
       </c>
-      <c r="BM27" t="s">
-        <v>947</v>
-      </c>
-      <c r="BN27" t="s">
-        <v>782</v>
+      <c r="BM27" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="BN27" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="BO27">
         <v>1</v>
       </c>
+      <c r="BP27">
+        <v>1</v>
+      </c>
       <c r="BQ27" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="BR27" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="BS27">
         <v>1</v>
@@ -8515,13 +8826,16 @@
       <c r="BT27">
         <v>1</v>
       </c>
-      <c r="BU27" t="s">
-        <v>927</v>
-      </c>
-      <c r="BV27" t="s">
-        <v>753</v>
+      <c r="BU27" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="BV27" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="BW27">
+        <v>1</v>
+      </c>
+      <c r="BX27">
         <v>1</v>
       </c>
     </row>
@@ -8530,7 +8844,7 @@
         <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -8572,10 +8886,10 @@
         <v>1</v>
       </c>
       <c r="BI28" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="BJ28" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="BK28">
         <v>3</v>
@@ -8583,20 +8897,23 @@
       <c r="BL28">
         <v>2</v>
       </c>
-      <c r="BM28" t="s">
-        <v>948</v>
-      </c>
-      <c r="BN28" t="s">
-        <v>782</v>
+      <c r="BM28" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="BN28" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="BO28">
         <v>1</v>
       </c>
+      <c r="BP28">
+        <v>1</v>
+      </c>
       <c r="BQ28" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="BR28" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="BS28">
         <v>1</v>
@@ -8604,13 +8921,16 @@
       <c r="BT28">
         <v>1</v>
       </c>
-      <c r="BU28" t="s">
-        <v>928</v>
-      </c>
-      <c r="BV28" t="s">
-        <v>754</v>
+      <c r="BU28" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="BV28" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="BW28">
+        <v>1</v>
+      </c>
+      <c r="BX28">
         <v>1</v>
       </c>
     </row>
@@ -8655,10 +8975,10 @@
         <v>1</v>
       </c>
       <c r="BI29" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="BJ29" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BK29">
         <v>3</v>
@@ -8666,20 +8986,23 @@
       <c r="BL29">
         <v>2</v>
       </c>
-      <c r="BM29" t="s">
-        <v>949</v>
-      </c>
-      <c r="BN29" t="s">
-        <v>782</v>
+      <c r="BM29" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="BN29" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="BO29">
         <v>1</v>
       </c>
+      <c r="BP29">
+        <v>1</v>
+      </c>
       <c r="BQ29" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="BR29" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="BS29">
         <v>1</v>
@@ -8688,10 +9011,10 @@
         <v>1</v>
       </c>
       <c r="BU29" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="BV29" t="s">
-        <v>755</v>
+        <v>821</v>
+      </c>
+      <c r="BV29" s="2" t="s">
+        <v>719</v>
       </c>
       <c r="BW29">
         <v>1</v>
@@ -8705,7 +9028,7 @@
         <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -8714,7 +9037,7 @@
         <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -8729,7 +9052,7 @@
         <v>1</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="Z30" s="2" t="s">
         <v>178</v>
@@ -8741,10 +9064,10 @@
         <v>1</v>
       </c>
       <c r="BI30" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="BJ30" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BK30">
         <v>3</v>
@@ -8752,20 +9075,23 @@
       <c r="BL30">
         <v>2</v>
       </c>
-      <c r="BM30" t="s">
-        <v>950</v>
-      </c>
-      <c r="BN30" t="s">
-        <v>782</v>
+      <c r="BM30" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="BN30" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="BO30">
         <v>1</v>
       </c>
+      <c r="BP30">
+        <v>1</v>
+      </c>
       <c r="BQ30" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="BR30" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="BS30">
         <v>1</v>
@@ -8773,13 +9099,16 @@
       <c r="BT30">
         <v>1</v>
       </c>
-      <c r="BU30" t="s">
-        <v>930</v>
-      </c>
-      <c r="BV30" t="s">
-        <v>756</v>
+      <c r="BU30" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="BV30" s="2" t="s">
+        <v>720</v>
       </c>
       <c r="BW30">
+        <v>1</v>
+      </c>
+      <c r="BX30">
         <v>1</v>
       </c>
     </row>
@@ -8803,7 +9132,7 @@
         <v>1</v>
       </c>
       <c r="U31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V31" t="s">
         <v>347</v>
@@ -8812,7 +9141,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="Z31" s="2" t="s">
         <v>238</v>
@@ -8824,10 +9153,10 @@
         <v>1</v>
       </c>
       <c r="BI31" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="BJ31" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="BK31">
         <v>3</v>
@@ -8836,10 +9165,10 @@
         <v>1</v>
       </c>
       <c r="BM31" s="2" t="s">
-        <v>921</v>
+        <v>814</v>
       </c>
       <c r="BN31" s="2" t="s">
-        <v>782</v>
+        <v>648</v>
       </c>
       <c r="BO31">
         <v>1</v>
@@ -8848,10 +9177,10 @@
         <v>1</v>
       </c>
       <c r="BQ31" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="BR31" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="BS31">
         <v>1</v>
@@ -8859,13 +9188,16 @@
       <c r="BT31">
         <v>1</v>
       </c>
-      <c r="BU31" t="s">
-        <v>931</v>
-      </c>
-      <c r="BV31" t="s">
-        <v>757</v>
+      <c r="BU31" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="BV31" s="2" t="s">
+        <v>721</v>
       </c>
       <c r="BW31">
+        <v>1</v>
+      </c>
+      <c r="BX31">
         <v>1</v>
       </c>
     </row>
@@ -8874,7 +9206,7 @@
         <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -8888,17 +9220,20 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U32" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="V32" t="s">
+      <c r="V32" s="2" t="s">
         <v>162</v>
       </c>
       <c r="W32">
         <v>1</v>
       </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
       <c r="Y32" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>179</v>
@@ -8910,19 +9245,19 @@
         <v>1</v>
       </c>
       <c r="BI32" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="BJ32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BK32">
         <v>3</v>
       </c>
       <c r="BM32" s="2" t="s">
-        <v>922</v>
+        <v>818</v>
       </c>
       <c r="BN32" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="BO32">
         <v>1</v>
@@ -8931,10 +9266,10 @@
         <v>1</v>
       </c>
       <c r="BQ32" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="BR32" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="BS32">
         <v>1</v>
@@ -8943,10 +9278,10 @@
         <v>1</v>
       </c>
       <c r="BU32" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>758</v>
+        <v>833</v>
+      </c>
+      <c r="BV32" s="2" t="s">
+        <v>722</v>
       </c>
       <c r="BW32">
         <v>1</v>
@@ -8966,7 +9301,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F33" t="s">
         <v>155</v>
@@ -8996,10 +9331,10 @@
         <v>1</v>
       </c>
       <c r="BI33" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="BJ33" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="BK33">
         <v>3</v>
@@ -9007,20 +9342,23 @@
       <c r="BL33">
         <v>2</v>
       </c>
-      <c r="BM33" t="s">
-        <v>923</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>651</v>
+      <c r="BM33" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="BN33" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="BO33">
         <v>1</v>
       </c>
+      <c r="BP33">
+        <v>1</v>
+      </c>
       <c r="BQ33" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="BR33" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="BS33">
         <v>1</v>
@@ -9028,13 +9366,16 @@
       <c r="BT33">
         <v>1</v>
       </c>
-      <c r="BU33" t="s">
-        <v>951</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>748</v>
+      <c r="BU33" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="BV33" s="2" t="s">
+        <v>723</v>
       </c>
       <c r="BW33">
+        <v>1</v>
+      </c>
+      <c r="BX33">
         <v>1</v>
       </c>
     </row>
@@ -9052,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="U34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V34" t="s">
         <v>225</v>
@@ -9070,10 +9411,10 @@
         <v>1</v>
       </c>
       <c r="BI34" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="BJ34" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="BK34">
         <v>3</v>
@@ -9081,20 +9422,23 @@
       <c r="BL34" s="4">
         <v>1</v>
       </c>
-      <c r="BM34" t="s">
-        <v>924</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>782</v>
+      <c r="BM34" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="BN34" s="2" t="s">
+        <v>649</v>
       </c>
       <c r="BO34">
         <v>1</v>
       </c>
+      <c r="BP34">
+        <v>1</v>
+      </c>
       <c r="BQ34" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="BR34" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="BS34">
         <v>1</v>
@@ -9102,13 +9446,16 @@
       <c r="BT34">
         <v>1</v>
       </c>
-      <c r="BU34" t="s">
-        <v>952</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>749</v>
+      <c r="BU34" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="BV34" s="2" t="s">
+        <v>724</v>
       </c>
       <c r="BW34">
+        <v>1</v>
+      </c>
+      <c r="BX34">
         <v>1</v>
       </c>
     </row>
@@ -9126,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="U35" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V35" t="s">
         <v>226</v>
@@ -9134,20 +9481,23 @@
       <c r="W35">
         <v>1</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Y35" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Z35" s="2" t="s">
         <v>169</v>
       </c>
       <c r="AA35">
         <v>1</v>
       </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
       <c r="BI35" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="BJ35" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="BK35">
         <v>3</v>
@@ -9155,20 +9505,23 @@
       <c r="BL35" s="4">
         <v>1</v>
       </c>
-      <c r="BM35" t="s">
-        <v>925</v>
-      </c>
-      <c r="BN35" t="s">
-        <v>782</v>
+      <c r="BM35" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="BN35" s="2" t="s">
+        <v>651</v>
       </c>
       <c r="BO35">
         <v>1</v>
       </c>
+      <c r="BP35">
+        <v>1</v>
+      </c>
       <c r="BQ35" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="BR35" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="BS35">
         <v>1</v>
@@ -9176,13 +9529,16 @@
       <c r="BT35">
         <v>1</v>
       </c>
-      <c r="BU35" t="s">
-        <v>953</v>
-      </c>
-      <c r="BV35" t="s">
-        <v>750</v>
+      <c r="BU35" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="BV35" s="2" t="s">
+        <v>725</v>
       </c>
       <c r="BW35">
+        <v>1</v>
+      </c>
+      <c r="BX35">
         <v>1</v>
       </c>
     </row>
@@ -9191,18 +9547,21 @@
         <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="U36" t="s">
+      <c r="U36" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V36" t="s">
+      <c r="V36" s="2" t="s">
         <v>188</v>
       </c>
       <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
         <v>1</v>
       </c>
       <c r="Y36" t="s">
@@ -9215,10 +9574,10 @@
         <v>1</v>
       </c>
       <c r="BI36" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="BJ36" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="BK36">
         <v>3</v>
@@ -9226,20 +9585,23 @@
       <c r="BL36" s="4">
         <v>1</v>
       </c>
-      <c r="BM36" t="s">
-        <v>964</v>
-      </c>
-      <c r="BN36" t="s">
-        <v>653</v>
+      <c r="BM36" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="BN36" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="BO36">
         <v>1</v>
       </c>
+      <c r="BP36">
+        <v>1</v>
+      </c>
       <c r="BQ36" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BR36" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="BS36">
         <v>1</v>
@@ -9247,13 +9609,16 @@
       <c r="BT36">
         <v>1</v>
       </c>
-      <c r="BU36" t="s">
-        <v>954</v>
-      </c>
-      <c r="BV36" t="s">
-        <v>751</v>
+      <c r="BU36" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="BV36" s="2" t="s">
+        <v>726</v>
       </c>
       <c r="BW36">
+        <v>1</v>
+      </c>
+      <c r="BX36">
         <v>1</v>
       </c>
     </row>
@@ -9262,25 +9627,28 @@
         <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="U37" t="s">
+      <c r="U37" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="V37" t="s">
-        <v>348</v>
+      <c r="V37" s="2" t="s">
+        <v>1073</v>
       </c>
       <c r="W37">
         <v>1</v>
       </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
       <c r="BI37" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="BJ37" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="BK37">
         <v>3</v>
@@ -9288,20 +9656,23 @@
       <c r="BL37">
         <v>3</v>
       </c>
-      <c r="BM37" t="s">
-        <v>965</v>
-      </c>
-      <c r="BN37" t="s">
-        <v>653</v>
+      <c r="BM37" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="BN37" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="BO37">
         <v>1</v>
       </c>
+      <c r="BP37">
+        <v>1</v>
+      </c>
       <c r="BQ37" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="BR37" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="BS37">
         <v>1</v>
@@ -9309,13 +9680,16 @@
       <c r="BT37">
         <v>1</v>
       </c>
-      <c r="BU37" t="s">
-        <v>979</v>
-      </c>
-      <c r="BV37" t="s">
-        <v>759</v>
+      <c r="BU37" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="BV37" s="2" t="s">
+        <v>727</v>
       </c>
       <c r="BW37">
+        <v>1</v>
+      </c>
+      <c r="BX37">
         <v>1</v>
       </c>
     </row>
@@ -9324,7 +9698,7 @@
         <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -9342,28 +9716,31 @@
         <v>1</v>
       </c>
       <c r="BI38" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="BJ38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="BK38">
         <v>3</v>
       </c>
-      <c r="BM38" t="s">
-        <v>966</v>
-      </c>
-      <c r="BN38" t="s">
-        <v>653</v>
+      <c r="BM38" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="BN38" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="BO38">
         <v>1</v>
       </c>
+      <c r="BP38">
+        <v>1</v>
+      </c>
       <c r="BQ38" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="BR38" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="BS38">
         <v>1</v>
@@ -9371,13 +9748,16 @@
       <c r="BT38">
         <v>1</v>
       </c>
-      <c r="BU38" t="s">
-        <v>982</v>
-      </c>
-      <c r="BV38" t="s">
-        <v>760</v>
+      <c r="BU38" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="BV38" s="2" t="s">
+        <v>728</v>
       </c>
       <c r="BW38">
+        <v>1</v>
+      </c>
+      <c r="BX38">
         <v>1</v>
       </c>
     </row>
@@ -9386,7 +9766,7 @@
         <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -9407,28 +9787,31 @@
         <v>1</v>
       </c>
       <c r="BI39" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="BJ39" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="BK39">
         <v>3</v>
       </c>
-      <c r="BM39" t="s">
-        <v>967</v>
-      </c>
-      <c r="BN39" t="s">
-        <v>653</v>
+      <c r="BM39" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="BN39" s="2" t="s">
+        <v>651</v>
       </c>
       <c r="BO39">
         <v>1</v>
       </c>
+      <c r="BP39">
+        <v>1</v>
+      </c>
       <c r="BQ39" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="BR39" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BS39">
         <v>1</v>
@@ -9436,13 +9819,16 @@
       <c r="BT39">
         <v>1</v>
       </c>
-      <c r="BU39" t="s">
-        <v>985</v>
-      </c>
-      <c r="BV39" t="s">
-        <v>761</v>
+      <c r="BU39" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="BV39" s="2" t="s">
+        <v>729</v>
       </c>
       <c r="BW39">
+        <v>1</v>
+      </c>
+      <c r="BX39">
         <v>1</v>
       </c>
     </row>
@@ -9469,10 +9855,10 @@
         <v>1</v>
       </c>
       <c r="BI40" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="BJ40" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="BK40">
         <v>3</v>
@@ -9480,34 +9866,40 @@
       <c r="BL40">
         <v>1</v>
       </c>
-      <c r="BM40" t="s">
-        <v>968</v>
-      </c>
-      <c r="BN40" t="s">
-        <v>653</v>
+      <c r="BM40" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="BN40" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="BO40">
         <v>1</v>
       </c>
+      <c r="BP40">
+        <v>1</v>
+      </c>
       <c r="BQ40" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="BR40" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="BS40">
+        <v>1</v>
+      </c>
+      <c r="BT40">
+        <v>1</v>
+      </c>
+      <c r="BU40" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="BR40" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="BS40">
-        <v>1</v>
-      </c>
-      <c r="BT40">
-        <v>1</v>
-      </c>
-      <c r="BU40" t="s">
-        <v>987</v>
-      </c>
-      <c r="BV40" t="s">
-        <v>762</v>
+      <c r="BV40" s="2" t="s">
+        <v>730</v>
       </c>
       <c r="BW40">
+        <v>1</v>
+      </c>
+      <c r="BX40">
         <v>1</v>
       </c>
     </row>
@@ -9525,7 +9917,7 @@
         <v>1</v>
       </c>
       <c r="U41" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V41" t="s">
         <v>209</v>
@@ -9534,28 +9926,31 @@
         <v>1</v>
       </c>
       <c r="BI41" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="BJ41" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="BK41">
         <v>3</v>
       </c>
-      <c r="BM41" t="s">
-        <v>969</v>
-      </c>
-      <c r="BN41" t="s">
-        <v>653</v>
+      <c r="BM41" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="BN41" s="2" t="s">
+        <v>649</v>
       </c>
       <c r="BO41">
         <v>1</v>
       </c>
+      <c r="BP41">
+        <v>1</v>
+      </c>
       <c r="BQ41" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="BR41" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="BS41">
         <v>1</v>
@@ -9563,13 +9958,16 @@
       <c r="BT41">
         <v>1</v>
       </c>
-      <c r="BU41" t="s">
-        <v>990</v>
-      </c>
-      <c r="BV41" t="s">
-        <v>763</v>
+      <c r="BU41" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="BV41" s="2" t="s">
+        <v>731</v>
       </c>
       <c r="BW41">
+        <v>1</v>
+      </c>
+      <c r="BX41">
         <v>1</v>
       </c>
     </row>
@@ -9584,7 +9982,7 @@
         <v>1</v>
       </c>
       <c r="U42" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="V42" t="s">
         <v>210</v>
@@ -9593,10 +9991,10 @@
         <v>1</v>
       </c>
       <c r="BI42" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="BJ42" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BK42">
         <v>3</v>
@@ -9604,20 +10002,23 @@
       <c r="BL42">
         <v>2</v>
       </c>
-      <c r="BM42" t="s">
-        <v>970</v>
-      </c>
-      <c r="BN42" t="s">
-        <v>653</v>
+      <c r="BM42" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="BN42" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="BO42">
         <v>1</v>
       </c>
+      <c r="BP42">
+        <v>1</v>
+      </c>
       <c r="BQ42" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="BR42" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="BS42">
         <v>1</v>
@@ -9625,13 +10026,16 @@
       <c r="BT42">
         <v>1</v>
       </c>
-      <c r="BU42" t="s">
-        <v>992</v>
-      </c>
-      <c r="BV42" t="s">
-        <v>764</v>
+      <c r="BU42" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="BV42" s="2" t="s">
+        <v>732</v>
       </c>
       <c r="BW42">
+        <v>1</v>
+      </c>
+      <c r="BX42">
         <v>1</v>
       </c>
     </row>
@@ -9646,7 +10050,7 @@
         <v>1</v>
       </c>
       <c r="U43" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="V43" t="s">
         <v>211</v>
@@ -9655,28 +10059,31 @@
         <v>1</v>
       </c>
       <c r="BI43" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="BJ43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="BK43">
         <v>3</v>
       </c>
-      <c r="BM43" t="s">
-        <v>971</v>
-      </c>
-      <c r="BN43" t="s">
-        <v>653</v>
+      <c r="BM43" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="BN43" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="BO43">
         <v>1</v>
       </c>
+      <c r="BP43">
+        <v>1</v>
+      </c>
       <c r="BQ43" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="BR43" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="BS43">
         <v>1</v>
@@ -9685,10 +10092,10 @@
         <v>1</v>
       </c>
       <c r="BU43" s="2" t="s">
-        <v>783</v>
+        <v>864</v>
       </c>
       <c r="BV43" s="2" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="BW43">
         <v>1</v>
@@ -9720,28 +10127,31 @@
         <v>1</v>
       </c>
       <c r="BI44" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="BJ44" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="BK44">
         <v>3</v>
       </c>
-      <c r="BM44" t="s">
-        <v>972</v>
-      </c>
-      <c r="BN44" t="s">
-        <v>653</v>
+      <c r="BM44" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="BN44" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="BO44">
         <v>1</v>
       </c>
+      <c r="BP44">
+        <v>1</v>
+      </c>
       <c r="BQ44" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="BR44" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="BS44">
         <v>1</v>
@@ -9750,10 +10160,10 @@
         <v>1</v>
       </c>
       <c r="BU44" s="2" t="s">
-        <v>787</v>
+        <v>883</v>
       </c>
       <c r="BV44" s="2" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="BW44">
         <v>1</v>
@@ -9763,13 +10173,16 @@
       </c>
     </row>
     <row r="45" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
         <v>1</v>
       </c>
       <c r="U45" t="s">
@@ -9782,28 +10195,31 @@
         <v>1</v>
       </c>
       <c r="BI45" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="BJ45" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="BK45">
         <v>3</v>
       </c>
-      <c r="BM45" t="s">
-        <v>973</v>
-      </c>
-      <c r="BN45" t="s">
-        <v>653</v>
+      <c r="BM45" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="BN45" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="BO45">
         <v>1</v>
       </c>
+      <c r="BP45">
+        <v>1</v>
+      </c>
       <c r="BQ45" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="BR45" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="BS45">
         <v>1</v>
@@ -9812,10 +10228,10 @@
         <v>1</v>
       </c>
       <c r="BU45" s="2" t="s">
-        <v>791</v>
+        <v>886</v>
       </c>
       <c r="BV45" s="2" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="BW45">
         <v>1</v>
@@ -9847,28 +10263,31 @@
         <v>1</v>
       </c>
       <c r="BI46" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="BJ46" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="BK46">
         <v>3</v>
       </c>
-      <c r="BM46" t="s">
-        <v>974</v>
-      </c>
-      <c r="BN46" t="s">
-        <v>653</v>
+      <c r="BM46" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="BN46" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="BO46">
         <v>1</v>
       </c>
+      <c r="BP46">
+        <v>1</v>
+      </c>
       <c r="BQ46" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="BR46" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="BS46">
         <v>1</v>
@@ -9877,10 +10296,10 @@
         <v>1</v>
       </c>
       <c r="BU46" s="2" t="s">
-        <v>795</v>
+        <v>889</v>
       </c>
       <c r="BV46" s="2" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="BW46">
         <v>1</v>
@@ -9900,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="U47" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V47" t="s">
         <v>212</v>
@@ -9909,28 +10328,31 @@
         <v>1</v>
       </c>
       <c r="BI47" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="BJ47" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="BK47">
         <v>3</v>
       </c>
-      <c r="BM47" t="s">
-        <v>975</v>
-      </c>
-      <c r="BN47" t="s">
-        <v>653</v>
+      <c r="BM47" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="BN47" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="BO47">
         <v>1</v>
       </c>
+      <c r="BP47">
+        <v>1</v>
+      </c>
       <c r="BQ47" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="BR47" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="BS47">
         <v>1</v>
@@ -9939,10 +10361,10 @@
         <v>1</v>
       </c>
       <c r="BU47" s="2" t="s">
-        <v>810</v>
+        <v>892</v>
       </c>
       <c r="BV47" s="2" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
       <c r="BW47">
         <v>1</v>
@@ -9962,7 +10384,7 @@
         <v>1</v>
       </c>
       <c r="U48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V48" t="s">
         <v>213</v>
@@ -9971,28 +10393,31 @@
         <v>1</v>
       </c>
       <c r="BI48" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="BJ48" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="BK48">
         <v>3</v>
       </c>
-      <c r="BM48" t="s">
-        <v>976</v>
-      </c>
-      <c r="BN48" t="s">
-        <v>653</v>
+      <c r="BM48" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="BN48" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="BO48">
         <v>1</v>
       </c>
+      <c r="BP48">
+        <v>1</v>
+      </c>
       <c r="BQ48" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="BR48" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="BS48">
         <v>1</v>
@@ -10001,10 +10426,10 @@
         <v>1</v>
       </c>
       <c r="BU48" s="2" t="s">
-        <v>814</v>
+        <v>895</v>
       </c>
       <c r="BV48" s="2" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="BW48">
         <v>1</v>
@@ -10023,29 +10448,32 @@
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="U49" t="s">
+      <c r="U49" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="V49" t="s">
+      <c r="V49" s="2" t="s">
         <v>189</v>
       </c>
       <c r="W49">
         <v>1</v>
       </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
       <c r="BI49" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="BJ49" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="BK49">
         <v>3</v>
       </c>
       <c r="BQ49" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="BR49" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="BS49">
         <v>1</v>
@@ -10054,10 +10482,10 @@
         <v>1</v>
       </c>
       <c r="BU49" s="2" t="s">
-        <v>818</v>
+        <v>897</v>
       </c>
       <c r="BV49" s="2" t="s">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c r="BW49">
         <v>1</v>
@@ -10067,13 +10495,16 @@
       </c>
     </row>
     <row r="50" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B50" t="s">
-        <v>383</v>
+      <c r="B50" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
         <v>1</v>
       </c>
       <c r="U50" t="s">
@@ -10086,19 +10517,19 @@
         <v>1</v>
       </c>
       <c r="BI50" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="BJ50" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="BK50">
         <v>3</v>
       </c>
       <c r="BQ50" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="BR50" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="BS50">
         <v>1</v>
@@ -10107,10 +10538,10 @@
         <v>1</v>
       </c>
       <c r="BU50" s="2" t="s">
-        <v>826</v>
+        <v>901</v>
       </c>
       <c r="BV50" s="2" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="BW50">
         <v>1</v>
@@ -10120,13 +10551,16 @@
       </c>
     </row>
     <row r="51" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B51" t="s">
-        <v>385</v>
-      </c>
       <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
         <v>1</v>
       </c>
       <c r="U51" t="s">
@@ -10139,19 +10573,19 @@
         <v>1</v>
       </c>
       <c r="BI51" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="BJ51" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="BK51">
         <v>3</v>
       </c>
       <c r="BQ51" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="BR51" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="BS51">
         <v>1</v>
@@ -10160,10 +10594,10 @@
         <v>1</v>
       </c>
       <c r="BU51" s="2" t="s">
-        <v>829</v>
+        <v>904</v>
       </c>
       <c r="BV51" s="2" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="BW51">
         <v>1</v>
@@ -10176,7 +10610,7 @@
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C52">
@@ -10186,19 +10620,19 @@
         <v>1</v>
       </c>
       <c r="BI52" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="BJ52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="BK52">
         <v>3</v>
       </c>
       <c r="BQ52" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="BR52" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="BS52">
         <v>1</v>
@@ -10207,10 +10641,10 @@
         <v>1</v>
       </c>
       <c r="BU52" s="2" t="s">
-        <v>850</v>
+        <v>907</v>
       </c>
       <c r="BV52" s="2" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="BW52">
         <v>1</v>
@@ -10230,19 +10664,19 @@
         <v>1</v>
       </c>
       <c r="BI53" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="BJ53" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="BK53">
         <v>3</v>
       </c>
       <c r="BQ53" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="BR53" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="BS53">
         <v>1</v>
@@ -10251,10 +10685,10 @@
         <v>1</v>
       </c>
       <c r="BU53" s="2" t="s">
-        <v>857</v>
+        <v>910</v>
       </c>
       <c r="BV53" s="2" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="BW53">
         <v>1</v>
@@ -10265,19 +10699,19 @@
     </row>
     <row r="54" spans="1:76" x14ac:dyDescent="0.25">
       <c r="BI54" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="BJ54" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="BK54">
         <v>3</v>
       </c>
       <c r="BQ54" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="BR54" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="BS54">
         <v>1</v>
@@ -10286,10 +10720,10 @@
         <v>1</v>
       </c>
       <c r="BU54" s="2" t="s">
-        <v>896</v>
+        <v>913</v>
       </c>
       <c r="BV54" s="2" t="s">
-        <v>710</v>
+        <v>744</v>
       </c>
       <c r="BW54">
         <v>1</v>
@@ -10300,19 +10734,19 @@
     </row>
     <row r="55" spans="1:76" x14ac:dyDescent="0.25">
       <c r="BI55" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="BJ55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="BK55">
         <v>3</v>
       </c>
       <c r="BQ55" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="BR55" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="BS55">
         <v>1</v>
@@ -10321,10 +10755,10 @@
         <v>1</v>
       </c>
       <c r="BU55" s="2" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="BV55" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BW55">
         <v>1</v>
@@ -10335,10 +10769,10 @@
     </row>
     <row r="56" spans="1:76" x14ac:dyDescent="0.25">
       <c r="BQ56" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="BR56" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="BS56">
         <v>1</v>
@@ -10347,10 +10781,10 @@
         <v>1</v>
       </c>
       <c r="BU56" s="2" t="s">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="BV56" s="2" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="BW56">
         <v>1</v>
@@ -10361,10 +10795,10 @@
     </row>
     <row r="57" spans="1:76" x14ac:dyDescent="0.25">
       <c r="BU57" s="2" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="BV57" s="2" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="BW57">
         <v>1</v>
@@ -10374,47 +10808,37 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AO2:AR15">
-    <sortCondition ref="AO2:AO15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BM2:BP48">
+    <sortCondition sortBy="cellColor" ref="BM2:BM48" dxfId="31"/>
+    <sortCondition ref="BM2:BM48"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="containsText" dxfId="9" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
-      <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
-      <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
-      <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" stopIfTrue="1" operator="containsText" text="SnowCicle">
-      <formula>NOT(ISERROR(SEARCH("SnowCicle",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="9" stopIfTrue="1" operator="containsText" text="Bubble">
+    <cfRule type="containsText" dxfId="13" priority="9" stopIfTrue="1" operator="containsText" text="Bubble">
       <formula>NOT(ISERROR(SEARCH("Bubble",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="12" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="containsText" dxfId="3" priority="16" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="12" priority="16" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="containsText" dxfId="2" priority="15" stopIfTrue="1" operator="containsText" text=" + ">
-      <formula>NOT(ISERROR(SEARCH(" + ",V1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576">
-    <cfRule type="containsText" dxfId="1" priority="14" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="11" priority="14" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",Z1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AD1048576">
-    <cfRule type="containsText" dxfId="0" priority="13" stopIfTrue="1" operator="containsText" text=" + ">
-      <formula>NOT(ISERROR(SEARCH(" + ",AD1)))</formula>
+  <conditionalFormatting sqref="A1:ZZ200">
+    <cfRule type="containsText" dxfId="10" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+      <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+      <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
+      <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="12" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+      <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10433,82 +10857,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
   </sheetData>

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chels\Documents\GitHub\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B561DE06-1050-4862-87E4-662607CBAB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5A2294-06B9-4090-ABAA-C84D5FC18FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1411">
   <si>
     <t>General Achievements</t>
   </si>
@@ -3767,6 +3767,510 @@
   </si>
   <si>
     <t>Increases chance of rare fish appearing</t>
+  </si>
+  <si>
+    <t>Citrusfin (Huge) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Citrusfin (Small) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Citrusfin (Standard) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Coastal Clamfish (Huge) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Coastal Clamfish (Small) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Coastal Clamfish (Standard) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Peppermint Tetra (Huge) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Peppermint Tetra (Small) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Peppermint Tetra (Standard) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Seaweed Skipper (Huge) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Seaweed Skipper (Small) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Seaweed Skipper (Standard) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Steamy Sunfish (Huge) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Steamy Sunfish (Small) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Steamy Sunfish (Standard) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Summer Sole (Huge) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Summer Sole (Small) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Summer Sole (Standard) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Tropical Sunfish (Huge) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Tropical Sunfish (Small) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Tropical Sunfish (Standard) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Bog Clamfish (Huge) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Bog Clamfish (Small) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Bog Clamfish (Standard) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Midnight Pike (Huge) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Midnight Pike (Small) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Midnight Pike (Standard) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Quagfish (Huge) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Quagfish (Small) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Quagfish (Standard) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Slimescale (Huge) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Slimescale (Small) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Slimescale (Standard) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Spirit Betta (Huge) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Spirit Betta (Small) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Spirit Betta (Standard) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Zebra Swampling (Huge) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Zebra Swampling (Small) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Zebra Swampling (Standard) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Amethyst Snipe (Huge) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Amethyst Snipe (Small) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Amethyst Snipe (Standard) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Briny Clamfish (Huge) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Briny Clamfish (Small) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Briny Clamfish (Standard) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Electric Tang (Huge) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Electric Tang (Small) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Electric Tang (Standard) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Galaxy Grouper (Huge) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Galaxy Grouper (Small) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Galaxy Grouper (Standard) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Kelpfin (Huge) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Kelpfin (Small) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Kelpfin (Standard) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Masked Wrassler (Huge) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Masked Wrassler (Small) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Masked Wrassler (Standard) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Opal Flutterfin (Huge) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Opal Flutterfin (Small) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Opal Flutterfin (Standard) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Royal Lance (Huge) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Royal Lance (Small) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Royal Lance (Standard) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Ruby Dreamscale (Huge) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Ruby Dreamscale (Small) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Ruby Dreamscale (Standard) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Sailing Charmfish (Huge) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Sailing Charmfish (Small) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Sailing Charmfish (Standard) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Sandy Puffer (Huge) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Sandy Puffer (Small) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Sandy Puffer (Standard) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Starry Snipe (Huge) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Starry Snipe (Small) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Starry Snipe (Standard) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Sunset Guppy (Huge) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Sunset Guppy (Small) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Sunset Guppy (Standard) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Banded Spelunker (Huge) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Banded Spelunker (Small) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Banded Spelunker (Standard) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Cavern Clamfish (Huge) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Cavern Clamfish (Small) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Cavern Clamfish (Standard) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Halfmoon Herring (Huge) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Halfmoon Herring (Small) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Halfmoon Herring (Standard) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Jeweled Goby (Huge) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Jeweled Goby (Small) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Jeweled Goby (Standard) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Mountain Gulper (Huge) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Mountain Gulper (Small) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Mountain Gulper (Standard) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Neon Longtail (Huge) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Neon Longtail (Small) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Neon Longtail (Standard) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Armored Bass (Huge) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Armored Bass (Small) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Armored Bass (Standard) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Bottlefish (Huge) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Bottlefish (Small) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Bottlefish (Standard) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Burning Perch (Huge) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Burning Perch (Small) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Burning Perch (Standard) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Flying Springtail (Huge) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Flying Springtail (Small) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Flying Springtail (Standard) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Golden Loach (Huge) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Golden Loach (Small) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Golden Loach (Standard) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Magma Clamfish (Huge) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Magma Clamfish (Small) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Magma Clamfish (Standard) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Shower Springtail (Huge) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Shower Springtail (Small) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Shower Springtail (Standard) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Blue Grin (Huge) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Blue Grin (Small) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Blue Grin (Standard) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Cherryfin (Huge) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Cherryfin (Small) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Cherryfin (Standard) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Floral Flyer (Huge) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Floral Flyer (Small) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Floral Flyer (Standard) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Geranium Gar (Huge) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Geranium Gar (Small) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Geranium Gar (Standard) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Half-Dipped Dace (Huge) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Half-Dipped Dace (Small) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Half-Dipped Dace (Standard) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Meadow Stripe (Huge) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Meadow Stripe (Small) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Meadow Stripe (Standard) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Petalscale (Huge) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Petalscale (Small) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Petalscale (Standard) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Crescent Minnow (Huge) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Crescent Minnow (Small) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Crescent Minnow (Standard) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Moonla (Huge) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Moonla (Small) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Moonla (Standard) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Nebula Peeper (Huge) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Nebula Peeper (Small) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Nebula Peeper (Standard) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Starlight Floater (Huge) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Starlight Floater (Small) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Starlight Floater (Standard) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Coral Scouter (Huge) (City Town)</t>
+  </si>
+  <si>
+    <t>Coral Scouter (Small) (City Town)</t>
+  </si>
+  <si>
+    <t>Coral Scouter (Standard) (City Town)</t>
+  </si>
+  <si>
+    <t>Marbled Mackeral (Huge) (City Town)</t>
+  </si>
+  <si>
+    <t>Marbled Mackeral (Small) (City Town)</t>
+  </si>
+  <si>
+    <t>Marbled Mackeral (Standard) (City Town)</t>
+  </si>
+  <si>
+    <t>Pastel Perch (Huge) (City Town)</t>
+  </si>
+  <si>
+    <t>Pastel Perch (Small) (City Town)</t>
+  </si>
+  <si>
+    <t>Pastel Perch (Standard) (City Town)</t>
+  </si>
+  <si>
+    <t>Shadow Spray (Huge) (City Town)</t>
+  </si>
+  <si>
+    <t>Shadow Spray (Small) (City Town)</t>
+  </si>
+  <si>
+    <t>Shadow Spray (Standard) (City Town)</t>
+  </si>
+  <si>
+    <t>Sunbarb (Huge) (City Town)</t>
+  </si>
+  <si>
+    <t>Sunbarb (Small) (City Town)</t>
+  </si>
+  <si>
+    <t>Sunbarb (Standard) (City Town)</t>
+  </si>
+  <si>
+    <t>Twilight Eye (Huge) (City Town)</t>
+  </si>
+  <si>
+    <t>Twilight Eye (Small) (City Town)</t>
+  </si>
+  <si>
+    <t>Twilight Eye (Standard) (City Town)</t>
   </si>
 </sst>
 </file>
@@ -3834,7 +4338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3843,440 +4347,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4389,107 +4464,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4825,58 +4804,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CF169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
-      <selection activeCell="CC13" sqref="CC13"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="CC8" sqref="CC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="13" max="13" width="41.7109375" customWidth="1"/>
-    <col min="14" max="14" width="38.140625" customWidth="1"/>
-    <col min="17" max="17" width="41.85546875" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" customWidth="1"/>
-    <col min="21" max="21" width="41.5703125" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
-    <col min="25" max="25" width="27.85546875" customWidth="1"/>
-    <col min="26" max="26" width="27.42578125" customWidth="1"/>
-    <col min="29" max="29" width="27.28515625" customWidth="1"/>
-    <col min="30" max="30" width="32.85546875" customWidth="1"/>
-    <col min="33" max="33" width="25.85546875" customWidth="1"/>
-    <col min="34" max="34" width="35.85546875" customWidth="1"/>
-    <col min="37" max="37" width="25.85546875" customWidth="1"/>
-    <col min="38" max="38" width="35.85546875" customWidth="1"/>
-    <col min="41" max="41" width="25.85546875" customWidth="1"/>
-    <col min="42" max="42" width="35.85546875" customWidth="1"/>
-    <col min="45" max="45" width="28.85546875" customWidth="1"/>
-    <col min="46" max="46" width="29.140625" customWidth="1"/>
-    <col min="49" max="49" width="34.5703125" customWidth="1"/>
-    <col min="50" max="50" width="33.42578125" customWidth="1"/>
-    <col min="53" max="53" width="34.5703125" customWidth="1"/>
-    <col min="54" max="54" width="33.42578125" customWidth="1"/>
-    <col min="57" max="57" width="24.7109375" customWidth="1"/>
-    <col min="58" max="58" width="32.5703125" customWidth="1"/>
-    <col min="61" max="61" width="35.85546875" customWidth="1"/>
-    <col min="62" max="62" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.109375" customWidth="1"/>
+    <col min="13" max="13" width="41.6640625" customWidth="1"/>
+    <col min="14" max="14" width="38.109375" customWidth="1"/>
+    <col min="17" max="17" width="41.88671875" customWidth="1"/>
+    <col min="18" max="18" width="25.109375" customWidth="1"/>
+    <col min="21" max="21" width="41.5546875" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" customWidth="1"/>
+    <col min="25" max="25" width="27.88671875" customWidth="1"/>
+    <col min="26" max="26" width="27.44140625" customWidth="1"/>
+    <col min="29" max="29" width="27.33203125" customWidth="1"/>
+    <col min="30" max="30" width="32.88671875" customWidth="1"/>
+    <col min="33" max="33" width="25.88671875" customWidth="1"/>
+    <col min="34" max="34" width="35.88671875" customWidth="1"/>
+    <col min="37" max="37" width="25.88671875" customWidth="1"/>
+    <col min="38" max="38" width="35.88671875" customWidth="1"/>
+    <col min="41" max="41" width="25.88671875" customWidth="1"/>
+    <col min="42" max="42" width="35.88671875" customWidth="1"/>
+    <col min="45" max="45" width="28.88671875" customWidth="1"/>
+    <col min="46" max="46" width="29.109375" customWidth="1"/>
+    <col min="49" max="49" width="34.5546875" customWidth="1"/>
+    <col min="50" max="50" width="33.44140625" customWidth="1"/>
+    <col min="53" max="53" width="34.5546875" customWidth="1"/>
+    <col min="54" max="54" width="33.44140625" customWidth="1"/>
+    <col min="57" max="57" width="24.6640625" customWidth="1"/>
+    <col min="58" max="58" width="32.5546875" customWidth="1"/>
+    <col min="61" max="61" width="35.88671875" customWidth="1"/>
+    <col min="62" max="62" width="28.109375" customWidth="1"/>
     <col min="63" max="63" width="9" customWidth="1"/>
-    <col min="65" max="65" width="32.28515625" customWidth="1"/>
-    <col min="66" max="66" width="32.5703125" customWidth="1"/>
-    <col min="69" max="69" width="36.42578125" customWidth="1"/>
-    <col min="70" max="70" width="32.5703125" customWidth="1"/>
+    <col min="65" max="65" width="32.33203125" customWidth="1"/>
+    <col min="66" max="66" width="32.5546875" customWidth="1"/>
+    <col min="69" max="69" width="36.44140625" customWidth="1"/>
+    <col min="70" max="70" width="32.5546875" customWidth="1"/>
     <col min="73" max="73" width="41" customWidth="1"/>
-    <col min="74" max="74" width="32.5703125" customWidth="1"/>
-    <col min="77" max="77" width="24.7109375" customWidth="1"/>
-    <col min="78" max="78" width="36.5703125" customWidth="1"/>
-    <col min="81" max="81" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="29.85546875" customWidth="1"/>
+    <col min="74" max="74" width="32.5546875" customWidth="1"/>
+    <col min="77" max="77" width="24.6640625" customWidth="1"/>
+    <col min="78" max="78" width="36.5546875" customWidth="1"/>
+    <col min="81" max="81" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5130,7 +5109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5344,17 +5323,17 @@
       <c r="CB2">
         <v>1</v>
       </c>
-      <c r="CC2" s="6" t="s">
-        <v>1201</v>
-      </c>
-      <c r="CD2" s="6" t="s">
-        <v>707</v>
+      <c r="CC2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>720</v>
       </c>
       <c r="CE2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5571,17 +5550,17 @@
       <c r="CB3">
         <v>1</v>
       </c>
-      <c r="CC3" s="6" t="s">
-        <v>1145</v>
-      </c>
-      <c r="CD3" s="6" t="s">
-        <v>707</v>
+      <c r="CC3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>720</v>
       </c>
       <c r="CE3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5792,17 +5771,17 @@
       <c r="CB4">
         <v>1</v>
       </c>
-      <c r="CC4" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="CD4" s="6" t="s">
-        <v>707</v>
+      <c r="CC4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>720</v>
       </c>
       <c r="CE4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6016,17 +5995,17 @@
       <c r="CB5">
         <v>1</v>
       </c>
-      <c r="CC5" s="6" t="s">
-        <v>1202</v>
-      </c>
-      <c r="CD5" s="6" t="s">
-        <v>708</v>
+      <c r="CC5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>738</v>
       </c>
       <c r="CE5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6237,17 +6216,17 @@
       <c r="CB6">
         <v>1</v>
       </c>
-      <c r="CC6" s="6" t="s">
-        <v>1146</v>
-      </c>
-      <c r="CD6" s="6" t="s">
-        <v>708</v>
+      <c r="CC6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>738</v>
       </c>
       <c r="CE6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -6458,17 +6437,17 @@
       <c r="CB7">
         <v>1</v>
       </c>
-      <c r="CC7" s="6" t="s">
-        <v>1090</v>
-      </c>
-      <c r="CD7" s="6" t="s">
-        <v>708</v>
+      <c r="CC7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>738</v>
       </c>
       <c r="CE7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -6673,17 +6652,17 @@
       <c r="CA8">
         <v>1</v>
       </c>
-      <c r="CC8" s="6" t="s">
-        <v>1203</v>
-      </c>
-      <c r="CD8" s="6" t="s">
-        <v>709</v>
+      <c r="CC8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>733</v>
       </c>
       <c r="CE8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -6870,17 +6849,17 @@
       <c r="CA9">
         <v>1</v>
       </c>
-      <c r="CC9" s="6" t="s">
-        <v>1147</v>
-      </c>
-      <c r="CD9" s="6" t="s">
-        <v>709</v>
+      <c r="CC9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>733</v>
       </c>
       <c r="CE9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -7067,17 +7046,17 @@
       <c r="BW10">
         <v>1</v>
       </c>
-      <c r="CC10" s="6" t="s">
-        <v>1091</v>
-      </c>
-      <c r="CD10" s="6" t="s">
-        <v>709</v>
+      <c r="CC10" t="s">
+        <v>1323</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>733</v>
       </c>
       <c r="CE10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -7264,17 +7243,17 @@
       <c r="BW11">
         <v>1</v>
       </c>
-      <c r="CC11" s="6" t="s">
-        <v>1204</v>
-      </c>
-      <c r="CD11" s="6" t="s">
-        <v>710</v>
+      <c r="CC11" t="s">
+        <v>1360</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>749</v>
       </c>
       <c r="CE11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -7455,17 +7434,17 @@
       <c r="BW12">
         <v>1</v>
       </c>
-      <c r="CC12" s="6" t="s">
-        <v>1148</v>
-      </c>
-      <c r="CD12" s="6" t="s">
-        <v>710</v>
+      <c r="CC12" t="s">
+        <v>1361</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>749</v>
       </c>
       <c r="CE12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -7649,17 +7628,17 @@
       <c r="BW13">
         <v>1</v>
       </c>
-      <c r="CC13" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="CD13" s="6" t="s">
-        <v>710</v>
+      <c r="CC13" t="s">
+        <v>1362</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>749</v>
       </c>
       <c r="CE13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -7844,16 +7823,16 @@
         <v>1</v>
       </c>
       <c r="CC14" t="s">
-        <v>1183</v>
+        <v>1264</v>
       </c>
       <c r="CD14" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="CE14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -8032,16 +8011,16 @@
         <v>1</v>
       </c>
       <c r="CC15" t="s">
-        <v>1127</v>
+        <v>1265</v>
       </c>
       <c r="CD15" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="CE15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -8217,16 +8196,16 @@
         <v>1</v>
       </c>
       <c r="CC16" t="s">
-        <v>1071</v>
+        <v>1266</v>
       </c>
       <c r="CD16" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="CE16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -8395,17 +8374,17 @@
       <c r="BW17">
         <v>1</v>
       </c>
-      <c r="CC17" s="6" t="s">
-        <v>1205</v>
-      </c>
-      <c r="CD17" s="6" t="s">
-        <v>712</v>
+      <c r="CC17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>739</v>
       </c>
       <c r="CE17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -8574,17 +8553,17 @@
       <c r="BW18">
         <v>1</v>
       </c>
-      <c r="CC18" s="6" t="s">
-        <v>1149</v>
-      </c>
-      <c r="CD18" s="6" t="s">
-        <v>712</v>
+      <c r="CC18" t="s">
+        <v>1343</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>739</v>
       </c>
       <c r="CE18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -8747,17 +8726,17 @@
       <c r="BW19">
         <v>1</v>
       </c>
-      <c r="CC19" s="6" t="s">
-        <v>1093</v>
-      </c>
-      <c r="CD19" s="6" t="s">
-        <v>712</v>
+      <c r="CC19" t="s">
+        <v>1344</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>739</v>
       </c>
       <c r="CE19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -8923,17 +8902,17 @@
       <c r="BX20">
         <v>1</v>
       </c>
-      <c r="CC20" s="6" t="s">
-        <v>1206</v>
-      </c>
-      <c r="CD20" s="6" t="s">
-        <v>713</v>
+      <c r="CC20" t="s">
+        <v>1285</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>721</v>
       </c>
       <c r="CE20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -9093,17 +9072,17 @@
       <c r="BX21">
         <v>1</v>
       </c>
-      <c r="CC21" s="6" t="s">
-        <v>1150</v>
-      </c>
-      <c r="CD21" s="6" t="s">
-        <v>713</v>
+      <c r="CC21" t="s">
+        <v>1286</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>721</v>
       </c>
       <c r="CE21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -9266,17 +9245,17 @@
       <c r="BX22">
         <v>1</v>
       </c>
-      <c r="CC22" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="CD22" s="6" t="s">
-        <v>713</v>
+      <c r="CC22" t="s">
+        <v>1287</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>721</v>
       </c>
       <c r="CE22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -9409,17 +9388,17 @@
       <c r="BX23">
         <v>1</v>
       </c>
-      <c r="CC23" s="6" t="s">
-        <v>1207</v>
-      </c>
-      <c r="CD23" s="6" t="s">
-        <v>714</v>
+      <c r="CC23" t="s">
+        <v>1345</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>740</v>
       </c>
       <c r="CE23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -9546,17 +9525,17 @@
       <c r="BX24">
         <v>1</v>
       </c>
-      <c r="CC24" s="6" t="s">
-        <v>1151</v>
-      </c>
-      <c r="CD24" s="6" t="s">
-        <v>714</v>
+      <c r="CC24" t="s">
+        <v>1346</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>740</v>
       </c>
       <c r="CE24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -9680,17 +9659,17 @@
       <c r="BX25">
         <v>1</v>
       </c>
-      <c r="CC25" s="6" t="s">
-        <v>1095</v>
-      </c>
-      <c r="CD25" s="6" t="s">
-        <v>714</v>
+      <c r="CC25" t="s">
+        <v>1347</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>740</v>
       </c>
       <c r="CE25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -9799,17 +9778,17 @@
       <c r="BX26">
         <v>1</v>
       </c>
-      <c r="CC26" s="6" t="s">
-        <v>1208</v>
-      </c>
-      <c r="CD26" s="6" t="s">
-        <v>715</v>
+      <c r="CC26" t="s">
+        <v>1324</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>734</v>
       </c>
       <c r="CE26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -9906,17 +9885,17 @@
       <c r="BX27">
         <v>1</v>
       </c>
-      <c r="CC27" s="6" t="s">
-        <v>1152</v>
-      </c>
-      <c r="CD27" s="6" t="s">
-        <v>715</v>
+      <c r="CC27" t="s">
+        <v>1325</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>734</v>
       </c>
       <c r="CE27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -10010,17 +9989,17 @@
       <c r="BX28">
         <v>1</v>
       </c>
-      <c r="CC28" s="6" t="s">
-        <v>1096</v>
-      </c>
-      <c r="CD28" s="6" t="s">
-        <v>715</v>
+      <c r="CC28" t="s">
+        <v>1326</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>734</v>
       </c>
       <c r="CE28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -10108,17 +10087,17 @@
       <c r="BX29">
         <v>1</v>
       </c>
-      <c r="CC29" s="6" t="s">
-        <v>1209</v>
-      </c>
-      <c r="CD29" s="6" t="s">
-        <v>716</v>
+      <c r="CC29" t="s">
+        <v>1363</v>
+      </c>
+      <c r="CD29" t="s">
+        <v>750</v>
       </c>
       <c r="CE29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -10206,17 +10185,17 @@
       <c r="BX30">
         <v>1</v>
       </c>
-      <c r="CC30" s="6" t="s">
-        <v>1153</v>
-      </c>
-      <c r="CD30" s="6" t="s">
-        <v>716</v>
+      <c r="CC30" t="s">
+        <v>1364</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>750</v>
       </c>
       <c r="CE30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -10304,17 +10283,17 @@
       <c r="BX31">
         <v>1</v>
       </c>
-      <c r="CC31" s="6" t="s">
-        <v>1097</v>
-      </c>
-      <c r="CD31" s="6" t="s">
-        <v>716</v>
+      <c r="CC31" t="s">
+        <v>1365</v>
+      </c>
+      <c r="CD31" t="s">
+        <v>750</v>
       </c>
       <c r="CE31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -10402,17 +10381,17 @@
       <c r="BX32">
         <v>1</v>
       </c>
-      <c r="CC32" s="6" t="s">
-        <v>1210</v>
-      </c>
-      <c r="CD32" s="6" t="s">
-        <v>717</v>
+      <c r="CC32" t="s">
+        <v>1243</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>707</v>
       </c>
       <c r="CE32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -10500,17 +10479,17 @@
       <c r="BX33">
         <v>1</v>
       </c>
-      <c r="CC33" s="6" t="s">
-        <v>1154</v>
-      </c>
-      <c r="CD33" s="6" t="s">
-        <v>717</v>
+      <c r="CC33" t="s">
+        <v>1244</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>707</v>
       </c>
       <c r="CE33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -10589,17 +10568,17 @@
       <c r="BX34">
         <v>1</v>
       </c>
-      <c r="CC34" s="6" t="s">
-        <v>1098</v>
-      </c>
-      <c r="CD34" s="6" t="s">
-        <v>717</v>
+      <c r="CC34" t="s">
+        <v>1245</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>707</v>
       </c>
       <c r="CE34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -10681,17 +10660,17 @@
       <c r="BX35">
         <v>1</v>
       </c>
-      <c r="CC35" s="6" t="s">
-        <v>1211</v>
-      </c>
-      <c r="CD35" s="6" t="s">
-        <v>718</v>
+      <c r="CC35" t="s">
+        <v>1246</v>
+      </c>
+      <c r="CD35" t="s">
+        <v>708</v>
       </c>
       <c r="CE35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -10770,17 +10749,17 @@
       <c r="BX36">
         <v>1</v>
       </c>
-      <c r="CC36" s="6" t="s">
-        <v>1155</v>
-      </c>
-      <c r="CD36" s="6" t="s">
-        <v>718</v>
+      <c r="CC36" t="s">
+        <v>1247</v>
+      </c>
+      <c r="CD36" t="s">
+        <v>708</v>
       </c>
       <c r="CE36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -10850,17 +10829,17 @@
       <c r="BX37">
         <v>1</v>
       </c>
-      <c r="CC37" s="6" t="s">
-        <v>1099</v>
-      </c>
-      <c r="CD37" s="6" t="s">
-        <v>718</v>
+      <c r="CC37" t="s">
+        <v>1248</v>
+      </c>
+      <c r="CD37" t="s">
+        <v>708</v>
       </c>
       <c r="CE37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
@@ -10927,17 +10906,17 @@
       <c r="BX38">
         <v>1</v>
       </c>
-      <c r="CC38" s="6" t="s">
-        <v>1212</v>
-      </c>
-      <c r="CD38" s="6" t="s">
-        <v>719</v>
+      <c r="CC38" t="s">
+        <v>1393</v>
+      </c>
+      <c r="CD38" t="s">
+        <v>756</v>
       </c>
       <c r="CE38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -11007,17 +10986,17 @@
       <c r="BX39">
         <v>1</v>
       </c>
-      <c r="CC39" s="6" t="s">
-        <v>1156</v>
-      </c>
-      <c r="CD39" s="6" t="s">
-        <v>719</v>
+      <c r="CC39" t="s">
+        <v>1394</v>
+      </c>
+      <c r="CD39" t="s">
+        <v>756</v>
       </c>
       <c r="CE39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -11087,17 +11066,17 @@
       <c r="BX40">
         <v>1</v>
       </c>
-      <c r="CC40" s="6" t="s">
-        <v>1100</v>
-      </c>
-      <c r="CD40" s="6" t="s">
-        <v>719</v>
+      <c r="CC40" t="s">
+        <v>1395</v>
+      </c>
+      <c r="CD40" t="s">
+        <v>756</v>
       </c>
       <c r="CE40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>73</v>
       </c>
@@ -11164,17 +11143,17 @@
       <c r="BX41">
         <v>1</v>
       </c>
-      <c r="CC41" s="6" t="s">
-        <v>1213</v>
-      </c>
-      <c r="CD41" s="6" t="s">
-        <v>720</v>
+      <c r="CC41" t="s">
+        <v>1381</v>
+      </c>
+      <c r="CD41" t="s">
+        <v>745</v>
       </c>
       <c r="CE41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -11241,17 +11220,17 @@
       <c r="BX42">
         <v>1</v>
       </c>
-      <c r="CC42" s="6" t="s">
-        <v>1157</v>
-      </c>
-      <c r="CD42" s="6" t="s">
-        <v>720</v>
+      <c r="CC42" t="s">
+        <v>1382</v>
+      </c>
+      <c r="CD42" t="s">
+        <v>745</v>
       </c>
       <c r="CE42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -11315,17 +11294,17 @@
       <c r="BX43">
         <v>1</v>
       </c>
-      <c r="CC43" s="6" t="s">
-        <v>1101</v>
-      </c>
-      <c r="CD43" s="6" t="s">
-        <v>720</v>
+      <c r="CC43" t="s">
+        <v>1383</v>
+      </c>
+      <c r="CD43" t="s">
+        <v>745</v>
       </c>
       <c r="CE43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -11392,17 +11371,17 @@
       <c r="BX44">
         <v>1</v>
       </c>
-      <c r="CC44" s="6" t="s">
-        <v>1214</v>
-      </c>
-      <c r="CD44" s="6" t="s">
-        <v>721</v>
+      <c r="CC44" t="s">
+        <v>1288</v>
+      </c>
+      <c r="CD44" t="s">
+        <v>722</v>
       </c>
       <c r="CE44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
@@ -11469,17 +11448,17 @@
       <c r="BX45">
         <v>1</v>
       </c>
-      <c r="CC45" s="6" t="s">
-        <v>1158</v>
-      </c>
-      <c r="CD45" s="6" t="s">
-        <v>721</v>
+      <c r="CC45" t="s">
+        <v>1289</v>
+      </c>
+      <c r="CD45" t="s">
+        <v>722</v>
       </c>
       <c r="CE45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -11546,17 +11525,17 @@
       <c r="BX46">
         <v>1</v>
       </c>
-      <c r="CC46" s="6" t="s">
-        <v>1102</v>
-      </c>
-      <c r="CD46" s="6" t="s">
-        <v>721</v>
+      <c r="CC46" t="s">
+        <v>1290</v>
+      </c>
+      <c r="CD46" t="s">
+        <v>722</v>
       </c>
       <c r="CE46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -11620,17 +11599,17 @@
       <c r="BX47">
         <v>1</v>
       </c>
-      <c r="CC47" s="6" t="s">
-        <v>1215</v>
-      </c>
-      <c r="CD47" s="6" t="s">
-        <v>722</v>
+      <c r="CC47" t="s">
+        <v>1366</v>
+      </c>
+      <c r="CD47" t="s">
+        <v>751</v>
       </c>
       <c r="CE47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -11694,17 +11673,17 @@
       <c r="BX48">
         <v>1</v>
       </c>
-      <c r="CC48" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="CD48" s="6" t="s">
-        <v>722</v>
+      <c r="CC48" t="s">
+        <v>1367</v>
+      </c>
+      <c r="CD48" t="s">
+        <v>751</v>
       </c>
       <c r="CE48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -11759,17 +11738,17 @@
       <c r="BX49">
         <v>1</v>
       </c>
-      <c r="CC49" s="6" t="s">
-        <v>1103</v>
-      </c>
-      <c r="CD49" s="6" t="s">
-        <v>722</v>
+      <c r="CC49" t="s">
+        <v>1368</v>
+      </c>
+      <c r="CD49" t="s">
+        <v>751</v>
       </c>
       <c r="CE49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>91</v>
       </c>
@@ -11824,17 +11803,17 @@
       <c r="BX50">
         <v>1</v>
       </c>
-      <c r="CC50" s="6" t="s">
-        <v>1216</v>
-      </c>
-      <c r="CD50" s="6" t="s">
-        <v>723</v>
+      <c r="CC50" t="s">
+        <v>1348</v>
+      </c>
+      <c r="CD50" t="s">
+        <v>741</v>
       </c>
       <c r="CE50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>381</v>
       </c>
@@ -11889,17 +11868,17 @@
       <c r="BX51">
         <v>1</v>
       </c>
-      <c r="CC51" s="6" t="s">
-        <v>1160</v>
-      </c>
-      <c r="CD51" s="6" t="s">
-        <v>723</v>
+      <c r="CC51" t="s">
+        <v>1349</v>
+      </c>
+      <c r="CD51" t="s">
+        <v>741</v>
       </c>
       <c r="CE51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -11945,17 +11924,17 @@
       <c r="BX52">
         <v>1</v>
       </c>
-      <c r="CC52" s="6" t="s">
-        <v>1104</v>
-      </c>
-      <c r="CD52" s="6" t="s">
-        <v>723</v>
+      <c r="CC52" t="s">
+        <v>1350</v>
+      </c>
+      <c r="CD52" t="s">
+        <v>741</v>
       </c>
       <c r="CE52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -11998,17 +11977,17 @@
       <c r="BX53">
         <v>1</v>
       </c>
-      <c r="CC53" s="6" t="s">
-        <v>1217</v>
-      </c>
-      <c r="CD53" s="6" t="s">
-        <v>724</v>
+      <c r="CC53" t="s">
+        <v>1291</v>
+      </c>
+      <c r="CD53" t="s">
+        <v>723</v>
       </c>
       <c r="CE53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:83" x14ac:dyDescent="0.3">
       <c r="BI54" t="s">
         <v>983</v>
       </c>
@@ -12042,17 +12021,17 @@
       <c r="BX54">
         <v>1</v>
       </c>
-      <c r="CC54" s="6" t="s">
-        <v>1161</v>
-      </c>
-      <c r="CD54" s="6" t="s">
-        <v>724</v>
+      <c r="CC54" t="s">
+        <v>1292</v>
+      </c>
+      <c r="CD54" t="s">
+        <v>723</v>
       </c>
       <c r="CE54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:83" x14ac:dyDescent="0.3">
       <c r="BI55" t="s">
         <v>986</v>
       </c>
@@ -12086,17 +12065,17 @@
       <c r="BX55">
         <v>1</v>
       </c>
-      <c r="CC55" s="6" t="s">
-        <v>1105</v>
-      </c>
-      <c r="CD55" s="6" t="s">
-        <v>724</v>
+      <c r="CC55" t="s">
+        <v>1293</v>
+      </c>
+      <c r="CD55" t="s">
+        <v>723</v>
       </c>
       <c r="CE55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:83" x14ac:dyDescent="0.3">
       <c r="BQ56" s="2" t="s">
         <v>917</v>
       </c>
@@ -12121,17 +12100,17 @@
       <c r="BX56">
         <v>1</v>
       </c>
-      <c r="CC56" s="6" t="s">
-        <v>1218</v>
-      </c>
-      <c r="CD56" s="6" t="s">
-        <v>725</v>
+      <c r="CC56" t="s">
+        <v>1369</v>
+      </c>
+      <c r="CD56" t="s">
+        <v>752</v>
       </c>
       <c r="CE56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:83" x14ac:dyDescent="0.3">
       <c r="BU57" s="2" t="s">
         <v>929</v>
       </c>
@@ -12144,1335 +12123,1286 @@
       <c r="BX57">
         <v>1</v>
       </c>
-      <c r="CC57" s="6" t="s">
-        <v>1162</v>
-      </c>
-      <c r="CD57" s="6" t="s">
+      <c r="CC57" t="s">
+        <v>1370</v>
+      </c>
+      <c r="CD57" t="s">
+        <v>752</v>
+      </c>
+      <c r="CE57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CC58" t="s">
+        <v>1371</v>
+      </c>
+      <c r="CD58" t="s">
+        <v>752</v>
+      </c>
+      <c r="CE58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CC59" t="s">
+        <v>1351</v>
+      </c>
+      <c r="CD59" t="s">
+        <v>742</v>
+      </c>
+      <c r="CE59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CC60" t="s">
+        <v>1352</v>
+      </c>
+      <c r="CD60" t="s">
+        <v>742</v>
+      </c>
+      <c r="CE60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CC61" t="s">
+        <v>1353</v>
+      </c>
+      <c r="CD61" t="s">
+        <v>742</v>
+      </c>
+      <c r="CE61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CC62" t="s">
+        <v>1372</v>
+      </c>
+      <c r="CD62" t="s">
+        <v>753</v>
+      </c>
+      <c r="CE62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CC63" t="s">
+        <v>1373</v>
+      </c>
+      <c r="CD63" t="s">
+        <v>753</v>
+      </c>
+      <c r="CE63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CC64" t="s">
+        <v>1374</v>
+      </c>
+      <c r="CD64" t="s">
+        <v>753</v>
+      </c>
+      <c r="CE64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC65" t="s">
+        <v>1327</v>
+      </c>
+      <c r="CD65" t="s">
+        <v>735</v>
+      </c>
+      <c r="CE65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC66" t="s">
+        <v>1328</v>
+      </c>
+      <c r="CD66" t="s">
+        <v>735</v>
+      </c>
+      <c r="CE66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC67" t="s">
+        <v>1329</v>
+      </c>
+      <c r="CD67" t="s">
+        <v>735</v>
+      </c>
+      <c r="CE67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC68" t="s">
+        <v>1330</v>
+      </c>
+      <c r="CD68" t="s">
+        <v>736</v>
+      </c>
+      <c r="CE68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC69" t="s">
+        <v>1331</v>
+      </c>
+      <c r="CD69" t="s">
+        <v>736</v>
+      </c>
+      <c r="CE69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC70" t="s">
+        <v>1332</v>
+      </c>
+      <c r="CD70" t="s">
+        <v>736</v>
+      </c>
+      <c r="CE70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC71" t="s">
+        <v>1294</v>
+      </c>
+      <c r="CD71" t="s">
+        <v>724</v>
+      </c>
+      <c r="CE71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC72" t="s">
+        <v>1295</v>
+      </c>
+      <c r="CD72" t="s">
+        <v>724</v>
+      </c>
+      <c r="CE72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC73" t="s">
+        <v>1296</v>
+      </c>
+      <c r="CD73" t="s">
+        <v>724</v>
+      </c>
+      <c r="CE73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC74" t="s">
+        <v>1354</v>
+      </c>
+      <c r="CD74" t="s">
+        <v>743</v>
+      </c>
+      <c r="CE74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC75" t="s">
+        <v>1355</v>
+      </c>
+      <c r="CD75" t="s">
+        <v>743</v>
+      </c>
+      <c r="CE75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC76" t="s">
+        <v>1356</v>
+      </c>
+      <c r="CD76" t="s">
+        <v>743</v>
+      </c>
+      <c r="CE76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC77" t="s">
+        <v>1396</v>
+      </c>
+      <c r="CD77" t="s">
+        <v>757</v>
+      </c>
+      <c r="CE77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC78" t="s">
+        <v>1397</v>
+      </c>
+      <c r="CD78" t="s">
+        <v>757</v>
+      </c>
+      <c r="CE78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC79" t="s">
+        <v>1398</v>
+      </c>
+      <c r="CD79" t="s">
+        <v>757</v>
+      </c>
+      <c r="CE79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC80" t="s">
+        <v>1297</v>
+      </c>
+      <c r="CD80" t="s">
         <v>725</v>
       </c>
-      <c r="CE57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="CC58" s="6" t="s">
-        <v>1106</v>
-      </c>
-      <c r="CD58" s="6" t="s">
+      <c r="CE80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC81" t="s">
+        <v>1298</v>
+      </c>
+      <c r="CD81" t="s">
         <v>725</v>
       </c>
-      <c r="CE58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="CC59" s="6" t="s">
-        <v>1219</v>
-      </c>
-      <c r="CD59" s="6" t="s">
+      <c r="CE81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC82" t="s">
+        <v>1299</v>
+      </c>
+      <c r="CD82" t="s">
+        <v>725</v>
+      </c>
+      <c r="CE82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC83" t="s">
+        <v>1375</v>
+      </c>
+      <c r="CD83" t="s">
+        <v>754</v>
+      </c>
+      <c r="CE83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC84" t="s">
+        <v>1376</v>
+      </c>
+      <c r="CD84" t="s">
+        <v>754</v>
+      </c>
+      <c r="CE84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC85" t="s">
+        <v>1377</v>
+      </c>
+      <c r="CD85" t="s">
+        <v>754</v>
+      </c>
+      <c r="CE85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC86" t="s">
+        <v>1267</v>
+      </c>
+      <c r="CD86" t="s">
+        <v>715</v>
+      </c>
+      <c r="CE86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC87" t="s">
+        <v>1268</v>
+      </c>
+      <c r="CD87" t="s">
+        <v>715</v>
+      </c>
+      <c r="CE87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC88" t="s">
+        <v>1269</v>
+      </c>
+      <c r="CD88" t="s">
+        <v>715</v>
+      </c>
+      <c r="CE88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC89" t="s">
+        <v>1384</v>
+      </c>
+      <c r="CD89" t="s">
+        <v>746</v>
+      </c>
+      <c r="CE89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC90" t="s">
+        <v>1385</v>
+      </c>
+      <c r="CD90" t="s">
+        <v>746</v>
+      </c>
+      <c r="CE90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC91" t="s">
+        <v>1386</v>
+      </c>
+      <c r="CD91" t="s">
+        <v>746</v>
+      </c>
+      <c r="CE91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC92" t="s">
+        <v>1333</v>
+      </c>
+      <c r="CD92" t="s">
+        <v>707</v>
+      </c>
+      <c r="CE92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC93" t="s">
+        <v>1334</v>
+      </c>
+      <c r="CD93" t="s">
+        <v>707</v>
+      </c>
+      <c r="CE93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC94" t="s">
+        <v>1335</v>
+      </c>
+      <c r="CD94" t="s">
+        <v>707</v>
+      </c>
+      <c r="CE94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC95" t="s">
+        <v>1387</v>
+      </c>
+      <c r="CD95" t="s">
+        <v>747</v>
+      </c>
+      <c r="CE95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC96" t="s">
+        <v>1388</v>
+      </c>
+      <c r="CD96" t="s">
+        <v>747</v>
+      </c>
+      <c r="CE96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC97" t="s">
+        <v>1389</v>
+      </c>
+      <c r="CD97" t="s">
+        <v>747</v>
+      </c>
+      <c r="CE97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC98" t="s">
+        <v>1336</v>
+      </c>
+      <c r="CD98" t="s">
+        <v>737</v>
+      </c>
+      <c r="CE98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC99" t="s">
+        <v>1337</v>
+      </c>
+      <c r="CD99" t="s">
+        <v>737</v>
+      </c>
+      <c r="CE99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC100" t="s">
+        <v>1338</v>
+      </c>
+      <c r="CD100" t="s">
+        <v>737</v>
+      </c>
+      <c r="CE100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC101" t="s">
+        <v>1300</v>
+      </c>
+      <c r="CD101" t="s">
         <v>726</v>
       </c>
-      <c r="CE59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="CC60" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="CD60" s="6" t="s">
+      <c r="CE101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC102" t="s">
+        <v>1301</v>
+      </c>
+      <c r="CD102" t="s">
         <v>726</v>
       </c>
-      <c r="CE60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="CC61" s="6" t="s">
-        <v>1107</v>
-      </c>
-      <c r="CD61" s="6" t="s">
+      <c r="CE102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC103" t="s">
+        <v>1302</v>
+      </c>
+      <c r="CD103" t="s">
         <v>726</v>
       </c>
-      <c r="CE61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="CC62" s="6" t="s">
-        <v>1220</v>
-      </c>
-      <c r="CD62" s="6" t="s">
+      <c r="CE103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC104" t="s">
+        <v>1399</v>
+      </c>
+      <c r="CD104" t="s">
+        <v>758</v>
+      </c>
+      <c r="CE104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC105" t="s">
+        <v>1400</v>
+      </c>
+      <c r="CD105" t="s">
+        <v>758</v>
+      </c>
+      <c r="CE105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC106" t="s">
+        <v>1401</v>
+      </c>
+      <c r="CD106" t="s">
+        <v>758</v>
+      </c>
+      <c r="CE106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC107" t="s">
+        <v>1249</v>
+      </c>
+      <c r="CD107" t="s">
+        <v>709</v>
+      </c>
+      <c r="CE107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC108" t="s">
+        <v>1250</v>
+      </c>
+      <c r="CD108" t="s">
+        <v>709</v>
+      </c>
+      <c r="CE108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC109" t="s">
+        <v>1251</v>
+      </c>
+      <c r="CD109" t="s">
+        <v>709</v>
+      </c>
+      <c r="CE109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC110" t="s">
+        <v>1378</v>
+      </c>
+      <c r="CD110" t="s">
+        <v>755</v>
+      </c>
+      <c r="CE110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC111" t="s">
+        <v>1379</v>
+      </c>
+      <c r="CD111" t="s">
+        <v>755</v>
+      </c>
+      <c r="CE111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC112" t="s">
+        <v>1380</v>
+      </c>
+      <c r="CD112" t="s">
+        <v>755</v>
+      </c>
+      <c r="CE112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC113" t="s">
+        <v>1270</v>
+      </c>
+      <c r="CD113" t="s">
+        <v>716</v>
+      </c>
+      <c r="CE113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC114" t="s">
+        <v>1271</v>
+      </c>
+      <c r="CD114" t="s">
+        <v>716</v>
+      </c>
+      <c r="CE114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC115" t="s">
+        <v>1272</v>
+      </c>
+      <c r="CD115" t="s">
+        <v>716</v>
+      </c>
+      <c r="CE115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC116" t="s">
+        <v>1303</v>
+      </c>
+      <c r="CD116" t="s">
         <v>727</v>
       </c>
-      <c r="CE62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="CC63" s="6" t="s">
-        <v>1164</v>
-      </c>
-      <c r="CD63" s="6" t="s">
+      <c r="CE116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC117" t="s">
+        <v>1304</v>
+      </c>
+      <c r="CD117" t="s">
         <v>727</v>
       </c>
-      <c r="CE63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="CC64" s="6" t="s">
-        <v>1108</v>
-      </c>
-      <c r="CD64" s="6" t="s">
+      <c r="CE117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC118" t="s">
+        <v>1305</v>
+      </c>
+      <c r="CD118" t="s">
         <v>727</v>
       </c>
-      <c r="CE64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC65" s="6" t="s">
-        <v>1221</v>
-      </c>
-      <c r="CD65" s="6" t="s">
+      <c r="CE118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC119" t="s">
+        <v>1306</v>
+      </c>
+      <c r="CD119" t="s">
         <v>728</v>
       </c>
-      <c r="CE65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC66" s="6" t="s">
-        <v>1165</v>
-      </c>
-      <c r="CD66" s="6" t="s">
+      <c r="CE119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC120" t="s">
+        <v>1307</v>
+      </c>
+      <c r="CD120" t="s">
         <v>728</v>
       </c>
-      <c r="CE66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC67" s="6" t="s">
-        <v>1109</v>
-      </c>
-      <c r="CD67" s="6" t="s">
+      <c r="CE120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC121" t="s">
+        <v>1308</v>
+      </c>
+      <c r="CD121" t="s">
         <v>728</v>
       </c>
-      <c r="CE67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC68" s="6" t="s">
-        <v>1222</v>
-      </c>
-      <c r="CD68" s="6" t="s">
+      <c r="CE121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC122" t="s">
+        <v>1309</v>
+      </c>
+      <c r="CD122" t="s">
         <v>729</v>
       </c>
-      <c r="CE68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC69" s="6" t="s">
-        <v>1166</v>
-      </c>
-      <c r="CD69" s="6" t="s">
+      <c r="CE122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC123" t="s">
+        <v>1310</v>
+      </c>
+      <c r="CD123" t="s">
         <v>729</v>
       </c>
-      <c r="CE69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC70" s="6" t="s">
-        <v>1110</v>
-      </c>
-      <c r="CD70" s="6" t="s">
+      <c r="CE123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC124" t="s">
+        <v>1311</v>
+      </c>
+      <c r="CD124" t="s">
         <v>729</v>
       </c>
-      <c r="CE70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC71" s="6" t="s">
-        <v>1223</v>
-      </c>
-      <c r="CD71" s="6" t="s">
+      <c r="CE124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC125" t="s">
+        <v>1312</v>
+      </c>
+      <c r="CD125" t="s">
         <v>730</v>
       </c>
-      <c r="CE71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC72" s="6" t="s">
-        <v>1167</v>
-      </c>
-      <c r="CD72" s="6" t="s">
+      <c r="CE125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC126" t="s">
+        <v>1313</v>
+      </c>
+      <c r="CD126" t="s">
         <v>730</v>
       </c>
-      <c r="CE72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC73" s="6" t="s">
-        <v>1111</v>
-      </c>
-      <c r="CD73" s="6" t="s">
+      <c r="CE126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC127" t="s">
+        <v>1314</v>
+      </c>
+      <c r="CD127" t="s">
         <v>730</v>
       </c>
-      <c r="CE73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC74" t="s">
-        <v>1184</v>
-      </c>
-      <c r="CD74" t="s">
+      <c r="CE127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC128" t="s">
+        <v>1252</v>
+      </c>
+      <c r="CD128" t="s">
+        <v>710</v>
+      </c>
+      <c r="CE128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC129" t="s">
+        <v>1253</v>
+      </c>
+      <c r="CD129" t="s">
+        <v>710</v>
+      </c>
+      <c r="CE129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC130" t="s">
+        <v>1254</v>
+      </c>
+      <c r="CD130" t="s">
+        <v>710</v>
+      </c>
+      <c r="CE130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC131" t="s">
+        <v>1402</v>
+      </c>
+      <c r="CD131" t="s">
+        <v>759</v>
+      </c>
+      <c r="CE131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC132" t="s">
+        <v>1403</v>
+      </c>
+      <c r="CD132" t="s">
+        <v>759</v>
+      </c>
+      <c r="CE132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC133" t="s">
+        <v>1404</v>
+      </c>
+      <c r="CD133" t="s">
+        <v>759</v>
+      </c>
+      <c r="CE133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC134" t="s">
+        <v>1357</v>
+      </c>
+      <c r="CD134" t="s">
+        <v>744</v>
+      </c>
+      <c r="CE134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC135" t="s">
+        <v>1358</v>
+      </c>
+      <c r="CD135" t="s">
+        <v>744</v>
+      </c>
+      <c r="CE135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC136" t="s">
+        <v>1359</v>
+      </c>
+      <c r="CD136" t="s">
+        <v>744</v>
+      </c>
+      <c r="CE136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC137" t="s">
+        <v>1273</v>
+      </c>
+      <c r="CD137" t="s">
+        <v>717</v>
+      </c>
+      <c r="CE137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC138" t="s">
+        <v>1274</v>
+      </c>
+      <c r="CD138" t="s">
+        <v>717</v>
+      </c>
+      <c r="CE138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC139" t="s">
+        <v>1275</v>
+      </c>
+      <c r="CD139" t="s">
+        <v>717</v>
+      </c>
+      <c r="CE139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC140" t="s">
+        <v>1276</v>
+      </c>
+      <c r="CD140" t="s">
+        <v>718</v>
+      </c>
+      <c r="CE140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC141" t="s">
+        <v>1277</v>
+      </c>
+      <c r="CD141" t="s">
+        <v>718</v>
+      </c>
+      <c r="CE141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC142" t="s">
+        <v>1278</v>
+      </c>
+      <c r="CD142" t="s">
+        <v>718</v>
+      </c>
+      <c r="CE142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC143" t="s">
+        <v>1390</v>
+      </c>
+      <c r="CD143" t="s">
+        <v>748</v>
+      </c>
+      <c r="CE143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC144" t="s">
+        <v>1391</v>
+      </c>
+      <c r="CD144" t="s">
+        <v>748</v>
+      </c>
+      <c r="CE144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC145" t="s">
+        <v>1392</v>
+      </c>
+      <c r="CD145" t="s">
+        <v>748</v>
+      </c>
+      <c r="CE145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC146" t="s">
+        <v>1315</v>
+      </c>
+      <c r="CD146" t="s">
         <v>731</v>
       </c>
-      <c r="CE74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC75" t="s">
-        <v>1128</v>
-      </c>
-      <c r="CD75" t="s">
+      <c r="CE146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC147" t="s">
+        <v>1316</v>
+      </c>
+      <c r="CD147" t="s">
         <v>731</v>
       </c>
-      <c r="CE75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC76" t="s">
-        <v>1072</v>
-      </c>
-      <c r="CD76" t="s">
+      <c r="CE147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC148" t="s">
+        <v>1317</v>
+      </c>
+      <c r="CD148" t="s">
         <v>731</v>
       </c>
-      <c r="CE76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC77" s="6" t="s">
-        <v>1224</v>
-      </c>
-      <c r="CD77" s="6" t="s">
+      <c r="CE148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC149" t="s">
+        <v>1255</v>
+      </c>
+      <c r="CD149" t="s">
+        <v>711</v>
+      </c>
+      <c r="CE149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC150" t="s">
+        <v>1256</v>
+      </c>
+      <c r="CD150" t="s">
+        <v>711</v>
+      </c>
+      <c r="CE150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC151" t="s">
+        <v>1257</v>
+      </c>
+      <c r="CD151" t="s">
+        <v>711</v>
+      </c>
+      <c r="CE151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC152" t="s">
+        <v>1258</v>
+      </c>
+      <c r="CD152" t="s">
+        <v>712</v>
+      </c>
+      <c r="CE152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC153" t="s">
+        <v>1259</v>
+      </c>
+      <c r="CD153" t="s">
+        <v>712</v>
+      </c>
+      <c r="CE153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC154" t="s">
+        <v>1260</v>
+      </c>
+      <c r="CD154" t="s">
+        <v>712</v>
+      </c>
+      <c r="CE154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC155" t="s">
+        <v>1405</v>
+      </c>
+      <c r="CD155" t="s">
+        <v>760</v>
+      </c>
+      <c r="CE155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC156" t="s">
+        <v>1406</v>
+      </c>
+      <c r="CD156" t="s">
+        <v>760</v>
+      </c>
+      <c r="CE156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC157" t="s">
+        <v>1407</v>
+      </c>
+      <c r="CD157" t="s">
+        <v>760</v>
+      </c>
+      <c r="CE157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC158" t="s">
+        <v>1318</v>
+      </c>
+      <c r="CD158" t="s">
         <v>732</v>
       </c>
-      <c r="CE77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC78" s="6" t="s">
-        <v>1168</v>
-      </c>
-      <c r="CD78" s="6" t="s">
+      <c r="CE158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC159" t="s">
+        <v>1319</v>
+      </c>
+      <c r="CD159" t="s">
         <v>732</v>
       </c>
-      <c r="CE78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC79" s="6" t="s">
-        <v>1112</v>
-      </c>
-      <c r="CD79" s="6" t="s">
+      <c r="CE159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CC160" t="s">
+        <v>1320</v>
+      </c>
+      <c r="CD160" t="s">
         <v>732</v>
       </c>
-      <c r="CE79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC80" s="6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="CD80" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="CE80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC81" s="6" t="s">
-        <v>1169</v>
-      </c>
-      <c r="CD81" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="CE81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC82" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="CD82" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="CE82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC83" s="6" t="s">
-        <v>1226</v>
-      </c>
-      <c r="CD83" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="CE83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC84" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="CD84" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="CE84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC85" s="6" t="s">
-        <v>1114</v>
-      </c>
-      <c r="CD85" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="CE85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC86" s="6" t="s">
-        <v>1227</v>
-      </c>
-      <c r="CD86" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="CE86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC87" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="CD87" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="CE87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC88" s="6" t="s">
-        <v>1115</v>
-      </c>
-      <c r="CD88" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="CE88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC89" s="6" t="s">
-        <v>1228</v>
-      </c>
-      <c r="CD89" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="CE89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC90" s="6" t="s">
-        <v>1172</v>
-      </c>
-      <c r="CD90" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="CE90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC91" s="6" t="s">
-        <v>1116</v>
-      </c>
-      <c r="CD91" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="CE91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC92" s="6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="CD92" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="CE92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC93" s="6" t="s">
-        <v>1173</v>
-      </c>
-      <c r="CD93" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="CE93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC94" s="6" t="s">
-        <v>1117</v>
-      </c>
-      <c r="CD94" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="CE94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC95" s="6" t="s">
-        <v>1230</v>
-      </c>
-      <c r="CD95" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="CE95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC96" s="6" t="s">
-        <v>1174</v>
-      </c>
-      <c r="CD96" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="CE96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC97" s="6" t="s">
-        <v>1118</v>
-      </c>
-      <c r="CD97" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="CE97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC98" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="CD98" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="CE98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC99" s="6" t="s">
-        <v>1175</v>
-      </c>
-      <c r="CD99" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="CE99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC100" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="CD100" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="CE100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC101" s="6" t="s">
-        <v>1232</v>
-      </c>
-      <c r="CD101" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="CE101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC102" s="6" t="s">
-        <v>1176</v>
-      </c>
-      <c r="CD102" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="CE102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC103" s="6" t="s">
-        <v>1120</v>
-      </c>
-      <c r="CD103" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="CE103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC104" s="6" t="s">
-        <v>1233</v>
-      </c>
-      <c r="CD104" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="CE104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC105" s="6" t="s">
-        <v>1177</v>
-      </c>
-      <c r="CD105" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="CE105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC106" s="6" t="s">
-        <v>1121</v>
-      </c>
-      <c r="CD106" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="CE106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC107" s="6" t="s">
-        <v>1234</v>
-      </c>
-      <c r="CD107" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="CE107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC108" s="6" t="s">
-        <v>1178</v>
-      </c>
-      <c r="CD108" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="CE108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC109" s="6" t="s">
-        <v>1122</v>
-      </c>
-      <c r="CD109" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="CE109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC110" s="6" t="s">
-        <v>1235</v>
-      </c>
-      <c r="CD110" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="CE110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC111" s="6" t="s">
-        <v>1179</v>
-      </c>
-      <c r="CD111" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="CE111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC112" s="6" t="s">
-        <v>1123</v>
-      </c>
-      <c r="CD112" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="CE112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC113" s="6" t="s">
-        <v>1236</v>
-      </c>
-      <c r="CD113" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="CE113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC114" s="6" t="s">
-        <v>1180</v>
-      </c>
-      <c r="CD114" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="CE114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC115" s="6" t="s">
-        <v>1124</v>
-      </c>
-      <c r="CD115" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="CE115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC116" t="s">
-        <v>1185</v>
-      </c>
-      <c r="CD116" t="s">
-        <v>744</v>
-      </c>
-      <c r="CE116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC117" t="s">
-        <v>1129</v>
-      </c>
-      <c r="CD117" t="s">
-        <v>744</v>
-      </c>
-      <c r="CE117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC118" t="s">
-        <v>1073</v>
-      </c>
-      <c r="CD118" t="s">
-        <v>744</v>
-      </c>
-      <c r="CE118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC119" t="s">
-        <v>1186</v>
-      </c>
-      <c r="CD119" t="s">
-        <v>749</v>
-      </c>
-      <c r="CE119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC120" t="s">
-        <v>1130</v>
-      </c>
-      <c r="CD120" t="s">
-        <v>749</v>
-      </c>
-      <c r="CE120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC121" t="s">
-        <v>1074</v>
-      </c>
-      <c r="CD121" t="s">
-        <v>749</v>
-      </c>
-      <c r="CE121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC122" t="s">
-        <v>1187</v>
-      </c>
-      <c r="CD122" t="s">
-        <v>750</v>
-      </c>
-      <c r="CE122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC123" t="s">
-        <v>1131</v>
-      </c>
-      <c r="CD123" t="s">
-        <v>750</v>
-      </c>
-      <c r="CE123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC124" t="s">
-        <v>1075</v>
-      </c>
-      <c r="CD124" t="s">
-        <v>750</v>
-      </c>
-      <c r="CE124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC125" t="s">
-        <v>1188</v>
-      </c>
-      <c r="CD125" t="s">
-        <v>751</v>
-      </c>
-      <c r="CE125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC126" t="s">
-        <v>1132</v>
-      </c>
-      <c r="CD126" t="s">
-        <v>751</v>
-      </c>
-      <c r="CE126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC127" t="s">
-        <v>1076</v>
-      </c>
-      <c r="CD127" t="s">
-        <v>751</v>
-      </c>
-      <c r="CE127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC128" s="6" t="s">
-        <v>1237</v>
-      </c>
-      <c r="CD128" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="CE128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC129" s="6" t="s">
-        <v>1181</v>
-      </c>
-      <c r="CD129" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="CE129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC130" s="6" t="s">
-        <v>1125</v>
-      </c>
-      <c r="CD130" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="CE130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC131" t="s">
-        <v>1189</v>
-      </c>
-      <c r="CD131" t="s">
-        <v>753</v>
-      </c>
-      <c r="CE131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC132" t="s">
-        <v>1133</v>
-      </c>
-      <c r="CD132" t="s">
-        <v>753</v>
-      </c>
-      <c r="CE132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC133" t="s">
-        <v>1077</v>
-      </c>
-      <c r="CD133" t="s">
-        <v>753</v>
-      </c>
-      <c r="CE133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC134" t="s">
-        <v>1190</v>
-      </c>
-      <c r="CD134" t="s">
-        <v>754</v>
-      </c>
-      <c r="CE134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC135" t="s">
-        <v>1134</v>
-      </c>
-      <c r="CD135" t="s">
-        <v>754</v>
-      </c>
-      <c r="CE135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC136" t="s">
-        <v>1078</v>
-      </c>
-      <c r="CD136" t="s">
-        <v>754</v>
-      </c>
-      <c r="CE136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC137" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="CD137" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="CE137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC138" s="6" t="s">
-        <v>1182</v>
-      </c>
-      <c r="CD138" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="CE138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC139" s="6" t="s">
-        <v>1126</v>
-      </c>
-      <c r="CD139" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="CE139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC140" t="s">
-        <v>1191</v>
-      </c>
-      <c r="CD140" t="s">
-        <v>745</v>
-      </c>
-      <c r="CE140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC141" t="s">
-        <v>1135</v>
-      </c>
-      <c r="CD141" t="s">
-        <v>745</v>
-      </c>
-      <c r="CE141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC142" t="s">
-        <v>1079</v>
-      </c>
-      <c r="CD142" t="s">
-        <v>745</v>
-      </c>
-      <c r="CE142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC143" t="s">
-        <v>1192</v>
-      </c>
-      <c r="CD143" t="s">
-        <v>746</v>
-      </c>
-      <c r="CE143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC144" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CD144" t="s">
-        <v>746</v>
-      </c>
-      <c r="CE144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC145" t="s">
-        <v>1080</v>
-      </c>
-      <c r="CD145" t="s">
-        <v>746</v>
-      </c>
-      <c r="CE145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC146" t="s">
-        <v>1193</v>
-      </c>
-      <c r="CD146" t="s">
-        <v>747</v>
-      </c>
-      <c r="CE146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC147" t="s">
-        <v>1137</v>
-      </c>
-      <c r="CD147" t="s">
-        <v>747</v>
-      </c>
-      <c r="CE147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC148" t="s">
-        <v>1081</v>
-      </c>
-      <c r="CD148" t="s">
-        <v>747</v>
-      </c>
-      <c r="CE148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC149" t="s">
-        <v>1194</v>
-      </c>
-      <c r="CD149" t="s">
-        <v>748</v>
-      </c>
-      <c r="CE149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC150" t="s">
-        <v>1138</v>
-      </c>
-      <c r="CD150" t="s">
-        <v>748</v>
-      </c>
-      <c r="CE150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC151" t="s">
-        <v>1082</v>
-      </c>
-      <c r="CD151" t="s">
-        <v>748</v>
-      </c>
-      <c r="CE151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC152" t="s">
-        <v>1195</v>
-      </c>
-      <c r="CD152" t="s">
-        <v>756</v>
-      </c>
-      <c r="CE152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC153" t="s">
-        <v>1139</v>
-      </c>
-      <c r="CD153" t="s">
-        <v>756</v>
-      </c>
-      <c r="CE153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC154" t="s">
-        <v>1083</v>
-      </c>
-      <c r="CD154" t="s">
-        <v>756</v>
-      </c>
-      <c r="CE154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC155" t="s">
-        <v>1196</v>
-      </c>
-      <c r="CD155" t="s">
-        <v>757</v>
-      </c>
-      <c r="CE155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC156" t="s">
-        <v>1140</v>
-      </c>
-      <c r="CD156" t="s">
-        <v>757</v>
-      </c>
-      <c r="CE156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC157" t="s">
-        <v>1084</v>
-      </c>
-      <c r="CD157" t="s">
-        <v>757</v>
-      </c>
-      <c r="CE157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC158" t="s">
-        <v>1197</v>
-      </c>
-      <c r="CD158" t="s">
-        <v>758</v>
-      </c>
-      <c r="CE158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC159" t="s">
-        <v>1141</v>
-      </c>
-      <c r="CD159" t="s">
-        <v>758</v>
-      </c>
-      <c r="CE159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="81:83" x14ac:dyDescent="0.25">
-      <c r="CC160" t="s">
-        <v>1085</v>
-      </c>
-      <c r="CD160" t="s">
-        <v>758</v>
-      </c>
       <c r="CE160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="81:83" x14ac:dyDescent="0.25">
+    <row r="161" spans="81:83" x14ac:dyDescent="0.3">
       <c r="CC161" t="s">
-        <v>1198</v>
+        <v>1261</v>
       </c>
       <c r="CD161" t="s">
-        <v>759</v>
+        <v>713</v>
       </c>
       <c r="CE161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="81:83" x14ac:dyDescent="0.25">
+    <row r="162" spans="81:83" x14ac:dyDescent="0.3">
       <c r="CC162" t="s">
-        <v>1142</v>
+        <v>1262</v>
       </c>
       <c r="CD162" t="s">
-        <v>759</v>
+        <v>713</v>
       </c>
       <c r="CE162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="81:83" x14ac:dyDescent="0.25">
+    <row r="163" spans="81:83" x14ac:dyDescent="0.3">
       <c r="CC163" t="s">
-        <v>1086</v>
+        <v>1263</v>
       </c>
       <c r="CD163" t="s">
-        <v>759</v>
+        <v>713</v>
       </c>
       <c r="CE163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="81:83" x14ac:dyDescent="0.25">
+    <row r="164" spans="81:83" x14ac:dyDescent="0.3">
       <c r="CC164" t="s">
-        <v>1199</v>
+        <v>1408</v>
       </c>
       <c r="CD164" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CE164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="81:83" x14ac:dyDescent="0.25">
+    <row r="165" spans="81:83" x14ac:dyDescent="0.3">
       <c r="CC165" t="s">
-        <v>1143</v>
+        <v>1409</v>
       </c>
       <c r="CD165" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CE165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="81:83" x14ac:dyDescent="0.25">
+    <row r="166" spans="81:83" x14ac:dyDescent="0.3">
       <c r="CC166" t="s">
-        <v>1087</v>
+        <v>1410</v>
       </c>
       <c r="CD166" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CE166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="81:83" x14ac:dyDescent="0.25">
+    <row r="167" spans="81:83" x14ac:dyDescent="0.3">
       <c r="CC167" t="s">
-        <v>1200</v>
+        <v>1279</v>
       </c>
       <c r="CD167" t="s">
-        <v>761</v>
+        <v>719</v>
       </c>
       <c r="CE167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="81:83" x14ac:dyDescent="0.25">
+    <row r="168" spans="81:83" x14ac:dyDescent="0.3">
       <c r="CC168" t="s">
-        <v>1144</v>
+        <v>1280</v>
       </c>
       <c r="CD168" t="s">
-        <v>761</v>
+        <v>719</v>
       </c>
       <c r="CE168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="81:83" x14ac:dyDescent="0.25">
+    <row r="169" spans="81:83" x14ac:dyDescent="0.3">
       <c r="CC169" t="s">
-        <v>1088</v>
+        <v>1281</v>
       </c>
       <c r="CD169" t="s">
-        <v>761</v>
+        <v>719</v>
       </c>
       <c r="CE169">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="CC2:CE169">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="CC2:CF169">
     <sortCondition ref="CC2:CC169"/>
   </sortState>
+  <conditionalFormatting sqref="A1:ZZ1">
+    <cfRule type="containsText" dxfId="11" priority="28" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+      <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:ZZ200">
+    <cfRule type="containsText" dxfId="10" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+      <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+      <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
+      <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:ZZ200">
+    <cfRule type="containsText" dxfId="7" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+      <formula>NOT(ISERROR(SEARCH("Moon Cheese",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="containsText" dxfId="39" priority="25" stopIfTrue="1" operator="containsText" text="Bubble">
+    <cfRule type="containsText" dxfId="6" priority="25" stopIfTrue="1" operator="containsText" text="Bubble">
       <formula>NOT(ISERROR(SEARCH("Bubble",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="containsText" dxfId="38" priority="32" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="5" priority="32" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576">
-    <cfRule type="containsText" dxfId="37" priority="30" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="4" priority="30" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",Z1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:ZZ1 A170:ZZ200 A2:CB169 CE2:ZZ169">
-    <cfRule type="containsText" dxfId="36" priority="17" stopIfTrue="1" operator="containsText" text="Tea Leaves">
-      <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="18" stopIfTrue="1" operator="containsText" text="Tapioca">
-      <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="19" stopIfTrue="1" operator="containsText" text="Starfruit">
-      <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="28" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CC2:CD57">
-    <cfRule type="containsText" dxfId="16" priority="13" stopIfTrue="1" operator="containsText" text="Tea Leaves">
-      <formula>NOT(ISERROR(SEARCH("Tea Leaves",CC2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="14" stopIfTrue="1" operator="containsText" text="Tapioca">
-      <formula>NOT(ISERROR(SEARCH("Tapioca",CC2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" stopIfTrue="1" operator="containsText" text="Starfruit">
-      <formula>NOT(ISERROR(SEARCH("Starfruit",CC2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",CC2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CC58:CC169">
-    <cfRule type="containsText" dxfId="12" priority="9" stopIfTrue="1" operator="containsText" text="Tea Leaves">
-      <formula>NOT(ISERROR(SEARCH("Tea Leaves",CC58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="10" stopIfTrue="1" operator="containsText" text="Tapioca">
-      <formula>NOT(ISERROR(SEARCH("Tapioca",CC58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" stopIfTrue="1" operator="containsText" text="Starfruit">
-      <formula>NOT(ISERROR(SEARCH("Starfruit",CC58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",CC58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD58:CD113">
-    <cfRule type="containsText" dxfId="8" priority="5" stopIfTrue="1" operator="containsText" text="Tea Leaves">
-      <formula>NOT(ISERROR(SEARCH("Tea Leaves",CD58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" stopIfTrue="1" operator="containsText" text="Tapioca">
-      <formula>NOT(ISERROR(SEARCH("Tapioca",CD58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" stopIfTrue="1" operator="containsText" text="Starfruit">
-      <formula>NOT(ISERROR(SEARCH("Starfruit",CD58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",CD58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD114:CD169">
-    <cfRule type="containsText" dxfId="4" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
-      <formula>NOT(ISERROR(SEARCH("Tea Leaves",CD114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
-      <formula>NOT(ISERROR(SEARCH("Tapioca",CD114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
-      <formula>NOT(ISERROR(SEARCH("Starfruit",CD114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",CD114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13487,13 +13417,13 @@
       <selection activeCell="A144" sqref="A1:B168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1071</v>
       </c>
@@ -13501,7 +13431,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1072</v>
       </c>
@@ -13509,7 +13439,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1073</v>
       </c>
@@ -13517,7 +13447,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1074</v>
       </c>
@@ -13525,7 +13455,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1075</v>
       </c>
@@ -13533,7 +13463,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1076</v>
       </c>
@@ -13541,7 +13471,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1077</v>
       </c>
@@ -13549,7 +13479,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1078</v>
       </c>
@@ -13557,7 +13487,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1079</v>
       </c>
@@ -13565,7 +13495,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1080</v>
       </c>
@@ -13573,7 +13503,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1081</v>
       </c>
@@ -13581,7 +13511,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1082</v>
       </c>
@@ -13589,7 +13519,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1083</v>
       </c>
@@ -13597,7 +13527,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1084</v>
       </c>
@@ -13605,7 +13535,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1085</v>
       </c>
@@ -13613,7 +13543,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1086</v>
       </c>
@@ -13621,7 +13551,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1087</v>
       </c>
@@ -13629,7 +13559,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1088</v>
       </c>
@@ -13637,311 +13567,311 @@
         <v>761</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>1089</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>1090</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>1091</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>1092</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>1093</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>1094</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>1095</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>1096</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>1097</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>1098</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>1099</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>1100</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>1101</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>1102</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>1103</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>1104</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>1105</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>1106</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>1107</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>1108</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>1109</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>1110</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>1111</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>1112</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>1113</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>1114</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>1115</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>1116</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>1117</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>1118</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>1119</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>1120</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>1121</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>1122</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>1123</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>1124</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>1125</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>1126</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1127</v>
       </c>
@@ -13949,7 +13879,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1128</v>
       </c>
@@ -13957,7 +13887,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1129</v>
       </c>
@@ -13965,7 +13895,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1130</v>
       </c>
@@ -13973,7 +13903,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1131</v>
       </c>
@@ -13981,7 +13911,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1132</v>
       </c>
@@ -13989,7 +13919,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1133</v>
       </c>
@@ -13997,7 +13927,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1134</v>
       </c>
@@ -14005,7 +13935,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1135</v>
       </c>
@@ -14013,7 +13943,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1136</v>
       </c>
@@ -14021,7 +13951,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1137</v>
       </c>
@@ -14029,7 +13959,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1138</v>
       </c>
@@ -14037,7 +13967,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1139</v>
       </c>
@@ -14045,7 +13975,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1140</v>
       </c>
@@ -14053,7 +13983,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1141</v>
       </c>
@@ -14061,7 +13991,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1142</v>
       </c>
@@ -14069,7 +13999,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1143</v>
       </c>
@@ -14077,7 +14007,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1144</v>
       </c>
@@ -14085,311 +14015,311 @@
         <v>761</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>1145</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>1146</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>1147</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>1148</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>1149</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>1150</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>1151</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>1152</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>1153</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>1154</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>1155</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>1156</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>1157</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>1158</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>1159</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>1160</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>1161</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>1162</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>1163</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>1164</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>1165</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>1166</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>1167</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>1168</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>1169</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>1170</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>1171</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>1172</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>1173</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>1174</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>1175</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>1176</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>1177</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>1178</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>1179</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>1180</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>1181</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>1182</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1183</v>
       </c>
@@ -14397,7 +14327,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1184</v>
       </c>
@@ -14405,7 +14335,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1185</v>
       </c>
@@ -14413,7 +14343,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1186</v>
       </c>
@@ -14421,7 +14351,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1187</v>
       </c>
@@ -14429,7 +14359,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1188</v>
       </c>
@@ -14437,7 +14367,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1189</v>
       </c>
@@ -14445,7 +14375,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1190</v>
       </c>
@@ -14453,7 +14383,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1191</v>
       </c>
@@ -14461,7 +14391,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1192</v>
       </c>
@@ -14469,7 +14399,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1193</v>
       </c>
@@ -14477,7 +14407,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1194</v>
       </c>
@@ -14485,7 +14415,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1195</v>
       </c>
@@ -14493,7 +14423,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1196</v>
       </c>
@@ -14501,7 +14431,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1197</v>
       </c>
@@ -14509,7 +14439,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1198</v>
       </c>
@@ -14517,7 +14447,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1199</v>
       </c>
@@ -14525,7 +14455,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1200</v>
       </c>
@@ -14533,365 +14463,323 @@
         <v>761</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>1201</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>1202</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>1203</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>1204</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>1205</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>1206</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>1207</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>1208</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>1209</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>1210</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>1211</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>1212</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>1213</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>1214</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>1215</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>1216</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>1217</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>1218</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>1219</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>1220</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>1221</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>1222</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>1223</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>1224</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>1225</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>1226</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>1227</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>1228</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>1229</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>1230</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>1231</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>1232</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>1233</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>1234</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>1235</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>1236</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>1237</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>1238</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" t="s">
         <v>755</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:B56">
-    <cfRule type="containsText" dxfId="32" priority="13" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+  <conditionalFormatting sqref="A1:B168">
+    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="14" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="15" stopIfTrue="1" operator="containsText" text="Starfruit">
+    <cfRule type="containsText" dxfId="1" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
       <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="16" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+    <cfRule type="containsText" dxfId="0" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
       <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:A168">
-    <cfRule type="containsText" dxfId="28" priority="9" stopIfTrue="1" operator="containsText" text="Tea Leaves">
-      <formula>NOT(ISERROR(SEARCH("Tea Leaves",A57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="10" stopIfTrue="1" operator="containsText" text="Tapioca">
-      <formula>NOT(ISERROR(SEARCH("Tapioca",A57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="11" stopIfTrue="1" operator="containsText" text="Starfruit">
-      <formula>NOT(ISERROR(SEARCH("Starfruit",A57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="12" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",A57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B112">
-    <cfRule type="containsText" dxfId="24" priority="5" stopIfTrue="1" operator="containsText" text="Tea Leaves">
-      <formula>NOT(ISERROR(SEARCH("Tea Leaves",B57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="6" stopIfTrue="1" operator="containsText" text="Tapioca">
-      <formula>NOT(ISERROR(SEARCH("Tapioca",B57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="7" stopIfTrue="1" operator="containsText" text="Starfruit">
-      <formula>NOT(ISERROR(SEARCH("Starfruit",B57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="8" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",B57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B113:B168">
-    <cfRule type="containsText" dxfId="20" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
-      <formula>NOT(ISERROR(SEARCH("Tea Leaves",B113)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
-      <formula>NOT(ISERROR(SEARCH("Tapioca",B113)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
-      <formula>NOT(ISERROR(SEARCH("Starfruit",B113)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14906,84 +14794,84 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>1067</v>
       </c>

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chels\Documents\GitHub\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5A2294-06B9-4090-ABAA-C84D5FC18FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64847D3-A09B-48C4-A969-B94DF7CA1355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
@@ -3772,505 +3772,505 @@
     <t>Citrusfin (Huge) (Seaside Resort)</t>
   </si>
   <si>
-    <t>Citrusfin (Small) (Seaside Resort)</t>
-  </si>
-  <si>
     <t>Citrusfin (Standard) (Seaside Resort)</t>
   </si>
   <si>
     <t>Coastal Clamfish (Huge) (Seaside Resort)</t>
   </si>
   <si>
-    <t>Coastal Clamfish (Small) (Seaside Resort)</t>
-  </si>
-  <si>
     <t>Coastal Clamfish (Standard) (Seaside Resort)</t>
   </si>
   <si>
     <t>Peppermint Tetra (Huge) (Seaside Resort)</t>
   </si>
   <si>
-    <t>Peppermint Tetra (Small) (Seaside Resort)</t>
-  </si>
-  <si>
     <t>Peppermint Tetra (Standard) (Seaside Resort)</t>
   </si>
   <si>
     <t>Seaweed Skipper (Huge) (Seaside Resort)</t>
   </si>
   <si>
-    <t>Seaweed Skipper (Small) (Seaside Resort)</t>
-  </si>
-  <si>
     <t>Seaweed Skipper (Standard) (Seaside Resort)</t>
   </si>
   <si>
     <t>Steamy Sunfish (Huge) (Seaside Resort)</t>
   </si>
   <si>
-    <t>Steamy Sunfish (Small) (Seaside Resort)</t>
-  </si>
-  <si>
     <t>Steamy Sunfish (Standard) (Seaside Resort)</t>
   </si>
   <si>
     <t>Summer Sole (Huge) (Seaside Resort)</t>
   </si>
   <si>
-    <t>Summer Sole (Small) (Seaside Resort)</t>
-  </si>
-  <si>
     <t>Summer Sole (Standard) (Seaside Resort)</t>
   </si>
   <si>
     <t>Tropical Sunfish (Huge) (Seaside Resort)</t>
   </si>
   <si>
-    <t>Tropical Sunfish (Small) (Seaside Resort)</t>
-  </si>
-  <si>
     <t>Tropical Sunfish (Standard) (Seaside Resort)</t>
   </si>
   <si>
     <t>Bog Clamfish (Huge) (Spooky Swamp)</t>
   </si>
   <si>
-    <t>Bog Clamfish (Small) (Spooky Swamp)</t>
-  </si>
-  <si>
     <t>Bog Clamfish (Standard) (Spooky Swamp)</t>
   </si>
   <si>
     <t>Midnight Pike (Huge) (Spooky Swamp)</t>
   </si>
   <si>
-    <t>Midnight Pike (Small) (Spooky Swamp)</t>
-  </si>
-  <si>
     <t>Midnight Pike (Standard) (Spooky Swamp)</t>
   </si>
   <si>
     <t>Quagfish (Huge) (Spooky Swamp)</t>
   </si>
   <si>
-    <t>Quagfish (Small) (Spooky Swamp)</t>
-  </si>
-  <si>
     <t>Quagfish (Standard) (Spooky Swamp)</t>
   </si>
   <si>
     <t>Slimescale (Huge) (Spooky Swamp)</t>
   </si>
   <si>
-    <t>Slimescale (Small) (Spooky Swamp)</t>
-  </si>
-  <si>
     <t>Slimescale (Standard) (Spooky Swamp)</t>
   </si>
   <si>
     <t>Spirit Betta (Huge) (Spooky Swamp)</t>
   </si>
   <si>
-    <t>Spirit Betta (Small) (Spooky Swamp)</t>
-  </si>
-  <si>
     <t>Spirit Betta (Standard) (Spooky Swamp)</t>
   </si>
   <si>
     <t>Zebra Swampling (Huge) (Spooky Swamp)</t>
   </si>
   <si>
-    <t>Zebra Swampling (Small) (Spooky Swamp)</t>
-  </si>
-  <si>
     <t>Zebra Swampling (Standard) (Spooky Swamp)</t>
   </si>
   <si>
     <t>Amethyst Snipe (Huge) (Rainbow Reef)</t>
   </si>
   <si>
-    <t>Amethyst Snipe (Small) (Rainbow Reef)</t>
-  </si>
-  <si>
     <t>Amethyst Snipe (Standard) (Rainbow Reef)</t>
   </si>
   <si>
     <t>Briny Clamfish (Huge) (Rainbow Reef)</t>
   </si>
   <si>
-    <t>Briny Clamfish (Small) (Rainbow Reef)</t>
-  </si>
-  <si>
     <t>Briny Clamfish (Standard) (Rainbow Reef)</t>
   </si>
   <si>
     <t>Electric Tang (Huge) (Rainbow Reef)</t>
   </si>
   <si>
-    <t>Electric Tang (Small) (Rainbow Reef)</t>
-  </si>
-  <si>
     <t>Electric Tang (Standard) (Rainbow Reef)</t>
   </si>
   <si>
     <t>Galaxy Grouper (Huge) (Rainbow Reef)</t>
   </si>
   <si>
-    <t>Galaxy Grouper (Small) (Rainbow Reef)</t>
-  </si>
-  <si>
     <t>Galaxy Grouper (Standard) (Rainbow Reef)</t>
   </si>
   <si>
     <t>Kelpfin (Huge) (Rainbow Reef)</t>
   </si>
   <si>
-    <t>Kelpfin (Small) (Rainbow Reef)</t>
-  </si>
-  <si>
     <t>Kelpfin (Standard) (Rainbow Reef)</t>
   </si>
   <si>
     <t>Masked Wrassler (Huge) (Rainbow Reef)</t>
   </si>
   <si>
-    <t>Masked Wrassler (Small) (Rainbow Reef)</t>
-  </si>
-  <si>
     <t>Masked Wrassler (Standard) (Rainbow Reef)</t>
   </si>
   <si>
     <t>Opal Flutterfin (Huge) (Rainbow Reef)</t>
   </si>
   <si>
-    <t>Opal Flutterfin (Small) (Rainbow Reef)</t>
-  </si>
-  <si>
     <t>Opal Flutterfin (Standard) (Rainbow Reef)</t>
   </si>
   <si>
     <t>Royal Lance (Huge) (Rainbow Reef)</t>
   </si>
   <si>
-    <t>Royal Lance (Small) (Rainbow Reef)</t>
-  </si>
-  <si>
     <t>Royal Lance (Standard) (Rainbow Reef)</t>
   </si>
   <si>
     <t>Ruby Dreamscale (Huge) (Rainbow Reef)</t>
   </si>
   <si>
-    <t>Ruby Dreamscale (Small) (Rainbow Reef)</t>
-  </si>
-  <si>
     <t>Ruby Dreamscale (Standard) (Rainbow Reef)</t>
   </si>
   <si>
     <t>Sailing Charmfish (Huge) (Rainbow Reef)</t>
   </si>
   <si>
-    <t>Sailing Charmfish (Small) (Rainbow Reef)</t>
-  </si>
-  <si>
     <t>Sailing Charmfish (Standard) (Rainbow Reef)</t>
   </si>
   <si>
     <t>Sandy Puffer (Huge) (Rainbow Reef)</t>
   </si>
   <si>
-    <t>Sandy Puffer (Small) (Rainbow Reef)</t>
-  </si>
-  <si>
     <t>Sandy Puffer (Standard) (Rainbow Reef)</t>
   </si>
   <si>
     <t>Starry Snipe (Huge) (Rainbow Reef)</t>
   </si>
   <si>
-    <t>Starry Snipe (Small) (Rainbow Reef)</t>
-  </si>
-  <si>
     <t>Starry Snipe (Standard) (Rainbow Reef)</t>
   </si>
   <si>
     <t>Sunset Guppy (Huge) (Rainbow Reef)</t>
   </si>
   <si>
-    <t>Sunset Guppy (Small) (Rainbow Reef)</t>
-  </si>
-  <si>
     <t>Sunset Guppy (Standard) (Rainbow Reef)</t>
   </si>
   <si>
     <t>Banded Spelunker (Huge) (Gemstone Mountain)</t>
   </si>
   <si>
-    <t>Banded Spelunker (Small) (Gemstone Mountain)</t>
-  </si>
-  <si>
     <t>Banded Spelunker (Standard) (Gemstone Mountain)</t>
   </si>
   <si>
     <t>Cavern Clamfish (Huge) (Gemstone Mountain)</t>
   </si>
   <si>
-    <t>Cavern Clamfish (Small) (Gemstone Mountain)</t>
-  </si>
-  <si>
     <t>Cavern Clamfish (Standard) (Gemstone Mountain)</t>
   </si>
   <si>
     <t>Halfmoon Herring (Huge) (Gemstone Mountain)</t>
   </si>
   <si>
-    <t>Halfmoon Herring (Small) (Gemstone Mountain)</t>
-  </si>
-  <si>
     <t>Halfmoon Herring (Standard) (Gemstone Mountain)</t>
   </si>
   <si>
     <t>Jeweled Goby (Huge) (Gemstone Mountain)</t>
   </si>
   <si>
-    <t>Jeweled Goby (Small) (Gemstone Mountain)</t>
-  </si>
-  <si>
     <t>Jeweled Goby (Standard) (Gemstone Mountain)</t>
   </si>
   <si>
     <t>Mountain Gulper (Huge) (Gemstone Mountain)</t>
   </si>
   <si>
-    <t>Mountain Gulper (Small) (Gemstone Mountain)</t>
-  </si>
-  <si>
     <t>Mountain Gulper (Standard) (Gemstone Mountain)</t>
   </si>
   <si>
     <t>Neon Longtail (Huge) (Gemstone Mountain)</t>
   </si>
   <si>
-    <t>Neon Longtail (Small) (Gemstone Mountain)</t>
-  </si>
-  <si>
     <t>Neon Longtail (Standard) (Gemstone Mountain)</t>
   </si>
   <si>
     <t>Armored Bass (Huge) (Mount Hothead)</t>
   </si>
   <si>
-    <t>Armored Bass (Small) (Mount Hothead)</t>
-  </si>
-  <si>
     <t>Armored Bass (Standard) (Mount Hothead)</t>
   </si>
   <si>
     <t>Bottlefish (Huge) (Mount Hothead)</t>
   </si>
   <si>
-    <t>Bottlefish (Small) (Mount Hothead)</t>
-  </si>
-  <si>
     <t>Bottlefish (Standard) (Mount Hothead)</t>
   </si>
   <si>
     <t>Burning Perch (Huge) (Mount Hothead)</t>
   </si>
   <si>
-    <t>Burning Perch (Small) (Mount Hothead)</t>
-  </si>
-  <si>
     <t>Burning Perch (Standard) (Mount Hothead)</t>
   </si>
   <si>
     <t>Flying Springtail (Huge) (Mount Hothead)</t>
   </si>
   <si>
-    <t>Flying Springtail (Small) (Mount Hothead)</t>
-  </si>
-  <si>
     <t>Flying Springtail (Standard) (Mount Hothead)</t>
   </si>
   <si>
     <t>Golden Loach (Huge) (Mount Hothead)</t>
   </si>
   <si>
-    <t>Golden Loach (Small) (Mount Hothead)</t>
-  </si>
-  <si>
     <t>Golden Loach (Standard) (Mount Hothead)</t>
   </si>
   <si>
     <t>Magma Clamfish (Huge) (Mount Hothead)</t>
   </si>
   <si>
-    <t>Magma Clamfish (Small) (Mount Hothead)</t>
-  </si>
-  <si>
     <t>Magma Clamfish (Standard) (Mount Hothead)</t>
   </si>
   <si>
     <t>Shower Springtail (Huge) (Mount Hothead)</t>
   </si>
   <si>
-    <t>Shower Springtail (Small) (Mount Hothead)</t>
-  </si>
-  <si>
     <t>Shower Springtail (Standard) (Mount Hothead)</t>
   </si>
   <si>
     <t>Blue Grin (Huge) (Merry Meadow)</t>
   </si>
   <si>
-    <t>Blue Grin (Small) (Merry Meadow)</t>
-  </si>
-  <si>
     <t>Blue Grin (Standard) (Merry Meadow)</t>
   </si>
   <si>
     <t>Cherryfin (Huge) (Merry Meadow)</t>
   </si>
   <si>
-    <t>Cherryfin (Small) (Merry Meadow)</t>
-  </si>
-  <si>
     <t>Cherryfin (Standard) (Merry Meadow)</t>
   </si>
   <si>
     <t>Floral Flyer (Huge) (Merry Meadow)</t>
   </si>
   <si>
-    <t>Floral Flyer (Small) (Merry Meadow)</t>
-  </si>
-  <si>
     <t>Floral Flyer (Standard) (Merry Meadow)</t>
   </si>
   <si>
     <t>Geranium Gar (Huge) (Merry Meadow)</t>
   </si>
   <si>
-    <t>Geranium Gar (Small) (Merry Meadow)</t>
-  </si>
-  <si>
     <t>Geranium Gar (Standard) (Merry Meadow)</t>
   </si>
   <si>
     <t>Half-Dipped Dace (Huge) (Merry Meadow)</t>
   </si>
   <si>
-    <t>Half-Dipped Dace (Small) (Merry Meadow)</t>
-  </si>
-  <si>
     <t>Half-Dipped Dace (Standard) (Merry Meadow)</t>
   </si>
   <si>
     <t>Meadow Stripe (Huge) (Merry Meadow)</t>
   </si>
   <si>
-    <t>Meadow Stripe (Small) (Merry Meadow)</t>
-  </si>
-  <si>
     <t>Meadow Stripe (Standard) (Merry Meadow)</t>
   </si>
   <si>
     <t>Petalscale (Huge) (Merry Meadow)</t>
   </si>
   <si>
-    <t>Petalscale (Small) (Merry Meadow)</t>
-  </si>
-  <si>
     <t>Petalscale (Standard) (Merry Meadow)</t>
   </si>
   <si>
     <t>Crescent Minnow (Huge) (Cloud Island)</t>
   </si>
   <si>
-    <t>Crescent Minnow (Small) (Cloud Island)</t>
-  </si>
-  <si>
     <t>Crescent Minnow (Standard) (Cloud Island)</t>
   </si>
   <si>
     <t>Moonla (Huge) (Cloud Island)</t>
   </si>
   <si>
-    <t>Moonla (Small) (Cloud Island)</t>
-  </si>
-  <si>
     <t>Moonla (Standard) (Cloud Island)</t>
   </si>
   <si>
     <t>Nebula Peeper (Huge) (Cloud Island)</t>
   </si>
   <si>
-    <t>Nebula Peeper (Small) (Cloud Island)</t>
-  </si>
-  <si>
     <t>Nebula Peeper (Standard) (Cloud Island)</t>
   </si>
   <si>
     <t>Starlight Floater (Huge) (Cloud Island)</t>
   </si>
   <si>
-    <t>Starlight Floater (Small) (Cloud Island)</t>
-  </si>
-  <si>
     <t>Starlight Floater (Standard) (Cloud Island)</t>
   </si>
   <si>
     <t>Coral Scouter (Huge) (City Town)</t>
   </si>
   <si>
-    <t>Coral Scouter (Small) (City Town)</t>
-  </si>
-  <si>
     <t>Coral Scouter (Standard) (City Town)</t>
   </si>
   <si>
     <t>Marbled Mackeral (Huge) (City Town)</t>
   </si>
   <si>
-    <t>Marbled Mackeral (Small) (City Town)</t>
-  </si>
-  <si>
     <t>Marbled Mackeral (Standard) (City Town)</t>
   </si>
   <si>
     <t>Pastel Perch (Huge) (City Town)</t>
   </si>
   <si>
-    <t>Pastel Perch (Small) (City Town)</t>
-  </si>
-  <si>
     <t>Pastel Perch (Standard) (City Town)</t>
   </si>
   <si>
     <t>Shadow Spray (Huge) (City Town)</t>
   </si>
   <si>
-    <t>Shadow Spray (Small) (City Town)</t>
-  </si>
-  <si>
     <t>Shadow Spray (Standard) (City Town)</t>
   </si>
   <si>
     <t>Sunbarb (Huge) (City Town)</t>
   </si>
   <si>
-    <t>Sunbarb (Small) (City Town)</t>
-  </si>
-  <si>
     <t>Sunbarb (Standard) (City Town)</t>
   </si>
   <si>
     <t>Twilight Eye (Huge) (City Town)</t>
   </si>
   <si>
-    <t>Twilight Eye (Small) (City Town)</t>
-  </si>
-  <si>
     <t>Twilight Eye (Standard) (City Town)</t>
+  </si>
+  <si>
+    <t>Amethyst Snipe (Tiny) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Armored Bass (Tiny) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Banded Spelunker (Tiny) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Blue Grin (Tiny) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Bog Clamfish (Tiny) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Bottlefish (Tiny) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Briny Clamfish (Tiny) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Burning Perch (Tiny) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Cavern Clamfish (Tiny) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Cherryfin (Tiny) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Citrusfin (Tiny) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Coastal Clamfish (Tiny) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Coral Scouter (Tiny) (City Town)</t>
+  </si>
+  <si>
+    <t>Crescent Minnow (Tiny) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Electric Tang (Tiny) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Floral Flyer (Tiny) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Flying Springtail (Tiny) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Galaxy Grouper (Tiny) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Geranium Gar (Tiny) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Golden Loach (Tiny) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Half-Dipped Dace (Tiny) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Halfmoon Herring (Tiny) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Jeweled Goby (Tiny) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Kelpfin (Tiny) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Magma Clamfish (Tiny) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Marbled Mackeral (Tiny) (City Town)</t>
+  </si>
+  <si>
+    <t>Masked Wrassler (Tiny) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Meadow Stripe (Tiny) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Midnight Pike (Tiny) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Moonla (Tiny) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Mountain Gulper (Tiny) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Nebula Peeper (Tiny) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Neon Longtail (Tiny) (Gemstone Mountain)</t>
+  </si>
+  <si>
+    <t>Opal Flutterfin (Tiny) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Pastel Perch (Tiny) (City Town)</t>
+  </si>
+  <si>
+    <t>Peppermint Tetra (Tiny) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Petalscale (Tiny) (Merry Meadow)</t>
+  </si>
+  <si>
+    <t>Quagfish (Tiny) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Royal Lance (Tiny) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Ruby Dreamscale (Tiny) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Sailing Charmfish (Tiny) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Sandy Puffer (Tiny) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Seaweed Skipper (Tiny) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Shadow Spray (Tiny) (City Town)</t>
+  </si>
+  <si>
+    <t>Shower Springtail (Tiny) (Mount Hothead)</t>
+  </si>
+  <si>
+    <t>Slimescale (Tiny) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Spirit Betta (Tiny) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Starlight Floater (Tiny) (Cloud Island)</t>
+  </si>
+  <si>
+    <t>Starry Snipe (Tiny) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Steamy Sunfish (Tiny) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Summer Sole (Tiny) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Sunbarb (Tiny) (City Town)</t>
+  </si>
+  <si>
+    <t>Sunset Guppy (Tiny) (Rainbow Reef)</t>
+  </si>
+  <si>
+    <t>Tropical Sunfish (Tiny) (Seaside Resort)</t>
+  </si>
+  <si>
+    <t>Twilight Eye (Tiny) (City Town)</t>
+  </si>
+  <si>
+    <t>Zebra Swampling (Tiny) (Spooky Swamp)</t>
   </si>
 </sst>
 </file>
@@ -4351,7 +4351,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4804,8 +4820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CF169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="CC8" sqref="CC8"/>
+    <sheetView tabSelected="1" topLeftCell="BY157" workbookViewId="0">
+      <selection activeCell="CC164" sqref="CC164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5324,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="CC2" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
       <c r="CD2" t="s">
         <v>720</v>
@@ -5550,13 +5566,16 @@
       <c r="CB3">
         <v>1</v>
       </c>
-      <c r="CC3" t="s">
-        <v>1283</v>
+      <c r="CC3" s="2" t="s">
+        <v>1270</v>
       </c>
       <c r="CD3" t="s">
         <v>720</v>
       </c>
       <c r="CE3">
+        <v>1</v>
+      </c>
+      <c r="CF3">
         <v>1</v>
       </c>
     </row>
@@ -5771,13 +5790,16 @@
       <c r="CB4">
         <v>1</v>
       </c>
-      <c r="CC4" t="s">
-        <v>1284</v>
+      <c r="CC4" s="2" t="s">
+        <v>1355</v>
       </c>
       <c r="CD4" t="s">
         <v>720</v>
       </c>
       <c r="CE4">
+        <v>1</v>
+      </c>
+      <c r="CF4">
         <v>1</v>
       </c>
     </row>
@@ -5996,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="CC5" t="s">
-        <v>1339</v>
+        <v>1307</v>
       </c>
       <c r="CD5" t="s">
         <v>738</v>
@@ -6217,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="CC6" t="s">
-        <v>1340</v>
+        <v>1308</v>
       </c>
       <c r="CD6" t="s">
         <v>738</v>
@@ -6437,13 +6459,16 @@
       <c r="CB7">
         <v>1</v>
       </c>
-      <c r="CC7" t="s">
-        <v>1341</v>
+      <c r="CC7" s="2" t="s">
+        <v>1356</v>
       </c>
       <c r="CD7" t="s">
         <v>738</v>
       </c>
       <c r="CE7">
+        <v>1</v>
+      </c>
+      <c r="CF7">
         <v>1</v>
       </c>
     </row>
@@ -6652,13 +6677,16 @@
       <c r="CA8">
         <v>1</v>
       </c>
-      <c r="CC8" t="s">
-        <v>1321</v>
+      <c r="CC8" s="2" t="s">
+        <v>1295</v>
       </c>
       <c r="CD8" t="s">
         <v>733</v>
       </c>
       <c r="CE8">
+        <v>1</v>
+      </c>
+      <c r="CF8">
         <v>1</v>
       </c>
     </row>
@@ -6849,13 +6877,16 @@
       <c r="CA9">
         <v>1</v>
       </c>
-      <c r="CC9" t="s">
-        <v>1322</v>
+      <c r="CC9" s="2" t="s">
+        <v>1296</v>
       </c>
       <c r="CD9" t="s">
         <v>733</v>
       </c>
       <c r="CE9">
+        <v>1</v>
+      </c>
+      <c r="CF9">
         <v>1</v>
       </c>
     </row>
@@ -7046,13 +7077,16 @@
       <c r="BW10">
         <v>1</v>
       </c>
-      <c r="CC10" t="s">
-        <v>1323</v>
+      <c r="CC10" s="2" t="s">
+        <v>1357</v>
       </c>
       <c r="CD10" t="s">
         <v>733</v>
       </c>
       <c r="CE10">
+        <v>1</v>
+      </c>
+      <c r="CF10">
         <v>1</v>
       </c>
     </row>
@@ -7244,7 +7278,7 @@
         <v>1</v>
       </c>
       <c r="CC11" t="s">
-        <v>1360</v>
+        <v>1321</v>
       </c>
       <c r="CD11" t="s">
         <v>749</v>
@@ -7435,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="CC12" t="s">
-        <v>1361</v>
+        <v>1322</v>
       </c>
       <c r="CD12" t="s">
         <v>749</v>
@@ -7629,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="CC13" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="CD13" t="s">
         <v>749</v>
@@ -7822,13 +7856,16 @@
       <c r="BW14">
         <v>1</v>
       </c>
-      <c r="CC14" t="s">
-        <v>1264</v>
+      <c r="CC14" s="2" t="s">
+        <v>1257</v>
       </c>
       <c r="CD14" t="s">
         <v>714</v>
       </c>
       <c r="CE14">
+        <v>1</v>
+      </c>
+      <c r="CF14">
         <v>1</v>
       </c>
     </row>
@@ -8011,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="CC15" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="CD15" t="s">
         <v>714</v>
@@ -8195,8 +8232,8 @@
       <c r="BW16">
         <v>1</v>
       </c>
-      <c r="CC16" t="s">
-        <v>1266</v>
+      <c r="CC16" s="2" t="s">
+        <v>1359</v>
       </c>
       <c r="CD16" t="s">
         <v>714</v>
@@ -8204,8 +8241,11 @@
       <c r="CE16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -8374,8 +8414,8 @@
       <c r="BW17">
         <v>1</v>
       </c>
-      <c r="CC17" t="s">
-        <v>1342</v>
+      <c r="CC17" s="2" t="s">
+        <v>1309</v>
       </c>
       <c r="CD17" t="s">
         <v>739</v>
@@ -8383,8 +8423,11 @@
       <c r="CE17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -8554,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="CC18" t="s">
-        <v>1343</v>
+        <v>1310</v>
       </c>
       <c r="CD18" t="s">
         <v>739</v>
@@ -8563,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -8726,8 +8769,8 @@
       <c r="BW19">
         <v>1</v>
       </c>
-      <c r="CC19" t="s">
-        <v>1344</v>
+      <c r="CC19" s="2" t="s">
+        <v>1360</v>
       </c>
       <c r="CD19" t="s">
         <v>739</v>
@@ -8735,8 +8778,11 @@
       <c r="CE19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -8902,8 +8948,8 @@
       <c r="BX20">
         <v>1</v>
       </c>
-      <c r="CC20" t="s">
-        <v>1285</v>
+      <c r="CC20" s="2" t="s">
+        <v>1271</v>
       </c>
       <c r="CD20" t="s">
         <v>721</v>
@@ -8911,8 +8957,11 @@
       <c r="CE20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -9072,8 +9121,8 @@
       <c r="BX21">
         <v>1</v>
       </c>
-      <c r="CC21" t="s">
-        <v>1286</v>
+      <c r="CC21" s="2" t="s">
+        <v>1272</v>
       </c>
       <c r="CD21" t="s">
         <v>721</v>
@@ -9081,8 +9130,11 @@
       <c r="CE21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -9246,7 +9298,7 @@
         <v>1</v>
       </c>
       <c r="CC22" t="s">
-        <v>1287</v>
+        <v>1361</v>
       </c>
       <c r="CD22" t="s">
         <v>721</v>
@@ -9255,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -9388,8 +9440,8 @@
       <c r="BX23">
         <v>1</v>
       </c>
-      <c r="CC23" t="s">
-        <v>1345</v>
+      <c r="CC23" s="2" t="s">
+        <v>1311</v>
       </c>
       <c r="CD23" t="s">
         <v>740</v>
@@ -9397,8 +9449,11 @@
       <c r="CE23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -9526,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="CC24" t="s">
-        <v>1346</v>
+        <v>1312</v>
       </c>
       <c r="CD24" t="s">
         <v>740</v>
@@ -9535,7 +9590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -9660,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="CC25" t="s">
-        <v>1347</v>
+        <v>1362</v>
       </c>
       <c r="CD25" t="s">
         <v>740</v>
@@ -9669,7 +9724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -9779,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="CC26" t="s">
-        <v>1324</v>
+        <v>1297</v>
       </c>
       <c r="CD26" t="s">
         <v>734</v>
@@ -9788,7 +9843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -9885,8 +9940,8 @@
       <c r="BX27">
         <v>1</v>
       </c>
-      <c r="CC27" t="s">
-        <v>1325</v>
+      <c r="CC27" s="2" t="s">
+        <v>1298</v>
       </c>
       <c r="CD27" t="s">
         <v>734</v>
@@ -9894,8 +9949,11 @@
       <c r="CE27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -9990,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="CC28" t="s">
-        <v>1326</v>
+        <v>1363</v>
       </c>
       <c r="CD28" t="s">
         <v>734</v>
@@ -9999,7 +10057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -10088,7 +10146,7 @@
         <v>1</v>
       </c>
       <c r="CC29" t="s">
-        <v>1363</v>
+        <v>1323</v>
       </c>
       <c r="CD29" t="s">
         <v>750</v>
@@ -10097,7 +10155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -10186,7 +10244,7 @@
         <v>1</v>
       </c>
       <c r="CC30" t="s">
-        <v>1364</v>
+        <v>1324</v>
       </c>
       <c r="CD30" t="s">
         <v>750</v>
@@ -10195,7 +10253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -10284,7 +10342,7 @@
         <v>1</v>
       </c>
       <c r="CC31" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="CD31" t="s">
         <v>750</v>
@@ -10293,7 +10351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -10391,7 +10449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -10479,7 +10537,7 @@
       <c r="BX33">
         <v>1</v>
       </c>
-      <c r="CC33" t="s">
+      <c r="CC33" s="2" t="s">
         <v>1244</v>
       </c>
       <c r="CD33" t="s">
@@ -10488,8 +10546,11 @@
       <c r="CE33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -10568,8 +10629,8 @@
       <c r="BX34">
         <v>1</v>
       </c>
-      <c r="CC34" t="s">
-        <v>1245</v>
+      <c r="CC34" s="2" t="s">
+        <v>1365</v>
       </c>
       <c r="CD34" t="s">
         <v>707</v>
@@ -10577,8 +10638,11 @@
       <c r="CE34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -10660,8 +10724,8 @@
       <c r="BX35">
         <v>1</v>
       </c>
-      <c r="CC35" t="s">
-        <v>1246</v>
+      <c r="CC35" s="2" t="s">
+        <v>1245</v>
       </c>
       <c r="CD35" t="s">
         <v>708</v>
@@ -10669,8 +10733,11 @@
       <c r="CE35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -10750,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="CC36" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="CD36" t="s">
         <v>708</v>
@@ -10759,7 +10826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -10830,7 +10897,7 @@
         <v>1</v>
       </c>
       <c r="CC37" t="s">
-        <v>1248</v>
+        <v>1366</v>
       </c>
       <c r="CD37" t="s">
         <v>708</v>
@@ -10839,7 +10906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
@@ -10907,7 +10974,7 @@
         <v>1</v>
       </c>
       <c r="CC38" t="s">
-        <v>1393</v>
+        <v>1343</v>
       </c>
       <c r="CD38" t="s">
         <v>756</v>
@@ -10916,7 +10983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -10987,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="CC39" t="s">
-        <v>1394</v>
+        <v>1344</v>
       </c>
       <c r="CD39" t="s">
         <v>756</v>
@@ -10996,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -11067,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="CC40" t="s">
-        <v>1395</v>
+        <v>1367</v>
       </c>
       <c r="CD40" t="s">
         <v>756</v>
@@ -11076,7 +11143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>73</v>
       </c>
@@ -11144,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="CC41" t="s">
-        <v>1381</v>
+        <v>1335</v>
       </c>
       <c r="CD41" t="s">
         <v>745</v>
@@ -11153,7 +11220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -11221,7 +11288,7 @@
         <v>1</v>
       </c>
       <c r="CC42" t="s">
-        <v>1382</v>
+        <v>1336</v>
       </c>
       <c r="CD42" t="s">
         <v>745</v>
@@ -11230,7 +11297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -11295,7 +11362,7 @@
         <v>1</v>
       </c>
       <c r="CC43" t="s">
-        <v>1383</v>
+        <v>1368</v>
       </c>
       <c r="CD43" t="s">
         <v>745</v>
@@ -11304,7 +11371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -11372,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="CC44" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="CD44" t="s">
         <v>722</v>
@@ -11381,7 +11448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
@@ -11449,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="CC45" t="s">
-        <v>1289</v>
+        <v>1274</v>
       </c>
       <c r="CD45" t="s">
         <v>722</v>
@@ -11458,7 +11525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -11525,8 +11592,8 @@
       <c r="BX46">
         <v>1</v>
       </c>
-      <c r="CC46" t="s">
-        <v>1290</v>
+      <c r="CC46" s="2" t="s">
+        <v>1369</v>
       </c>
       <c r="CD46" t="s">
         <v>722</v>
@@ -11534,8 +11601,11 @@
       <c r="CE46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -11600,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="CC47" t="s">
-        <v>1366</v>
+        <v>1325</v>
       </c>
       <c r="CD47" t="s">
         <v>751</v>
@@ -11609,7 +11679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -11674,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="CC48" t="s">
-        <v>1367</v>
+        <v>1326</v>
       </c>
       <c r="CD48" t="s">
         <v>751</v>
@@ -11683,7 +11753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -11739,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="CC49" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="CD49" t="s">
         <v>751</v>
@@ -11748,7 +11818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>91</v>
       </c>
@@ -11804,7 +11874,7 @@
         <v>1</v>
       </c>
       <c r="CC50" t="s">
-        <v>1348</v>
+        <v>1313</v>
       </c>
       <c r="CD50" t="s">
         <v>741</v>
@@ -11813,7 +11883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>381</v>
       </c>
@@ -11868,8 +11938,8 @@
       <c r="BX51">
         <v>1</v>
       </c>
-      <c r="CC51" t="s">
-        <v>1349</v>
+      <c r="CC51" s="2" t="s">
+        <v>1314</v>
       </c>
       <c r="CD51" t="s">
         <v>741</v>
@@ -11877,8 +11947,11 @@
       <c r="CE51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -11925,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="CC52" t="s">
-        <v>1350</v>
+        <v>1371</v>
       </c>
       <c r="CD52" t="s">
         <v>741</v>
@@ -11934,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -11977,8 +12050,8 @@
       <c r="BX53">
         <v>1</v>
       </c>
-      <c r="CC53" t="s">
-        <v>1291</v>
+      <c r="CC53" s="2" t="s">
+        <v>1275</v>
       </c>
       <c r="CD53" t="s">
         <v>723</v>
@@ -11986,8 +12059,11 @@
       <c r="CE53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:84" x14ac:dyDescent="0.3">
       <c r="BI54" t="s">
         <v>983</v>
       </c>
@@ -12022,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="CC54" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
       <c r="CD54" t="s">
         <v>723</v>
@@ -12031,7 +12107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:84" x14ac:dyDescent="0.3">
       <c r="BI55" t="s">
         <v>986</v>
       </c>
@@ -12065,8 +12141,8 @@
       <c r="BX55">
         <v>1</v>
       </c>
-      <c r="CC55" t="s">
-        <v>1293</v>
+      <c r="CC55" s="2" t="s">
+        <v>1372</v>
       </c>
       <c r="CD55" t="s">
         <v>723</v>
@@ -12074,8 +12150,11 @@
       <c r="CE55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:84" x14ac:dyDescent="0.3">
       <c r="BQ56" s="2" t="s">
         <v>917</v>
       </c>
@@ -12100,8 +12179,8 @@
       <c r="BX56">
         <v>1</v>
       </c>
-      <c r="CC56" t="s">
-        <v>1369</v>
+      <c r="CC56" s="2" t="s">
+        <v>1327</v>
       </c>
       <c r="CD56" t="s">
         <v>752</v>
@@ -12109,8 +12188,11 @@
       <c r="CE56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:84" x14ac:dyDescent="0.3">
       <c r="BU57" s="2" t="s">
         <v>929</v>
       </c>
@@ -12123,8 +12205,8 @@
       <c r="BX57">
         <v>1</v>
       </c>
-      <c r="CC57" t="s">
-        <v>1370</v>
+      <c r="CC57" s="2" t="s">
+        <v>1328</v>
       </c>
       <c r="CD57" t="s">
         <v>752</v>
@@ -12132,10 +12214,13 @@
       <c r="CE57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:84" x14ac:dyDescent="0.3">
       <c r="CC58" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="CD58" t="s">
         <v>752</v>
@@ -12144,9 +12229,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="CC59" t="s">
-        <v>1351</v>
+    <row r="59" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="CC59" s="2" t="s">
+        <v>1315</v>
       </c>
       <c r="CD59" t="s">
         <v>742</v>
@@ -12154,10 +12239,13 @@
       <c r="CE59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:84" x14ac:dyDescent="0.3">
       <c r="CC60" t="s">
-        <v>1352</v>
+        <v>1316</v>
       </c>
       <c r="CD60" t="s">
         <v>742</v>
@@ -12166,9 +12254,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="CC61" t="s">
-        <v>1353</v>
+    <row r="61" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="CC61" s="2" t="s">
+        <v>1374</v>
       </c>
       <c r="CD61" t="s">
         <v>742</v>
@@ -12176,10 +12264,13 @@
       <c r="CE61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CF61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:84" x14ac:dyDescent="0.3">
       <c r="CC62" t="s">
-        <v>1372</v>
+        <v>1329</v>
       </c>
       <c r="CD62" t="s">
         <v>753</v>
@@ -12188,9 +12279,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:84" x14ac:dyDescent="0.3">
       <c r="CC63" t="s">
-        <v>1373</v>
+        <v>1330</v>
       </c>
       <c r="CD63" t="s">
         <v>753</v>
@@ -12199,9 +12290,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:84" x14ac:dyDescent="0.3">
       <c r="CC64" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="CD64" t="s">
         <v>753</v>
@@ -12210,9 +12301,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="65" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC65" t="s">
-        <v>1327</v>
+        <v>1299</v>
       </c>
       <c r="CD65" t="s">
         <v>735</v>
@@ -12221,9 +12312,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC66" t="s">
-        <v>1328</v>
+    <row r="66" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC66" s="2" t="s">
+        <v>1300</v>
       </c>
       <c r="CD66" t="s">
         <v>735</v>
@@ -12231,10 +12322,13 @@
       <c r="CE66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC67" t="s">
-        <v>1329</v>
+      <c r="CF66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC67" s="2" t="s">
+        <v>1376</v>
       </c>
       <c r="CD67" t="s">
         <v>735</v>
@@ -12242,10 +12336,13 @@
       <c r="CE67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC68" t="s">
-        <v>1330</v>
+      <c r="CF67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC68" s="2" t="s">
+        <v>1301</v>
       </c>
       <c r="CD68" t="s">
         <v>736</v>
@@ -12253,10 +12350,13 @@
       <c r="CE68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC69" t="s">
-        <v>1331</v>
+        <v>1302</v>
       </c>
       <c r="CD69" t="s">
         <v>736</v>
@@ -12265,9 +12365,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="70" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC70" t="s">
-        <v>1332</v>
+        <v>1377</v>
       </c>
       <c r="CD70" t="s">
         <v>736</v>
@@ -12276,9 +12376,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC71" t="s">
-        <v>1294</v>
+    <row r="71" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC71" s="2" t="s">
+        <v>1277</v>
       </c>
       <c r="CD71" t="s">
         <v>724</v>
@@ -12286,10 +12386,13 @@
       <c r="CE71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC72" t="s">
-        <v>1295</v>
+        <v>1278</v>
       </c>
       <c r="CD72" t="s">
         <v>724</v>
@@ -12298,9 +12401,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC73" t="s">
-        <v>1296</v>
+    <row r="73" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC73" s="2" t="s">
+        <v>1378</v>
       </c>
       <c r="CD73" t="s">
         <v>724</v>
@@ -12308,10 +12411,13 @@
       <c r="CE73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC74" t="s">
-        <v>1354</v>
+        <v>1317</v>
       </c>
       <c r="CD74" t="s">
         <v>743</v>
@@ -12320,9 +12426,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC75" t="s">
-        <v>1355</v>
+    <row r="75" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC75" s="2" t="s">
+        <v>1318</v>
       </c>
       <c r="CD75" t="s">
         <v>743</v>
@@ -12330,10 +12436,13 @@
       <c r="CE75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC76" t="s">
-        <v>1356</v>
+        <v>1379</v>
       </c>
       <c r="CD76" t="s">
         <v>743</v>
@@ -12342,9 +12451,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="77" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC77" t="s">
-        <v>1396</v>
+        <v>1345</v>
       </c>
       <c r="CD77" t="s">
         <v>757</v>
@@ -12353,9 +12462,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="78" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC78" t="s">
-        <v>1397</v>
+        <v>1346</v>
       </c>
       <c r="CD78" t="s">
         <v>757</v>
@@ -12364,9 +12473,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="79" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC79" t="s">
-        <v>1398</v>
+        <v>1380</v>
       </c>
       <c r="CD79" t="s">
         <v>757</v>
@@ -12375,9 +12484,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC80" t="s">
-        <v>1297</v>
+    <row r="80" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC80" s="2" t="s">
+        <v>1279</v>
       </c>
       <c r="CD80" t="s">
         <v>725</v>
@@ -12385,10 +12494,13 @@
       <c r="CE80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC81" t="s">
-        <v>1298</v>
+      <c r="CF80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC81" s="2" t="s">
+        <v>1280</v>
       </c>
       <c r="CD81" t="s">
         <v>725</v>
@@ -12396,10 +12508,13 @@
       <c r="CE81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC82" t="s">
-        <v>1299</v>
+      <c r="CF81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC82" s="2" t="s">
+        <v>1381</v>
       </c>
       <c r="CD82" t="s">
         <v>725</v>
@@ -12407,10 +12522,13 @@
       <c r="CE82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC83" t="s">
-        <v>1375</v>
+        <v>1331</v>
       </c>
       <c r="CD83" t="s">
         <v>754</v>
@@ -12419,9 +12537,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="84" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC84" t="s">
-        <v>1376</v>
+        <v>1332</v>
       </c>
       <c r="CD84" t="s">
         <v>754</v>
@@ -12430,9 +12548,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="85" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC85" t="s">
-        <v>1377</v>
+        <v>1382</v>
       </c>
       <c r="CD85" t="s">
         <v>754</v>
@@ -12441,9 +12559,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC86" t="s">
-        <v>1267</v>
+    <row r="86" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC86" s="2" t="s">
+        <v>1259</v>
       </c>
       <c r="CD86" t="s">
         <v>715</v>
@@ -12451,10 +12569,13 @@
       <c r="CE86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC87" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="CD87" t="s">
         <v>715</v>
@@ -12463,9 +12584,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC88" t="s">
-        <v>1269</v>
+    <row r="88" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC88" s="2" t="s">
+        <v>1383</v>
       </c>
       <c r="CD88" t="s">
         <v>715</v>
@@ -12473,10 +12594,13 @@
       <c r="CE88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC89" t="s">
-        <v>1384</v>
+        <v>1337</v>
       </c>
       <c r="CD89" t="s">
         <v>746</v>
@@ -12485,9 +12609,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="90" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC90" t="s">
-        <v>1385</v>
+        <v>1338</v>
       </c>
       <c r="CD90" t="s">
         <v>746</v>
@@ -12496,9 +12620,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="91" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC91" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="CD91" t="s">
         <v>746</v>
@@ -12507,9 +12631,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC92" t="s">
-        <v>1333</v>
+    <row r="92" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC92" s="2" t="s">
+        <v>1303</v>
       </c>
       <c r="CD92" t="s">
         <v>707</v>
@@ -12517,10 +12641,13 @@
       <c r="CE92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC93" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
       <c r="CD93" t="s">
         <v>707</v>
@@ -12529,9 +12656,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC94" t="s">
-        <v>1335</v>
+    <row r="94" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC94" s="2" t="s">
+        <v>1385</v>
       </c>
       <c r="CD94" t="s">
         <v>707</v>
@@ -12539,10 +12666,13 @@
       <c r="CE94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC95" t="s">
-        <v>1387</v>
+        <v>1339</v>
       </c>
       <c r="CD95" t="s">
         <v>747</v>
@@ -12551,9 +12681,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="96" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC96" t="s">
-        <v>1388</v>
+        <v>1340</v>
       </c>
       <c r="CD96" t="s">
         <v>747</v>
@@ -12562,9 +12692,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="97" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC97" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="CD97" t="s">
         <v>747</v>
@@ -12573,9 +12703,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="98" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC98" t="s">
-        <v>1336</v>
+        <v>1305</v>
       </c>
       <c r="CD98" t="s">
         <v>737</v>
@@ -12584,9 +12714,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="99" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC99" t="s">
-        <v>1337</v>
+        <v>1306</v>
       </c>
       <c r="CD99" t="s">
         <v>737</v>
@@ -12595,9 +12725,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC100" t="s">
-        <v>1338</v>
+    <row r="100" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC100" s="2" t="s">
+        <v>1387</v>
       </c>
       <c r="CD100" t="s">
         <v>737</v>
@@ -12605,10 +12735,13 @@
       <c r="CE100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC101" t="s">
-        <v>1300</v>
+        <v>1281</v>
       </c>
       <c r="CD101" t="s">
         <v>726</v>
@@ -12617,9 +12750,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC102" t="s">
-        <v>1301</v>
+    <row r="102" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC102" s="2" t="s">
+        <v>1282</v>
       </c>
       <c r="CD102" t="s">
         <v>726</v>
@@ -12627,10 +12760,13 @@
       <c r="CE102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC103" t="s">
-        <v>1302</v>
+        <v>1388</v>
       </c>
       <c r="CD103" t="s">
         <v>726</v>
@@ -12639,9 +12775,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="104" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC104" t="s">
-        <v>1399</v>
+        <v>1347</v>
       </c>
       <c r="CD104" t="s">
         <v>758</v>
@@ -12650,9 +12786,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="105" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC105" t="s">
-        <v>1400</v>
+        <v>1348</v>
       </c>
       <c r="CD105" t="s">
         <v>758</v>
@@ -12661,9 +12797,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="106" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC106" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="CD106" t="s">
         <v>758</v>
@@ -12672,9 +12808,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC107" t="s">
-        <v>1249</v>
+    <row r="107" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC107" s="2" t="s">
+        <v>1247</v>
       </c>
       <c r="CD107" t="s">
         <v>709</v>
@@ -12682,10 +12818,13 @@
       <c r="CE107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC108" t="s">
-        <v>1250</v>
+      <c r="CF107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC108" s="2" t="s">
+        <v>1248</v>
       </c>
       <c r="CD108" t="s">
         <v>709</v>
@@ -12693,10 +12832,13 @@
       <c r="CE108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC109" t="s">
-        <v>1251</v>
+        <v>1390</v>
       </c>
       <c r="CD109" t="s">
         <v>709</v>
@@ -12705,9 +12847,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="110" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC110" t="s">
-        <v>1378</v>
+        <v>1333</v>
       </c>
       <c r="CD110" t="s">
         <v>755</v>
@@ -12716,9 +12858,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="111" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC111" t="s">
-        <v>1379</v>
+        <v>1334</v>
       </c>
       <c r="CD111" t="s">
         <v>755</v>
@@ -12727,9 +12869,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC112" t="s">
-        <v>1380</v>
+    <row r="112" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC112" s="2" t="s">
+        <v>1391</v>
       </c>
       <c r="CD112" t="s">
         <v>755</v>
@@ -12737,10 +12879,13 @@
       <c r="CE112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC113" t="s">
-        <v>1270</v>
+      <c r="CF112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC113" s="2" t="s">
+        <v>1261</v>
       </c>
       <c r="CD113" t="s">
         <v>716</v>
@@ -12748,10 +12893,13 @@
       <c r="CE113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC114" t="s">
-        <v>1271</v>
+      <c r="CF113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC114" s="2" t="s">
+        <v>1262</v>
       </c>
       <c r="CD114" t="s">
         <v>716</v>
@@ -12759,10 +12907,13 @@
       <c r="CE114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC115" t="s">
-        <v>1272</v>
+      <c r="CF114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC115" s="2" t="s">
+        <v>1392</v>
       </c>
       <c r="CD115" t="s">
         <v>716</v>
@@ -12770,10 +12921,13 @@
       <c r="CE115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC116" t="s">
-        <v>1303</v>
+        <v>1283</v>
       </c>
       <c r="CD116" t="s">
         <v>727</v>
@@ -12782,9 +12936,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="117" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC117" t="s">
-        <v>1304</v>
+        <v>1284</v>
       </c>
       <c r="CD117" t="s">
         <v>727</v>
@@ -12793,9 +12947,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC118" t="s">
-        <v>1305</v>
+    <row r="118" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC118" s="2" t="s">
+        <v>1393</v>
       </c>
       <c r="CD118" t="s">
         <v>727</v>
@@ -12803,10 +12957,13 @@
       <c r="CE118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC119" t="s">
-        <v>1306</v>
+      <c r="CF118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC119" s="2" t="s">
+        <v>1285</v>
       </c>
       <c r="CD119" t="s">
         <v>728</v>
@@ -12814,10 +12971,13 @@
       <c r="CE119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC120" t="s">
-        <v>1307</v>
+      <c r="CF119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC120" s="2" t="s">
+        <v>1286</v>
       </c>
       <c r="CD120" t="s">
         <v>728</v>
@@ -12825,10 +12985,13 @@
       <c r="CE120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC121" t="s">
-        <v>1308</v>
+      <c r="CF120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC121" s="2" t="s">
+        <v>1394</v>
       </c>
       <c r="CD121" t="s">
         <v>728</v>
@@ -12836,10 +12999,13 @@
       <c r="CE121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC122" t="s">
-        <v>1309</v>
+        <v>1287</v>
       </c>
       <c r="CD122" t="s">
         <v>729</v>
@@ -12848,9 +13014,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC123" t="s">
-        <v>1310</v>
+    <row r="123" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC123" s="2" t="s">
+        <v>1288</v>
       </c>
       <c r="CD123" t="s">
         <v>729</v>
@@ -12858,10 +13024,13 @@
       <c r="CE123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC124" t="s">
-        <v>1311</v>
+        <v>1395</v>
       </c>
       <c r="CD124" t="s">
         <v>729</v>
@@ -12870,9 +13039,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="125" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC125" t="s">
-        <v>1312</v>
+        <v>1289</v>
       </c>
       <c r="CD125" t="s">
         <v>730</v>
@@ -12881,9 +13050,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC126" t="s">
-        <v>1313</v>
+    <row r="126" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC126" s="2" t="s">
+        <v>1290</v>
       </c>
       <c r="CD126" t="s">
         <v>730</v>
@@ -12891,10 +13060,13 @@
       <c r="CE126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC127" t="s">
-        <v>1314</v>
+      <c r="CF126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC127" s="2" t="s">
+        <v>1396</v>
       </c>
       <c r="CD127" t="s">
         <v>730</v>
@@ -12902,10 +13074,13 @@
       <c r="CE127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC128" t="s">
-        <v>1252</v>
+      <c r="CF127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC128" s="2" t="s">
+        <v>1249</v>
       </c>
       <c r="CD128" t="s">
         <v>710</v>
@@ -12913,10 +13088,13 @@
       <c r="CE128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC129" t="s">
-        <v>1253</v>
+      <c r="CF128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC129" s="2" t="s">
+        <v>1250</v>
       </c>
       <c r="CD129" t="s">
         <v>710</v>
@@ -12924,10 +13102,13 @@
       <c r="CE129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC130" t="s">
-        <v>1254</v>
+      <c r="CF129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC130" s="2" t="s">
+        <v>1397</v>
       </c>
       <c r="CD130" t="s">
         <v>710</v>
@@ -12935,10 +13116,13 @@
       <c r="CE130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC131" t="s">
-        <v>1402</v>
+        <v>1349</v>
       </c>
       <c r="CD131" t="s">
         <v>759</v>
@@ -12947,9 +13131,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="132" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC132" t="s">
-        <v>1403</v>
+        <v>1350</v>
       </c>
       <c r="CD132" t="s">
         <v>759</v>
@@ -12958,9 +13142,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="133" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC133" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="CD133" t="s">
         <v>759</v>
@@ -12969,9 +13153,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="134" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC134" t="s">
-        <v>1357</v>
+        <v>1319</v>
       </c>
       <c r="CD134" t="s">
         <v>744</v>
@@ -12980,9 +13164,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="135" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC135" t="s">
-        <v>1358</v>
+        <v>1320</v>
       </c>
       <c r="CD135" t="s">
         <v>744</v>
@@ -12991,9 +13175,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="136" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC136" t="s">
-        <v>1359</v>
+        <v>1399</v>
       </c>
       <c r="CD136" t="s">
         <v>744</v>
@@ -13002,9 +13186,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="137" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC137" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="CD137" t="s">
         <v>717</v>
@@ -13013,9 +13197,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC138" t="s">
-        <v>1274</v>
+    <row r="138" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC138" s="2" t="s">
+        <v>1264</v>
       </c>
       <c r="CD138" t="s">
         <v>717</v>
@@ -13023,10 +13207,13 @@
       <c r="CE138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC139" t="s">
-        <v>1275</v>
+      <c r="CF138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC139" s="2" t="s">
+        <v>1400</v>
       </c>
       <c r="CD139" t="s">
         <v>717</v>
@@ -13034,10 +13221,13 @@
       <c r="CE139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC140" t="s">
-        <v>1276</v>
+      <c r="CF139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC140" s="2" t="s">
+        <v>1265</v>
       </c>
       <c r="CD140" t="s">
         <v>718</v>
@@ -13045,10 +13235,13 @@
       <c r="CE140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC141" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
       <c r="CD141" t="s">
         <v>718</v>
@@ -13057,9 +13250,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="142" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC142" t="s">
-        <v>1278</v>
+        <v>1401</v>
       </c>
       <c r="CD142" t="s">
         <v>718</v>
@@ -13068,9 +13261,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="143" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC143" t="s">
-        <v>1390</v>
+        <v>1341</v>
       </c>
       <c r="CD143" t="s">
         <v>748</v>
@@ -13079,9 +13272,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="144" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC144" t="s">
-        <v>1391</v>
+        <v>1342</v>
       </c>
       <c r="CD144" t="s">
         <v>748</v>
@@ -13090,9 +13283,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="145" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC145" t="s">
-        <v>1392</v>
+        <v>1402</v>
       </c>
       <c r="CD145" t="s">
         <v>748</v>
@@ -13101,9 +13294,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="146" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC146" t="s">
-        <v>1315</v>
+        <v>1291</v>
       </c>
       <c r="CD146" t="s">
         <v>731</v>
@@ -13112,9 +13305,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="147" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC147" t="s">
-        <v>1316</v>
+        <v>1292</v>
       </c>
       <c r="CD147" t="s">
         <v>731</v>
@@ -13123,9 +13316,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="148" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC148" t="s">
-        <v>1317</v>
+        <v>1403</v>
       </c>
       <c r="CD148" t="s">
         <v>731</v>
@@ -13134,9 +13327,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="149" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC149" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="CD149" t="s">
         <v>711</v>
@@ -13145,9 +13338,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="150" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC150" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="CD150" t="s">
         <v>711</v>
@@ -13156,9 +13349,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="151" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC151" t="s">
-        <v>1257</v>
+        <v>1404</v>
       </c>
       <c r="CD151" t="s">
         <v>711</v>
@@ -13167,9 +13360,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="152" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC152" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="CD152" t="s">
         <v>712</v>
@@ -13178,9 +13371,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC153" t="s">
-        <v>1259</v>
+    <row r="153" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC153" s="2" t="s">
+        <v>1254</v>
       </c>
       <c r="CD153" t="s">
         <v>712</v>
@@ -13188,10 +13381,13 @@
       <c r="CE153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC154" t="s">
-        <v>1260</v>
+      <c r="CF153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC154" s="2" t="s">
+        <v>1405</v>
       </c>
       <c r="CD154" t="s">
         <v>712</v>
@@ -13199,10 +13395,13 @@
       <c r="CE154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC155" t="s">
-        <v>1405</v>
+        <v>1351</v>
       </c>
       <c r="CD155" t="s">
         <v>760</v>
@@ -13211,9 +13410,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="156" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC156" t="s">
-        <v>1406</v>
+        <v>1352</v>
       </c>
       <c r="CD156" t="s">
         <v>760</v>
@@ -13222,9 +13421,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="157" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC157" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="CD157" t="s">
         <v>760</v>
@@ -13233,9 +13432,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC158" t="s">
-        <v>1318</v>
+    <row r="158" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC158" s="2" t="s">
+        <v>1293</v>
       </c>
       <c r="CD158" t="s">
         <v>732</v>
@@ -13243,10 +13442,13 @@
       <c r="CE158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC159" t="s">
-        <v>1319</v>
+      <c r="CF158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC159" s="2" t="s">
+        <v>1294</v>
       </c>
       <c r="CD159" t="s">
         <v>732</v>
@@ -13254,10 +13456,13 @@
       <c r="CE159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC160" t="s">
-        <v>1320</v>
+      <c r="CF159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC160" s="2" t="s">
+        <v>1407</v>
       </c>
       <c r="CD160" t="s">
         <v>732</v>
@@ -13265,10 +13470,13 @@
       <c r="CE160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC161" t="s">
-        <v>1261</v>
+      <c r="CF160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC161" s="2" t="s">
+        <v>1255</v>
       </c>
       <c r="CD161" t="s">
         <v>713</v>
@@ -13276,10 +13484,13 @@
       <c r="CE161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC162" t="s">
-        <v>1262</v>
+      <c r="CF161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC162" s="2" t="s">
+        <v>1256</v>
       </c>
       <c r="CD162" t="s">
         <v>713</v>
@@ -13287,10 +13498,13 @@
       <c r="CE162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="81:83" x14ac:dyDescent="0.3">
+      <c r="CF162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC163" t="s">
-        <v>1263</v>
+        <v>1408</v>
       </c>
       <c r="CD163" t="s">
         <v>713</v>
@@ -13299,9 +13513,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="164" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC164" t="s">
-        <v>1408</v>
+        <v>1353</v>
       </c>
       <c r="CD164" t="s">
         <v>761</v>
@@ -13310,9 +13524,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="165" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC165" t="s">
-        <v>1409</v>
+        <v>1354</v>
       </c>
       <c r="CD165" t="s">
         <v>761</v>
@@ -13321,9 +13535,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="166" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC166" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="CD166" t="s">
         <v>761</v>
@@ -13332,9 +13546,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="81:83" x14ac:dyDescent="0.3">
+    <row r="167" spans="81:84" x14ac:dyDescent="0.3">
       <c r="CC167" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="CD167" t="s">
         <v>719</v>
@@ -13343,9 +13557,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC168" t="s">
-        <v>1280</v>
+    <row r="168" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC168" s="2" t="s">
+        <v>1268</v>
       </c>
       <c r="CD168" t="s">
         <v>719</v>
@@ -13353,15 +13567,21 @@
       <c r="CE168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="81:83" x14ac:dyDescent="0.3">
-      <c r="CC169" t="s">
-        <v>1281</v>
+      <c r="CF168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CC169" s="2" t="s">
+        <v>1410</v>
       </c>
       <c r="CD169" t="s">
         <v>719</v>
       </c>
       <c r="CE169">
+        <v>1</v>
+      </c>
+      <c r="CF169">
         <v>1</v>
       </c>
     </row>
@@ -13370,38 +13590,38 @@
     <sortCondition ref="CC2:CC169"/>
   </sortState>
   <conditionalFormatting sqref="A1:ZZ1">
-    <cfRule type="containsText" dxfId="11" priority="28" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+    <cfRule type="containsText" dxfId="13" priority="28" stopIfTrue="1" operator="containsText" text="Moon Cheese">
       <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:ZZ200">
-    <cfRule type="containsText" dxfId="10" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+    <cfRule type="containsText" dxfId="12" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="11" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
+    <cfRule type="containsText" dxfId="10" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
       <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:ZZ200">
-    <cfRule type="containsText" dxfId="7" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+    <cfRule type="containsText" dxfId="9" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
       <formula>NOT(ISERROR(SEARCH("Moon Cheese",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="containsText" dxfId="6" priority="25" stopIfTrue="1" operator="containsText" text="Bubble">
+    <cfRule type="containsText" dxfId="8" priority="25" stopIfTrue="1" operator="containsText" text="Bubble">
       <formula>NOT(ISERROR(SEARCH("Bubble",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="containsText" dxfId="5" priority="32" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="7" priority="32" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576">
-    <cfRule type="containsText" dxfId="4" priority="30" stopIfTrue="1" operator="containsText" text=" + ">
+    <cfRule type="containsText" dxfId="6" priority="30" stopIfTrue="1" operator="containsText" text=" + ">
       <formula>NOT(ISERROR(SEARCH(" + ",Z1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14769,16 +14989,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B168">
-    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+    <cfRule type="containsText" dxfId="5" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
+    <cfRule type="containsText" dxfId="3" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
       <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+    <cfRule type="containsText" dxfId="2" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
       <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chels\Documents\GitHub\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64847D3-A09B-48C4-A969-B94DF7CA1355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39236697-89D8-4BBC-BF74-B78830BE3EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4338,7 +4338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4347,27 +4347,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4375,56 +4360,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4820,58 +4755,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CF169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY157" workbookViewId="0">
-      <selection activeCell="CC164" sqref="CC164"/>
+    <sheetView tabSelected="1" topLeftCell="BF7" workbookViewId="0">
+      <selection activeCell="BM12" sqref="BM12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.109375" customWidth="1"/>
-    <col min="13" max="13" width="41.6640625" customWidth="1"/>
-    <col min="14" max="14" width="38.109375" customWidth="1"/>
-    <col min="17" max="17" width="41.88671875" customWidth="1"/>
-    <col min="18" max="18" width="25.109375" customWidth="1"/>
-    <col min="21" max="21" width="41.5546875" customWidth="1"/>
-    <col min="22" max="22" width="26.6640625" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" customWidth="1"/>
-    <col min="25" max="25" width="27.88671875" customWidth="1"/>
-    <col min="26" max="26" width="27.44140625" customWidth="1"/>
-    <col min="29" max="29" width="27.33203125" customWidth="1"/>
-    <col min="30" max="30" width="32.88671875" customWidth="1"/>
-    <col min="33" max="33" width="25.88671875" customWidth="1"/>
-    <col min="34" max="34" width="35.88671875" customWidth="1"/>
-    <col min="37" max="37" width="25.88671875" customWidth="1"/>
-    <col min="38" max="38" width="35.88671875" customWidth="1"/>
-    <col min="41" max="41" width="25.88671875" customWidth="1"/>
-    <col min="42" max="42" width="35.88671875" customWidth="1"/>
-    <col min="45" max="45" width="28.88671875" customWidth="1"/>
-    <col min="46" max="46" width="29.109375" customWidth="1"/>
-    <col min="49" max="49" width="34.5546875" customWidth="1"/>
-    <col min="50" max="50" width="33.44140625" customWidth="1"/>
-    <col min="53" max="53" width="34.5546875" customWidth="1"/>
-    <col min="54" max="54" width="33.44140625" customWidth="1"/>
-    <col min="57" max="57" width="24.6640625" customWidth="1"/>
-    <col min="58" max="58" width="32.5546875" customWidth="1"/>
-    <col min="61" max="61" width="35.88671875" customWidth="1"/>
-    <col min="62" max="62" width="28.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="13" max="13" width="41.7109375" customWidth="1"/>
+    <col min="14" max="14" width="38.140625" customWidth="1"/>
+    <col min="17" max="17" width="41.85546875" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" customWidth="1"/>
+    <col min="21" max="21" width="41.5703125" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="27.85546875" customWidth="1"/>
+    <col min="26" max="26" width="27.42578125" customWidth="1"/>
+    <col min="29" max="29" width="27.28515625" customWidth="1"/>
+    <col min="30" max="30" width="32.85546875" customWidth="1"/>
+    <col min="33" max="33" width="25.85546875" customWidth="1"/>
+    <col min="34" max="34" width="35.85546875" customWidth="1"/>
+    <col min="37" max="37" width="25.85546875" customWidth="1"/>
+    <col min="38" max="38" width="35.85546875" customWidth="1"/>
+    <col min="41" max="41" width="25.85546875" customWidth="1"/>
+    <col min="42" max="42" width="35.85546875" customWidth="1"/>
+    <col min="45" max="45" width="28.85546875" customWidth="1"/>
+    <col min="46" max="46" width="29.140625" customWidth="1"/>
+    <col min="49" max="49" width="34.5703125" customWidth="1"/>
+    <col min="50" max="50" width="33.42578125" customWidth="1"/>
+    <col min="53" max="53" width="34.5703125" customWidth="1"/>
+    <col min="54" max="54" width="33.42578125" customWidth="1"/>
+    <col min="57" max="57" width="24.7109375" customWidth="1"/>
+    <col min="58" max="58" width="32.5703125" customWidth="1"/>
+    <col min="61" max="61" width="35.85546875" customWidth="1"/>
+    <col min="62" max="62" width="28.140625" customWidth="1"/>
     <col min="63" max="63" width="9" customWidth="1"/>
-    <col min="65" max="65" width="32.33203125" customWidth="1"/>
-    <col min="66" max="66" width="32.5546875" customWidth="1"/>
-    <col min="69" max="69" width="36.44140625" customWidth="1"/>
-    <col min="70" max="70" width="32.5546875" customWidth="1"/>
+    <col min="65" max="65" width="32.28515625" customWidth="1"/>
+    <col min="66" max="66" width="32.5703125" customWidth="1"/>
+    <col min="69" max="69" width="36.42578125" customWidth="1"/>
+    <col min="70" max="70" width="32.5703125" customWidth="1"/>
     <col min="73" max="73" width="41" customWidth="1"/>
-    <col min="74" max="74" width="32.5546875" customWidth="1"/>
-    <col min="77" max="77" width="24.6640625" customWidth="1"/>
-    <col min="78" max="78" width="36.5546875" customWidth="1"/>
-    <col min="81" max="81" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="29.88671875" customWidth="1"/>
+    <col min="74" max="74" width="32.5703125" customWidth="1"/>
+    <col min="77" max="77" width="24.7109375" customWidth="1"/>
+    <col min="78" max="78" width="36.5703125" customWidth="1"/>
+    <col min="81" max="81" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:84" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5125,7 +5060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5198,13 +5133,16 @@
       <c r="X2">
         <v>1</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>161</v>
       </c>
       <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
         <v>1</v>
       </c>
       <c r="AC2" s="2" t="s">
@@ -5237,7 +5175,7 @@
       <c r="AM2">
         <v>1</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>511</v>
       </c>
       <c r="AP2" t="s">
@@ -5246,6 +5184,9 @@
       <c r="AQ2">
         <v>1</v>
       </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
       <c r="AS2" t="s">
         <v>513</v>
       </c>
@@ -5349,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5464,7 +5405,7 @@
       <c r="AM3">
         <v>1</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="2" t="s">
         <v>504</v>
       </c>
       <c r="AP3" t="s">
@@ -5473,6 +5414,9 @@
       <c r="AQ3">
         <v>1</v>
       </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
       <c r="AS3" t="s">
         <v>514</v>
       </c>
@@ -5512,17 +5456,17 @@
       <c r="BH3">
         <v>1</v>
       </c>
-      <c r="BI3" s="5" t="s">
+      <c r="BI3" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="BJ3" s="5" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>598</v>
       </c>
       <c r="BK3">
         <v>3</v>
       </c>
       <c r="BL3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BM3" t="s">
         <v>921</v>
@@ -5579,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5664,13 +5608,16 @@
       <c r="AB4">
         <v>1</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="2" t="s">
         <v>397</v>
       </c>
       <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
         <v>1</v>
       </c>
       <c r="AG4" t="s">
@@ -5691,7 +5638,7 @@
       <c r="AM4">
         <v>1</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="2" t="s">
         <v>505</v>
       </c>
       <c r="AP4" t="s">
@@ -5700,6 +5647,9 @@
       <c r="AQ4">
         <v>1</v>
       </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
       <c r="AS4" t="s">
         <v>515</v>
       </c>
@@ -5760,13 +5710,16 @@
       <c r="BO4">
         <v>1</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BQ4" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BR4" s="2" t="s">
         <v>680</v>
       </c>
       <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
         <v>1</v>
       </c>
       <c r="BU4" t="s">
@@ -5803,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5876,13 +5829,16 @@
       <c r="X5">
         <v>1</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="2" t="s">
         <v>304</v>
       </c>
       <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
         <v>1</v>
       </c>
       <c r="AC5" s="2" t="s">
@@ -5915,7 +5871,7 @@
       <c r="AM5">
         <v>1</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO5" s="2" t="s">
         <v>1057</v>
       </c>
       <c r="AP5" t="s">
@@ -5924,6 +5880,9 @@
       <c r="AQ5">
         <v>1</v>
       </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
       <c r="AS5" t="s">
         <v>516</v>
       </c>
@@ -5975,13 +5934,16 @@
       <c r="BL5">
         <v>2</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BM5" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BN5" s="2" t="s">
         <v>779</v>
       </c>
       <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
         <v>1</v>
       </c>
       <c r="BQ5" t="s">
@@ -6027,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6088,22 +6050,28 @@
       <c r="T6">
         <v>1</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="2" t="s">
         <v>165</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="2" t="s">
         <v>312</v>
       </c>
       <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
         <v>1</v>
       </c>
       <c r="AC6" s="2" t="s">
@@ -6136,7 +6104,7 @@
       <c r="AM6">
         <v>1</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AO6" s="2" t="s">
         <v>1058</v>
       </c>
       <c r="AP6" t="s">
@@ -6145,6 +6113,9 @@
       <c r="AQ6">
         <v>1</v>
       </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
       <c r="AS6" t="s">
         <v>517</v>
       </c>
@@ -6208,7 +6179,7 @@
       <c r="BQ6" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="BR6" t="s">
+      <c r="BR6" s="2" t="s">
         <v>693</v>
       </c>
       <c r="BS6">
@@ -6248,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -6321,22 +6292,28 @@
       <c r="X7">
         <v>1</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="2" t="s">
         <v>232</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="2" t="s">
         <v>165</v>
       </c>
       <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
         <v>1</v>
       </c>
       <c r="AG7" t="s">
@@ -6357,7 +6334,7 @@
       <c r="AM7">
         <v>1</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AO7" s="2" t="s">
         <v>1059</v>
       </c>
       <c r="AP7" t="s">
@@ -6366,6 +6343,9 @@
       <c r="AQ7">
         <v>1</v>
       </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
       <c r="AS7" t="s">
         <v>518</v>
       </c>
@@ -6417,7 +6397,7 @@
       <c r="BL7">
         <v>2</v>
       </c>
-      <c r="BM7" t="s">
+      <c r="BM7" s="2" t="s">
         <v>944</v>
       </c>
       <c r="BN7" t="s">
@@ -6426,10 +6406,13 @@
       <c r="BO7">
         <v>1</v>
       </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
       <c r="BQ7" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="BR7" t="s">
+      <c r="BR7" s="2" t="s">
         <v>694</v>
       </c>
       <c r="BS7">
@@ -6472,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -6521,13 +6504,16 @@
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="2" t="s">
         <v>352</v>
       </c>
       <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
         <v>1</v>
       </c>
       <c r="U8" s="2" t="s">
@@ -6542,13 +6528,16 @@
       <c r="X8">
         <v>1</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="2" t="s">
         <v>286</v>
       </c>
       <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
         <v>1</v>
       </c>
       <c r="AC8" s="2" t="s">
@@ -6581,7 +6570,7 @@
       <c r="AM8">
         <v>1</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AO8" s="2" t="s">
         <v>1060</v>
       </c>
       <c r="AP8" t="s">
@@ -6590,6 +6579,9 @@
       <c r="AQ8">
         <v>1</v>
       </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
       <c r="AS8" t="s">
         <v>519</v>
       </c>
@@ -6641,7 +6633,7 @@
       <c r="BL8">
         <v>2</v>
       </c>
-      <c r="BM8" t="s">
+      <c r="BM8" s="2" t="s">
         <v>943</v>
       </c>
       <c r="BN8" t="s">
@@ -6650,6 +6642,9 @@
       <c r="BO8">
         <v>1</v>
       </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
       <c r="BQ8" t="s">
         <v>938</v>
       </c>
@@ -6690,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -6703,13 +6698,16 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>110</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -6724,13 +6722,16 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="2" t="s">
         <v>165</v>
       </c>
       <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -6745,22 +6746,28 @@
       <c r="T9">
         <v>1</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="2" t="s">
         <v>212</v>
       </c>
       <c r="W9">
         <v>1</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="2" t="s">
         <v>287</v>
       </c>
       <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
         <v>1</v>
       </c>
       <c r="AC9" s="2" t="s">
@@ -6793,7 +6800,7 @@
       <c r="AM9">
         <v>1</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AO9" s="2" t="s">
         <v>1061</v>
       </c>
       <c r="AP9" t="s">
@@ -6802,6 +6809,9 @@
       <c r="AQ9">
         <v>1</v>
       </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
       <c r="AS9" t="s">
         <v>520</v>
       </c>
@@ -6890,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -6927,13 +6937,16 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="2" t="s">
         <v>166</v>
       </c>
       <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -6960,13 +6973,16 @@
       <c r="X10">
         <v>1</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="2" t="s">
         <v>165</v>
       </c>
       <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
         <v>1</v>
       </c>
       <c r="AC10" s="2" t="s">
@@ -6999,7 +7015,7 @@
       <c r="AM10">
         <v>1</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AO10" s="2" t="s">
         <v>1062</v>
       </c>
       <c r="AP10" t="s">
@@ -7008,6 +7024,9 @@
       <c r="AQ10">
         <v>1</v>
       </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
       <c r="AS10" t="s">
         <v>521</v>
       </c>
@@ -7059,7 +7078,7 @@
       <c r="BQ10" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="BR10" t="s">
+      <c r="BR10" s="2" t="s">
         <v>697</v>
       </c>
       <c r="BS10">
@@ -7090,7 +7109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -7175,13 +7194,16 @@
       <c r="AB11">
         <v>1</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AC11" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="2" t="s">
         <v>402</v>
       </c>
       <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
         <v>1</v>
       </c>
       <c r="AG11" t="s">
@@ -7202,7 +7224,7 @@
       <c r="AM11">
         <v>1</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AO11" s="2" t="s">
         <v>1063</v>
       </c>
       <c r="AP11" t="s">
@@ -7211,6 +7233,9 @@
       <c r="AQ11">
         <v>1</v>
       </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
       <c r="AS11" t="s">
         <v>522</v>
       </c>
@@ -7287,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -7321,22 +7346,28 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="2" t="s">
         <v>167</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="2" t="s">
         <v>383</v>
       </c>
       <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
         <v>1</v>
       </c>
       <c r="U12" s="2" t="s">
@@ -7351,13 +7382,16 @@
       <c r="X12">
         <v>1</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="2" t="s">
         <v>234</v>
       </c>
       <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
         <v>1</v>
       </c>
       <c r="AC12" s="2" t="s">
@@ -7390,7 +7424,7 @@
       <c r="AM12">
         <v>1</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AO12" s="2" t="s">
         <v>1064</v>
       </c>
       <c r="AP12" t="s">
@@ -7399,6 +7433,9 @@
       <c r="AQ12">
         <v>1</v>
       </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
       <c r="AS12" t="s">
         <v>523</v>
       </c>
@@ -7478,7 +7515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -7551,22 +7588,28 @@
       <c r="X13">
         <v>1</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="2" t="s">
         <v>306</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AD13" s="2" t="s">
         <v>220</v>
       </c>
       <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
         <v>1</v>
       </c>
       <c r="AG13" t="s">
@@ -7587,7 +7630,7 @@
       <c r="AM13">
         <v>1</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AO13" s="2" t="s">
         <v>1065</v>
       </c>
       <c r="AP13" t="s">
@@ -7596,6 +7639,9 @@
       <c r="AQ13">
         <v>1</v>
       </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
       <c r="AS13" t="s">
         <v>524</v>
       </c>
@@ -7672,7 +7718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -7718,13 +7764,16 @@
       <c r="P14">
         <v>1</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="2" t="s">
         <v>359</v>
       </c>
       <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
         <v>1</v>
       </c>
       <c r="U14" s="2" t="s">
@@ -7781,7 +7830,7 @@
       <c r="AM14">
         <v>1</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AO14" s="2" t="s">
         <v>506</v>
       </c>
       <c r="AP14" t="s">
@@ -7790,6 +7839,9 @@
       <c r="AQ14">
         <v>1</v>
       </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
       <c r="AS14" t="s">
         <v>525</v>
       </c>
@@ -7869,7 +7921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -7903,13 +7955,16 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="2" t="s">
         <v>361</v>
       </c>
       <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -7924,22 +7979,28 @@
       <c r="T15">
         <v>1</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="2" t="s">
         <v>200</v>
       </c>
       <c r="W15">
         <v>1</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Z15" s="2" t="s">
         <v>289</v>
       </c>
       <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
         <v>1</v>
       </c>
       <c r="AC15" s="2" t="s">
@@ -7972,7 +8033,7 @@
       <c r="AM15">
         <v>1</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AO15" s="2" t="s">
         <v>507</v>
       </c>
       <c r="AP15" t="s">
@@ -7981,6 +8042,9 @@
       <c r="AQ15">
         <v>1</v>
       </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
       <c r="AS15" t="s">
         <v>526</v>
       </c>
@@ -8029,13 +8093,16 @@
       <c r="BO15">
         <v>1</v>
       </c>
-      <c r="BQ15" t="s">
+      <c r="BQ15" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="BR15" t="s">
+      <c r="BR15" s="2" t="s">
         <v>700</v>
       </c>
       <c r="BS15">
+        <v>1</v>
+      </c>
+      <c r="BT15">
         <v>1</v>
       </c>
       <c r="BU15" t="s">
@@ -8047,7 +8114,7 @@
       <c r="BW15">
         <v>1</v>
       </c>
-      <c r="CC15" t="s">
+      <c r="CC15" s="2" t="s">
         <v>1258</v>
       </c>
       <c r="CD15" t="s">
@@ -8056,8 +8123,11 @@
       <c r="CE15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="CF15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -8118,22 +8188,28 @@
       <c r="T16">
         <v>1</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" s="2" t="s">
         <v>201</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Z16" s="2" t="s">
         <v>291</v>
       </c>
       <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
         <v>1</v>
       </c>
       <c r="AC16" s="2" t="s">
@@ -8245,14 +8321,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -8279,31 +8358,40 @@
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="2" t="s">
         <v>160</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="2" t="s">
         <v>362</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
-      <c r="U17" t="s">
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17" s="2" t="s">
         <v>202</v>
       </c>
       <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
         <v>1</v>
       </c>
       <c r="Y17" s="2" t="s">
@@ -8427,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -8440,13 +8528,16 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>1241</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>129</v>
       </c>
       <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -8473,31 +8564,40 @@
       <c r="P18">
         <v>1</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="2" t="s">
         <v>165</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
-      <c r="U18" t="s">
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" s="2" t="s">
         <v>203</v>
       </c>
       <c r="W18">
         <v>1</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="Z18" s="2" t="s">
         <v>233</v>
       </c>
       <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
         <v>1</v>
       </c>
       <c r="AC18" s="2" t="s">
@@ -8596,7 +8696,7 @@
       <c r="BW18">
         <v>1</v>
       </c>
-      <c r="CC18" t="s">
+      <c r="CC18" s="2" t="s">
         <v>1310</v>
       </c>
       <c r="CD18" t="s">
@@ -8605,8 +8705,11 @@
       <c r="CE18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="CF18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -8619,13 +8722,16 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -8640,13 +8746,16 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="2" t="s">
         <v>363</v>
       </c>
       <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -8673,13 +8782,16 @@
       <c r="X19">
         <v>1</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Z19" s="2" t="s">
         <v>166</v>
       </c>
       <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
         <v>1</v>
       </c>
       <c r="AC19" s="2" t="s">
@@ -8782,7 +8894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -8795,13 +8907,16 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>131</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -8840,22 +8955,28 @@
       <c r="T20">
         <v>1</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V20" s="2" t="s">
         <v>215</v>
       </c>
       <c r="W20">
         <v>1</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Z20" s="2" t="s">
         <v>235</v>
       </c>
       <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
         <v>1</v>
       </c>
       <c r="AC20" s="2" t="s">
@@ -8961,7 +9082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -8998,31 +9119,40 @@
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="2" t="s">
         <v>364</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="2" t="s">
         <v>365</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
-      <c r="U21" t="s">
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V21" s="2" t="s">
         <v>216</v>
       </c>
       <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
         <v>1</v>
       </c>
       <c r="Y21" s="2" t="s">
@@ -9134,7 +9264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -9150,7 +9280,7 @@
       <c r="E22" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>135</v>
       </c>
       <c r="G22">
@@ -9192,13 +9322,16 @@
       <c r="T22">
         <v>1</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U22" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V22" s="2" t="s">
         <v>217</v>
       </c>
       <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
         <v>1</v>
       </c>
       <c r="Y22" s="2" t="s">
@@ -9297,7 +9430,7 @@
       <c r="BX22">
         <v>1</v>
       </c>
-      <c r="CC22" t="s">
+      <c r="CC22" s="2" t="s">
         <v>1361</v>
       </c>
       <c r="CD22" t="s">
@@ -9306,8 +9439,11 @@
       <c r="CE22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="CF22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -9317,13 +9453,16 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
@@ -9350,13 +9489,16 @@
       <c r="T23">
         <v>1</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V23" s="2" t="s">
         <v>218</v>
       </c>
       <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
         <v>1</v>
       </c>
       <c r="Y23" s="2" t="s">
@@ -9453,7 +9595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -9590,14 +9732,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -9645,13 +9790,16 @@
       <c r="X25">
         <v>1</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Z25" s="2" t="s">
         <v>293</v>
       </c>
       <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
         <v>1</v>
       </c>
       <c r="AC25" s="2" t="s">
@@ -9675,7 +9823,7 @@
       <c r="BK25">
         <v>3</v>
       </c>
-      <c r="BL25" s="4">
+      <c r="BL25" s="6">
         <v>1</v>
       </c>
       <c r="BM25" s="2" t="s">
@@ -9724,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -9737,13 +9885,16 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>1242</v>
       </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
       <c r="M26" t="s">
@@ -9776,13 +9927,16 @@
       <c r="X26">
         <v>1</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y26" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Z26" s="2" t="s">
         <v>295</v>
       </c>
       <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
         <v>1</v>
       </c>
       <c r="BI26" s="5" t="s">
@@ -9794,7 +9948,7 @@
       <c r="BK26">
         <v>3</v>
       </c>
-      <c r="BL26" s="4">
+      <c r="BL26" s="6">
         <v>1</v>
       </c>
       <c r="BM26" s="2" t="s">
@@ -9843,7 +9997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -9874,22 +10028,28 @@
       <c r="O27">
         <v>1</v>
       </c>
-      <c r="U27" t="s">
+      <c r="U27" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="V27" t="s">
+      <c r="V27" s="2" t="s">
         <v>206</v>
       </c>
       <c r="W27">
         <v>1</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Z27" s="2" t="s">
         <v>297</v>
       </c>
       <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
         <v>1</v>
       </c>
       <c r="BI27" s="5" t="s">
@@ -9953,7 +10113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -10057,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -10067,13 +10227,16 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>1</v>
       </c>
       <c r="U29" s="2" t="s">
@@ -10088,13 +10251,16 @@
       <c r="X29">
         <v>1</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Y29" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Z29" s="2" t="s">
         <v>308</v>
       </c>
       <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
         <v>1</v>
       </c>
       <c r="BI29" s="5" t="s">
@@ -10155,7 +10321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -10174,13 +10340,16 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V30" s="2" t="s">
         <v>220</v>
       </c>
       <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
         <v>1</v>
       </c>
       <c r="Y30" s="2" t="s">
@@ -10253,7 +10422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -10263,22 +10432,28 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="U31" t="s">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="U31" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="V31" t="s">
+      <c r="V31" s="2" t="s">
         <v>345</v>
       </c>
       <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
         <v>1</v>
       </c>
       <c r="Y31" s="2" t="s">
@@ -10351,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -10394,15 +10569,18 @@
       <c r="AB32">
         <v>1</v>
       </c>
-      <c r="BI32" t="s">
+      <c r="BI32" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="BJ32" t="s">
+      <c r="BJ32" s="5" t="s">
         <v>621</v>
       </c>
       <c r="BK32">
         <v>3</v>
       </c>
+      <c r="BL32">
+        <v>1</v>
+      </c>
       <c r="BM32" s="2" t="s">
         <v>816</v>
       </c>
@@ -10449,7 +10627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -10468,13 +10646,16 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V33" s="2" t="s">
         <v>222</v>
       </c>
       <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
         <v>1</v>
       </c>
       <c r="Y33" s="2" t="s">
@@ -10550,7 +10731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -10563,22 +10744,28 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U34" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="W34">
         <v>1</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Z34" s="2" t="s">
         <v>299</v>
       </c>
       <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
         <v>1</v>
       </c>
       <c r="BI34" s="5" t="s">
@@ -10642,7 +10829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -10655,13 +10842,16 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V35" s="2" t="s">
         <v>224</v>
       </c>
       <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
         <v>1</v>
       </c>
       <c r="Y35" s="2" t="s">
@@ -10676,17 +10866,17 @@
       <c r="AB35">
         <v>1</v>
       </c>
-      <c r="BI35" s="5" t="s">
+      <c r="BI35" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="BJ35" s="5" t="s">
+      <c r="BJ35" s="2" t="s">
         <v>624</v>
       </c>
       <c r="BK35">
         <v>3</v>
       </c>
-      <c r="BL35" s="4">
-        <v>1</v>
+      <c r="BL35">
+        <v>3</v>
       </c>
       <c r="BM35" s="2" t="s">
         <v>858</v>
@@ -10737,14 +10927,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:84" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
       <c r="U36" s="2" t="s">
@@ -10816,7 +11009,7 @@
       <c r="BX36">
         <v>1</v>
       </c>
-      <c r="CC36" t="s">
+      <c r="CC36" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="CD36" t="s">
@@ -10825,15 +11018,21 @@
       <c r="CE36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="CF36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>377</v>
       </c>
       <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>1</v>
       </c>
       <c r="U37" s="2" t="s">
@@ -10906,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
@@ -10919,24 +11118,30 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="U38" t="s">
+      <c r="U38" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="V38" t="s">
+      <c r="V38" s="2" t="s">
         <v>226</v>
       </c>
       <c r="W38">
         <v>1</v>
       </c>
-      <c r="BI38" t="s">
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="BI38" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="BJ38" t="s">
+      <c r="BJ38" s="5" t="s">
         <v>627</v>
       </c>
       <c r="BK38">
         <v>3</v>
       </c>
+      <c r="BL38" s="6">
+        <v>1</v>
+      </c>
       <c r="BM38" s="2" t="s">
         <v>852</v>
       </c>
@@ -10983,7 +11188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -11063,7 +11268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -11143,7 +11348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>73</v>
       </c>
@@ -11156,13 +11361,16 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="U41" t="s">
+      <c r="U41" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="V41" t="s">
+      <c r="V41" s="2" t="s">
         <v>207</v>
       </c>
       <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
         <v>1</v>
       </c>
       <c r="BI41" t="s">
@@ -11220,23 +11428,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="U42" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="U42" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="V42" t="s">
+      <c r="V42" s="2" t="s">
         <v>208</v>
       </c>
       <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
         <v>1</v>
       </c>
       <c r="BI42" s="5" t="s">
@@ -11287,7 +11501,7 @@
       <c r="BX42">
         <v>1</v>
       </c>
-      <c r="CC42" t="s">
+      <c r="CC42" s="2" t="s">
         <v>1336</v>
       </c>
       <c r="CD42" t="s">
@@ -11296,8 +11510,11 @@
       <c r="CE42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="CF42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -11307,13 +11524,16 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="U43" t="s">
+      <c r="U43" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="V43" t="s">
+      <c r="V43" s="2" t="s">
         <v>209</v>
       </c>
       <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
         <v>1</v>
       </c>
       <c r="BI43" t="s">
@@ -11371,7 +11591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -11448,7 +11668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
@@ -11461,13 +11681,16 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="U45" t="s">
+      <c r="U45" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="V45" t="s">
+      <c r="V45" s="2" t="s">
         <v>227</v>
       </c>
       <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
         <v>1</v>
       </c>
       <c r="BI45" t="s">
@@ -11525,7 +11748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -11605,7 +11828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -11615,24 +11838,30 @@
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="U47" t="s">
+      <c r="U47" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="V47" t="s">
+      <c r="V47" s="2" t="s">
         <v>210</v>
       </c>
       <c r="W47">
         <v>1</v>
       </c>
-      <c r="BI47" t="s">
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="BI47" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="BJ47" t="s">
+      <c r="BJ47" s="2" t="s">
         <v>633</v>
       </c>
       <c r="BK47">
         <v>3</v>
       </c>
+      <c r="BL47">
+        <v>3</v>
+      </c>
       <c r="BM47" s="2" t="s">
         <v>919</v>
       </c>
@@ -11679,7 +11908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -11689,24 +11918,30 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="U48" t="s">
+      <c r="U48" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="V48" t="s">
+      <c r="V48" s="2" t="s">
         <v>211</v>
       </c>
       <c r="W48">
         <v>1</v>
       </c>
-      <c r="BI48" t="s">
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="BI48" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="BJ48" t="s">
+      <c r="BJ48" s="2" t="s">
         <v>635</v>
       </c>
       <c r="BK48">
         <v>3</v>
       </c>
+      <c r="BL48">
+        <v>3</v>
+      </c>
       <c r="BM48" s="2" t="s">
         <v>918</v>
       </c>
@@ -11753,7 +11988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -11775,15 +12010,18 @@
       <c r="X49">
         <v>1</v>
       </c>
-      <c r="BI49" t="s">
+      <c r="BI49" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="BJ49" t="s">
+      <c r="BJ49" s="2" t="s">
         <v>634</v>
       </c>
       <c r="BK49">
         <v>3</v>
       </c>
+      <c r="BL49">
+        <v>3</v>
+      </c>
       <c r="BQ49" s="2" t="s">
         <v>896</v>
       </c>
@@ -11818,7 +12056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>91</v>
       </c>
@@ -11883,7 +12121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>381</v>
       </c>
@@ -11951,7 +12189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -12007,14 +12245,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
         <v>1</v>
       </c>
       <c r="BI53" t="s">
@@ -12063,7 +12304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
       <c r="BI54" t="s">
         <v>983</v>
       </c>
@@ -12107,7 +12348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
       <c r="BI55" t="s">
         <v>986</v>
       </c>
@@ -12154,7 +12395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:84" x14ac:dyDescent="0.25">
       <c r="BQ56" s="2" t="s">
         <v>917</v>
       </c>
@@ -12192,7 +12433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:84" x14ac:dyDescent="0.25">
       <c r="BU57" s="2" t="s">
         <v>929</v>
       </c>
@@ -12218,8 +12459,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:84" x14ac:dyDescent="0.3">
-      <c r="CC58" t="s">
+    <row r="58" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CC58" s="2" t="s">
         <v>1373</v>
       </c>
       <c r="CD58" t="s">
@@ -12228,8 +12469,11 @@
       <c r="CE58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="CF58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:84" x14ac:dyDescent="0.25">
       <c r="CC59" s="2" t="s">
         <v>1315</v>
       </c>
@@ -12243,7 +12487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:84" x14ac:dyDescent="0.25">
       <c r="CC60" t="s">
         <v>1316</v>
       </c>
@@ -12254,7 +12498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:84" x14ac:dyDescent="0.25">
       <c r="CC61" s="2" t="s">
         <v>1374</v>
       </c>
@@ -12268,7 +12512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:84" x14ac:dyDescent="0.25">
       <c r="CC62" t="s">
         <v>1329</v>
       </c>
@@ -12279,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:84" x14ac:dyDescent="0.25">
       <c r="CC63" t="s">
         <v>1330</v>
       </c>
@@ -12290,7 +12534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:84" x14ac:dyDescent="0.25">
       <c r="CC64" t="s">
         <v>1375</v>
       </c>
@@ -12301,7 +12545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="65" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC65" t="s">
         <v>1299</v>
       </c>
@@ -12312,7 +12556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="66" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC66" s="2" t="s">
         <v>1300</v>
       </c>
@@ -12326,7 +12570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="67" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC67" s="2" t="s">
         <v>1376</v>
       </c>
@@ -12340,7 +12584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="68" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC68" s="2" t="s">
         <v>1301</v>
       </c>
@@ -12354,7 +12598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="69" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC69" t="s">
         <v>1302</v>
       </c>
@@ -12365,7 +12609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="70" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC70" t="s">
         <v>1377</v>
       </c>
@@ -12376,7 +12620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="71" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC71" s="2" t="s">
         <v>1277</v>
       </c>
@@ -12390,8 +12634,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="81:84" x14ac:dyDescent="0.3">
-      <c r="CC72" t="s">
+    <row r="72" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC72" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="CD72" t="s">
@@ -12400,8 +12644,11 @@
       <c r="CE72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CF72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC73" s="2" t="s">
         <v>1378</v>
       </c>
@@ -12415,7 +12662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="74" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC74" t="s">
         <v>1317</v>
       </c>
@@ -12426,7 +12673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="75" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC75" s="2" t="s">
         <v>1318</v>
       </c>
@@ -12440,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="76" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC76" t="s">
         <v>1379</v>
       </c>
@@ -12451,7 +12698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="77" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC77" t="s">
         <v>1345</v>
       </c>
@@ -12462,7 +12709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="78" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC78" t="s">
         <v>1346</v>
       </c>
@@ -12473,7 +12720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="79" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC79" t="s">
         <v>1380</v>
       </c>
@@ -12484,7 +12731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="80" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC80" s="2" t="s">
         <v>1279</v>
       </c>
@@ -12498,7 +12745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="81" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC81" s="2" t="s">
         <v>1280</v>
       </c>
@@ -12512,7 +12759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="82" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC82" s="2" t="s">
         <v>1381</v>
       </c>
@@ -12526,8 +12773,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="81:84" x14ac:dyDescent="0.3">
-      <c r="CC83" t="s">
+    <row r="83" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC83" s="2" t="s">
         <v>1331</v>
       </c>
       <c r="CD83" t="s">
@@ -12536,9 +12783,12 @@
       <c r="CE83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="81:84" x14ac:dyDescent="0.3">
-      <c r="CC84" t="s">
+      <c r="CF83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC84" s="2" t="s">
         <v>1332</v>
       </c>
       <c r="CD84" t="s">
@@ -12547,8 +12797,11 @@
       <c r="CE84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CF84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC85" t="s">
         <v>1382</v>
       </c>
@@ -12559,7 +12812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="86" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC86" s="2" t="s">
         <v>1259</v>
       </c>
@@ -12573,8 +12826,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="81:84" x14ac:dyDescent="0.3">
-      <c r="CC87" t="s">
+    <row r="87" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC87" s="2" t="s">
         <v>1260</v>
       </c>
       <c r="CD87" t="s">
@@ -12583,8 +12836,11 @@
       <c r="CE87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CF87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC88" s="2" t="s">
         <v>1383</v>
       </c>
@@ -12598,7 +12854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="89" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC89" t="s">
         <v>1337</v>
       </c>
@@ -12609,8 +12865,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="81:84" x14ac:dyDescent="0.3">
-      <c r="CC90" t="s">
+    <row r="90" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC90" s="2" t="s">
         <v>1338</v>
       </c>
       <c r="CD90" t="s">
@@ -12619,8 +12875,11 @@
       <c r="CE90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CF90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC91" t="s">
         <v>1384</v>
       </c>
@@ -12631,7 +12890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="92" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC92" s="2" t="s">
         <v>1303</v>
       </c>
@@ -12645,7 +12904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="93" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC93" t="s">
         <v>1304</v>
       </c>
@@ -12656,7 +12915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="94" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC94" s="2" t="s">
         <v>1385</v>
       </c>
@@ -12670,7 +12929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="95" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC95" t="s">
         <v>1339</v>
       </c>
@@ -12681,7 +12940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="96" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC96" t="s">
         <v>1340</v>
       </c>
@@ -12692,7 +12951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="97" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC97" t="s">
         <v>1386</v>
       </c>
@@ -12703,7 +12962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="98" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC98" t="s">
         <v>1305</v>
       </c>
@@ -12714,7 +12973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="99" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC99" t="s">
         <v>1306</v>
       </c>
@@ -12725,7 +12984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="100" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC100" s="2" t="s">
         <v>1387</v>
       </c>
@@ -12739,7 +12998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="101" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC101" t="s">
         <v>1281</v>
       </c>
@@ -12750,7 +13009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="102" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC102" s="2" t="s">
         <v>1282</v>
       </c>
@@ -12764,8 +13023,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="81:84" x14ac:dyDescent="0.3">
-      <c r="CC103" t="s">
+    <row r="103" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC103" s="2" t="s">
         <v>1388</v>
       </c>
       <c r="CD103" t="s">
@@ -12774,8 +13033,11 @@
       <c r="CE103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CF103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC104" t="s">
         <v>1347</v>
       </c>
@@ -12786,7 +13048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="105" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC105" t="s">
         <v>1348</v>
       </c>
@@ -12797,7 +13059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="106" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC106" t="s">
         <v>1389</v>
       </c>
@@ -12808,7 +13070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="107" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC107" s="2" t="s">
         <v>1247</v>
       </c>
@@ -12822,7 +13084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="108" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC108" s="2" t="s">
         <v>1248</v>
       </c>
@@ -12836,7 +13098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="109" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC109" t="s">
         <v>1390</v>
       </c>
@@ -12847,8 +13109,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="81:84" x14ac:dyDescent="0.3">
-      <c r="CC110" t="s">
+    <row r="110" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC110" s="2" t="s">
         <v>1333</v>
       </c>
       <c r="CD110" t="s">
@@ -12857,9 +13119,12 @@
       <c r="CE110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="81:84" x14ac:dyDescent="0.3">
-      <c r="CC111" t="s">
+      <c r="CF110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC111" s="2" t="s">
         <v>1334</v>
       </c>
       <c r="CD111" t="s">
@@ -12868,8 +13133,11 @@
       <c r="CE111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CF111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC112" s="2" t="s">
         <v>1391</v>
       </c>
@@ -12883,7 +13151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="113" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC113" s="2" t="s">
         <v>1261</v>
       </c>
@@ -12897,7 +13165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="114" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC114" s="2" t="s">
         <v>1262</v>
       </c>
@@ -12911,7 +13179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="115" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC115" s="2" t="s">
         <v>1392</v>
       </c>
@@ -12925,7 +13193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="116" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC116" t="s">
         <v>1283</v>
       </c>
@@ -12936,7 +13204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="117" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC117" t="s">
         <v>1284</v>
       </c>
@@ -12947,7 +13215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="118" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC118" s="2" t="s">
         <v>1393</v>
       </c>
@@ -12961,7 +13229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="119" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC119" s="2" t="s">
         <v>1285</v>
       </c>
@@ -12975,7 +13243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="120" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC120" s="2" t="s">
         <v>1286</v>
       </c>
@@ -12989,7 +13257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="121" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC121" s="2" t="s">
         <v>1394</v>
       </c>
@@ -13003,7 +13271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="122" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC122" t="s">
         <v>1287</v>
       </c>
@@ -13014,7 +13282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="123" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC123" s="2" t="s">
         <v>1288</v>
       </c>
@@ -13028,7 +13296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="124" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC124" t="s">
         <v>1395</v>
       </c>
@@ -13039,7 +13307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="125" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC125" t="s">
         <v>1289</v>
       </c>
@@ -13050,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="126" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC126" s="2" t="s">
         <v>1290</v>
       </c>
@@ -13064,7 +13332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="127" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC127" s="2" t="s">
         <v>1396</v>
       </c>
@@ -13078,7 +13346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="128" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC128" s="2" t="s">
         <v>1249</v>
       </c>
@@ -13092,7 +13360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="129" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC129" s="2" t="s">
         <v>1250</v>
       </c>
@@ -13106,7 +13374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="130" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC130" s="2" t="s">
         <v>1397</v>
       </c>
@@ -13120,7 +13388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="131" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC131" t="s">
         <v>1349</v>
       </c>
@@ -13131,7 +13399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="132" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC132" t="s">
         <v>1350</v>
       </c>
@@ -13142,7 +13410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="133" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC133" t="s">
         <v>1398</v>
       </c>
@@ -13153,7 +13421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="134" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC134" t="s">
         <v>1319</v>
       </c>
@@ -13164,7 +13432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="135" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC135" t="s">
         <v>1320</v>
       </c>
@@ -13175,7 +13443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="136" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC136" t="s">
         <v>1399</v>
       </c>
@@ -13186,7 +13454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="137" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC137" t="s">
         <v>1263</v>
       </c>
@@ -13197,7 +13465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="138" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC138" s="2" t="s">
         <v>1264</v>
       </c>
@@ -13211,7 +13479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="139" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC139" s="2" t="s">
         <v>1400</v>
       </c>
@@ -13225,7 +13493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="140" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC140" s="2" t="s">
         <v>1265</v>
       </c>
@@ -13239,7 +13507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="141" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC141" t="s">
         <v>1266</v>
       </c>
@@ -13250,7 +13518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="142" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC142" t="s">
         <v>1401</v>
       </c>
@@ -13261,8 +13529,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="81:84" x14ac:dyDescent="0.3">
-      <c r="CC143" t="s">
+    <row r="143" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC143" s="2" t="s">
         <v>1341</v>
       </c>
       <c r="CD143" t="s">
@@ -13271,8 +13539,11 @@
       <c r="CE143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CF143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC144" t="s">
         <v>1342</v>
       </c>
@@ -13283,8 +13554,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="81:84" x14ac:dyDescent="0.3">
-      <c r="CC145" t="s">
+    <row r="145" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC145" s="2" t="s">
         <v>1402</v>
       </c>
       <c r="CD145" t="s">
@@ -13293,8 +13564,11 @@
       <c r="CE145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CF145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC146" t="s">
         <v>1291</v>
       </c>
@@ -13305,7 +13579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="147" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC147" t="s">
         <v>1292</v>
       </c>
@@ -13316,7 +13590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="148" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC148" t="s">
         <v>1403</v>
       </c>
@@ -13327,7 +13601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="149" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC149" t="s">
         <v>1251</v>
       </c>
@@ -13338,7 +13612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="150" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC150" t="s">
         <v>1252</v>
       </c>
@@ -13349,7 +13623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="151" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC151" t="s">
         <v>1404</v>
       </c>
@@ -13360,8 +13634,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="81:84" x14ac:dyDescent="0.3">
-      <c r="CC152" t="s">
+    <row r="152" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC152" s="2" t="s">
         <v>1253</v>
       </c>
       <c r="CD152" t="s">
@@ -13370,8 +13644,11 @@
       <c r="CE152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="81:84" x14ac:dyDescent="0.3">
+      <c r="CF152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC153" s="2" t="s">
         <v>1254</v>
       </c>
@@ -13385,7 +13662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="154" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC154" s="2" t="s">
         <v>1405</v>
       </c>
@@ -13399,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="155" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC155" t="s">
         <v>1351</v>
       </c>
@@ -13410,7 +13687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="156" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC156" t="s">
         <v>1352</v>
       </c>
@@ -13421,7 +13698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="157" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC157" t="s">
         <v>1406</v>
       </c>
@@ -13432,7 +13709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="158" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC158" s="2" t="s">
         <v>1293</v>
       </c>
@@ -13446,7 +13723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="159" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC159" s="2" t="s">
         <v>1294</v>
       </c>
@@ -13460,7 +13737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="160" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC160" s="2" t="s">
         <v>1407</v>
       </c>
@@ -13474,7 +13751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="161" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC161" s="2" t="s">
         <v>1255</v>
       </c>
@@ -13488,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="162" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC162" s="2" t="s">
         <v>1256</v>
       </c>
@@ -13502,7 +13779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="163" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC163" t="s">
         <v>1408</v>
       </c>
@@ -13513,7 +13790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="164" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC164" t="s">
         <v>1353</v>
       </c>
@@ -13524,7 +13801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="165" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC165" t="s">
         <v>1354</v>
       </c>
@@ -13535,7 +13812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="166" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC166" t="s">
         <v>1409</v>
       </c>
@@ -13546,7 +13823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="167" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC167" t="s">
         <v>1267</v>
       </c>
@@ -13557,7 +13834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="168" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC168" s="2" t="s">
         <v>1268</v>
       </c>
@@ -13571,7 +13848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="81:84" x14ac:dyDescent="0.3">
+    <row r="169" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC169" s="2" t="s">
         <v>1410</v>
       </c>
@@ -13589,40 +13866,17 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="CC2:CF169">
     <sortCondition ref="CC2:CC169"/>
   </sortState>
-  <conditionalFormatting sqref="A1:ZZ1">
-    <cfRule type="containsText" dxfId="13" priority="28" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:ZZ200">
-    <cfRule type="containsText" dxfId="12" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="1" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
-      <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:ZZ200">
-    <cfRule type="containsText" dxfId="9" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
-      <formula>NOT(ISERROR(SEARCH("Moon Cheese",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="containsText" dxfId="8" priority="25" stopIfTrue="1" operator="containsText" text="Bubble">
+    <cfRule type="containsText" dxfId="0" priority="25" stopIfTrue="1" operator="containsText" text="Bubble">
       <formula>NOT(ISERROR(SEARCH("Bubble",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="containsText" dxfId="7" priority="32" stopIfTrue="1" operator="containsText" text=" + ">
-      <formula>NOT(ISERROR(SEARCH(" + ",R1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z1048576">
-    <cfRule type="containsText" dxfId="6" priority="30" stopIfTrue="1" operator="containsText" text=" + ">
-      <formula>NOT(ISERROR(SEARCH(" + ",Z1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13637,13 +13891,13 @@
       <selection activeCell="A144" sqref="A1:B168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1071</v>
       </c>
@@ -13651,7 +13905,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1072</v>
       </c>
@@ -13659,7 +13913,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1073</v>
       </c>
@@ -13667,7 +13921,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1074</v>
       </c>
@@ -13675,7 +13929,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1075</v>
       </c>
@@ -13683,7 +13937,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1076</v>
       </c>
@@ -13691,7 +13945,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1077</v>
       </c>
@@ -13699,7 +13953,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1078</v>
       </c>
@@ -13707,7 +13961,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1079</v>
       </c>
@@ -13715,7 +13969,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1080</v>
       </c>
@@ -13723,7 +13977,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1081</v>
       </c>
@@ -13731,7 +13985,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1082</v>
       </c>
@@ -13739,7 +13993,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1083</v>
       </c>
@@ -13747,7 +14001,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1084</v>
       </c>
@@ -13755,7 +14009,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1085</v>
       </c>
@@ -13763,7 +14017,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1086</v>
       </c>
@@ -13771,7 +14025,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1087</v>
       </c>
@@ -13779,7 +14033,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1088</v>
       </c>
@@ -13787,7 +14041,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1089</v>
       </c>
@@ -13795,7 +14049,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1090</v>
       </c>
@@ -13803,7 +14057,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1091</v>
       </c>
@@ -13811,7 +14065,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1092</v>
       </c>
@@ -13819,7 +14073,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1093</v>
       </c>
@@ -13827,7 +14081,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1094</v>
       </c>
@@ -13835,7 +14089,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1095</v>
       </c>
@@ -13843,7 +14097,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1096</v>
       </c>
@@ -13851,7 +14105,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1097</v>
       </c>
@@ -13859,7 +14113,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1098</v>
       </c>
@@ -13867,7 +14121,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1099</v>
       </c>
@@ -13875,7 +14129,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1100</v>
       </c>
@@ -13883,7 +14137,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1101</v>
       </c>
@@ -13891,7 +14145,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1102</v>
       </c>
@@ -13899,7 +14153,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1103</v>
       </c>
@@ -13907,7 +14161,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1104</v>
       </c>
@@ -13915,7 +14169,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1105</v>
       </c>
@@ -13923,7 +14177,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1106</v>
       </c>
@@ -13931,7 +14185,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1107</v>
       </c>
@@ -13939,7 +14193,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1108</v>
       </c>
@@ -13947,7 +14201,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1109</v>
       </c>
@@ -13955,7 +14209,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1110</v>
       </c>
@@ -13963,7 +14217,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1111</v>
       </c>
@@ -13971,7 +14225,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1112</v>
       </c>
@@ -13979,7 +14233,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1113</v>
       </c>
@@ -13987,7 +14241,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1114</v>
       </c>
@@ -13995,7 +14249,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1115</v>
       </c>
@@ -14003,7 +14257,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1116</v>
       </c>
@@ -14011,7 +14265,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1117</v>
       </c>
@@ -14019,7 +14273,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1118</v>
       </c>
@@ -14027,7 +14281,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1119</v>
       </c>
@@ -14035,7 +14289,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1120</v>
       </c>
@@ -14043,7 +14297,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1121</v>
       </c>
@@ -14051,7 +14305,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1122</v>
       </c>
@@ -14059,7 +14313,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1123</v>
       </c>
@@ -14067,7 +14321,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1124</v>
       </c>
@@ -14075,7 +14329,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1125</v>
       </c>
@@ -14083,7 +14337,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1126</v>
       </c>
@@ -14091,7 +14345,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1127</v>
       </c>
@@ -14099,7 +14353,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1128</v>
       </c>
@@ -14107,7 +14361,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1129</v>
       </c>
@@ -14115,7 +14369,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1130</v>
       </c>
@@ -14123,7 +14377,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1131</v>
       </c>
@@ -14131,7 +14385,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1132</v>
       </c>
@@ -14139,7 +14393,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1133</v>
       </c>
@@ -14147,7 +14401,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1134</v>
       </c>
@@ -14155,7 +14409,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1135</v>
       </c>
@@ -14163,7 +14417,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1136</v>
       </c>
@@ -14171,7 +14425,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1137</v>
       </c>
@@ -14179,7 +14433,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1138</v>
       </c>
@@ -14187,7 +14441,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1139</v>
       </c>
@@ -14195,7 +14449,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1140</v>
       </c>
@@ -14203,7 +14457,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1141</v>
       </c>
@@ -14211,7 +14465,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1142</v>
       </c>
@@ -14219,7 +14473,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1143</v>
       </c>
@@ -14227,7 +14481,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1144</v>
       </c>
@@ -14235,7 +14489,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1145</v>
       </c>
@@ -14243,7 +14497,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1146</v>
       </c>
@@ -14251,7 +14505,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1147</v>
       </c>
@@ -14259,7 +14513,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1148</v>
       </c>
@@ -14267,7 +14521,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1149</v>
       </c>
@@ -14275,7 +14529,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1150</v>
       </c>
@@ -14283,7 +14537,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1151</v>
       </c>
@@ -14291,7 +14545,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1152</v>
       </c>
@@ -14299,7 +14553,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1153</v>
       </c>
@@ -14307,7 +14561,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1154</v>
       </c>
@@ -14315,7 +14569,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1155</v>
       </c>
@@ -14323,7 +14577,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1156</v>
       </c>
@@ -14331,7 +14585,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1157</v>
       </c>
@@ -14339,7 +14593,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1158</v>
       </c>
@@ -14347,7 +14601,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1159</v>
       </c>
@@ -14355,7 +14609,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1160</v>
       </c>
@@ -14363,7 +14617,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1161</v>
       </c>
@@ -14371,7 +14625,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1162</v>
       </c>
@@ -14379,7 +14633,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1163</v>
       </c>
@@ -14387,7 +14641,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1164</v>
       </c>
@@ -14395,7 +14649,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1165</v>
       </c>
@@ -14403,7 +14657,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1166</v>
       </c>
@@ -14411,7 +14665,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1167</v>
       </c>
@@ -14419,7 +14673,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1168</v>
       </c>
@@ -14427,7 +14681,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1169</v>
       </c>
@@ -14435,7 +14689,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1170</v>
       </c>
@@ -14443,7 +14697,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1171</v>
       </c>
@@ -14451,7 +14705,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1172</v>
       </c>
@@ -14459,7 +14713,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1173</v>
       </c>
@@ -14467,7 +14721,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1174</v>
       </c>
@@ -14475,7 +14729,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1175</v>
       </c>
@@ -14483,7 +14737,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1176</v>
       </c>
@@ -14491,7 +14745,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1177</v>
       </c>
@@ -14499,7 +14753,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1178</v>
       </c>
@@ -14507,7 +14761,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1179</v>
       </c>
@@ -14515,7 +14769,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1180</v>
       </c>
@@ -14523,7 +14777,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1181</v>
       </c>
@@ -14531,7 +14785,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1182</v>
       </c>
@@ -14539,7 +14793,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1183</v>
       </c>
@@ -14547,7 +14801,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1184</v>
       </c>
@@ -14555,7 +14809,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1185</v>
       </c>
@@ -14563,7 +14817,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1186</v>
       </c>
@@ -14571,7 +14825,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1187</v>
       </c>
@@ -14579,7 +14833,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1188</v>
       </c>
@@ -14587,7 +14841,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1189</v>
       </c>
@@ -14595,7 +14849,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1190</v>
       </c>
@@ -14603,7 +14857,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1191</v>
       </c>
@@ -14611,7 +14865,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1192</v>
       </c>
@@ -14619,7 +14873,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1193</v>
       </c>
@@ -14627,7 +14881,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1194</v>
       </c>
@@ -14635,7 +14889,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1195</v>
       </c>
@@ -14643,7 +14897,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1196</v>
       </c>
@@ -14651,7 +14905,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1197</v>
       </c>
@@ -14659,7 +14913,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1198</v>
       </c>
@@ -14667,7 +14921,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1199</v>
       </c>
@@ -14675,7 +14929,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1200</v>
       </c>
@@ -14683,7 +14937,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1201</v>
       </c>
@@ -14691,7 +14945,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1202</v>
       </c>
@@ -14699,7 +14953,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1203</v>
       </c>
@@ -14707,7 +14961,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1204</v>
       </c>
@@ -14715,7 +14969,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1205</v>
       </c>
@@ -14723,7 +14977,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1206</v>
       </c>
@@ -14731,7 +14985,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1207</v>
       </c>
@@ -14739,7 +14993,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1208</v>
       </c>
@@ -14747,7 +15001,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1209</v>
       </c>
@@ -14755,7 +15009,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1210</v>
       </c>
@@ -14763,7 +15017,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1211</v>
       </c>
@@ -14771,7 +15025,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1212</v>
       </c>
@@ -14779,7 +15033,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1213</v>
       </c>
@@ -14787,7 +15041,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1214</v>
       </c>
@@ -14795,7 +15049,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1215</v>
       </c>
@@ -14803,7 +15057,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1216</v>
       </c>
@@ -14811,7 +15065,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1217</v>
       </c>
@@ -14819,7 +15073,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1218</v>
       </c>
@@ -14827,7 +15081,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1219</v>
       </c>
@@ -14835,7 +15089,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1220</v>
       </c>
@@ -14843,7 +15097,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1221</v>
       </c>
@@ -14851,7 +15105,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1222</v>
       </c>
@@ -14859,7 +15113,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1223</v>
       </c>
@@ -14867,7 +15121,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1224</v>
       </c>
@@ -14875,7 +15129,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1225</v>
       </c>
@@ -14883,7 +15137,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1226</v>
       </c>
@@ -14891,7 +15145,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1227</v>
       </c>
@@ -14899,7 +15153,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1228</v>
       </c>
@@ -14907,7 +15161,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1229</v>
       </c>
@@ -14915,7 +15169,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1230</v>
       </c>
@@ -14923,7 +15177,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1231</v>
       </c>
@@ -14931,7 +15185,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1232</v>
       </c>
@@ -14939,7 +15193,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1233</v>
       </c>
@@ -14947,7 +15201,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1234</v>
       </c>
@@ -14955,7 +15209,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1235</v>
       </c>
@@ -14963,7 +15217,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1236</v>
       </c>
@@ -14971,7 +15225,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1237</v>
       </c>
@@ -14979,7 +15233,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1238</v>
       </c>
@@ -14989,16 +15243,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B168">
-    <cfRule type="containsText" dxfId="5" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+    <cfRule type="containsText" dxfId="6" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="5" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
+    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
       <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+    <cfRule type="containsText" dxfId="3" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
       <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15014,84 +15268,84 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>1067</v>
       </c>

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39236697-89D8-4BBC-BF74-B78830BE3EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1B0ACB-AAD4-4918-B236-813C0C3B5A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="1890" yWindow="1095" windowWidth="21825" windowHeight="14190" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4338,7 +4338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4347,12 +4347,91 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4755,8 +4834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
   <dimension ref="A1:CF169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF7" workbookViewId="0">
-      <selection activeCell="BM12" sqref="BM12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5239,24 +5318,21 @@
         <v>2</v>
       </c>
       <c r="BM2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="BN2" t="s">
-        <v>648</v>
+        <v>779</v>
       </c>
       <c r="BO2">
         <v>1</v>
       </c>
-      <c r="BQ2" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>667</v>
+      <c r="BQ2" t="s">
+        <v>941</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>701</v>
       </c>
       <c r="BS2">
-        <v>1</v>
-      </c>
-      <c r="BT2">
         <v>1</v>
       </c>
       <c r="BU2" t="s">
@@ -5456,20 +5532,20 @@
       <c r="BH3">
         <v>1</v>
       </c>
-      <c r="BI3" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>598</v>
+      <c r="BI3" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="BJ3" s="5" t="s">
+        <v>593</v>
       </c>
       <c r="BK3">
         <v>3</v>
       </c>
       <c r="BL3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="BN3" t="s">
         <v>779</v>
@@ -5477,16 +5553,13 @@
       <c r="BO3">
         <v>1</v>
       </c>
-      <c r="BQ3" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="BR3" s="2" t="s">
-        <v>674</v>
+      <c r="BQ3" t="s">
+        <v>957</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>699</v>
       </c>
       <c r="BS3">
-        <v>1</v>
-      </c>
-      <c r="BT3">
         <v>1</v>
       </c>
       <c r="BU3" t="s">
@@ -5510,16 +5583,13 @@
       <c r="CB3">
         <v>1</v>
       </c>
-      <c r="CC3" s="2" t="s">
-        <v>1270</v>
+      <c r="CC3" t="s">
+        <v>1307</v>
       </c>
       <c r="CD3" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="CE3">
-        <v>1</v>
-      </c>
-      <c r="CF3">
         <v>1</v>
       </c>
     </row>
@@ -5690,10 +5760,10 @@
         <v>1</v>
       </c>
       <c r="BI4" s="5" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="BJ4" s="5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="BK4">
         <v>3</v>
@@ -5702,7 +5772,7 @@
         <v>2</v>
       </c>
       <c r="BM4" t="s">
-        <v>922</v>
+        <v>945</v>
       </c>
       <c r="BN4" t="s">
         <v>779</v>
@@ -5710,16 +5780,13 @@
       <c r="BO4">
         <v>1</v>
       </c>
-      <c r="BQ4" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="BR4" s="2" t="s">
-        <v>680</v>
+      <c r="BQ4" t="s">
+        <v>977</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>703</v>
       </c>
       <c r="BS4">
-        <v>1</v>
-      </c>
-      <c r="BT4">
         <v>1</v>
       </c>
       <c r="BU4" t="s">
@@ -5743,16 +5810,13 @@
       <c r="CB4">
         <v>1</v>
       </c>
-      <c r="CC4" s="2" t="s">
-        <v>1355</v>
+      <c r="CC4" t="s">
+        <v>1308</v>
       </c>
       <c r="CD4" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="CE4">
-        <v>1</v>
-      </c>
-      <c r="CF4">
         <v>1</v>
       </c>
     </row>
@@ -5923,10 +5987,10 @@
         <v>1</v>
       </c>
       <c r="BI5" s="5" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="BJ5" s="5" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="BK5">
         <v>3</v>
@@ -5934,28 +5998,22 @@
       <c r="BL5">
         <v>2</v>
       </c>
-      <c r="BM5" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="BN5" s="2" t="s">
-        <v>779</v>
+      <c r="BM5" t="s">
+        <v>968</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>650</v>
       </c>
       <c r="BO5">
         <v>1</v>
       </c>
-      <c r="BP5">
-        <v>1</v>
-      </c>
       <c r="BQ5" t="s">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="BR5" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="BS5">
-        <v>1</v>
-      </c>
-      <c r="BT5">
         <v>1</v>
       </c>
       <c r="BU5" t="s">
@@ -5980,10 +6038,10 @@
         <v>1</v>
       </c>
       <c r="CC5" t="s">
-        <v>1307</v>
+        <v>1321</v>
       </c>
       <c r="CD5" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="CE5">
         <v>1</v>
@@ -6155,37 +6213,34 @@
       <c r="BH6">
         <v>1</v>
       </c>
-      <c r="BI6" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
-        <v>596</v>
+      <c r="BI6" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BJ6" s="5" t="s">
+        <v>588</v>
       </c>
       <c r="BK6">
         <v>3</v>
       </c>
       <c r="BL6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM6" t="s">
-        <v>945</v>
+        <v>970</v>
       </c>
       <c r="BN6" t="s">
-        <v>779</v>
+        <v>650</v>
       </c>
       <c r="BO6">
         <v>1</v>
       </c>
-      <c r="BQ6" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="BR6" s="2" t="s">
-        <v>693</v>
+      <c r="BQ6" t="s">
+        <v>985</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>704</v>
       </c>
       <c r="BS6">
-        <v>1</v>
-      </c>
-      <c r="BT6">
         <v>1</v>
       </c>
       <c r="BU6" t="s">
@@ -6210,10 +6265,10 @@
         <v>1</v>
       </c>
       <c r="CC6" t="s">
-        <v>1308</v>
+        <v>1322</v>
       </c>
       <c r="CD6" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="CE6">
         <v>1</v>
@@ -6386,10 +6441,10 @@
         <v>1</v>
       </c>
       <c r="BI7" s="5" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="BJ7" s="5" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="BK7">
         <v>3</v>
@@ -6397,35 +6452,29 @@
       <c r="BL7">
         <v>2</v>
       </c>
-      <c r="BM7" s="2" t="s">
-        <v>944</v>
+      <c r="BM7" t="s">
+        <v>964</v>
       </c>
       <c r="BN7" t="s">
-        <v>779</v>
+        <v>650</v>
       </c>
       <c r="BO7">
         <v>1</v>
       </c>
-      <c r="BP7">
-        <v>1</v>
-      </c>
-      <c r="BQ7" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="BR7" s="2" t="s">
-        <v>694</v>
+      <c r="BQ7" t="s">
+        <v>988</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>705</v>
       </c>
       <c r="BS7">
         <v>1</v>
       </c>
-      <c r="BT7">
-        <v>1</v>
-      </c>
       <c r="BU7" t="s">
-        <v>925</v>
+        <v>950</v>
       </c>
       <c r="BV7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="BW7">
         <v>1</v>
@@ -6442,16 +6491,13 @@
       <c r="CB7">
         <v>1</v>
       </c>
-      <c r="CC7" s="2" t="s">
-        <v>1356</v>
+      <c r="CC7" t="s">
+        <v>1358</v>
       </c>
       <c r="CD7" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="CE7">
-        <v>1</v>
-      </c>
-      <c r="CF7">
         <v>1</v>
       </c>
     </row>
@@ -6622,10 +6668,10 @@
         <v>1</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>1066</v>
+        <v>818</v>
       </c>
       <c r="BJ8" s="5" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="BK8">
         <v>3</v>
@@ -6633,55 +6679,52 @@
       <c r="BL8">
         <v>2</v>
       </c>
-      <c r="BM8" s="2" t="s">
-        <v>943</v>
+      <c r="BM8" t="s">
+        <v>966</v>
       </c>
       <c r="BN8" t="s">
-        <v>779</v>
+        <v>650</v>
       </c>
       <c r="BO8">
         <v>1</v>
       </c>
-      <c r="BP8">
-        <v>1</v>
-      </c>
       <c r="BQ8" t="s">
-        <v>938</v>
+        <v>990</v>
       </c>
       <c r="BR8" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="BS8">
         <v>1</v>
       </c>
       <c r="BU8" t="s">
-        <v>927</v>
+        <v>976</v>
       </c>
       <c r="BV8" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="BW8">
         <v>1</v>
       </c>
-      <c r="BY8" t="s">
+      <c r="BY8" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="BZ8" t="s">
+      <c r="BZ8" s="2" t="s">
         <v>769</v>
       </c>
       <c r="CA8">
         <v>1</v>
       </c>
-      <c r="CC8" s="2" t="s">
-        <v>1295</v>
+      <c r="CB8">
+        <v>1</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>1362</v>
       </c>
       <c r="CD8" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="CE8">
-        <v>1</v>
-      </c>
-      <c r="CF8">
         <v>1</v>
       </c>
     </row>
@@ -6840,10 +6883,10 @@
         <v>1</v>
       </c>
       <c r="BI9" s="5" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="BJ9" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="BK9">
         <v>3</v>
@@ -6852,28 +6895,31 @@
         <v>2</v>
       </c>
       <c r="BM9" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="BN9" t="s">
-        <v>779</v>
+        <v>650</v>
       </c>
       <c r="BO9">
         <v>1</v>
       </c>
-      <c r="BQ9" t="s">
-        <v>939</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>696</v>
+      <c r="BQ9" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="BR9" s="2" t="s">
+        <v>655</v>
       </c>
       <c r="BS9">
         <v>1</v>
       </c>
+      <c r="BT9">
+        <v>1</v>
+      </c>
       <c r="BU9" t="s">
-        <v>928</v>
+        <v>979</v>
       </c>
       <c r="BV9" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="BW9">
         <v>1</v>
@@ -6887,16 +6933,13 @@
       <c r="CA9">
         <v>1</v>
       </c>
-      <c r="CC9" s="2" t="s">
-        <v>1296</v>
+      <c r="CC9" t="s">
+        <v>1297</v>
       </c>
       <c r="CD9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="CE9">
-        <v>1</v>
-      </c>
-      <c r="CF9">
         <v>1</v>
       </c>
     </row>
@@ -7054,20 +7097,20 @@
       <c r="BC10">
         <v>1</v>
       </c>
-      <c r="BI10" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="BJ10" s="2" t="s">
-        <v>602</v>
+      <c r="BI10" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="BJ10" s="5" t="s">
+        <v>603</v>
       </c>
       <c r="BK10">
         <v>3</v>
       </c>
       <c r="BL10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM10" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="BN10" t="s">
         <v>650</v>
@@ -7076,10 +7119,10 @@
         <v>1</v>
       </c>
       <c r="BQ10" s="2" t="s">
-        <v>940</v>
+        <v>786</v>
       </c>
       <c r="BR10" s="2" t="s">
-        <v>697</v>
+        <v>656</v>
       </c>
       <c r="BS10">
         <v>1</v>
@@ -7088,24 +7131,21 @@
         <v>1</v>
       </c>
       <c r="BU10" t="s">
-        <v>948</v>
+        <v>982</v>
       </c>
       <c r="BV10" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="BW10">
         <v>1</v>
       </c>
-      <c r="CC10" s="2" t="s">
-        <v>1357</v>
+      <c r="CC10" t="s">
+        <v>1363</v>
       </c>
       <c r="CD10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="CE10">
-        <v>1</v>
-      </c>
-      <c r="CF10">
         <v>1</v>
       </c>
     </row>
@@ -7264,10 +7304,10 @@
         <v>1</v>
       </c>
       <c r="BI11" s="5" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="BJ11" s="5" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="BK11">
         <v>3</v>
@@ -7276,7 +7316,7 @@
         <v>2</v>
       </c>
       <c r="BM11" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="BN11" t="s">
         <v>650</v>
@@ -7284,29 +7324,32 @@
       <c r="BO11">
         <v>1</v>
       </c>
-      <c r="BQ11" t="s">
-        <v>941</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>701</v>
+      <c r="BQ11" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="BR11" s="2" t="s">
+        <v>657</v>
       </c>
       <c r="BS11">
         <v>1</v>
       </c>
+      <c r="BT11">
+        <v>1</v>
+      </c>
       <c r="BU11" t="s">
-        <v>949</v>
+        <v>984</v>
       </c>
       <c r="BV11" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="BW11">
         <v>1</v>
       </c>
       <c r="CC11" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="CD11" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CE11">
         <v>1</v>
@@ -7464,10 +7507,10 @@
         <v>1</v>
       </c>
       <c r="BI12" s="5" t="s">
-        <v>822</v>
+        <v>871</v>
       </c>
       <c r="BJ12" s="5" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="BK12">
         <v>3</v>
@@ -7476,7 +7519,7 @@
         <v>2</v>
       </c>
       <c r="BM12" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="BN12" t="s">
         <v>650</v>
@@ -7485,10 +7528,10 @@
         <v>1</v>
       </c>
       <c r="BQ12" s="2" t="s">
-        <v>942</v>
+        <v>794</v>
       </c>
       <c r="BR12" s="2" t="s">
-        <v>702</v>
+        <v>658</v>
       </c>
       <c r="BS12">
         <v>1</v>
@@ -7497,19 +7540,19 @@
         <v>1</v>
       </c>
       <c r="BU12" t="s">
-        <v>950</v>
+        <v>987</v>
       </c>
       <c r="BV12" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="BW12">
         <v>1</v>
       </c>
       <c r="CC12" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="CD12" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CE12">
         <v>1</v>
@@ -7670,10 +7713,10 @@
         <v>1</v>
       </c>
       <c r="BI13" s="5" t="s">
-        <v>825</v>
+        <v>872</v>
       </c>
       <c r="BJ13" s="5" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="BK13">
         <v>3</v>
@@ -7682,7 +7725,7 @@
         <v>2</v>
       </c>
       <c r="BM13" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="BN13" t="s">
         <v>650</v>
@@ -7690,29 +7733,32 @@
       <c r="BO13">
         <v>1</v>
       </c>
-      <c r="BQ13" t="s">
-        <v>955</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>698</v>
+      <c r="BQ13" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="BR13" s="2" t="s">
+        <v>659</v>
       </c>
       <c r="BS13">
         <v>1</v>
       </c>
+      <c r="BT13">
+        <v>1</v>
+      </c>
       <c r="BU13" t="s">
-        <v>951</v>
+        <v>989</v>
       </c>
       <c r="BV13" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="BW13">
         <v>1</v>
       </c>
       <c r="CC13" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
       <c r="CD13" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CE13">
         <v>1</v>
@@ -7869,20 +7915,20 @@
       <c r="BC14">
         <v>1</v>
       </c>
-      <c r="BI14" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="BJ14" s="2" t="s">
-        <v>600</v>
+      <c r="BI14" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="BJ14" s="5" t="s">
+        <v>619</v>
       </c>
       <c r="BK14">
         <v>3</v>
       </c>
       <c r="BL14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM14" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="BN14" t="s">
         <v>650</v>
@@ -7890,34 +7936,37 @@
       <c r="BO14">
         <v>1</v>
       </c>
-      <c r="BQ14" t="s">
-        <v>957</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>699</v>
+      <c r="BQ14" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="BR14" s="2" t="s">
+        <v>660</v>
       </c>
       <c r="BS14">
         <v>1</v>
       </c>
-      <c r="BU14" t="s">
-        <v>976</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>756</v>
+      <c r="BT14">
+        <v>1</v>
+      </c>
+      <c r="BU14" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="BV14" s="2" t="s">
+        <v>707</v>
       </c>
       <c r="BW14">
         <v>1</v>
       </c>
-      <c r="CC14" s="2" t="s">
-        <v>1257</v>
+      <c r="BX14">
+        <v>1</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>1243</v>
       </c>
       <c r="CD14" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="CE14">
-        <v>1</v>
-      </c>
-      <c r="CF14">
         <v>1</v>
       </c>
     </row>
@@ -8073,19 +8122,19 @@
         <v>1</v>
       </c>
       <c r="BI15" s="5" t="s">
-        <v>830</v>
+        <v>876</v>
       </c>
       <c r="BJ15" s="5" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="BK15">
         <v>3</v>
       </c>
       <c r="BL15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM15" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="BN15" t="s">
         <v>650</v>
@@ -8094,10 +8143,10 @@
         <v>1</v>
       </c>
       <c r="BQ15" s="2" t="s">
-        <v>959</v>
+        <v>804</v>
       </c>
       <c r="BR15" s="2" t="s">
-        <v>700</v>
+        <v>661</v>
       </c>
       <c r="BS15">
         <v>1</v>
@@ -8105,25 +8154,25 @@
       <c r="BT15">
         <v>1</v>
       </c>
-      <c r="BU15" t="s">
-        <v>979</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>757</v>
+      <c r="BU15" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="BV15" s="2" t="s">
+        <v>708</v>
       </c>
       <c r="BW15">
         <v>1</v>
       </c>
-      <c r="CC15" s="2" t="s">
-        <v>1258</v>
+      <c r="BX15">
+        <v>1</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>1366</v>
       </c>
       <c r="CD15" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="CE15">
-        <v>1</v>
-      </c>
-      <c r="CF15">
         <v>1</v>
       </c>
     </row>
@@ -8269,20 +8318,20 @@
       <c r="BC16">
         <v>1</v>
       </c>
-      <c r="BI16" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="BJ16" s="2" t="s">
-        <v>608</v>
+      <c r="BI16" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="BJ16" s="5" t="s">
+        <v>613</v>
       </c>
       <c r="BK16">
         <v>3</v>
       </c>
       <c r="BL16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM16" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="BN16" t="s">
         <v>650</v>
@@ -8290,38 +8339,41 @@
       <c r="BO16">
         <v>1</v>
       </c>
-      <c r="BQ16" t="s">
-        <v>977</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>703</v>
+      <c r="BQ16" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="BR16" s="2" t="s">
+        <v>662</v>
       </c>
       <c r="BS16">
         <v>1</v>
       </c>
-      <c r="BU16" t="s">
-        <v>982</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>758</v>
+      <c r="BT16">
+        <v>1</v>
+      </c>
+      <c r="BU16" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="BV16" s="2" t="s">
+        <v>709</v>
       </c>
       <c r="BW16">
         <v>1</v>
       </c>
-      <c r="CC16" s="2" t="s">
-        <v>1359</v>
+      <c r="BX16">
+        <v>1</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>1343</v>
       </c>
       <c r="CD16" t="s">
-        <v>714</v>
+        <v>756</v>
       </c>
       <c r="CE16">
         <v>1</v>
       </c>
-      <c r="CF16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -8463,20 +8515,20 @@
       <c r="BC17">
         <v>1</v>
       </c>
-      <c r="BI17" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="BJ17" s="2" t="s">
-        <v>607</v>
+      <c r="BI17" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="BJ17" s="5" t="s">
+        <v>618</v>
       </c>
       <c r="BK17">
         <v>3</v>
       </c>
-      <c r="BL17">
-        <v>3</v>
+      <c r="BL17" s="4">
+        <v>1</v>
       </c>
       <c r="BM17" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="BN17" t="s">
         <v>650</v>
@@ -8484,38 +8536,41 @@
       <c r="BO17">
         <v>1</v>
       </c>
-      <c r="BQ17" t="s">
-        <v>980</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>703</v>
+      <c r="BQ17" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="BR17" s="2" t="s">
+        <v>663</v>
       </c>
       <c r="BS17">
         <v>1</v>
       </c>
-      <c r="BU17" t="s">
-        <v>984</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>759</v>
+      <c r="BT17">
+        <v>1</v>
+      </c>
+      <c r="BU17" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="BV17" s="2" t="s">
+        <v>710</v>
       </c>
       <c r="BW17">
         <v>1</v>
       </c>
-      <c r="CC17" s="2" t="s">
-        <v>1309</v>
+      <c r="BX17">
+        <v>1</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>1344</v>
       </c>
       <c r="CD17" t="s">
-        <v>739</v>
+        <v>756</v>
       </c>
       <c r="CE17">
         <v>1</v>
       </c>
-      <c r="CF17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -8657,59 +8712,65 @@
       <c r="BC18">
         <v>1</v>
       </c>
-      <c r="BI18" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="BJ18" s="2" t="s">
-        <v>590</v>
+      <c r="BI18" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="BJ18" s="5" t="s">
+        <v>614</v>
       </c>
       <c r="BK18">
         <v>3</v>
       </c>
       <c r="BL18">
-        <v>3</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>969</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>650</v>
+        <v>2</v>
+      </c>
+      <c r="BM18" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="BN18" s="2" t="s">
+        <v>779</v>
       </c>
       <c r="BO18">
         <v>1</v>
       </c>
-      <c r="BQ18" t="s">
-        <v>985</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>704</v>
+      <c r="BP18">
+        <v>1</v>
+      </c>
+      <c r="BQ18" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="BR18" s="2" t="s">
+        <v>664</v>
       </c>
       <c r="BS18">
         <v>1</v>
       </c>
-      <c r="BU18" t="s">
-        <v>987</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>760</v>
+      <c r="BT18">
+        <v>1</v>
+      </c>
+      <c r="BU18" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="BV18" s="2" t="s">
+        <v>712</v>
       </c>
       <c r="BW18">
         <v>1</v>
       </c>
-      <c r="CC18" s="2" t="s">
-        <v>1310</v>
+      <c r="BX18">
+        <v>1</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>1367</v>
       </c>
       <c r="CD18" t="s">
-        <v>739</v>
+        <v>756</v>
       </c>
       <c r="CE18">
         <v>1</v>
       </c>
-      <c r="CF18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -8842,59 +8903,65 @@
       <c r="AY19">
         <v>1</v>
       </c>
-      <c r="BI19" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="BJ19" s="2" t="s">
-        <v>609</v>
+      <c r="BI19" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="BJ19" s="5" t="s">
+        <v>611</v>
       </c>
       <c r="BK19">
         <v>3</v>
       </c>
       <c r="BL19">
-        <v>3</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>963</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>650</v>
+        <v>2</v>
+      </c>
+      <c r="BM19" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="BN19" s="2" t="s">
+        <v>779</v>
       </c>
       <c r="BO19">
         <v>1</v>
       </c>
-      <c r="BQ19" t="s">
-        <v>988</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>705</v>
+      <c r="BP19">
+        <v>1</v>
+      </c>
+      <c r="BQ19" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="BR19" s="2" t="s">
+        <v>663</v>
       </c>
       <c r="BS19">
         <v>1</v>
       </c>
-      <c r="BU19" t="s">
-        <v>989</v>
-      </c>
-      <c r="BV19" t="s">
-        <v>761</v>
+      <c r="BT19">
+        <v>1</v>
+      </c>
+      <c r="BU19" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="BV19" s="2" t="s">
+        <v>713</v>
       </c>
       <c r="BW19">
         <v>1</v>
       </c>
-      <c r="CC19" s="2" t="s">
-        <v>1360</v>
+      <c r="BX19">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>1335</v>
       </c>
       <c r="CD19" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="CE19">
         <v>1</v>
       </c>
-      <c r="CF19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -9027,41 +9094,47 @@
       <c r="AY20">
         <v>1</v>
       </c>
-      <c r="BI20" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="BJ20" s="2" t="s">
-        <v>610</v>
+      <c r="BI20" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="BJ20" s="5" t="s">
+        <v>616</v>
       </c>
       <c r="BK20">
         <v>3</v>
       </c>
       <c r="BL20">
-        <v>3</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>972</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>650</v>
+        <v>2</v>
+      </c>
+      <c r="BM20" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="BN20" s="2" t="s">
+        <v>779</v>
       </c>
       <c r="BO20">
         <v>1</v>
       </c>
-      <c r="BQ20" t="s">
-        <v>990</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>706</v>
+      <c r="BP20">
+        <v>1</v>
+      </c>
+      <c r="BQ20" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="BR20" s="2" t="s">
+        <v>665</v>
       </c>
       <c r="BS20">
         <v>1</v>
       </c>
+      <c r="BT20">
+        <v>1</v>
+      </c>
       <c r="BU20" s="2" t="s">
-        <v>780</v>
+        <v>807</v>
       </c>
       <c r="BV20" s="2" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="BW20">
         <v>1</v>
@@ -9069,20 +9142,17 @@
       <c r="BX20">
         <v>1</v>
       </c>
-      <c r="CC20" s="2" t="s">
-        <v>1271</v>
+      <c r="CC20" t="s">
+        <v>1368</v>
       </c>
       <c r="CD20" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="CE20">
         <v>1</v>
       </c>
-      <c r="CF20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -9206,32 +9276,35 @@
       <c r="AU21">
         <v>1</v>
       </c>
-      <c r="BI21" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="BJ21" s="2" t="s">
-        <v>606</v>
+      <c r="BI21" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="BJ21" s="5" t="s">
+        <v>620</v>
       </c>
       <c r="BK21">
         <v>3</v>
       </c>
-      <c r="BL21">
-        <v>3</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>962</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>650</v>
+      <c r="BL21" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM21" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="BN21" s="2" t="s">
+        <v>779</v>
       </c>
       <c r="BO21">
         <v>1</v>
       </c>
+      <c r="BP21">
+        <v>1</v>
+      </c>
       <c r="BQ21" s="2" t="s">
-        <v>782</v>
+        <v>827</v>
       </c>
       <c r="BR21" s="2" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="BS21">
         <v>1</v>
@@ -9240,10 +9313,10 @@
         <v>1</v>
       </c>
       <c r="BU21" s="2" t="s">
-        <v>784</v>
+        <v>811</v>
       </c>
       <c r="BV21" s="2" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="BW21">
         <v>1</v>
@@ -9251,20 +9324,17 @@
       <c r="BX21">
         <v>1</v>
       </c>
-      <c r="CC21" s="2" t="s">
-        <v>1272</v>
+      <c r="CC21" t="s">
+        <v>1273</v>
       </c>
       <c r="CD21" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="CE21">
         <v>1</v>
       </c>
-      <c r="CF21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -9386,31 +9456,34 @@
         <v>1</v>
       </c>
       <c r="BI22" s="5" t="s">
-        <v>871</v>
+        <v>897</v>
       </c>
       <c r="BJ22" s="5" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="BK22">
         <v>3</v>
       </c>
       <c r="BL22">
-        <v>2</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>961</v>
-      </c>
-      <c r="BN22" t="s">
-        <v>650</v>
+        <v>1</v>
+      </c>
+      <c r="BM22" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="BN22" s="2" t="s">
+        <v>646</v>
       </c>
       <c r="BO22">
         <v>1</v>
       </c>
+      <c r="BP22">
+        <v>1</v>
+      </c>
       <c r="BQ22" s="2" t="s">
-        <v>786</v>
+        <v>829</v>
       </c>
       <c r="BR22" s="2" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="BS22">
         <v>1</v>
@@ -9419,10 +9492,10 @@
         <v>1</v>
       </c>
       <c r="BU22" s="2" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="BV22" s="2" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="BW22">
         <v>1</v>
@@ -9430,20 +9503,17 @@
       <c r="BX22">
         <v>1</v>
       </c>
-      <c r="CC22" s="2" t="s">
-        <v>1361</v>
+      <c r="CC22" t="s">
+        <v>1274</v>
       </c>
       <c r="CD22" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="CE22">
         <v>1</v>
       </c>
-      <c r="CF22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -9535,10 +9605,10 @@
         <v>1</v>
       </c>
       <c r="BI23" s="5" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="BJ23" s="5" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="BK23">
         <v>3</v>
@@ -9547,7 +9617,7 @@
         <v>2</v>
       </c>
       <c r="BM23" s="2" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="BN23" s="2" t="s">
         <v>779</v>
@@ -9559,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="BQ23" s="2" t="s">
-        <v>790</v>
+        <v>833</v>
       </c>
       <c r="BR23" s="2" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="BS23">
         <v>1</v>
@@ -9571,10 +9641,10 @@
         <v>1</v>
       </c>
       <c r="BU23" s="2" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="BV23" s="2" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="BW23">
         <v>1</v>
@@ -9582,20 +9652,17 @@
       <c r="BX23">
         <v>1</v>
       </c>
-      <c r="CC23" s="2" t="s">
-        <v>1311</v>
+      <c r="CC23" t="s">
+        <v>1325</v>
       </c>
       <c r="CD23" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="CE23">
         <v>1</v>
       </c>
-      <c r="CF23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -9675,22 +9742,22 @@
         <v>1</v>
       </c>
       <c r="BI24" s="5" t="s">
-        <v>874</v>
+        <v>901</v>
       </c>
       <c r="BJ24" s="5" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="BK24">
         <v>3</v>
       </c>
-      <c r="BL24">
-        <v>2</v>
+      <c r="BL24" s="4">
+        <v>1</v>
       </c>
       <c r="BM24" s="2" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="BN24" s="2" t="s">
-        <v>779</v>
+        <v>646</v>
       </c>
       <c r="BO24">
         <v>1</v>
@@ -9699,10 +9766,10 @@
         <v>1</v>
       </c>
       <c r="BQ24" s="2" t="s">
-        <v>794</v>
+        <v>836</v>
       </c>
       <c r="BR24" s="2" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="BS24">
         <v>1</v>
@@ -9711,10 +9778,10 @@
         <v>1</v>
       </c>
       <c r="BU24" s="2" t="s">
-        <v>800</v>
+        <v>823</v>
       </c>
       <c r="BV24" s="2" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="BW24">
         <v>1</v>
@@ -9723,16 +9790,16 @@
         <v>1</v>
       </c>
       <c r="CC24" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="CD24" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="CE24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -9815,19 +9882,19 @@
         <v>1</v>
       </c>
       <c r="BI25" s="5" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
       <c r="BJ25" s="5" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="BK25">
         <v>3</v>
       </c>
-      <c r="BL25" s="6">
+      <c r="BL25" s="4">
         <v>1</v>
       </c>
       <c r="BM25" s="2" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="BN25" s="2" t="s">
         <v>779</v>
@@ -9839,10 +9906,10 @@
         <v>1</v>
       </c>
       <c r="BQ25" s="2" t="s">
-        <v>798</v>
+        <v>839</v>
       </c>
       <c r="BR25" s="2" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="BS25">
         <v>1</v>
@@ -9851,10 +9918,10 @@
         <v>1</v>
       </c>
       <c r="BU25" s="2" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
       <c r="BV25" s="2" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="BW25">
         <v>1</v>
@@ -9863,16 +9930,16 @@
         <v>1</v>
       </c>
       <c r="CC25" t="s">
-        <v>1362</v>
+        <v>1276</v>
       </c>
       <c r="CD25" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="CE25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -9940,22 +10007,22 @@
         <v>1</v>
       </c>
       <c r="BI26" s="5" t="s">
-        <v>878</v>
+        <v>930</v>
       </c>
       <c r="BJ26" s="5" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="BK26">
         <v>3</v>
       </c>
-      <c r="BL26" s="6">
+      <c r="BL26">
         <v>1</v>
       </c>
       <c r="BM26" s="2" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
       <c r="BN26" s="2" t="s">
-        <v>779</v>
+        <v>646</v>
       </c>
       <c r="BO26">
         <v>1</v>
@@ -9964,10 +10031,10 @@
         <v>1</v>
       </c>
       <c r="BQ26" s="2" t="s">
-        <v>801</v>
+        <v>842</v>
       </c>
       <c r="BR26" s="2" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="BS26">
         <v>1</v>
@@ -9976,10 +10043,10 @@
         <v>1</v>
       </c>
       <c r="BU26" s="2" t="s">
-        <v>807</v>
+        <v>831</v>
       </c>
       <c r="BV26" s="2" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="BW26">
         <v>1</v>
@@ -9988,16 +10055,16 @@
         <v>1</v>
       </c>
       <c r="CC26" t="s">
-        <v>1297</v>
+        <v>1316</v>
       </c>
       <c r="CD26" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="CE26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -10052,23 +10119,20 @@
       <c r="AB27">
         <v>1</v>
       </c>
-      <c r="BI27" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="BJ27" s="5" t="s">
-        <v>618</v>
+      <c r="BI27" t="s">
+        <v>931</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>631</v>
       </c>
       <c r="BK27">
         <v>3</v>
       </c>
-      <c r="BL27" s="4">
-        <v>1</v>
-      </c>
       <c r="BM27" s="2" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="BN27" s="2" t="s">
-        <v>646</v>
+        <v>779</v>
       </c>
       <c r="BO27">
         <v>1</v>
@@ -10077,10 +10141,10 @@
         <v>1</v>
       </c>
       <c r="BQ27" s="2" t="s">
-        <v>804</v>
+        <v>845</v>
       </c>
       <c r="BR27" s="2" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="BS27">
         <v>1</v>
@@ -10089,10 +10153,10 @@
         <v>1</v>
       </c>
       <c r="BU27" s="2" t="s">
-        <v>811</v>
+        <v>832</v>
       </c>
       <c r="BV27" s="2" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="BW27">
         <v>1</v>
@@ -10100,20 +10164,17 @@
       <c r="BX27">
         <v>1</v>
       </c>
-      <c r="CC27" s="2" t="s">
-        <v>1298</v>
+      <c r="CC27" t="s">
+        <v>1329</v>
       </c>
       <c r="CD27" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="CE27">
         <v>1</v>
       </c>
-      <c r="CF27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -10159,23 +10220,20 @@
       <c r="AB28">
         <v>1</v>
       </c>
-      <c r="BI28" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="BJ28" s="5" t="s">
-        <v>614</v>
+      <c r="BI28" t="s">
+        <v>937</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>630</v>
       </c>
       <c r="BK28">
         <v>3</v>
       </c>
-      <c r="BL28">
-        <v>2</v>
-      </c>
       <c r="BM28" s="2" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="BN28" s="2" t="s">
-        <v>779</v>
+        <v>646</v>
       </c>
       <c r="BO28">
         <v>1</v>
@@ -10184,10 +10242,10 @@
         <v>1</v>
       </c>
       <c r="BQ28" s="2" t="s">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="BR28" s="2" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="BS28">
         <v>1</v>
@@ -10196,10 +10254,10 @@
         <v>1</v>
       </c>
       <c r="BU28" s="2" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="BV28" s="2" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="BW28">
         <v>1</v>
@@ -10208,16 +10266,16 @@
         <v>1</v>
       </c>
       <c r="CC28" t="s">
-        <v>1363</v>
+        <v>1330</v>
       </c>
       <c r="CD28" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="CE28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -10263,23 +10321,20 @@
       <c r="AB29">
         <v>1</v>
       </c>
-      <c r="BI29" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="BJ29" s="5" t="s">
-        <v>611</v>
+      <c r="BI29" t="s">
+        <v>953</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>636</v>
       </c>
       <c r="BK29">
         <v>3</v>
       </c>
-      <c r="BL29">
-        <v>2</v>
-      </c>
       <c r="BM29" s="2" t="s">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="BN29" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="BO29">
         <v>1</v>
@@ -10288,10 +10343,10 @@
         <v>1</v>
       </c>
       <c r="BQ29" s="2" t="s">
-        <v>813</v>
+        <v>853</v>
       </c>
       <c r="BR29" s="2" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="BS29">
         <v>1</v>
@@ -10300,10 +10355,10 @@
         <v>1</v>
       </c>
       <c r="BU29" s="2" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="BV29" s="2" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="BW29">
         <v>1</v>
@@ -10312,23 +10367,26 @@
         <v>1</v>
       </c>
       <c r="CC29" t="s">
-        <v>1323</v>
+        <v>1299</v>
       </c>
       <c r="CD29" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="CE29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>373</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
@@ -10364,23 +10422,20 @@
       <c r="AB30">
         <v>1</v>
       </c>
-      <c r="BI30" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="BJ30" s="5" t="s">
-        <v>616</v>
+      <c r="BI30" t="s">
+        <v>954</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>637</v>
       </c>
       <c r="BK30">
         <v>3</v>
       </c>
-      <c r="BL30">
-        <v>2</v>
-      </c>
       <c r="BM30" s="2" t="s">
-        <v>808</v>
+        <v>858</v>
       </c>
       <c r="BN30" s="2" t="s">
-        <v>779</v>
+        <v>649</v>
       </c>
       <c r="BO30">
         <v>1</v>
@@ -10389,10 +10444,10 @@
         <v>1</v>
       </c>
       <c r="BQ30" s="2" t="s">
-        <v>817</v>
+        <v>856</v>
       </c>
       <c r="BR30" s="2" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="BS30">
         <v>1</v>
@@ -10401,10 +10456,10 @@
         <v>1</v>
       </c>
       <c r="BU30" s="2" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="BV30" s="2" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="BW30">
         <v>1</v>
@@ -10413,16 +10468,16 @@
         <v>1</v>
       </c>
       <c r="CC30" t="s">
-        <v>1324</v>
+        <v>1302</v>
       </c>
       <c r="CD30" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="CE30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -10468,20 +10523,17 @@
       <c r="AB31">
         <v>1</v>
       </c>
-      <c r="BI31" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="BJ31" s="5" t="s">
-        <v>620</v>
+      <c r="BI31" t="s">
+        <v>974</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>642</v>
       </c>
       <c r="BK31">
         <v>3</v>
       </c>
-      <c r="BL31" s="4">
-        <v>1</v>
-      </c>
       <c r="BM31" s="2" t="s">
-        <v>812</v>
+        <v>860</v>
       </c>
       <c r="BN31" s="2" t="s">
         <v>646</v>
@@ -10493,10 +10545,10 @@
         <v>1</v>
       </c>
       <c r="BQ31" s="2" t="s">
-        <v>821</v>
+        <v>873</v>
       </c>
       <c r="BR31" s="2" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BS31">
         <v>1</v>
@@ -10505,10 +10557,10 @@
         <v>1</v>
       </c>
       <c r="BU31" s="2" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="BV31" s="2" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="BW31">
         <v>1</v>
@@ -10517,16 +10569,16 @@
         <v>1</v>
       </c>
       <c r="CC31" t="s">
-        <v>1364</v>
+        <v>1377</v>
       </c>
       <c r="CD31" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="CE31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -10569,20 +10621,17 @@
       <c r="AB32">
         <v>1</v>
       </c>
-      <c r="BI32" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="BJ32" s="5" t="s">
-        <v>621</v>
+      <c r="BI32" t="s">
+        <v>975</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>641</v>
       </c>
       <c r="BK32">
         <v>3</v>
       </c>
-      <c r="BL32">
-        <v>1</v>
-      </c>
       <c r="BM32" s="2" t="s">
-        <v>816</v>
+        <v>855</v>
       </c>
       <c r="BN32" s="2" t="s">
         <v>779</v>
@@ -10594,10 +10643,10 @@
         <v>1</v>
       </c>
       <c r="BQ32" s="2" t="s">
-        <v>824</v>
+        <v>875</v>
       </c>
       <c r="BR32" s="2" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="BS32">
         <v>1</v>
@@ -10606,10 +10655,10 @@
         <v>1</v>
       </c>
       <c r="BU32" s="2" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="BV32" s="2" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="BW32">
         <v>1</v>
@@ -10618,16 +10667,16 @@
         <v>1</v>
       </c>
       <c r="CC32" t="s">
-        <v>1243</v>
+        <v>1317</v>
       </c>
       <c r="CD32" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
       <c r="CE32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -10670,23 +10719,20 @@
       <c r="AB33">
         <v>1</v>
       </c>
-      <c r="BI33" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="BJ33" s="5" t="s">
-        <v>623</v>
+      <c r="BI33" t="s">
+        <v>978</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>640</v>
       </c>
       <c r="BK33">
         <v>3</v>
       </c>
-      <c r="BL33">
-        <v>2</v>
-      </c>
       <c r="BM33" s="2" t="s">
-        <v>820</v>
+        <v>852</v>
       </c>
       <c r="BN33" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="BO33">
         <v>1</v>
@@ -10695,10 +10741,10 @@
         <v>1</v>
       </c>
       <c r="BQ33" s="2" t="s">
-        <v>827</v>
+        <v>877</v>
       </c>
       <c r="BR33" s="2" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="BS33">
         <v>1</v>
@@ -10707,10 +10753,10 @@
         <v>1</v>
       </c>
       <c r="BU33" s="2" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="BV33" s="2" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="BW33">
         <v>1</v>
@@ -10718,20 +10764,17 @@
       <c r="BX33">
         <v>1</v>
       </c>
-      <c r="CC33" s="2" t="s">
-        <v>1244</v>
+      <c r="CC33" t="s">
+        <v>1379</v>
       </c>
       <c r="CD33" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
       <c r="CE33">
         <v>1</v>
       </c>
-      <c r="CF33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -10768,23 +10811,20 @@
       <c r="AB34">
         <v>1</v>
       </c>
-      <c r="BI34" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="BJ34" s="5" t="s">
-        <v>622</v>
+      <c r="BI34" t="s">
+        <v>981</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>639</v>
       </c>
       <c r="BK34">
         <v>3</v>
       </c>
-      <c r="BL34" s="4">
-        <v>1</v>
-      </c>
       <c r="BM34" s="2" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
       <c r="BN34" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="BO34">
         <v>1</v>
@@ -10793,10 +10833,10 @@
         <v>1</v>
       </c>
       <c r="BQ34" s="2" t="s">
-        <v>829</v>
+        <v>879</v>
       </c>
       <c r="BR34" s="2" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="BS34">
         <v>1</v>
@@ -10805,10 +10845,10 @@
         <v>1</v>
       </c>
       <c r="BU34" s="2" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
       <c r="BV34" s="2" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="BW34">
         <v>1</v>
@@ -10816,20 +10856,17 @@
       <c r="BX34">
         <v>1</v>
       </c>
-      <c r="CC34" s="2" t="s">
-        <v>1365</v>
+      <c r="CC34" t="s">
+        <v>1345</v>
       </c>
       <c r="CD34" t="s">
-        <v>707</v>
+        <v>757</v>
       </c>
       <c r="CE34">
         <v>1</v>
       </c>
-      <c r="CF34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -10866,23 +10903,20 @@
       <c r="AB35">
         <v>1</v>
       </c>
-      <c r="BI35" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="BJ35" s="2" t="s">
-        <v>624</v>
+      <c r="BI35" t="s">
+        <v>983</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>644</v>
       </c>
       <c r="BK35">
         <v>3</v>
       </c>
-      <c r="BL35">
-        <v>3</v>
-      </c>
       <c r="BM35" s="2" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="BN35" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="BO35">
         <v>1</v>
@@ -10891,10 +10925,10 @@
         <v>1</v>
       </c>
       <c r="BQ35" s="2" t="s">
-        <v>836</v>
+        <v>882</v>
       </c>
       <c r="BR35" s="2" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="BS35">
         <v>1</v>
@@ -10903,10 +10937,10 @@
         <v>1</v>
       </c>
       <c r="BU35" s="2" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="BV35" s="2" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="BW35">
         <v>1</v>
@@ -10914,20 +10948,17 @@
       <c r="BX35">
         <v>1</v>
       </c>
-      <c r="CC35" s="2" t="s">
-        <v>1245</v>
+      <c r="CC35" t="s">
+        <v>1346</v>
       </c>
       <c r="CD35" t="s">
-        <v>708</v>
+        <v>757</v>
       </c>
       <c r="CE35">
         <v>1</v>
       </c>
-      <c r="CF35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
@@ -10961,23 +10992,20 @@
       <c r="AA36">
         <v>1</v>
       </c>
-      <c r="BI36" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="BJ36" s="5" t="s">
-        <v>625</v>
+      <c r="BI36" t="s">
+        <v>986</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>643</v>
       </c>
       <c r="BK36">
         <v>3</v>
       </c>
-      <c r="BL36" s="4">
-        <v>1</v>
-      </c>
       <c r="BM36" s="2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="BN36" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="BO36">
         <v>1</v>
@@ -10986,10 +11014,10 @@
         <v>1</v>
       </c>
       <c r="BQ36" s="2" t="s">
-        <v>839</v>
+        <v>885</v>
       </c>
       <c r="BR36" s="2" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="BS36">
         <v>1</v>
@@ -10998,10 +11026,10 @@
         <v>1</v>
       </c>
       <c r="BU36" s="2" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="BV36" s="2" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="BW36">
         <v>1</v>
@@ -11009,20 +11037,17 @@
       <c r="BX36">
         <v>1</v>
       </c>
-      <c r="CC36" s="2" t="s">
-        <v>1246</v>
+      <c r="CC36" t="s">
+        <v>1380</v>
       </c>
       <c r="CD36" t="s">
-        <v>708</v>
+        <v>757</v>
       </c>
       <c r="CE36">
         <v>1</v>
       </c>
-      <c r="CF36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -11048,10 +11073,10 @@
         <v>1</v>
       </c>
       <c r="BI37" s="2" t="s">
-        <v>910</v>
+        <v>787</v>
       </c>
       <c r="BJ37" s="2" t="s">
-        <v>626</v>
+        <v>598</v>
       </c>
       <c r="BK37">
         <v>3</v>
@@ -11060,10 +11085,10 @@
         <v>3</v>
       </c>
       <c r="BM37" s="2" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="BN37" s="2" t="s">
-        <v>779</v>
+        <v>648</v>
       </c>
       <c r="BO37">
         <v>1</v>
@@ -11072,10 +11097,10 @@
         <v>1</v>
       </c>
       <c r="BQ37" s="2" t="s">
-        <v>842</v>
+        <v>888</v>
       </c>
       <c r="BR37" s="2" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="BS37">
         <v>1</v>
@@ -11084,10 +11109,10 @@
         <v>1</v>
       </c>
       <c r="BU37" s="2" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="BV37" s="2" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="BW37">
         <v>1</v>
@@ -11096,16 +11121,16 @@
         <v>1</v>
       </c>
       <c r="CC37" t="s">
-        <v>1366</v>
+        <v>1382</v>
       </c>
       <c r="CD37" t="s">
-        <v>708</v>
+        <v>754</v>
       </c>
       <c r="CE37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
@@ -11130,23 +11155,23 @@
       <c r="X38">
         <v>1</v>
       </c>
-      <c r="BI38" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="BJ38" s="5" t="s">
-        <v>627</v>
+      <c r="BI38" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="BJ38" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="BK38">
         <v>3</v>
       </c>
-      <c r="BL38" s="6">
-        <v>1</v>
+      <c r="BL38">
+        <v>3</v>
       </c>
       <c r="BM38" s="2" t="s">
-        <v>852</v>
+        <v>868</v>
       </c>
       <c r="BN38" s="2" t="s">
-        <v>648</v>
+        <v>779</v>
       </c>
       <c r="BO38">
         <v>1</v>
@@ -11155,10 +11180,10 @@
         <v>1</v>
       </c>
       <c r="BQ38" s="2" t="s">
-        <v>845</v>
+        <v>891</v>
       </c>
       <c r="BR38" s="2" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="BS38">
         <v>1</v>
@@ -11167,10 +11192,10 @@
         <v>1</v>
       </c>
       <c r="BU38" s="2" t="s">
-        <v>847</v>
+        <v>881</v>
       </c>
       <c r="BV38" s="2" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="BW38">
         <v>1</v>
@@ -11179,16 +11204,16 @@
         <v>1</v>
       </c>
       <c r="CC38" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="CD38" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="CE38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -11213,20 +11238,23 @@
       <c r="X39">
         <v>1</v>
       </c>
-      <c r="BI39" t="s">
-        <v>931</v>
-      </c>
-      <c r="BJ39" t="s">
-        <v>631</v>
+      <c r="BI39" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="BJ39" s="2" t="s">
+        <v>602</v>
       </c>
       <c r="BK39">
         <v>3</v>
       </c>
+      <c r="BL39">
+        <v>3</v>
+      </c>
       <c r="BM39" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="BN39" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="BO39">
         <v>1</v>
@@ -11235,10 +11263,10 @@
         <v>1</v>
       </c>
       <c r="BQ39" s="2" t="s">
-        <v>849</v>
+        <v>894</v>
       </c>
       <c r="BR39" s="2" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="BS39">
         <v>1</v>
@@ -11247,10 +11275,10 @@
         <v>1</v>
       </c>
       <c r="BU39" s="2" t="s">
-        <v>851</v>
+        <v>884</v>
       </c>
       <c r="BV39" s="2" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="BW39">
         <v>1</v>
@@ -11259,16 +11287,16 @@
         <v>1</v>
       </c>
       <c r="CC39" t="s">
-        <v>1344</v>
+        <v>1384</v>
       </c>
       <c r="CD39" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="CE39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -11290,23 +11318,23 @@
       <c r="X40">
         <v>1</v>
       </c>
-      <c r="BI40" s="5" t="s">
-        <v>932</v>
-      </c>
-      <c r="BJ40" s="5" t="s">
-        <v>629</v>
+      <c r="BI40" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="BJ40" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="BK40">
         <v>3</v>
       </c>
       <c r="BL40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM40" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="BN40" s="2" t="s">
-        <v>648</v>
+        <v>779</v>
       </c>
       <c r="BO40">
         <v>1</v>
@@ -11315,10 +11343,10 @@
         <v>1</v>
       </c>
       <c r="BQ40" s="2" t="s">
-        <v>853</v>
+        <v>896</v>
       </c>
       <c r="BR40" s="2" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="BS40">
         <v>1</v>
@@ -11327,10 +11355,10 @@
         <v>1</v>
       </c>
       <c r="BU40" s="2" t="s">
-        <v>854</v>
+        <v>887</v>
       </c>
       <c r="BV40" s="2" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="BW40">
         <v>1</v>
@@ -11339,16 +11367,16 @@
         <v>1</v>
       </c>
       <c r="CC40" t="s">
-        <v>1367</v>
+        <v>1304</v>
       </c>
       <c r="CD40" t="s">
-        <v>756</v>
+        <v>707</v>
       </c>
       <c r="CE40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>73</v>
       </c>
@@ -11373,20 +11401,23 @@
       <c r="X41">
         <v>1</v>
       </c>
-      <c r="BI41" t="s">
-        <v>933</v>
-      </c>
-      <c r="BJ41" t="s">
-        <v>632</v>
+      <c r="BI41" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="BJ41" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="BK41">
         <v>3</v>
       </c>
+      <c r="BL41">
+        <v>3</v>
+      </c>
       <c r="BM41" s="2" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="BN41" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="BO41">
         <v>1</v>
@@ -11395,10 +11426,10 @@
         <v>1</v>
       </c>
       <c r="BQ41" s="2" t="s">
-        <v>873</v>
+        <v>900</v>
       </c>
       <c r="BR41" s="2" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="BS41">
         <v>1</v>
@@ -11407,10 +11438,10 @@
         <v>1</v>
       </c>
       <c r="BU41" s="2" t="s">
-        <v>857</v>
+        <v>890</v>
       </c>
       <c r="BV41" s="2" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="BW41">
         <v>1</v>
@@ -11419,16 +11450,16 @@
         <v>1</v>
       </c>
       <c r="CC41" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="CD41" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="CE41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>75</v>
       </c>
@@ -11453,20 +11484,20 @@
       <c r="X42">
         <v>1</v>
       </c>
-      <c r="BI42" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="BJ42" s="5" t="s">
-        <v>628</v>
+      <c r="BI42" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="BJ42" s="2" t="s">
+        <v>607</v>
       </c>
       <c r="BK42">
         <v>3</v>
       </c>
       <c r="BL42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BM42" s="2" t="s">
-        <v>864</v>
+        <v>920</v>
       </c>
       <c r="BN42" s="2" t="s">
         <v>648</v>
@@ -11478,10 +11509,10 @@
         <v>1</v>
       </c>
       <c r="BQ42" s="2" t="s">
-        <v>875</v>
+        <v>903</v>
       </c>
       <c r="BR42" s="2" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="BS42">
         <v>1</v>
@@ -11490,10 +11521,10 @@
         <v>1</v>
       </c>
       <c r="BU42" s="2" t="s">
-        <v>859</v>
+        <v>893</v>
       </c>
       <c r="BV42" s="2" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="BW42">
         <v>1</v>
@@ -11501,20 +11532,17 @@
       <c r="BX42">
         <v>1</v>
       </c>
-      <c r="CC42" s="2" t="s">
-        <v>1336</v>
+      <c r="CC42" t="s">
+        <v>1340</v>
       </c>
       <c r="CD42" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="CE42">
         <v>1</v>
       </c>
-      <c r="CF42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -11536,17 +11564,20 @@
       <c r="X43">
         <v>1</v>
       </c>
-      <c r="BI43" t="s">
-        <v>937</v>
-      </c>
-      <c r="BJ43" t="s">
-        <v>630</v>
+      <c r="BI43" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="BJ43" s="2" t="s">
+        <v>590</v>
       </c>
       <c r="BK43">
         <v>3</v>
       </c>
+      <c r="BL43">
+        <v>3</v>
+      </c>
       <c r="BM43" s="2" t="s">
-        <v>868</v>
+        <v>919</v>
       </c>
       <c r="BN43" s="2" t="s">
         <v>779</v>
@@ -11558,10 +11589,10 @@
         <v>1</v>
       </c>
       <c r="BQ43" s="2" t="s">
-        <v>877</v>
+        <v>906</v>
       </c>
       <c r="BR43" s="2" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="BS43">
         <v>1</v>
@@ -11570,10 +11601,10 @@
         <v>1</v>
       </c>
       <c r="BU43" s="2" t="s">
-        <v>862</v>
+        <v>895</v>
       </c>
       <c r="BV43" s="2" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BW43">
         <v>1</v>
@@ -11582,16 +11613,16 @@
         <v>1</v>
       </c>
       <c r="CC43" t="s">
-        <v>1368</v>
+        <v>1386</v>
       </c>
       <c r="CD43" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="CE43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -11613,20 +11644,23 @@
       <c r="X44">
         <v>1</v>
       </c>
-      <c r="BI44" t="s">
-        <v>952</v>
-      </c>
-      <c r="BJ44" t="s">
-        <v>638</v>
+      <c r="BI44" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="BJ44" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="BK44">
         <v>3</v>
       </c>
+      <c r="BL44">
+        <v>3</v>
+      </c>
       <c r="BM44" s="2" t="s">
-        <v>865</v>
+        <v>918</v>
       </c>
       <c r="BN44" s="2" t="s">
-        <v>648</v>
+        <v>779</v>
       </c>
       <c r="BO44">
         <v>1</v>
@@ -11635,10 +11669,10 @@
         <v>1</v>
       </c>
       <c r="BQ44" s="2" t="s">
-        <v>879</v>
+        <v>909</v>
       </c>
       <c r="BR44" s="2" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="BS44">
         <v>1</v>
@@ -11647,10 +11681,10 @@
         <v>1</v>
       </c>
       <c r="BU44" s="2" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="BV44" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BW44">
         <v>1</v>
@@ -11659,16 +11693,16 @@
         <v>1</v>
       </c>
       <c r="CC44" t="s">
-        <v>1273</v>
+        <v>1305</v>
       </c>
       <c r="CD44" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="CE44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
@@ -11693,17 +11727,20 @@
       <c r="X45">
         <v>1</v>
       </c>
-      <c r="BI45" t="s">
-        <v>953</v>
-      </c>
-      <c r="BJ45" t="s">
-        <v>636</v>
+      <c r="BI45" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="BJ45" s="2" t="s">
+        <v>610</v>
       </c>
       <c r="BK45">
         <v>3</v>
       </c>
+      <c r="BL45">
+        <v>3</v>
+      </c>
       <c r="BM45" s="2" t="s">
-        <v>866</v>
+        <v>946</v>
       </c>
       <c r="BN45" s="2" t="s">
         <v>779</v>
@@ -11715,10 +11752,10 @@
         <v>1</v>
       </c>
       <c r="BQ45" s="2" t="s">
-        <v>882</v>
+        <v>912</v>
       </c>
       <c r="BR45" s="2" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="BS45">
         <v>1</v>
@@ -11727,10 +11764,10 @@
         <v>1</v>
       </c>
       <c r="BU45" s="2" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="BV45" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BW45">
         <v>1</v>
@@ -11739,16 +11776,16 @@
         <v>1</v>
       </c>
       <c r="CC45" t="s">
-        <v>1274</v>
+        <v>1306</v>
       </c>
       <c r="CD45" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="CE45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -11770,20 +11807,23 @@
       <c r="X46">
         <v>1</v>
       </c>
-      <c r="BI46" t="s">
-        <v>954</v>
-      </c>
-      <c r="BJ46" t="s">
-        <v>637</v>
+      <c r="BI46" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="BJ46" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="BK46">
         <v>3</v>
       </c>
+      <c r="BL46">
+        <v>3</v>
+      </c>
       <c r="BM46" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="BN46" s="2" t="s">
-        <v>648</v>
+        <v>944</v>
+      </c>
+      <c r="BN46" t="s">
+        <v>779</v>
       </c>
       <c r="BO46">
         <v>1</v>
@@ -11792,10 +11832,10 @@
         <v>1</v>
       </c>
       <c r="BQ46" s="2" t="s">
-        <v>888</v>
+        <v>914</v>
       </c>
       <c r="BR46" s="2" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="BS46">
         <v>1</v>
@@ -11804,10 +11844,10 @@
         <v>1</v>
       </c>
       <c r="BU46" s="2" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="BV46" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BW46">
         <v>1</v>
@@ -11815,20 +11855,17 @@
       <c r="BX46">
         <v>1</v>
       </c>
-      <c r="CC46" s="2" t="s">
-        <v>1369</v>
+      <c r="CC46" t="s">
+        <v>1281</v>
       </c>
       <c r="CD46" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="CE46">
         <v>1</v>
       </c>
-      <c r="CF46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -11851,10 +11888,10 @@
         <v>1</v>
       </c>
       <c r="BI47" s="2" t="s">
-        <v>956</v>
+        <v>904</v>
       </c>
       <c r="BJ47" s="2" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="BK47">
         <v>3</v>
@@ -11863,9 +11900,9 @@
         <v>3</v>
       </c>
       <c r="BM47" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="BN47" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="BN47" t="s">
         <v>779</v>
       </c>
       <c r="BO47">
@@ -11875,10 +11912,10 @@
         <v>1</v>
       </c>
       <c r="BQ47" s="2" t="s">
-        <v>891</v>
+        <v>916</v>
       </c>
       <c r="BR47" s="2" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="BS47">
         <v>1</v>
@@ -11887,10 +11924,10 @@
         <v>1</v>
       </c>
       <c r="BU47" s="2" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="BV47" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BW47">
         <v>1</v>
@@ -11899,16 +11936,16 @@
         <v>1</v>
       </c>
       <c r="CC47" t="s">
-        <v>1325</v>
+        <v>1347</v>
       </c>
       <c r="CD47" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="CE47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -11931,10 +11968,10 @@
         <v>1</v>
       </c>
       <c r="BI48" s="2" t="s">
-        <v>958</v>
+        <v>910</v>
       </c>
       <c r="BJ48" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="BK48">
         <v>3</v>
@@ -11943,9 +11980,9 @@
         <v>3</v>
       </c>
       <c r="BM48" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="BN48" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="BN48" t="s">
         <v>779</v>
       </c>
       <c r="BO48">
@@ -11955,10 +11992,10 @@
         <v>1</v>
       </c>
       <c r="BQ48" s="2" t="s">
-        <v>894</v>
+        <v>917</v>
       </c>
       <c r="BR48" s="2" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="BS48">
         <v>1</v>
@@ -11967,10 +12004,10 @@
         <v>1</v>
       </c>
       <c r="BU48" s="2" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="BV48" s="2" t="s">
-        <v>707</v>
+        <v>742</v>
       </c>
       <c r="BW48">
         <v>1</v>
@@ -11979,16 +12016,16 @@
         <v>1</v>
       </c>
       <c r="CC48" t="s">
-        <v>1326</v>
+        <v>1348</v>
       </c>
       <c r="CD48" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="CE48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -12011,10 +12048,10 @@
         <v>1</v>
       </c>
       <c r="BI49" s="2" t="s">
-        <v>960</v>
+        <v>932</v>
       </c>
       <c r="BJ49" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="BK49">
         <v>3</v>
@@ -12023,10 +12060,10 @@
         <v>3</v>
       </c>
       <c r="BQ49" s="2" t="s">
-        <v>896</v>
+        <v>934</v>
       </c>
       <c r="BR49" s="2" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="BS49">
         <v>1</v>
@@ -12035,10 +12072,10 @@
         <v>1</v>
       </c>
       <c r="BU49" s="2" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="BV49" s="2" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="BW49">
         <v>1</v>
@@ -12047,16 +12084,16 @@
         <v>1</v>
       </c>
       <c r="CC49" t="s">
-        <v>1370</v>
+        <v>1389</v>
       </c>
       <c r="CD49" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="CE49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>91</v>
       </c>
@@ -12078,20 +12115,23 @@
       <c r="W50">
         <v>1</v>
       </c>
-      <c r="BI50" t="s">
-        <v>974</v>
-      </c>
-      <c r="BJ50" t="s">
-        <v>642</v>
+      <c r="BI50" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="BJ50" s="2" t="s">
+        <v>632</v>
       </c>
       <c r="BK50">
         <v>3</v>
       </c>
+      <c r="BL50">
+        <v>3</v>
+      </c>
       <c r="BQ50" s="2" t="s">
-        <v>903</v>
+        <v>936</v>
       </c>
       <c r="BR50" s="2" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="BS50">
         <v>1</v>
@@ -12100,10 +12140,10 @@
         <v>1</v>
       </c>
       <c r="BU50" s="2" t="s">
-        <v>899</v>
+        <v>925</v>
       </c>
       <c r="BV50" s="2" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="BW50">
         <v>1</v>
@@ -12112,16 +12152,16 @@
         <v>1</v>
       </c>
       <c r="CC50" t="s">
-        <v>1313</v>
+        <v>1390</v>
       </c>
       <c r="CD50" t="s">
-        <v>741</v>
+        <v>709</v>
       </c>
       <c r="CE50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>381</v>
       </c>
@@ -12143,20 +12183,23 @@
       <c r="W51">
         <v>1</v>
       </c>
-      <c r="BI51" t="s">
-        <v>975</v>
-      </c>
-      <c r="BJ51" t="s">
-        <v>641</v>
+      <c r="BI51" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="BJ51" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="BK51">
         <v>3</v>
       </c>
+      <c r="BL51">
+        <v>3</v>
+      </c>
       <c r="BQ51" s="2" t="s">
-        <v>906</v>
+        <v>938</v>
       </c>
       <c r="BR51" s="2" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="BS51">
         <v>1</v>
@@ -12165,10 +12208,10 @@
         <v>1</v>
       </c>
       <c r="BU51" s="2" t="s">
-        <v>902</v>
+        <v>926</v>
       </c>
       <c r="BV51" s="2" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="BW51">
         <v>1</v>
@@ -12176,20 +12219,17 @@
       <c r="BX51">
         <v>1</v>
       </c>
-      <c r="CC51" s="2" t="s">
-        <v>1314</v>
+      <c r="CC51" t="s">
+        <v>1283</v>
       </c>
       <c r="CD51" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="CE51">
         <v>1</v>
       </c>
-      <c r="CF51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -12202,20 +12242,23 @@
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="BI52" t="s">
-        <v>978</v>
-      </c>
-      <c r="BJ52" t="s">
-        <v>640</v>
+      <c r="BI52" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="BJ52" s="2" t="s">
+        <v>638</v>
       </c>
       <c r="BK52">
         <v>3</v>
       </c>
+      <c r="BL52">
+        <v>3</v>
+      </c>
       <c r="BQ52" s="2" t="s">
-        <v>909</v>
+        <v>939</v>
       </c>
       <c r="BR52" s="2" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="BS52">
         <v>1</v>
@@ -12224,10 +12267,10 @@
         <v>1</v>
       </c>
       <c r="BU52" s="2" t="s">
-        <v>905</v>
+        <v>927</v>
       </c>
       <c r="BV52" s="2" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="BW52">
         <v>1</v>
@@ -12236,16 +12279,16 @@
         <v>1</v>
       </c>
       <c r="CC52" t="s">
-        <v>1371</v>
+        <v>1284</v>
       </c>
       <c r="CD52" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="CE52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -12258,20 +12301,23 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="BI53" t="s">
-        <v>981</v>
-      </c>
-      <c r="BJ53" t="s">
-        <v>639</v>
+      <c r="BI53" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="BJ53" s="2" t="s">
+        <v>633</v>
       </c>
       <c r="BK53">
         <v>3</v>
       </c>
+      <c r="BL53">
+        <v>3</v>
+      </c>
       <c r="BQ53" s="2" t="s">
-        <v>912</v>
+        <v>940</v>
       </c>
       <c r="BR53" s="2" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="BS53">
         <v>1</v>
@@ -12280,10 +12326,10 @@
         <v>1</v>
       </c>
       <c r="BU53" s="2" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="BV53" s="2" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="BW53">
         <v>1</v>
@@ -12291,34 +12337,34 @@
       <c r="BX53">
         <v>1</v>
       </c>
-      <c r="CC53" s="2" t="s">
-        <v>1275</v>
+      <c r="CC53" t="s">
+        <v>1287</v>
       </c>
       <c r="CD53" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="CE53">
         <v>1</v>
       </c>
-      <c r="CF53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="BI54" t="s">
-        <v>983</v>
-      </c>
-      <c r="BJ54" t="s">
-        <v>644</v>
+    </row>
+    <row r="54" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="BI54" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="BJ54" s="2" t="s">
+        <v>635</v>
       </c>
       <c r="BK54">
         <v>3</v>
       </c>
+      <c r="BL54">
+        <v>3</v>
+      </c>
       <c r="BQ54" s="2" t="s">
-        <v>914</v>
+        <v>942</v>
       </c>
       <c r="BR54" s="2" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="BS54">
         <v>1</v>
@@ -12327,10 +12373,10 @@
         <v>1</v>
       </c>
       <c r="BU54" s="2" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="BV54" s="2" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="BW54">
         <v>1</v>
@@ -12339,30 +12385,33 @@
         <v>1</v>
       </c>
       <c r="CC54" t="s">
-        <v>1276</v>
+        <v>1395</v>
       </c>
       <c r="CD54" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="CE54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="BI55" t="s">
-        <v>986</v>
-      </c>
-      <c r="BJ55" t="s">
-        <v>643</v>
+    <row r="55" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="BI55" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="BJ55" s="2" t="s">
+        <v>634</v>
       </c>
       <c r="BK55">
         <v>3</v>
       </c>
+      <c r="BL55">
+        <v>3</v>
+      </c>
       <c r="BQ55" s="2" t="s">
-        <v>916</v>
+        <v>955</v>
       </c>
       <c r="BR55" s="2" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="BS55">
         <v>1</v>
@@ -12371,10 +12420,10 @@
         <v>1</v>
       </c>
       <c r="BU55" s="2" t="s">
-        <v>913</v>
+        <v>948</v>
       </c>
       <c r="BV55" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="BW55">
         <v>1</v>
@@ -12382,25 +12431,22 @@
       <c r="BX55">
         <v>1</v>
       </c>
-      <c r="CC55" s="2" t="s">
-        <v>1372</v>
+      <c r="CC55" t="s">
+        <v>1289</v>
       </c>
       <c r="CD55" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="CE55">
         <v>1</v>
       </c>
-      <c r="CF55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:83" x14ac:dyDescent="0.25">
       <c r="BQ56" s="2" t="s">
-        <v>917</v>
+        <v>959</v>
       </c>
       <c r="BR56" s="2" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="BS56">
         <v>1</v>
@@ -12409,10 +12455,10 @@
         <v>1</v>
       </c>
       <c r="BU56" s="2" t="s">
-        <v>926</v>
+        <v>949</v>
       </c>
       <c r="BV56" s="2" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="BW56">
         <v>1</v>
@@ -12420,25 +12466,22 @@
       <c r="BX56">
         <v>1</v>
       </c>
-      <c r="CC56" s="2" t="s">
-        <v>1327</v>
+      <c r="CC56" t="s">
+        <v>1349</v>
       </c>
       <c r="CD56" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="CE56">
         <v>1</v>
       </c>
-      <c r="CF56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:83" x14ac:dyDescent="0.25">
       <c r="BU57" s="2" t="s">
-        <v>929</v>
+        <v>951</v>
       </c>
       <c r="BV57" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="BW57">
         <v>1</v>
@@ -12446,100 +12489,88 @@
       <c r="BX57">
         <v>1</v>
       </c>
-      <c r="CC57" s="2" t="s">
-        <v>1328</v>
+      <c r="CC57" t="s">
+        <v>1350</v>
       </c>
       <c r="CD57" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="CE57">
         <v>1</v>
       </c>
-      <c r="CF57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="CC58" s="2" t="s">
-        <v>1373</v>
+    </row>
+    <row r="58" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CC58" t="s">
+        <v>1398</v>
       </c>
       <c r="CD58" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="CE58">
         <v>1</v>
       </c>
-      <c r="CF58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="CC59" s="2" t="s">
-        <v>1315</v>
+    </row>
+    <row r="59" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CC59" t="s">
+        <v>1319</v>
       </c>
       <c r="CD59" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="CE59">
         <v>1</v>
       </c>
-      <c r="CF59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:83" x14ac:dyDescent="0.25">
       <c r="CC60" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="CD60" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="CE60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="CC61" s="2" t="s">
-        <v>1374</v>
+    <row r="61" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CC61" t="s">
+        <v>1399</v>
       </c>
       <c r="CD61" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="CE61">
         <v>1</v>
       </c>
-      <c r="CF61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:83" x14ac:dyDescent="0.25">
       <c r="CC62" t="s">
-        <v>1329</v>
+        <v>1263</v>
       </c>
       <c r="CD62" t="s">
-        <v>753</v>
+        <v>717</v>
       </c>
       <c r="CE62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:83" x14ac:dyDescent="0.25">
       <c r="CC63" t="s">
-        <v>1330</v>
+        <v>1266</v>
       </c>
       <c r="CD63" t="s">
-        <v>753</v>
+        <v>718</v>
       </c>
       <c r="CE63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:83" x14ac:dyDescent="0.25">
       <c r="CC64" t="s">
-        <v>1375</v>
+        <v>1401</v>
       </c>
       <c r="CD64" t="s">
-        <v>753</v>
+        <v>718</v>
       </c>
       <c r="CE64">
         <v>1</v>
@@ -12547,63 +12578,54 @@
     </row>
     <row r="65" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC65" t="s">
-        <v>1299</v>
+        <v>1342</v>
       </c>
       <c r="CD65" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="CE65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC66" s="2" t="s">
-        <v>1300</v>
+      <c r="CC66" t="s">
+        <v>1291</v>
       </c>
       <c r="CD66" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="CE66">
         <v>1</v>
       </c>
-      <c r="CF66">
-        <v>1</v>
-      </c>
     </row>
     <row r="67" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC67" s="2" t="s">
-        <v>1376</v>
+      <c r="CC67" t="s">
+        <v>1292</v>
       </c>
       <c r="CD67" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="CE67">
         <v>1</v>
       </c>
-      <c r="CF67">
-        <v>1</v>
-      </c>
     </row>
     <row r="68" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC68" s="2" t="s">
-        <v>1301</v>
+      <c r="CC68" t="s">
+        <v>1403</v>
       </c>
       <c r="CD68" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="CE68">
-        <v>1</v>
-      </c>
-      <c r="CF68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC69" t="s">
-        <v>1302</v>
+        <v>1251</v>
       </c>
       <c r="CD69" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="CE69">
         <v>1</v>
@@ -12611,88 +12633,76 @@
     </row>
     <row r="70" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC70" t="s">
-        <v>1377</v>
+        <v>1252</v>
       </c>
       <c r="CD70" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="CE70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC71" s="2" t="s">
-        <v>1277</v>
+      <c r="CC71" t="s">
+        <v>1404</v>
       </c>
       <c r="CD71" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="CE71">
         <v>1</v>
       </c>
-      <c r="CF71">
-        <v>1</v>
-      </c>
     </row>
     <row r="72" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC72" s="2" t="s">
-        <v>1278</v>
+      <c r="CC72" t="s">
+        <v>1351</v>
       </c>
       <c r="CD72" t="s">
-        <v>724</v>
+        <v>760</v>
       </c>
       <c r="CE72">
         <v>1</v>
       </c>
-      <c r="CF72">
-        <v>1</v>
-      </c>
     </row>
     <row r="73" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC73" s="2" t="s">
-        <v>1378</v>
+      <c r="CC73" t="s">
+        <v>1352</v>
       </c>
       <c r="CD73" t="s">
-        <v>724</v>
+        <v>760</v>
       </c>
       <c r="CE73">
-        <v>1</v>
-      </c>
-      <c r="CF73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC74" t="s">
-        <v>1317</v>
+        <v>1406</v>
       </c>
       <c r="CD74" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="CE74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC75" s="2" t="s">
-        <v>1318</v>
+      <c r="CC75" t="s">
+        <v>1408</v>
       </c>
       <c r="CD75" t="s">
-        <v>743</v>
+        <v>713</v>
       </c>
       <c r="CE75">
-        <v>1</v>
-      </c>
-      <c r="CF75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC76" t="s">
-        <v>1379</v>
+        <v>1353</v>
       </c>
       <c r="CD76" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="CE76">
         <v>1</v>
@@ -12700,10 +12710,10 @@
     </row>
     <row r="77" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC77" t="s">
-        <v>1345</v>
+        <v>1354</v>
       </c>
       <c r="CD77" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="CE77">
         <v>1</v>
@@ -12711,10 +12721,10 @@
     </row>
     <row r="78" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC78" t="s">
-        <v>1346</v>
+        <v>1409</v>
       </c>
       <c r="CD78" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="CE78">
         <v>1</v>
@@ -12722,10 +12732,10 @@
     </row>
     <row r="79" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC79" t="s">
-        <v>1380</v>
+        <v>1267</v>
       </c>
       <c r="CD79" t="s">
-        <v>757</v>
+        <v>719</v>
       </c>
       <c r="CE79">
         <v>1</v>
@@ -12733,10 +12743,10 @@
     </row>
     <row r="80" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC80" s="2" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="CD80" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="CE80">
         <v>1</v>
@@ -12747,10 +12757,10 @@
     </row>
     <row r="81" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC81" s="2" t="s">
-        <v>1280</v>
+        <v>1355</v>
       </c>
       <c r="CD81" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="CE81">
         <v>1</v>
@@ -12761,10 +12771,10 @@
     </row>
     <row r="82" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC82" s="2" t="s">
-        <v>1381</v>
+        <v>1356</v>
       </c>
       <c r="CD82" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="CE82">
         <v>1</v>
@@ -12775,10 +12785,10 @@
     </row>
     <row r="83" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC83" s="2" t="s">
-        <v>1331</v>
+        <v>1295</v>
       </c>
       <c r="CD83" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="CE83">
         <v>1</v>
@@ -12789,10 +12799,10 @@
     </row>
     <row r="84" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC84" s="2" t="s">
-        <v>1332</v>
+        <v>1296</v>
       </c>
       <c r="CD84" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="CE84">
         <v>1</v>
@@ -12802,22 +12812,25 @@
       </c>
     </row>
     <row r="85" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC85" t="s">
-        <v>1382</v>
+      <c r="CC85" s="2" t="s">
+        <v>1357</v>
       </c>
       <c r="CD85" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="CE85">
+        <v>1</v>
+      </c>
+      <c r="CF85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC86" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="CD86" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="CE86">
         <v>1</v>
@@ -12828,10 +12841,10 @@
     </row>
     <row r="87" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC87" s="2" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="CD87" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="CE87">
         <v>1</v>
@@ -12842,10 +12855,10 @@
     </row>
     <row r="88" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC88" s="2" t="s">
-        <v>1383</v>
+        <v>1359</v>
       </c>
       <c r="CD88" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="CE88">
         <v>1</v>
@@ -12855,22 +12868,25 @@
       </c>
     </row>
     <row r="89" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC89" t="s">
-        <v>1337</v>
+      <c r="CC89" s="2" t="s">
+        <v>1309</v>
       </c>
       <c r="CD89" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="CE89">
+        <v>1</v>
+      </c>
+      <c r="CF89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC90" s="2" t="s">
-        <v>1338</v>
+        <v>1310</v>
       </c>
       <c r="CD90" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="CE90">
         <v>1</v>
@@ -12880,22 +12896,25 @@
       </c>
     </row>
     <row r="91" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC91" t="s">
-        <v>1384</v>
+      <c r="CC91" s="2" t="s">
+        <v>1360</v>
       </c>
       <c r="CD91" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="CE91">
+        <v>1</v>
+      </c>
+      <c r="CF91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC92" s="2" t="s">
-        <v>1303</v>
+        <v>1271</v>
       </c>
       <c r="CD92" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="CE92">
         <v>1</v>
@@ -12905,91 +12924,109 @@
       </c>
     </row>
     <row r="93" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC93" t="s">
-        <v>1304</v>
+      <c r="CC93" s="2" t="s">
+        <v>1272</v>
       </c>
       <c r="CD93" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="CE93">
+        <v>1</v>
+      </c>
+      <c r="CF93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC94" s="2" t="s">
-        <v>1385</v>
+        <v>1361</v>
       </c>
       <c r="CD94" t="s">
+        <v>721</v>
+      </c>
+      <c r="CE94">
+        <v>1</v>
+      </c>
+      <c r="CF94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC95" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="CD95" t="s">
+        <v>740</v>
+      </c>
+      <c r="CE95">
+        <v>1</v>
+      </c>
+      <c r="CF95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC96" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="CD96" t="s">
+        <v>740</v>
+      </c>
+      <c r="CE96">
+        <v>1</v>
+      </c>
+      <c r="CF96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC97" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="CD97" t="s">
+        <v>734</v>
+      </c>
+      <c r="CE97">
+        <v>1</v>
+      </c>
+      <c r="CF97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC98" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="CD98" t="s">
         <v>707</v>
       </c>
-      <c r="CE94">
-        <v>1</v>
-      </c>
-      <c r="CF94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC95" t="s">
-        <v>1339</v>
-      </c>
-      <c r="CD95" t="s">
-        <v>747</v>
-      </c>
-      <c r="CE95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC96" t="s">
-        <v>1340</v>
-      </c>
-      <c r="CD96" t="s">
-        <v>747</v>
-      </c>
-      <c r="CE96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC97" t="s">
-        <v>1386</v>
-      </c>
-      <c r="CD97" t="s">
-        <v>747</v>
-      </c>
-      <c r="CE97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC98" t="s">
-        <v>1305</v>
-      </c>
-      <c r="CD98" t="s">
-        <v>737</v>
-      </c>
       <c r="CE98">
         <v>1</v>
       </c>
+      <c r="CF98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC99" t="s">
-        <v>1306</v>
+      <c r="CC99" s="2" t="s">
+        <v>1365</v>
       </c>
       <c r="CD99" t="s">
-        <v>737</v>
+        <v>707</v>
       </c>
       <c r="CE99">
+        <v>1</v>
+      </c>
+      <c r="CF99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC100" s="2" t="s">
-        <v>1387</v>
+        <v>1245</v>
       </c>
       <c r="CD100" t="s">
-        <v>737</v>
+        <v>708</v>
       </c>
       <c r="CE100">
         <v>1</v>
@@ -12999,22 +13036,25 @@
       </c>
     </row>
     <row r="101" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC101" t="s">
-        <v>1281</v>
+      <c r="CC101" s="2" t="s">
+        <v>1246</v>
       </c>
       <c r="CD101" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="CE101">
+        <v>1</v>
+      </c>
+      <c r="CF101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC102" s="2" t="s">
-        <v>1282</v>
+        <v>1336</v>
       </c>
       <c r="CD102" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="CE102">
         <v>1</v>
@@ -13025,10 +13065,10 @@
     </row>
     <row r="103" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC103" s="2" t="s">
-        <v>1388</v>
+        <v>1369</v>
       </c>
       <c r="CD103" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="CE103">
         <v>1</v>
@@ -13038,44 +13078,53 @@
       </c>
     </row>
     <row r="104" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC104" t="s">
-        <v>1347</v>
+      <c r="CC104" s="2" t="s">
+        <v>1326</v>
       </c>
       <c r="CD104" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="CE104">
         <v>1</v>
       </c>
+      <c r="CF104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC105" t="s">
-        <v>1348</v>
+      <c r="CC105" s="2" t="s">
+        <v>1370</v>
       </c>
       <c r="CD105" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="CE105">
         <v>1</v>
       </c>
+      <c r="CF105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC106" t="s">
-        <v>1389</v>
+      <c r="CC106" s="2" t="s">
+        <v>1314</v>
       </c>
       <c r="CD106" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="CE106">
+        <v>1</v>
+      </c>
+      <c r="CF106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC107" s="2" t="s">
-        <v>1247</v>
+        <v>1371</v>
       </c>
       <c r="CD107" t="s">
-        <v>709</v>
+        <v>741</v>
       </c>
       <c r="CE107">
         <v>1</v>
@@ -13086,10 +13135,10 @@
     </row>
     <row r="108" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC108" s="2" t="s">
-        <v>1248</v>
+        <v>1275</v>
       </c>
       <c r="CD108" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="CE108">
         <v>1</v>
@@ -13099,22 +13148,25 @@
       </c>
     </row>
     <row r="109" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC109" t="s">
-        <v>1390</v>
+      <c r="CC109" s="2" t="s">
+        <v>1372</v>
       </c>
       <c r="CD109" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="CE109">
+        <v>1</v>
+      </c>
+      <c r="CF109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC110" s="2" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="CD110" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="CE110">
         <v>1</v>
@@ -13125,10 +13177,10 @@
     </row>
     <row r="111" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC111" s="2" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="CD111" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="CE111">
         <v>1</v>
@@ -13139,10 +13191,10 @@
     </row>
     <row r="112" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC112" s="2" t="s">
-        <v>1391</v>
+        <v>1373</v>
       </c>
       <c r="CD112" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="CE112">
         <v>1</v>
@@ -13153,10 +13205,10 @@
     </row>
     <row r="113" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC113" s="2" t="s">
-        <v>1261</v>
+        <v>1315</v>
       </c>
       <c r="CD113" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="CE113">
         <v>1</v>
@@ -13167,10 +13219,10 @@
     </row>
     <row r="114" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC114" s="2" t="s">
-        <v>1262</v>
+        <v>1374</v>
       </c>
       <c r="CD114" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="CE114">
         <v>1</v>
@@ -13181,10 +13233,10 @@
     </row>
     <row r="115" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC115" s="2" t="s">
-        <v>1392</v>
+        <v>1375</v>
       </c>
       <c r="CD115" t="s">
-        <v>716</v>
+        <v>753</v>
       </c>
       <c r="CE115">
         <v>1</v>
@@ -13194,33 +13246,39 @@
       </c>
     </row>
     <row r="116" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC116" t="s">
-        <v>1283</v>
+      <c r="CC116" s="2" t="s">
+        <v>1300</v>
       </c>
       <c r="CD116" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="CE116">
         <v>1</v>
       </c>
+      <c r="CF116">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC117" t="s">
-        <v>1284</v>
+      <c r="CC117" s="2" t="s">
+        <v>1376</v>
       </c>
       <c r="CD117" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="CE117">
+        <v>1</v>
+      </c>
+      <c r="CF117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC118" s="2" t="s">
-        <v>1393</v>
+        <v>1301</v>
       </c>
       <c r="CD118" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="CE118">
         <v>1</v>
@@ -13231,10 +13289,10 @@
     </row>
     <row r="119" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC119" s="2" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="CD119" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="CE119">
         <v>1</v>
@@ -13245,10 +13303,10 @@
     </row>
     <row r="120" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC120" s="2" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="CD120" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="CE120">
         <v>1</v>
@@ -13259,10 +13317,10 @@
     </row>
     <row r="121" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC121" s="2" t="s">
-        <v>1394</v>
+        <v>1378</v>
       </c>
       <c r="CD121" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="CE121">
         <v>1</v>
@@ -13272,22 +13330,25 @@
       </c>
     </row>
     <row r="122" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC122" t="s">
-        <v>1287</v>
+      <c r="CC122" s="2" t="s">
+        <v>1318</v>
       </c>
       <c r="CD122" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
       <c r="CE122">
+        <v>1</v>
+      </c>
+      <c r="CF122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC123" s="2" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="CD123" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="CE123">
         <v>1</v>
@@ -13297,33 +13358,39 @@
       </c>
     </row>
     <row r="124" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC124" t="s">
-        <v>1395</v>
+      <c r="CC124" s="2" t="s">
+        <v>1280</v>
       </c>
       <c r="CD124" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="CE124">
         <v>1</v>
       </c>
+      <c r="CF124">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC125" t="s">
-        <v>1289</v>
+      <c r="CC125" s="2" t="s">
+        <v>1381</v>
       </c>
       <c r="CD125" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="CE125">
+        <v>1</v>
+      </c>
+      <c r="CF125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC126" s="2" t="s">
-        <v>1290</v>
+        <v>1331</v>
       </c>
       <c r="CD126" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="CE126">
         <v>1</v>
@@ -13334,10 +13401,10 @@
     </row>
     <row r="127" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC127" s="2" t="s">
-        <v>1396</v>
+        <v>1332</v>
       </c>
       <c r="CD127" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="CE127">
         <v>1</v>
@@ -13348,10 +13415,10 @@
     </row>
     <row r="128" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC128" s="2" t="s">
-        <v>1249</v>
+        <v>1259</v>
       </c>
       <c r="CD128" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="CE128">
         <v>1</v>
@@ -13362,10 +13429,10 @@
     </row>
     <row r="129" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC129" s="2" t="s">
-        <v>1250</v>
+        <v>1260</v>
       </c>
       <c r="CD129" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="CE129">
         <v>1</v>
@@ -13376,10 +13443,10 @@
     </row>
     <row r="130" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC130" s="2" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
       <c r="CD130" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="CE130">
         <v>1</v>
@@ -13389,88 +13456,109 @@
       </c>
     </row>
     <row r="131" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC131" t="s">
-        <v>1349</v>
+      <c r="CC131" s="2" t="s">
+        <v>1338</v>
       </c>
       <c r="CD131" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="CE131">
         <v>1</v>
       </c>
+      <c r="CF131">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC132" t="s">
-        <v>1350</v>
+      <c r="CC132" s="2" t="s">
+        <v>1303</v>
       </c>
       <c r="CD132" t="s">
-        <v>759</v>
+        <v>707</v>
       </c>
       <c r="CE132">
         <v>1</v>
       </c>
+      <c r="CF132">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC133" t="s">
-        <v>1398</v>
+      <c r="CC133" s="2" t="s">
+        <v>1385</v>
       </c>
       <c r="CD133" t="s">
-        <v>759</v>
+        <v>707</v>
       </c>
       <c r="CE133">
         <v>1</v>
       </c>
+      <c r="CF133">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC134" t="s">
-        <v>1319</v>
+      <c r="CC134" s="2" t="s">
+        <v>1387</v>
       </c>
       <c r="CD134" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="CE134">
         <v>1</v>
       </c>
+      <c r="CF134">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC135" t="s">
-        <v>1320</v>
+      <c r="CC135" s="2" t="s">
+        <v>1282</v>
       </c>
       <c r="CD135" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="CE135">
         <v>1</v>
       </c>
+      <c r="CF135">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC136" t="s">
-        <v>1399</v>
+      <c r="CC136" s="2" t="s">
+        <v>1388</v>
       </c>
       <c r="CD136" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="CE136">
         <v>1</v>
       </c>
+      <c r="CF136">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC137" t="s">
-        <v>1263</v>
+      <c r="CC137" s="2" t="s">
+        <v>1247</v>
       </c>
       <c r="CD137" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="CE137">
+        <v>1</v>
+      </c>
+      <c r="CF137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC138" s="2" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
       <c r="CD138" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="CE138">
         <v>1</v>
@@ -13481,10 +13569,10 @@
     </row>
     <row r="139" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC139" s="2" t="s">
-        <v>1400</v>
+        <v>1333</v>
       </c>
       <c r="CD139" t="s">
-        <v>717</v>
+        <v>755</v>
       </c>
       <c r="CE139">
         <v>1</v>
@@ -13495,10 +13583,10 @@
     </row>
     <row r="140" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC140" s="2" t="s">
-        <v>1265</v>
+        <v>1334</v>
       </c>
       <c r="CD140" t="s">
-        <v>718</v>
+        <v>755</v>
       </c>
       <c r="CE140">
         <v>1</v>
@@ -13508,33 +13596,39 @@
       </c>
     </row>
     <row r="141" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC141" t="s">
-        <v>1266</v>
+      <c r="CC141" s="2" t="s">
+        <v>1391</v>
       </c>
       <c r="CD141" t="s">
-        <v>718</v>
+        <v>755</v>
       </c>
       <c r="CE141">
         <v>1</v>
       </c>
+      <c r="CF141">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC142" t="s">
-        <v>1401</v>
+      <c r="CC142" s="2" t="s">
+        <v>1261</v>
       </c>
       <c r="CD142" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="CE142">
+        <v>1</v>
+      </c>
+      <c r="CF142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC143" s="2" t="s">
-        <v>1341</v>
+        <v>1262</v>
       </c>
       <c r="CD143" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="CE143">
         <v>1</v>
@@ -13544,22 +13638,25 @@
       </c>
     </row>
     <row r="144" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC144" t="s">
-        <v>1342</v>
+      <c r="CC144" s="2" t="s">
+        <v>1392</v>
       </c>
       <c r="CD144" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="CE144">
+        <v>1</v>
+      </c>
+      <c r="CF144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC145" s="2" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="CD145" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="CE145">
         <v>1</v>
@@ -13569,77 +13666,95 @@
       </c>
     </row>
     <row r="146" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC146" t="s">
-        <v>1291</v>
+      <c r="CC146" s="2" t="s">
+        <v>1285</v>
       </c>
       <c r="CD146" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="CE146">
         <v>1</v>
       </c>
+      <c r="CF146">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC147" t="s">
-        <v>1292</v>
+      <c r="CC147" s="2" t="s">
+        <v>1286</v>
       </c>
       <c r="CD147" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="CE147">
         <v>1</v>
       </c>
+      <c r="CF147">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC148" t="s">
-        <v>1403</v>
+      <c r="CC148" s="2" t="s">
+        <v>1394</v>
       </c>
       <c r="CD148" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="CE148">
         <v>1</v>
       </c>
+      <c r="CF148">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC149" t="s">
-        <v>1251</v>
+      <c r="CC149" s="2" t="s">
+        <v>1288</v>
       </c>
       <c r="CD149" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="CE149">
         <v>1</v>
       </c>
+      <c r="CF149">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC150" t="s">
-        <v>1252</v>
+      <c r="CC150" s="2" t="s">
+        <v>1290</v>
       </c>
       <c r="CD150" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="CE150">
         <v>1</v>
       </c>
+      <c r="CF150">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC151" t="s">
-        <v>1404</v>
+      <c r="CC151" s="2" t="s">
+        <v>1396</v>
       </c>
       <c r="CD151" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="CE151">
+        <v>1</v>
+      </c>
+      <c r="CF151">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC152" s="2" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="CD152" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="CE152">
         <v>1</v>
@@ -13650,10 +13765,10 @@
     </row>
     <row r="153" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC153" s="2" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="CD153" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="CE153">
         <v>1</v>
@@ -13664,10 +13779,10 @@
     </row>
     <row r="154" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC154" s="2" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="CD154" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="CE154">
         <v>1</v>
@@ -13677,44 +13792,53 @@
       </c>
     </row>
     <row r="155" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC155" t="s">
-        <v>1351</v>
+      <c r="CC155" s="2" t="s">
+        <v>1264</v>
       </c>
       <c r="CD155" t="s">
-        <v>760</v>
+        <v>717</v>
       </c>
       <c r="CE155">
         <v>1</v>
       </c>
+      <c r="CF155">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC156" t="s">
-        <v>1352</v>
+      <c r="CC156" s="2" t="s">
+        <v>1400</v>
       </c>
       <c r="CD156" t="s">
-        <v>760</v>
+        <v>717</v>
       </c>
       <c r="CE156">
         <v>1</v>
       </c>
+      <c r="CF156">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC157" t="s">
-        <v>1406</v>
+      <c r="CC157" s="2" t="s">
+        <v>1265</v>
       </c>
       <c r="CD157" t="s">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="CE157">
+        <v>1</v>
+      </c>
+      <c r="CF157">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC158" s="2" t="s">
-        <v>1293</v>
+        <v>1341</v>
       </c>
       <c r="CD158" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="CE158">
         <v>1</v>
@@ -13725,10 +13849,10 @@
     </row>
     <row r="159" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC159" s="2" t="s">
-        <v>1294</v>
+        <v>1402</v>
       </c>
       <c r="CD159" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="CE159">
         <v>1</v>
@@ -13739,10 +13863,10 @@
     </row>
     <row r="160" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC160" s="2" t="s">
-        <v>1407</v>
+        <v>1253</v>
       </c>
       <c r="CD160" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="CE160">
         <v>1</v>
@@ -13753,10 +13877,10 @@
     </row>
     <row r="161" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC161" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="CD161" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="CE161">
         <v>1</v>
@@ -13767,70 +13891,85 @@
     </row>
     <row r="162" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC162" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="CD162" t="s">
+        <v>712</v>
+      </c>
+      <c r="CE162">
+        <v>1</v>
+      </c>
+      <c r="CF162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC163" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="CD163" t="s">
+        <v>732</v>
+      </c>
+      <c r="CE163">
+        <v>1</v>
+      </c>
+      <c r="CF163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC164" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="CD164" t="s">
+        <v>732</v>
+      </c>
+      <c r="CE164">
+        <v>1</v>
+      </c>
+      <c r="CF164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC165" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="CD165" t="s">
+        <v>732</v>
+      </c>
+      <c r="CE165">
+        <v>1</v>
+      </c>
+      <c r="CF165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC166" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="CD166" t="s">
+        <v>713</v>
+      </c>
+      <c r="CE166">
+        <v>1</v>
+      </c>
+      <c r="CF166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CC167" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="CD162" t="s">
+      <c r="CD167" t="s">
         <v>713</v>
       </c>
-      <c r="CE162">
-        <v>1</v>
-      </c>
-      <c r="CF162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC163" t="s">
-        <v>1408</v>
-      </c>
-      <c r="CD163" t="s">
-        <v>713</v>
-      </c>
-      <c r="CE163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC164" t="s">
-        <v>1353</v>
-      </c>
-      <c r="CD164" t="s">
-        <v>761</v>
-      </c>
-      <c r="CE164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC165" t="s">
-        <v>1354</v>
-      </c>
-      <c r="CD165" t="s">
-        <v>761</v>
-      </c>
-      <c r="CE165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC166" t="s">
-        <v>1409</v>
-      </c>
-      <c r="CD166" t="s">
-        <v>761</v>
-      </c>
-      <c r="CE166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="81:84" x14ac:dyDescent="0.25">
-      <c r="CC167" t="s">
-        <v>1267</v>
-      </c>
-      <c r="CD167" t="s">
-        <v>719</v>
-      </c>
       <c r="CE167">
+        <v>1</v>
+      </c>
+      <c r="CF167">
         <v>1</v>
       </c>
     </row>
@@ -13863,19 +14002,20 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="CC2:CF169">
-    <sortCondition ref="CC2:CC169"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BM2:BP48">
+    <sortCondition sortBy="cellColor" ref="BM2:BM48" dxfId="1"/>
+    <sortCondition ref="BM2:BM48"/>
   </sortState>
   <conditionalFormatting sqref="A1:ZZ200">
-    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+    <cfRule type="containsText" dxfId="16" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="15" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="containsText" dxfId="0" priority="25" stopIfTrue="1" operator="containsText" text="Bubble">
+    <cfRule type="containsText" dxfId="14" priority="25" stopIfTrue="1" operator="containsText" text="Bubble">
       <formula>NOT(ISERROR(SEARCH("Bubble",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15243,16 +15383,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B168">
-    <cfRule type="containsText" dxfId="6" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+    <cfRule type="containsText" dxfId="13" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="12" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
+    <cfRule type="containsText" dxfId="11" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
       <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+    <cfRule type="containsText" dxfId="10" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
       <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1B0ACB-AAD4-4918-B236-813C0C3B5A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424E4C41-CB07-42D2-B444-E8E40C26293F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1095" windowWidth="21825" windowHeight="14190" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="2162">
   <si>
     <t>General Achievements</t>
   </si>
@@ -4271,6 +4271,2278 @@
   </si>
   <si>
     <t>Zebra Swampling (Tiny) (Spooky Swamp)</t>
+  </si>
+  <si>
+    <t>Music Disk</t>
+  </si>
+  <si>
+    <t>Clues on the Beach (Full Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Summer Sole)
+Hello Kitty (Disco Days Quest)</t>
+  </si>
+  <si>
+    <t>Clues on the Beach (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Clues on the Beach (Base Mix)</t>
+  </si>
+  <si>
+    <t>Clues on the Beach (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Bogging for Apples</t>
+  </si>
+  <si>
+    <t>Sand-Sational Sunset (Full Mix)</t>
+  </si>
+  <si>
+    <t>Gem Match
+Hello Kitty (Disco Days Quest)</t>
+  </si>
+  <si>
+    <t>Sand-Sational Sunset (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Sand-Sational Sunset (Base Mix)</t>
+  </si>
+  <si>
+    <t>Sand-Sational Sunset (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Tropical Fish)</t>
+  </si>
+  <si>
+    <t>Resort Roundabout (Full Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Seaweed Skipper)
+Hello Kitty (Disco Days Quest)</t>
+  </si>
+  <si>
+    <t>Resort Roundabout (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Resort Roundabout (Base Mix)</t>
+  </si>
+  <si>
+    <t>Resort Roundabout (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Red Hot Rampage</t>
+  </si>
+  <si>
+    <t>Surfside Sunrise (Full Mix)</t>
+  </si>
+  <si>
+    <t>Crane Craze
+Hello Kitty (Disco Days Quest)</t>
+  </si>
+  <si>
+    <t>Surfside Sunrise (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Surfside Sunrise (Base Mix)</t>
+  </si>
+  <si>
+    <t>Surfside Sunrise (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Coastal Clamfish)</t>
+  </si>
+  <si>
+    <t>Haunts And Taunts</t>
+  </si>
+  <si>
+    <t>Bogging for Apples
+Basement Library</t>
+  </si>
+  <si>
+    <t>Sauntering in the Fog (Full Mix)</t>
+  </si>
+  <si>
+    <t>Sauntering in the Fog (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Sauntering in the Fog (Base Mix)</t>
+  </si>
+  <si>
+    <t>Sauntering in the Fog (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Slimescale)</t>
+  </si>
+  <si>
+    <t>Definitely Haunted (Full Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Spirit Betta)</t>
+  </si>
+  <si>
+    <t>Definitely Haunted (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Definitely Haunted (Base Mix)</t>
+  </si>
+  <si>
+    <t>Definitely Haunted (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Swampmallow Jam (Full Mix)</t>
+  </si>
+  <si>
+    <t>Swampmallow Jam (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Swampmallow Jam (Base Mix)</t>
+  </si>
+  <si>
+    <t>Swampmallow Jam (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Midnight Pike)</t>
+  </si>
+  <si>
+    <t>Lily Frog Hop (Full Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Zebra Swampling)</t>
+  </si>
+  <si>
+    <t>Lily Frog Hop (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Lily Frog Hop (Base Mix)</t>
+  </si>
+  <si>
+    <t>Lily Frog Hop (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Sleepy Mountain</t>
+  </si>
+  <si>
+    <t>Fishing (Cavern Clamfish)
+Radiant Chest)</t>
+  </si>
+  <si>
+    <t>Rockadoodler (Full Mix)</t>
+  </si>
+  <si>
+    <t>Ge Match</t>
+  </si>
+  <si>
+    <t>Rockadoodler (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Rockadoodler (Base Mix)</t>
+  </si>
+  <si>
+    <t>Rockadoodler (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Mountain Gulper)</t>
+  </si>
+  <si>
+    <t>Sundown in Gemstone Town (Full Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Neon Longtail)</t>
+  </si>
+  <si>
+    <t>Sundown in Gemstone Town (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Sundown in Gemstone Town (Base Mix)</t>
+  </si>
+  <si>
+    <t>Sundown in Gemstone Town (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Rockadoodler Roundup</t>
+  </si>
+  <si>
+    <t>Dancing is Great Cardio (Full Mix)</t>
+  </si>
+  <si>
+    <t>Gem Match</t>
+  </si>
+  <si>
+    <t>Dancing is Great Cardio (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Dancing is Great Cardio (Base Mix)</t>
+  </si>
+  <si>
+    <t>Dancing is Great Cardio (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Jeweled Goby)</t>
+  </si>
+  <si>
+    <t>Trottin' with Tumbleweeds (Full Mix)</t>
+  </si>
+  <si>
+    <t>Trottin' with Tumbleweeds (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Trottin' with Tumbleweeds (Base Mix)</t>
+  </si>
+  <si>
+    <t>Trottin' with Tumbleweeds (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Halfmoon Herring)</t>
+  </si>
+  <si>
+    <t>New Clothes And Lava Flows (Full Mix)</t>
+  </si>
+  <si>
+    <t>New Clothes And Lava Flows (Chill Mix)</t>
+  </si>
+  <si>
+    <t>New Clothes And Lava Flows (Base Mix)</t>
+  </si>
+  <si>
+    <t>New Clothes And Lava Flows (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Golden Loach)</t>
+  </si>
+  <si>
+    <t>Tracking Tigersnoots (Full Mix)</t>
+  </si>
+  <si>
+    <t>Thermal</t>
+  </si>
+  <si>
+    <t>Tracking Tigersnoots (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Tracking Tigersnoots (Base Mix)</t>
+  </si>
+  <si>
+    <t>Tracking Tigersnoots (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Bottlefish)</t>
+  </si>
+  <si>
+    <t>Hothead Heya (Full Mix)</t>
+  </si>
+  <si>
+    <t>Hothead Heya (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Hothead Heya (Base Mix)</t>
+  </si>
+  <si>
+    <t>Hothead Heya (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Armoured Bass)</t>
+  </si>
+  <si>
+    <t>Hot Springs Zen (Full Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Flying Springtail)</t>
+  </si>
+  <si>
+    <t>Hot Springs Zen (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Hot Springs Zen (Base Mix)</t>
+  </si>
+  <si>
+    <t>Hot Springs Zen (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Official Jokes</t>
+  </si>
+  <si>
+    <t>Fishing (Masked Wrassler)</t>
+  </si>
+  <si>
+    <t>Peculiar Corals (Full Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Electric Tang)</t>
+  </si>
+  <si>
+    <t>Peculiar Corals (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Peculiar Corals (Base Mix)</t>
+  </si>
+  <si>
+    <t>Peculiar Corals (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Rainfall Flower</t>
+  </si>
+  <si>
+    <t>Mermaid Tiara (Full Mix)</t>
+  </si>
+  <si>
+    <t>Seapony Racing</t>
+  </si>
+  <si>
+    <t>Mermaid Tiara (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Mermaid Tiara (Base Mix)</t>
+  </si>
+  <si>
+    <t>Mermaid Tiara (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Ruby Dreamscale)</t>
+  </si>
+  <si>
+    <t>Swimming in No Time (Full Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Sunset Guppy)</t>
+  </si>
+  <si>
+    <t>Swimming in No Time (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Swimming in No Time (Base Mix)</t>
+  </si>
+  <si>
+    <t>Swimming in No Time (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Reef Revival (Full Mix)</t>
+  </si>
+  <si>
+    <t>Reef Revival (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Reef Revival (Base Mix)</t>
+  </si>
+  <si>
+    <t>Reef Revival (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Kelpfin)</t>
+  </si>
+  <si>
+    <t>Stronger Together (Full Mix)</t>
+  </si>
+  <si>
+    <t>Icy Peak</t>
+  </si>
+  <si>
+    <t>Stronger Together (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Stronger Together (Base Mix)</t>
+  </si>
+  <si>
+    <t>Stronger Together (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>The Cloud Star (Full Mix)</t>
+  </si>
+  <si>
+    <t>Star Treasure</t>
+  </si>
+  <si>
+    <t>The Cloud Star (Chill Mix)</t>
+  </si>
+  <si>
+    <t>The Cloud Star (Base Mix)</t>
+  </si>
+  <si>
+    <t>The Cloud Star (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Moonla)</t>
+  </si>
+  <si>
+    <t>Cosmic Candy (Full Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Crescent Minnow)</t>
+  </si>
+  <si>
+    <t>Cosmic Candy (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Cosmic Candy (Base Mix)</t>
+  </si>
+  <si>
+    <t>Cosmic Candy (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>A Chance of Stardust (Full Mix)</t>
+  </si>
+  <si>
+    <t>A Chance of Stardust (Chill Mix)</t>
+  </si>
+  <si>
+    <t>A Chance of Stardust (Base Mix)</t>
+  </si>
+  <si>
+    <t>A Chance of Stardust (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Nebula Peeper)</t>
+  </si>
+  <si>
+    <t>Dreamy Destiny (Full Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Starlight Floater)</t>
+  </si>
+  <si>
+    <t>Dreamy Destiny (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Dreamy Destiny (Base Mix)</t>
+  </si>
+  <si>
+    <t>Dreamy Destiny (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Dance of Blooms (Full Mix)</t>
+  </si>
+  <si>
+    <t>Crane Craze</t>
+  </si>
+  <si>
+    <t>Dance of Blooms (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Merry Meadow</t>
+  </si>
+  <si>
+    <t>Dance of Blooms (Base Mix)</t>
+  </si>
+  <si>
+    <t>Dance of Blooms (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Petalscale)</t>
+  </si>
+  <si>
+    <t>Petal Keys (Full Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Geranium Gar)</t>
+  </si>
+  <si>
+    <t>Petal Keys (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Petal Keys (Base Mix)</t>
+  </si>
+  <si>
+    <t>Petal Keys (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Winds And Wildflowers (Full Mix)</t>
+  </si>
+  <si>
+    <t>Cane Craze</t>
+  </si>
+  <si>
+    <t>Winds And Wildflowers (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Winds And Wildflowers (Base Mix)</t>
+  </si>
+  <si>
+    <t>Winds And Wildflowers (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Fishing (Meadow Stripe)</t>
+  </si>
+  <si>
+    <t>Fantastical Flora (Full Mix)</t>
+  </si>
+  <si>
+    <t>Fantastical Flora (Chill Mix)</t>
+  </si>
+  <si>
+    <t>Fantastical Flora (Base Mix)</t>
+  </si>
+  <si>
+    <t>Fantastical Flora (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>An Exciting Moment</t>
+  </si>
+  <si>
+    <t>Gemstone Mountain
+Pekkle (Disco Days Quest)</t>
+  </si>
+  <si>
+    <t>An Adventurous Moment</t>
+  </si>
+  <si>
+    <t>Mount Hothead
+Pekkle (Disco Days Quest)</t>
+  </si>
+  <si>
+    <t>A Friendly Moment</t>
+  </si>
+  <si>
+    <t>Seaside Resort 
+Pekkle (Disco Days Quest)</t>
+  </si>
+  <si>
+    <t>A Jubilant Moment</t>
+  </si>
+  <si>
+    <t>Cloud Island 
+Pekkle (Disco Days Quest)</t>
+  </si>
+  <si>
+    <t>A Mysterious Moment</t>
+  </si>
+  <si>
+    <t>Spooky Swamp 
+Pekkle (Disco Days Quest)</t>
+  </si>
+  <si>
+    <t>A Mischievous Moment</t>
+  </si>
+  <si>
+    <t>A Somber Moment</t>
+  </si>
+  <si>
+    <t>A Suspenseful Moment</t>
+  </si>
+  <si>
+    <t>A Thoughtful Moment</t>
+  </si>
+  <si>
+    <t>An Enlightening Moment</t>
+  </si>
+  <si>
+    <t>An Exuberant Moment</t>
+  </si>
+  <si>
+    <t>A Joyful Moment</t>
+  </si>
+  <si>
+    <t>A Pleasant Moment</t>
+  </si>
+  <si>
+    <t>Mental Ways for Stressful Days</t>
+  </si>
+  <si>
+    <t>Mental Life for Office Strife</t>
+  </si>
+  <si>
+    <t>Fishing (Burning Perch)</t>
+  </si>
+  <si>
+    <t>Blank Disc (Silence)</t>
+  </si>
+  <si>
+    <t>Fishing (Citrusfin)</t>
+  </si>
+  <si>
+    <t>Cinnamoangels: Everyday</t>
+  </si>
+  <si>
+    <t>Seapony Racing
+Comedy Club (After 'Island Showstopper' Quest)</t>
+  </si>
+  <si>
+    <t>Hapidanbui: Together Forever</t>
+  </si>
+  <si>
+    <t>Seapony Racing
+Floating Stage (After 'The Band is back' Quest)</t>
+  </si>
+  <si>
+    <t>Hello Kitty Island Adventure</t>
+  </si>
+  <si>
+    <t>Radiant Chest</t>
+  </si>
+  <si>
+    <t>Spooky Celebration</t>
+  </si>
+  <si>
+    <t>Spooky Celebration - Daily Rewards or Event Stand</t>
+  </si>
+  <si>
+    <t>Give &amp; Gather Celebration</t>
+  </si>
+  <si>
+    <t>Give &amp; Gather Celebration - Daily Rewards</t>
+  </si>
+  <si>
+    <t>Luck &amp; Lanterns Celebration</t>
+  </si>
+  <si>
+    <t>Luck &amp; Lanterns Celebration - Daily Rewards or Event Stand</t>
+  </si>
+  <si>
+    <t>Springtime Celebration</t>
+  </si>
+  <si>
+    <t>Springtime Celebration - Daily Rewards or Event Stand</t>
+  </si>
+  <si>
+    <t>Gzzrt</t>
+  </si>
+  <si>
+    <t>Crane Craze
+Radiant Chest</t>
+  </si>
+  <si>
+    <t>Brain Blast</t>
+  </si>
+  <si>
+    <t>Seapony Racing
+Radiant Chest</t>
+  </si>
+  <si>
+    <t>Memory Rush</t>
+  </si>
+  <si>
+    <t>Red Hot Rampage
+Radiant Chest</t>
+  </si>
+  <si>
+    <t>The Spirit of Friendship (Full Mix)</t>
+  </si>
+  <si>
+    <t>Seaside Resort (Moon Island)</t>
+  </si>
+  <si>
+    <t>The Spirit of Friendship (Chill Mix)</t>
+  </si>
+  <si>
+    <t>The Spirit of Friendship (Base Mix)</t>
+  </si>
+  <si>
+    <t>The Spirit of Friendship (Twilight Mix)</t>
+  </si>
+  <si>
+    <t>Celestial Pals</t>
+  </si>
+  <si>
+    <t>Hidden Mysteries</t>
+  </si>
+  <si>
+    <t>Rotary Runaround (Puzzle Room)
+Gem Match
+Rockadoodler Roundup
+Crane Craze</t>
+  </si>
+  <si>
+    <t>Apple Grab</t>
+  </si>
+  <si>
+    <t>Crane Craze: Easy</t>
+  </si>
+  <si>
+    <t>Crane Crazee: Hard</t>
+  </si>
+  <si>
+    <t>Rockadoodle Roundup</t>
+  </si>
+  <si>
+    <t>Seapony Race</t>
+  </si>
+  <si>
+    <t>Amazing My Melody #1</t>
+  </si>
+  <si>
+    <t>Mount Hothead - Rare</t>
+  </si>
+  <si>
+    <t>Amazing My Melody #2</t>
+  </si>
+  <si>
+    <t>Mount Hothead - Uncommon</t>
+  </si>
+  <si>
+    <t>Amazing My Melody #3</t>
+  </si>
+  <si>
+    <t>Mount Hothead - Common</t>
+  </si>
+  <si>
+    <t>Amazing My Melody #4</t>
+  </si>
+  <si>
+    <t>Amazing My Melody #5</t>
+  </si>
+  <si>
+    <t>Amazing My Melody #6</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Badtz- Maru #1</t>
+  </si>
+  <si>
+    <t>Level 19 Friendship</t>
+  </si>
+  <si>
+    <t>Badtz- Maru #2</t>
+  </si>
+  <si>
+    <t>Seaside Resort - Rare</t>
+  </si>
+  <si>
+    <t>Badtz- Maru #3</t>
+  </si>
+  <si>
+    <t>Badtz- Maru #4</t>
+  </si>
+  <si>
+    <t>Seaside Resort - Uncommon</t>
+  </si>
+  <si>
+    <t>Badtz- Maru #5</t>
+  </si>
+  <si>
+    <t>Badtz- Maru #6</t>
+  </si>
+  <si>
+    <t>Seaside Resort - Common</t>
+  </si>
+  <si>
+    <t>Badtz- Maru #7</t>
+  </si>
+  <si>
+    <t>Badtz- Maru #8</t>
+  </si>
+  <si>
+    <t>Badtz- Maru #9</t>
+  </si>
+  <si>
+    <t>Badtz- Maru #10</t>
+  </si>
+  <si>
+    <t>Badtz- Maru #11</t>
+  </si>
+  <si>
+    <t>Danger Doodler #1</t>
+  </si>
+  <si>
+    <t>Prize Common</t>
+  </si>
+  <si>
+    <t>Danger Doodler #2</t>
+  </si>
+  <si>
+    <t>Danger Doodler #3</t>
+  </si>
+  <si>
+    <t>Prize Uncommon</t>
+  </si>
+  <si>
+    <t>Danger Doodler #4</t>
+  </si>
+  <si>
+    <t>Danger Doodler #5</t>
+  </si>
+  <si>
+    <t>Prize Rare</t>
+  </si>
+  <si>
+    <t>Danger Doodler #6</t>
+  </si>
+  <si>
+    <t>Darkgrapeman #1</t>
+  </si>
+  <si>
+    <t>Darkgrapeman #2</t>
+  </si>
+  <si>
+    <t>Darkgrapeman #3</t>
+  </si>
+  <si>
+    <t>Darkgrapeman #4</t>
+  </si>
+  <si>
+    <t>Darkgrapeman #5</t>
+  </si>
+  <si>
+    <t>Darkgrapeman #6</t>
+  </si>
+  <si>
+    <t>Darkgrapeman #7</t>
+  </si>
+  <si>
+    <t>Darkgrapeman #8</t>
+  </si>
+  <si>
+    <t>Darkgrapeman #9</t>
+  </si>
+  <si>
+    <t>Darkgrapeman #10</t>
+  </si>
+  <si>
+    <t>Red Hot Rampage Prize</t>
+  </si>
+  <si>
+    <t>Darkgrapeman #11</t>
+  </si>
+  <si>
+    <t>Fantastic Friends #1</t>
+  </si>
+  <si>
+    <t>Seaside - Common</t>
+  </si>
+  <si>
+    <t>Fantastic Friends #2</t>
+  </si>
+  <si>
+    <t>Spooky Swamp - Common</t>
+  </si>
+  <si>
+    <t>Fantastic Friends #3</t>
+  </si>
+  <si>
+    <t>Gemstone Mountain - Uncommon</t>
+  </si>
+  <si>
+    <t>Fantastic Friends #4</t>
+  </si>
+  <si>
+    <t>Rainbow Reef - Uncommon</t>
+  </si>
+  <si>
+    <t>Fantastic Friends #5</t>
+  </si>
+  <si>
+    <t>Fantastic Friends #6</t>
+  </si>
+  <si>
+    <t>Flower Rangers #1</t>
+  </si>
+  <si>
+    <t>Merry Meadow - Common</t>
+  </si>
+  <si>
+    <t>Flower Rangers #2</t>
+  </si>
+  <si>
+    <t>Flower Rangers #3</t>
+  </si>
+  <si>
+    <t>Flower Rangers #4</t>
+  </si>
+  <si>
+    <t>Flower Rangers #5</t>
+  </si>
+  <si>
+    <t>Merry Meadow - Uncommon</t>
+  </si>
+  <si>
+    <t>Flower Rangers #6</t>
+  </si>
+  <si>
+    <t>Flower Rangers #7</t>
+  </si>
+  <si>
+    <t>Merry Meadow - Rare</t>
+  </si>
+  <si>
+    <t>Flower Rangers #8</t>
+  </si>
+  <si>
+    <t>Flower Rangers #9</t>
+  </si>
+  <si>
+    <t>Flower Rangers #10</t>
+  </si>
+  <si>
+    <t>Flower Rangers #11</t>
+  </si>
+  <si>
+    <t>Flower Rangers #12</t>
+  </si>
+  <si>
+    <t>Flower Rangers #13</t>
+  </si>
+  <si>
+    <t>Flower Rangers #14</t>
+  </si>
+  <si>
+    <t>Flower Rangers #15</t>
+  </si>
+  <si>
+    <t>Flower Rangers #16</t>
+  </si>
+  <si>
+    <t>Flower Rangers #17</t>
+  </si>
+  <si>
+    <t>Flower Rangers #18</t>
+  </si>
+  <si>
+    <t>Temple Ruins Chest</t>
+  </si>
+  <si>
+    <t>Flower Rangers #19</t>
+  </si>
+  <si>
+    <t>Flower Rangers #20</t>
+  </si>
+  <si>
+    <t>Crane Craze Prize</t>
+  </si>
+  <si>
+    <t>Flower Rangers #21</t>
+  </si>
+  <si>
+    <t>Froggy Power #1</t>
+  </si>
+  <si>
+    <t>Froggy Power #2</t>
+  </si>
+  <si>
+    <t>Froggy Power #3</t>
+  </si>
+  <si>
+    <t>Froggy Power #4</t>
+  </si>
+  <si>
+    <t>Froggy Power #5</t>
+  </si>
+  <si>
+    <t>Froggy Power #6</t>
+  </si>
+  <si>
+    <t>Froggy Power #7</t>
+  </si>
+  <si>
+    <t>Seapony Race Prize</t>
+  </si>
+  <si>
+    <t>Froggy Power #8</t>
+  </si>
+  <si>
+    <t>Froggy Power #9</t>
+  </si>
+  <si>
+    <t>Froggy Power #10</t>
+  </si>
+  <si>
+    <t>Froggy Power #11</t>
+  </si>
+  <si>
+    <t>Ichigoman Chronicals #1</t>
+  </si>
+  <si>
+    <t>Gemstone Mountain - Rare</t>
+  </si>
+  <si>
+    <t>Ichigoman Chronicals #2</t>
+  </si>
+  <si>
+    <t>Ichigoman Chronicals #3</t>
+  </si>
+  <si>
+    <t>Gemstone Mountain - Legendary</t>
+  </si>
+  <si>
+    <t>Ichigoman Chronicals #4</t>
+  </si>
+  <si>
+    <t>Gemstone Mountain - Common</t>
+  </si>
+  <si>
+    <t>Ichigoman Chronicals #5</t>
+  </si>
+  <si>
+    <t>Ichigoman Chronicals #6</t>
+  </si>
+  <si>
+    <t>Ichigoman Chronicals #7</t>
+  </si>
+  <si>
+    <t>Ichigoman Chronicals #8</t>
+  </si>
+  <si>
+    <t>Ichigoman Chronicals #9</t>
+  </si>
+  <si>
+    <t>Ichigoman Chronicals #10</t>
+  </si>
+  <si>
+    <t>Ichigoman Chronicals #11</t>
+  </si>
+  <si>
+    <t>Little Twin Stars' Trip #1</t>
+  </si>
+  <si>
+    <t>Kiki's Box</t>
+  </si>
+  <si>
+    <t>Little Twin Stars' Trip #2</t>
+  </si>
+  <si>
+    <t>Lala's Box</t>
+  </si>
+  <si>
+    <t>Little Twin Stars' Trip #3</t>
+  </si>
+  <si>
+    <t>Cloud Island - Rare</t>
+  </si>
+  <si>
+    <t>Little Twin Stars' Trip #4</t>
+  </si>
+  <si>
+    <t>Little Twin Stars' Trip #5</t>
+  </si>
+  <si>
+    <t>Little Twin Stars' Trip #6</t>
+  </si>
+  <si>
+    <t>Cloud Island - Uncommon</t>
+  </si>
+  <si>
+    <t>Little Twin Stars' Trip #7</t>
+  </si>
+  <si>
+    <t>Little Twin Stars' Trip #8</t>
+  </si>
+  <si>
+    <t>Little Twin Stars' Trip #9</t>
+  </si>
+  <si>
+    <t>Little Twin Stars' Trip #10</t>
+  </si>
+  <si>
+    <t>Little Twin Stars' Trip #11</t>
+  </si>
+  <si>
+    <t>The Adventures #1</t>
+  </si>
+  <si>
+    <t>Friendship Island - Legendary</t>
+  </si>
+  <si>
+    <t>The Adventures #2</t>
+  </si>
+  <si>
+    <t>Friendship Island - Uncommon</t>
+  </si>
+  <si>
+    <t>The Adventures #3</t>
+  </si>
+  <si>
+    <t>The Adventures #4</t>
+  </si>
+  <si>
+    <t>Friendship Island - Common</t>
+  </si>
+  <si>
+    <t>The Adventures #5</t>
+  </si>
+  <si>
+    <t>The Adventures #6</t>
+  </si>
+  <si>
+    <t>The Adventures #7</t>
+  </si>
+  <si>
+    <t>The Adventures #8</t>
+  </si>
+  <si>
+    <t>The Adventures #9</t>
+  </si>
+  <si>
+    <t>Friendship Island - Rare</t>
+  </si>
+  <si>
+    <t>The Adventures #10</t>
+  </si>
+  <si>
+    <t>The Adventures #11</t>
+  </si>
+  <si>
+    <t>Gem Match Prize</t>
+  </si>
+  <si>
+    <t>The Adventures #12</t>
+  </si>
+  <si>
+    <t>The Adventures #13</t>
+  </si>
+  <si>
+    <t>The Adventures #14</t>
+  </si>
+  <si>
+    <t>The Adventures #15</t>
+  </si>
+  <si>
+    <t>The Adventures #16</t>
+  </si>
+  <si>
+    <t>The Adventures #17</t>
+  </si>
+  <si>
+    <t>The Adventures #18</t>
+  </si>
+  <si>
+    <t>The Adventures #19</t>
+  </si>
+  <si>
+    <t>The Adventures #20</t>
+  </si>
+  <si>
+    <t>The Adventures #21</t>
+  </si>
+  <si>
+    <t>The Adventures #22</t>
+  </si>
+  <si>
+    <t>The Adventures #23</t>
+  </si>
+  <si>
+    <t>The Adventures #24</t>
+  </si>
+  <si>
+    <t>The Adventures #25</t>
+  </si>
+  <si>
+    <t>The Adventures #26</t>
+  </si>
+  <si>
+    <t>The Incredible Hello Kitty #1</t>
+  </si>
+  <si>
+    <t>Hello Kitty Lvl 9</t>
+  </si>
+  <si>
+    <t>The Incredible Hello Kitty #2</t>
+  </si>
+  <si>
+    <t>The Incredible Hello Kitty #3</t>
+  </si>
+  <si>
+    <t>Bogging for Apples Prize</t>
+  </si>
+  <si>
+    <t>The Incredible Hello Kitty #4</t>
+  </si>
+  <si>
+    <t>Comics</t>
+  </si>
+  <si>
+    <t>(1) Studded Backpack</t>
+  </si>
+  <si>
+    <t>(1) Crossbody Bag</t>
+  </si>
+  <si>
+    <t>(1) Hiking Backpack</t>
+  </si>
+  <si>
+    <t>(1) Kawaii Wings</t>
+  </si>
+  <si>
+    <t>(1) Plaid Backpack</t>
+  </si>
+  <si>
+    <t>(1) Round Backpack</t>
+  </si>
+  <si>
+    <t>(1) Wicked Wings</t>
+  </si>
+  <si>
+    <t>(1) Butterfly Wings</t>
+  </si>
+  <si>
+    <t>(2) Shutter Shades</t>
+  </si>
+  <si>
+    <t>(2) Cat Eye Glasses</t>
+  </si>
+  <si>
+    <t>(2) Monocle</t>
+  </si>
+  <si>
+    <t>(2) Wayfarers Sunglasses</t>
+  </si>
+  <si>
+    <t>(2) Antique Readers</t>
+  </si>
+  <si>
+    <t>(2) Browline Glasses</t>
+  </si>
+  <si>
+    <t>(3) Slacks</t>
+  </si>
+  <si>
+    <t>(3) Autumn Scale Mermaid Tail</t>
+  </si>
+  <si>
+    <t>(3) Athletic Shorts</t>
+  </si>
+  <si>
+    <t>(3) Critter Catcher Pants</t>
+  </si>
+  <si>
+    <t>(3) Jeans</t>
+  </si>
+  <si>
+    <t>(3) Scale Mermaid Tail</t>
+  </si>
+  <si>
+    <t>(3) Pajama Pants</t>
+  </si>
+  <si>
+    <t>(3) Swim Trunks</t>
+  </si>
+  <si>
+    <t>(3) Autumn Critter Catcher Pants</t>
+  </si>
+  <si>
+    <t>(3) Dreamy Skirt</t>
+  </si>
+  <si>
+    <t>(3) Dreamy Sweatpants</t>
+  </si>
+  <si>
+    <t>(3) Classic Adventure's Pants</t>
+  </si>
+  <si>
+    <t>(3) Cargo Shorts</t>
+  </si>
+  <si>
+    <t>(3) Gudetama Pants</t>
+  </si>
+  <si>
+    <t>(3) Hello Kitty's Sarong</t>
+  </si>
+  <si>
+    <t>(3) Long Skirt</t>
+  </si>
+  <si>
+    <t>(4) Scale Mermaid Armour</t>
+  </si>
+  <si>
+    <t>(4) Critter Catcher Vest</t>
+  </si>
+  <si>
+    <t>(4) Spaghetti Strap Tank Top</t>
+  </si>
+  <si>
+    <t>(4) Logo T-Shirt</t>
+  </si>
+  <si>
+    <t>(4) T-Shirt</t>
+  </si>
+  <si>
+    <t>(4) Badtz-Maru's Shell Necklace</t>
+  </si>
+  <si>
+    <t>(4) Chococat's Vacation Top</t>
+  </si>
+  <si>
+    <t>(4) Autumn Critter Catcher Vest</t>
+  </si>
+  <si>
+    <t>(4) Dreamy Hoodie</t>
+  </si>
+  <si>
+    <t>(4) Adventure's Jacket</t>
+  </si>
+  <si>
+    <t>(4) Gudetama Shirt</t>
+  </si>
+  <si>
+    <t>(4) Hello Kitty's Vacation Top</t>
+  </si>
+  <si>
+    <t>(4) Keroppi's Shell Necklace</t>
+  </si>
+  <si>
+    <t>(4) Pochacco's Tropical Tank</t>
+  </si>
+  <si>
+    <t>(4) Polo</t>
+  </si>
+  <si>
+    <t>(4) Stripped T-Shirt</t>
+  </si>
+  <si>
+    <t>(5) Gudetama Dress</t>
+  </si>
+  <si>
+    <t>(5) Strawberry Witch Dress</t>
+  </si>
+  <si>
+    <t>(5) Autumn Witch Dress</t>
+  </si>
+  <si>
+    <t>(5) Concert Outfit</t>
+  </si>
+  <si>
+    <t>(5) Detective Coat</t>
+  </si>
+  <si>
+    <t>(5) Elegant Dress</t>
+  </si>
+  <si>
+    <t>(5) Mining Jumpsuit</t>
+  </si>
+  <si>
+    <t>(5) Overalls</t>
+  </si>
+  <si>
+    <t>(5) Pirate Outfit</t>
+  </si>
+  <si>
+    <t>(5) Sundress</t>
+  </si>
+  <si>
+    <t>(5) Whole Piece Swimsuit</t>
+  </si>
+  <si>
+    <t>(5) Witch Dress</t>
+  </si>
+  <si>
+    <t>(5) Forest Witch Dress</t>
+  </si>
+  <si>
+    <t>(5) Ice Witch Dress</t>
+  </si>
+  <si>
+    <t>(5) Cardigan Outfit</t>
+  </si>
+  <si>
+    <t>(6) Golden Crown</t>
+  </si>
+  <si>
+    <t>(6) (1) Horn</t>
+  </si>
+  <si>
+    <t>(6) (2) Horn</t>
+  </si>
+  <si>
+    <t>(6) Dandelily Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) Happadil Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) Ghostgleam Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) Rose Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) Penstemum Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) Bellbutton Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) Tulias Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) Hibiscus Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) Thistle Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) (10th) Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) (11th) Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) (12th) Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) (13th) Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) (14th) Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) (15th) Flower Crown</t>
+  </si>
+  <si>
+    <t>(6) Ribbon Bow</t>
+  </si>
+  <si>
+    <t>(6) Hello Kitty's Red Bow</t>
+  </si>
+  <si>
+    <t>(6) Hello Kitty's Style Bow</t>
+  </si>
+  <si>
+    <t>(6) Side Ribbon Bow</t>
+  </si>
+  <si>
+    <t>(6) Brain Hat</t>
+  </si>
+  <si>
+    <t>(6) Autumn Scale Mermaid Tiara</t>
+  </si>
+  <si>
+    <t>(6) Witch Hat</t>
+  </si>
+  <si>
+    <t>(6) Forest Baseball Hat</t>
+  </si>
+  <si>
+    <t>(6) Sunhat</t>
+  </si>
+  <si>
+    <t>(6) Tropical Sunhat</t>
+  </si>
+  <si>
+    <t>(6) Construction Mining Helmet</t>
+  </si>
+  <si>
+    <t>(6) Gudetama Shell Hat</t>
+  </si>
+  <si>
+    <t>(6) Detective Hat</t>
+  </si>
+  <si>
+    <t>(6) Autumn Critter Catcher Hat</t>
+  </si>
+  <si>
+    <t>(6) Classic Frank Franken Hat</t>
+  </si>
+  <si>
+    <t>(6) Rockadoodler Nest Hat</t>
+  </si>
+  <si>
+    <t>(6) Scale Mermaid Tiara</t>
+  </si>
+  <si>
+    <t>(6) Baseball Hat</t>
+  </si>
+  <si>
+    <t>(6) Classic Adventurers Helmet</t>
+  </si>
+  <si>
+    <t>(6) Hardhat</t>
+  </si>
+  <si>
+    <t>(6) Forest Critter Catcher Hat</t>
+  </si>
+  <si>
+    <t>(6) Pirate Hat</t>
+  </si>
+  <si>
+    <t>(6) Dreamy Beret</t>
+  </si>
+  <si>
+    <t>(6) Monster Beanie</t>
+  </si>
+  <si>
+    <t>(6) My Melody's Shell Hairpin</t>
+  </si>
+  <si>
+    <t>(6) Concert Hat</t>
+  </si>
+  <si>
+    <t>(6) Gudetama Hat</t>
+  </si>
+  <si>
+    <t>(6) Propeller Hat</t>
+  </si>
+  <si>
+    <t>(6) Dreamy Newsie Hat</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Kitchen Essentials - Kitchen Counter A</t>
+  </si>
+  <si>
+    <t>Kitchen Essentials - Kitchen Counter B</t>
+  </si>
+  <si>
+    <t>Kitchen Essentials - Kitchen Counter with Cabinets</t>
+  </si>
+  <si>
+    <t>Kitchen Essentials - Kitchen Corner Counter</t>
+  </si>
+  <si>
+    <t>Kitchen Essentials - Kitchen Counter with Shelves</t>
+  </si>
+  <si>
+    <t>Kitchen Essentials - Refrigerator</t>
+  </si>
+  <si>
+    <t>Kitchen Essentials - Kitchen Sink</t>
+  </si>
+  <si>
+    <t>Meadow Furniture - Meadow Flooring</t>
+  </si>
+  <si>
+    <t>Meadow Furniture - Meadow Wallpaper</t>
+  </si>
+  <si>
+    <t>Ruins Furniture - Ruins Flooring</t>
+  </si>
+  <si>
+    <t>Ruins Furniture - Ruins Wallpaper</t>
+  </si>
+  <si>
+    <t>Basics - Cloud Terrarium</t>
+  </si>
+  <si>
+    <t>Basics - Gemstone Terrarium</t>
+  </si>
+  <si>
+    <t>Basics - Hothead Terrarium</t>
+  </si>
+  <si>
+    <t>Basics - Meadows Terrarium</t>
+  </si>
+  <si>
+    <t>Basics - Reef Terrarium</t>
+  </si>
+  <si>
+    <t>Basics - Seaside Terrarium</t>
+  </si>
+  <si>
+    <t>Basics - Swamp Terrarium</t>
+  </si>
+  <si>
+    <t>Basics - Cloud Aquarium</t>
+  </si>
+  <si>
+    <t>Basics - Gemstone Aquarium</t>
+  </si>
+  <si>
+    <t>Basics - Hothead Aquarium</t>
+  </si>
+  <si>
+    <t>Basics - Meadows Aquarium</t>
+  </si>
+  <si>
+    <t>Basics - Reef Aquarium</t>
+  </si>
+  <si>
+    <t>Basics - Seaside Aquarium</t>
+  </si>
+  <si>
+    <t>Basics - Swamp Aquarium</t>
+  </si>
+  <si>
+    <t>Basics - Island Challenge Airplane Trophy</t>
+  </si>
+  <si>
+    <t>Basics - Pedestal</t>
+  </si>
+  <si>
+    <t>Basics - Music Disc Player</t>
+  </si>
+  <si>
+    <t>Basics - Hello Kitty's Cafe Table</t>
+  </si>
+  <si>
+    <t>Basics - Hello Kitty's Cafe Display Case</t>
+  </si>
+  <si>
+    <t>Basics - Hello Kitty's Cafe Counter</t>
+  </si>
+  <si>
+    <t>Basics - Hello Kitty's Cafe Chair</t>
+  </si>
+  <si>
+    <t>Basics - Dessert Boat Wallpaper</t>
+  </si>
+  <si>
+    <t>Basics - Dessert Boat Teal Stool</t>
+  </si>
+  <si>
+    <t>Basics - Dessert Boat Pink Stool</t>
+  </si>
+  <si>
+    <t>Basics - Dessert Boat Flooring</t>
+  </si>
+  <si>
+    <t>Basics - Dessert Boat Counter</t>
+  </si>
+  <si>
+    <t>Basics - Dessert Corner Counter</t>
+  </si>
+  <si>
+    <t>Basics - Dessert Boat Pink &amp; Teal Counter</t>
+  </si>
+  <si>
+    <t>Basics - Dance hall String Lights</t>
+  </si>
+  <si>
+    <t>Basics - Dance Hall Plain Picnic Table</t>
+  </si>
+  <si>
+    <t>Basics - Dance Hall Picnic Table</t>
+  </si>
+  <si>
+    <t>Basics - Dance Hall Picnic Bench</t>
+  </si>
+  <si>
+    <t>Basics - Clothing Stand</t>
+  </si>
+  <si>
+    <t>Basics - Comedy Club Chiar</t>
+  </si>
+  <si>
+    <t>Basics - Comedy Club Table</t>
+  </si>
+  <si>
+    <t>Basics - Gramophone looking object ???</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Armchair</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Bed</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Double Bed</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Bookcase</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Coffee Table</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Dining Chair</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Dining Table</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Dresser</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Flooring</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Lamp</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Mirror</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Ottoman</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Potted Plant</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Side Table</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Sofa</t>
+  </si>
+  <si>
+    <t>Big Challenge's Furniture - Big Challenges Wallpaper</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Armchair</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Bed</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Double Bed</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Bookcase</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Chair</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Coffee Table</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Dining Table</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Dresser</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Flooring</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Lamp</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Mirror</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Nightstand</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Ottoman</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Potted Plant</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Sofa</t>
+  </si>
+  <si>
+    <t>Dreamy Furniture - Dreamy Wallpaper</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Armchair</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Bed</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Double Bed</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Bookcase</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Candelabra</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Candles</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Clock</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Dining Chair</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Dining Table</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Flooring</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky LoungeSofa</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Side Table</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Standing Lamp</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Standing Mirror</t>
+  </si>
+  <si>
+    <t>Spooky Furniture - Spooky Wallpaper</t>
+  </si>
+  <si>
+    <t>Tropical Furniture - Tropical Bed</t>
+  </si>
+  <si>
+    <t>Tropical Furniture - Tropical Double Bed</t>
+  </si>
+  <si>
+    <t>Tropical Furniture - Tropical Bench</t>
+  </si>
+  <si>
+    <t>Tropical Furniture - Tropical Chair</t>
+  </si>
+  <si>
+    <t>Tropical Furniture - Tropical Flooring</t>
+  </si>
+  <si>
+    <t>Tropical Furniture - Tropical Lamp</t>
+  </si>
+  <si>
+    <t>Tropical Furniture - Tropical Plant Vase</t>
+  </si>
+  <si>
+    <t>Tropical Furniture - Tropical Side Table</t>
+  </si>
+  <si>
+    <t>Tropical Furniture - Tropical Table</t>
+  </si>
+  <si>
+    <t>Tropical Furniture - Tropical Wallpaper</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Armchair</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Bed</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Double Bed</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Bookcase</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Alarm Clock</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Dining Chair</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Dining Table</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Dresser</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Flooring</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Floor Lamp</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Mirror</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Night Stand</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Ottoman</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Plant</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Side Table</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Sofa</t>
+  </si>
+  <si>
+    <t>Kawaii Furniture - Kawaii Wallpaper</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Armchair</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Sofa</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Bed</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Mirror</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Ottoman</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Dining Chair</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Dresser</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Double Bed</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Side Table</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Dining Table</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Bookcase</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Lamp</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Potted Plant</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Coffee Table</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Flooring</t>
+  </si>
+  <si>
+    <t>Yummy Furniture - Yummy Wallpaper</t>
+  </si>
+  <si>
+    <t>Pirate Furniture - Pirate Sofa</t>
+  </si>
+  <si>
+    <t>Pirate Furniture - Pirated Double Bed</t>
+  </si>
+  <si>
+    <t>Pirate Furniture - Pirate Barrel Side Table</t>
+  </si>
+  <si>
+    <t>Pirate Furniture - Pirate Bed</t>
+  </si>
+  <si>
+    <t>Pirate Furniture - Pirate Chair</t>
+  </si>
+  <si>
+    <t>Pirate Furniture - Pirate 'Chest' Dresser</t>
+  </si>
+  <si>
+    <t>Pirate Furniture - Pirate Flooring</t>
+  </si>
+  <si>
+    <t>Pirate Furniture - Pirate Standing Lamp</t>
+  </si>
+  <si>
+    <t>Pirate Furniture - Pirate Table</t>
+  </si>
+  <si>
+    <t>Pirate Furniture - Pirate Wallpaper</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Stool</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Double Bed</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Bookshelf</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Mirror</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Sofa</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Plant</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Dining Chair</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Armchair</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Bed</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Coffee Table</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Dining Table</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Dresser</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Flooring</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Side Table</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Standing Lamp</t>
+  </si>
+  <si>
+    <t>Nordic Furniture - Nordic Wallpaper</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Armchair</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Bed</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Double Bed</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Bookcase</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Dining Chair</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Dining Table</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Dresser</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Flooring</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Lamp</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Mirror</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Nightstand</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal ottoman</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Decorative Plant</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Side Table</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Sofa</t>
+  </si>
+  <si>
+    <t>Costal Furniture - Costal Wallpaper</t>
+  </si>
+  <si>
+    <t>Rustic Furniture - Rustic Bed</t>
+  </si>
+  <si>
+    <t>Rustic Furniture - Rustic Double Bed</t>
+  </si>
+  <si>
+    <t>Rustic Furniture - Rustic Bookcase</t>
+  </si>
+  <si>
+    <t>Rustic Furniture - Rustic Dining Chair</t>
+  </si>
+  <si>
+    <t>Rustic Furniture - Rustic Dining Table</t>
+  </si>
+  <si>
+    <t>Rustic Furniture - Rustic Flooring</t>
+  </si>
+  <si>
+    <t>Rustic Furniture - Rustic Night Stand</t>
+  </si>
+  <si>
+    <t>Rustic Furniture - Rustic Rocking Chair</t>
+  </si>
+  <si>
+    <t>Rustic Furniture - Rustic Standing Lamp</t>
+  </si>
+  <si>
+    <t>Rustic Furniture - Rustic Wallpaper</t>
+  </si>
+  <si>
+    <t>Antique Furniture - Antique Bed</t>
+  </si>
+  <si>
+    <t>Antique Furniture - Antique Double Bed</t>
+  </si>
+  <si>
+    <t>Antique Furniture - Antique Cabinet</t>
+  </si>
+  <si>
+    <t>Antique Furniture - Antique Chair</t>
+  </si>
+  <si>
+    <t>Antique Furniture - Antique Couch</t>
+  </si>
+  <si>
+    <t>Antique Furniture - Antique Desk Lamp</t>
+  </si>
+  <si>
+    <t>Antique Furniture - Antique Dining Table</t>
+  </si>
+  <si>
+    <t>Antique Furniture - Antique Standing Mirror</t>
+  </si>
+  <si>
+    <t>Antique Furniture - Antique Night Stand</t>
+  </si>
+  <si>
+    <t>Antique Furniture - Antique Side Table</t>
+  </si>
+  <si>
+    <t>Antique Furniture - Antique Standing Lamp</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Mirror</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Bookcase</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Armchair</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Bed</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Double Bed</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Dining Chair</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Dining Table</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Dresser</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Flooring</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Lamp</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Nightstand</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Ottoman</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish plant</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Side Table</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Sofa</t>
+  </si>
+  <si>
+    <t>Fwish Furniture - Fwish Wallpaper</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Armchair</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Bookcase</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Coffee Table</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Desk</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Dining Chair</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Dining Table</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Flooring</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Lamp</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Ottoman</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Side Table</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Sofa</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Stool</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Dresser</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Fireplace</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Bed</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Double Bed</t>
+  </si>
+  <si>
+    <t>Cottage Furniture - Cottage Wallpaper</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Bed</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Dining Chair</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Double Bed</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Bookcase</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Armchair</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Coffee Table</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Dining Table</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Dresser</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Flooring</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Lamp</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Mirror</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Ottoman</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Potted Plant</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Side Table</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Sofa</t>
+  </si>
+  <si>
+    <t>Hello Kitty Furniture - Hello Kitty Wallpaper</t>
+  </si>
+  <si>
+    <t>Stations - Candy Cloud Machine</t>
+  </si>
+  <si>
+    <t>Stations - Furniture Customizer</t>
+  </si>
+  <si>
+    <t>Stations - Cauldron</t>
+  </si>
+  <si>
+    <t>Stations - Crafting Bench</t>
+  </si>
+  <si>
+    <t>Stations - Dessert Machine</t>
+  </si>
+  <si>
+    <t>Stations - Egg Pan Station</t>
+  </si>
+  <si>
+    <t>Stations - Espresso Machine</t>
+  </si>
+  <si>
+    <t>Stations - Soda Machine</t>
+  </si>
+  <si>
+    <t>Stations - Oven</t>
+  </si>
+  <si>
+    <t>Stations - Pizza Oven</t>
+  </si>
+  <si>
+    <t>Furniture</t>
   </si>
 </sst>
 </file>
@@ -4351,87 +6623,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4499,6 +6691,14 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4832,10 +7032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
-  <dimension ref="A1:CF169"/>
+  <dimension ref="A1:CV260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
+      <selection activeCell="CH10" sqref="CH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,9 +7083,13 @@
     <col min="78" max="78" width="36.5703125" customWidth="1"/>
     <col min="81" max="81" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="29.85546875" customWidth="1"/>
+    <col min="85" max="85" width="29.28515625" customWidth="1"/>
+    <col min="86" max="86" width="38.5703125" customWidth="1"/>
+    <col min="89" max="89" width="26.5703125" customWidth="1"/>
+    <col min="90" max="90" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5138,8 +7342,56 @@
       <c r="CF1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG1" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5365,8 +7617,35 @@
       <c r="CE2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5592,8 +7871,35 @@
       <c r="CE3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>578</v>
+      </c>
+      <c r="CI3">
+        <v>1</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="CM3">
+        <v>1</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="CQ3">
+        <v>1</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5819,8 +8125,35 @@
       <c r="CE4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>578</v>
+      </c>
+      <c r="CI4">
+        <v>1</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="CM4">
+        <v>1</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>1795</v>
+      </c>
+      <c r="CQ4">
+        <v>1</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6046,8 +8379,35 @@
       <c r="CE5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="CI5">
+        <v>1</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>1638</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>1637</v>
+      </c>
+      <c r="CM5">
+        <v>1</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>1796</v>
+      </c>
+      <c r="CQ5">
+        <v>1</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6273,8 +8633,35 @@
       <c r="CE6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="CI6">
+        <v>1</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>1639</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>1637</v>
+      </c>
+      <c r="CM6">
+        <v>1</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>1797</v>
+      </c>
+      <c r="CQ6">
+        <v>1</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -6500,8 +8887,35 @@
       <c r="CE7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>578</v>
+      </c>
+      <c r="CI7">
+        <v>1</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>1640</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>1641</v>
+      </c>
+      <c r="CM7">
+        <v>1</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="CQ7">
+        <v>1</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -6727,8 +9141,35 @@
       <c r="CE8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>578</v>
+      </c>
+      <c r="CI8">
+        <v>1</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>1642</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="CM8">
+        <v>1</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>1799</v>
+      </c>
+      <c r="CQ8">
+        <v>1</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -6942,8 +9383,35 @@
       <c r="CE9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="CI9">
+        <v>1</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>1644</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="CM9">
+        <v>1</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>1800</v>
+      </c>
+      <c r="CQ9">
+        <v>1</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -7148,8 +9616,35 @@
       <c r="CE10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="CI10">
+        <v>1</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>1646</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>1645</v>
+      </c>
+      <c r="CM10">
+        <v>1</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>1801</v>
+      </c>
+      <c r="CQ10">
+        <v>1</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -7354,8 +9849,35 @@
       <c r="CE11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>578</v>
+      </c>
+      <c r="CI11">
+        <v>1</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>1647</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>1648</v>
+      </c>
+      <c r="CM11">
+        <v>1</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>1802</v>
+      </c>
+      <c r="CQ11">
+        <v>1</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -7557,8 +10079,35 @@
       <c r="CE12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>578</v>
+      </c>
+      <c r="CI12">
+        <v>1</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>1649</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>1648</v>
+      </c>
+      <c r="CM12">
+        <v>1</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>1803</v>
+      </c>
+      <c r="CQ12">
+        <v>1</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -7763,8 +10312,35 @@
       <c r="CE13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>1429</v>
+      </c>
+      <c r="CI13">
+        <v>1</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>1650</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>1651</v>
+      </c>
+      <c r="CM13">
+        <v>1</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>1804</v>
+      </c>
+      <c r="CQ13">
+        <v>1</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -7969,8 +10545,35 @@
       <c r="CE14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG14" t="s">
+        <v>1430</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>1431</v>
+      </c>
+      <c r="CI14">
+        <v>1</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>1652</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>1651</v>
+      </c>
+      <c r="CM14">
+        <v>1</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>1805</v>
+      </c>
+      <c r="CQ14">
+        <v>1</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -8175,8 +10778,35 @@
       <c r="CE15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CG15" t="s">
+        <v>1432</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>578</v>
+      </c>
+      <c r="CI15">
+        <v>1</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>1653</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>1651</v>
+      </c>
+      <c r="CM15">
+        <v>1</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>1806</v>
+      </c>
+      <c r="CQ15">
+        <v>1</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -8372,8 +11002,35 @@
       <c r="CE16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG16" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>578</v>
+      </c>
+      <c r="CI16">
+        <v>1</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>1654</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>1651</v>
+      </c>
+      <c r="CM16">
+        <v>1</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>1807</v>
+      </c>
+      <c r="CQ16">
+        <v>1</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -8569,8 +11226,35 @@
       <c r="CE17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG17" t="s">
+        <v>1434</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>1435</v>
+      </c>
+      <c r="CI17">
+        <v>1</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>1655</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>1651</v>
+      </c>
+      <c r="CM17">
+        <v>1</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>1808</v>
+      </c>
+      <c r="CQ17">
+        <v>1</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -8769,8 +11453,35 @@
       <c r="CE18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG18" t="s">
+        <v>1436</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>1437</v>
+      </c>
+      <c r="CI18">
+        <v>1</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>1656</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>1641</v>
+      </c>
+      <c r="CM18">
+        <v>1</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>1809</v>
+      </c>
+      <c r="CQ18">
+        <v>1</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -8960,8 +11671,35 @@
       <c r="CE19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG19" t="s">
+        <v>1438</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>1417</v>
+      </c>
+      <c r="CI19">
+        <v>1</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>1657</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>1658</v>
+      </c>
+      <c r="CM19">
+        <v>1</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>1810</v>
+      </c>
+      <c r="CQ19">
+        <v>1</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -9151,8 +11889,35 @@
       <c r="CE20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG20" t="s">
+        <v>1439</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>580</v>
+      </c>
+      <c r="CI20">
+        <v>1</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>1659</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>1658</v>
+      </c>
+      <c r="CM20">
+        <v>1</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>1811</v>
+      </c>
+      <c r="CQ20">
+        <v>1</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -9333,8 +12098,35 @@
       <c r="CE21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG21" t="s">
+        <v>1440</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>580</v>
+      </c>
+      <c r="CI21">
+        <v>1</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>1660</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>1661</v>
+      </c>
+      <c r="CM21">
+        <v>1</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>1812</v>
+      </c>
+      <c r="CQ21">
+        <v>1</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -9512,8 +12304,35 @@
       <c r="CE22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG22" t="s">
+        <v>1441</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>1442</v>
+      </c>
+      <c r="CI22">
+        <v>1</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>1662</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>1661</v>
+      </c>
+      <c r="CM22">
+        <v>1</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>1813</v>
+      </c>
+      <c r="CQ22">
+        <v>1</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -9661,8 +12480,35 @@
       <c r="CE23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG23" t="s">
+        <v>1443</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>1444</v>
+      </c>
+      <c r="CI23">
+        <v>1</v>
+      </c>
+      <c r="CK23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>1664</v>
+      </c>
+      <c r="CM23">
+        <v>1</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>1814</v>
+      </c>
+      <c r="CQ23">
+        <v>1</v>
+      </c>
+      <c r="CS23" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -9798,8 +12644,35 @@
       <c r="CE24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG24" t="s">
+        <v>1445</v>
+      </c>
+      <c r="CH24" t="s">
+        <v>580</v>
+      </c>
+      <c r="CI24">
+        <v>1</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>1665</v>
+      </c>
+      <c r="CL24" t="s">
+        <v>1641</v>
+      </c>
+      <c r="CM24">
+        <v>1</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>1815</v>
+      </c>
+      <c r="CQ24">
+        <v>1</v>
+      </c>
+      <c r="CS24" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -9938,8 +12811,35 @@
       <c r="CE25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG25" t="s">
+        <v>1446</v>
+      </c>
+      <c r="CH25" t="s">
+        <v>580</v>
+      </c>
+      <c r="CI25">
+        <v>1</v>
+      </c>
+      <c r="CK25" t="s">
+        <v>1666</v>
+      </c>
+      <c r="CL25" t="s">
+        <v>1637</v>
+      </c>
+      <c r="CM25">
+        <v>1</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>1816</v>
+      </c>
+      <c r="CQ25">
+        <v>1</v>
+      </c>
+      <c r="CS25" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -10063,8 +12963,35 @@
       <c r="CE26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG26" t="s">
+        <v>1447</v>
+      </c>
+      <c r="CH26" t="s">
+        <v>1417</v>
+      </c>
+      <c r="CI26">
+        <v>1</v>
+      </c>
+      <c r="CK26" t="s">
+        <v>1667</v>
+      </c>
+      <c r="CL26" t="s">
+        <v>1637</v>
+      </c>
+      <c r="CM26">
+        <v>1</v>
+      </c>
+      <c r="CO26" t="s">
+        <v>1817</v>
+      </c>
+      <c r="CQ26">
+        <v>1</v>
+      </c>
+      <c r="CS26" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -10173,8 +13100,35 @@
       <c r="CE27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG27" t="s">
+        <v>1448</v>
+      </c>
+      <c r="CH27" t="s">
+        <v>1417</v>
+      </c>
+      <c r="CI27">
+        <v>1</v>
+      </c>
+      <c r="CK27" t="s">
+        <v>1668</v>
+      </c>
+      <c r="CL27" t="s">
+        <v>1637</v>
+      </c>
+      <c r="CM27">
+        <v>1</v>
+      </c>
+      <c r="CO27" t="s">
+        <v>1818</v>
+      </c>
+      <c r="CQ27">
+        <v>1</v>
+      </c>
+      <c r="CS27" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -10274,8 +13228,35 @@
       <c r="CE28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="CH28" t="s">
+        <v>580</v>
+      </c>
+      <c r="CI28">
+        <v>1</v>
+      </c>
+      <c r="CK28" t="s">
+        <v>1669</v>
+      </c>
+      <c r="CL28" t="s">
+        <v>1637</v>
+      </c>
+      <c r="CM28">
+        <v>1</v>
+      </c>
+      <c r="CO28" t="s">
+        <v>1819</v>
+      </c>
+      <c r="CQ28">
+        <v>1</v>
+      </c>
+      <c r="CS28" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -10375,8 +13356,35 @@
       <c r="CE29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG29" t="s">
+        <v>1450</v>
+      </c>
+      <c r="CH29" t="s">
+        <v>580</v>
+      </c>
+      <c r="CI29">
+        <v>1</v>
+      </c>
+      <c r="CK29" t="s">
+        <v>1670</v>
+      </c>
+      <c r="CL29" t="s">
+        <v>1637</v>
+      </c>
+      <c r="CM29">
+        <v>1</v>
+      </c>
+      <c r="CO29" t="s">
+        <v>1820</v>
+      </c>
+      <c r="CQ29">
+        <v>1</v>
+      </c>
+      <c r="CS29" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -10476,8 +13484,35 @@
       <c r="CE30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG30" t="s">
+        <v>1451</v>
+      </c>
+      <c r="CH30" t="s">
+        <v>1452</v>
+      </c>
+      <c r="CI30">
+        <v>1</v>
+      </c>
+      <c r="CK30" t="s">
+        <v>1671</v>
+      </c>
+      <c r="CL30" t="s">
+        <v>1635</v>
+      </c>
+      <c r="CM30">
+        <v>1</v>
+      </c>
+      <c r="CO30" t="s">
+        <v>1821</v>
+      </c>
+      <c r="CQ30">
+        <v>1</v>
+      </c>
+      <c r="CS30" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -10577,8 +13612,35 @@
       <c r="CE31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG31" t="s">
+        <v>1453</v>
+      </c>
+      <c r="CH31" t="s">
+        <v>1454</v>
+      </c>
+      <c r="CI31">
+        <v>1</v>
+      </c>
+      <c r="CK31" t="s">
+        <v>1672</v>
+      </c>
+      <c r="CL31" t="s">
+        <v>1635</v>
+      </c>
+      <c r="CM31">
+        <v>1</v>
+      </c>
+      <c r="CO31" t="s">
+        <v>1822</v>
+      </c>
+      <c r="CQ31">
+        <v>1</v>
+      </c>
+      <c r="CS31" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -10675,8 +13737,35 @@
       <c r="CE32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG32" t="s">
+        <v>1455</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>580</v>
+      </c>
+      <c r="CI32">
+        <v>1</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>1673</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>1633</v>
+      </c>
+      <c r="CM32">
+        <v>1</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>1823</v>
+      </c>
+      <c r="CQ32">
+        <v>1</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -10773,8 +13862,35 @@
       <c r="CE33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG33" t="s">
+        <v>1456</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>580</v>
+      </c>
+      <c r="CI33">
+        <v>1</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>1674</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>1633</v>
+      </c>
+      <c r="CM33">
+        <v>1</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>1824</v>
+      </c>
+      <c r="CQ33">
+        <v>1</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -10865,8 +13981,35 @@
       <c r="CE34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG34" t="s">
+        <v>1457</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>1417</v>
+      </c>
+      <c r="CI34">
+        <v>1</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>1675</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>1676</v>
+      </c>
+      <c r="CM34">
+        <v>1</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>1825</v>
+      </c>
+      <c r="CQ34">
+        <v>1</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -10957,8 +14100,35 @@
       <c r="CE35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG35" t="s">
+        <v>1458</v>
+      </c>
+      <c r="CH35" t="s">
+        <v>1459</v>
+      </c>
+      <c r="CI35">
+        <v>1</v>
+      </c>
+      <c r="CK35" t="s">
+        <v>1677</v>
+      </c>
+      <c r="CL35" t="s">
+        <v>1641</v>
+      </c>
+      <c r="CM35">
+        <v>1</v>
+      </c>
+      <c r="CO35" t="s">
+        <v>1826</v>
+      </c>
+      <c r="CQ35">
+        <v>1</v>
+      </c>
+      <c r="CS35" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
@@ -11046,8 +14216,35 @@
       <c r="CE36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG36" t="s">
+        <v>1460</v>
+      </c>
+      <c r="CH36" t="s">
+        <v>1461</v>
+      </c>
+      <c r="CI36">
+        <v>1</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>1678</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>1679</v>
+      </c>
+      <c r="CM36">
+        <v>1</v>
+      </c>
+      <c r="CO36" t="s">
+        <v>1827</v>
+      </c>
+      <c r="CQ36">
+        <v>1</v>
+      </c>
+      <c r="CS36" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -11129,8 +14326,35 @@
       <c r="CE37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG37" t="s">
+        <v>1462</v>
+      </c>
+      <c r="CH37" t="s">
+        <v>579</v>
+      </c>
+      <c r="CI37">
+        <v>1</v>
+      </c>
+      <c r="CK37" t="s">
+        <v>1680</v>
+      </c>
+      <c r="CL37" t="s">
+        <v>1681</v>
+      </c>
+      <c r="CM37">
+        <v>1</v>
+      </c>
+      <c r="CO37" t="s">
+        <v>1828</v>
+      </c>
+      <c r="CQ37">
+        <v>1</v>
+      </c>
+      <c r="CS37" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
@@ -11212,8 +14436,35 @@
       <c r="CE38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG38" t="s">
+        <v>1463</v>
+      </c>
+      <c r="CH38" t="s">
+        <v>579</v>
+      </c>
+      <c r="CI38">
+        <v>1</v>
+      </c>
+      <c r="CK38" t="s">
+        <v>1682</v>
+      </c>
+      <c r="CL38" t="s">
+        <v>1683</v>
+      </c>
+      <c r="CM38">
+        <v>1</v>
+      </c>
+      <c r="CO38" t="s">
+        <v>1829</v>
+      </c>
+      <c r="CQ38">
+        <v>1</v>
+      </c>
+      <c r="CS38" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -11295,8 +14546,35 @@
       <c r="CE39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG39" t="s">
+        <v>1464</v>
+      </c>
+      <c r="CH39" t="s">
+        <v>1465</v>
+      </c>
+      <c r="CI39">
+        <v>1</v>
+      </c>
+      <c r="CK39" t="s">
+        <v>1684</v>
+      </c>
+      <c r="CL39" t="s">
+        <v>1685</v>
+      </c>
+      <c r="CM39">
+        <v>1</v>
+      </c>
+      <c r="CO39" t="s">
+        <v>1830</v>
+      </c>
+      <c r="CQ39">
+        <v>1</v>
+      </c>
+      <c r="CS39" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -11375,8 +14653,35 @@
       <c r="CE40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG40" t="s">
+        <v>1466</v>
+      </c>
+      <c r="CH40" t="s">
+        <v>1467</v>
+      </c>
+      <c r="CI40">
+        <v>1</v>
+      </c>
+      <c r="CK40" t="s">
+        <v>1686</v>
+      </c>
+      <c r="CL40" t="s">
+        <v>1633</v>
+      </c>
+      <c r="CM40">
+        <v>1</v>
+      </c>
+      <c r="CO40" t="s">
+        <v>1831</v>
+      </c>
+      <c r="CQ40">
+        <v>1</v>
+      </c>
+      <c r="CS40" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>73</v>
       </c>
@@ -11458,8 +14763,35 @@
       <c r="CE41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG41" t="s">
+        <v>1468</v>
+      </c>
+      <c r="CH41" t="s">
+        <v>579</v>
+      </c>
+      <c r="CI41">
+        <v>1</v>
+      </c>
+      <c r="CK41" t="s">
+        <v>1687</v>
+      </c>
+      <c r="CL41" t="s">
+        <v>1641</v>
+      </c>
+      <c r="CM41">
+        <v>1</v>
+      </c>
+      <c r="CO41" t="s">
+        <v>1832</v>
+      </c>
+      <c r="CQ41">
+        <v>1</v>
+      </c>
+      <c r="CS41" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>75</v>
       </c>
@@ -11541,8 +14873,35 @@
       <c r="CE42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG42" t="s">
+        <v>1469</v>
+      </c>
+      <c r="CH42" t="s">
+        <v>579</v>
+      </c>
+      <c r="CI42">
+        <v>1</v>
+      </c>
+      <c r="CK42" t="s">
+        <v>1688</v>
+      </c>
+      <c r="CL42" t="s">
+        <v>1689</v>
+      </c>
+      <c r="CM42">
+        <v>1</v>
+      </c>
+      <c r="CO42" t="s">
+        <v>1833</v>
+      </c>
+      <c r="CQ42">
+        <v>1</v>
+      </c>
+      <c r="CS42" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -11621,8 +14980,35 @@
       <c r="CE43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG43" t="s">
+        <v>1470</v>
+      </c>
+      <c r="CH43" t="s">
+        <v>1471</v>
+      </c>
+      <c r="CI43">
+        <v>1</v>
+      </c>
+      <c r="CK43" t="s">
+        <v>1690</v>
+      </c>
+      <c r="CL43" t="s">
+        <v>1689</v>
+      </c>
+      <c r="CM43">
+        <v>1</v>
+      </c>
+      <c r="CO43" t="s">
+        <v>1834</v>
+      </c>
+      <c r="CQ43">
+        <v>1</v>
+      </c>
+      <c r="CS43" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -11701,8 +15087,35 @@
       <c r="CE44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG44" t="s">
+        <v>1472</v>
+      </c>
+      <c r="CH44" t="s">
+        <v>1473</v>
+      </c>
+      <c r="CI44">
+        <v>1</v>
+      </c>
+      <c r="CK44" t="s">
+        <v>1691</v>
+      </c>
+      <c r="CL44" t="s">
+        <v>1689</v>
+      </c>
+      <c r="CM44">
+        <v>1</v>
+      </c>
+      <c r="CO44" t="s">
+        <v>1835</v>
+      </c>
+      <c r="CQ44">
+        <v>1</v>
+      </c>
+      <c r="CS44" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
@@ -11784,8 +15197,35 @@
       <c r="CE45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG45" t="s">
+        <v>1474</v>
+      </c>
+      <c r="CH45" t="s">
+        <v>579</v>
+      </c>
+      <c r="CI45">
+        <v>1</v>
+      </c>
+      <c r="CK45" t="s">
+        <v>1692</v>
+      </c>
+      <c r="CL45" t="s">
+        <v>1689</v>
+      </c>
+      <c r="CM45">
+        <v>1</v>
+      </c>
+      <c r="CO45" t="s">
+        <v>1836</v>
+      </c>
+      <c r="CQ45">
+        <v>1</v>
+      </c>
+      <c r="CS45" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -11864,8 +15304,35 @@
       <c r="CE46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG46" t="s">
+        <v>1475</v>
+      </c>
+      <c r="CH46" t="s">
+        <v>579</v>
+      </c>
+      <c r="CI46">
+        <v>1</v>
+      </c>
+      <c r="CK46" t="s">
+        <v>1693</v>
+      </c>
+      <c r="CL46" t="s">
+        <v>1694</v>
+      </c>
+      <c r="CM46">
+        <v>1</v>
+      </c>
+      <c r="CO46" t="s">
+        <v>1837</v>
+      </c>
+      <c r="CQ46">
+        <v>1</v>
+      </c>
+      <c r="CS46" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -11944,8 +15411,35 @@
       <c r="CE47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG47" t="s">
+        <v>1476</v>
+      </c>
+      <c r="CH47" t="s">
+        <v>1477</v>
+      </c>
+      <c r="CI47">
+        <v>1</v>
+      </c>
+      <c r="CK47" t="s">
+        <v>1695</v>
+      </c>
+      <c r="CL47" t="s">
+        <v>1694</v>
+      </c>
+      <c r="CM47">
+        <v>1</v>
+      </c>
+      <c r="CO47" t="s">
+        <v>1823</v>
+      </c>
+      <c r="CQ47">
+        <v>1</v>
+      </c>
+      <c r="CS47" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -12024,8 +15518,35 @@
       <c r="CE48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG48" t="s">
+        <v>1478</v>
+      </c>
+      <c r="CH48" t="s">
+        <v>1471</v>
+      </c>
+      <c r="CI48">
+        <v>1</v>
+      </c>
+      <c r="CK48" t="s">
+        <v>1696</v>
+      </c>
+      <c r="CL48" t="s">
+        <v>1697</v>
+      </c>
+      <c r="CM48">
+        <v>1</v>
+      </c>
+      <c r="CO48" t="s">
+        <v>1838</v>
+      </c>
+      <c r="CQ48">
+        <v>1</v>
+      </c>
+      <c r="CS48" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="49" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -12092,8 +15613,35 @@
       <c r="CE49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG49" t="s">
+        <v>1479</v>
+      </c>
+      <c r="CH49" t="s">
+        <v>579</v>
+      </c>
+      <c r="CI49">
+        <v>1</v>
+      </c>
+      <c r="CK49" t="s">
+        <v>1698</v>
+      </c>
+      <c r="CL49" t="s">
+        <v>1697</v>
+      </c>
+      <c r="CM49">
+        <v>1</v>
+      </c>
+      <c r="CO49" t="s">
+        <v>1839</v>
+      </c>
+      <c r="CQ49">
+        <v>1</v>
+      </c>
+      <c r="CS49" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="50" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>91</v>
       </c>
@@ -12160,8 +15708,35 @@
       <c r="CE50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG50" t="s">
+        <v>1480</v>
+      </c>
+      <c r="CH50" t="s">
+        <v>579</v>
+      </c>
+      <c r="CI50">
+        <v>1</v>
+      </c>
+      <c r="CK50" t="s">
+        <v>1699</v>
+      </c>
+      <c r="CL50" t="s">
+        <v>1694</v>
+      </c>
+      <c r="CM50">
+        <v>1</v>
+      </c>
+      <c r="CO50" t="s">
+        <v>1840</v>
+      </c>
+      <c r="CQ50">
+        <v>1</v>
+      </c>
+      <c r="CS50" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>381</v>
       </c>
@@ -12228,8 +15803,35 @@
       <c r="CE51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG51" t="s">
+        <v>1481</v>
+      </c>
+      <c r="CH51" t="s">
+        <v>1482</v>
+      </c>
+      <c r="CI51">
+        <v>1</v>
+      </c>
+      <c r="CK51" t="s">
+        <v>1700</v>
+      </c>
+      <c r="CL51" t="s">
+        <v>1689</v>
+      </c>
+      <c r="CM51">
+        <v>1</v>
+      </c>
+      <c r="CO51" t="s">
+        <v>1841</v>
+      </c>
+      <c r="CQ51">
+        <v>1</v>
+      </c>
+      <c r="CS51" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="52" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -12287,8 +15889,35 @@
       <c r="CE52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG52" t="s">
+        <v>1483</v>
+      </c>
+      <c r="CH52" t="s">
+        <v>1429</v>
+      </c>
+      <c r="CI52">
+        <v>1</v>
+      </c>
+      <c r="CK52" t="s">
+        <v>1701</v>
+      </c>
+      <c r="CL52" t="s">
+        <v>1689</v>
+      </c>
+      <c r="CM52">
+        <v>1</v>
+      </c>
+      <c r="CO52" t="s">
+        <v>1842</v>
+      </c>
+      <c r="CQ52">
+        <v>1</v>
+      </c>
+      <c r="CS52" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="53" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -12346,8 +15975,35 @@
       <c r="CE53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG53" t="s">
+        <v>1484</v>
+      </c>
+      <c r="CH53" t="s">
+        <v>585</v>
+      </c>
+      <c r="CI53">
+        <v>1</v>
+      </c>
+      <c r="CK53" t="s">
+        <v>1702</v>
+      </c>
+      <c r="CL53" t="s">
+        <v>1689</v>
+      </c>
+      <c r="CM53">
+        <v>1</v>
+      </c>
+      <c r="CO53" t="s">
+        <v>1843</v>
+      </c>
+      <c r="CQ53">
+        <v>1</v>
+      </c>
+      <c r="CS53" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="54" spans="1:97" x14ac:dyDescent="0.25">
       <c r="BI54" s="2" t="s">
         <v>958</v>
       </c>
@@ -12393,8 +16049,35 @@
       <c r="CE54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG54" t="s">
+        <v>1485</v>
+      </c>
+      <c r="CH54" t="s">
+        <v>585</v>
+      </c>
+      <c r="CI54">
+        <v>1</v>
+      </c>
+      <c r="CK54" t="s">
+        <v>1703</v>
+      </c>
+      <c r="CL54" t="s">
+        <v>1689</v>
+      </c>
+      <c r="CM54">
+        <v>1</v>
+      </c>
+      <c r="CO54" t="s">
+        <v>1844</v>
+      </c>
+      <c r="CQ54">
+        <v>1</v>
+      </c>
+      <c r="CS54" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="55" spans="1:97" x14ac:dyDescent="0.25">
       <c r="BI55" s="2" t="s">
         <v>960</v>
       </c>
@@ -12440,8 +16123,35 @@
       <c r="CE55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG55" t="s">
+        <v>1486</v>
+      </c>
+      <c r="CH55" t="s">
+        <v>1487</v>
+      </c>
+      <c r="CI55">
+        <v>1</v>
+      </c>
+      <c r="CK55" t="s">
+        <v>1704</v>
+      </c>
+      <c r="CL55" t="s">
+        <v>1689</v>
+      </c>
+      <c r="CM55">
+        <v>1</v>
+      </c>
+      <c r="CO55" t="s">
+        <v>1845</v>
+      </c>
+      <c r="CQ55">
+        <v>1</v>
+      </c>
+      <c r="CS55" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="56" spans="1:97" x14ac:dyDescent="0.25">
       <c r="BQ56" s="2" t="s">
         <v>959</v>
       </c>
@@ -12475,8 +16185,35 @@
       <c r="CE56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG56" t="s">
+        <v>1488</v>
+      </c>
+      <c r="CH56" t="s">
+        <v>1489</v>
+      </c>
+      <c r="CI56">
+        <v>1</v>
+      </c>
+      <c r="CK56" t="s">
+        <v>1705</v>
+      </c>
+      <c r="CL56" t="s">
+        <v>1694</v>
+      </c>
+      <c r="CM56">
+        <v>1</v>
+      </c>
+      <c r="CO56" t="s">
+        <v>1846</v>
+      </c>
+      <c r="CQ56">
+        <v>1</v>
+      </c>
+      <c r="CS56" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="57" spans="1:97" x14ac:dyDescent="0.25">
       <c r="BU57" s="2" t="s">
         <v>951</v>
       </c>
@@ -12498,8 +16235,35 @@
       <c r="CE57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG57" t="s">
+        <v>1490</v>
+      </c>
+      <c r="CH57" t="s">
+        <v>585</v>
+      </c>
+      <c r="CI57">
+        <v>1</v>
+      </c>
+      <c r="CK57" t="s">
+        <v>1706</v>
+      </c>
+      <c r="CL57" t="s">
+        <v>1694</v>
+      </c>
+      <c r="CM57">
+        <v>1</v>
+      </c>
+      <c r="CO57" t="s">
+        <v>1847</v>
+      </c>
+      <c r="CQ57">
+        <v>1</v>
+      </c>
+      <c r="CS57" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="58" spans="1:97" x14ac:dyDescent="0.25">
       <c r="CC58" t="s">
         <v>1398</v>
       </c>
@@ -12509,8 +16273,35 @@
       <c r="CE58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG58" t="s">
+        <v>1491</v>
+      </c>
+      <c r="CH58" t="s">
+        <v>585</v>
+      </c>
+      <c r="CI58">
+        <v>1</v>
+      </c>
+      <c r="CK58" t="s">
+        <v>1707</v>
+      </c>
+      <c r="CL58" t="s">
+        <v>1694</v>
+      </c>
+      <c r="CM58">
+        <v>1</v>
+      </c>
+      <c r="CO58" t="s">
+        <v>1848</v>
+      </c>
+      <c r="CQ58">
+        <v>1</v>
+      </c>
+      <c r="CS58" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="59" spans="1:97" x14ac:dyDescent="0.25">
       <c r="CC59" t="s">
         <v>1319</v>
       </c>
@@ -12520,8 +16311,35 @@
       <c r="CE59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG59" t="s">
+        <v>1492</v>
+      </c>
+      <c r="CH59" t="s">
+        <v>1493</v>
+      </c>
+      <c r="CI59">
+        <v>1</v>
+      </c>
+      <c r="CK59" t="s">
+        <v>1708</v>
+      </c>
+      <c r="CL59" t="s">
+        <v>1709</v>
+      </c>
+      <c r="CM59">
+        <v>1</v>
+      </c>
+      <c r="CO59" t="s">
+        <v>1849</v>
+      </c>
+      <c r="CQ59">
+        <v>1</v>
+      </c>
+      <c r="CS59" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="60" spans="1:97" x14ac:dyDescent="0.25">
       <c r="CC60" t="s">
         <v>1320</v>
       </c>
@@ -12531,8 +16349,35 @@
       <c r="CE60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG60" t="s">
+        <v>1494</v>
+      </c>
+      <c r="CH60" t="s">
+        <v>1429</v>
+      </c>
+      <c r="CI60">
+        <v>1</v>
+      </c>
+      <c r="CK60" t="s">
+        <v>1710</v>
+      </c>
+      <c r="CL60" t="s">
+        <v>1709</v>
+      </c>
+      <c r="CM60">
+        <v>1</v>
+      </c>
+      <c r="CO60" t="s">
+        <v>1850</v>
+      </c>
+      <c r="CQ60">
+        <v>1</v>
+      </c>
+      <c r="CS60" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="61" spans="1:97" x14ac:dyDescent="0.25">
       <c r="CC61" t="s">
         <v>1399</v>
       </c>
@@ -12542,8 +16387,35 @@
       <c r="CE61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG61" t="s">
+        <v>1495</v>
+      </c>
+      <c r="CH61" t="s">
+        <v>585</v>
+      </c>
+      <c r="CI61">
+        <v>1</v>
+      </c>
+      <c r="CK61" t="s">
+        <v>1711</v>
+      </c>
+      <c r="CL61" t="s">
+        <v>1712</v>
+      </c>
+      <c r="CM61">
+        <v>1</v>
+      </c>
+      <c r="CO61" t="s">
+        <v>1851</v>
+      </c>
+      <c r="CQ61">
+        <v>1</v>
+      </c>
+      <c r="CS61" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="62" spans="1:97" x14ac:dyDescent="0.25">
       <c r="CC62" t="s">
         <v>1263</v>
       </c>
@@ -12553,8 +16425,35 @@
       <c r="CE62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG62" t="s">
+        <v>1496</v>
+      </c>
+      <c r="CH62" t="s">
+        <v>585</v>
+      </c>
+      <c r="CI62">
+        <v>1</v>
+      </c>
+      <c r="CK62" t="s">
+        <v>1713</v>
+      </c>
+      <c r="CL62" t="s">
+        <v>1641</v>
+      </c>
+      <c r="CM62">
+        <v>1</v>
+      </c>
+      <c r="CO62" t="s">
+        <v>1852</v>
+      </c>
+      <c r="CQ62">
+        <v>1</v>
+      </c>
+      <c r="CS62" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="63" spans="1:97" x14ac:dyDescent="0.25">
       <c r="CC63" t="s">
         <v>1266</v>
       </c>
@@ -12564,8 +16463,35 @@
       <c r="CE63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="CG63" t="s">
+        <v>1497</v>
+      </c>
+      <c r="CH63" t="s">
+        <v>1498</v>
+      </c>
+      <c r="CI63">
+        <v>1</v>
+      </c>
+      <c r="CK63" t="s">
+        <v>1714</v>
+      </c>
+      <c r="CL63" t="s">
+        <v>1681</v>
+      </c>
+      <c r="CM63">
+        <v>1</v>
+      </c>
+      <c r="CO63" t="s">
+        <v>1853</v>
+      </c>
+      <c r="CQ63">
+        <v>1</v>
+      </c>
+      <c r="CS63" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="64" spans="1:97" x14ac:dyDescent="0.25">
       <c r="CC64" t="s">
         <v>1401</v>
       </c>
@@ -12575,8 +16501,35 @@
       <c r="CE64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG64" t="s">
+        <v>1499</v>
+      </c>
+      <c r="CH64" t="s">
+        <v>1500</v>
+      </c>
+      <c r="CI64">
+        <v>1</v>
+      </c>
+      <c r="CK64" t="s">
+        <v>1715</v>
+      </c>
+      <c r="CL64" t="s">
+        <v>1681</v>
+      </c>
+      <c r="CM64">
+        <v>1</v>
+      </c>
+      <c r="CO64" t="s">
+        <v>1854</v>
+      </c>
+      <c r="CQ64">
+        <v>1</v>
+      </c>
+      <c r="CS64" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="65" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC65" t="s">
         <v>1342</v>
       </c>
@@ -12586,8 +16539,35 @@
       <c r="CE65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG65" t="s">
+        <v>1501</v>
+      </c>
+      <c r="CH65" t="s">
+        <v>585</v>
+      </c>
+      <c r="CI65">
+        <v>1</v>
+      </c>
+      <c r="CK65" t="s">
+        <v>1716</v>
+      </c>
+      <c r="CL65" t="s">
+        <v>1681</v>
+      </c>
+      <c r="CM65">
+        <v>1</v>
+      </c>
+      <c r="CO65" t="s">
+        <v>1855</v>
+      </c>
+      <c r="CQ65">
+        <v>1</v>
+      </c>
+      <c r="CS65" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="66" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC66" t="s">
         <v>1291</v>
       </c>
@@ -12597,8 +16577,35 @@
       <c r="CE66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG66" t="s">
+        <v>1502</v>
+      </c>
+      <c r="CH66" t="s">
+        <v>585</v>
+      </c>
+      <c r="CI66">
+        <v>1</v>
+      </c>
+      <c r="CK66" t="s">
+        <v>1717</v>
+      </c>
+      <c r="CL66" t="s">
+        <v>1681</v>
+      </c>
+      <c r="CM66">
+        <v>1</v>
+      </c>
+      <c r="CO66" t="s">
+        <v>1856</v>
+      </c>
+      <c r="CQ66">
+        <v>1</v>
+      </c>
+      <c r="CS66" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="67" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC67" t="s">
         <v>1292</v>
       </c>
@@ -12608,8 +16615,35 @@
       <c r="CE67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG67" t="s">
+        <v>1503</v>
+      </c>
+      <c r="CH67" t="s">
+        <v>1489</v>
+      </c>
+      <c r="CI67">
+        <v>1</v>
+      </c>
+      <c r="CK67" t="s">
+        <v>1718</v>
+      </c>
+      <c r="CL67" t="s">
+        <v>1681</v>
+      </c>
+      <c r="CM67">
+        <v>1</v>
+      </c>
+      <c r="CO67" t="s">
+        <v>1857</v>
+      </c>
+      <c r="CQ67">
+        <v>1</v>
+      </c>
+      <c r="CS67" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="68" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC68" t="s">
         <v>1403</v>
       </c>
@@ -12619,8 +16653,35 @@
       <c r="CE68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG68" t="s">
+        <v>1504</v>
+      </c>
+      <c r="CH68" t="s">
+        <v>1505</v>
+      </c>
+      <c r="CI68">
+        <v>1</v>
+      </c>
+      <c r="CK68" t="s">
+        <v>1719</v>
+      </c>
+      <c r="CL68" t="s">
+        <v>1681</v>
+      </c>
+      <c r="CM68">
+        <v>1</v>
+      </c>
+      <c r="CO68" t="s">
+        <v>1858</v>
+      </c>
+      <c r="CQ68">
+        <v>1</v>
+      </c>
+      <c r="CS68" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="69" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC69" t="s">
         <v>1251</v>
       </c>
@@ -12630,8 +16691,35 @@
       <c r="CE69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG69" t="s">
+        <v>1506</v>
+      </c>
+      <c r="CH69" t="s">
+        <v>1507</v>
+      </c>
+      <c r="CI69">
+        <v>1</v>
+      </c>
+      <c r="CK69" t="s">
+        <v>1720</v>
+      </c>
+      <c r="CL69" t="s">
+        <v>1721</v>
+      </c>
+      <c r="CM69">
+        <v>1</v>
+      </c>
+      <c r="CO69" t="s">
+        <v>1859</v>
+      </c>
+      <c r="CQ69">
+        <v>1</v>
+      </c>
+      <c r="CS69" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="70" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC70" t="s">
         <v>1252</v>
       </c>
@@ -12641,8 +16729,35 @@
       <c r="CE70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG70" t="s">
+        <v>1508</v>
+      </c>
+      <c r="CH70" t="s">
+        <v>584</v>
+      </c>
+      <c r="CI70">
+        <v>1</v>
+      </c>
+      <c r="CK70" t="s">
+        <v>1722</v>
+      </c>
+      <c r="CL70" t="s">
+        <v>1681</v>
+      </c>
+      <c r="CM70">
+        <v>1</v>
+      </c>
+      <c r="CO70" t="s">
+        <v>1860</v>
+      </c>
+      <c r="CQ70">
+        <v>1</v>
+      </c>
+      <c r="CS70" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="71" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC71" t="s">
         <v>1404</v>
       </c>
@@ -12652,8 +16767,35 @@
       <c r="CE71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG71" t="s">
+        <v>1509</v>
+      </c>
+      <c r="CH71" t="s">
+        <v>584</v>
+      </c>
+      <c r="CI71">
+        <v>1</v>
+      </c>
+      <c r="CK71" t="s">
+        <v>1723</v>
+      </c>
+      <c r="CL71" t="s">
+        <v>1681</v>
+      </c>
+      <c r="CM71">
+        <v>1</v>
+      </c>
+      <c r="CO71" t="s">
+        <v>1861</v>
+      </c>
+      <c r="CQ71">
+        <v>1</v>
+      </c>
+      <c r="CS71" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="72" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC72" t="s">
         <v>1351</v>
       </c>
@@ -12663,8 +16805,35 @@
       <c r="CE72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG72" t="s">
+        <v>1510</v>
+      </c>
+      <c r="CH72" t="s">
+        <v>1511</v>
+      </c>
+      <c r="CI72">
+        <v>1</v>
+      </c>
+      <c r="CK72" t="s">
+        <v>1724</v>
+      </c>
+      <c r="CL72" t="s">
+        <v>1681</v>
+      </c>
+      <c r="CM72">
+        <v>1</v>
+      </c>
+      <c r="CO72" t="s">
+        <v>1862</v>
+      </c>
+      <c r="CQ72">
+        <v>1</v>
+      </c>
+      <c r="CS72" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="73" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC73" t="s">
         <v>1352</v>
       </c>
@@ -12674,8 +16843,35 @@
       <c r="CE73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG73" t="s">
+        <v>1512</v>
+      </c>
+      <c r="CH73" t="s">
+        <v>1513</v>
+      </c>
+      <c r="CI73">
+        <v>1</v>
+      </c>
+      <c r="CK73" t="s">
+        <v>1725</v>
+      </c>
+      <c r="CL73" t="s">
+        <v>1641</v>
+      </c>
+      <c r="CM73">
+        <v>1</v>
+      </c>
+      <c r="CO73" t="s">
+        <v>1863</v>
+      </c>
+      <c r="CQ73">
+        <v>1</v>
+      </c>
+      <c r="CS73" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="74" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC74" t="s">
         <v>1406</v>
       </c>
@@ -12685,8 +16881,35 @@
       <c r="CE74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG74" t="s">
+        <v>1514</v>
+      </c>
+      <c r="CH74" t="s">
+        <v>584</v>
+      </c>
+      <c r="CI74">
+        <v>1</v>
+      </c>
+      <c r="CK74" t="s">
+        <v>1726</v>
+      </c>
+      <c r="CL74" t="s">
+        <v>1727</v>
+      </c>
+      <c r="CM74">
+        <v>1</v>
+      </c>
+      <c r="CO74" t="s">
+        <v>1864</v>
+      </c>
+      <c r="CQ74">
+        <v>1</v>
+      </c>
+      <c r="CS74" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="75" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC75" t="s">
         <v>1408</v>
       </c>
@@ -12696,8 +16919,35 @@
       <c r="CE75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG75" t="s">
+        <v>1515</v>
+      </c>
+      <c r="CH75" t="s">
+        <v>584</v>
+      </c>
+      <c r="CI75">
+        <v>1</v>
+      </c>
+      <c r="CK75" t="s">
+        <v>1728</v>
+      </c>
+      <c r="CL75" t="s">
+        <v>1683</v>
+      </c>
+      <c r="CM75">
+        <v>1</v>
+      </c>
+      <c r="CO75" t="s">
+        <v>1865</v>
+      </c>
+      <c r="CQ75">
+        <v>1</v>
+      </c>
+      <c r="CS75" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="76" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC76" t="s">
         <v>1353</v>
       </c>
@@ -12707,8 +16957,35 @@
       <c r="CE76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG76" t="s">
+        <v>1516</v>
+      </c>
+      <c r="CH76" t="s">
+        <v>1517</v>
+      </c>
+      <c r="CI76">
+        <v>1</v>
+      </c>
+      <c r="CK76" t="s">
+        <v>1729</v>
+      </c>
+      <c r="CL76" t="s">
+        <v>1730</v>
+      </c>
+      <c r="CM76">
+        <v>1</v>
+      </c>
+      <c r="CO76" t="s">
+        <v>1866</v>
+      </c>
+      <c r="CQ76">
+        <v>1</v>
+      </c>
+      <c r="CS76" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="77" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC77" t="s">
         <v>1354</v>
       </c>
@@ -12718,8 +16995,35 @@
       <c r="CE77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG77" t="s">
+        <v>1518</v>
+      </c>
+      <c r="CH77" t="s">
+        <v>1519</v>
+      </c>
+      <c r="CI77">
+        <v>1</v>
+      </c>
+      <c r="CK77" t="s">
+        <v>1731</v>
+      </c>
+      <c r="CL77" t="s">
+        <v>1732</v>
+      </c>
+      <c r="CM77">
+        <v>1</v>
+      </c>
+      <c r="CO77" t="s">
+        <v>1867</v>
+      </c>
+      <c r="CQ77">
+        <v>1</v>
+      </c>
+      <c r="CS77" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="78" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC78" t="s">
         <v>1409</v>
       </c>
@@ -12729,8 +17033,35 @@
       <c r="CE78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG78" t="s">
+        <v>1520</v>
+      </c>
+      <c r="CH78" t="s">
+        <v>584</v>
+      </c>
+      <c r="CI78">
+        <v>1</v>
+      </c>
+      <c r="CK78" t="s">
+        <v>1733</v>
+      </c>
+      <c r="CL78" t="s">
+        <v>1732</v>
+      </c>
+      <c r="CM78">
+        <v>1</v>
+      </c>
+      <c r="CO78" t="s">
+        <v>1868</v>
+      </c>
+      <c r="CQ78">
+        <v>1</v>
+      </c>
+      <c r="CS78" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="79" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC79" t="s">
         <v>1267</v>
       </c>
@@ -12740,8 +17071,35 @@
       <c r="CE79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG79" t="s">
+        <v>1521</v>
+      </c>
+      <c r="CH79" t="s">
+        <v>584</v>
+      </c>
+      <c r="CI79">
+        <v>1</v>
+      </c>
+      <c r="CK79" t="s">
+        <v>1734</v>
+      </c>
+      <c r="CL79" t="s">
+        <v>1732</v>
+      </c>
+      <c r="CM79">
+        <v>1</v>
+      </c>
+      <c r="CO79" t="s">
+        <v>1869</v>
+      </c>
+      <c r="CQ79">
+        <v>1</v>
+      </c>
+      <c r="CS79" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="80" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC80" s="2" t="s">
         <v>1270</v>
       </c>
@@ -12754,8 +17112,35 @@
       <c r="CF80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG80" t="s">
+        <v>1522</v>
+      </c>
+      <c r="CH80" t="s">
+        <v>1511</v>
+      </c>
+      <c r="CI80">
+        <v>1</v>
+      </c>
+      <c r="CK80" t="s">
+        <v>1735</v>
+      </c>
+      <c r="CL80" t="s">
+        <v>1732</v>
+      </c>
+      <c r="CM80">
+        <v>1</v>
+      </c>
+      <c r="CO80" t="s">
+        <v>1870</v>
+      </c>
+      <c r="CQ80">
+        <v>1</v>
+      </c>
+      <c r="CS80" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="81" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC81" s="2" t="s">
         <v>1355</v>
       </c>
@@ -12768,8 +17153,35 @@
       <c r="CF81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG81" t="s">
+        <v>1523</v>
+      </c>
+      <c r="CH81" t="s">
+        <v>1513</v>
+      </c>
+      <c r="CI81">
+        <v>1</v>
+      </c>
+      <c r="CK81" t="s">
+        <v>1736</v>
+      </c>
+      <c r="CL81" t="s">
+        <v>1732</v>
+      </c>
+      <c r="CM81">
+        <v>1</v>
+      </c>
+      <c r="CO81" t="s">
+        <v>1871</v>
+      </c>
+      <c r="CQ81">
+        <v>1</v>
+      </c>
+      <c r="CS81" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="82" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC82" s="2" t="s">
         <v>1356</v>
       </c>
@@ -12782,8 +17194,35 @@
       <c r="CF82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG82" t="s">
+        <v>1524</v>
+      </c>
+      <c r="CH82" t="s">
+        <v>584</v>
+      </c>
+      <c r="CI82">
+        <v>1</v>
+      </c>
+      <c r="CK82" t="s">
+        <v>1737</v>
+      </c>
+      <c r="CL82" t="s">
+        <v>1683</v>
+      </c>
+      <c r="CM82">
+        <v>1</v>
+      </c>
+      <c r="CO82" t="s">
+        <v>1872</v>
+      </c>
+      <c r="CQ82">
+        <v>1</v>
+      </c>
+      <c r="CS82" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="83" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC83" s="2" t="s">
         <v>1295</v>
       </c>
@@ -12796,8 +17235,35 @@
       <c r="CF83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG83" t="s">
+        <v>1525</v>
+      </c>
+      <c r="CH83" t="s">
+        <v>584</v>
+      </c>
+      <c r="CI83">
+        <v>1</v>
+      </c>
+      <c r="CK83" t="s">
+        <v>1738</v>
+      </c>
+      <c r="CL83" t="s">
+        <v>1727</v>
+      </c>
+      <c r="CM83">
+        <v>1</v>
+      </c>
+      <c r="CO83" t="s">
+        <v>1873</v>
+      </c>
+      <c r="CQ83">
+        <v>1</v>
+      </c>
+      <c r="CS83" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="84" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC84" s="2" t="s">
         <v>1296</v>
       </c>
@@ -12810,8 +17276,35 @@
       <c r="CF84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG84" t="s">
+        <v>1526</v>
+      </c>
+      <c r="CH84" t="s">
+        <v>1527</v>
+      </c>
+      <c r="CI84">
+        <v>1</v>
+      </c>
+      <c r="CK84" t="s">
+        <v>1739</v>
+      </c>
+      <c r="CL84" t="s">
+        <v>1641</v>
+      </c>
+      <c r="CM84">
+        <v>1</v>
+      </c>
+      <c r="CO84" t="s">
+        <v>1874</v>
+      </c>
+      <c r="CQ84">
+        <v>1</v>
+      </c>
+      <c r="CS84" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="85" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC85" s="2" t="s">
         <v>1357</v>
       </c>
@@ -12824,8 +17317,35 @@
       <c r="CF85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG85" t="s">
+        <v>1528</v>
+      </c>
+      <c r="CH85" t="s">
+        <v>1529</v>
+      </c>
+      <c r="CI85">
+        <v>1</v>
+      </c>
+      <c r="CK85" t="s">
+        <v>1740</v>
+      </c>
+      <c r="CL85" t="s">
+        <v>1741</v>
+      </c>
+      <c r="CM85">
+        <v>1</v>
+      </c>
+      <c r="CO85" t="s">
+        <v>1875</v>
+      </c>
+      <c r="CQ85">
+        <v>1</v>
+      </c>
+      <c r="CS85" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="86" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC86" s="2" t="s">
         <v>1257</v>
       </c>
@@ -12838,8 +17358,35 @@
       <c r="CF86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG86" t="s">
+        <v>1530</v>
+      </c>
+      <c r="CH86" t="s">
+        <v>1529</v>
+      </c>
+      <c r="CI86">
+        <v>1</v>
+      </c>
+      <c r="CK86" t="s">
+        <v>1742</v>
+      </c>
+      <c r="CL86" t="s">
+        <v>1743</v>
+      </c>
+      <c r="CM86">
+        <v>1</v>
+      </c>
+      <c r="CO86" t="s">
+        <v>1876</v>
+      </c>
+      <c r="CQ86">
+        <v>1</v>
+      </c>
+      <c r="CS86" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="87" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC87" s="2" t="s">
         <v>1258</v>
       </c>
@@ -12852,8 +17399,35 @@
       <c r="CF87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG87" t="s">
+        <v>1531</v>
+      </c>
+      <c r="CH87" t="s">
+        <v>1529</v>
+      </c>
+      <c r="CI87">
+        <v>1</v>
+      </c>
+      <c r="CK87" t="s">
+        <v>1744</v>
+      </c>
+      <c r="CL87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="CM87">
+        <v>1</v>
+      </c>
+      <c r="CO87" t="s">
+        <v>1877</v>
+      </c>
+      <c r="CQ87">
+        <v>1</v>
+      </c>
+      <c r="CS87" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="88" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC88" s="2" t="s">
         <v>1359</v>
       </c>
@@ -12866,8 +17440,35 @@
       <c r="CF88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG88" t="s">
+        <v>1532</v>
+      </c>
+      <c r="CH88" t="s">
+        <v>1529</v>
+      </c>
+      <c r="CI88">
+        <v>1</v>
+      </c>
+      <c r="CK88" t="s">
+        <v>1746</v>
+      </c>
+      <c r="CL88" t="s">
+        <v>1745</v>
+      </c>
+      <c r="CM88">
+        <v>1</v>
+      </c>
+      <c r="CO88" t="s">
+        <v>1878</v>
+      </c>
+      <c r="CQ88">
+        <v>1</v>
+      </c>
+      <c r="CS88" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="89" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC89" s="2" t="s">
         <v>1309</v>
       </c>
@@ -12880,8 +17481,35 @@
       <c r="CF89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG89" t="s">
+        <v>1533</v>
+      </c>
+      <c r="CH89" t="s">
+        <v>1534</v>
+      </c>
+      <c r="CI89">
+        <v>1</v>
+      </c>
+      <c r="CK89" t="s">
+        <v>1747</v>
+      </c>
+      <c r="CL89" t="s">
+        <v>1745</v>
+      </c>
+      <c r="CM89">
+        <v>1</v>
+      </c>
+      <c r="CO89" t="s">
+        <v>1879</v>
+      </c>
+      <c r="CQ89">
+        <v>1</v>
+      </c>
+      <c r="CS89" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="90" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC90" s="2" t="s">
         <v>1310</v>
       </c>
@@ -12894,8 +17522,35 @@
       <c r="CF90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG90" t="s">
+        <v>1535</v>
+      </c>
+      <c r="CH90" t="s">
+        <v>586</v>
+      </c>
+      <c r="CI90">
+        <v>1</v>
+      </c>
+      <c r="CK90" t="s">
+        <v>1748</v>
+      </c>
+      <c r="CL90" t="s">
+        <v>1749</v>
+      </c>
+      <c r="CM90">
+        <v>1</v>
+      </c>
+      <c r="CO90" t="s">
+        <v>1880</v>
+      </c>
+      <c r="CQ90">
+        <v>1</v>
+      </c>
+      <c r="CS90" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="91" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC91" s="2" t="s">
         <v>1360</v>
       </c>
@@ -12908,8 +17563,35 @@
       <c r="CF91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG91" t="s">
+        <v>1536</v>
+      </c>
+      <c r="CH91" t="s">
+        <v>586</v>
+      </c>
+      <c r="CI91">
+        <v>1</v>
+      </c>
+      <c r="CK91" t="s">
+        <v>1750</v>
+      </c>
+      <c r="CL91" t="s">
+        <v>1749</v>
+      </c>
+      <c r="CM91">
+        <v>1</v>
+      </c>
+      <c r="CO91" t="s">
+        <v>1881</v>
+      </c>
+      <c r="CQ91">
+        <v>1</v>
+      </c>
+      <c r="CS91" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="92" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC92" s="2" t="s">
         <v>1271</v>
       </c>
@@ -12922,8 +17604,35 @@
       <c r="CF92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG92" t="s">
+        <v>1537</v>
+      </c>
+      <c r="CH92" t="s">
+        <v>1538</v>
+      </c>
+      <c r="CI92">
+        <v>1</v>
+      </c>
+      <c r="CK92" t="s">
+        <v>1751</v>
+      </c>
+      <c r="CL92" t="s">
+        <v>1749</v>
+      </c>
+      <c r="CM92">
+        <v>1</v>
+      </c>
+      <c r="CO92" t="s">
+        <v>1882</v>
+      </c>
+      <c r="CQ92">
+        <v>1</v>
+      </c>
+      <c r="CS92" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="93" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC93" s="2" t="s">
         <v>1272</v>
       </c>
@@ -12936,8 +17645,35 @@
       <c r="CF93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG93" t="s">
+        <v>1539</v>
+      </c>
+      <c r="CH93" t="s">
+        <v>1540</v>
+      </c>
+      <c r="CI93">
+        <v>1</v>
+      </c>
+      <c r="CK93" t="s">
+        <v>1752</v>
+      </c>
+      <c r="CL93" t="s">
+        <v>1749</v>
+      </c>
+      <c r="CM93">
+        <v>1</v>
+      </c>
+      <c r="CO93" t="s">
+        <v>1883</v>
+      </c>
+      <c r="CQ93">
+        <v>1</v>
+      </c>
+      <c r="CS93" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="94" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC94" s="2" t="s">
         <v>1361</v>
       </c>
@@ -12950,8 +17686,35 @@
       <c r="CF94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG94" t="s">
+        <v>1541</v>
+      </c>
+      <c r="CH94" t="s">
+        <v>586</v>
+      </c>
+      <c r="CI94">
+        <v>1</v>
+      </c>
+      <c r="CK94" t="s">
+        <v>1753</v>
+      </c>
+      <c r="CL94" t="s">
+        <v>1749</v>
+      </c>
+      <c r="CM94">
+        <v>1</v>
+      </c>
+      <c r="CO94" t="s">
+        <v>1884</v>
+      </c>
+      <c r="CQ94">
+        <v>1</v>
+      </c>
+      <c r="CS94" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="95" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC95" s="2" t="s">
         <v>1311</v>
       </c>
@@ -12964,8 +17727,35 @@
       <c r="CF95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG95" t="s">
+        <v>1542</v>
+      </c>
+      <c r="CH95" t="s">
+        <v>586</v>
+      </c>
+      <c r="CI95">
+        <v>1</v>
+      </c>
+      <c r="CK95" t="s">
+        <v>1754</v>
+      </c>
+      <c r="CL95" t="s">
+        <v>1641</v>
+      </c>
+      <c r="CM95">
+        <v>1</v>
+      </c>
+      <c r="CO95" t="s">
+        <v>1885</v>
+      </c>
+      <c r="CQ95">
+        <v>1</v>
+      </c>
+      <c r="CS95" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="96" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC96" s="2" t="s">
         <v>1312</v>
       </c>
@@ -12978,8 +17768,35 @@
       <c r="CF96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG96" t="s">
+        <v>1543</v>
+      </c>
+      <c r="CH96" t="s">
+        <v>1534</v>
+      </c>
+      <c r="CI96">
+        <v>1</v>
+      </c>
+      <c r="CK96" t="s">
+        <v>1755</v>
+      </c>
+      <c r="CL96" t="s">
+        <v>1756</v>
+      </c>
+      <c r="CM96">
+        <v>1</v>
+      </c>
+      <c r="CO96" t="s">
+        <v>1886</v>
+      </c>
+      <c r="CQ96">
+        <v>1</v>
+      </c>
+      <c r="CS96" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="97" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC97" s="2" t="s">
         <v>1298</v>
       </c>
@@ -12992,8 +17809,35 @@
       <c r="CF97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG97" t="s">
+        <v>1544</v>
+      </c>
+      <c r="CH97" t="s">
+        <v>1534</v>
+      </c>
+      <c r="CI97">
+        <v>1</v>
+      </c>
+      <c r="CK97" t="s">
+        <v>1757</v>
+      </c>
+      <c r="CL97" t="s">
+        <v>1758</v>
+      </c>
+      <c r="CM97">
+        <v>1</v>
+      </c>
+      <c r="CO97" t="s">
+        <v>1887</v>
+      </c>
+      <c r="CQ97">
+        <v>1</v>
+      </c>
+      <c r="CS97" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="98" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC98" s="2" t="s">
         <v>1244</v>
       </c>
@@ -13006,8 +17850,35 @@
       <c r="CF98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG98" t="s">
+        <v>1545</v>
+      </c>
+      <c r="CH98" t="s">
+        <v>586</v>
+      </c>
+      <c r="CI98">
+        <v>1</v>
+      </c>
+      <c r="CK98" t="s">
+        <v>1759</v>
+      </c>
+      <c r="CL98" t="s">
+        <v>1758</v>
+      </c>
+      <c r="CM98">
+        <v>1</v>
+      </c>
+      <c r="CO98" t="s">
+        <v>1888</v>
+      </c>
+      <c r="CQ98">
+        <v>1</v>
+      </c>
+      <c r="CS98" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="99" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC99" s="2" t="s">
         <v>1365</v>
       </c>
@@ -13020,8 +17891,35 @@
       <c r="CF99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG99" t="s">
+        <v>1546</v>
+      </c>
+      <c r="CH99" t="s">
+        <v>586</v>
+      </c>
+      <c r="CI99">
+        <v>1</v>
+      </c>
+      <c r="CK99" t="s">
+        <v>1760</v>
+      </c>
+      <c r="CL99" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CM99">
+        <v>1</v>
+      </c>
+      <c r="CO99" t="s">
+        <v>1889</v>
+      </c>
+      <c r="CQ99">
+        <v>1</v>
+      </c>
+      <c r="CS99" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="100" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC100" s="2" t="s">
         <v>1245</v>
       </c>
@@ -13034,8 +17932,35 @@
       <c r="CF100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG100" t="s">
+        <v>1547</v>
+      </c>
+      <c r="CH100" t="s">
+        <v>1548</v>
+      </c>
+      <c r="CI100">
+        <v>1</v>
+      </c>
+      <c r="CK100" t="s">
+        <v>1762</v>
+      </c>
+      <c r="CL100" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CM100">
+        <v>1</v>
+      </c>
+      <c r="CO100" t="s">
+        <v>1890</v>
+      </c>
+      <c r="CQ100">
+        <v>1</v>
+      </c>
+      <c r="CS100" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="101" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC101" s="2" t="s">
         <v>1246</v>
       </c>
@@ -13048,8 +17973,35 @@
       <c r="CF101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG101" t="s">
+        <v>1549</v>
+      </c>
+      <c r="CH101" t="s">
+        <v>1550</v>
+      </c>
+      <c r="CI101">
+        <v>1</v>
+      </c>
+      <c r="CK101" t="s">
+        <v>1763</v>
+      </c>
+      <c r="CL101" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CM101">
+        <v>1</v>
+      </c>
+      <c r="CO101" t="s">
+        <v>1891</v>
+      </c>
+      <c r="CQ101">
+        <v>1</v>
+      </c>
+      <c r="CS101" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="102" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC102" s="2" t="s">
         <v>1336</v>
       </c>
@@ -13062,8 +18014,35 @@
       <c r="CF102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG102" t="s">
+        <v>1551</v>
+      </c>
+      <c r="CH102" t="s">
+        <v>586</v>
+      </c>
+      <c r="CI102">
+        <v>1</v>
+      </c>
+      <c r="CK102" t="s">
+        <v>1764</v>
+      </c>
+      <c r="CL102" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CM102">
+        <v>1</v>
+      </c>
+      <c r="CO102" t="s">
+        <v>1892</v>
+      </c>
+      <c r="CQ102">
+        <v>1</v>
+      </c>
+      <c r="CS102" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="103" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC103" s="2" t="s">
         <v>1369</v>
       </c>
@@ -13076,8 +18055,35 @@
       <c r="CF103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG103" t="s">
+        <v>1552</v>
+      </c>
+      <c r="CH103" t="s">
+        <v>586</v>
+      </c>
+      <c r="CI103">
+        <v>1</v>
+      </c>
+      <c r="CK103" t="s">
+        <v>1765</v>
+      </c>
+      <c r="CL103" t="s">
+        <v>1758</v>
+      </c>
+      <c r="CM103">
+        <v>1</v>
+      </c>
+      <c r="CO103" t="s">
+        <v>1893</v>
+      </c>
+      <c r="CQ103">
+        <v>1</v>
+      </c>
+      <c r="CS103" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="104" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC104" s="2" t="s">
         <v>1326</v>
       </c>
@@ -13090,8 +18096,35 @@
       <c r="CF104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG104" t="s">
+        <v>1553</v>
+      </c>
+      <c r="CH104" t="s">
+        <v>1534</v>
+      </c>
+      <c r="CI104">
+        <v>1</v>
+      </c>
+      <c r="CK104" t="s">
+        <v>1766</v>
+      </c>
+      <c r="CL104" t="s">
+        <v>1767</v>
+      </c>
+      <c r="CM104">
+        <v>1</v>
+      </c>
+      <c r="CO104" t="s">
+        <v>1894</v>
+      </c>
+      <c r="CQ104">
+        <v>1</v>
+      </c>
+      <c r="CS104" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="105" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC105" s="2" t="s">
         <v>1370</v>
       </c>
@@ -13104,8 +18137,35 @@
       <c r="CF105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG105" t="s">
+        <v>1554</v>
+      </c>
+      <c r="CH105" t="s">
+        <v>1555</v>
+      </c>
+      <c r="CI105">
+        <v>1</v>
+      </c>
+      <c r="CK105" t="s">
+        <v>1768</v>
+      </c>
+      <c r="CL105" t="s">
+        <v>1758</v>
+      </c>
+      <c r="CM105">
+        <v>1</v>
+      </c>
+      <c r="CO105" t="s">
+        <v>1895</v>
+      </c>
+      <c r="CQ105">
+        <v>1</v>
+      </c>
+      <c r="CS105" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="106" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC106" s="2" t="s">
         <v>1314</v>
       </c>
@@ -13118,8 +18178,35 @@
       <c r="CF106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG106" t="s">
+        <v>1556</v>
+      </c>
+      <c r="CH106" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CI106">
+        <v>1</v>
+      </c>
+      <c r="CK106" t="s">
+        <v>1769</v>
+      </c>
+      <c r="CL106" t="s">
+        <v>1770</v>
+      </c>
+      <c r="CM106">
+        <v>1</v>
+      </c>
+      <c r="CO106" t="s">
+        <v>1896</v>
+      </c>
+      <c r="CQ106">
+        <v>1</v>
+      </c>
+      <c r="CS106" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="107" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC107" s="2" t="s">
         <v>1371</v>
       </c>
@@ -13132,8 +18219,35 @@
       <c r="CF107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG107" t="s">
+        <v>1558</v>
+      </c>
+      <c r="CH107" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CI107">
+        <v>1</v>
+      </c>
+      <c r="CK107" t="s">
+        <v>1771</v>
+      </c>
+      <c r="CL107" t="s">
+        <v>1758</v>
+      </c>
+      <c r="CM107">
+        <v>1</v>
+      </c>
+      <c r="CO107" t="s">
+        <v>1897</v>
+      </c>
+      <c r="CQ107">
+        <v>1</v>
+      </c>
+      <c r="CS107" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="108" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC108" s="2" t="s">
         <v>1275</v>
       </c>
@@ -13146,8 +18260,35 @@
       <c r="CF108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG108" t="s">
+        <v>1559</v>
+      </c>
+      <c r="CH108" t="s">
+        <v>1560</v>
+      </c>
+      <c r="CI108">
+        <v>1</v>
+      </c>
+      <c r="CK108" t="s">
+        <v>1772</v>
+      </c>
+      <c r="CL108" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CM108">
+        <v>1</v>
+      </c>
+      <c r="CO108" t="s">
+        <v>1898</v>
+      </c>
+      <c r="CQ108">
+        <v>1</v>
+      </c>
+      <c r="CS108" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="109" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC109" s="2" t="s">
         <v>1372</v>
       </c>
@@ -13160,8 +18301,35 @@
       <c r="CF109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG109" t="s">
+        <v>1561</v>
+      </c>
+      <c r="CH109" t="s">
+        <v>1562</v>
+      </c>
+      <c r="CI109">
+        <v>1</v>
+      </c>
+      <c r="CK109" t="s">
+        <v>1773</v>
+      </c>
+      <c r="CL109" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CM109">
+        <v>1</v>
+      </c>
+      <c r="CO109" t="s">
+        <v>1899</v>
+      </c>
+      <c r="CQ109">
+        <v>1</v>
+      </c>
+      <c r="CS109" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="110" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC110" s="2" t="s">
         <v>1327</v>
       </c>
@@ -13174,8 +18342,35 @@
       <c r="CF110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG110" t="s">
+        <v>1563</v>
+      </c>
+      <c r="CH110" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CI110">
+        <v>1</v>
+      </c>
+      <c r="CK110" t="s">
+        <v>1774</v>
+      </c>
+      <c r="CL110" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CM110">
+        <v>1</v>
+      </c>
+      <c r="CO110" t="s">
+        <v>1900</v>
+      </c>
+      <c r="CQ110">
+        <v>1</v>
+      </c>
+      <c r="CS110" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="111" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC111" s="2" t="s">
         <v>1328</v>
       </c>
@@ -13188,8 +18383,29 @@
       <c r="CF111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG111" t="s">
+        <v>1564</v>
+      </c>
+      <c r="CH111" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CI111">
+        <v>1</v>
+      </c>
+      <c r="CK111" t="s">
+        <v>1775</v>
+      </c>
+      <c r="CL111" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CM111">
+        <v>1</v>
+      </c>
+      <c r="CS111" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="112" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC112" s="2" t="s">
         <v>1373</v>
       </c>
@@ -13202,8 +18418,29 @@
       <c r="CF112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG112" t="s">
+        <v>1565</v>
+      </c>
+      <c r="CH112" t="s">
+        <v>1555</v>
+      </c>
+      <c r="CI112">
+        <v>1</v>
+      </c>
+      <c r="CK112" t="s">
+        <v>1776</v>
+      </c>
+      <c r="CL112" t="s">
+        <v>1767</v>
+      </c>
+      <c r="CM112">
+        <v>1</v>
+      </c>
+      <c r="CS112" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="113" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC113" s="2" t="s">
         <v>1315</v>
       </c>
@@ -13216,8 +18453,29 @@
       <c r="CF113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG113" t="s">
+        <v>1566</v>
+      </c>
+      <c r="CH113" t="s">
+        <v>1567</v>
+      </c>
+      <c r="CI113">
+        <v>1</v>
+      </c>
+      <c r="CK113" t="s">
+        <v>1777</v>
+      </c>
+      <c r="CL113" t="s">
+        <v>1758</v>
+      </c>
+      <c r="CM113">
+        <v>1</v>
+      </c>
+      <c r="CS113" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="114" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC114" s="2" t="s">
         <v>1374</v>
       </c>
@@ -13230,8 +18488,29 @@
       <c r="CF114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG114" t="s">
+        <v>1568</v>
+      </c>
+      <c r="CH114" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CI114">
+        <v>1</v>
+      </c>
+      <c r="CK114" t="s">
+        <v>1778</v>
+      </c>
+      <c r="CL114" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CM114">
+        <v>1</v>
+      </c>
+      <c r="CS114" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="115" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC115" s="2" t="s">
         <v>1375</v>
       </c>
@@ -13244,8 +18523,29 @@
       <c r="CF115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG115" t="s">
+        <v>1569</v>
+      </c>
+      <c r="CH115" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CI115">
+        <v>1</v>
+      </c>
+      <c r="CK115" t="s">
+        <v>1779</v>
+      </c>
+      <c r="CL115" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CM115">
+        <v>1</v>
+      </c>
+      <c r="CS115" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="116" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC116" s="2" t="s">
         <v>1300</v>
       </c>
@@ -13258,8 +18558,29 @@
       <c r="CF116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG116" t="s">
+        <v>1570</v>
+      </c>
+      <c r="CH116" t="s">
+        <v>1571</v>
+      </c>
+      <c r="CI116">
+        <v>1</v>
+      </c>
+      <c r="CK116" t="s">
+        <v>1780</v>
+      </c>
+      <c r="CL116" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CM116">
+        <v>1</v>
+      </c>
+      <c r="CS116" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="117" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC117" s="2" t="s">
         <v>1376</v>
       </c>
@@ -13272,8 +18593,29 @@
       <c r="CF117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG117" t="s">
+        <v>1572</v>
+      </c>
+      <c r="CH117" t="s">
+        <v>1555</v>
+      </c>
+      <c r="CI117">
+        <v>1</v>
+      </c>
+      <c r="CK117" t="s">
+        <v>1781</v>
+      </c>
+      <c r="CL117" t="s">
+        <v>1758</v>
+      </c>
+      <c r="CM117">
+        <v>1</v>
+      </c>
+      <c r="CS117" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="118" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC118" s="2" t="s">
         <v>1301</v>
       </c>
@@ -13286,8 +18628,29 @@
       <c r="CF118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG118" t="s">
+        <v>1573</v>
+      </c>
+      <c r="CH118" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CI118">
+        <v>1</v>
+      </c>
+      <c r="CK118" t="s">
+        <v>1782</v>
+      </c>
+      <c r="CL118" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CM118">
+        <v>1</v>
+      </c>
+      <c r="CS118" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="119" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC119" s="2" t="s">
         <v>1277</v>
       </c>
@@ -13300,8 +18663,29 @@
       <c r="CF119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG119" t="s">
+        <v>1574</v>
+      </c>
+      <c r="CH119" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CI119">
+        <v>1</v>
+      </c>
+      <c r="CK119" t="s">
+        <v>1783</v>
+      </c>
+      <c r="CL119" t="s">
+        <v>1758</v>
+      </c>
+      <c r="CM119">
+        <v>1</v>
+      </c>
+      <c r="CS119" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="120" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC120" s="2" t="s">
         <v>1278</v>
       </c>
@@ -13314,8 +18698,29 @@
       <c r="CF120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG120" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CH120" t="s">
+        <v>1555</v>
+      </c>
+      <c r="CI120">
+        <v>1</v>
+      </c>
+      <c r="CK120" t="s">
+        <v>1784</v>
+      </c>
+      <c r="CL120" t="s">
+        <v>1767</v>
+      </c>
+      <c r="CM120">
+        <v>1</v>
+      </c>
+      <c r="CS120" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="121" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC121" s="2" t="s">
         <v>1378</v>
       </c>
@@ -13328,8 +18733,29 @@
       <c r="CF121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG121" t="s">
+        <v>1576</v>
+      </c>
+      <c r="CH121" t="s">
+        <v>1577</v>
+      </c>
+      <c r="CI121">
+        <v>1</v>
+      </c>
+      <c r="CK121" t="s">
+        <v>1785</v>
+      </c>
+      <c r="CL121" t="s">
+        <v>1641</v>
+      </c>
+      <c r="CM121">
+        <v>1</v>
+      </c>
+      <c r="CS121" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="122" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC122" s="2" t="s">
         <v>1318</v>
       </c>
@@ -13342,8 +18768,29 @@
       <c r="CF122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG122" t="s">
+        <v>1578</v>
+      </c>
+      <c r="CH122" t="s">
+        <v>1579</v>
+      </c>
+      <c r="CI122">
+        <v>1</v>
+      </c>
+      <c r="CK122" t="s">
+        <v>1786</v>
+      </c>
+      <c r="CL122" t="s">
+        <v>1787</v>
+      </c>
+      <c r="CM122">
+        <v>1</v>
+      </c>
+      <c r="CS122" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="123" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC123" s="2" t="s">
         <v>1279</v>
       </c>
@@ -13356,8 +18803,29 @@
       <c r="CF123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG123" t="s">
+        <v>1580</v>
+      </c>
+      <c r="CH123" t="s">
+        <v>1581</v>
+      </c>
+      <c r="CI123">
+        <v>1</v>
+      </c>
+      <c r="CK123" t="s">
+        <v>1788</v>
+      </c>
+      <c r="CL123" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CM123">
+        <v>1</v>
+      </c>
+      <c r="CS123" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="124" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC124" s="2" t="s">
         <v>1280</v>
       </c>
@@ -13370,8 +18838,29 @@
       <c r="CF124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG124" t="s">
+        <v>1582</v>
+      </c>
+      <c r="CH124" t="s">
+        <v>1583</v>
+      </c>
+      <c r="CI124">
+        <v>1</v>
+      </c>
+      <c r="CK124" t="s">
+        <v>1789</v>
+      </c>
+      <c r="CL124" t="s">
+        <v>1790</v>
+      </c>
+      <c r="CM124">
+        <v>1</v>
+      </c>
+      <c r="CS124" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="125" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC125" s="2" t="s">
         <v>1381</v>
       </c>
@@ -13384,8 +18873,29 @@
       <c r="CF125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG125" t="s">
+        <v>1584</v>
+      </c>
+      <c r="CH125" t="s">
+        <v>1585</v>
+      </c>
+      <c r="CI125">
+        <v>1</v>
+      </c>
+      <c r="CK125" t="s">
+        <v>1791</v>
+      </c>
+      <c r="CL125" t="s">
+        <v>1641</v>
+      </c>
+      <c r="CM125">
+        <v>1</v>
+      </c>
+      <c r="CS125" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="126" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC126" s="2" t="s">
         <v>1331</v>
       </c>
@@ -13398,8 +18908,20 @@
       <c r="CF126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG126" t="s">
+        <v>1586</v>
+      </c>
+      <c r="CH126" t="s">
+        <v>1585</v>
+      </c>
+      <c r="CI126">
+        <v>1</v>
+      </c>
+      <c r="CS126" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="127" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC127" s="2" t="s">
         <v>1332</v>
       </c>
@@ -13412,8 +18934,20 @@
       <c r="CF127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG127" t="s">
+        <v>1587</v>
+      </c>
+      <c r="CH127" t="s">
+        <v>1529</v>
+      </c>
+      <c r="CI127">
+        <v>1</v>
+      </c>
+      <c r="CS127" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="128" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC128" s="2" t="s">
         <v>1259</v>
       </c>
@@ -13426,8 +18960,20 @@
       <c r="CF128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG128" t="s">
+        <v>1588</v>
+      </c>
+      <c r="CH128" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CI128">
+        <v>1</v>
+      </c>
+      <c r="CS128" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="129" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC129" s="2" t="s">
         <v>1260</v>
       </c>
@@ -13440,8 +18986,20 @@
       <c r="CF129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG129" t="s">
+        <v>1589</v>
+      </c>
+      <c r="CH129" t="s">
+        <v>584</v>
+      </c>
+      <c r="CI129">
+        <v>1</v>
+      </c>
+      <c r="CS129" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="130" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC130" s="2" t="s">
         <v>1383</v>
       </c>
@@ -13454,8 +19012,20 @@
       <c r="CF130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG130" t="s">
+        <v>1590</v>
+      </c>
+      <c r="CH130" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CI130">
+        <v>1</v>
+      </c>
+      <c r="CS130" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="131" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC131" s="2" t="s">
         <v>1338</v>
       </c>
@@ -13468,8 +19038,20 @@
       <c r="CF131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG131" t="s">
+        <v>1591</v>
+      </c>
+      <c r="CH131" t="s">
+        <v>579</v>
+      </c>
+      <c r="CI131">
+        <v>1</v>
+      </c>
+      <c r="CS131" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="132" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC132" s="2" t="s">
         <v>1303</v>
       </c>
@@ -13482,8 +19064,20 @@
       <c r="CF132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG132" t="s">
+        <v>1592</v>
+      </c>
+      <c r="CH132" t="s">
+        <v>578</v>
+      </c>
+      <c r="CI132">
+        <v>1</v>
+      </c>
+      <c r="CS132" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="133" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC133" s="2" t="s">
         <v>1385</v>
       </c>
@@ -13496,8 +19090,20 @@
       <c r="CF133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG133" t="s">
+        <v>1593</v>
+      </c>
+      <c r="CH133" t="s">
+        <v>1529</v>
+      </c>
+      <c r="CI133">
+        <v>1</v>
+      </c>
+      <c r="CS133" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="134" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC134" s="2" t="s">
         <v>1387</v>
       </c>
@@ -13510,8 +19116,20 @@
       <c r="CF134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG134" t="s">
+        <v>1594</v>
+      </c>
+      <c r="CH134" t="s">
+        <v>1429</v>
+      </c>
+      <c r="CI134">
+        <v>1</v>
+      </c>
+      <c r="CS134" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="135" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC135" s="2" t="s">
         <v>1282</v>
       </c>
@@ -13524,8 +19142,20 @@
       <c r="CF135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG135" t="s">
+        <v>1595</v>
+      </c>
+      <c r="CH135" t="s">
+        <v>1596</v>
+      </c>
+      <c r="CI135">
+        <v>1</v>
+      </c>
+      <c r="CS135" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="136" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC136" s="2" t="s">
         <v>1388</v>
       </c>
@@ -13538,8 +19168,20 @@
       <c r="CF136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG136" t="s">
+        <v>1597</v>
+      </c>
+      <c r="CH136" t="s">
+        <v>1598</v>
+      </c>
+      <c r="CI136">
+        <v>1</v>
+      </c>
+      <c r="CS136" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="137" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC137" s="2" t="s">
         <v>1247</v>
       </c>
@@ -13552,8 +19194,20 @@
       <c r="CF137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG137" t="s">
+        <v>1599</v>
+      </c>
+      <c r="CH137" t="s">
+        <v>1600</v>
+      </c>
+      <c r="CI137">
+        <v>1</v>
+      </c>
+      <c r="CS137" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="138" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC138" s="2" t="s">
         <v>1248</v>
       </c>
@@ -13566,8 +19220,20 @@
       <c r="CF138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG138" t="s">
+        <v>1601</v>
+      </c>
+      <c r="CH138" t="s">
+        <v>1602</v>
+      </c>
+      <c r="CI138">
+        <v>1</v>
+      </c>
+      <c r="CS138" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="139" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC139" s="2" t="s">
         <v>1333</v>
       </c>
@@ -13580,8 +19246,20 @@
       <c r="CF139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG139" t="s">
+        <v>1603</v>
+      </c>
+      <c r="CH139" t="s">
+        <v>1604</v>
+      </c>
+      <c r="CI139">
+        <v>1</v>
+      </c>
+      <c r="CS139" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="140" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC140" s="2" t="s">
         <v>1334</v>
       </c>
@@ -13594,8 +19272,20 @@
       <c r="CF140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG140" t="s">
+        <v>1605</v>
+      </c>
+      <c r="CH140" t="s">
+        <v>1606</v>
+      </c>
+      <c r="CI140">
+        <v>1</v>
+      </c>
+      <c r="CS140" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="141" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC141" s="2" t="s">
         <v>1391</v>
       </c>
@@ -13608,8 +19298,20 @@
       <c r="CF141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG141" t="s">
+        <v>1607</v>
+      </c>
+      <c r="CH141" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CI141">
+        <v>1</v>
+      </c>
+      <c r="CS141" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="142" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC142" s="2" t="s">
         <v>1261</v>
       </c>
@@ -13622,8 +19324,20 @@
       <c r="CF142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG142" t="s">
+        <v>1609</v>
+      </c>
+      <c r="CH142" t="s">
+        <v>1610</v>
+      </c>
+      <c r="CI142">
+        <v>1</v>
+      </c>
+      <c r="CS142" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="143" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC143" s="2" t="s">
         <v>1262</v>
       </c>
@@ -13636,8 +19350,20 @@
       <c r="CF143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG143" t="s">
+        <v>1611</v>
+      </c>
+      <c r="CH143" t="s">
+        <v>1612</v>
+      </c>
+      <c r="CI143">
+        <v>1</v>
+      </c>
+      <c r="CS143" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="144" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC144" s="2" t="s">
         <v>1392</v>
       </c>
@@ -13650,8 +19376,20 @@
       <c r="CF144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG144" t="s">
+        <v>1613</v>
+      </c>
+      <c r="CH144" t="s">
+        <v>1614</v>
+      </c>
+      <c r="CI144">
+        <v>1</v>
+      </c>
+      <c r="CS144" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="145" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC145" s="2" t="s">
         <v>1393</v>
       </c>
@@ -13664,8 +19402,20 @@
       <c r="CF145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG145" t="s">
+        <v>1615</v>
+      </c>
+      <c r="CH145" t="s">
+        <v>1616</v>
+      </c>
+      <c r="CI145">
+        <v>1</v>
+      </c>
+      <c r="CS145" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="146" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC146" s="2" t="s">
         <v>1285</v>
       </c>
@@ -13678,8 +19428,20 @@
       <c r="CF146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG146" t="s">
+        <v>1617</v>
+      </c>
+      <c r="CH146" t="s">
+        <v>1618</v>
+      </c>
+      <c r="CI146">
+        <v>1</v>
+      </c>
+      <c r="CS146" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="147" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC147" s="2" t="s">
         <v>1286</v>
       </c>
@@ -13692,8 +19454,20 @@
       <c r="CF147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG147" t="s">
+        <v>1619</v>
+      </c>
+      <c r="CH147" t="s">
+        <v>1620</v>
+      </c>
+      <c r="CI147">
+        <v>1</v>
+      </c>
+      <c r="CS147" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="148" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC148" s="2" t="s">
         <v>1394</v>
       </c>
@@ -13706,8 +19480,20 @@
       <c r="CF148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG148" t="s">
+        <v>1621</v>
+      </c>
+      <c r="CH148" t="s">
+        <v>1620</v>
+      </c>
+      <c r="CI148">
+        <v>1</v>
+      </c>
+      <c r="CS148" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="149" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC149" s="2" t="s">
         <v>1288</v>
       </c>
@@ -13720,8 +19506,20 @@
       <c r="CF149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG149" t="s">
+        <v>1622</v>
+      </c>
+      <c r="CH149" t="s">
+        <v>1620</v>
+      </c>
+      <c r="CI149">
+        <v>1</v>
+      </c>
+      <c r="CS149" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="150" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC150" s="2" t="s">
         <v>1290</v>
       </c>
@@ -13734,8 +19532,20 @@
       <c r="CF150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG150" t="s">
+        <v>1623</v>
+      </c>
+      <c r="CH150" t="s">
+        <v>1620</v>
+      </c>
+      <c r="CI150">
+        <v>1</v>
+      </c>
+      <c r="CS150" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="151" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC151" s="2" t="s">
         <v>1396</v>
       </c>
@@ -13748,8 +19558,20 @@
       <c r="CF151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG151" t="s">
+        <v>1624</v>
+      </c>
+      <c r="CH151" t="s">
+        <v>1534</v>
+      </c>
+      <c r="CI151">
+        <v>1</v>
+      </c>
+      <c r="CS151" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="152" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC152" s="2" t="s">
         <v>1249</v>
       </c>
@@ -13762,8 +19584,20 @@
       <c r="CF152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG152" t="s">
+        <v>1625</v>
+      </c>
+      <c r="CH152" t="s">
+        <v>1626</v>
+      </c>
+      <c r="CI152">
+        <v>1</v>
+      </c>
+      <c r="CS152" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="153" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC153" s="2" t="s">
         <v>1250</v>
       </c>
@@ -13776,8 +19610,20 @@
       <c r="CF153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG153" t="s">
+        <v>1627</v>
+      </c>
+      <c r="CH153" t="s">
+        <v>1417</v>
+      </c>
+      <c r="CI153">
+        <v>1</v>
+      </c>
+      <c r="CS153" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="154" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC154" s="2" t="s">
         <v>1397</v>
       </c>
@@ -13790,8 +19636,20 @@
       <c r="CF154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG154" t="s">
+        <v>1628</v>
+      </c>
+      <c r="CH154" t="s">
+        <v>1555</v>
+      </c>
+      <c r="CI154">
+        <v>1</v>
+      </c>
+      <c r="CS154" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="155" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC155" s="2" t="s">
         <v>1264</v>
       </c>
@@ -13804,8 +19662,20 @@
       <c r="CF155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG155" t="s">
+        <v>1629</v>
+      </c>
+      <c r="CH155" t="s">
+        <v>1555</v>
+      </c>
+      <c r="CI155">
+        <v>1</v>
+      </c>
+      <c r="CS155" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="156" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC156" s="2" t="s">
         <v>1400</v>
       </c>
@@ -13818,8 +19688,20 @@
       <c r="CF156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG156" t="s">
+        <v>1473</v>
+      </c>
+      <c r="CH156" t="s">
+        <v>1473</v>
+      </c>
+      <c r="CI156">
+        <v>1</v>
+      </c>
+      <c r="CS156" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="157" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC157" s="2" t="s">
         <v>1265</v>
       </c>
@@ -13832,8 +19714,20 @@
       <c r="CF157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG157" t="s">
+        <v>1429</v>
+      </c>
+      <c r="CH157" t="s">
+        <v>1429</v>
+      </c>
+      <c r="CI157">
+        <v>1</v>
+      </c>
+      <c r="CS157" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="158" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC158" s="2" t="s">
         <v>1341</v>
       </c>
@@ -13846,8 +19740,20 @@
       <c r="CF158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG158" t="s">
+        <v>1630</v>
+      </c>
+      <c r="CH158" t="s">
+        <v>1471</v>
+      </c>
+      <c r="CI158">
+        <v>1</v>
+      </c>
+      <c r="CS158" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="159" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC159" s="2" t="s">
         <v>1402</v>
       </c>
@@ -13860,8 +19766,20 @@
       <c r="CF159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CG159" t="s">
+        <v>1631</v>
+      </c>
+      <c r="CH159" t="s">
+        <v>1513</v>
+      </c>
+      <c r="CI159">
+        <v>1</v>
+      </c>
+      <c r="CS159" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="160" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC160" s="2" t="s">
         <v>1253</v>
       </c>
@@ -13874,8 +19792,14 @@
       <c r="CF160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CI160">
+        <v>1</v>
+      </c>
+      <c r="CS160" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="161" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC161" s="2" t="s">
         <v>1254</v>
       </c>
@@ -13888,8 +19812,14 @@
       <c r="CF161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CI161">
+        <v>1</v>
+      </c>
+      <c r="CS161" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="162" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC162" s="2" t="s">
         <v>1405</v>
       </c>
@@ -13902,8 +19832,14 @@
       <c r="CF162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CI162">
+        <v>1</v>
+      </c>
+      <c r="CS162" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="163" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC163" s="2" t="s">
         <v>1293</v>
       </c>
@@ -13916,8 +19852,14 @@
       <c r="CF163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CI163">
+        <v>1</v>
+      </c>
+      <c r="CS163" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="164" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC164" s="2" t="s">
         <v>1294</v>
       </c>
@@ -13930,8 +19872,14 @@
       <c r="CF164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CI164">
+        <v>1</v>
+      </c>
+      <c r="CS164" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="165" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC165" s="2" t="s">
         <v>1407</v>
       </c>
@@ -13944,8 +19892,14 @@
       <c r="CF165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CI165">
+        <v>1</v>
+      </c>
+      <c r="CS165" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="166" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC166" s="2" t="s">
         <v>1255</v>
       </c>
@@ -13958,8 +19912,14 @@
       <c r="CF166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CI166">
+        <v>1</v>
+      </c>
+      <c r="CS166" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="167" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC167" s="2" t="s">
         <v>1256</v>
       </c>
@@ -13972,8 +19932,14 @@
       <c r="CF167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CI167">
+        <v>1</v>
+      </c>
+      <c r="CS167" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="168" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC168" s="2" t="s">
         <v>1268</v>
       </c>
@@ -13986,8 +19952,14 @@
       <c r="CF168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="81:84" x14ac:dyDescent="0.25">
+      <c r="CI168">
+        <v>1</v>
+      </c>
+      <c r="CS168" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="169" spans="81:97" x14ac:dyDescent="0.25">
       <c r="CC169" s="2" t="s">
         <v>1410</v>
       </c>
@@ -14000,22 +19972,483 @@
       <c r="CF169">
         <v>1</v>
       </c>
+      <c r="CI169">
+        <v>1</v>
+      </c>
+      <c r="CS169" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="170" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CS170" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="171" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CS171" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="172" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CS172" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="173" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CS173" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="174" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CS174" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="175" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CS175" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="176" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CS176" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS177" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="178" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS178" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="179" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS179" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="180" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS180" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="181" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS181" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="182" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS182" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="183" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS183" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="184" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS184" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="185" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS185" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="186" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS186" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="187" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS187" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="188" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS188" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="189" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS189" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="190" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS190" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="191" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS191" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="192" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS192" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="193" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS193" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="194" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS194" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="195" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS195" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="196" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS196" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="197" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS197" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="198" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS198" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="199" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS199" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="200" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS200" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="201" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS201" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="202" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS202" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="203" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS203" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="204" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS204" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="205" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS205" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="206" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS206" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="207" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS207" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="208" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS208" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="209" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS209" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="210" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS210" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="211" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS211" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="212" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS212" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="213" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS213" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="214" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS214" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="215" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS215" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="216" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS216" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="217" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS217" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="218" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS218" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="219" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS219" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="220" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS220" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="221" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS221" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="222" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS222" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="223" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS223" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="224" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS224" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="225" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS225" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="226" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS226" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="227" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS227" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="228" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS228" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="229" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS229" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="230" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS230" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="231" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS231" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="232" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS232" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="233" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS233" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="234" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS234" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="235" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS235" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="236" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS236" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="237" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS237" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="238" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS238" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="239" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS239" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="240" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS240" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="241" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS241" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="242" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS242" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="243" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS243" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="244" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS244" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="245" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS245" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="246" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS246" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="247" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS247" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="248" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS248" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="249" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS249" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="250" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS250" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="251" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS251" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="252" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS252" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="253" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS253" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="254" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS254" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="255" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS255" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="256" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS256" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="257" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS257" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="258" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS258" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="259" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS259" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="260" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CS260" t="s">
+        <v>2160</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BM2:BP48">
-    <sortCondition sortBy="cellColor" ref="BM2:BM48" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="BM2:BM48" dxfId="7"/>
     <sortCondition ref="BM2:BM48"/>
   </sortState>
   <conditionalFormatting sqref="A1:ZZ200">
-    <cfRule type="containsText" dxfId="16" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+    <cfRule type="containsText" dxfId="6" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="5" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="containsText" dxfId="14" priority="25" stopIfTrue="1" operator="containsText" text="Bubble">
+    <cfRule type="containsText" dxfId="4" priority="25" stopIfTrue="1" operator="containsText" text="Bubble">
       <formula>NOT(ISERROR(SEARCH("Bubble",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15383,16 +21816,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B168">
-    <cfRule type="containsText" dxfId="13" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
+    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
+    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="Tapioca">
       <formula>NOT(ISERROR(SEARCH("Tapioca",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
+    <cfRule type="containsText" dxfId="1" priority="3" stopIfTrue="1" operator="containsText" text="Starfruit">
       <formula>NOT(ISERROR(SEARCH("Starfruit",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
+    <cfRule type="containsText" dxfId="0" priority="4" stopIfTrue="1" operator="containsText" text="Moon Cheese">
       <formula>NOT(ISERROR(SEARCH("Moon Cheese",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424E4C41-CB07-42D2-B444-E8E40C26293F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C4A7AB-8F57-4B03-A051-5B15E54E4022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="1890" yWindow="1095" windowWidth="21825" windowHeight="14190" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="2162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="2597">
   <si>
     <t>General Achievements</t>
   </si>
@@ -6543,6 +6543,1311 @@
   </si>
   <si>
     <t>Furniture</t>
+  </si>
+  <si>
+    <t>Luck And Lanterns (Mid Jan - Late Feb)</t>
+  </si>
+  <si>
+    <t>Classic Dragon Costume</t>
+  </si>
+  <si>
+    <t>Classic Dragon Hat</t>
+  </si>
+  <si>
+    <t>Lantern Sweatshirt</t>
+  </si>
+  <si>
+    <t>Silk Tea Skirt</t>
+  </si>
+  <si>
+    <t>Silk Tea Top</t>
+  </si>
+  <si>
+    <t>Luck &amp; Lantern Wallpaper</t>
+  </si>
+  <si>
+    <t>Luck &amp; Lantern Flooring</t>
+  </si>
+  <si>
+    <t>Luck &amp; Lantern Event Stand</t>
+  </si>
+  <si>
+    <t>Dragon Pearl Display</t>
+  </si>
+  <si>
+    <t>Dragon Floor Pillow</t>
+  </si>
+  <si>
+    <t>Tea Table</t>
+  </si>
+  <si>
+    <t>Dragon Tea Set</t>
+  </si>
+  <si>
+    <t>Paper Lantern</t>
+  </si>
+  <si>
+    <t>Dragon Room Divider</t>
+  </si>
+  <si>
+    <t>Standing Paper Lantern</t>
+  </si>
+  <si>
+    <t>Peacock Qipao</t>
+  </si>
+  <si>
+    <t>Classic Snake Costume</t>
+  </si>
+  <si>
+    <t>Classic Snake Hat</t>
+  </si>
+  <si>
+    <t>Red Tang Suit</t>
+  </si>
+  <si>
+    <t>Lantern Backpack</t>
+  </si>
+  <si>
+    <t>Lantern Arch</t>
+  </si>
+  <si>
+    <t>Lucky Evenlope Display</t>
+  </si>
+  <si>
+    <t>Wooden Lantern</t>
+  </si>
+  <si>
+    <t>Wooden Plant Stand</t>
+  </si>
+  <si>
+    <t>Lucky Stool</t>
+  </si>
+  <si>
+    <t>Lucky String Lights</t>
+  </si>
+  <si>
+    <t>Snake Tea Set</t>
+  </si>
+  <si>
+    <t>Lucky Vase</t>
+  </si>
+  <si>
+    <t>Heart Bow</t>
+  </si>
+  <si>
+    <t>Sweetheart Dress</t>
+  </si>
+  <si>
+    <t>Rockability Suit</t>
+  </si>
+  <si>
+    <t>Draped Caftan</t>
+  </si>
+  <si>
+    <t>Love Bug Hat</t>
+  </si>
+  <si>
+    <t>Heartwing</t>
+  </si>
+  <si>
+    <t>Heart Balloon Bouguet</t>
+  </si>
+  <si>
+    <t>Heart Bed</t>
+  </si>
+  <si>
+    <t>Double Heart Bed</t>
+  </si>
+  <si>
+    <t>Heart Dresser</t>
+  </si>
+  <si>
+    <t>Hugs &amp; Hearts Habitat</t>
+  </si>
+  <si>
+    <t>Hugs &amp; Hearts Flooring</t>
+  </si>
+  <si>
+    <t>Heart Lamp</t>
+  </si>
+  <si>
+    <t>Heart Plant Bouquet</t>
+  </si>
+  <si>
+    <t>Heart Side Table</t>
+  </si>
+  <si>
+    <t>Hugs &amp; Hearts Wallpaper</t>
+  </si>
+  <si>
+    <t>Rose Dress</t>
+  </si>
+  <si>
+    <t>Heart Glasses</t>
+  </si>
+  <si>
+    <t>Heartwing Cape</t>
+  </si>
+  <si>
+    <t>Heart Wings</t>
+  </si>
+  <si>
+    <t>Rose Backpack</t>
+  </si>
+  <si>
+    <t>Heart Arch</t>
+  </si>
+  <si>
+    <t>Heart Dining Chair</t>
+  </si>
+  <si>
+    <t>Heart Table</t>
+  </si>
+  <si>
+    <t>Heart Divider</t>
+  </si>
+  <si>
+    <t>Heart Ottoman</t>
+  </si>
+  <si>
+    <t>Rose Petals</t>
+  </si>
+  <si>
+    <t>Loveseat</t>
+  </si>
+  <si>
+    <t>Heartwing Tree</t>
+  </si>
+  <si>
+    <t>Heart Wreath Display</t>
+  </si>
+  <si>
+    <t>Hugs And Hearts (Early Feb - Late Feb)</t>
+  </si>
+  <si>
+    <t>Springtime Celebration (Early Mar - Mid Apr)</t>
+  </si>
+  <si>
+    <t>Male Springtime Kimono</t>
+  </si>
+  <si>
+    <t>Female Springtime Kimono</t>
+  </si>
+  <si>
+    <t>Springtime Sakura Clip</t>
+  </si>
+  <si>
+    <t>Gray Male Kimono</t>
+  </si>
+  <si>
+    <t>Blush Female Kimono</t>
+  </si>
+  <si>
+    <t>Large Springtime Bridge</t>
+  </si>
+  <si>
+    <t>Small Springtime Bridge</t>
+  </si>
+  <si>
+    <t>Small Springtime Bush</t>
+  </si>
+  <si>
+    <t>Springtime Floor Cushion</t>
+  </si>
+  <si>
+    <t>Springtime Flooring</t>
+  </si>
+  <si>
+    <t>Springtime Torii Gate</t>
+  </si>
+  <si>
+    <t>Springtime Standing Lantern</t>
+  </si>
+  <si>
+    <t>Springtime Picnic Blanket</t>
+  </si>
+  <si>
+    <t>Springtime Pond</t>
+  </si>
+  <si>
+    <t>Sakura Bonsai</t>
+  </si>
+  <si>
+    <t>Sakura Pond</t>
+  </si>
+  <si>
+    <t>Small Sakura Tree</t>
+  </si>
+  <si>
+    <t>Stepping Stone</t>
+  </si>
+  <si>
+    <t>Stone Pedestal</t>
+  </si>
+  <si>
+    <t>Springtime Wallpaper</t>
+  </si>
+  <si>
+    <t>Sakura Vase</t>
+  </si>
+  <si>
+    <t>Sakura Platform Bed</t>
+  </si>
+  <si>
+    <t>Springtime Coffee Table</t>
+  </si>
+  <si>
+    <t>Sakura Ikabana</t>
+  </si>
+  <si>
+    <t>Small Paper Lantern</t>
+  </si>
+  <si>
+    <t>Sakura Rug</t>
+  </si>
+  <si>
+    <t>Sand Garden</t>
+  </si>
+  <si>
+    <t>Sakura Flower Side Table</t>
+  </si>
+  <si>
+    <t>Sakura Topiary</t>
+  </si>
+  <si>
+    <t>Sakura Vanity</t>
+  </si>
+  <si>
+    <t>Large Sakura Vase</t>
+  </si>
+  <si>
+    <t>Pink Ornate Female Hakama</t>
+  </si>
+  <si>
+    <t>Sakura Backpack</t>
+  </si>
+  <si>
+    <t>Happy Haven Days (Mid Mar - Late Mar)</t>
+  </si>
+  <si>
+    <t>Colorblaze Carnival (Late Mar - Mid Apr)</t>
+  </si>
+  <si>
+    <t>Imagination Celebration (Mid Apr - Late May)</t>
+  </si>
+  <si>
+    <t>Month of Meh (All of May)</t>
+  </si>
+  <si>
+    <t>Under The Sea Celebration (Late May - Early July)</t>
+  </si>
+  <si>
+    <t>Paper Parade (Mid June - Early July)</t>
+  </si>
+  <si>
+    <t>Sunshine Celebration (Early July - Late Aug)</t>
+  </si>
+  <si>
+    <t>Friendship Festival (Late July - Mid Aug)</t>
+  </si>
+  <si>
+    <t>Scholastic Celebration (Late Aug - Mid Sep)</t>
+  </si>
+  <si>
+    <t>Jam Jamboree (Most of Sep)</t>
+  </si>
+  <si>
+    <t>Spooky Celebration (Late Sep - Early Nov)</t>
+  </si>
+  <si>
+    <t>Give and Gather Celebration (Mid Nov - Mid Dec)</t>
+  </si>
+  <si>
+    <t>Lighttime Jubilee (Mid Dec - Early Jan)</t>
+  </si>
+  <si>
+    <t>Confetti Cake Recipe</t>
+  </si>
+  <si>
+    <t>Confetti Cake</t>
+  </si>
+  <si>
+    <t>Happy Haven Gown</t>
+  </si>
+  <si>
+    <t>Happy Haven Tux Jacket</t>
+  </si>
+  <si>
+    <t>Happy Haven Slacks</t>
+  </si>
+  <si>
+    <t>Happy Haven Crown</t>
+  </si>
+  <si>
+    <t>Happy Haven Cake Glasses</t>
+  </si>
+  <si>
+    <t>Happy Haven Tuxedo</t>
+  </si>
+  <si>
+    <t>Happy Haven Cake Backpack</t>
+  </si>
+  <si>
+    <t>Happy Haven Cake Top Hat</t>
+  </si>
+  <si>
+    <t>Happy Haven Dress</t>
+  </si>
+  <si>
+    <t>Colorblaze Blouse</t>
+  </si>
+  <si>
+    <t>Colorblaze Skirt</t>
+  </si>
+  <si>
+    <t>Colorblaze Draped Outfit</t>
+  </si>
+  <si>
+    <t>Colorblaze Dress</t>
+  </si>
+  <si>
+    <t>Colorblaze Marigold Tiara</t>
+  </si>
+  <si>
+    <t>Colorblaze Coffee Table</t>
+  </si>
+  <si>
+    <t>Colorblaze Dining Table</t>
+  </si>
+  <si>
+    <t>Colorblaze Dining Chair</t>
+  </si>
+  <si>
+    <t>Colorblaze Dresser</t>
+  </si>
+  <si>
+    <t>Colorblaze Potted Plant</t>
+  </si>
+  <si>
+    <t>Colorblaze Sofa</t>
+  </si>
+  <si>
+    <t>Colorblaze Ottoman</t>
+  </si>
+  <si>
+    <t>Colorblaze Armchair</t>
+  </si>
+  <si>
+    <t>Colorblaze Bed</t>
+  </si>
+  <si>
+    <t>Colorblaze Flooring</t>
+  </si>
+  <si>
+    <t>Colorblaze Nightstand</t>
+  </si>
+  <si>
+    <t>Colorblaze Side Table</t>
+  </si>
+  <si>
+    <t>Colorblaze Wallpaper</t>
+  </si>
+  <si>
+    <t>Colorblaze Bookcase</t>
+  </si>
+  <si>
+    <t>Colorblaze Double Bed</t>
+  </si>
+  <si>
+    <t>Colorblaze Marigold Dress</t>
+  </si>
+  <si>
+    <t>Marigold Vase</t>
+  </si>
+  <si>
+    <t>Colorblaze Pots</t>
+  </si>
+  <si>
+    <t>Colorblaze Marigold Wallpaper</t>
+  </si>
+  <si>
+    <t>Marigold Arch</t>
+  </si>
+  <si>
+    <t>Colorblaze Canopy</t>
+  </si>
+  <si>
+    <t>Colorblaze Divider</t>
+  </si>
+  <si>
+    <t>Colorblaze Paper Lantern</t>
+  </si>
+  <si>
+    <t>Colorblaze Mirror</t>
+  </si>
+  <si>
+    <t>Colorblaze Rug</t>
+  </si>
+  <si>
+    <t>White Sari</t>
+  </si>
+  <si>
+    <t>White Anarkali</t>
+  </si>
+  <si>
+    <t>Colorblaze Marigold Backpack</t>
+  </si>
+  <si>
+    <t>White Achkan</t>
+  </si>
+  <si>
+    <t>Peach Princess Hat</t>
+  </si>
+  <si>
+    <t>Peach Princess Dress</t>
+  </si>
+  <si>
+    <t>Blue Wizard Hat</t>
+  </si>
+  <si>
+    <t>Blue Wizard Robe</t>
+  </si>
+  <si>
+    <t>Blue Armor</t>
+  </si>
+  <si>
+    <t>Hello Kitty Princess Dress</t>
+  </si>
+  <si>
+    <t>Kuromi Princess Dress</t>
+  </si>
+  <si>
+    <t>My Melody Princess Dress</t>
+  </si>
+  <si>
+    <t>Hello Kitty Princess Hat</t>
+  </si>
+  <si>
+    <t>Kuromi Princess Hat</t>
+  </si>
+  <si>
+    <t>My Melody Princess Hat</t>
+  </si>
+  <si>
+    <t>Imagination Celebration Event Stand</t>
+  </si>
+  <si>
+    <t>Imagination Celebration Wallpaper</t>
+  </si>
+  <si>
+    <t>Imagination Celebration Flooring</t>
+  </si>
+  <si>
+    <t>Stone Column</t>
+  </si>
+  <si>
+    <t>Stone Sconce Column</t>
+  </si>
+  <si>
+    <t>Stone Block Pedestal</t>
+  </si>
+  <si>
+    <t>Mystic Stone Display</t>
+  </si>
+  <si>
+    <t>Royal Bed</t>
+  </si>
+  <si>
+    <t>Royal Double Bed</t>
+  </si>
+  <si>
+    <t>Royal Chair</t>
+  </si>
+  <si>
+    <t>Long Stone Table</t>
+  </si>
+  <si>
+    <t>Stone Half Wall</t>
+  </si>
+  <si>
+    <t>Brazier</t>
+  </si>
+  <si>
+    <t>Royal Banner</t>
+  </si>
+  <si>
+    <t>Gudetama Egg Onesie</t>
+  </si>
+  <si>
+    <t>Gudetama Shirt and Tie</t>
+  </si>
+  <si>
+    <t>Gudetama Oversized Hoodie</t>
+  </si>
+  <si>
+    <t>Gudetama Egg Dress</t>
+  </si>
+  <si>
+    <t>Gudetama Sushi Hat</t>
+  </si>
+  <si>
+    <t>Gudetama Arm Chair</t>
+  </si>
+  <si>
+    <t>Gudetama Bed</t>
+  </si>
+  <si>
+    <t>Gudetama Double Bed</t>
+  </si>
+  <si>
+    <t>Gudetama Bookshelf</t>
+  </si>
+  <si>
+    <t>Gudetama Coffee Table</t>
+  </si>
+  <si>
+    <t>Gudetama Dining Chair</t>
+  </si>
+  <si>
+    <t>Gudetama Dining Table</t>
+  </si>
+  <si>
+    <t>Gudetama Dresser</t>
+  </si>
+  <si>
+    <t>Gudetama Egg Chair</t>
+  </si>
+  <si>
+    <t>Gudetama Lamp</t>
+  </si>
+  <si>
+    <t>Gudetama Mirror</t>
+  </si>
+  <si>
+    <t>Gudetama Ottoman</t>
+  </si>
+  <si>
+    <t>Gudetama Mini Shrine</t>
+  </si>
+  <si>
+    <t>Gudetama Side Table</t>
+  </si>
+  <si>
+    <t>Gudetama Sofa</t>
+  </si>
+  <si>
+    <t>Gudetama Wallpaper</t>
+  </si>
+  <si>
+    <t>Gudetama Flooring</t>
+  </si>
+  <si>
+    <t>Orange Mermaid Top</t>
+  </si>
+  <si>
+    <t>Orange Mermaid Shell Armour</t>
+  </si>
+  <si>
+    <t>Orange Koi Tail</t>
+  </si>
+  <si>
+    <t>White Clamshell Backpack</t>
+  </si>
+  <si>
+    <t>White Shell Hair Piece</t>
+  </si>
+  <si>
+    <t>Under the Sea Armchair</t>
+  </si>
+  <si>
+    <t>Under the Sea Armoire</t>
+  </si>
+  <si>
+    <t>Under the Sea Bed</t>
+  </si>
+  <si>
+    <t>under the Sea Double Bed</t>
+  </si>
+  <si>
+    <t>Under the Sea Coral Plant 1</t>
+  </si>
+  <si>
+    <t>Under the Sea Coral Plant 2</t>
+  </si>
+  <si>
+    <t>Under the Sea Coral Plant 3</t>
+  </si>
+  <si>
+    <t>Under the Sea Lamp</t>
+  </si>
+  <si>
+    <t>Under the Sea Mirror</t>
+  </si>
+  <si>
+    <t>Under the Sea Sofa</t>
+  </si>
+  <si>
+    <t>Reef Half Wall</t>
+  </si>
+  <si>
+    <t>Under the Sea Event Stand</t>
+  </si>
+  <si>
+    <t>Reef Pedestal</t>
+  </si>
+  <si>
+    <t>Reef Column</t>
+  </si>
+  <si>
+    <t>Under the Sea Flooring</t>
+  </si>
+  <si>
+    <t>Under the Sea Wallpaper</t>
+  </si>
+  <si>
+    <t>Under the Sea Coffee Table</t>
+  </si>
+  <si>
+    <t>Pastel Rainbow Parade Dress</t>
+  </si>
+  <si>
+    <t>Pastel Rainbow Parade Vest</t>
+  </si>
+  <si>
+    <t>Pastel Rainbow Parade Pants</t>
+  </si>
+  <si>
+    <t>Pastel Rainbow Parade Glasses</t>
+  </si>
+  <si>
+    <t>Pastel Rainbow Parade Wings</t>
+  </si>
+  <si>
+    <t>Pastel Rainbow Pinwheel</t>
+  </si>
+  <si>
+    <t>Parade Flower Arch</t>
+  </si>
+  <si>
+    <t>Parade Heart Arch</t>
+  </si>
+  <si>
+    <t>Parade Rainbow Arch</t>
+  </si>
+  <si>
+    <t>Large Paper Box</t>
+  </si>
+  <si>
+    <t>Small Paper Box</t>
+  </si>
+  <si>
+    <t>Large Paper Flower</t>
+  </si>
+  <si>
+    <t>Small Paper Flower</t>
+  </si>
+  <si>
+    <t>Paper Butterfly Lamp</t>
+  </si>
+  <si>
+    <t>Mini Parade Float</t>
+  </si>
+  <si>
+    <t>Paper Pinwheel</t>
+  </si>
+  <si>
+    <t>Lemon Fruit Hat</t>
+  </si>
+  <si>
+    <t>Lemon Fruit Dress</t>
+  </si>
+  <si>
+    <t>Lemon Fruit Glasses</t>
+  </si>
+  <si>
+    <t>Lemon Fruit Body</t>
+  </si>
+  <si>
+    <t>Lemon Fruit Bag</t>
+  </si>
+  <si>
+    <t>Sunshine Armchair</t>
+  </si>
+  <si>
+    <t>Sunshine Bed</t>
+  </si>
+  <si>
+    <t>Sunshine Double Bed</t>
+  </si>
+  <si>
+    <t>Sunshine Coffee Table</t>
+  </si>
+  <si>
+    <t>Sunshine Dining Chair</t>
+  </si>
+  <si>
+    <t>Sunsine Dining Table</t>
+  </si>
+  <si>
+    <t>Sunshine Dresser</t>
+  </si>
+  <si>
+    <t>Sunshine Celebration Event Stand</t>
+  </si>
+  <si>
+    <t>Sunshine Celebration Flooring</t>
+  </si>
+  <si>
+    <t>Sunshine Fruit Tree</t>
+  </si>
+  <si>
+    <t>Sunshine Lamp</t>
+  </si>
+  <si>
+    <t>Sunshine Lemonade Tray</t>
+  </si>
+  <si>
+    <t>Sunshine Mirror</t>
+  </si>
+  <si>
+    <t>Sunshine Side Table</t>
+  </si>
+  <si>
+    <t>Sunshin Sofa</t>
+  </si>
+  <si>
+    <t>Sunshine Celebration Surfboard</t>
+  </si>
+  <si>
+    <t>Sunshine Celebration Wallpaper</t>
+  </si>
+  <si>
+    <t>Summer Ruffle Top</t>
+  </si>
+  <si>
+    <t>Rose Red Visor</t>
+  </si>
+  <si>
+    <t>Summer Wrapped Towel</t>
+  </si>
+  <si>
+    <t>Rose Red Lifeguard Hoodie</t>
+  </si>
+  <si>
+    <t>Summer's End Beach Ball</t>
+  </si>
+  <si>
+    <t>Summer's End Beach Chair</t>
+  </si>
+  <si>
+    <t>Summer's End Hammock</t>
+  </si>
+  <si>
+    <t>Summer's End Lifeguard Chair</t>
+  </si>
+  <si>
+    <t>Summer's End Neon Palm Tree</t>
+  </si>
+  <si>
+    <t>Summer's End Sandbox</t>
+  </si>
+  <si>
+    <t>Summer's End Surfboard</t>
+  </si>
+  <si>
+    <t>Friendship Ball Gown</t>
+  </si>
+  <si>
+    <t>Friendship Tuxedo</t>
+  </si>
+  <si>
+    <t>Friendship Top Hat</t>
+  </si>
+  <si>
+    <t>Friendship Tiara</t>
+  </si>
+  <si>
+    <t>Friendship Crown</t>
+  </si>
+  <si>
+    <t>Badtzmaru's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Big Challenges' Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Chococat's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Cinnamoroll's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Hangyodon's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Hello Kitty's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Keroppi's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Kiki's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Kuromi's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Lala's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>My Melody's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>My Sweet Piano's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Pekkle's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Pochacco's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Pompompurin's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Retsuko's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>TOPHAT's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Tuxedosam's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Wish me mell's Friendship Festival Outfit</t>
+  </si>
+  <si>
+    <t>Tree Pose Emote</t>
+  </si>
+  <si>
+    <t>Cobra Pose Emote</t>
+  </si>
+  <si>
+    <t>Freeze Jump Emote</t>
+  </si>
+  <si>
+    <t>Prom Pose Emote</t>
+  </si>
+  <si>
+    <t>Power Pose Emote</t>
+  </si>
+  <si>
+    <t>Shrug Emote</t>
+  </si>
+  <si>
+    <t>Hula Emote</t>
+  </si>
+  <si>
+    <t>School Sweater Vest</t>
+  </si>
+  <si>
+    <t>School Jacket</t>
+  </si>
+  <si>
+    <t>School Pencil</t>
+  </si>
+  <si>
+    <t>School Glasses</t>
+  </si>
+  <si>
+    <t>School Skirt</t>
+  </si>
+  <si>
+    <t>School Shorts</t>
+  </si>
+  <si>
+    <t>School Beret</t>
+  </si>
+  <si>
+    <t>My Melody Scholastic Skirt</t>
+  </si>
+  <si>
+    <t>Chococat Scholastic Shorts</t>
+  </si>
+  <si>
+    <t>My Melody Scholastic Jacket</t>
+  </si>
+  <si>
+    <t>Keroppi Scholastic Jacket</t>
+  </si>
+  <si>
+    <t>Badtz-maru Scholastic Vest</t>
+  </si>
+  <si>
+    <t>Chococat Scholastic Vest</t>
+  </si>
+  <si>
+    <t>Hello Kitty Scholastic Skirt</t>
+  </si>
+  <si>
+    <t>Hello Kitty Scholastic Jacket</t>
+  </si>
+  <si>
+    <t>Scholastic Bookshelf</t>
+  </si>
+  <si>
+    <t>Scholastic Chalkboard</t>
+  </si>
+  <si>
+    <t>Scholastic Celebration Event Stand</t>
+  </si>
+  <si>
+    <t>Scholastic Celebration Flooring</t>
+  </si>
+  <si>
+    <t>Scholastic Globe</t>
+  </si>
+  <si>
+    <t>Scholastic Locker</t>
+  </si>
+  <si>
+    <t>School Chair</t>
+  </si>
+  <si>
+    <t>School Desk</t>
+  </si>
+  <si>
+    <t>Teacher's Chair</t>
+  </si>
+  <si>
+    <t>Teacher's Desk</t>
+  </si>
+  <si>
+    <t>Scholastic Celebration Wallpaper</t>
+  </si>
+  <si>
+    <t>Jam Barrel</t>
+  </si>
+  <si>
+    <t>Jamboree Bench</t>
+  </si>
+  <si>
+    <t>Jamboree Berry Bucket</t>
+  </si>
+  <si>
+    <t>Jamboree Crate Display</t>
+  </si>
+  <si>
+    <t>Jam Jamboree Event Stand</t>
+  </si>
+  <si>
+    <t>Jamboree Spool Table</t>
+  </si>
+  <si>
+    <t>Jamboree Jam Spool Table</t>
+  </si>
+  <si>
+    <t>Jamboree Wagon</t>
+  </si>
+  <si>
+    <t>Jam Jamboree Wallpaper</t>
+  </si>
+  <si>
+    <t>Strawberry Jamboree Straw Hat</t>
+  </si>
+  <si>
+    <t>Strawberry Jamboree Overalls</t>
+  </si>
+  <si>
+    <t>Strawberry Jamboree Bonnet</t>
+  </si>
+  <si>
+    <t>Strawberry Jamboree Dress</t>
+  </si>
+  <si>
+    <t>Strawberry Jamboree Bow</t>
+  </si>
+  <si>
+    <t>Sky Jamboree Overalls</t>
+  </si>
+  <si>
+    <t>Currant Jamboree Overalls</t>
+  </si>
+  <si>
+    <t>Rhubarb Jamboree Overalls</t>
+  </si>
+  <si>
+    <t>Old Frank Franken Hat</t>
+  </si>
+  <si>
+    <t>Midnight Monster Beanie</t>
+  </si>
+  <si>
+    <t>Original Monster Overalls</t>
+  </si>
+  <si>
+    <t>Midnight Monster Overalls</t>
+  </si>
+  <si>
+    <t>Original Patchwork Gown</t>
+  </si>
+  <si>
+    <t>Teal Patchwork Gown</t>
+  </si>
+  <si>
+    <t>Old Frank Halloween Jacket</t>
+  </si>
+  <si>
+    <t>Original Halloween Jacket</t>
+  </si>
+  <si>
+    <t>Simple Bat Bow</t>
+  </si>
+  <si>
+    <t>Vampire Bat Bow</t>
+  </si>
+  <si>
+    <t>Purple Bat Bow</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Accent Table</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Armchair</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Bed</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Double Bed</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Bookcase</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Cauldron Planter</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Desk</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Dresser</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Fence</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Fence Lights</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Fireplace</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Ghost Deco</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Gravestone</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Mirror</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Ottoman</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Pedestal</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Pedestal Lantern</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Podium</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Pumpkin Deco</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Scarecrow</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Side Table</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Stand (Item)</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Table</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Wallpaper</t>
+  </si>
+  <si>
+    <t>Spooky Celebration Flooring</t>
+  </si>
+  <si>
+    <t>Gingerbread Beret</t>
+  </si>
+  <si>
+    <t>Gingerbread Derby Hat</t>
+  </si>
+  <si>
+    <t>Gingerbread Dress</t>
+  </si>
+  <si>
+    <t>Gingerbread Jacket</t>
+  </si>
+  <si>
+    <t>Gingerbread Slacks</t>
+  </si>
+  <si>
+    <t>Badtz-maru Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Big Challenges Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Chococat Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Cinnamoroll Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Hangyodon Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Hello Kitty Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Keroppi Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Kiki Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Kuromi Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Lala Holiday Sweater</t>
+  </si>
+  <si>
+    <t>My Melody Holiday Sweater</t>
+  </si>
+  <si>
+    <t>My Sweet Piano Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Pekkle Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Pochacco Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Pompompurin Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Retsuko Holiday Sweater</t>
+  </si>
+  <si>
+    <t>TOPHAT Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Tuxedosam Holiday Sweater</t>
+  </si>
+  <si>
+    <t>Candy Cane Archway</t>
+  </si>
+  <si>
+    <t>Candy Cane Chair</t>
+  </si>
+  <si>
+    <t>Candy Cane Decoration</t>
+  </si>
+  <si>
+    <t>Candy Cane Fence</t>
+  </si>
+  <si>
+    <t>Candy Lamp</t>
+  </si>
+  <si>
+    <t>Candy Stool</t>
+  </si>
+  <si>
+    <t>Gingerbread Bed</t>
+  </si>
+  <si>
+    <t>Gingerbread Double Bed</t>
+  </si>
+  <si>
+    <t>Gingerbread Tree</t>
+  </si>
+  <si>
+    <t>Gingerbread Flooring</t>
+  </si>
+  <si>
+    <t>Gingerbread Wallpaper</t>
+  </si>
+  <si>
+    <t>Gingerbread Bench</t>
+  </si>
+  <si>
+    <t>Gingerbread Table</t>
+  </si>
+  <si>
+    <t>Give and Gather Cookie Plate</t>
+  </si>
+  <si>
+    <t>Give and Gather Tree</t>
+  </si>
+  <si>
+    <t>Gumdrop Fence</t>
+  </si>
+  <si>
+    <t>Lighttime Bomber Jacket</t>
+  </si>
+  <si>
+    <t>Lighttime Sleeveless Top</t>
+  </si>
+  <si>
+    <t>Lighttime Pants</t>
+  </si>
+  <si>
+    <t>Lighttime Skirt</t>
+  </si>
+  <si>
+    <t>Lighttime Flower</t>
+  </si>
+  <si>
+    <t>Lighttime Jubilee Display</t>
+  </si>
+  <si>
+    <t>Lighttime Jubilee Walls</t>
+  </si>
+  <si>
+    <t>Lighttime Jubilee Floors</t>
+  </si>
+  <si>
+    <t>Lighttime Jubilee Archway</t>
+  </si>
+  <si>
+    <t>Lighttime Jubilee Star Archway</t>
+  </si>
+  <si>
+    <t>Lighttime Jubilee Mirror</t>
+  </si>
+  <si>
+    <t>Lighttime Jubilee Dance Floor A</t>
+  </si>
+  <si>
+    <t>Lighttime Jubilee Dance Floor B</t>
+  </si>
+  <si>
+    <t>Tabletop Sphere Light</t>
+  </si>
+  <si>
+    <t>Tabletop Heart Light</t>
+  </si>
+  <si>
+    <t>Tabletop Star Light</t>
   </si>
 </sst>
 </file>
@@ -7032,10 +8337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B082B9-00AC-4E0F-A853-52691B39AEB7}">
-  <dimension ref="A1:CV260"/>
+  <dimension ref="A1:FH260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
-      <selection activeCell="CH10" sqref="CH10"/>
+    <sheetView tabSelected="1" topLeftCell="CK1" workbookViewId="0">
+      <selection activeCell="CS15" sqref="CS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7087,9 +8392,26 @@
     <col min="86" max="86" width="38.5703125" customWidth="1"/>
     <col min="89" max="89" width="26.5703125" customWidth="1"/>
     <col min="90" max="90" width="38.5703125" customWidth="1"/>
+    <col min="97" max="97" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="19" customWidth="1"/>
+    <col min="105" max="105" width="20.7109375" customWidth="1"/>
+    <col min="109" max="109" width="29.140625" customWidth="1"/>
+    <col min="113" max="113" width="33.42578125" customWidth="1"/>
+    <col min="117" max="117" width="23.42578125" customWidth="1"/>
+    <col min="121" max="121" width="21" customWidth="1"/>
+    <col min="125" max="125" width="30.85546875" customWidth="1"/>
+    <col min="129" max="129" width="36.140625" customWidth="1"/>
+    <col min="133" max="133" width="21.28515625" customWidth="1"/>
+    <col min="137" max="137" width="24.85546875" customWidth="1"/>
+    <col min="141" max="141" width="22.28515625" customWidth="1"/>
+    <col min="145" max="145" width="40.140625" customWidth="1"/>
+    <col min="149" max="149" width="36.7109375" customWidth="1"/>
+    <col min="153" max="153" width="37.140625" customWidth="1"/>
+    <col min="157" max="157" width="39.5703125" customWidth="1"/>
+    <col min="161" max="161" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:164" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7390,8 +8712,200 @@
       <c r="CV1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CW1" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -7644,8 +9158,107 @@
       <c r="CS2" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>2269</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>2280</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>2314</v>
+      </c>
+      <c r="DS2">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>2339</v>
+      </c>
+      <c r="DW2">
+        <v>1</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>2361</v>
+      </c>
+      <c r="EA2">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>2383</v>
+      </c>
+      <c r="EE2">
+        <v>1</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>2399</v>
+      </c>
+      <c r="EI2">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>2432</v>
+      </c>
+      <c r="EM2">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>2463</v>
+      </c>
+      <c r="EQ2">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="EU2">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>2506</v>
+      </c>
+      <c r="EY2">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>2542</v>
+      </c>
+      <c r="FC2">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>2581</v>
+      </c>
+      <c r="FG2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -7898,8 +9511,107 @@
       <c r="CS3" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU3">
+        <v>1</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="CY3">
+        <v>1</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="DC3">
+        <v>1</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="DG3">
+        <v>1</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="DK3">
+        <v>1</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>2281</v>
+      </c>
+      <c r="DO3">
+        <v>1</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>2315</v>
+      </c>
+      <c r="DS3">
+        <v>1</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>2340</v>
+      </c>
+      <c r="DW3">
+        <v>1</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>2362</v>
+      </c>
+      <c r="EA3">
+        <v>1</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>2384</v>
+      </c>
+      <c r="EE3">
+        <v>1</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>2400</v>
+      </c>
+      <c r="EI3">
+        <v>1</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>2433</v>
+      </c>
+      <c r="EM3">
+        <v>1</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="EQ3">
+        <v>1</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>2490</v>
+      </c>
+      <c r="EU3">
+        <v>1</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="EY3">
+        <v>1</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="FC3">
+        <v>1</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>2582</v>
+      </c>
+      <c r="FG3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -8152,8 +9864,107 @@
       <c r="CS4" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU4">
+        <v>1</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>2165</v>
+      </c>
+      <c r="CY4">
+        <v>1</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>2193</v>
+      </c>
+      <c r="DC4">
+        <v>1</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="DG4">
+        <v>1</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>2271</v>
+      </c>
+      <c r="DK4">
+        <v>1</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>2282</v>
+      </c>
+      <c r="DO4">
+        <v>1</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>2316</v>
+      </c>
+      <c r="DS4">
+        <v>1</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="DW4">
+        <v>1</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>2363</v>
+      </c>
+      <c r="EA4">
+        <v>1</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>2385</v>
+      </c>
+      <c r="EE4">
+        <v>1</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>2401</v>
+      </c>
+      <c r="EI4">
+        <v>1</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>2434</v>
+      </c>
+      <c r="EM4">
+        <v>1</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>2465</v>
+      </c>
+      <c r="EQ4">
+        <v>1</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>2491</v>
+      </c>
+      <c r="EU4">
+        <v>1</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>2508</v>
+      </c>
+      <c r="EY4">
+        <v>1</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>2544</v>
+      </c>
+      <c r="FC4">
+        <v>1</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>2583</v>
+      </c>
+      <c r="FG4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -8406,8 +10217,107 @@
       <c r="CS5" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU5">
+        <v>1</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>2166</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>2226</v>
+      </c>
+      <c r="DG5">
+        <v>1</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>2272</v>
+      </c>
+      <c r="DK5">
+        <v>1</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>2283</v>
+      </c>
+      <c r="DO5">
+        <v>1</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>2317</v>
+      </c>
+      <c r="DS5">
+        <v>1</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>2342</v>
+      </c>
+      <c r="DW5">
+        <v>1</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>2364</v>
+      </c>
+      <c r="EA5">
+        <v>1</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>2386</v>
+      </c>
+      <c r="EE5">
+        <v>1</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>2402</v>
+      </c>
+      <c r="EI5">
+        <v>1</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>2435</v>
+      </c>
+      <c r="EM5">
+        <v>1</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>2466</v>
+      </c>
+      <c r="EQ5">
+        <v>1</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>2492</v>
+      </c>
+      <c r="EU5">
+        <v>1</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>2509</v>
+      </c>
+      <c r="EY5">
+        <v>1</v>
+      </c>
+      <c r="FA5" t="s">
+        <v>2545</v>
+      </c>
+      <c r="FC5">
+        <v>1</v>
+      </c>
+      <c r="FE5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="FG5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -8660,8 +10570,107 @@
       <c r="CS6" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU6">
+        <v>1</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>2167</v>
+      </c>
+      <c r="CY6">
+        <v>1</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>2195</v>
+      </c>
+      <c r="DC6">
+        <v>1</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>2227</v>
+      </c>
+      <c r="DG6">
+        <v>1</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>2273</v>
+      </c>
+      <c r="DK6">
+        <v>1</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>2284</v>
+      </c>
+      <c r="DO6">
+        <v>1</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>2318</v>
+      </c>
+      <c r="DS6">
+        <v>1</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>2343</v>
+      </c>
+      <c r="DW6">
+        <v>1</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="EA6">
+        <v>1</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>2387</v>
+      </c>
+      <c r="EE6">
+        <v>1</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>2403</v>
+      </c>
+      <c r="EI6">
+        <v>1</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>2436</v>
+      </c>
+      <c r="EM6">
+        <v>1</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>2467</v>
+      </c>
+      <c r="EQ6">
+        <v>1</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>2493</v>
+      </c>
+      <c r="EU6">
+        <v>1</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>2510</v>
+      </c>
+      <c r="EY6">
+        <v>1</v>
+      </c>
+      <c r="FA6" t="s">
+        <v>2546</v>
+      </c>
+      <c r="FC6">
+        <v>1</v>
+      </c>
+      <c r="FE6" t="s">
+        <v>2585</v>
+      </c>
+      <c r="FG6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -8914,8 +10923,107 @@
       <c r="CS7" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU7">
+        <v>1</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>2168</v>
+      </c>
+      <c r="CY7">
+        <v>1</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>2196</v>
+      </c>
+      <c r="DC7">
+        <v>1</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>2228</v>
+      </c>
+      <c r="DG7">
+        <v>1</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>2274</v>
+      </c>
+      <c r="DK7">
+        <v>1</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>2285</v>
+      </c>
+      <c r="DO7">
+        <v>1</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>2319</v>
+      </c>
+      <c r="DS7">
+        <v>1</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>2344</v>
+      </c>
+      <c r="DW7">
+        <v>1</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>2366</v>
+      </c>
+      <c r="EA7">
+        <v>1</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>2388</v>
+      </c>
+      <c r="EE7">
+        <v>1</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>2404</v>
+      </c>
+      <c r="EI7">
+        <v>1</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>2437</v>
+      </c>
+      <c r="EM7">
+        <v>1</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>2468</v>
+      </c>
+      <c r="EQ7">
+        <v>1</v>
+      </c>
+      <c r="ES7" t="s">
+        <v>2494</v>
+      </c>
+      <c r="EU7">
+        <v>1</v>
+      </c>
+      <c r="EW7" t="s">
+        <v>2511</v>
+      </c>
+      <c r="EY7">
+        <v>1</v>
+      </c>
+      <c r="FA7" t="s">
+        <v>2547</v>
+      </c>
+      <c r="FC7">
+        <v>1</v>
+      </c>
+      <c r="FE7" t="s">
+        <v>2586</v>
+      </c>
+      <c r="FG7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -9168,8 +11276,107 @@
       <c r="CS8" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU8">
+        <v>1</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>2169</v>
+      </c>
+      <c r="CY8">
+        <v>1</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>2197</v>
+      </c>
+      <c r="DC8">
+        <v>1</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>2229</v>
+      </c>
+      <c r="DG8">
+        <v>1</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>2275</v>
+      </c>
+      <c r="DK8">
+        <v>1</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>2286</v>
+      </c>
+      <c r="DO8">
+        <v>1</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>2320</v>
+      </c>
+      <c r="DS8">
+        <v>1</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>2345</v>
+      </c>
+      <c r="DW8">
+        <v>1</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>2367</v>
+      </c>
+      <c r="EA8">
+        <v>1</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>2389</v>
+      </c>
+      <c r="EE8">
+        <v>1</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>2405</v>
+      </c>
+      <c r="EI8">
+        <v>1</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>2438</v>
+      </c>
+      <c r="EM8">
+        <v>1</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>2469</v>
+      </c>
+      <c r="EQ8">
+        <v>1</v>
+      </c>
+      <c r="ES8" t="s">
+        <v>2495</v>
+      </c>
+      <c r="EU8">
+        <v>1</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>2512</v>
+      </c>
+      <c r="EY8">
+        <v>1</v>
+      </c>
+      <c r="FA8" t="s">
+        <v>2548</v>
+      </c>
+      <c r="FC8">
+        <v>1</v>
+      </c>
+      <c r="FE8" t="s">
+        <v>2587</v>
+      </c>
+      <c r="FG8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -9410,8 +11617,107 @@
       <c r="CS9" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU9">
+        <v>1</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>2170</v>
+      </c>
+      <c r="CY9">
+        <v>1</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>2198</v>
+      </c>
+      <c r="DC9">
+        <v>1</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>2230</v>
+      </c>
+      <c r="DG9">
+        <v>1</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>2276</v>
+      </c>
+      <c r="DK9">
+        <v>1</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>2287</v>
+      </c>
+      <c r="DO9">
+        <v>1</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>2321</v>
+      </c>
+      <c r="DS9">
+        <v>1</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>2346</v>
+      </c>
+      <c r="DW9">
+        <v>1</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>2368</v>
+      </c>
+      <c r="EA9">
+        <v>1</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>2390</v>
+      </c>
+      <c r="EE9">
+        <v>1</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>2406</v>
+      </c>
+      <c r="EI9">
+        <v>1</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>2439</v>
+      </c>
+      <c r="EM9">
+        <v>1</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>2470</v>
+      </c>
+      <c r="EQ9">
+        <v>1</v>
+      </c>
+      <c r="ES9" t="s">
+        <v>2496</v>
+      </c>
+      <c r="EU9">
+        <v>1</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>2513</v>
+      </c>
+      <c r="EY9">
+        <v>1</v>
+      </c>
+      <c r="FA9" t="s">
+        <v>2549</v>
+      </c>
+      <c r="FC9">
+        <v>1</v>
+      </c>
+      <c r="FE9" t="s">
+        <v>2588</v>
+      </c>
+      <c r="FG9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -9643,8 +11949,107 @@
       <c r="CS10" t="s">
         <v>1910</v>
       </c>
-    </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU10">
+        <v>1</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>2171</v>
+      </c>
+      <c r="CY10">
+        <v>1</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>2199</v>
+      </c>
+      <c r="DC10">
+        <v>1</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>2231</v>
+      </c>
+      <c r="DG10">
+        <v>1</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>2277</v>
+      </c>
+      <c r="DK10">
+        <v>1</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>2288</v>
+      </c>
+      <c r="DO10">
+        <v>1</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>2322</v>
+      </c>
+      <c r="DS10">
+        <v>1</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>2347</v>
+      </c>
+      <c r="DW10">
+        <v>1</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>2369</v>
+      </c>
+      <c r="EA10">
+        <v>1</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>2391</v>
+      </c>
+      <c r="EE10">
+        <v>1</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>2407</v>
+      </c>
+      <c r="EI10">
+        <v>1</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>2440</v>
+      </c>
+      <c r="EM10">
+        <v>1</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>2471</v>
+      </c>
+      <c r="EQ10">
+        <v>1</v>
+      </c>
+      <c r="ES10" t="s">
+        <v>2497</v>
+      </c>
+      <c r="EU10">
+        <v>1</v>
+      </c>
+      <c r="EW10" t="s">
+        <v>2514</v>
+      </c>
+      <c r="EY10">
+        <v>1</v>
+      </c>
+      <c r="FA10" t="s">
+        <v>2550</v>
+      </c>
+      <c r="FC10">
+        <v>1</v>
+      </c>
+      <c r="FE10" t="s">
+        <v>2589</v>
+      </c>
+      <c r="FG10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -9876,8 +12281,107 @@
       <c r="CS11" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU11">
+        <v>1</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>2172</v>
+      </c>
+      <c r="CY11">
+        <v>1</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>2200</v>
+      </c>
+      <c r="DC11">
+        <v>1</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>2232</v>
+      </c>
+      <c r="DG11">
+        <v>1</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>2278</v>
+      </c>
+      <c r="DK11">
+        <v>1</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>2289</v>
+      </c>
+      <c r="DO11">
+        <v>1</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>2323</v>
+      </c>
+      <c r="DS11">
+        <v>1</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>2348</v>
+      </c>
+      <c r="DW11">
+        <v>1</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>2370</v>
+      </c>
+      <c r="EA11">
+        <v>1</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>2392</v>
+      </c>
+      <c r="EE11">
+        <v>1</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>2408</v>
+      </c>
+      <c r="EI11">
+        <v>1</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>2441</v>
+      </c>
+      <c r="EM11">
+        <v>1</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>2472</v>
+      </c>
+      <c r="EQ11">
+        <v>1</v>
+      </c>
+      <c r="ES11" t="s">
+        <v>2498</v>
+      </c>
+      <c r="EU11">
+        <v>1</v>
+      </c>
+      <c r="EW11" t="s">
+        <v>2515</v>
+      </c>
+      <c r="EY11">
+        <v>1</v>
+      </c>
+      <c r="FA11" t="s">
+        <v>2551</v>
+      </c>
+      <c r="FC11">
+        <v>1</v>
+      </c>
+      <c r="FE11" t="s">
+        <v>2590</v>
+      </c>
+      <c r="FG11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -10106,8 +12610,107 @@
       <c r="CS12" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU12">
+        <v>1</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>2173</v>
+      </c>
+      <c r="CY12">
+        <v>1</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>2201</v>
+      </c>
+      <c r="DC12">
+        <v>1</v>
+      </c>
+      <c r="DE12" t="s">
+        <v>2233</v>
+      </c>
+      <c r="DG12">
+        <v>1</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>2279</v>
+      </c>
+      <c r="DK12">
+        <v>1</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>2290</v>
+      </c>
+      <c r="DO12">
+        <v>1</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>2324</v>
+      </c>
+      <c r="DS12">
+        <v>1</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>2349</v>
+      </c>
+      <c r="DW12">
+        <v>1</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>2371</v>
+      </c>
+      <c r="EA12">
+        <v>1</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>2393</v>
+      </c>
+      <c r="EE12">
+        <v>1</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>2409</v>
+      </c>
+      <c r="EI12">
+        <v>1</v>
+      </c>
+      <c r="EK12" t="s">
+        <v>2442</v>
+      </c>
+      <c r="EM12">
+        <v>1</v>
+      </c>
+      <c r="EO12" t="s">
+        <v>2473</v>
+      </c>
+      <c r="EQ12">
+        <v>1</v>
+      </c>
+      <c r="ES12" t="s">
+        <v>2499</v>
+      </c>
+      <c r="EU12">
+        <v>1</v>
+      </c>
+      <c r="EW12" t="s">
+        <v>2516</v>
+      </c>
+      <c r="EY12">
+        <v>1</v>
+      </c>
+      <c r="FA12" t="s">
+        <v>2552</v>
+      </c>
+      <c r="FC12">
+        <v>1</v>
+      </c>
+      <c r="FE12" t="s">
+        <v>2591</v>
+      </c>
+      <c r="FG12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -10339,8 +12942,101 @@
       <c r="CS13" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU13">
+        <v>1</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>2174</v>
+      </c>
+      <c r="CY13">
+        <v>1</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>2202</v>
+      </c>
+      <c r="DC13">
+        <v>1</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>2234</v>
+      </c>
+      <c r="DG13">
+        <v>1</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>2291</v>
+      </c>
+      <c r="DO13">
+        <v>1</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>2325</v>
+      </c>
+      <c r="DS13">
+        <v>1</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>2350</v>
+      </c>
+      <c r="DW13">
+        <v>1</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>2372</v>
+      </c>
+      <c r="EA13">
+        <v>1</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>2394</v>
+      </c>
+      <c r="EE13">
+        <v>1</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>2410</v>
+      </c>
+      <c r="EI13">
+        <v>1</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>2443</v>
+      </c>
+      <c r="EM13">
+        <v>1</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>2474</v>
+      </c>
+      <c r="EQ13">
+        <v>1</v>
+      </c>
+      <c r="ES13" t="s">
+        <v>2500</v>
+      </c>
+      <c r="EU13">
+        <v>1</v>
+      </c>
+      <c r="EW13" t="s">
+        <v>2517</v>
+      </c>
+      <c r="EY13">
+        <v>1</v>
+      </c>
+      <c r="FA13" t="s">
+        <v>2553</v>
+      </c>
+      <c r="FC13">
+        <v>1</v>
+      </c>
+      <c r="FE13" t="s">
+        <v>2592</v>
+      </c>
+      <c r="FG13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -10572,8 +13268,101 @@
       <c r="CS14" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU14">
+        <v>1</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>2175</v>
+      </c>
+      <c r="CY14">
+        <v>1</v>
+      </c>
+      <c r="DA14" t="s">
+        <v>2203</v>
+      </c>
+      <c r="DC14">
+        <v>1</v>
+      </c>
+      <c r="DE14" t="s">
+        <v>2235</v>
+      </c>
+      <c r="DG14">
+        <v>1</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>2292</v>
+      </c>
+      <c r="DO14">
+        <v>1</v>
+      </c>
+      <c r="DQ14" t="s">
+        <v>2326</v>
+      </c>
+      <c r="DS14">
+        <v>1</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>2351</v>
+      </c>
+      <c r="DW14">
+        <v>1</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>2373</v>
+      </c>
+      <c r="EA14">
+        <v>1</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>2395</v>
+      </c>
+      <c r="EE14">
+        <v>1</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>2411</v>
+      </c>
+      <c r="EI14">
+        <v>1</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>2444</v>
+      </c>
+      <c r="EM14">
+        <v>1</v>
+      </c>
+      <c r="EO14" t="s">
+        <v>2475</v>
+      </c>
+      <c r="EQ14">
+        <v>1</v>
+      </c>
+      <c r="ES14" t="s">
+        <v>2501</v>
+      </c>
+      <c r="EU14">
+        <v>1</v>
+      </c>
+      <c r="EW14" t="s">
+        <v>2518</v>
+      </c>
+      <c r="EY14">
+        <v>1</v>
+      </c>
+      <c r="FA14" t="s">
+        <v>2554</v>
+      </c>
+      <c r="FC14">
+        <v>1</v>
+      </c>
+      <c r="FE14" t="s">
+        <v>2593</v>
+      </c>
+      <c r="FG14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -10805,8 +13594,101 @@
       <c r="CS15" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU15">
+        <v>1</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>2176</v>
+      </c>
+      <c r="CY15">
+        <v>1</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>2204</v>
+      </c>
+      <c r="DC15">
+        <v>1</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>2236</v>
+      </c>
+      <c r="DG15">
+        <v>1</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>2293</v>
+      </c>
+      <c r="DO15">
+        <v>1</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>2327</v>
+      </c>
+      <c r="DS15">
+        <v>1</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>2352</v>
+      </c>
+      <c r="DW15">
+        <v>1</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>2374</v>
+      </c>
+      <c r="EA15">
+        <v>1</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>2396</v>
+      </c>
+      <c r="EE15">
+        <v>1</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>2412</v>
+      </c>
+      <c r="EI15">
+        <v>1</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>2445</v>
+      </c>
+      <c r="EM15">
+        <v>1</v>
+      </c>
+      <c r="EO15" t="s">
+        <v>2476</v>
+      </c>
+      <c r="EQ15">
+        <v>1</v>
+      </c>
+      <c r="ES15" t="s">
+        <v>2502</v>
+      </c>
+      <c r="EU15">
+        <v>1</v>
+      </c>
+      <c r="EW15" t="s">
+        <v>2519</v>
+      </c>
+      <c r="EY15">
+        <v>1</v>
+      </c>
+      <c r="FA15" t="s">
+        <v>2555</v>
+      </c>
+      <c r="FC15">
+        <v>1</v>
+      </c>
+      <c r="FE15" t="s">
+        <v>2594</v>
+      </c>
+      <c r="FG15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -11029,8 +13911,101 @@
       <c r="CS16" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU16">
+        <v>1</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>2177</v>
+      </c>
+      <c r="CY16">
+        <v>1</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>2205</v>
+      </c>
+      <c r="DC16">
+        <v>1</v>
+      </c>
+      <c r="DE16" t="s">
+        <v>2237</v>
+      </c>
+      <c r="DG16">
+        <v>1</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>2294</v>
+      </c>
+      <c r="DO16">
+        <v>1</v>
+      </c>
+      <c r="DQ16" t="s">
+        <v>2328</v>
+      </c>
+      <c r="DS16">
+        <v>1</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>2353</v>
+      </c>
+      <c r="DW16">
+        <v>1</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>2375</v>
+      </c>
+      <c r="EA16">
+        <v>1</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="EE16">
+        <v>1</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>2413</v>
+      </c>
+      <c r="EI16">
+        <v>1</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>2446</v>
+      </c>
+      <c r="EM16">
+        <v>1</v>
+      </c>
+      <c r="EO16" t="s">
+        <v>2477</v>
+      </c>
+      <c r="EQ16">
+        <v>1</v>
+      </c>
+      <c r="ES16" t="s">
+        <v>2503</v>
+      </c>
+      <c r="EU16">
+        <v>1</v>
+      </c>
+      <c r="EW16" t="s">
+        <v>2520</v>
+      </c>
+      <c r="EY16">
+        <v>1</v>
+      </c>
+      <c r="FA16" t="s">
+        <v>2556</v>
+      </c>
+      <c r="FC16">
+        <v>1</v>
+      </c>
+      <c r="FE16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="FG16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -11253,8 +14228,101 @@
       <c r="CS17" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU17">
+        <v>1</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>2178</v>
+      </c>
+      <c r="CY17">
+        <v>1</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>2206</v>
+      </c>
+      <c r="DC17">
+        <v>1</v>
+      </c>
+      <c r="DE17" t="s">
+        <v>2238</v>
+      </c>
+      <c r="DG17">
+        <v>1</v>
+      </c>
+      <c r="DM17" t="s">
+        <v>2295</v>
+      </c>
+      <c r="DO17">
+        <v>1</v>
+      </c>
+      <c r="DQ17" t="s">
+        <v>2329</v>
+      </c>
+      <c r="DS17">
+        <v>1</v>
+      </c>
+      <c r="DU17" t="s">
+        <v>2354</v>
+      </c>
+      <c r="DW17">
+        <v>1</v>
+      </c>
+      <c r="DY17" t="s">
+        <v>2376</v>
+      </c>
+      <c r="EA17">
+        <v>1</v>
+      </c>
+      <c r="EC17" t="s">
+        <v>2398</v>
+      </c>
+      <c r="EE17">
+        <v>1</v>
+      </c>
+      <c r="EG17" t="s">
+        <v>2414</v>
+      </c>
+      <c r="EI17">
+        <v>1</v>
+      </c>
+      <c r="EK17" t="s">
+        <v>2447</v>
+      </c>
+      <c r="EM17">
+        <v>1</v>
+      </c>
+      <c r="EO17" t="s">
+        <v>2478</v>
+      </c>
+      <c r="EQ17">
+        <v>1</v>
+      </c>
+      <c r="ES17" t="s">
+        <v>2504</v>
+      </c>
+      <c r="EU17">
+        <v>1</v>
+      </c>
+      <c r="EW17" t="s">
+        <v>2521</v>
+      </c>
+      <c r="EY17">
+        <v>1</v>
+      </c>
+      <c r="FA17" t="s">
+        <v>2557</v>
+      </c>
+      <c r="FC17">
+        <v>1</v>
+      </c>
+      <c r="FE17" t="s">
+        <v>2596</v>
+      </c>
+      <c r="FG17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -11480,8 +14548,89 @@
       <c r="CS18" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU18">
+        <v>1</v>
+      </c>
+      <c r="CW18" t="s">
+        <v>2179</v>
+      </c>
+      <c r="CY18">
+        <v>1</v>
+      </c>
+      <c r="DA18" t="s">
+        <v>2207</v>
+      </c>
+      <c r="DC18">
+        <v>1</v>
+      </c>
+      <c r="DE18" t="s">
+        <v>2239</v>
+      </c>
+      <c r="DG18">
+        <v>1</v>
+      </c>
+      <c r="DM18" t="s">
+        <v>2296</v>
+      </c>
+      <c r="DO18">
+        <v>1</v>
+      </c>
+      <c r="DQ18" t="s">
+        <v>2330</v>
+      </c>
+      <c r="DS18">
+        <v>1</v>
+      </c>
+      <c r="DU18" t="s">
+        <v>2355</v>
+      </c>
+      <c r="DW18">
+        <v>1</v>
+      </c>
+      <c r="DY18" t="s">
+        <v>2377</v>
+      </c>
+      <c r="EA18">
+        <v>1</v>
+      </c>
+      <c r="EG18" t="s">
+        <v>2415</v>
+      </c>
+      <c r="EI18">
+        <v>1</v>
+      </c>
+      <c r="EK18" t="s">
+        <v>2448</v>
+      </c>
+      <c r="EM18">
+        <v>1</v>
+      </c>
+      <c r="EO18" t="s">
+        <v>2479</v>
+      </c>
+      <c r="EQ18">
+        <v>1</v>
+      </c>
+      <c r="ES18" t="s">
+        <v>2505</v>
+      </c>
+      <c r="EU18">
+        <v>1</v>
+      </c>
+      <c r="EW18" t="s">
+        <v>2522</v>
+      </c>
+      <c r="EY18">
+        <v>1</v>
+      </c>
+      <c r="FA18" t="s">
+        <v>2558</v>
+      </c>
+      <c r="FC18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -11698,8 +14847,83 @@
       <c r="CS19" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU19">
+        <v>1</v>
+      </c>
+      <c r="CW19" t="s">
+        <v>2180</v>
+      </c>
+      <c r="CY19">
+        <v>1</v>
+      </c>
+      <c r="DA19" t="s">
+        <v>2208</v>
+      </c>
+      <c r="DC19">
+        <v>1</v>
+      </c>
+      <c r="DE19" t="s">
+        <v>2240</v>
+      </c>
+      <c r="DG19">
+        <v>1</v>
+      </c>
+      <c r="DM19" t="s">
+        <v>2297</v>
+      </c>
+      <c r="DO19">
+        <v>1</v>
+      </c>
+      <c r="DQ19" t="s">
+        <v>2331</v>
+      </c>
+      <c r="DS19">
+        <v>1</v>
+      </c>
+      <c r="DU19" t="s">
+        <v>2356</v>
+      </c>
+      <c r="DW19">
+        <v>1</v>
+      </c>
+      <c r="DY19" t="s">
+        <v>2378</v>
+      </c>
+      <c r="EA19">
+        <v>1</v>
+      </c>
+      <c r="EG19" t="s">
+        <v>2416</v>
+      </c>
+      <c r="EI19">
+        <v>1</v>
+      </c>
+      <c r="EK19" t="s">
+        <v>2449</v>
+      </c>
+      <c r="EM19">
+        <v>1</v>
+      </c>
+      <c r="EO19" t="s">
+        <v>2480</v>
+      </c>
+      <c r="EQ19">
+        <v>1</v>
+      </c>
+      <c r="EW19" t="s">
+        <v>2523</v>
+      </c>
+      <c r="EY19">
+        <v>1</v>
+      </c>
+      <c r="FA19" t="s">
+        <v>2559</v>
+      </c>
+      <c r="FC19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -11916,8 +15140,83 @@
       <c r="CS20" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU20">
+        <v>1</v>
+      </c>
+      <c r="CW20" t="s">
+        <v>2181</v>
+      </c>
+      <c r="CY20">
+        <v>1</v>
+      </c>
+      <c r="DA20" t="s">
+        <v>2209</v>
+      </c>
+      <c r="DC20">
+        <v>1</v>
+      </c>
+      <c r="DE20" t="s">
+        <v>2241</v>
+      </c>
+      <c r="DG20">
+        <v>1</v>
+      </c>
+      <c r="DM20" t="s">
+        <v>2298</v>
+      </c>
+      <c r="DO20">
+        <v>1</v>
+      </c>
+      <c r="DQ20" t="s">
+        <v>2332</v>
+      </c>
+      <c r="DS20">
+        <v>1</v>
+      </c>
+      <c r="DU20" t="s">
+        <v>2357</v>
+      </c>
+      <c r="DW20">
+        <v>1</v>
+      </c>
+      <c r="DY20" t="s">
+        <v>2379</v>
+      </c>
+      <c r="EA20">
+        <v>1</v>
+      </c>
+      <c r="EG20" t="s">
+        <v>2417</v>
+      </c>
+      <c r="EI20">
+        <v>1</v>
+      </c>
+      <c r="EK20" t="s">
+        <v>2450</v>
+      </c>
+      <c r="EM20">
+        <v>1</v>
+      </c>
+      <c r="EO20" t="s">
+        <v>2481</v>
+      </c>
+      <c r="EQ20">
+        <v>1</v>
+      </c>
+      <c r="EW20" t="s">
+        <v>2524</v>
+      </c>
+      <c r="EY20">
+        <v>1</v>
+      </c>
+      <c r="FA20" t="s">
+        <v>2560</v>
+      </c>
+      <c r="FC20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -12125,8 +15424,83 @@
       <c r="CS21" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU21">
+        <v>1</v>
+      </c>
+      <c r="CW21" t="s">
+        <v>2182</v>
+      </c>
+      <c r="CY21">
+        <v>1</v>
+      </c>
+      <c r="DA21" t="s">
+        <v>2210</v>
+      </c>
+      <c r="DC21">
+        <v>1</v>
+      </c>
+      <c r="DE21" t="s">
+        <v>2242</v>
+      </c>
+      <c r="DG21">
+        <v>1</v>
+      </c>
+      <c r="DM21" t="s">
+        <v>2299</v>
+      </c>
+      <c r="DO21">
+        <v>1</v>
+      </c>
+      <c r="DQ21" t="s">
+        <v>2333</v>
+      </c>
+      <c r="DS21">
+        <v>1</v>
+      </c>
+      <c r="DU21" t="s">
+        <v>2358</v>
+      </c>
+      <c r="DW21">
+        <v>1</v>
+      </c>
+      <c r="DY21" t="s">
+        <v>2380</v>
+      </c>
+      <c r="EA21">
+        <v>1</v>
+      </c>
+      <c r="EG21" t="s">
+        <v>2418</v>
+      </c>
+      <c r="EI21">
+        <v>1</v>
+      </c>
+      <c r="EK21" t="s">
+        <v>2451</v>
+      </c>
+      <c r="EM21">
+        <v>1</v>
+      </c>
+      <c r="EO21" t="s">
+        <v>2482</v>
+      </c>
+      <c r="EQ21">
+        <v>1</v>
+      </c>
+      <c r="EW21" t="s">
+        <v>2525</v>
+      </c>
+      <c r="EY21">
+        <v>1</v>
+      </c>
+      <c r="FA21" t="s">
+        <v>2561</v>
+      </c>
+      <c r="FC21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -12331,8 +15705,83 @@
       <c r="CS22" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU22">
+        <v>1</v>
+      </c>
+      <c r="CW22" t="s">
+        <v>2183</v>
+      </c>
+      <c r="CY22">
+        <v>1</v>
+      </c>
+      <c r="DA22" t="s">
+        <v>2211</v>
+      </c>
+      <c r="DC22">
+        <v>1</v>
+      </c>
+      <c r="DE22" t="s">
+        <v>2243</v>
+      </c>
+      <c r="DG22">
+        <v>1</v>
+      </c>
+      <c r="DM22" t="s">
+        <v>2300</v>
+      </c>
+      <c r="DO22">
+        <v>1</v>
+      </c>
+      <c r="DQ22" t="s">
+        <v>2334</v>
+      </c>
+      <c r="DS22">
+        <v>1</v>
+      </c>
+      <c r="DU22" t="s">
+        <v>2359</v>
+      </c>
+      <c r="DW22">
+        <v>1</v>
+      </c>
+      <c r="DY22" t="s">
+        <v>2381</v>
+      </c>
+      <c r="EA22">
+        <v>1</v>
+      </c>
+      <c r="EG22" t="s">
+        <v>2419</v>
+      </c>
+      <c r="EI22">
+        <v>1</v>
+      </c>
+      <c r="EK22" t="s">
+        <v>2452</v>
+      </c>
+      <c r="EM22">
+        <v>1</v>
+      </c>
+      <c r="EO22" t="s">
+        <v>2483</v>
+      </c>
+      <c r="EQ22">
+        <v>1</v>
+      </c>
+      <c r="EW22" t="s">
+        <v>2526</v>
+      </c>
+      <c r="EY22">
+        <v>1</v>
+      </c>
+      <c r="FA22" t="s">
+        <v>2562</v>
+      </c>
+      <c r="FC22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -12507,8 +15956,83 @@
       <c r="CS23" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU23">
+        <v>1</v>
+      </c>
+      <c r="CW23" t="s">
+        <v>2184</v>
+      </c>
+      <c r="CY23">
+        <v>1</v>
+      </c>
+      <c r="DA23" t="s">
+        <v>2212</v>
+      </c>
+      <c r="DC23">
+        <v>1</v>
+      </c>
+      <c r="DE23" t="s">
+        <v>2244</v>
+      </c>
+      <c r="DG23">
+        <v>1</v>
+      </c>
+      <c r="DM23" t="s">
+        <v>2301</v>
+      </c>
+      <c r="DO23">
+        <v>1</v>
+      </c>
+      <c r="DQ23" t="s">
+        <v>2335</v>
+      </c>
+      <c r="DS23">
+        <v>1</v>
+      </c>
+      <c r="DU23" t="s">
+        <v>2360</v>
+      </c>
+      <c r="DW23">
+        <v>1</v>
+      </c>
+      <c r="DY23" t="s">
+        <v>2382</v>
+      </c>
+      <c r="EA23">
+        <v>1</v>
+      </c>
+      <c r="EG23" t="s">
+        <v>2420</v>
+      </c>
+      <c r="EI23">
+        <v>1</v>
+      </c>
+      <c r="EK23" t="s">
+        <v>2453</v>
+      </c>
+      <c r="EM23">
+        <v>1</v>
+      </c>
+      <c r="EO23" t="s">
+        <v>2484</v>
+      </c>
+      <c r="EQ23">
+        <v>1</v>
+      </c>
+      <c r="EW23" t="s">
+        <v>2527</v>
+      </c>
+      <c r="EY23">
+        <v>1</v>
+      </c>
+      <c r="FA23" t="s">
+        <v>2563</v>
+      </c>
+      <c r="FC23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -12671,8 +16195,71 @@
       <c r="CS24" t="s">
         <v>1924</v>
       </c>
-    </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU24">
+        <v>1</v>
+      </c>
+      <c r="CW24" t="s">
+        <v>2185</v>
+      </c>
+      <c r="CY24">
+        <v>1</v>
+      </c>
+      <c r="DA24" t="s">
+        <v>2213</v>
+      </c>
+      <c r="DC24">
+        <v>1</v>
+      </c>
+      <c r="DE24" t="s">
+        <v>2245</v>
+      </c>
+      <c r="DG24">
+        <v>1</v>
+      </c>
+      <c r="DM24" t="s">
+        <v>2302</v>
+      </c>
+      <c r="DO24">
+        <v>1</v>
+      </c>
+      <c r="DQ24" t="s">
+        <v>2336</v>
+      </c>
+      <c r="DS24">
+        <v>1</v>
+      </c>
+      <c r="EG24" t="s">
+        <v>2421</v>
+      </c>
+      <c r="EI24">
+        <v>1</v>
+      </c>
+      <c r="EK24" t="s">
+        <v>2454</v>
+      </c>
+      <c r="EM24">
+        <v>1</v>
+      </c>
+      <c r="EO24" t="s">
+        <v>2485</v>
+      </c>
+      <c r="EQ24">
+        <v>1</v>
+      </c>
+      <c r="EW24" t="s">
+        <v>2528</v>
+      </c>
+      <c r="EY24">
+        <v>1</v>
+      </c>
+      <c r="FA24" t="s">
+        <v>2564</v>
+      </c>
+      <c r="FC24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -12838,8 +16425,71 @@
       <c r="CS25" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU25">
+        <v>1</v>
+      </c>
+      <c r="CW25" t="s">
+        <v>2186</v>
+      </c>
+      <c r="CY25">
+        <v>1</v>
+      </c>
+      <c r="DA25" t="s">
+        <v>2214</v>
+      </c>
+      <c r="DC25">
+        <v>1</v>
+      </c>
+      <c r="DE25" t="s">
+        <v>2246</v>
+      </c>
+      <c r="DG25">
+        <v>1</v>
+      </c>
+      <c r="DM25" t="s">
+        <v>2303</v>
+      </c>
+      <c r="DO25">
+        <v>1</v>
+      </c>
+      <c r="DQ25" t="s">
+        <v>2337</v>
+      </c>
+      <c r="DS25">
+        <v>1</v>
+      </c>
+      <c r="EG25" t="s">
+        <v>2422</v>
+      </c>
+      <c r="EI25">
+        <v>1</v>
+      </c>
+      <c r="EK25" t="s">
+        <v>2455</v>
+      </c>
+      <c r="EM25">
+        <v>1</v>
+      </c>
+      <c r="EO25" t="s">
+        <v>2486</v>
+      </c>
+      <c r="EQ25">
+        <v>1</v>
+      </c>
+      <c r="EW25" t="s">
+        <v>2529</v>
+      </c>
+      <c r="EY25">
+        <v>1</v>
+      </c>
+      <c r="FA25" t="s">
+        <v>2565</v>
+      </c>
+      <c r="FC25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -12990,8 +16640,71 @@
       <c r="CS26" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU26">
+        <v>1</v>
+      </c>
+      <c r="CW26" t="s">
+        <v>2187</v>
+      </c>
+      <c r="CY26">
+        <v>1</v>
+      </c>
+      <c r="DA26" t="s">
+        <v>2215</v>
+      </c>
+      <c r="DC26">
+        <v>1</v>
+      </c>
+      <c r="DE26" t="s">
+        <v>2247</v>
+      </c>
+      <c r="DG26">
+        <v>1</v>
+      </c>
+      <c r="DM26" t="s">
+        <v>2304</v>
+      </c>
+      <c r="DO26">
+        <v>1</v>
+      </c>
+      <c r="DQ26" t="s">
+        <v>2338</v>
+      </c>
+      <c r="DS26">
+        <v>1</v>
+      </c>
+      <c r="EG26" t="s">
+        <v>2423</v>
+      </c>
+      <c r="EI26">
+        <v>1</v>
+      </c>
+      <c r="EK26" t="s">
+        <v>2456</v>
+      </c>
+      <c r="EM26">
+        <v>1</v>
+      </c>
+      <c r="EO26" t="s">
+        <v>2487</v>
+      </c>
+      <c r="EQ26">
+        <v>1</v>
+      </c>
+      <c r="EW26" t="s">
+        <v>2530</v>
+      </c>
+      <c r="EY26">
+        <v>1</v>
+      </c>
+      <c r="FA26" t="s">
+        <v>2566</v>
+      </c>
+      <c r="FC26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -13127,8 +16840,65 @@
       <c r="CS27" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU27">
+        <v>1</v>
+      </c>
+      <c r="CW27" t="s">
+        <v>2188</v>
+      </c>
+      <c r="CY27">
+        <v>1</v>
+      </c>
+      <c r="DA27" t="s">
+        <v>2216</v>
+      </c>
+      <c r="DC27">
+        <v>1</v>
+      </c>
+      <c r="DE27" t="s">
+        <v>2248</v>
+      </c>
+      <c r="DG27">
+        <v>1</v>
+      </c>
+      <c r="DM27" t="s">
+        <v>2305</v>
+      </c>
+      <c r="DO27">
+        <v>1</v>
+      </c>
+      <c r="EG27" t="s">
+        <v>2424</v>
+      </c>
+      <c r="EI27">
+        <v>1</v>
+      </c>
+      <c r="EK27" t="s">
+        <v>2457</v>
+      </c>
+      <c r="EM27">
+        <v>1</v>
+      </c>
+      <c r="EO27" t="s">
+        <v>2488</v>
+      </c>
+      <c r="EQ27">
+        <v>1</v>
+      </c>
+      <c r="EW27" t="s">
+        <v>2531</v>
+      </c>
+      <c r="EY27">
+        <v>1</v>
+      </c>
+      <c r="FA27" t="s">
+        <v>2567</v>
+      </c>
+      <c r="FC27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -13255,8 +17025,59 @@
       <c r="CS28" t="s">
         <v>1928</v>
       </c>
-    </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU28">
+        <v>1</v>
+      </c>
+      <c r="CW28" t="s">
+        <v>2189</v>
+      </c>
+      <c r="CY28">
+        <v>1</v>
+      </c>
+      <c r="DA28" t="s">
+        <v>2217</v>
+      </c>
+      <c r="DC28">
+        <v>1</v>
+      </c>
+      <c r="DE28" t="s">
+        <v>2249</v>
+      </c>
+      <c r="DG28">
+        <v>1</v>
+      </c>
+      <c r="DM28" t="s">
+        <v>2306</v>
+      </c>
+      <c r="DO28">
+        <v>1</v>
+      </c>
+      <c r="EG28" t="s">
+        <v>2425</v>
+      </c>
+      <c r="EI28">
+        <v>1</v>
+      </c>
+      <c r="EK28" t="s">
+        <v>2458</v>
+      </c>
+      <c r="EM28">
+        <v>1</v>
+      </c>
+      <c r="EW28" t="s">
+        <v>2532</v>
+      </c>
+      <c r="EY28">
+        <v>1</v>
+      </c>
+      <c r="FA28" t="s">
+        <v>2568</v>
+      </c>
+      <c r="FC28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -13383,8 +17204,59 @@
       <c r="CS29" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU29">
+        <v>1</v>
+      </c>
+      <c r="CW29" t="s">
+        <v>2190</v>
+      </c>
+      <c r="CY29">
+        <v>1</v>
+      </c>
+      <c r="DA29" t="s">
+        <v>2218</v>
+      </c>
+      <c r="DC29">
+        <v>1</v>
+      </c>
+      <c r="DE29" t="s">
+        <v>2250</v>
+      </c>
+      <c r="DG29">
+        <v>1</v>
+      </c>
+      <c r="DM29" t="s">
+        <v>2307</v>
+      </c>
+      <c r="DO29">
+        <v>1</v>
+      </c>
+      <c r="EG29" t="s">
+        <v>2426</v>
+      </c>
+      <c r="EI29">
+        <v>1</v>
+      </c>
+      <c r="EK29" t="s">
+        <v>2459</v>
+      </c>
+      <c r="EM29">
+        <v>1</v>
+      </c>
+      <c r="EW29" t="s">
+        <v>2533</v>
+      </c>
+      <c r="EY29">
+        <v>1</v>
+      </c>
+      <c r="FA29" t="s">
+        <v>2569</v>
+      </c>
+      <c r="FC29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -13511,8 +17383,53 @@
       <c r="CS30" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU30">
+        <v>1</v>
+      </c>
+      <c r="DA30" t="s">
+        <v>2219</v>
+      </c>
+      <c r="DC30">
+        <v>1</v>
+      </c>
+      <c r="DE30" t="s">
+        <v>2251</v>
+      </c>
+      <c r="DG30">
+        <v>1</v>
+      </c>
+      <c r="DM30" t="s">
+        <v>2308</v>
+      </c>
+      <c r="DO30">
+        <v>1</v>
+      </c>
+      <c r="EG30" t="s">
+        <v>2427</v>
+      </c>
+      <c r="EI30">
+        <v>1</v>
+      </c>
+      <c r="EK30" t="s">
+        <v>2460</v>
+      </c>
+      <c r="EM30">
+        <v>1</v>
+      </c>
+      <c r="EW30" t="s">
+        <v>2534</v>
+      </c>
+      <c r="EY30">
+        <v>1</v>
+      </c>
+      <c r="FA30" t="s">
+        <v>2570</v>
+      </c>
+      <c r="FC30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -13639,8 +17556,53 @@
       <c r="CS31" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU31">
+        <v>1</v>
+      </c>
+      <c r="DA31" t="s">
+        <v>2220</v>
+      </c>
+      <c r="DC31">
+        <v>1</v>
+      </c>
+      <c r="DE31" t="s">
+        <v>2252</v>
+      </c>
+      <c r="DG31">
+        <v>1</v>
+      </c>
+      <c r="DM31" t="s">
+        <v>2309</v>
+      </c>
+      <c r="DO31">
+        <v>1</v>
+      </c>
+      <c r="EG31" t="s">
+        <v>2428</v>
+      </c>
+      <c r="EI31">
+        <v>1</v>
+      </c>
+      <c r="EK31" t="s">
+        <v>2461</v>
+      </c>
+      <c r="EM31">
+        <v>1</v>
+      </c>
+      <c r="EW31" t="s">
+        <v>2535</v>
+      </c>
+      <c r="EY31">
+        <v>1</v>
+      </c>
+      <c r="FA31" t="s">
+        <v>2571</v>
+      </c>
+      <c r="FC31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -13764,8 +17726,47 @@
       <c r="CS32" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU32">
+        <v>1</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>2253</v>
+      </c>
+      <c r="DG32">
+        <v>1</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>2310</v>
+      </c>
+      <c r="DO32">
+        <v>1</v>
+      </c>
+      <c r="EG32" t="s">
+        <v>2429</v>
+      </c>
+      <c r="EI32">
+        <v>1</v>
+      </c>
+      <c r="EK32" t="s">
+        <v>2462</v>
+      </c>
+      <c r="EM32">
+        <v>1</v>
+      </c>
+      <c r="EW32" t="s">
+        <v>2536</v>
+      </c>
+      <c r="EY32">
+        <v>1</v>
+      </c>
+      <c r="FA32" t="s">
+        <v>2572</v>
+      </c>
+      <c r="FC32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -13889,8 +17890,41 @@
       <c r="CS33" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU33">
+        <v>1</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>2254</v>
+      </c>
+      <c r="DG33">
+        <v>1</v>
+      </c>
+      <c r="DM33" t="s">
+        <v>2311</v>
+      </c>
+      <c r="DO33">
+        <v>1</v>
+      </c>
+      <c r="EG33" t="s">
+        <v>2430</v>
+      </c>
+      <c r="EI33">
+        <v>1</v>
+      </c>
+      <c r="EW33" t="s">
+        <v>2537</v>
+      </c>
+      <c r="EY33">
+        <v>1</v>
+      </c>
+      <c r="FA33" t="s">
+        <v>2573</v>
+      </c>
+      <c r="FC33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -14008,8 +18042,41 @@
       <c r="CS34" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU34">
+        <v>1</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>2255</v>
+      </c>
+      <c r="DG34">
+        <v>1</v>
+      </c>
+      <c r="DM34" t="s">
+        <v>2312</v>
+      </c>
+      <c r="DO34">
+        <v>1</v>
+      </c>
+      <c r="EG34" t="s">
+        <v>2431</v>
+      </c>
+      <c r="EI34">
+        <v>1</v>
+      </c>
+      <c r="EW34" t="s">
+        <v>2538</v>
+      </c>
+      <c r="EY34">
+        <v>1</v>
+      </c>
+      <c r="FA34" t="s">
+        <v>2574</v>
+      </c>
+      <c r="FC34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -14127,8 +18194,29 @@
       <c r="CS35" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU35">
+        <v>1</v>
+      </c>
+      <c r="DM35" t="s">
+        <v>2313</v>
+      </c>
+      <c r="DO35">
+        <v>1</v>
+      </c>
+      <c r="EW35" t="s">
+        <v>2539</v>
+      </c>
+      <c r="EY35">
+        <v>1</v>
+      </c>
+      <c r="FA35" t="s">
+        <v>2575</v>
+      </c>
+      <c r="FC35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
@@ -14243,8 +18331,23 @@
       <c r="CS36" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU36">
+        <v>1</v>
+      </c>
+      <c r="EW36" t="s">
+        <v>2540</v>
+      </c>
+      <c r="EY36">
+        <v>1</v>
+      </c>
+      <c r="FA36" t="s">
+        <v>2576</v>
+      </c>
+      <c r="FC36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -14353,8 +18456,23 @@
       <c r="CS37" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU37">
+        <v>1</v>
+      </c>
+      <c r="EW37" t="s">
+        <v>2541</v>
+      </c>
+      <c r="EY37">
+        <v>1</v>
+      </c>
+      <c r="FA37" t="s">
+        <v>2577</v>
+      </c>
+      <c r="FC37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
@@ -14463,8 +18581,17 @@
       <c r="CS38" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU38">
+        <v>1</v>
+      </c>
+      <c r="FA38" t="s">
+        <v>2578</v>
+      </c>
+      <c r="FC38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -14573,8 +18700,17 @@
       <c r="CS39" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU39">
+        <v>1</v>
+      </c>
+      <c r="FA39" t="s">
+        <v>2579</v>
+      </c>
+      <c r="FC39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -14680,8 +18816,17 @@
       <c r="CS40" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU40">
+        <v>1</v>
+      </c>
+      <c r="FA40" t="s">
+        <v>2580</v>
+      </c>
+      <c r="FC40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>73</v>
       </c>
@@ -14790,8 +18935,11 @@
       <c r="CS41" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>75</v>
       </c>
@@ -14900,8 +19048,11 @@
       <c r="CS42" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -15007,8 +19158,11 @@
       <c r="CS43" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -15114,8 +19268,11 @@
       <c r="CS44" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
@@ -15224,8 +19381,11 @@
       <c r="CS45" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -15331,8 +19491,11 @@
       <c r="CS46" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -15438,8 +19601,11 @@
       <c r="CS47" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -15545,8 +19711,11 @@
       <c r="CS48" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="49" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -15640,8 +19809,11 @@
       <c r="CS49" t="s">
         <v>1949</v>
       </c>
-    </row>
-    <row r="50" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>91</v>
       </c>
@@ -15735,8 +19907,11 @@
       <c r="CS50" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>381</v>
       </c>
@@ -15830,8 +20005,11 @@
       <c r="CS51" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="52" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -15916,8 +20094,11 @@
       <c r="CS52" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="53" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -16002,8 +20183,11 @@
       <c r="CS53" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="54" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:99" x14ac:dyDescent="0.25">
       <c r="BI54" s="2" t="s">
         <v>958</v>
       </c>
@@ -16076,8 +20260,11 @@
       <c r="CS54" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="55" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:99" x14ac:dyDescent="0.25">
       <c r="BI55" s="2" t="s">
         <v>960</v>
       </c>
@@ -16150,8 +20337,11 @@
       <c r="CS55" t="s">
         <v>1955</v>
       </c>
-    </row>
-    <row r="56" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:99" x14ac:dyDescent="0.25">
       <c r="BQ56" s="2" t="s">
         <v>959</v>
       </c>
@@ -16212,8 +20402,11 @@
       <c r="CS56" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="57" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:99" x14ac:dyDescent="0.25">
       <c r="BU57" s="2" t="s">
         <v>951</v>
       </c>
@@ -16262,8 +20455,11 @@
       <c r="CS57" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="58" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:99" x14ac:dyDescent="0.25">
       <c r="CC58" t="s">
         <v>1398</v>
       </c>
@@ -16300,8 +20496,11 @@
       <c r="CS58" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="59" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:99" x14ac:dyDescent="0.25">
       <c r="CC59" t="s">
         <v>1319</v>
       </c>
@@ -16338,8 +20537,11 @@
       <c r="CS59" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="60" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:99" x14ac:dyDescent="0.25">
       <c r="CC60" t="s">
         <v>1320</v>
       </c>
@@ -16376,8 +20578,11 @@
       <c r="CS60" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="61" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:99" x14ac:dyDescent="0.25">
       <c r="CC61" t="s">
         <v>1399</v>
       </c>
@@ -16414,8 +20619,11 @@
       <c r="CS61" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="62" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:99" x14ac:dyDescent="0.25">
       <c r="CC62" t="s">
         <v>1263</v>
       </c>
@@ -16452,8 +20660,11 @@
       <c r="CS62" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="63" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:99" x14ac:dyDescent="0.25">
       <c r="CC63" t="s">
         <v>1266</v>
       </c>
@@ -16490,8 +20701,11 @@
       <c r="CS63" t="s">
         <v>1963</v>
       </c>
-    </row>
-    <row r="64" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CU63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:99" x14ac:dyDescent="0.25">
       <c r="CC64" t="s">
         <v>1401</v>
       </c>
@@ -16528,8 +20742,11 @@
       <c r="CS64" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="65" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC65" t="s">
         <v>1342</v>
       </c>
@@ -16566,8 +20783,11 @@
       <c r="CS65" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="66" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC66" t="s">
         <v>1291</v>
       </c>
@@ -16604,8 +20824,11 @@
       <c r="CS66" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="67" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC67" t="s">
         <v>1292</v>
       </c>
@@ -16642,8 +20865,11 @@
       <c r="CS67" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="68" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC68" t="s">
         <v>1403</v>
       </c>
@@ -16680,8 +20906,11 @@
       <c r="CS68" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="69" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC69" t="s">
         <v>1251</v>
       </c>
@@ -16718,8 +20947,11 @@
       <c r="CS69" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="70" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC70" t="s">
         <v>1252</v>
       </c>
@@ -16756,8 +20988,11 @@
       <c r="CS70" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="71" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC71" t="s">
         <v>1404</v>
       </c>
@@ -16794,8 +21029,11 @@
       <c r="CS71" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="72" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC72" t="s">
         <v>1351</v>
       </c>
@@ -16832,8 +21070,11 @@
       <c r="CS72" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="73" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC73" t="s">
         <v>1352</v>
       </c>
@@ -16870,8 +21111,11 @@
       <c r="CS73" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="74" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC74" t="s">
         <v>1406</v>
       </c>
@@ -16908,8 +21152,11 @@
       <c r="CS74" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="75" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC75" t="s">
         <v>1408</v>
       </c>
@@ -16946,8 +21193,11 @@
       <c r="CS75" t="s">
         <v>1975</v>
       </c>
-    </row>
-    <row r="76" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC76" t="s">
         <v>1353</v>
       </c>
@@ -16984,8 +21234,11 @@
       <c r="CS76" t="s">
         <v>1976</v>
       </c>
-    </row>
-    <row r="77" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC77" t="s">
         <v>1354</v>
       </c>
@@ -17022,8 +21275,11 @@
       <c r="CS77" t="s">
         <v>1977</v>
       </c>
-    </row>
-    <row r="78" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC78" t="s">
         <v>1409</v>
       </c>
@@ -17060,8 +21316,11 @@
       <c r="CS78" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="79" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC79" t="s">
         <v>1267</v>
       </c>
@@ -17098,8 +21357,11 @@
       <c r="CS79" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="80" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC80" s="2" t="s">
         <v>1270</v>
       </c>
@@ -17139,8 +21401,11 @@
       <c r="CS80" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="81" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC81" s="2" t="s">
         <v>1355</v>
       </c>
@@ -17180,8 +21445,11 @@
       <c r="CS81" t="s">
         <v>1981</v>
       </c>
-    </row>
-    <row r="82" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC82" s="2" t="s">
         <v>1356</v>
       </c>
@@ -17221,8 +21489,11 @@
       <c r="CS82" t="s">
         <v>1982</v>
       </c>
-    </row>
-    <row r="83" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC83" s="2" t="s">
         <v>1295</v>
       </c>
@@ -17262,8 +21533,11 @@
       <c r="CS83" t="s">
         <v>1983</v>
       </c>
-    </row>
-    <row r="84" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC84" s="2" t="s">
         <v>1296</v>
       </c>
@@ -17303,8 +21577,11 @@
       <c r="CS84" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="85" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC85" s="2" t="s">
         <v>1357</v>
       </c>
@@ -17344,8 +21621,11 @@
       <c r="CS85" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="86" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC86" s="2" t="s">
         <v>1257</v>
       </c>
@@ -17385,8 +21665,11 @@
       <c r="CS86" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="87" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC87" s="2" t="s">
         <v>1258</v>
       </c>
@@ -17426,8 +21709,11 @@
       <c r="CS87" t="s">
         <v>1987</v>
       </c>
-    </row>
-    <row r="88" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC88" s="2" t="s">
         <v>1359</v>
       </c>
@@ -17467,8 +21753,11 @@
       <c r="CS88" t="s">
         <v>1988</v>
       </c>
-    </row>
-    <row r="89" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC89" s="2" t="s">
         <v>1309</v>
       </c>
@@ -17508,8 +21797,11 @@
       <c r="CS89" t="s">
         <v>1989</v>
       </c>
-    </row>
-    <row r="90" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC90" s="2" t="s">
         <v>1310</v>
       </c>
@@ -17549,8 +21841,11 @@
       <c r="CS90" t="s">
         <v>1990</v>
       </c>
-    </row>
-    <row r="91" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC91" s="2" t="s">
         <v>1360</v>
       </c>
@@ -17590,8 +21885,11 @@
       <c r="CS91" t="s">
         <v>1991</v>
       </c>
-    </row>
-    <row r="92" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC92" s="2" t="s">
         <v>1271</v>
       </c>
@@ -17631,8 +21929,11 @@
       <c r="CS92" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="93" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC93" s="2" t="s">
         <v>1272</v>
       </c>
@@ -17672,8 +21973,11 @@
       <c r="CS93" t="s">
         <v>1993</v>
       </c>
-    </row>
-    <row r="94" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC94" s="2" t="s">
         <v>1361</v>
       </c>
@@ -17713,8 +22017,11 @@
       <c r="CS94" t="s">
         <v>1994</v>
       </c>
-    </row>
-    <row r="95" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC95" s="2" t="s">
         <v>1311</v>
       </c>
@@ -17754,8 +22061,11 @@
       <c r="CS95" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="96" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC96" s="2" t="s">
         <v>1312</v>
       </c>
@@ -17795,8 +22105,11 @@
       <c r="CS96" t="s">
         <v>1996</v>
       </c>
-    </row>
-    <row r="97" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC97" s="2" t="s">
         <v>1298</v>
       </c>
@@ -17836,8 +22149,11 @@
       <c r="CS97" t="s">
         <v>1997</v>
       </c>
-    </row>
-    <row r="98" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC98" s="2" t="s">
         <v>1244</v>
       </c>
@@ -17877,8 +22193,11 @@
       <c r="CS98" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="99" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC99" s="2" t="s">
         <v>1365</v>
       </c>
@@ -17918,8 +22237,11 @@
       <c r="CS99" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="100" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC100" s="2" t="s">
         <v>1245</v>
       </c>
@@ -17959,8 +22281,11 @@
       <c r="CS100" t="s">
         <v>2000</v>
       </c>
-    </row>
-    <row r="101" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC101" s="2" t="s">
         <v>1246</v>
       </c>
@@ -18000,8 +22325,11 @@
       <c r="CS101" t="s">
         <v>2001</v>
       </c>
-    </row>
-    <row r="102" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC102" s="2" t="s">
         <v>1336</v>
       </c>
@@ -18041,8 +22369,11 @@
       <c r="CS102" t="s">
         <v>2002</v>
       </c>
-    </row>
-    <row r="103" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC103" s="2" t="s">
         <v>1369</v>
       </c>
@@ -18082,8 +22413,11 @@
       <c r="CS103" t="s">
         <v>2003</v>
       </c>
-    </row>
-    <row r="104" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC104" s="2" t="s">
         <v>1326</v>
       </c>
@@ -18123,8 +22457,11 @@
       <c r="CS104" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="105" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC105" s="2" t="s">
         <v>1370</v>
       </c>
@@ -18164,8 +22501,11 @@
       <c r="CS105" t="s">
         <v>2005</v>
       </c>
-    </row>
-    <row r="106" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC106" s="2" t="s">
         <v>1314</v>
       </c>
@@ -18205,8 +22545,11 @@
       <c r="CS106" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="107" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC107" s="2" t="s">
         <v>1371</v>
       </c>
@@ -18246,8 +22589,11 @@
       <c r="CS107" t="s">
         <v>2007</v>
       </c>
-    </row>
-    <row r="108" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC108" s="2" t="s">
         <v>1275</v>
       </c>
@@ -18287,8 +22633,11 @@
       <c r="CS108" t="s">
         <v>2008</v>
       </c>
-    </row>
-    <row r="109" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC109" s="2" t="s">
         <v>1372</v>
       </c>
@@ -18328,8 +22677,11 @@
       <c r="CS109" t="s">
         <v>2009</v>
       </c>
-    </row>
-    <row r="110" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC110" s="2" t="s">
         <v>1327</v>
       </c>
@@ -18369,8 +22721,11 @@
       <c r="CS110" t="s">
         <v>2010</v>
       </c>
-    </row>
-    <row r="111" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC111" s="2" t="s">
         <v>1328</v>
       </c>
@@ -18404,8 +22759,11 @@
       <c r="CS111" t="s">
         <v>2011</v>
       </c>
-    </row>
-    <row r="112" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC112" s="2" t="s">
         <v>1373</v>
       </c>
@@ -18439,8 +22797,11 @@
       <c r="CS112" t="s">
         <v>2012</v>
       </c>
-    </row>
-    <row r="113" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC113" s="2" t="s">
         <v>1315</v>
       </c>
@@ -18474,8 +22835,11 @@
       <c r="CS113" t="s">
         <v>2013</v>
       </c>
-    </row>
-    <row r="114" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC114" s="2" t="s">
         <v>1374</v>
       </c>
@@ -18509,8 +22873,11 @@
       <c r="CS114" t="s">
         <v>2014</v>
       </c>
-    </row>
-    <row r="115" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC115" s="2" t="s">
         <v>1375</v>
       </c>
@@ -18544,8 +22911,11 @@
       <c r="CS115" t="s">
         <v>2015</v>
       </c>
-    </row>
-    <row r="116" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC116" s="2" t="s">
         <v>1300</v>
       </c>
@@ -18579,8 +22949,11 @@
       <c r="CS116" t="s">
         <v>2016</v>
       </c>
-    </row>
-    <row r="117" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC117" s="2" t="s">
         <v>1376</v>
       </c>
@@ -18614,8 +22987,11 @@
       <c r="CS117" t="s">
         <v>2017</v>
       </c>
-    </row>
-    <row r="118" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC118" s="2" t="s">
         <v>1301</v>
       </c>
@@ -18649,8 +23025,11 @@
       <c r="CS118" t="s">
         <v>2018</v>
       </c>
-    </row>
-    <row r="119" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC119" s="2" t="s">
         <v>1277</v>
       </c>
@@ -18684,8 +23063,11 @@
       <c r="CS119" t="s">
         <v>2019</v>
       </c>
-    </row>
-    <row r="120" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC120" s="2" t="s">
         <v>1278</v>
       </c>
@@ -18719,8 +23101,11 @@
       <c r="CS120" t="s">
         <v>2020</v>
       </c>
-    </row>
-    <row r="121" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC121" s="2" t="s">
         <v>1378</v>
       </c>
@@ -18754,8 +23139,11 @@
       <c r="CS121" t="s">
         <v>2021</v>
       </c>
-    </row>
-    <row r="122" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC122" s="2" t="s">
         <v>1318</v>
       </c>
@@ -18789,8 +23177,11 @@
       <c r="CS122" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="123" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC123" s="2" t="s">
         <v>1279</v>
       </c>
@@ -18824,8 +23215,11 @@
       <c r="CS123" t="s">
         <v>2023</v>
       </c>
-    </row>
-    <row r="124" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC124" s="2" t="s">
         <v>1280</v>
       </c>
@@ -18859,8 +23253,11 @@
       <c r="CS124" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="125" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC125" s="2" t="s">
         <v>1381</v>
       </c>
@@ -18894,8 +23291,11 @@
       <c r="CS125" t="s">
         <v>2025</v>
       </c>
-    </row>
-    <row r="126" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC126" s="2" t="s">
         <v>1331</v>
       </c>
@@ -18920,8 +23320,11 @@
       <c r="CS126" t="s">
         <v>2026</v>
       </c>
-    </row>
-    <row r="127" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC127" s="2" t="s">
         <v>1332</v>
       </c>
@@ -18946,8 +23349,11 @@
       <c r="CS127" t="s">
         <v>2027</v>
       </c>
-    </row>
-    <row r="128" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC128" s="2" t="s">
         <v>1259</v>
       </c>
@@ -18972,8 +23378,11 @@
       <c r="CS128" t="s">
         <v>2028</v>
       </c>
-    </row>
-    <row r="129" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC129" s="2" t="s">
         <v>1260</v>
       </c>
@@ -18998,8 +23407,11 @@
       <c r="CS129" t="s">
         <v>2029</v>
       </c>
-    </row>
-    <row r="130" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC130" s="2" t="s">
         <v>1383</v>
       </c>
@@ -19024,8 +23436,11 @@
       <c r="CS130" t="s">
         <v>2030</v>
       </c>
-    </row>
-    <row r="131" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC131" s="2" t="s">
         <v>1338</v>
       </c>
@@ -19050,8 +23465,11 @@
       <c r="CS131" t="s">
         <v>2031</v>
       </c>
-    </row>
-    <row r="132" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC132" s="2" t="s">
         <v>1303</v>
       </c>
@@ -19076,8 +23494,11 @@
       <c r="CS132" t="s">
         <v>2032</v>
       </c>
-    </row>
-    <row r="133" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC133" s="2" t="s">
         <v>1385</v>
       </c>
@@ -19102,8 +23523,11 @@
       <c r="CS133" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="134" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC134" s="2" t="s">
         <v>1387</v>
       </c>
@@ -19128,8 +23552,11 @@
       <c r="CS134" t="s">
         <v>2034</v>
       </c>
-    </row>
-    <row r="135" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC135" s="2" t="s">
         <v>1282</v>
       </c>
@@ -19154,8 +23581,11 @@
       <c r="CS135" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="136" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC136" s="2" t="s">
         <v>1388</v>
       </c>
@@ -19180,8 +23610,11 @@
       <c r="CS136" t="s">
         <v>2036</v>
       </c>
-    </row>
-    <row r="137" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC137" s="2" t="s">
         <v>1247</v>
       </c>
@@ -19206,8 +23639,11 @@
       <c r="CS137" t="s">
         <v>2037</v>
       </c>
-    </row>
-    <row r="138" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC138" s="2" t="s">
         <v>1248</v>
       </c>
@@ -19232,8 +23668,11 @@
       <c r="CS138" t="s">
         <v>2038</v>
       </c>
-    </row>
-    <row r="139" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC139" s="2" t="s">
         <v>1333</v>
       </c>
@@ -19258,8 +23697,11 @@
       <c r="CS139" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="140" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC140" s="2" t="s">
         <v>1334</v>
       </c>
@@ -19284,8 +23726,11 @@
       <c r="CS140" t="s">
         <v>2040</v>
       </c>
-    </row>
-    <row r="141" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC141" s="2" t="s">
         <v>1391</v>
       </c>
@@ -19310,8 +23755,11 @@
       <c r="CS141" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="142" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC142" s="2" t="s">
         <v>1261</v>
       </c>
@@ -19336,8 +23784,11 @@
       <c r="CS142" t="s">
         <v>2042</v>
       </c>
-    </row>
-    <row r="143" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC143" s="2" t="s">
         <v>1262</v>
       </c>
@@ -19362,8 +23813,11 @@
       <c r="CS143" t="s">
         <v>2043</v>
       </c>
-    </row>
-    <row r="144" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC144" s="2" t="s">
         <v>1392</v>
       </c>
@@ -19388,8 +23842,11 @@
       <c r="CS144" t="s">
         <v>2044</v>
       </c>
-    </row>
-    <row r="145" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC145" s="2" t="s">
         <v>1393</v>
       </c>
@@ -19414,8 +23871,11 @@
       <c r="CS145" t="s">
         <v>2045</v>
       </c>
-    </row>
-    <row r="146" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC146" s="2" t="s">
         <v>1285</v>
       </c>
@@ -19440,8 +23900,11 @@
       <c r="CS146" t="s">
         <v>2046</v>
       </c>
-    </row>
-    <row r="147" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC147" s="2" t="s">
         <v>1286</v>
       </c>
@@ -19466,8 +23929,11 @@
       <c r="CS147" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="148" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC148" s="2" t="s">
         <v>1394</v>
       </c>
@@ -19492,8 +23958,11 @@
       <c r="CS148" t="s">
         <v>2048</v>
       </c>
-    </row>
-    <row r="149" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC149" s="2" t="s">
         <v>1288</v>
       </c>
@@ -19518,8 +23987,11 @@
       <c r="CS149" t="s">
         <v>2049</v>
       </c>
-    </row>
-    <row r="150" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC150" s="2" t="s">
         <v>1290</v>
       </c>
@@ -19544,8 +24016,11 @@
       <c r="CS150" t="s">
         <v>2050</v>
       </c>
-    </row>
-    <row r="151" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC151" s="2" t="s">
         <v>1396</v>
       </c>
@@ -19570,8 +24045,11 @@
       <c r="CS151" t="s">
         <v>2051</v>
       </c>
-    </row>
-    <row r="152" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC152" s="2" t="s">
         <v>1249</v>
       </c>
@@ -19596,8 +24074,11 @@
       <c r="CS152" t="s">
         <v>2052</v>
       </c>
-    </row>
-    <row r="153" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC153" s="2" t="s">
         <v>1250</v>
       </c>
@@ -19622,8 +24103,11 @@
       <c r="CS153" t="s">
         <v>2053</v>
       </c>
-    </row>
-    <row r="154" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC154" s="2" t="s">
         <v>1397</v>
       </c>
@@ -19648,8 +24132,11 @@
       <c r="CS154" t="s">
         <v>2054</v>
       </c>
-    </row>
-    <row r="155" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC155" s="2" t="s">
         <v>1264</v>
       </c>
@@ -19674,8 +24161,11 @@
       <c r="CS155" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="156" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC156" s="2" t="s">
         <v>1400</v>
       </c>
@@ -19700,8 +24190,11 @@
       <c r="CS156" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="157" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC157" s="2" t="s">
         <v>1265</v>
       </c>
@@ -19726,8 +24219,11 @@
       <c r="CS157" t="s">
         <v>2057</v>
       </c>
-    </row>
-    <row r="158" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC158" s="2" t="s">
         <v>1341</v>
       </c>
@@ -19752,8 +24248,11 @@
       <c r="CS158" t="s">
         <v>2058</v>
       </c>
-    </row>
-    <row r="159" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC159" s="2" t="s">
         <v>1402</v>
       </c>
@@ -19778,8 +24277,11 @@
       <c r="CS159" t="s">
         <v>2059</v>
       </c>
-    </row>
-    <row r="160" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC160" s="2" t="s">
         <v>1253</v>
       </c>
@@ -19798,8 +24300,11 @@
       <c r="CS160" t="s">
         <v>2060</v>
       </c>
-    </row>
-    <row r="161" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC161" s="2" t="s">
         <v>1254</v>
       </c>
@@ -19818,8 +24323,11 @@
       <c r="CS161" t="s">
         <v>2061</v>
       </c>
-    </row>
-    <row r="162" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC162" s="2" t="s">
         <v>1405</v>
       </c>
@@ -19838,8 +24346,11 @@
       <c r="CS162" t="s">
         <v>2062</v>
       </c>
-    </row>
-    <row r="163" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC163" s="2" t="s">
         <v>1293</v>
       </c>
@@ -19858,8 +24369,11 @@
       <c r="CS163" t="s">
         <v>2063</v>
       </c>
-    </row>
-    <row r="164" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC164" s="2" t="s">
         <v>1294</v>
       </c>
@@ -19878,8 +24392,11 @@
       <c r="CS164" t="s">
         <v>2064</v>
       </c>
-    </row>
-    <row r="165" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC165" s="2" t="s">
         <v>1407</v>
       </c>
@@ -19898,8 +24415,11 @@
       <c r="CS165" t="s">
         <v>2065</v>
       </c>
-    </row>
-    <row r="166" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC166" s="2" t="s">
         <v>1255</v>
       </c>
@@ -19918,8 +24438,11 @@
       <c r="CS166" t="s">
         <v>2066</v>
       </c>
-    </row>
-    <row r="167" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC167" s="2" t="s">
         <v>1256</v>
       </c>
@@ -19938,8 +24461,11 @@
       <c r="CS167" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="168" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC168" s="2" t="s">
         <v>1268</v>
       </c>
@@ -19958,8 +24484,11 @@
       <c r="CS168" t="s">
         <v>2068</v>
       </c>
-    </row>
-    <row r="169" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CC169" s="2" t="s">
         <v>1410</v>
       </c>
@@ -19978,460 +24507,736 @@
       <c r="CS169" t="s">
         <v>2069</v>
       </c>
-    </row>
-    <row r="170" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CS170" t="s">
         <v>2070</v>
       </c>
-    </row>
-    <row r="171" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CS171" t="s">
         <v>2071</v>
       </c>
-    </row>
-    <row r="172" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CS172" t="s">
         <v>2072</v>
       </c>
-    </row>
-    <row r="173" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CS173" t="s">
         <v>2073</v>
       </c>
-    </row>
-    <row r="174" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CS174" t="s">
         <v>2074</v>
       </c>
-    </row>
-    <row r="175" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CS175" t="s">
         <v>2075</v>
       </c>
-    </row>
-    <row r="176" spans="81:97" x14ac:dyDescent="0.25">
+      <c r="CU175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="81:99" x14ac:dyDescent="0.25">
       <c r="CS176" t="s">
         <v>2076</v>
       </c>
-    </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS177" t="s">
         <v>2077</v>
       </c>
-    </row>
-    <row r="178" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS178" t="s">
         <v>2078</v>
       </c>
-    </row>
-    <row r="179" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS179" t="s">
         <v>2079</v>
       </c>
-    </row>
-    <row r="180" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS180" t="s">
         <v>2080</v>
       </c>
-    </row>
-    <row r="181" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS181" t="s">
         <v>2081</v>
       </c>
-    </row>
-    <row r="182" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS182" t="s">
         <v>2082</v>
       </c>
-    </row>
-    <row r="183" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS183" t="s">
         <v>2083</v>
       </c>
-    </row>
-    <row r="184" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS184" t="s">
         <v>2084</v>
       </c>
-    </row>
-    <row r="185" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS185" t="s">
         <v>2085</v>
       </c>
-    </row>
-    <row r="186" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS186" t="s">
         <v>2086</v>
       </c>
-    </row>
-    <row r="187" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS187" t="s">
         <v>2087</v>
       </c>
-    </row>
-    <row r="188" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS188" t="s">
         <v>2088</v>
       </c>
-    </row>
-    <row r="189" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS189" t="s">
         <v>2089</v>
       </c>
-    </row>
-    <row r="190" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS190" t="s">
         <v>2090</v>
       </c>
-    </row>
-    <row r="191" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS191" t="s">
         <v>2091</v>
       </c>
-    </row>
-    <row r="192" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS192" t="s">
         <v>2092</v>
       </c>
-    </row>
-    <row r="193" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS193" t="s">
         <v>2093</v>
       </c>
-    </row>
-    <row r="194" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS194" t="s">
         <v>2094</v>
       </c>
-    </row>
-    <row r="195" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS195" t="s">
         <v>2095</v>
       </c>
-    </row>
-    <row r="196" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS196" t="s">
         <v>2096</v>
       </c>
-    </row>
-    <row r="197" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS197" t="s">
         <v>2097</v>
       </c>
-    </row>
-    <row r="198" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS198" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="199" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS199" t="s">
         <v>2099</v>
       </c>
-    </row>
-    <row r="200" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS200" t="s">
         <v>2100</v>
       </c>
-    </row>
-    <row r="201" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS201" t="s">
         <v>2101</v>
       </c>
-    </row>
-    <row r="202" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS202" t="s">
         <v>2102</v>
       </c>
-    </row>
-    <row r="203" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS203" t="s">
         <v>2103</v>
       </c>
-    </row>
-    <row r="204" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS204" t="s">
         <v>2104</v>
       </c>
-    </row>
-    <row r="205" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS205" t="s">
         <v>2105</v>
       </c>
-    </row>
-    <row r="206" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS206" t="s">
         <v>2106</v>
       </c>
-    </row>
-    <row r="207" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS207" t="s">
         <v>2107</v>
       </c>
-    </row>
-    <row r="208" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS208" t="s">
         <v>2108</v>
       </c>
-    </row>
-    <row r="209" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS209" t="s">
         <v>2109</v>
       </c>
-    </row>
-    <row r="210" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS210" t="s">
         <v>2110</v>
       </c>
-    </row>
-    <row r="211" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS211" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="212" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS212" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="213" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS213" t="s">
         <v>2113</v>
       </c>
-    </row>
-    <row r="214" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS214" t="s">
         <v>2114</v>
       </c>
-    </row>
-    <row r="215" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS215" t="s">
         <v>2115</v>
       </c>
-    </row>
-    <row r="216" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS216" t="s">
         <v>2116</v>
       </c>
-    </row>
-    <row r="217" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS217" t="s">
         <v>2117</v>
       </c>
-    </row>
-    <row r="218" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS218" t="s">
         <v>2118</v>
       </c>
-    </row>
-    <row r="219" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS219" t="s">
         <v>2119</v>
       </c>
-    </row>
-    <row r="220" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS220" t="s">
         <v>2120</v>
       </c>
-    </row>
-    <row r="221" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS221" t="s">
         <v>2121</v>
       </c>
-    </row>
-    <row r="222" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS222" t="s">
         <v>2122</v>
       </c>
-    </row>
-    <row r="223" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS223" t="s">
         <v>2123</v>
       </c>
-    </row>
-    <row r="224" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS224" t="s">
         <v>2124</v>
       </c>
-    </row>
-    <row r="225" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS225" t="s">
         <v>2125</v>
       </c>
-    </row>
-    <row r="226" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS226" t="s">
         <v>2126</v>
       </c>
-    </row>
-    <row r="227" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS227" t="s">
         <v>2127</v>
       </c>
-    </row>
-    <row r="228" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS228" t="s">
         <v>2128</v>
       </c>
-    </row>
-    <row r="229" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS229" t="s">
         <v>2129</v>
       </c>
-    </row>
-    <row r="230" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS230" t="s">
         <v>2130</v>
       </c>
-    </row>
-    <row r="231" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS231" t="s">
         <v>2131</v>
       </c>
-    </row>
-    <row r="232" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS232" t="s">
         <v>2132</v>
       </c>
-    </row>
-    <row r="233" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS233" t="s">
         <v>2133</v>
       </c>
-    </row>
-    <row r="234" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS234" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="235" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS235" t="s">
         <v>2135</v>
       </c>
-    </row>
-    <row r="236" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS236" t="s">
         <v>2136</v>
       </c>
-    </row>
-    <row r="237" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS237" t="s">
         <v>2137</v>
       </c>
-    </row>
-    <row r="238" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS238" t="s">
         <v>2138</v>
       </c>
-    </row>
-    <row r="239" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS239" t="s">
         <v>2139</v>
       </c>
-    </row>
-    <row r="240" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS240" t="s">
         <v>2140</v>
       </c>
-    </row>
-    <row r="241" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS241" t="s">
         <v>2141</v>
       </c>
-    </row>
-    <row r="242" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS242" t="s">
         <v>2142</v>
       </c>
-    </row>
-    <row r="243" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS243" t="s">
         <v>2143</v>
       </c>
-    </row>
-    <row r="244" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS244" t="s">
         <v>2144</v>
       </c>
-    </row>
-    <row r="245" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS245" t="s">
         <v>2145</v>
       </c>
-    </row>
-    <row r="246" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS246" t="s">
         <v>2146</v>
       </c>
-    </row>
-    <row r="247" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS247" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="248" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS248" t="s">
         <v>2148</v>
       </c>
-    </row>
-    <row r="249" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS249" t="s">
         <v>2149</v>
       </c>
-    </row>
-    <row r="250" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS250" t="s">
         <v>2150</v>
       </c>
-    </row>
-    <row r="251" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS251" t="s">
         <v>2151</v>
       </c>
-    </row>
-    <row r="252" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS252" t="s">
         <v>2152</v>
       </c>
-    </row>
-    <row r="253" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS253" t="s">
         <v>2153</v>
       </c>
-    </row>
-    <row r="254" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS254" t="s">
         <v>2154</v>
       </c>
-    </row>
-    <row r="255" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS255" t="s">
         <v>2155</v>
       </c>
-    </row>
-    <row r="256" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS256" t="s">
         <v>2156</v>
       </c>
-    </row>
-    <row r="257" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS257" t="s">
         <v>2157</v>
       </c>
-    </row>
-    <row r="258" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS258" t="s">
         <v>2158</v>
       </c>
-    </row>
-    <row r="259" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS259" t="s">
         <v>2159</v>
       </c>
-    </row>
-    <row r="260" spans="97:97" x14ac:dyDescent="0.25">
+      <c r="CU259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="97:99" x14ac:dyDescent="0.25">
       <c r="CS260" t="s">
         <v>2160</v>
+      </c>
+      <c r="CU260">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20439,7 +25244,7 @@
     <sortCondition sortBy="cellColor" ref="BM2:BM48" dxfId="7"/>
     <sortCondition ref="BM2:BM48"/>
   </sortState>
-  <conditionalFormatting sqref="A1:ZZ200">
+  <conditionalFormatting sqref="A2:CT200 CU2:CU260 A1:ZZ1 CV2:ZZ200">
     <cfRule type="containsText" dxfId="6" priority="1" stopIfTrue="1" operator="containsText" text="Tea Leaves">
       <formula>NOT(ISERROR(SEARCH("Tea Leaves",A1)))</formula>
     </cfRule>
